--- a/docs/LogMSR_Demo.xlsx
+++ b/docs/LogMSR_Demo.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="21075" windowHeight="9975"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="21075" windowHeight="9975" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HLMSR" sheetId="6" r:id="rId1"/>
     <sheet name="Changing b mid contract" sheetId="8" r:id="rId2"/>
-    <sheet name="Some Accounting" sheetId="7" r:id="rId3"/>
-    <sheet name="2x2 Update Calculator" sheetId="5" r:id="rId4"/>
+    <sheet name="Insurance Fraud" sheetId="9" r:id="rId3"/>
+    <sheet name="Some Accounting" sheetId="7" r:id="rId4"/>
+    <sheet name="2x2 Update Calculator" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="98">
   <si>
     <t>Final</t>
   </si>
@@ -241,17 +242,90 @@
   <si>
     <t>Multivariate - Increasing b while trading</t>
   </si>
+  <si>
+    <t>Insurance Fraud</t>
+  </si>
+  <si>
+    <t>Assume unit price is 1$, insured facility worth $500.</t>
+  </si>
+  <si>
+    <t>Burn Down?</t>
+  </si>
+  <si>
+    <t>No-Fraud Actuarial Risk</t>
+  </si>
+  <si>
+    <t>Increments</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Ins Profit</t>
+  </si>
+  <si>
+    <t>Buyer</t>
+  </si>
+  <si>
+    <t>Seller</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Owner Cost</t>
+  </si>
+  <si>
+    <t>Note HIGH sensitivity to increments, particularly increments/value ratio</t>
+  </si>
+  <si>
+    <t>Ins</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Market</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Very interesting…converges to $20 (which is 4% * 500) only at high increments</t>
+  </si>
+  <si>
+    <t>capital tie up</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>insurance strategy</t>
+  </si>
+  <si>
+    <t>augmentation</t>
+  </si>
+  <si>
+    <t>include price of arson</t>
+  </si>
+  <si>
+    <t>demand arson protections (or refuse to insure)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="170" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -861,7 +935,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1112,6 +1186,17 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1127,17 +1212,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1272,11 +1367,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110977792"/>
-        <c:axId val="110979328"/>
+        <c:axId val="63996672"/>
+        <c:axId val="63998208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110977792"/>
+        <c:axId val="63996672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1285,7 +1380,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110979328"/>
+        <c:crossAx val="63998208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1293,7 +1388,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110979328"/>
+        <c:axId val="63998208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1304,7 +1399,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110977792"/>
+        <c:crossAx val="63996672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1443,11 +1538,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="113342720"/>
-        <c:axId val="113356800"/>
+        <c:axId val="65763584"/>
+        <c:axId val="65765376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113342720"/>
+        <c:axId val="65763584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1456,7 +1551,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113356800"/>
+        <c:crossAx val="65765376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1464,7 +1559,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113356800"/>
+        <c:axId val="65765376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1475,7 +1570,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113342720"/>
+        <c:crossAx val="65763584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2000,8 +2095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AP59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3655,7 +3750,7 @@
       <c r="AP7" s="7"/>
     </row>
     <row r="8" spans="2:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="183" t="s">
+      <c r="C8" s="178" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="136" t="s">
@@ -3721,7 +3816,7 @@
       <c r="B9" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="184">
+      <c r="C9" s="179">
         <v>2</v>
       </c>
       <c r="D9">
@@ -3795,7 +3890,7 @@
       <c r="B10" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="184">
+      <c r="C10" s="179">
         <v>2</v>
       </c>
       <c r="D10" s="7">
@@ -3868,7 +3963,7 @@
       <c r="B11" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="184">
+      <c r="C11" s="179">
         <v>2</v>
       </c>
       <c r="D11" s="17">
@@ -3912,11 +4007,11 @@
       </c>
       <c r="O11" s="7"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="181" t="s">
+      <c r="R11" s="176" t="s">
         <v>71</v>
       </c>
-      <c r="S11" s="182"/>
-      <c r="T11" s="182"/>
+      <c r="S11" s="177"/>
+      <c r="T11" s="177"/>
       <c r="U11" s="7"/>
       <c r="V11" s="30"/>
       <c r="W11" s="30"/>
@@ -3944,7 +4039,7 @@
       <c r="B12" s="164" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="185">
+      <c r="C12" s="180">
         <v>2</v>
       </c>
       <c r="D12" s="7">
@@ -4021,7 +4116,7 @@
       <c r="B13" s="164" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="185">
+      <c r="C13" s="180">
         <v>5</v>
       </c>
       <c r="D13" s="7">
@@ -4105,7 +4200,7 @@
       <c r="B14" s="164" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="185">
+      <c r="C14" s="180">
         <v>5</v>
       </c>
       <c r="D14" s="7">
@@ -4183,7 +4278,7 @@
       <c r="B15" s="164" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="185">
+      <c r="C15" s="180">
         <v>5</v>
       </c>
       <c r="D15" s="7">
@@ -4257,7 +4352,7 @@
       <c r="B16" s="164" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="185">
+      <c r="C16" s="180">
         <v>5</v>
       </c>
       <c r="D16" s="7">
@@ -4789,6 +4884,2225 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:T87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="Q67" sqref="Q67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q5" s="196" t="s">
+        <v>7</v>
+      </c>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="D6" s="163"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q6" s="135" t="s">
+        <v>77</v>
+      </c>
+      <c r="R6" s="7"/>
+      <c r="S6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="34">
+        <f>COUNTA(E11:F11)</f>
+        <v>2</v>
+      </c>
+      <c r="J7" s="34"/>
+      <c r="K7">
+        <f>I12</f>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="Q7" s="135"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="199">
+        <v>0.04</v>
+      </c>
+      <c r="T7" s="200">
+        <f>1-S7</f>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="135" t="s">
+        <v>79</v>
+      </c>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7">
+        <v>500</v>
+      </c>
+      <c r="T8" s="118"/>
+    </row>
+    <row r="9" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="7"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="Q9" s="143" t="s">
+        <v>78</v>
+      </c>
+      <c r="R9" s="198"/>
+      <c r="S9" s="198">
+        <v>5000</v>
+      </c>
+      <c r="T9" s="120"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="E10" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="69"/>
+      <c r="I10" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="20"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="20"/>
+    </row>
+    <row r="11" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="7"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="90" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="43">
+        <v>0</v>
+      </c>
+      <c r="J11" s="44"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+    </row>
+    <row r="12" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="45">
+        <v>0</v>
+      </c>
+      <c r="F12" s="46">
+        <v>0</v>
+      </c>
+      <c r="G12" s="51">
+        <f>EXP(E12/$T$5)/(EXP($F12/$T$5)+EXP($E12/$T$5))</f>
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="92">
+        <f>EXP(F12/$T$5)/(EXP($F12/$T$5)+EXP($E12/$T$5))</f>
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="95">
+        <f>$T$5*LN(EXP($F12/$T$5)+EXP($E12/$T$5))</f>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="J12" s="186">
+        <f>(I12-I11)</f>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" t="str">
+        <f>IF(D12="Buyer",J12,"")</f>
+        <v/>
+      </c>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="48">
+        <f>S8/S9</f>
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="42">
+        <v>0</v>
+      </c>
+      <c r="G13" s="49">
+        <f>EXP(E13/$T$5)/(EXP($F13/$T$5)+EXP($E13/$T$5))</f>
+        <v>0.52497918747894001</v>
+      </c>
+      <c r="H13" s="93">
+        <f>EXP(F13/$T$5)/(EXP($F13/$T$5)+EXP($E13/$T$5))</f>
+        <v>0.47502081252105999</v>
+      </c>
+      <c r="I13" s="96">
+        <f>$T$5*LN(EXP($F13/$T$5)+EXP($E13/$T$5))</f>
+        <v>0.74439666007357097</v>
+      </c>
+      <c r="J13" s="187">
+        <f>(I13-I12)</f>
+        <v>5.1249479513625684E-2</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="N13" s="201">
+        <f>IF(D13="Buyer",J13,"")</f>
+        <v>5.1249479513625684E-2</v>
+      </c>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="48">
+        <f>IF(MOD(ROW(A14),2)=1,E13+E12,E13)</f>
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="191">
+        <f>IF(MOD(ROW(A14),2)=0,L14,F13)</f>
+        <v>3.2780538303479458</v>
+      </c>
+      <c r="G14" s="49">
+        <f>EXP(E14/$T$5)/(EXP($F14/$T$5)+EXP($E14/$T$5))</f>
+        <v>3.9999999999999994E-2</v>
+      </c>
+      <c r="H14" s="93">
+        <f>EXP(F14/$T$5)/(EXP($F14/$T$5)+EXP($E14/$T$5))</f>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="I14" s="96">
+        <f>$T$5*LN(EXP($F14/$T$5)+EXP($E14/$T$5))</f>
+        <v>3.3188758248682011</v>
+      </c>
+      <c r="J14" s="187">
+        <f>(I14-I13)</f>
+        <v>2.5744791647946301</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="144">
+        <f>$T$5*LN($T$7/$S$7)+E14</f>
+        <v>3.2780538303479458</v>
+      </c>
+      <c r="M14" s="144">
+        <f>IF( D14="Seller",((F14-F13)-J14)*$T$7,"")</f>
+        <v>0.67543167893118305</v>
+      </c>
+      <c r="N14" t="str">
+        <f>IF(D14="Buyer",J14,"")</f>
+        <v/>
+      </c>
+      <c r="P14" s="192"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="194"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="48">
+        <f>IF(MOD(ROW(A15),2)=1,E14+$E$13,E14)</f>
+        <v>0.2</v>
+      </c>
+      <c r="F15" s="191">
+        <f>IF(MOD(ROW(A15),2)=0,L15,F14)</f>
+        <v>3.2780538303479458</v>
+      </c>
+      <c r="G15" s="49">
+        <f>EXP(E15/$T$5)/(EXP($F15/$T$5)+EXP($E15/$T$5))</f>
+        <v>4.4021644850859298E-2</v>
+      </c>
+      <c r="H15" s="93">
+        <f>EXP(F15/$T$5)/(EXP($F15/$T$5)+EXP($E15/$T$5))</f>
+        <v>0.95597835514914065</v>
+      </c>
+      <c r="I15" s="96">
+        <f>$T$5*LN(EXP($F15/$T$5)+EXP($E15/$T$5))</f>
+        <v>3.3230738375923785</v>
+      </c>
+      <c r="J15" s="187">
+        <f>(I15-I14)</f>
+        <v>4.1980127241774134E-3</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="144">
+        <f>$T$5*LN($T$7/$S$7)+E15</f>
+        <v>3.3780538303479459</v>
+      </c>
+      <c r="M15" s="144" t="str">
+        <f t="shared" ref="M15:M30" si="0">IF( D15="Seller",((F15-F14)-J15)*$T$7,"")</f>
+        <v/>
+      </c>
+      <c r="N15">
+        <f>IF(D15="Buyer",J15,"")</f>
+        <v>4.1980127241774134E-3</v>
+      </c>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="48">
+        <f t="shared" ref="E16:E29" si="1">IF(MOD(ROW(A16),2)=1,E15+$E$13,E15)</f>
+        <v>0.2</v>
+      </c>
+      <c r="F16" s="191">
+        <f>IF(MOD(ROW(A16),2)=0,L16,F15)</f>
+        <v>3.3780538303479459</v>
+      </c>
+      <c r="G16" s="49">
+        <f t="shared" ref="G16:G30" si="2">EXP(E16/$T$5)/(EXP($F16/$T$5)+EXP($E16/$T$5))</f>
+        <v>3.9999999999999987E-2</v>
+      </c>
+      <c r="H16" s="93">
+        <f t="shared" ref="H16:H30" si="3">EXP(F16/$T$5)/(EXP($F16/$T$5)+EXP($E16/$T$5))</f>
+        <v>0.96</v>
+      </c>
+      <c r="I16" s="96">
+        <f>$T$5*LN(EXP($F16/$T$5)+EXP($E16/$T$5))</f>
+        <v>3.4188758248682012</v>
+      </c>
+      <c r="J16" s="187">
+        <f t="shared" ref="J15:J30" si="4">(I16-I15)</f>
+        <v>9.5801987275822675E-2</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="144">
+        <f t="shared" ref="L16:L29" si="5">$T$5*LN($T$7/$S$7)+E16</f>
+        <v>3.3780538303479459</v>
+      </c>
+      <c r="M16" s="144">
+        <f>IF( D16="Seller",((F16-F15)-J16)*$T$7,"")</f>
+        <v>4.0300922152103165E-3</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" ref="N13:N30" si="6">IF(D16="Buyer",J16,"")</f>
+        <v/>
+      </c>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="7"/>
+      <c r="D17" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="48">
+        <f t="shared" si="1"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="F17" s="191">
+        <f t="shared" ref="F15:F27" si="7">IF(MOD(ROW(A17),2)=0,L17,F16)</f>
+        <v>3.3780538303479459</v>
+      </c>
+      <c r="G17" s="49">
+        <f t="shared" si="2"/>
+        <v>4.4021644850859298E-2</v>
+      </c>
+      <c r="H17" s="93">
+        <f t="shared" si="3"/>
+        <v>0.95597835514914076</v>
+      </c>
+      <c r="I17" s="96">
+        <f>$T$5*LN(EXP($F17/$T$5)+EXP($E17/$T$5))</f>
+        <v>3.4230738375923786</v>
+      </c>
+      <c r="J17" s="187">
+        <f t="shared" si="4"/>
+        <v>4.1980127241774134E-3</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="144">
+        <f t="shared" si="5"/>
+        <v>3.478053830347946</v>
+      </c>
+      <c r="M17" s="144" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N17">
+        <f t="shared" si="6"/>
+        <v>4.1980127241774134E-3</v>
+      </c>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="7"/>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="48">
+        <f t="shared" si="1"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="F18" s="191">
+        <f t="shared" si="7"/>
+        <v>3.478053830347946</v>
+      </c>
+      <c r="G18" s="49">
+        <f t="shared" si="2"/>
+        <v>3.9999999999999987E-2</v>
+      </c>
+      <c r="H18" s="93">
+        <f t="shared" si="3"/>
+        <v>0.96</v>
+      </c>
+      <c r="I18" s="96">
+        <f>$T$5*LN(EXP($F18/$T$5)+EXP($E18/$T$5))</f>
+        <v>3.5188758248682013</v>
+      </c>
+      <c r="J18" s="187">
+        <f t="shared" si="4"/>
+        <v>9.5801987275822675E-2</v>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="L18" s="144">
+        <f t="shared" si="5"/>
+        <v>3.478053830347946</v>
+      </c>
+      <c r="M18" s="144">
+        <f>IF( D18="Seller",((F18-F17)-J18)*$T$7,"")</f>
+        <v>4.0300922152103165E-3</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="48">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="F19" s="191">
+        <f t="shared" si="7"/>
+        <v>3.478053830347946</v>
+      </c>
+      <c r="G19" s="49">
+        <f t="shared" si="2"/>
+        <v>4.4021644850859291E-2</v>
+      </c>
+      <c r="H19" s="93">
+        <f t="shared" si="3"/>
+        <v>0.95597835514914076</v>
+      </c>
+      <c r="I19" s="96">
+        <f>$T$5*LN(EXP($F19/$T$5)+EXP($E19/$T$5))</f>
+        <v>3.5230738375923787</v>
+      </c>
+      <c r="J19" s="187">
+        <f t="shared" si="4"/>
+        <v>4.1980127241774134E-3</v>
+      </c>
+      <c r="K19" s="7"/>
+      <c r="L19" s="144">
+        <f t="shared" si="5"/>
+        <v>3.5780538303479457</v>
+      </c>
+      <c r="M19" s="144" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N19">
+        <f t="shared" si="6"/>
+        <v>4.1980127241774134E-3</v>
+      </c>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7">
+        <v>4</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="48">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="F20" s="191">
+        <f t="shared" si="7"/>
+        <v>3.5780538303479457</v>
+      </c>
+      <c r="G20" s="49">
+        <f t="shared" si="2"/>
+        <v>0.04</v>
+      </c>
+      <c r="H20" s="93">
+        <f t="shared" si="3"/>
+        <v>0.96</v>
+      </c>
+      <c r="I20" s="96">
+        <f>$T$5*LN(EXP($F20/$T$5)+EXP($E20/$T$5))</f>
+        <v>3.6188758248682009</v>
+      </c>
+      <c r="J20" s="187">
+        <f t="shared" si="4"/>
+        <v>9.5801987275822231E-2</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="144">
+        <f t="shared" si="5"/>
+        <v>3.5780538303479457</v>
+      </c>
+      <c r="M20" s="144">
+        <f>IF( D20="Seller",((F20-F19)-J20)*$T$7,"")</f>
+        <v>4.0300922152103165E-3</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="48">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="191">
+        <f t="shared" ref="F21:F29" si="8">IF(MOD(ROW(A21),2)=0,L21,F20)</f>
+        <v>3.5780538303479457</v>
+      </c>
+      <c r="G21" s="49">
+        <f t="shared" si="2"/>
+        <v>4.4021644850859305E-2</v>
+      </c>
+      <c r="H21" s="93">
+        <f t="shared" si="3"/>
+        <v>0.95597835514914065</v>
+      </c>
+      <c r="I21" s="96">
+        <f>$T$5*LN(EXP($F21/$T$5)+EXP($E21/$T$5))</f>
+        <v>3.6230738375923783</v>
+      </c>
+      <c r="J21" s="187">
+        <f t="shared" si="4"/>
+        <v>4.1980127241774134E-3</v>
+      </c>
+      <c r="K21" s="7"/>
+      <c r="L21" s="144">
+        <f t="shared" si="5"/>
+        <v>3.6780538303479458</v>
+      </c>
+      <c r="M21" s="144" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N21">
+        <f t="shared" si="6"/>
+        <v>4.1980127241774134E-3</v>
+      </c>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>5</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="48">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="191">
+        <f t="shared" si="8"/>
+        <v>3.6780538303479458</v>
+      </c>
+      <c r="G22" s="49">
+        <f t="shared" si="2"/>
+        <v>3.9999999999999994E-2</v>
+      </c>
+      <c r="H22" s="93">
+        <f t="shared" si="3"/>
+        <v>0.96</v>
+      </c>
+      <c r="I22" s="96">
+        <f>$T$5*LN(EXP($F22/$T$5)+EXP($E22/$T$5))</f>
+        <v>3.718875824868201</v>
+      </c>
+      <c r="J22" s="187">
+        <f>(I22-I21)</f>
+        <v>9.5801987275822675E-2</v>
+      </c>
+      <c r="K22" s="7"/>
+      <c r="L22" s="144">
+        <f>$T$5*LN($T$7/$S$7)+E22</f>
+        <v>3.6780538303479458</v>
+      </c>
+      <c r="M22" s="144">
+        <f t="shared" si="0"/>
+        <v>4.0300922152103165E-3</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="48">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="F23" s="191">
+        <f t="shared" si="8"/>
+        <v>3.6780538303479458</v>
+      </c>
+      <c r="G23" s="49">
+        <f t="shared" si="2"/>
+        <v>4.4021644850859298E-2</v>
+      </c>
+      <c r="H23" s="93">
+        <f t="shared" si="3"/>
+        <v>0.95597835514914076</v>
+      </c>
+      <c r="I23" s="96">
+        <f>$T$5*LN(EXP($F23/$T$5)+EXP($E23/$T$5))</f>
+        <v>3.7230738375923784</v>
+      </c>
+      <c r="J23" s="187">
+        <f t="shared" si="4"/>
+        <v>4.1980127241774134E-3</v>
+      </c>
+      <c r="K23" s="7"/>
+      <c r="L23" s="144">
+        <f t="shared" si="5"/>
+        <v>3.7780538303479458</v>
+      </c>
+      <c r="M23" s="144" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N23">
+        <f>IF(D23="Buyer",J23,"")</f>
+        <v>4.1980127241774134E-3</v>
+      </c>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="7"/>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="48">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="F24" s="191">
+        <f t="shared" si="8"/>
+        <v>3.7780538303479458</v>
+      </c>
+      <c r="G24" s="49">
+        <f t="shared" si="2"/>
+        <v>3.9999999999999994E-2</v>
+      </c>
+      <c r="H24" s="93">
+        <f t="shared" si="3"/>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="I24" s="96">
+        <f>$T$5*LN(EXP($F24/$T$5)+EXP($E24/$T$5))</f>
+        <v>3.8188758248682011</v>
+      </c>
+      <c r="J24" s="187">
+        <f t="shared" si="4"/>
+        <v>9.5801987275822675E-2</v>
+      </c>
+      <c r="K24" s="7"/>
+      <c r="L24" s="144">
+        <f t="shared" si="5"/>
+        <v>3.7780538303479458</v>
+      </c>
+      <c r="M24" s="144">
+        <f t="shared" si="0"/>
+        <v>4.0300922152103165E-3</v>
+      </c>
+      <c r="N24" t="str">
+        <f>IF(D24="Buyer",J24,"")</f>
+        <v/>
+      </c>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="48">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="F25" s="191">
+        <f t="shared" si="8"/>
+        <v>3.7780538303479458</v>
+      </c>
+      <c r="G25" s="49">
+        <f t="shared" si="2"/>
+        <v>4.4021644850859298E-2</v>
+      </c>
+      <c r="H25" s="93">
+        <f t="shared" si="3"/>
+        <v>0.95597835514914076</v>
+      </c>
+      <c r="I25" s="96">
+        <f>$T$5*LN(EXP($F25/$T$5)+EXP($E25/$T$5))</f>
+        <v>3.8230738375923785</v>
+      </c>
+      <c r="J25" s="187">
+        <f t="shared" si="4"/>
+        <v>4.1980127241774134E-3</v>
+      </c>
+      <c r="K25" s="7"/>
+      <c r="L25" s="144">
+        <f t="shared" si="5"/>
+        <v>3.8780538303479455</v>
+      </c>
+      <c r="M25" s="144" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N25">
+        <f t="shared" si="6"/>
+        <v>4.1980127241774134E-3</v>
+      </c>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7">
+        <v>7</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="48">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="F26" s="191">
+        <f t="shared" si="8"/>
+        <v>3.8780538303479455</v>
+      </c>
+      <c r="G26" s="49">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="H26" s="93">
+        <f t="shared" si="3"/>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="I26" s="96">
+        <f>$T$5*LN(EXP($F26/$T$5)+EXP($E26/$T$5))</f>
+        <v>3.9188758248682007</v>
+      </c>
+      <c r="J26" s="187">
+        <f>(I26-I25)</f>
+        <v>9.5801987275822231E-2</v>
+      </c>
+      <c r="K26" s="7"/>
+      <c r="L26" s="144">
+        <f t="shared" si="5"/>
+        <v>3.8780538303479455</v>
+      </c>
+      <c r="M26" s="144">
+        <f t="shared" si="0"/>
+        <v>4.0300922152103165E-3</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="48">
+        <f t="shared" si="1"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="F27" s="191">
+        <f t="shared" si="8"/>
+        <v>3.8780538303479455</v>
+      </c>
+      <c r="G27" s="49">
+        <f t="shared" si="2"/>
+        <v>4.4021644850859305E-2</v>
+      </c>
+      <c r="H27" s="93">
+        <f t="shared" si="3"/>
+        <v>0.95597835514914065</v>
+      </c>
+      <c r="I27" s="96">
+        <f>$T$5*LN(EXP($F27/$T$5)+EXP($E27/$T$5))</f>
+        <v>3.9230738375923782</v>
+      </c>
+      <c r="J27" s="187">
+        <f t="shared" si="4"/>
+        <v>4.1980127241774134E-3</v>
+      </c>
+      <c r="K27" s="7"/>
+      <c r="L27" s="144">
+        <f t="shared" si="5"/>
+        <v>3.9780538303479456</v>
+      </c>
+      <c r="M27" s="144" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N27">
+        <f t="shared" si="6"/>
+        <v>4.1980127241774134E-3</v>
+      </c>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7">
+        <v>8</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="48">
+        <f t="shared" si="1"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="F28" s="191">
+        <f t="shared" si="8"/>
+        <v>3.9780538303479456</v>
+      </c>
+      <c r="G28" s="49">
+        <f t="shared" si="2"/>
+        <v>0.04</v>
+      </c>
+      <c r="H28" s="93">
+        <f t="shared" si="3"/>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="I28" s="96">
+        <f>$T$5*LN(EXP($F28/$T$5)+EXP($E28/$T$5))</f>
+        <v>4.0188758248682008</v>
+      </c>
+      <c r="J28" s="187">
+        <f t="shared" si="4"/>
+        <v>9.5801987275822675E-2</v>
+      </c>
+      <c r="K28" s="7"/>
+      <c r="L28" s="144">
+        <f t="shared" si="5"/>
+        <v>3.9780538303479456</v>
+      </c>
+      <c r="M28" s="144">
+        <f>IF( D28="Seller",((F28-F27)-J28)*$T$7,"")</f>
+        <v>4.0300922152103165E-3</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="7"/>
+      <c r="D29" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="48">
+        <f t="shared" si="1"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="F29" s="191">
+        <f t="shared" si="8"/>
+        <v>3.9780538303479456</v>
+      </c>
+      <c r="G29" s="49">
+        <f t="shared" si="2"/>
+        <v>4.4021644850859305E-2</v>
+      </c>
+      <c r="H29" s="93">
+        <f t="shared" si="3"/>
+        <v>0.95597835514914065</v>
+      </c>
+      <c r="I29" s="96">
+        <f>$T$5*LN(EXP($F29/$T$5)+EXP($E29/$T$5))</f>
+        <v>4.0230738375923778</v>
+      </c>
+      <c r="J29" s="187">
+        <f t="shared" si="4"/>
+        <v>4.1980127241769694E-3</v>
+      </c>
+      <c r="K29" s="7"/>
+      <c r="L29" s="144">
+        <f t="shared" si="5"/>
+        <v>4.0780538303479457</v>
+      </c>
+      <c r="M29" s="144" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+    </row>
+    <row r="30" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="48">
+        <v>0</v>
+      </c>
+      <c r="F30" s="193">
+        <f t="shared" ref="F17:F30" si="9">F29</f>
+        <v>3.9780538303479456</v>
+      </c>
+      <c r="G30" s="49">
+        <f t="shared" si="2"/>
+        <v>1.8377967132622502E-2</v>
+      </c>
+      <c r="H30" s="93">
+        <f t="shared" si="3"/>
+        <v>0.98162203286737748</v>
+      </c>
+      <c r="I30" s="133">
+        <f>$T$5*LN(EXP($F30/$T$5)+EXP($E30/$T$5))</f>
+        <v>3.9966027703138742</v>
+      </c>
+      <c r="J30" s="188">
+        <f t="shared" si="4"/>
+        <v>-2.6471067278503568E-2</v>
+      </c>
+      <c r="K30" s="7"/>
+      <c r="L30" s="144">
+        <f>$T$5*LN($T$7/$S$7)+E30</f>
+        <v>3.1780538303479458</v>
+      </c>
+      <c r="M30" s="144" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+    </row>
+    <row r="31" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="52">
+        <f>E30</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="195">
+        <f>F30</f>
+        <v>3.9780538303479456</v>
+      </c>
+      <c r="G31" s="54">
+        <f>EXP(E31)/(EXP($F31)+EXP($E31))</f>
+        <v>1.8377967132622502E-2</v>
+      </c>
+      <c r="H31" s="94">
+        <f>EXP(F31)/(EXP($F31)+EXP($E31))</f>
+        <v>0.98162203286737748</v>
+      </c>
+      <c r="I31" s="97">
+        <f>$T$5*LN(EXP($F31/$T$5)+EXP($E31/$T$5))</f>
+        <v>3.9966027703138742</v>
+      </c>
+      <c r="J31" s="189">
+        <f>SUM(J12:J30)</f>
+        <v>3.9966027703138742</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="8"/>
+    </row>
+    <row r="32" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="7"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="130">
+        <v>0</v>
+      </c>
+      <c r="J32" s="190">
+        <f>J31-(SUMPRODUCT(G31:H31,E31:F31))</f>
+        <v>9.1657482511866117E-2</v>
+      </c>
+      <c r="K32" t="s">
+        <v>64</v>
+      </c>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+    </row>
+    <row r="34" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="M34" t="s">
+        <v>87</v>
+      </c>
+      <c r="N34" t="s">
+        <v>88</v>
+      </c>
+      <c r="O34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <f>M14+(M28*($S$9-1))</f>
+        <v>20.821862662767554</v>
+      </c>
+      <c r="N35">
+        <f>N13+(N27*($S$9-1))</f>
+        <v>21.037115087676515</v>
+      </c>
+      <c r="O35">
+        <f>K7</f>
+        <v>0.69314718055994529</v>
+      </c>
+    </row>
+    <row r="37" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I37" t="s">
+        <v>92</v>
+      </c>
+      <c r="J37">
+        <f>(J26*S9)+J14</f>
+        <v>481.58441554390578</v>
+      </c>
+      <c r="M37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="M39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="N40">
+        <f>S7*S8</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q52" s="196" t="s">
+        <v>7</v>
+      </c>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="D53" s="163"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="34"/>
+      <c r="K53" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q53" s="135" t="s">
+        <v>77</v>
+      </c>
+      <c r="R53" s="7"/>
+      <c r="S53" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="T53" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>76</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" s="34">
+        <f>COUNTA(E58:F58)</f>
+        <v>2</v>
+      </c>
+      <c r="J54" s="34"/>
+      <c r="K54">
+        <f>I59</f>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="Q54" s="135"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="199">
+        <v>0.04</v>
+      </c>
+      <c r="T54" s="200">
+        <f>1-S54</f>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D55" s="7"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="34"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="135" t="s">
+        <v>79</v>
+      </c>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7">
+        <v>500</v>
+      </c>
+      <c r="T55" s="118"/>
+    </row>
+    <row r="56" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="34"/>
+      <c r="Q56" s="143" t="s">
+        <v>78</v>
+      </c>
+      <c r="R56" s="198"/>
+      <c r="S56" s="198">
+        <v>5000</v>
+      </c>
+      <c r="T56" s="120"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="E57" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="68"/>
+      <c r="G57" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="69"/>
+      <c r="I57" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="J57" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="K57" s="20"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="20"/>
+    </row>
+    <row r="58" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D58" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="90" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="I58" s="43">
+        <v>0</v>
+      </c>
+      <c r="J58" s="44"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="202"/>
+    </row>
+    <row r="59" spans="3:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D59" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E59" s="45">
+        <v>0</v>
+      </c>
+      <c r="F59" s="46">
+        <v>0</v>
+      </c>
+      <c r="G59" s="51">
+        <f>EXP(E59/$T$5)/(EXP($F59/$T$5)+EXP($E59/$T$5))</f>
+        <v>0.5</v>
+      </c>
+      <c r="H59" s="92">
+        <f>EXP(F59/$T$5)/(EXP($F59/$T$5)+EXP($E59/$T$5))</f>
+        <v>0.5</v>
+      </c>
+      <c r="I59" s="95">
+        <f>$T$5*LN(EXP($F59/$T$5)+EXP($E59/$T$5))</f>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="J59" s="186">
+        <f>(I59-I58)</f>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" t="str">
+        <f>IF(D59="Buyer",J59,"")</f>
+        <v/>
+      </c>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D60" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E60" s="48">
+        <v>500</v>
+      </c>
+      <c r="F60" s="42">
+        <v>503.18</v>
+      </c>
+      <c r="G60" s="49">
+        <f>EXP(E60/$T$5)/(EXP($F60/$T$5)+EXP($E60/$T$5))</f>
+        <v>3.992533395281353E-2</v>
+      </c>
+      <c r="H60" s="93">
+        <f>EXP(F60/$T$5)/(EXP($F60/$T$5)+EXP($E60/$T$5))</f>
+        <v>0.96007466604718639</v>
+      </c>
+      <c r="I60" s="96">
+        <f>$T$5*LN(EXP($F60/$T$5)+EXP($E60/$T$5))</f>
+        <v>503.22074422041226</v>
+      </c>
+      <c r="J60" s="187">
+        <f>(I60-I59)</f>
+        <v>502.52759703985231</v>
+      </c>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M60" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="N60" s="201">
+        <f>IF(D60="Buyer",J60,"")</f>
+        <v>502.52759703985231</v>
+      </c>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D61" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E61" s="48">
+        <f>IF(MOD(ROW(A61),2)=1,E60+E59,E60)</f>
+        <v>500</v>
+      </c>
+      <c r="F61" s="42">
+        <v>503.18</v>
+      </c>
+      <c r="G61" s="49">
+        <f>EXP(E61/$T$5)/(EXP($F61/$T$5)+EXP($E61/$T$5))</f>
+        <v>3.992533395281353E-2</v>
+      </c>
+      <c r="H61" s="93">
+        <f>EXP(F61/$T$5)/(EXP($F61/$T$5)+EXP($E61/$T$5))</f>
+        <v>0.96007466604718639</v>
+      </c>
+      <c r="I61" s="96">
+        <f>$T$5*LN(EXP($F61/$T$5)+EXP($E61/$T$5))</f>
+        <v>503.22074422041226</v>
+      </c>
+      <c r="J61" s="187">
+        <f>(I61-I60)</f>
+        <v>0</v>
+      </c>
+      <c r="K61" s="7"/>
+      <c r="L61" s="144">
+        <f>$T$5*LN($T$7/$S$7)+E61</f>
+        <v>503.17805383034795</v>
+      </c>
+      <c r="M61" s="144">
+        <f>IF( D61="Seller",((F61-F60)-J61)*$T$7,"")</f>
+        <v>0</v>
+      </c>
+      <c r="N61" t="str">
+        <f>IF(D61="Buyer",J61,"")</f>
+        <v/>
+      </c>
+      <c r="P61" s="192"/>
+      <c r="Q61" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="R61" s="194"/>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>93</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E62" s="48">
+        <v>510</v>
+      </c>
+      <c r="F62" s="191">
+        <f>F61</f>
+        <v>503.18</v>
+      </c>
+      <c r="G62" s="49">
+        <f>EXP(E62/$T$5)/(EXP($F62/$T$5)+EXP($E62/$T$5))</f>
+        <v>0.99890946963253902</v>
+      </c>
+      <c r="H62" s="93">
+        <f>EXP(F62/$T$5)/(EXP($F62/$T$5)+EXP($E62/$T$5))</f>
+        <v>1.0905303674609804E-3</v>
+      </c>
+      <c r="I62" s="96">
+        <f>$T$5*LN(EXP($F62/$T$5)+EXP($E62/$T$5))</f>
+        <v>510.00109112542839</v>
+      </c>
+      <c r="J62" s="187">
+        <f t="shared" ref="J62:J77" si="10">(I62-I61)</f>
+        <v>6.7803469050161311</v>
+      </c>
+      <c r="K62" s="7"/>
+      <c r="L62" s="144">
+        <f>$T$5*LN($T$7/$S$7)+E62</f>
+        <v>513.17805383034795</v>
+      </c>
+      <c r="M62" s="144" t="str">
+        <f t="shared" ref="M62:M77" si="11">IF( D62="Seller",((F62-F61)-J62)*$T$7,"")</f>
+        <v/>
+      </c>
+      <c r="N62">
+        <f>IF(D62="Buyer",J62,"")</f>
+        <v>6.7803469050161311</v>
+      </c>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D63" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E63" s="48">
+        <v>510</v>
+      </c>
+      <c r="F63" s="191">
+        <v>0</v>
+      </c>
+      <c r="G63" s="49">
+        <f t="shared" ref="G63:G77" si="12">EXP(E63/$T$5)/(EXP($F63/$T$5)+EXP($E63/$T$5))</f>
+        <v>1</v>
+      </c>
+      <c r="H63" s="93">
+        <f t="shared" ref="H63:H77" si="13">EXP(F63/$T$5)/(EXP($F63/$T$5)+EXP($E63/$T$5))</f>
+        <v>3.2345526845351109E-222</v>
+      </c>
+      <c r="I63" s="96">
+        <f>$T$5*LN(EXP($F63/$T$5)+EXP($E63/$T$5))</f>
+        <v>510</v>
+      </c>
+      <c r="J63" s="187">
+        <f>(I63-I62)</f>
+        <v>-1.0911254283882954E-3</v>
+      </c>
+      <c r="K63" s="7"/>
+      <c r="L63" s="144">
+        <f t="shared" ref="L63:L76" si="14">$T$5*LN($T$7/$S$7)+E63</f>
+        <v>513.17805383034795</v>
+      </c>
+      <c r="M63" s="144">
+        <f>IF( D63="Seller",((F63-F62)-J63)*$T$7,"")</f>
+        <v>-483.05175251958872</v>
+      </c>
+      <c r="N63" t="str">
+        <f t="shared" ref="N63:N80" si="15">IF(D63="Buyer",J63,"")</f>
+        <v/>
+      </c>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D64" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E64" s="48"/>
+      <c r="F64" s="191"/>
+      <c r="G64" s="49">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="H64" s="93">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="I64" s="96">
+        <f>$T$5*LN(EXP($F64/$T$5)+EXP($E64/$T$5))</f>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="J64" s="187">
+        <f t="shared" si="10"/>
+        <v>-509.30685281944005</v>
+      </c>
+      <c r="K64" s="7"/>
+      <c r="L64" s="144">
+        <f t="shared" si="14"/>
+        <v>3.1780538303479458</v>
+      </c>
+      <c r="M64" s="144" t="str">
+        <f t="shared" ref="M64:M79" si="16">IF( D64="Seller",((F64-F63)-J64)*$T$7,"")</f>
+        <v/>
+      </c>
+      <c r="N64">
+        <f t="shared" si="15"/>
+        <v>-509.30685281944005</v>
+      </c>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
+    </row>
+    <row r="65" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D65" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E65" s="48"/>
+      <c r="F65" s="191"/>
+      <c r="G65" s="49">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="H65" s="93">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="I65" s="96">
+        <f>$T$5*LN(EXP($F65/$T$5)+EXP($E65/$T$5))</f>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="J65" s="187">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K65" s="7"/>
+      <c r="L65" s="144">
+        <f t="shared" si="14"/>
+        <v>3.1780538303479458</v>
+      </c>
+      <c r="M65" s="144">
+        <f>IF( D65="Seller",((F65-F64)-J65)*$T$7,"")</f>
+        <v>0</v>
+      </c>
+      <c r="N65" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D66" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E66" s="48"/>
+      <c r="F66" s="191"/>
+      <c r="G66" s="49">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="H66" s="93">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="I66" s="96">
+        <f>$T$5*LN(EXP($F66/$T$5)+EXP($E66/$T$5))</f>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="J66" s="187">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K66" s="7"/>
+      <c r="L66" s="144">
+        <f t="shared" si="14"/>
+        <v>3.1780538303479458</v>
+      </c>
+      <c r="M66" s="144" t="str">
+        <f t="shared" ref="M66:M81" si="17">IF( D66="Seller",((F66-F65)-J66)*$T$7,"")</f>
+        <v/>
+      </c>
+      <c r="N66">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D67" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E67" s="48"/>
+      <c r="F67" s="191"/>
+      <c r="G67" s="49">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="H67" s="93">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="I67" s="96">
+        <f>$T$5*LN(EXP($F67/$T$5)+EXP($E67/$T$5))</f>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="J67" s="187">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K67" s="7"/>
+      <c r="L67" s="144">
+        <f t="shared" si="14"/>
+        <v>3.1780538303479458</v>
+      </c>
+      <c r="M67" s="144">
+        <f>IF( D67="Seller",((F67-F66)-J67)*$T$7,"")</f>
+        <v>0</v>
+      </c>
+      <c r="N67" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+    </row>
+    <row r="68" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D68" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E68" s="48"/>
+      <c r="F68" s="191"/>
+      <c r="G68" s="49">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="H68" s="93">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="I68" s="96">
+        <f>$T$5*LN(EXP($F68/$T$5)+EXP($E68/$T$5))</f>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="J68" s="187">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K68" s="7"/>
+      <c r="L68" s="144">
+        <f t="shared" si="14"/>
+        <v>3.1780538303479458</v>
+      </c>
+      <c r="M68" s="144" t="str">
+        <f t="shared" ref="M68:M83" si="18">IF( D68="Seller",((F68-F67)-J68)*$T$7,"")</f>
+        <v/>
+      </c>
+      <c r="N68">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="7"/>
+    </row>
+    <row r="69" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D69" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E69" s="48"/>
+      <c r="F69" s="191"/>
+      <c r="G69" s="49">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="H69" s="93">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="I69" s="96">
+        <f>$T$5*LN(EXP($F69/$T$5)+EXP($E69/$T$5))</f>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="J69" s="187">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K69" s="7"/>
+      <c r="L69" s="144">
+        <f t="shared" si="14"/>
+        <v>3.1780538303479458</v>
+      </c>
+      <c r="M69" s="144">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N69" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+    </row>
+    <row r="70" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D70" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E70" s="48"/>
+      <c r="F70" s="191"/>
+      <c r="G70" s="49">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="H70" s="93">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="I70" s="96">
+        <f>$T$5*LN(EXP($F70/$T$5)+EXP($E70/$T$5))</f>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="J70" s="187">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K70" s="7"/>
+      <c r="L70" s="144">
+        <f t="shared" si="14"/>
+        <v>3.1780538303479458</v>
+      </c>
+      <c r="M70" s="144" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="N70">
+        <f>IF(D70="Buyer",J70,"")</f>
+        <v>0</v>
+      </c>
+      <c r="O70" s="7"/>
+      <c r="P70" s="7"/>
+      <c r="Q70" s="7"/>
+    </row>
+    <row r="71" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D71" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E71" s="48"/>
+      <c r="F71" s="191"/>
+      <c r="G71" s="49">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="H71" s="93">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="I71" s="96">
+        <f>$T$5*LN(EXP($F71/$T$5)+EXP($E71/$T$5))</f>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="J71" s="187">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K71" s="7"/>
+      <c r="L71" s="144">
+        <f t="shared" si="14"/>
+        <v>3.1780538303479458</v>
+      </c>
+      <c r="M71" s="144">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N71" t="str">
+        <f>IF(D71="Buyer",J71,"")</f>
+        <v/>
+      </c>
+      <c r="O71" s="7"/>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="7"/>
+    </row>
+    <row r="72" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D72" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E72" s="48"/>
+      <c r="F72" s="191"/>
+      <c r="G72" s="49">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="H72" s="93">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="I72" s="96">
+        <f>$T$5*LN(EXP($F72/$T$5)+EXP($E72/$T$5))</f>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="J72" s="187">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K72" s="7"/>
+      <c r="L72" s="144">
+        <f t="shared" si="14"/>
+        <v>3.1780538303479458</v>
+      </c>
+      <c r="M72" s="144" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="N72">
+        <f t="shared" ref="N72:N88" si="19">IF(D72="Buyer",J72,"")</f>
+        <v>0</v>
+      </c>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="7"/>
+    </row>
+    <row r="73" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D73" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E73" s="48"/>
+      <c r="F73" s="191"/>
+      <c r="G73" s="49">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="H73" s="93">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="I73" s="96">
+        <f>$T$5*LN(EXP($F73/$T$5)+EXP($E73/$T$5))</f>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="J73" s="187">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K73" s="7"/>
+      <c r="L73" s="144">
+        <f t="shared" si="14"/>
+        <v>3.1780538303479458</v>
+      </c>
+      <c r="M73" s="144">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N73" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7"/>
+    </row>
+    <row r="74" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D74" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E74" s="48"/>
+      <c r="F74" s="191"/>
+      <c r="G74" s="49">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="H74" s="93">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="I74" s="96">
+        <f>$T$5*LN(EXP($F74/$T$5)+EXP($E74/$T$5))</f>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="J74" s="187">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K74" s="7"/>
+      <c r="L74" s="144">
+        <f t="shared" si="14"/>
+        <v>3.1780538303479458</v>
+      </c>
+      <c r="M74" s="144" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="N74">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O74" s="7"/>
+      <c r="P74" s="7"/>
+      <c r="Q74" s="7"/>
+    </row>
+    <row r="75" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D75" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E75" s="48"/>
+      <c r="F75" s="191"/>
+      <c r="G75" s="49">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="H75" s="93">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="I75" s="96">
+        <f>$T$5*LN(EXP($F75/$T$5)+EXP($E75/$T$5))</f>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="J75" s="187">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K75" s="7"/>
+      <c r="L75" s="144">
+        <f t="shared" si="14"/>
+        <v>3.1780538303479458</v>
+      </c>
+      <c r="M75" s="144">
+        <f>IF( D75="Seller",((F75-F74)-J75)*$T$7,"")</f>
+        <v>0</v>
+      </c>
+      <c r="N75" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7"/>
+    </row>
+    <row r="76" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D76" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E76" s="48"/>
+      <c r="F76" s="191"/>
+      <c r="G76" s="49">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="H76" s="93">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="I76" s="96">
+        <f>$T$5*LN(EXP($F76/$T$5)+EXP($E76/$T$5))</f>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="J76" s="187">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K76" s="7"/>
+      <c r="L76" s="144">
+        <f t="shared" si="14"/>
+        <v>3.1780538303479458</v>
+      </c>
+      <c r="M76" s="144" t="str">
+        <f t="shared" ref="M76:M88" si="20">IF( D76="Seller",((F76-F75)-J76)*$T$7,"")</f>
+        <v/>
+      </c>
+      <c r="N76" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="O76" s="7"/>
+      <c r="P76" s="7"/>
+      <c r="Q76" s="7"/>
+    </row>
+    <row r="77" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D77" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E77" s="48"/>
+      <c r="F77" s="193"/>
+      <c r="G77" s="49">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="H77" s="93">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="I77" s="133">
+        <f>$T$5*LN(EXP($F77/$T$5)+EXP($E77/$T$5))</f>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="J77" s="188">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K77" s="7"/>
+      <c r="L77" s="144">
+        <f>$T$5*LN($T$7/$S$7)+E77</f>
+        <v>3.1780538303479458</v>
+      </c>
+      <c r="M77" s="144" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="N77" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="O77" s="7"/>
+      <c r="P77" s="7"/>
+      <c r="Q77" s="7"/>
+    </row>
+    <row r="78" spans="4:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D78" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E78" s="52">
+        <f>E77</f>
+        <v>0</v>
+      </c>
+      <c r="F78" s="195">
+        <f>F77</f>
+        <v>0</v>
+      </c>
+      <c r="G78" s="54">
+        <f>EXP(E78)/(EXP($F78)+EXP($E78))</f>
+        <v>0.5</v>
+      </c>
+      <c r="H78" s="94">
+        <f>EXP(F78)/(EXP($F78)+EXP($E78))</f>
+        <v>0.5</v>
+      </c>
+      <c r="I78" s="97">
+        <f>$T$5*LN(EXP($F78/$T$5)+EXP($E78/$T$5))</f>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="J78" s="189">
+        <f>SUM(J59:J77)</f>
+        <v>0.69314718055994717</v>
+      </c>
+      <c r="K78" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="7"/>
+      <c r="Q78" s="8"/>
+    </row>
+    <row r="79" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E79" s="34"/>
+      <c r="F79" s="34"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="34"/>
+      <c r="I79" s="130">
+        <v>0</v>
+      </c>
+      <c r="J79" s="190">
+        <f>J78-(SUMPRODUCT(G78:H78,E78:F78))</f>
+        <v>0.69314718055994717</v>
+      </c>
+      <c r="K79" t="s">
+        <v>64</v>
+      </c>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="7"/>
+    </row>
+    <row r="81" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M81" t="s">
+        <v>87</v>
+      </c>
+      <c r="N81" t="s">
+        <v>88</v>
+      </c>
+      <c r="O81" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="82" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M82">
+        <f>M61+(M75*($S$9-1))</f>
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <f>N60+(N74*($S$9-1))</f>
+        <v>502.52759703985231</v>
+      </c>
+      <c r="O82">
+        <f>K54</f>
+        <v>0.69314718055994529</v>
+      </c>
+    </row>
+    <row r="84" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M84" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M86" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="N87">
+        <f>S54*S55</f>
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7710,7 +10024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U22"/>
   <sheetViews>
@@ -7788,10 +10102,10 @@
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
-      <c r="F4" s="176" t="s">
+      <c r="F4" s="181" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="177"/>
+      <c r="G4" s="182"/>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
@@ -8731,12 +11045,12 @@
       <c r="U21" s="118"/>
     </row>
     <row r="22" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R22" s="178" t="s">
+      <c r="R22" s="183" t="s">
         <v>68</v>
       </c>
-      <c r="S22" s="179"/>
-      <c r="T22" s="179"/>
-      <c r="U22" s="180"/>
+      <c r="S22" s="184"/>
+      <c r="T22" s="184"/>
+      <c r="U22" s="185"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/docs/LogMSR_Demo.xlsx
+++ b/docs/LogMSR_Demo.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="104">
   <si>
     <t>Final</t>
   </si>
@@ -306,26 +306,45 @@
     <t>insurance strategy</t>
   </si>
   <si>
-    <t>augmentation</t>
+    <t>ROCE</t>
   </si>
   <si>
-    <t>include price of arson</t>
+    <t>(return on capital employed)</t>
   </si>
   <si>
-    <t>demand arson protections (or refuse to insure)</t>
+    <t>Very capital intensive (but no counter-party risk)</t>
+  </si>
+  <si>
+    <t>Will likely only work in situations</t>
+  </si>
+  <si>
+    <t>only insure events like natural disasters (hurricane/tornado)</t>
+  </si>
+  <si>
+    <t>works good for events where $ is potentially high (hurricane), because individuals can purchase as much insurance as they need (potentially a great deal), and insurance providers face a deep market</t>
+  </si>
+  <si>
+    <t>include price of arson (unravel?)</t>
+  </si>
+  <si>
+    <t>demand arson protections</t>
+  </si>
+  <si>
+    <t>augmentation - see note on manipulation (this would certainly work IF the augmentation were ungameable [which will probably not be met])</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="0.00000"/>
-    <numFmt numFmtId="170" formatCode="0.0000000"/>
+    <numFmt numFmtId="169" formatCode="0.0000000"/>
+    <numFmt numFmtId="172" formatCode="0.00000%"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -935,7 +954,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1197,6 +1216,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1212,27 +1252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1367,11 +1387,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="63996672"/>
-        <c:axId val="63998208"/>
+        <c:axId val="65127552"/>
+        <c:axId val="65129088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63996672"/>
+        <c:axId val="65127552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1380,7 +1400,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63998208"/>
+        <c:crossAx val="65129088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1388,7 +1408,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63998208"/>
+        <c:axId val="65129088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1399,7 +1419,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63996672"/>
+        <c:crossAx val="65127552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1538,11 +1558,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="65763584"/>
-        <c:axId val="65765376"/>
+        <c:axId val="66620032"/>
+        <c:axId val="66630016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65763584"/>
+        <c:axId val="66620032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1551,7 +1571,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65765376"/>
+        <c:crossAx val="66630016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1559,7 +1579,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65765376"/>
+        <c:axId val="66630016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1570,7 +1590,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65763584"/>
+        <c:crossAx val="66620032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4887,7 +4907,7 @@
   <dimension ref="B3:T87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="Q67" sqref="Q67"/>
+      <selection activeCell="T43" sqref="T43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4911,12 +4931,12 @@
       </c>
     </row>
     <row r="5" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q5" s="196" t="s">
+      <c r="Q5" s="191" t="s">
         <v>7</v>
       </c>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
-      <c r="T5" s="197">
+      <c r="T5" s="192">
         <v>1</v>
       </c>
     </row>
@@ -4967,10 +4987,10 @@
       </c>
       <c r="Q7" s="135"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="199">
+      <c r="S7" s="194">
         <v>0.04</v>
       </c>
-      <c r="T7" s="200">
+      <c r="T7" s="195">
         <f>1-S7</f>
         <v>0.96</v>
       </c>
@@ -5005,8 +5025,8 @@
       <c r="Q9" s="143" t="s">
         <v>78</v>
       </c>
-      <c r="R9" s="198"/>
-      <c r="S9" s="198">
+      <c r="R9" s="193"/>
+      <c r="S9" s="193">
         <v>5000</v>
       </c>
       <c r="T9" s="120"/>
@@ -5081,18 +5101,18 @@
         <v>0</v>
       </c>
       <c r="G12" s="51">
-        <f>EXP(E12/$T$5)/(EXP($F12/$T$5)+EXP($E12/$T$5))</f>
+        <f t="shared" ref="G12:H15" si="0">EXP(E12/$T$5)/(EXP($F12/$T$5)+EXP($E12/$T$5))</f>
         <v>0.5</v>
       </c>
       <c r="H12" s="92">
-        <f>EXP(F12/$T$5)/(EXP($F12/$T$5)+EXP($E12/$T$5))</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="I12" s="95">
-        <f>$T$5*LN(EXP($F12/$T$5)+EXP($E12/$T$5))</f>
+        <f t="shared" ref="I12:I31" si="1">$T$5*LN(EXP($F12/$T$5)+EXP($E12/$T$5))</f>
         <v>0.69314718055994529</v>
       </c>
-      <c r="J12" s="186">
+      <c r="J12" s="181">
         <f>(I12-I11)</f>
         <v>0.69314718055994529</v>
       </c>
@@ -5120,18 +5140,18 @@
         <v>0</v>
       </c>
       <c r="G13" s="49">
-        <f>EXP(E13/$T$5)/(EXP($F13/$T$5)+EXP($E13/$T$5))</f>
+        <f t="shared" si="0"/>
         <v>0.52497918747894001</v>
       </c>
       <c r="H13" s="93">
-        <f>EXP(F13/$T$5)/(EXP($F13/$T$5)+EXP($E13/$T$5))</f>
+        <f t="shared" si="0"/>
         <v>0.47502081252105999</v>
       </c>
       <c r="I13" s="96">
-        <f>$T$5*LN(EXP($F13/$T$5)+EXP($E13/$T$5))</f>
+        <f t="shared" si="1"/>
         <v>0.74439666007357097</v>
       </c>
-      <c r="J13" s="187">
+      <c r="J13" s="182">
         <f>(I13-I12)</f>
         <v>5.1249479513625684E-2</v>
       </c>
@@ -5142,7 +5162,7 @@
       <c r="M13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="N13" s="201">
+      <c r="N13" s="196">
         <f>IF(D13="Buyer",J13,"")</f>
         <v>5.1249479513625684E-2</v>
       </c>
@@ -5161,23 +5181,23 @@
         <f>IF(MOD(ROW(A14),2)=1,E13+E12,E13)</f>
         <v>0.1</v>
       </c>
-      <c r="F14" s="191">
+      <c r="F14" s="186">
         <f>IF(MOD(ROW(A14),2)=0,L14,F13)</f>
         <v>3.2780538303479458</v>
       </c>
       <c r="G14" s="49">
-        <f>EXP(E14/$T$5)/(EXP($F14/$T$5)+EXP($E14/$T$5))</f>
+        <f t="shared" si="0"/>
         <v>3.9999999999999994E-2</v>
       </c>
       <c r="H14" s="93">
-        <f>EXP(F14/$T$5)/(EXP($F14/$T$5)+EXP($E14/$T$5))</f>
+        <f t="shared" si="0"/>
         <v>0.96000000000000008</v>
       </c>
       <c r="I14" s="96">
-        <f>$T$5*LN(EXP($F14/$T$5)+EXP($E14/$T$5))</f>
+        <f t="shared" si="1"/>
         <v>3.3188758248682011</v>
       </c>
-      <c r="J14" s="187">
+      <c r="J14" s="182">
         <f>(I14-I13)</f>
         <v>2.5744791647946301</v>
       </c>
@@ -5194,9 +5214,9 @@
         <f>IF(D14="Buyer",J14,"")</f>
         <v/>
       </c>
-      <c r="P14" s="192"/>
+      <c r="P14" s="187"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="194"/>
+      <c r="R14" s="189"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
@@ -5208,23 +5228,23 @@
         <f>IF(MOD(ROW(A15),2)=1,E14+$E$13,E14)</f>
         <v>0.2</v>
       </c>
-      <c r="F15" s="191">
+      <c r="F15" s="186">
         <f>IF(MOD(ROW(A15),2)=0,L15,F14)</f>
         <v>3.2780538303479458</v>
       </c>
       <c r="G15" s="49">
-        <f>EXP(E15/$T$5)/(EXP($F15/$T$5)+EXP($E15/$T$5))</f>
+        <f t="shared" si="0"/>
         <v>4.4021644850859298E-2</v>
       </c>
       <c r="H15" s="93">
-        <f>EXP(F15/$T$5)/(EXP($F15/$T$5)+EXP($E15/$T$5))</f>
+        <f t="shared" si="0"/>
         <v>0.95597835514914065</v>
       </c>
       <c r="I15" s="96">
-        <f>$T$5*LN(EXP($F15/$T$5)+EXP($E15/$T$5))</f>
+        <f t="shared" si="1"/>
         <v>3.3230738375923785</v>
       </c>
-      <c r="J15" s="187">
+      <c r="J15" s="182">
         <f>(I15-I14)</f>
         <v>4.1980127241774134E-3</v>
       </c>
@@ -5234,7 +5254,7 @@
         <v>3.3780538303479459</v>
       </c>
       <c r="M15" s="144" t="str">
-        <f t="shared" ref="M15:M30" si="0">IF( D15="Seller",((F15-F14)-J15)*$T$7,"")</f>
+        <f t="shared" ref="M15:M30" si="2">IF( D15="Seller",((F15-F14)-J15)*$T$7,"")</f>
         <v/>
       </c>
       <c r="N15">
@@ -5253,32 +5273,32 @@
         <v>83</v>
       </c>
       <c r="E16" s="48">
-        <f t="shared" ref="E16:E29" si="1">IF(MOD(ROW(A16),2)=1,E15+$E$13,E15)</f>
+        <f t="shared" ref="E16:E29" si="3">IF(MOD(ROW(A16),2)=1,E15+$E$13,E15)</f>
         <v>0.2</v>
       </c>
-      <c r="F16" s="191">
+      <c r="F16" s="186">
         <f>IF(MOD(ROW(A16),2)=0,L16,F15)</f>
         <v>3.3780538303479459</v>
       </c>
       <c r="G16" s="49">
-        <f t="shared" ref="G16:G30" si="2">EXP(E16/$T$5)/(EXP($F16/$T$5)+EXP($E16/$T$5))</f>
+        <f t="shared" ref="G16:G30" si="4">EXP(E16/$T$5)/(EXP($F16/$T$5)+EXP($E16/$T$5))</f>
         <v>3.9999999999999987E-2</v>
       </c>
       <c r="H16" s="93">
-        <f t="shared" ref="H16:H30" si="3">EXP(F16/$T$5)/(EXP($F16/$T$5)+EXP($E16/$T$5))</f>
+        <f t="shared" ref="H16:H30" si="5">EXP(F16/$T$5)/(EXP($F16/$T$5)+EXP($E16/$T$5))</f>
         <v>0.96</v>
       </c>
       <c r="I16" s="96">
-        <f>$T$5*LN(EXP($F16/$T$5)+EXP($E16/$T$5))</f>
+        <f t="shared" si="1"/>
         <v>3.4188758248682012</v>
       </c>
-      <c r="J16" s="187">
-        <f t="shared" ref="J15:J30" si="4">(I16-I15)</f>
+      <c r="J16" s="182">
+        <f t="shared" ref="J16:J30" si="6">(I16-I15)</f>
         <v>9.5801987275822675E-2</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="144">
-        <f t="shared" ref="L16:L29" si="5">$T$5*LN($T$7/$S$7)+E16</f>
+        <f t="shared" ref="L16:L29" si="7">$T$5*LN($T$7/$S$7)+E16</f>
         <v>3.3780538303479459</v>
       </c>
       <c r="M16" s="144">
@@ -5286,7 +5306,7 @@
         <v>4.0300922152103165E-3</v>
       </c>
       <c r="N16" t="str">
-        <f t="shared" ref="N13:N30" si="6">IF(D16="Buyer",J16,"")</f>
+        <f t="shared" ref="N16:N30" si="8">IF(D16="Buyer",J16,"")</f>
         <v/>
       </c>
       <c r="O16" s="7"/>
@@ -5299,40 +5319,40 @@
         <v>82</v>
       </c>
       <c r="E17" s="48">
+        <f t="shared" si="3"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="F17" s="186">
+        <f t="shared" ref="F17:F20" si="9">IF(MOD(ROW(A17),2)=0,L17,F16)</f>
+        <v>3.3780538303479459</v>
+      </c>
+      <c r="G17" s="49">
+        <f t="shared" si="4"/>
+        <v>4.4021644850859298E-2</v>
+      </c>
+      <c r="H17" s="93">
+        <f t="shared" si="5"/>
+        <v>0.95597835514914076</v>
+      </c>
+      <c r="I17" s="96">
         <f t="shared" si="1"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="F17" s="191">
-        <f t="shared" ref="F15:F27" si="7">IF(MOD(ROW(A17),2)=0,L17,F16)</f>
-        <v>3.3780538303479459</v>
-      </c>
-      <c r="G17" s="49">
-        <f t="shared" si="2"/>
-        <v>4.4021644850859298E-2</v>
-      </c>
-      <c r="H17" s="93">
-        <f t="shared" si="3"/>
-        <v>0.95597835514914076</v>
-      </c>
-      <c r="I17" s="96">
-        <f>$T$5*LN(EXP($F17/$T$5)+EXP($E17/$T$5))</f>
         <v>3.4230738375923786</v>
       </c>
-      <c r="J17" s="187">
-        <f t="shared" si="4"/>
+      <c r="J17" s="182">
+        <f t="shared" si="6"/>
         <v>4.1980127241774134E-3</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="144">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.478053830347946</v>
       </c>
       <c r="M17" s="144" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.1980127241774134E-3</v>
       </c>
       <c r="O17" s="7"/>
@@ -5348,32 +5368,32 @@
         <v>83</v>
       </c>
       <c r="E18" s="48">
+        <f t="shared" si="3"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="F18" s="186">
+        <f t="shared" si="9"/>
+        <v>3.478053830347946</v>
+      </c>
+      <c r="G18" s="49">
+        <f t="shared" si="4"/>
+        <v>3.9999999999999987E-2</v>
+      </c>
+      <c r="H18" s="93">
+        <f t="shared" si="5"/>
+        <v>0.96</v>
+      </c>
+      <c r="I18" s="96">
         <f t="shared" si="1"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="F18" s="191">
-        <f t="shared" si="7"/>
-        <v>3.478053830347946</v>
-      </c>
-      <c r="G18" s="49">
-        <f t="shared" si="2"/>
-        <v>3.9999999999999987E-2</v>
-      </c>
-      <c r="H18" s="93">
-        <f t="shared" si="3"/>
-        <v>0.96</v>
-      </c>
-      <c r="I18" s="96">
-        <f>$T$5*LN(EXP($F18/$T$5)+EXP($E18/$T$5))</f>
         <v>3.5188758248682013</v>
       </c>
-      <c r="J18" s="187">
-        <f t="shared" si="4"/>
+      <c r="J18" s="182">
+        <f t="shared" si="6"/>
         <v>9.5801987275822675E-2</v>
       </c>
       <c r="K18" s="7"/>
       <c r="L18" s="144">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.478053830347946</v>
       </c>
       <c r="M18" s="144">
@@ -5381,7 +5401,7 @@
         <v>4.0300922152103165E-3</v>
       </c>
       <c r="N18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="O18" s="7"/>
@@ -5395,40 +5415,40 @@
         <v>82</v>
       </c>
       <c r="E19" s="48">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="F19" s="186">
+        <f t="shared" si="9"/>
+        <v>3.478053830347946</v>
+      </c>
+      <c r="G19" s="49">
+        <f t="shared" si="4"/>
+        <v>4.4021644850859291E-2</v>
+      </c>
+      <c r="H19" s="93">
+        <f t="shared" si="5"/>
+        <v>0.95597835514914076</v>
+      </c>
+      <c r="I19" s="96">
         <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="F19" s="191">
-        <f t="shared" si="7"/>
-        <v>3.478053830347946</v>
-      </c>
-      <c r="G19" s="49">
-        <f t="shared" si="2"/>
-        <v>4.4021644850859291E-2</v>
-      </c>
-      <c r="H19" s="93">
-        <f t="shared" si="3"/>
-        <v>0.95597835514914076</v>
-      </c>
-      <c r="I19" s="96">
-        <f>$T$5*LN(EXP($F19/$T$5)+EXP($E19/$T$5))</f>
         <v>3.5230738375923787</v>
       </c>
-      <c r="J19" s="187">
-        <f t="shared" si="4"/>
+      <c r="J19" s="182">
+        <f t="shared" si="6"/>
         <v>4.1980127241774134E-3</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="144">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.5780538303479457</v>
       </c>
       <c r="M19" s="144" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.1980127241774134E-3</v>
       </c>
       <c r="O19" s="7"/>
@@ -5444,32 +5464,32 @@
         <v>83</v>
       </c>
       <c r="E20" s="48">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="F20" s="186">
+        <f t="shared" si="9"/>
+        <v>3.5780538303479457</v>
+      </c>
+      <c r="G20" s="49">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="H20" s="93">
+        <f t="shared" si="5"/>
+        <v>0.96</v>
+      </c>
+      <c r="I20" s="96">
         <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="F20" s="191">
-        <f t="shared" si="7"/>
-        <v>3.5780538303479457</v>
-      </c>
-      <c r="G20" s="49">
-        <f t="shared" si="2"/>
-        <v>0.04</v>
-      </c>
-      <c r="H20" s="93">
-        <f t="shared" si="3"/>
-        <v>0.96</v>
-      </c>
-      <c r="I20" s="96">
-        <f>$T$5*LN(EXP($F20/$T$5)+EXP($E20/$T$5))</f>
         <v>3.6188758248682009</v>
       </c>
-      <c r="J20" s="187">
-        <f t="shared" si="4"/>
+      <c r="J20" s="182">
+        <f t="shared" si="6"/>
         <v>9.5801987275822231E-2</v>
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="144">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.5780538303479457</v>
       </c>
       <c r="M20" s="144">
@@ -5477,7 +5497,7 @@
         <v>4.0300922152103165E-3</v>
       </c>
       <c r="N20" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="O20" s="7"/>
@@ -5491,40 +5511,40 @@
         <v>82</v>
       </c>
       <c r="E21" s="48">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="186">
+        <f t="shared" ref="F21:F29" si="10">IF(MOD(ROW(A21),2)=0,L21,F20)</f>
+        <v>3.5780538303479457</v>
+      </c>
+      <c r="G21" s="49">
+        <f t="shared" si="4"/>
+        <v>4.4021644850859305E-2</v>
+      </c>
+      <c r="H21" s="93">
+        <f t="shared" si="5"/>
+        <v>0.95597835514914065</v>
+      </c>
+      <c r="I21" s="96">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="F21" s="191">
-        <f t="shared" ref="F21:F29" si="8">IF(MOD(ROW(A21),2)=0,L21,F20)</f>
-        <v>3.5780538303479457</v>
-      </c>
-      <c r="G21" s="49">
-        <f t="shared" si="2"/>
-        <v>4.4021644850859305E-2</v>
-      </c>
-      <c r="H21" s="93">
-        <f t="shared" si="3"/>
-        <v>0.95597835514914065</v>
-      </c>
-      <c r="I21" s="96">
-        <f>$T$5*LN(EXP($F21/$T$5)+EXP($E21/$T$5))</f>
         <v>3.6230738375923783</v>
       </c>
-      <c r="J21" s="187">
-        <f t="shared" si="4"/>
+      <c r="J21" s="182">
+        <f t="shared" si="6"/>
         <v>4.1980127241774134E-3</v>
       </c>
       <c r="K21" s="7"/>
       <c r="L21" s="144">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.6780538303479458</v>
       </c>
       <c r="M21" s="144" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.1980127241774134E-3</v>
       </c>
       <c r="O21" s="7"/>
@@ -5540,26 +5560,26 @@
         <v>83</v>
       </c>
       <c r="E22" s="48">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="186">
+        <f t="shared" si="10"/>
+        <v>3.6780538303479458</v>
+      </c>
+      <c r="G22" s="49">
+        <f t="shared" si="4"/>
+        <v>3.9999999999999994E-2</v>
+      </c>
+      <c r="H22" s="93">
+        <f t="shared" si="5"/>
+        <v>0.96</v>
+      </c>
+      <c r="I22" s="96">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="F22" s="191">
-        <f t="shared" si="8"/>
-        <v>3.6780538303479458</v>
-      </c>
-      <c r="G22" s="49">
-        <f t="shared" si="2"/>
-        <v>3.9999999999999994E-2</v>
-      </c>
-      <c r="H22" s="93">
-        <f t="shared" si="3"/>
-        <v>0.96</v>
-      </c>
-      <c r="I22" s="96">
-        <f>$T$5*LN(EXP($F22/$T$5)+EXP($E22/$T$5))</f>
         <v>3.718875824868201</v>
       </c>
-      <c r="J22" s="187">
+      <c r="J22" s="182">
         <f>(I22-I21)</f>
         <v>9.5801987275822675E-2</v>
       </c>
@@ -5569,11 +5589,11 @@
         <v>3.6780538303479458</v>
       </c>
       <c r="M22" s="144">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.0300922152103165E-3</v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="O22" s="7"/>
@@ -5587,36 +5607,36 @@
         <v>82</v>
       </c>
       <c r="E23" s="48">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="F23" s="186">
+        <f t="shared" si="10"/>
+        <v>3.6780538303479458</v>
+      </c>
+      <c r="G23" s="49">
+        <f t="shared" si="4"/>
+        <v>4.4021644850859298E-2</v>
+      </c>
+      <c r="H23" s="93">
+        <f t="shared" si="5"/>
+        <v>0.95597835514914076</v>
+      </c>
+      <c r="I23" s="96">
         <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-      <c r="F23" s="191">
-        <f t="shared" si="8"/>
-        <v>3.6780538303479458</v>
-      </c>
-      <c r="G23" s="49">
-        <f t="shared" si="2"/>
-        <v>4.4021644850859298E-2</v>
-      </c>
-      <c r="H23" s="93">
-        <f t="shared" si="3"/>
-        <v>0.95597835514914076</v>
-      </c>
-      <c r="I23" s="96">
-        <f>$T$5*LN(EXP($F23/$T$5)+EXP($E23/$T$5))</f>
         <v>3.7230738375923784</v>
       </c>
-      <c r="J23" s="187">
-        <f t="shared" si="4"/>
+      <c r="J23" s="182">
+        <f t="shared" si="6"/>
         <v>4.1980127241774134E-3</v>
       </c>
       <c r="K23" s="7"/>
       <c r="L23" s="144">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.7780538303479458</v>
       </c>
       <c r="M23" s="144" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N23">
@@ -5636,36 +5656,36 @@
         <v>83</v>
       </c>
       <c r="E24" s="48">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="F24" s="186">
+        <f t="shared" si="10"/>
+        <v>3.7780538303479458</v>
+      </c>
+      <c r="G24" s="49">
+        <f t="shared" si="4"/>
+        <v>3.9999999999999994E-2</v>
+      </c>
+      <c r="H24" s="93">
+        <f t="shared" si="5"/>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="I24" s="96">
         <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-      <c r="F24" s="191">
-        <f t="shared" si="8"/>
-        <v>3.7780538303479458</v>
-      </c>
-      <c r="G24" s="49">
-        <f t="shared" si="2"/>
-        <v>3.9999999999999994E-2</v>
-      </c>
-      <c r="H24" s="93">
-        <f t="shared" si="3"/>
-        <v>0.96000000000000008</v>
-      </c>
-      <c r="I24" s="96">
-        <f>$T$5*LN(EXP($F24/$T$5)+EXP($E24/$T$5))</f>
         <v>3.8188758248682011</v>
       </c>
-      <c r="J24" s="187">
-        <f t="shared" si="4"/>
+      <c r="J24" s="182">
+        <f t="shared" si="6"/>
         <v>9.5801987275822675E-2</v>
       </c>
       <c r="K24" s="7"/>
       <c r="L24" s="144">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.7780538303479458</v>
       </c>
       <c r="M24" s="144">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.0300922152103165E-3</v>
       </c>
       <c r="N24" t="str">
@@ -5683,40 +5703,40 @@
         <v>82</v>
       </c>
       <c r="E25" s="48">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+      <c r="F25" s="186">
+        <f t="shared" si="10"/>
+        <v>3.7780538303479458</v>
+      </c>
+      <c r="G25" s="49">
+        <f t="shared" si="4"/>
+        <v>4.4021644850859298E-2</v>
+      </c>
+      <c r="H25" s="93">
+        <f t="shared" si="5"/>
+        <v>0.95597835514914076</v>
+      </c>
+      <c r="I25" s="96">
         <f t="shared" si="1"/>
-        <v>0.7</v>
-      </c>
-      <c r="F25" s="191">
-        <f t="shared" si="8"/>
-        <v>3.7780538303479458</v>
-      </c>
-      <c r="G25" s="49">
-        <f t="shared" si="2"/>
-        <v>4.4021644850859298E-2</v>
-      </c>
-      <c r="H25" s="93">
-        <f t="shared" si="3"/>
-        <v>0.95597835514914076</v>
-      </c>
-      <c r="I25" s="96">
-        <f>$T$5*LN(EXP($F25/$T$5)+EXP($E25/$T$5))</f>
         <v>3.8230738375923785</v>
       </c>
-      <c r="J25" s="187">
-        <f t="shared" si="4"/>
+      <c r="J25" s="182">
+        <f t="shared" si="6"/>
         <v>4.1980127241774134E-3</v>
       </c>
       <c r="K25" s="7"/>
       <c r="L25" s="144">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.8780538303479455</v>
       </c>
       <c r="M25" s="144" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.1980127241774134E-3</v>
       </c>
       <c r="O25" s="7"/>
@@ -5732,40 +5752,40 @@
         <v>83</v>
       </c>
       <c r="E26" s="48">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+      <c r="F26" s="186">
+        <f t="shared" si="10"/>
+        <v>3.8780538303479455</v>
+      </c>
+      <c r="G26" s="49">
+        <f t="shared" si="4"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="H26" s="93">
+        <f t="shared" si="5"/>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="I26" s="96">
         <f t="shared" si="1"/>
-        <v>0.7</v>
-      </c>
-      <c r="F26" s="191">
-        <f t="shared" si="8"/>
-        <v>3.8780538303479455</v>
-      </c>
-      <c r="G26" s="49">
-        <f t="shared" si="2"/>
-        <v>4.0000000000000008E-2</v>
-      </c>
-      <c r="H26" s="93">
-        <f t="shared" si="3"/>
-        <v>0.96000000000000008</v>
-      </c>
-      <c r="I26" s="96">
-        <f>$T$5*LN(EXP($F26/$T$5)+EXP($E26/$T$5))</f>
         <v>3.9188758248682007</v>
       </c>
-      <c r="J26" s="187">
+      <c r="J26" s="182">
         <f>(I26-I25)</f>
         <v>9.5801987275822231E-2</v>
       </c>
       <c r="K26" s="7"/>
       <c r="L26" s="144">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.8780538303479455</v>
       </c>
       <c r="M26" s="144">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.0300922152103165E-3</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="O26" s="7"/>
@@ -5779,40 +5799,40 @@
         <v>82</v>
       </c>
       <c r="E27" s="48">
+        <f t="shared" si="3"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="F27" s="186">
+        <f t="shared" si="10"/>
+        <v>3.8780538303479455</v>
+      </c>
+      <c r="G27" s="49">
+        <f t="shared" si="4"/>
+        <v>4.4021644850859305E-2</v>
+      </c>
+      <c r="H27" s="93">
+        <f t="shared" si="5"/>
+        <v>0.95597835514914065</v>
+      </c>
+      <c r="I27" s="96">
         <f t="shared" si="1"/>
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="F27" s="191">
-        <f t="shared" si="8"/>
-        <v>3.8780538303479455</v>
-      </c>
-      <c r="G27" s="49">
-        <f t="shared" si="2"/>
-        <v>4.4021644850859305E-2</v>
-      </c>
-      <c r="H27" s="93">
-        <f t="shared" si="3"/>
-        <v>0.95597835514914065</v>
-      </c>
-      <c r="I27" s="96">
-        <f>$T$5*LN(EXP($F27/$T$5)+EXP($E27/$T$5))</f>
         <v>3.9230738375923782</v>
       </c>
-      <c r="J27" s="187">
-        <f t="shared" si="4"/>
+      <c r="J27" s="182">
+        <f t="shared" si="6"/>
         <v>4.1980127241774134E-3</v>
       </c>
       <c r="K27" s="7"/>
       <c r="L27" s="144">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.9780538303479456</v>
       </c>
       <c r="M27" s="144" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.1980127241774134E-3</v>
       </c>
       <c r="O27" s="7"/>
@@ -5828,32 +5848,32 @@
         <v>83</v>
       </c>
       <c r="E28" s="48">
+        <f t="shared" si="3"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="F28" s="186">
+        <f t="shared" si="10"/>
+        <v>3.9780538303479456</v>
+      </c>
+      <c r="G28" s="49">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="H28" s="93">
+        <f t="shared" si="5"/>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="I28" s="96">
         <f t="shared" si="1"/>
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="F28" s="191">
-        <f t="shared" si="8"/>
-        <v>3.9780538303479456</v>
-      </c>
-      <c r="G28" s="49">
-        <f t="shared" si="2"/>
-        <v>0.04</v>
-      </c>
-      <c r="H28" s="93">
-        <f t="shared" si="3"/>
-        <v>0.96000000000000008</v>
-      </c>
-      <c r="I28" s="96">
-        <f>$T$5*LN(EXP($F28/$T$5)+EXP($E28/$T$5))</f>
         <v>4.0188758248682008</v>
       </c>
-      <c r="J28" s="187">
-        <f t="shared" si="4"/>
+      <c r="J28" s="182">
+        <f t="shared" si="6"/>
         <v>9.5801987275822675E-2</v>
       </c>
       <c r="K28" s="7"/>
       <c r="L28" s="144">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.9780538303479456</v>
       </c>
       <c r="M28" s="144">
@@ -5861,7 +5881,7 @@
         <v>4.0300922152103165E-3</v>
       </c>
       <c r="N28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="O28" s="7"/>
@@ -5874,40 +5894,40 @@
         <v>84</v>
       </c>
       <c r="E29" s="48">
+        <f t="shared" si="3"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="F29" s="186">
+        <f t="shared" si="10"/>
+        <v>3.9780538303479456</v>
+      </c>
+      <c r="G29" s="49">
+        <f t="shared" si="4"/>
+        <v>4.4021644850859305E-2</v>
+      </c>
+      <c r="H29" s="93">
+        <f t="shared" si="5"/>
+        <v>0.95597835514914065</v>
+      </c>
+      <c r="I29" s="96">
         <f t="shared" si="1"/>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="F29" s="191">
-        <f t="shared" si="8"/>
-        <v>3.9780538303479456</v>
-      </c>
-      <c r="G29" s="49">
-        <f t="shared" si="2"/>
-        <v>4.4021644850859305E-2</v>
-      </c>
-      <c r="H29" s="93">
-        <f t="shared" si="3"/>
-        <v>0.95597835514914065</v>
-      </c>
-      <c r="I29" s="96">
-        <f>$T$5*LN(EXP($F29/$T$5)+EXP($E29/$T$5))</f>
         <v>4.0230738375923778</v>
       </c>
-      <c r="J29" s="187">
-        <f t="shared" si="4"/>
+      <c r="J29" s="182">
+        <f t="shared" si="6"/>
         <v>4.1980127241769694E-3</v>
       </c>
       <c r="K29" s="7"/>
       <c r="L29" s="144">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.0780538303479457</v>
       </c>
       <c r="M29" s="144" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N29" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="O29" s="7"/>
@@ -5923,24 +5943,24 @@
       <c r="E30" s="48">
         <v>0</v>
       </c>
-      <c r="F30" s="193">
-        <f t="shared" ref="F17:F30" si="9">F29</f>
+      <c r="F30" s="188">
+        <f t="shared" ref="F30" si="11">F29</f>
         <v>3.9780538303479456</v>
       </c>
       <c r="G30" s="49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.8377967132622502E-2</v>
       </c>
       <c r="H30" s="93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.98162203286737748</v>
       </c>
       <c r="I30" s="133">
-        <f>$T$5*LN(EXP($F30/$T$5)+EXP($E30/$T$5))</f>
+        <f t="shared" si="1"/>
         <v>3.9966027703138742</v>
       </c>
-      <c r="J30" s="188">
-        <f t="shared" si="4"/>
+      <c r="J30" s="183">
+        <f t="shared" si="6"/>
         <v>-2.6471067278503568E-2</v>
       </c>
       <c r="K30" s="7"/>
@@ -5949,11 +5969,11 @@
         <v>3.1780538303479458</v>
       </c>
       <c r="M30" s="144" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="O30" s="7"/>
@@ -5970,7 +5990,7 @@
         <f>E30</f>
         <v>0</v>
       </c>
-      <c r="F31" s="195">
+      <c r="F31" s="190">
         <f>F30</f>
         <v>3.9780538303479456</v>
       </c>
@@ -5983,10 +6003,10 @@
         <v>0.98162203286737748</v>
       </c>
       <c r="I31" s="97">
-        <f>$T$5*LN(EXP($F31/$T$5)+EXP($E31/$T$5))</f>
+        <f t="shared" si="1"/>
         <v>3.9966027703138742</v>
       </c>
-      <c r="J31" s="189">
+      <c r="J31" s="184">
         <f>SUM(J12:J30)</f>
         <v>3.9966027703138742</v>
       </c>
@@ -6009,7 +6029,7 @@
       <c r="I32" s="130">
         <v>0</v>
       </c>
-      <c r="J32" s="190">
+      <c r="J32" s="185">
         <f>J31-(SUMPRODUCT(G31:H31,E31:F31))</f>
         <v>9.1657482511866117E-2</v>
       </c>
@@ -6022,7 +6042,7 @@
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
     </row>
-    <row r="34" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:15" x14ac:dyDescent="0.25">
       <c r="M34" t="s">
         <v>87</v>
       </c>
@@ -6033,7 +6053,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:15" x14ac:dyDescent="0.25">
       <c r="M35">
         <f>M14+(M28*($S$9-1))</f>
         <v>20.821862662767554</v>
@@ -6047,8 +6067,8 @@
         <v>0.69314718055994529</v>
       </c>
     </row>
-    <row r="37" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I37" t="s">
+    <row r="37" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
         <v>92</v>
       </c>
       <c r="J37">
@@ -6059,17 +6079,39 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>95</v>
+      </c>
+      <c r="J38" s="203">
+        <f>M35/J37</f>
+        <v>4.3236163776710163E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>96</v>
+      </c>
       <c r="M39" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="8:15" x14ac:dyDescent="0.25">
       <c r="N40">
         <f>S7*S8</f>
         <v>20</v>
       </c>
     </row>
+    <row r="41" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>98</v>
+      </c>
+    </row>
     <row r="50" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
         <v>74</v>
@@ -6081,12 +6123,12 @@
       </c>
     </row>
     <row r="52" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q52" s="196" t="s">
+      <c r="Q52" s="191" t="s">
         <v>7</v>
       </c>
       <c r="R52" s="10"/>
       <c r="S52" s="10"/>
-      <c r="T52" s="197">
+      <c r="T52" s="192">
         <v>1</v>
       </c>
     </row>
@@ -6137,10 +6179,10 @@
       </c>
       <c r="Q54" s="135"/>
       <c r="R54" s="7"/>
-      <c r="S54" s="199">
+      <c r="S54" s="194">
         <v>0.04</v>
       </c>
-      <c r="T54" s="200">
+      <c r="T54" s="195">
         <f>1-S54</f>
         <v>0.96</v>
       </c>
@@ -6173,8 +6215,8 @@
       <c r="Q56" s="143" t="s">
         <v>78</v>
       </c>
-      <c r="R56" s="198"/>
-      <c r="S56" s="198">
+      <c r="R56" s="193"/>
+      <c r="S56" s="193">
         <v>5000</v>
       </c>
       <c r="T56" s="120"/>
@@ -6230,7 +6272,7 @@
       </c>
       <c r="O58" s="7"/>
       <c r="P58" s="7"/>
-      <c r="Q58" s="202"/>
+      <c r="Q58" s="197"/>
     </row>
     <row r="59" spans="3:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D59" s="26" t="s">
@@ -6243,18 +6285,18 @@
         <v>0</v>
       </c>
       <c r="G59" s="51">
-        <f>EXP(E59/$T$5)/(EXP($F59/$T$5)+EXP($E59/$T$5))</f>
+        <f t="shared" ref="G59:H62" si="12">EXP(E59/$T$5)/(EXP($F59/$T$5)+EXP($E59/$T$5))</f>
         <v>0.5</v>
       </c>
       <c r="H59" s="92">
-        <f>EXP(F59/$T$5)/(EXP($F59/$T$5)+EXP($E59/$T$5))</f>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="I59" s="95">
-        <f>$T$5*LN(EXP($F59/$T$5)+EXP($E59/$T$5))</f>
+        <f t="shared" ref="I59:I78" si="13">$T$5*LN(EXP($F59/$T$5)+EXP($E59/$T$5))</f>
         <v>0.69314718055994529</v>
       </c>
-      <c r="J59" s="186">
+      <c r="J59" s="181">
         <f>(I59-I58)</f>
         <v>0.69314718055994529</v>
       </c>
@@ -6279,18 +6321,18 @@
         <v>503.18</v>
       </c>
       <c r="G60" s="49">
-        <f>EXP(E60/$T$5)/(EXP($F60/$T$5)+EXP($E60/$T$5))</f>
+        <f t="shared" si="12"/>
         <v>3.992533395281353E-2</v>
       </c>
       <c r="H60" s="93">
-        <f>EXP(F60/$T$5)/(EXP($F60/$T$5)+EXP($E60/$T$5))</f>
+        <f t="shared" si="12"/>
         <v>0.96007466604718639</v>
       </c>
       <c r="I60" s="96">
-        <f>$T$5*LN(EXP($F60/$T$5)+EXP($E60/$T$5))</f>
+        <f t="shared" si="13"/>
         <v>503.22074422041226</v>
       </c>
-      <c r="J60" s="187">
+      <c r="J60" s="182">
         <f>(I60-I59)</f>
         <v>502.52759703985231</v>
       </c>
@@ -6301,7 +6343,7 @@
       <c r="M60" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="N60" s="201">
+      <c r="N60" s="196">
         <f>IF(D60="Buyer",J60,"")</f>
         <v>502.52759703985231</v>
       </c>
@@ -6320,18 +6362,18 @@
         <v>503.18</v>
       </c>
       <c r="G61" s="49">
-        <f>EXP(E61/$T$5)/(EXP($F61/$T$5)+EXP($E61/$T$5))</f>
+        <f t="shared" si="12"/>
         <v>3.992533395281353E-2</v>
       </c>
       <c r="H61" s="93">
-        <f>EXP(F61/$T$5)/(EXP($F61/$T$5)+EXP($E61/$T$5))</f>
+        <f t="shared" si="12"/>
         <v>0.96007466604718639</v>
       </c>
       <c r="I61" s="96">
-        <f>$T$5*LN(EXP($F61/$T$5)+EXP($E61/$T$5))</f>
+        <f t="shared" si="13"/>
         <v>503.22074422041226</v>
       </c>
-      <c r="J61" s="187">
+      <c r="J61" s="182">
         <f>(I61-I60)</f>
         <v>0</v>
       </c>
@@ -6348,11 +6390,11 @@
         <f>IF(D61="Buyer",J61,"")</f>
         <v/>
       </c>
-      <c r="P61" s="192"/>
+      <c r="P61" s="187"/>
       <c r="Q61" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="R61" s="194"/>
+      <c r="R61" s="189"/>
     </row>
     <row r="62" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
@@ -6364,24 +6406,24 @@
       <c r="E62" s="48">
         <v>510</v>
       </c>
-      <c r="F62" s="191">
+      <c r="F62" s="186">
         <f>F61</f>
         <v>503.18</v>
       </c>
       <c r="G62" s="49">
-        <f>EXP(E62/$T$5)/(EXP($F62/$T$5)+EXP($E62/$T$5))</f>
+        <f t="shared" si="12"/>
         <v>0.99890946963253902</v>
       </c>
       <c r="H62" s="93">
-        <f>EXP(F62/$T$5)/(EXP($F62/$T$5)+EXP($E62/$T$5))</f>
+        <f t="shared" si="12"/>
         <v>1.0905303674609804E-3</v>
       </c>
       <c r="I62" s="96">
-        <f>$T$5*LN(EXP($F62/$T$5)+EXP($E62/$T$5))</f>
+        <f t="shared" si="13"/>
         <v>510.00109112542839</v>
       </c>
-      <c r="J62" s="187">
-        <f t="shared" ref="J62:J77" si="10">(I62-I61)</f>
+      <c r="J62" s="182">
+        <f t="shared" ref="J62:J77" si="14">(I62-I61)</f>
         <v>6.7803469050161311</v>
       </c>
       <c r="K62" s="7"/>
@@ -6390,7 +6432,7 @@
         <v>513.17805383034795</v>
       </c>
       <c r="M62" s="144" t="str">
-        <f t="shared" ref="M62:M77" si="11">IF( D62="Seller",((F62-F61)-J62)*$T$7,"")</f>
+        <f t="shared" ref="M62" si="15">IF( D62="Seller",((F62-F61)-J62)*$T$7,"")</f>
         <v/>
       </c>
       <c r="N62">
@@ -6407,28 +6449,28 @@
       <c r="E63" s="48">
         <v>510</v>
       </c>
-      <c r="F63" s="191">
+      <c r="F63" s="186">
         <v>0</v>
       </c>
       <c r="G63" s="49">
-        <f t="shared" ref="G63:G77" si="12">EXP(E63/$T$5)/(EXP($F63/$T$5)+EXP($E63/$T$5))</f>
+        <f t="shared" ref="G63:G77" si="16">EXP(E63/$T$5)/(EXP($F63/$T$5)+EXP($E63/$T$5))</f>
         <v>1</v>
       </c>
       <c r="H63" s="93">
-        <f t="shared" ref="H63:H77" si="13">EXP(F63/$T$5)/(EXP($F63/$T$5)+EXP($E63/$T$5))</f>
+        <f t="shared" ref="H63:H77" si="17">EXP(F63/$T$5)/(EXP($F63/$T$5)+EXP($E63/$T$5))</f>
         <v>3.2345526845351109E-222</v>
       </c>
       <c r="I63" s="96">
-        <f>$T$5*LN(EXP($F63/$T$5)+EXP($E63/$T$5))</f>
+        <f t="shared" si="13"/>
         <v>510</v>
       </c>
-      <c r="J63" s="187">
+      <c r="J63" s="182">
         <f>(I63-I62)</f>
         <v>-1.0911254283882954E-3</v>
       </c>
       <c r="K63" s="7"/>
       <c r="L63" s="144">
-        <f t="shared" ref="L63:L76" si="14">$T$5*LN($T$7/$S$7)+E63</f>
+        <f t="shared" ref="L63:L76" si="18">$T$5*LN($T$7/$S$7)+E63</f>
         <v>513.17805383034795</v>
       </c>
       <c r="M63" s="144">
@@ -6436,13 +6478,13 @@
         <v>-483.05175251958872</v>
       </c>
       <c r="N63" t="str">
-        <f t="shared" ref="N63:N80" si="15">IF(D63="Buyer",J63,"")</f>
+        <f t="shared" ref="N63:N69" si="19">IF(D63="Buyer",J63,"")</f>
         <v/>
       </c>
       <c r="O63" s="7"/>
       <c r="P63" s="7"/>
       <c r="Q63" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64" spans="3:20" x14ac:dyDescent="0.25">
@@ -6450,34 +6492,34 @@
         <v>82</v>
       </c>
       <c r="E64" s="48"/>
-      <c r="F64" s="191"/>
+      <c r="F64" s="186"/>
       <c r="G64" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="H64" s="93">
+        <f t="shared" si="17"/>
+        <v>0.5</v>
+      </c>
+      <c r="I64" s="96">
         <f t="shared" si="13"/>
-        <v>0.5</v>
-      </c>
-      <c r="I64" s="96">
-        <f>$T$5*LN(EXP($F64/$T$5)+EXP($E64/$T$5))</f>
         <v>0.69314718055994529</v>
       </c>
-      <c r="J64" s="187">
-        <f t="shared" si="10"/>
+      <c r="J64" s="182">
+        <f t="shared" si="14"/>
         <v>-509.30685281944005</v>
       </c>
       <c r="K64" s="7"/>
       <c r="L64" s="144">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>3.1780538303479458</v>
       </c>
       <c r="M64" s="144" t="str">
-        <f t="shared" ref="M64:M79" si="16">IF( D64="Seller",((F64-F63)-J64)*$T$7,"")</f>
+        <f t="shared" ref="M64" si="20">IF( D64="Seller",((F64-F63)-J64)*$T$7,"")</f>
         <v/>
       </c>
       <c r="N64">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-509.30685281944005</v>
       </c>
       <c r="O64" s="7"/>
@@ -6489,26 +6531,26 @@
         <v>83</v>
       </c>
       <c r="E65" s="48"/>
-      <c r="F65" s="191"/>
+      <c r="F65" s="186"/>
       <c r="G65" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="H65" s="93">
+        <f t="shared" si="17"/>
+        <v>0.5</v>
+      </c>
+      <c r="I65" s="96">
         <f t="shared" si="13"/>
-        <v>0.5</v>
-      </c>
-      <c r="I65" s="96">
-        <f>$T$5*LN(EXP($F65/$T$5)+EXP($E65/$T$5))</f>
         <v>0.69314718055994529</v>
       </c>
-      <c r="J65" s="187">
-        <f t="shared" si="10"/>
+      <c r="J65" s="182">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K65" s="7"/>
       <c r="L65" s="144">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>3.1780538303479458</v>
       </c>
       <c r="M65" s="144">
@@ -6516,13 +6558,13 @@
         <v>0</v>
       </c>
       <c r="N65" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="O65" s="7"/>
       <c r="P65" s="7"/>
       <c r="Q65" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="4:17" x14ac:dyDescent="0.25">
@@ -6530,40 +6572,40 @@
         <v>82</v>
       </c>
       <c r="E66" s="48"/>
-      <c r="F66" s="191"/>
+      <c r="F66" s="186"/>
       <c r="G66" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="H66" s="93">
+        <f t="shared" si="17"/>
+        <v>0.5</v>
+      </c>
+      <c r="I66" s="96">
         <f t="shared" si="13"/>
-        <v>0.5</v>
-      </c>
-      <c r="I66" s="96">
-        <f>$T$5*LN(EXP($F66/$T$5)+EXP($E66/$T$5))</f>
         <v>0.69314718055994529</v>
       </c>
-      <c r="J66" s="187">
-        <f t="shared" si="10"/>
+      <c r="J66" s="182">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K66" s="7"/>
       <c r="L66" s="144">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>3.1780538303479458</v>
       </c>
       <c r="M66" s="144" t="str">
-        <f t="shared" ref="M66:M81" si="17">IF( D66="Seller",((F66-F65)-J66)*$T$7,"")</f>
+        <f t="shared" ref="M66" si="21">IF( D66="Seller",((F66-F65)-J66)*$T$7,"")</f>
         <v/>
       </c>
       <c r="N66">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="O66" s="7"/>
       <c r="P66" s="7"/>
       <c r="Q66" s="8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="4:17" x14ac:dyDescent="0.25">
@@ -6571,26 +6613,26 @@
         <v>83</v>
       </c>
       <c r="E67" s="48"/>
-      <c r="F67" s="191"/>
+      <c r="F67" s="186"/>
       <c r="G67" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="H67" s="93">
+        <f t="shared" si="17"/>
+        <v>0.5</v>
+      </c>
+      <c r="I67" s="96">
         <f t="shared" si="13"/>
-        <v>0.5</v>
-      </c>
-      <c r="I67" s="96">
-        <f>$T$5*LN(EXP($F67/$T$5)+EXP($E67/$T$5))</f>
         <v>0.69314718055994529</v>
       </c>
-      <c r="J67" s="187">
-        <f t="shared" si="10"/>
+      <c r="J67" s="182">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K67" s="7"/>
       <c r="L67" s="144">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>3.1780538303479458</v>
       </c>
       <c r="M67" s="144">
@@ -6598,85 +6640,89 @@
         <v>0</v>
       </c>
       <c r="N67" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="O67" s="7"/>
       <c r="P67" s="7"/>
-      <c r="Q67" s="7"/>
+      <c r="Q67" s="8" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="68" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D68" s="26" t="s">
         <v>82</v>
       </c>
       <c r="E68" s="48"/>
-      <c r="F68" s="191"/>
+      <c r="F68" s="186"/>
       <c r="G68" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="H68" s="93">
+        <f t="shared" si="17"/>
+        <v>0.5</v>
+      </c>
+      <c r="I68" s="96">
         <f t="shared" si="13"/>
-        <v>0.5</v>
-      </c>
-      <c r="I68" s="96">
-        <f>$T$5*LN(EXP($F68/$T$5)+EXP($E68/$T$5))</f>
         <v>0.69314718055994529</v>
       </c>
-      <c r="J68" s="187">
-        <f t="shared" si="10"/>
+      <c r="J68" s="182">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K68" s="7"/>
       <c r="L68" s="144">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>3.1780538303479458</v>
       </c>
       <c r="M68" s="144" t="str">
-        <f t="shared" ref="M68:M83" si="18">IF( D68="Seller",((F68-F67)-J68)*$T$7,"")</f>
+        <f t="shared" ref="M68:M74" si="22">IF( D68="Seller",((F68-F67)-J68)*$T$7,"")</f>
         <v/>
       </c>
       <c r="N68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="O68" s="7"/>
       <c r="P68" s="7"/>
-      <c r="Q68" s="7"/>
+      <c r="Q68" s="8" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="69" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D69" s="26" t="s">
         <v>83</v>
       </c>
       <c r="E69" s="48"/>
-      <c r="F69" s="191"/>
+      <c r="F69" s="186"/>
       <c r="G69" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="H69" s="93">
+        <f t="shared" si="17"/>
+        <v>0.5</v>
+      </c>
+      <c r="I69" s="96">
         <f t="shared" si="13"/>
-        <v>0.5</v>
-      </c>
-      <c r="I69" s="96">
-        <f>$T$5*LN(EXP($F69/$T$5)+EXP($E69/$T$5))</f>
         <v>0.69314718055994529</v>
       </c>
-      <c r="J69" s="187">
-        <f t="shared" si="10"/>
+      <c r="J69" s="182">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K69" s="7"/>
       <c r="L69" s="144">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>3.1780538303479458</v>
       </c>
       <c r="M69" s="144">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N69" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="O69" s="7"/>
@@ -6688,30 +6734,30 @@
         <v>82</v>
       </c>
       <c r="E70" s="48"/>
-      <c r="F70" s="191"/>
+      <c r="F70" s="186"/>
       <c r="G70" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="H70" s="93">
+        <f t="shared" si="17"/>
+        <v>0.5</v>
+      </c>
+      <c r="I70" s="96">
         <f t="shared" si="13"/>
-        <v>0.5</v>
-      </c>
-      <c r="I70" s="96">
-        <f>$T$5*LN(EXP($F70/$T$5)+EXP($E70/$T$5))</f>
         <v>0.69314718055994529</v>
       </c>
-      <c r="J70" s="187">
-        <f t="shared" si="10"/>
+      <c r="J70" s="182">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K70" s="7"/>
       <c r="L70" s="144">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>3.1780538303479458</v>
       </c>
       <c r="M70" s="144" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="N70">
@@ -6727,30 +6773,30 @@
         <v>83</v>
       </c>
       <c r="E71" s="48"/>
-      <c r="F71" s="191"/>
+      <c r="F71" s="186"/>
       <c r="G71" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="H71" s="93">
+        <f t="shared" si="17"/>
+        <v>0.5</v>
+      </c>
+      <c r="I71" s="96">
         <f t="shared" si="13"/>
-        <v>0.5</v>
-      </c>
-      <c r="I71" s="96">
-        <f>$T$5*LN(EXP($F71/$T$5)+EXP($E71/$T$5))</f>
         <v>0.69314718055994529</v>
       </c>
-      <c r="J71" s="187">
-        <f t="shared" si="10"/>
+      <c r="J71" s="182">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K71" s="7"/>
       <c r="L71" s="144">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>3.1780538303479458</v>
       </c>
       <c r="M71" s="144">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N71" t="str">
@@ -6766,34 +6812,34 @@
         <v>82</v>
       </c>
       <c r="E72" s="48"/>
-      <c r="F72" s="191"/>
+      <c r="F72" s="186"/>
       <c r="G72" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="H72" s="93">
+        <f t="shared" si="17"/>
+        <v>0.5</v>
+      </c>
+      <c r="I72" s="96">
         <f t="shared" si="13"/>
-        <v>0.5</v>
-      </c>
-      <c r="I72" s="96">
-        <f>$T$5*LN(EXP($F72/$T$5)+EXP($E72/$T$5))</f>
         <v>0.69314718055994529</v>
       </c>
-      <c r="J72" s="187">
-        <f t="shared" si="10"/>
+      <c r="J72" s="182">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K72" s="7"/>
       <c r="L72" s="144">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>3.1780538303479458</v>
       </c>
       <c r="M72" s="144" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="N72">
-        <f t="shared" ref="N72:N88" si="19">IF(D72="Buyer",J72,"")</f>
+        <f t="shared" ref="N72:N77" si="23">IF(D72="Buyer",J72,"")</f>
         <v>0</v>
       </c>
       <c r="O72" s="7"/>
@@ -6805,34 +6851,34 @@
         <v>83</v>
       </c>
       <c r="E73" s="48"/>
-      <c r="F73" s="191"/>
+      <c r="F73" s="186"/>
       <c r="G73" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="H73" s="93">
+        <f t="shared" si="17"/>
+        <v>0.5</v>
+      </c>
+      <c r="I73" s="96">
         <f t="shared" si="13"/>
-        <v>0.5</v>
-      </c>
-      <c r="I73" s="96">
-        <f>$T$5*LN(EXP($F73/$T$5)+EXP($E73/$T$5))</f>
         <v>0.69314718055994529</v>
       </c>
-      <c r="J73" s="187">
-        <f t="shared" si="10"/>
+      <c r="J73" s="182">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K73" s="7"/>
       <c r="L73" s="144">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>3.1780538303479458</v>
       </c>
       <c r="M73" s="144">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N73" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="O73" s="7"/>
@@ -6844,34 +6890,34 @@
         <v>82</v>
       </c>
       <c r="E74" s="48"/>
-      <c r="F74" s="191"/>
+      <c r="F74" s="186"/>
       <c r="G74" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="H74" s="93">
+        <f t="shared" si="17"/>
+        <v>0.5</v>
+      </c>
+      <c r="I74" s="96">
         <f t="shared" si="13"/>
-        <v>0.5</v>
-      </c>
-      <c r="I74" s="96">
-        <f>$T$5*LN(EXP($F74/$T$5)+EXP($E74/$T$5))</f>
         <v>0.69314718055994529</v>
       </c>
-      <c r="J74" s="187">
-        <f t="shared" si="10"/>
+      <c r="J74" s="182">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K74" s="7"/>
       <c r="L74" s="144">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>3.1780538303479458</v>
       </c>
       <c r="M74" s="144" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="N74">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O74" s="7"/>
@@ -6883,26 +6929,26 @@
         <v>83</v>
       </c>
       <c r="E75" s="48"/>
-      <c r="F75" s="191"/>
+      <c r="F75" s="186"/>
       <c r="G75" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="H75" s="93">
+        <f t="shared" si="17"/>
+        <v>0.5</v>
+      </c>
+      <c r="I75" s="96">
         <f t="shared" si="13"/>
-        <v>0.5</v>
-      </c>
-      <c r="I75" s="96">
-        <f>$T$5*LN(EXP($F75/$T$5)+EXP($E75/$T$5))</f>
         <v>0.69314718055994529</v>
       </c>
-      <c r="J75" s="187">
-        <f t="shared" si="10"/>
+      <c r="J75" s="182">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K75" s="7"/>
       <c r="L75" s="144">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>3.1780538303479458</v>
       </c>
       <c r="M75" s="144">
@@ -6910,7 +6956,7 @@
         <v>0</v>
       </c>
       <c r="N75" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="O75" s="7"/>
@@ -6922,34 +6968,34 @@
         <v>84</v>
       </c>
       <c r="E76" s="48"/>
-      <c r="F76" s="191"/>
+      <c r="F76" s="186"/>
       <c r="G76" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="H76" s="93">
+        <f t="shared" si="17"/>
+        <v>0.5</v>
+      </c>
+      <c r="I76" s="96">
         <f t="shared" si="13"/>
-        <v>0.5</v>
-      </c>
-      <c r="I76" s="96">
-        <f>$T$5*LN(EXP($F76/$T$5)+EXP($E76/$T$5))</f>
         <v>0.69314718055994529</v>
       </c>
-      <c r="J76" s="187">
-        <f t="shared" si="10"/>
+      <c r="J76" s="182">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K76" s="7"/>
       <c r="L76" s="144">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>3.1780538303479458</v>
       </c>
       <c r="M76" s="144" t="str">
-        <f t="shared" ref="M76:M88" si="20">IF( D76="Seller",((F76-F75)-J76)*$T$7,"")</f>
+        <f t="shared" ref="M76:M77" si="24">IF( D76="Seller",((F76-F75)-J76)*$T$7,"")</f>
         <v/>
       </c>
       <c r="N76" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="O76" s="7"/>
@@ -6961,21 +7007,21 @@
         <v>40</v>
       </c>
       <c r="E77" s="48"/>
-      <c r="F77" s="193"/>
+      <c r="F77" s="188"/>
       <c r="G77" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="H77" s="93">
+        <f t="shared" si="17"/>
+        <v>0.5</v>
+      </c>
+      <c r="I77" s="133">
         <f t="shared" si="13"/>
-        <v>0.5</v>
-      </c>
-      <c r="I77" s="133">
-        <f>$T$5*LN(EXP($F77/$T$5)+EXP($E77/$T$5))</f>
         <v>0.69314718055994529</v>
       </c>
-      <c r="J77" s="188">
-        <f t="shared" si="10"/>
+      <c r="J77" s="183">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K77" s="7"/>
@@ -6984,11 +7030,11 @@
         <v>3.1780538303479458</v>
       </c>
       <c r="M77" s="144" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="N77" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="O77" s="7"/>
@@ -7003,7 +7049,7 @@
         <f>E77</f>
         <v>0</v>
       </c>
-      <c r="F78" s="195">
+      <c r="F78" s="190">
         <f>F77</f>
         <v>0</v>
       </c>
@@ -7016,10 +7062,10 @@
         <v>0.5</v>
       </c>
       <c r="I78" s="97">
-        <f>$T$5*LN(EXP($F78/$T$5)+EXP($E78/$T$5))</f>
+        <f t="shared" si="13"/>
         <v>0.69314718055994529</v>
       </c>
-      <c r="J78" s="189">
+      <c r="J78" s="184">
         <f>SUM(J59:J77)</f>
         <v>0.69314718055994717</v>
       </c>
@@ -7041,7 +7087,7 @@
       <c r="I79" s="130">
         <v>0</v>
       </c>
-      <c r="J79" s="190">
+      <c r="J79" s="185">
         <f>J78-(SUMPRODUCT(G78:H78,E78:F78))</f>
         <v>0.69314718055994717</v>
       </c>
@@ -10102,10 +10148,10 @@
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
-      <c r="F4" s="181" t="s">
+      <c r="F4" s="198" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="182"/>
+      <c r="G4" s="199"/>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
@@ -11045,12 +11091,12 @@
       <c r="U21" s="118"/>
     </row>
     <row r="22" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R22" s="183" t="s">
+      <c r="R22" s="200" t="s">
         <v>68</v>
       </c>
-      <c r="S22" s="184"/>
-      <c r="T22" s="184"/>
-      <c r="U22" s="185"/>
+      <c r="S22" s="201"/>
+      <c r="T22" s="201"/>
+      <c r="U22" s="202"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/docs/LogMSR_Demo.xlsx
+++ b/docs/LogMSR_Demo.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="21075" windowHeight="9975" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="21075" windowHeight="9975" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HLMSR" sheetId="6" r:id="rId1"/>
-    <sheet name="Changing b mid contract" sheetId="8" r:id="rId2"/>
-    <sheet name="Insurance Fraud" sheetId="9" r:id="rId3"/>
-    <sheet name="Some Accounting" sheetId="7" r:id="rId4"/>
-    <sheet name="2x2 Update Calculator" sheetId="5" r:id="rId5"/>
+    <sheet name="Simple Example" sheetId="10" r:id="rId2"/>
+    <sheet name="Changing b mid contract" sheetId="8" r:id="rId3"/>
+    <sheet name="Insurance Fraud Experiments" sheetId="9" r:id="rId4"/>
+    <sheet name="Some Accounting" sheetId="7" r:id="rId5"/>
+    <sheet name="2x2 Update Calculator" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="113">
   <si>
     <t>Final</t>
   </si>
@@ -332,6 +333,33 @@
   <si>
     <t>augmentation - see note on manipulation (this would certainly work IF the augmentation were ungameable [which will probably not be met])</t>
   </si>
+  <si>
+    <t>i=0</t>
+  </si>
+  <si>
+    <t>i=1</t>
+  </si>
+  <si>
+    <t>Liquidity Parameter</t>
+  </si>
+  <si>
+    <t>Seed Capital Required</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Trade</t>
+  </si>
+  <si>
+    <t>Trade Cost</t>
+  </si>
+  <si>
+    <t>Interpretation</t>
+  </si>
+  <si>
+    <t>Order Books of Infinite Liquidity</t>
+  </si>
 </sst>
 </file>
 
@@ -344,9 +372,9 @@
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="0.00000"/>
     <numFmt numFmtId="169" formatCode="0.0000000"/>
-    <numFmt numFmtId="172" formatCode="0.00000%"/>
+    <numFmt numFmtId="170" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,6 +423,20 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -481,7 +523,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -948,13 +990,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1237,6 +1305,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1252,7 +1321,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1387,11 +1509,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="65127552"/>
-        <c:axId val="65129088"/>
+        <c:axId val="54557696"/>
+        <c:axId val="54575872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65127552"/>
+        <c:axId val="54557696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1400,7 +1522,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65129088"/>
+        <c:crossAx val="54575872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1408,7 +1530,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65129088"/>
+        <c:axId val="54575872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1419,7 +1541,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65127552"/>
+        <c:crossAx val="54557696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1441,6 +1563,155 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Simple Example'!$G$8:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53565367083397153</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32865254651727005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84739133515736897</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88079707797788231</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57094659688346627</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.78342090423182409</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.36090725483714864</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.88079707797788231</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36090725483714881</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.95257412682243314</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.57094659688346627</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.99111341128091202</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.99111341128091202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="48932736"/>
+        <c:axId val="49505792"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="48932736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49505792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="49505792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="48932736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1558,11 +1829,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="66620032"/>
-        <c:axId val="66630016"/>
+        <c:axId val="56435456"/>
+        <c:axId val="56436992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66620032"/>
+        <c:axId val="56435456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1571,7 +1842,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66630016"/>
+        <c:crossAx val="56436992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1579,7 +1850,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66630016"/>
+        <c:axId val="56436992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1590,7 +1861,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66620032"/>
+        <c:crossAx val="56435456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1790,6 +2061,41 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>503464</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>111577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>231322</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>244927</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2116,7 +2422,7 @@
   <dimension ref="A2:AP59"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2234,17 +2540,17 @@
       <c r="D7" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="90" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="91" t="s">
-        <v>9</v>
+      <c r="E7" s="208" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="209" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="210" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" s="211" t="s">
+        <v>105</v>
       </c>
       <c r="I7" s="43">
         <v>0</v>
@@ -2652,16 +2958,16 @@
       <c r="D25" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="40" t="s">
+      <c r="E25" s="208" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="59" t="s">
+      <c r="F25" s="212" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="41" t="s">
+      <c r="G25" s="209" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="60" t="s">
+      <c r="H25" s="213" t="s">
         <v>11</v>
       </c>
       <c r="I25" s="70" t="s">
@@ -3642,6 +3948,1033 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:X27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="9" width="11.42578125" style="34" customWidth="1"/>
+    <col min="10" max="10" width="12" style="34" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="0" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" customWidth="1"/>
+    <col min="20" max="20" width="12.140625" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" customWidth="1"/>
+    <col min="24" max="24" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:24" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B2" s="226" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="163"/>
+      <c r="K2" s="214" t="s">
+        <v>106</v>
+      </c>
+      <c r="L2" s="215">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K3" s="216" t="s">
+        <v>107</v>
+      </c>
+      <c r="L3" s="217">
+        <f>I8</f>
+        <v>4.8520302639196169</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="L4" s="27"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4" s="8"/>
+    </row>
+    <row r="5" spans="2:24" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5" s="8"/>
+    </row>
+    <row r="6" spans="2:24" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D6"/>
+      <c r="E6" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="69"/>
+      <c r="I6" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="20"/>
+      <c r="L6" s="220" t="s">
+        <v>109</v>
+      </c>
+      <c r="M6" s="221"/>
+      <c r="N6" s="223" t="s">
+        <v>110</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="224" t="s">
+        <v>111</v>
+      </c>
+      <c r="S6" s="20"/>
+    </row>
+    <row r="7" spans="2:24" s="7" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="33"/>
+      <c r="D7" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="208" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="209" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="210" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" s="211" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" s="43">
+        <v>0</v>
+      </c>
+      <c r="J7" s="44"/>
+      <c r="L7" s="218" t="str">
+        <f>E7</f>
+        <v>i=0</v>
+      </c>
+      <c r="M7" s="219" t="str">
+        <f>F7</f>
+        <v>i=1</v>
+      </c>
+      <c r="R7"/>
+    </row>
+    <row r="8" spans="2:24" s="7" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="26">
+        <v>1</v>
+      </c>
+      <c r="E8" s="45">
+        <v>0</v>
+      </c>
+      <c r="F8" s="46">
+        <v>0</v>
+      </c>
+      <c r="G8" s="51">
+        <f>EXP(E8/$L$2)/(EXP($F8/$L$2)+EXP($E8/$L$2))</f>
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="207">
+        <f>EXP(F8/$L$2)/(EXP($F8/$L$2)+EXP($E8/$L$2))</f>
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="95">
+        <f>$L$2*LN(EXP($F8/$L$2)+EXP($E8/$L$2))</f>
+        <v>4.8520302639196169</v>
+      </c>
+      <c r="J8" s="47">
+        <f>(I8-I7)</f>
+        <v>4.8520302639196169</v>
+      </c>
+      <c r="L8" s="135"/>
+      <c r="M8" s="118"/>
+      <c r="R8"/>
+      <c r="X8" s="227"/>
+    </row>
+    <row r="9" spans="2:24" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D9" s="26">
+        <v>2</v>
+      </c>
+      <c r="E9" s="48">
+        <v>1</v>
+      </c>
+      <c r="F9" s="42">
+        <v>0</v>
+      </c>
+      <c r="G9" s="49">
+        <f>EXP(E9/$L$2)/(EXP($F9/$L$2)+EXP($E9/$L$2))</f>
+        <v>0.53565367083397153</v>
+      </c>
+      <c r="H9" s="204">
+        <f>EXP(F9/$L$2)/(EXP($F9/$L$2)+EXP($E9/$L$2))</f>
+        <v>0.46434632916602836</v>
+      </c>
+      <c r="I9" s="96">
+        <f>$L$2*LN(EXP($F9/$L$2)+EXP($E9/$L$2))</f>
+        <v>5.3698722427589098</v>
+      </c>
+      <c r="J9" s="50">
+        <f>(I9-I8)</f>
+        <v>0.51784197883929295</v>
+      </c>
+      <c r="L9" s="135">
+        <f>E9-E8</f>
+        <v>1</v>
+      </c>
+      <c r="M9" s="118">
+        <f>F9-F8</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="222">
+        <f>J9</f>
+        <v>0.51784197883929295</v>
+      </c>
+      <c r="P9" s="7" t="str">
+        <f>IF(L9&gt;0,"Bought ",IF(L9&lt;0,"Sold ",""))&amp;IF(L9&lt;0,L9*-1,IF(L9&gt;0,L9,""))&amp;IF(L9&lt;&gt;0," Shares of State 1 at a cost of "&amp;ROUND($N9,5),"")</f>
+        <v>Bought 1 Shares of State 1 at a cost of 0.51784</v>
+      </c>
+      <c r="Q9" s="7" t="str">
+        <f t="shared" ref="Q9:Q23" si="0">IF(M9&gt;0,"Bought ",IF(M9&lt;0,"Sold ",""))&amp;IF(M9&lt;0,M9*-1,IF(M9&gt;0,M9,""))&amp;IF(M9&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($N9,5),"")</f>
+        <v/>
+      </c>
+      <c r="R9" s="225" t="str">
+        <f>P9&amp;Q9</f>
+        <v>Bought 1 Shares of State 1 at a cost of 0.51784</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D10" s="26">
+        <v>3</v>
+      </c>
+      <c r="E10" s="48">
+        <v>1</v>
+      </c>
+      <c r="F10" s="42">
+        <v>6</v>
+      </c>
+      <c r="G10" s="49">
+        <f>EXP(E10/$L$2)/(EXP($F10/$L$2)+EXP($E10/$L$2))</f>
+        <v>0.32865254651727005</v>
+      </c>
+      <c r="H10" s="204">
+        <f>EXP(F10/$L$2)/(EXP($F10/$L$2)+EXP($E10/$L$2))</f>
+        <v>0.67134745348273006</v>
+      </c>
+      <c r="I10" s="96">
+        <f>$L$2*LN(EXP($F10/$L$2)+EXP($E10/$L$2))</f>
+        <v>8.7892792311985044</v>
+      </c>
+      <c r="J10" s="50">
+        <f t="shared" ref="J10:J22" si="1">(I10-I9)</f>
+        <v>3.4194069884395946</v>
+      </c>
+      <c r="L10" s="135">
+        <f t="shared" ref="L10:L23" si="2">E10-E9</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="118">
+        <f t="shared" ref="M10:M23" si="3">F10-F9</f>
+        <v>6</v>
+      </c>
+      <c r="N10" s="222">
+        <f>J10</f>
+        <v>3.4194069884395946</v>
+      </c>
+      <c r="P10" s="7" t="str">
+        <f t="shared" ref="P10:P23" si="4">IF(L10&gt;0,"Bought ",IF(L10&lt;0,"Sold ",""))&amp;IF(L10&lt;0,L10*-1,IF(L10&gt;0,L10,""))&amp;IF(L10&lt;&gt;0," Shares of State 1 at a cost of "&amp;ROUND($N10,5),"")</f>
+        <v/>
+      </c>
+      <c r="Q10" s="7" t="str">
+        <f>IF(M10&gt;0,"Bought ",IF(M10&lt;0,"Sold ",""))&amp;IF(M10&lt;0,M10*-1,IF(M10&gt;0,M10,""))&amp;IF(M10&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($N10,5),"")</f>
+        <v>Bought 6 Shares of State 2 at a cost of 3.41941</v>
+      </c>
+      <c r="R10" s="225" t="str">
+        <f t="shared" ref="R10:R23" si="5">P10&amp;Q10</f>
+        <v>Bought 6 Shares of State 2 at a cost of 3.41941</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D11" s="26">
+        <v>4</v>
+      </c>
+      <c r="E11" s="48">
+        <v>18</v>
+      </c>
+      <c r="F11" s="42">
+        <v>6</v>
+      </c>
+      <c r="G11" s="49">
+        <f>EXP(E11/$L$2)/(EXP($F11/$L$2)+EXP($E11/$L$2))</f>
+        <v>0.84739133515736897</v>
+      </c>
+      <c r="H11" s="204">
+        <f>EXP(F11/$L$2)/(EXP($F11/$L$2)+EXP($E11/$L$2))</f>
+        <v>0.152608664842631</v>
+      </c>
+      <c r="I11" s="96">
+        <f>$L$2*LN(EXP($F11/$L$2)+EXP($E11/$L$2))</f>
+        <v>19.159148662361027</v>
+      </c>
+      <c r="J11" s="50">
+        <f t="shared" ref="J11:J20" si="6">(I11-I10)</f>
+        <v>10.369869431162522</v>
+      </c>
+      <c r="L11" s="135">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="M11" s="118">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="222">
+        <f>J11</f>
+        <v>10.369869431162522</v>
+      </c>
+      <c r="P11" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>Bought 17 Shares of State 1 at a cost of 10.36987</v>
+      </c>
+      <c r="Q11" s="7" t="str">
+        <f t="shared" ref="Q11:Q23" si="7">IF(M11&gt;0,"Bought ",IF(M11&lt;0,"Sold ",""))&amp;IF(M11&lt;0,M11*-1,IF(M11&gt;0,M11,""))&amp;IF(M11&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($N11,5),"")</f>
+        <v/>
+      </c>
+      <c r="R11" s="225" t="str">
+        <f t="shared" si="5"/>
+        <v>Bought 17 Shares of State 1 at a cost of 10.36987</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D12" s="26">
+        <v>5</v>
+      </c>
+      <c r="E12" s="48">
+        <v>18</v>
+      </c>
+      <c r="F12" s="42">
+        <v>18</v>
+      </c>
+      <c r="G12" s="49">
+        <f>EXP(E12/$L$2)/(EXP($F12/$L$2)+EXP($E12/$L$2))</f>
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="204">
+        <f>EXP(F12/$L$2)/(EXP($F12/$L$2)+EXP($E12/$L$2))</f>
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="96">
+        <f>$L$2*LN(EXP($F12/$L$2)+EXP($E12/$L$2))</f>
+        <v>22.85203026391962</v>
+      </c>
+      <c r="J12" s="50">
+        <f t="shared" si="6"/>
+        <v>3.692881601558593</v>
+      </c>
+      <c r="L12" s="135">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="118">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="N12" s="222">
+        <f>J12</f>
+        <v>3.692881601558593</v>
+      </c>
+      <c r="P12" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Q12" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>Bought 12 Shares of State 2 at a cost of 3.69288</v>
+      </c>
+      <c r="R12" s="225" t="str">
+        <f t="shared" si="5"/>
+        <v>Bought 12 Shares of State 2 at a cost of 3.69288</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D13" s="26">
+        <v>6</v>
+      </c>
+      <c r="E13" s="48">
+        <v>32</v>
+      </c>
+      <c r="F13" s="42">
+        <v>18</v>
+      </c>
+      <c r="G13" s="49">
+        <f>EXP(E13/$L$2)/(EXP($F13/$L$2)+EXP($E13/$L$2))</f>
+        <v>0.88079707797788231</v>
+      </c>
+      <c r="H13" s="204">
+        <f>EXP(F13/$L$2)/(EXP($F13/$L$2)+EXP($E13/$L$2))</f>
+        <v>0.11920292202211759</v>
+      </c>
+      <c r="I13" s="96">
+        <f>$L$2*LN(EXP($F13/$L$2)+EXP($E13/$L$2))</f>
+        <v>32.8884960773008</v>
+      </c>
+      <c r="J13" s="50">
+        <f t="shared" si="6"/>
+        <v>10.036465813381181</v>
+      </c>
+      <c r="L13" s="135">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="M13" s="118">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="222">
+        <f>J13</f>
+        <v>10.036465813381181</v>
+      </c>
+      <c r="P13" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>Bought 14 Shares of State 1 at a cost of 10.03647</v>
+      </c>
+      <c r="Q13" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R13" s="225" t="str">
+        <f t="shared" si="5"/>
+        <v>Bought 14 Shares of State 1 at a cost of 10.03647</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D14" s="26">
+        <v>7</v>
+      </c>
+      <c r="E14" s="48">
+        <v>32</v>
+      </c>
+      <c r="F14" s="42">
+        <v>30</v>
+      </c>
+      <c r="G14" s="49">
+        <f>EXP(E14/$L$2)/(EXP($F14/$L$2)+EXP($E14/$L$2))</f>
+        <v>0.57094659688346627</v>
+      </c>
+      <c r="H14" s="204">
+        <f>EXP(F14/$L$2)/(EXP($F14/$L$2)+EXP($E14/$L$2))</f>
+        <v>0.42905340311653373</v>
+      </c>
+      <c r="I14" s="96">
+        <f>$L$2*LN(EXP($F14/$L$2)+EXP($E14/$L$2))</f>
+        <v>35.923217195086352</v>
+      </c>
+      <c r="J14" s="50">
+        <f t="shared" si="6"/>
+        <v>3.0347211177855513</v>
+      </c>
+      <c r="L14" s="135">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="118">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="N14" s="222">
+        <f>J14</f>
+        <v>3.0347211177855513</v>
+      </c>
+      <c r="P14" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Q14" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>Bought 12 Shares of State 2 at a cost of 3.03472</v>
+      </c>
+      <c r="R14" s="225" t="str">
+        <f t="shared" si="5"/>
+        <v>Bought 12 Shares of State 2 at a cost of 3.03472</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D15" s="26">
+        <v>8</v>
+      </c>
+      <c r="E15" s="48">
+        <v>39</v>
+      </c>
+      <c r="F15" s="42">
+        <v>30</v>
+      </c>
+      <c r="G15" s="49">
+        <f>EXP(E15/$L$2)/(EXP($F15/$L$2)+EXP($E15/$L$2))</f>
+        <v>0.78342090423182409</v>
+      </c>
+      <c r="H15" s="204">
+        <f>EXP(F15/$L$2)/(EXP($F15/$L$2)+EXP($E15/$L$2))</f>
+        <v>0.21657909576817599</v>
+      </c>
+      <c r="I15" s="96">
+        <f>$L$2*LN(EXP($F15/$L$2)+EXP($E15/$L$2))</f>
+        <v>40.70859621886801</v>
+      </c>
+      <c r="J15" s="50">
+        <f t="shared" si="6"/>
+        <v>4.7853790237816582</v>
+      </c>
+      <c r="L15" s="135">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="M15" s="118">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="222">
+        <f>J15</f>
+        <v>4.7853790237816582</v>
+      </c>
+      <c r="P15" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>Bought 7 Shares of State 1 at a cost of 4.78538</v>
+      </c>
+      <c r="Q15" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R15" s="225" t="str">
+        <f t="shared" si="5"/>
+        <v>Bought 7 Shares of State 1 at a cost of 4.78538</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D16" s="26">
+        <v>9</v>
+      </c>
+      <c r="E16" s="48">
+        <v>39</v>
+      </c>
+      <c r="F16" s="42">
+        <v>43</v>
+      </c>
+      <c r="G16" s="49">
+        <f>EXP(E16/$L$2)/(EXP($F16/$L$2)+EXP($E16/$L$2))</f>
+        <v>0.36090725483714864</v>
+      </c>
+      <c r="H16" s="204">
+        <f>EXP(F16/$L$2)/(EXP($F16/$L$2)+EXP($E16/$L$2))</f>
+        <v>0.63909274516285142</v>
+      </c>
+      <c r="I16" s="96">
+        <f>$L$2*LN(EXP($F16/$L$2)+EXP($E16/$L$2))</f>
+        <v>46.133939858256404</v>
+      </c>
+      <c r="J16" s="50">
+        <f t="shared" si="6"/>
+        <v>5.4253436393883945</v>
+      </c>
+      <c r="L16" s="135">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="118">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="N16" s="222">
+        <f>J16</f>
+        <v>5.4253436393883945</v>
+      </c>
+      <c r="P16" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Q16" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>Bought 13 Shares of State 2 at a cost of 5.42534</v>
+      </c>
+      <c r="R16" s="225" t="str">
+        <f t="shared" si="5"/>
+        <v>Bought 13 Shares of State 2 at a cost of 5.42534</v>
+      </c>
+    </row>
+    <row r="17" spans="3:19" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D17" s="26">
+        <v>10</v>
+      </c>
+      <c r="E17" s="48">
+        <v>57</v>
+      </c>
+      <c r="F17" s="42">
+        <v>43</v>
+      </c>
+      <c r="G17" s="49">
+        <f>EXP(E17/$L$2)/(EXP($F17/$L$2)+EXP($E17/$L$2))</f>
+        <v>0.88079707797788231</v>
+      </c>
+      <c r="H17" s="204">
+        <f>EXP(F17/$L$2)/(EXP($F17/$L$2)+EXP($E17/$L$2))</f>
+        <v>0.11920292202211764</v>
+      </c>
+      <c r="I17" s="96">
+        <f>$L$2*LN(EXP($F17/$L$2)+EXP($E17/$L$2))</f>
+        <v>57.8884960773008</v>
+      </c>
+      <c r="J17" s="50">
+        <f>(I17-I16)</f>
+        <v>11.754556219044396</v>
+      </c>
+      <c r="L17" s="135">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="M17" s="118">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="222">
+        <f>J17</f>
+        <v>11.754556219044396</v>
+      </c>
+      <c r="P17" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>Bought 18 Shares of State 1 at a cost of 11.75456</v>
+      </c>
+      <c r="Q17" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R17" s="225" t="str">
+        <f t="shared" si="5"/>
+        <v>Bought 18 Shares of State 1 at a cost of 11.75456</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D18" s="26">
+        <v>11</v>
+      </c>
+      <c r="E18" s="48">
+        <v>57</v>
+      </c>
+      <c r="F18" s="42">
+        <v>61</v>
+      </c>
+      <c r="G18" s="49">
+        <f>EXP(E18/$L$2)/(EXP($F18/$L$2)+EXP($E18/$L$2))</f>
+        <v>0.36090725483714881</v>
+      </c>
+      <c r="H18" s="204">
+        <f>EXP(F18/$L$2)/(EXP($F18/$L$2)+EXP($E18/$L$2))</f>
+        <v>0.63909274516285108</v>
+      </c>
+      <c r="I18" s="96">
+        <f>$L$2*LN(EXP($F18/$L$2)+EXP($E18/$L$2))</f>
+        <v>64.133939858256412</v>
+      </c>
+      <c r="J18" s="50">
+        <f t="shared" si="6"/>
+        <v>6.2454437809556111</v>
+      </c>
+      <c r="L18" s="135">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="118">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="N18" s="222">
+        <f>J18</f>
+        <v>6.2454437809556111</v>
+      </c>
+      <c r="P18" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Q18" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>Bought 18 Shares of State 2 at a cost of 6.24544</v>
+      </c>
+      <c r="R18" s="225" t="str">
+        <f t="shared" si="5"/>
+        <v>Bought 18 Shares of State 2 at a cost of 6.24544</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D19" s="26">
+        <v>12</v>
+      </c>
+      <c r="E19" s="48">
+        <v>61</v>
+      </c>
+      <c r="F19" s="42">
+        <v>61</v>
+      </c>
+      <c r="G19" s="49">
+        <f>EXP(E19/$L$2)/(EXP($F19/$L$2)+EXP($E19/$L$2))</f>
+        <v>0.5</v>
+      </c>
+      <c r="H19" s="204">
+        <f>EXP(F19/$L$2)/(EXP($F19/$L$2)+EXP($E19/$L$2))</f>
+        <v>0.5</v>
+      </c>
+      <c r="I19" s="96">
+        <f>$L$2*LN(EXP($F19/$L$2)+EXP($E19/$L$2))</f>
+        <v>65.852030263919616</v>
+      </c>
+      <c r="J19" s="50">
+        <f t="shared" si="6"/>
+        <v>1.7180904056632045</v>
+      </c>
+      <c r="L19" s="135">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="M19" s="118">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="222">
+        <f>J19</f>
+        <v>1.7180904056632045</v>
+      </c>
+      <c r="P19" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>Bought 4 Shares of State 1 at a cost of 1.71809</v>
+      </c>
+      <c r="Q19" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R19" s="225" t="str">
+        <f t="shared" si="5"/>
+        <v>Bought 4 Shares of State 1 at a cost of 1.71809</v>
+      </c>
+    </row>
+    <row r="20" spans="3:19" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D20" s="26">
+        <v>13</v>
+      </c>
+      <c r="E20" s="48">
+        <v>61</v>
+      </c>
+      <c r="F20" s="42">
+        <v>40</v>
+      </c>
+      <c r="G20" s="49">
+        <f>EXP(E20/$L$2)/(EXP($F20/$L$2)+EXP($E20/$L$2))</f>
+        <v>0.95257412682243314</v>
+      </c>
+      <c r="H20" s="204">
+        <f>EXP(F20/$L$2)/(EXP($F20/$L$2)+EXP($E20/$L$2))</f>
+        <v>4.7425873177566823E-2</v>
+      </c>
+      <c r="I20" s="96">
+        <f>$L$2*LN(EXP($F20/$L$2)+EXP($E20/$L$2))</f>
+        <v>61.340111461016193</v>
+      </c>
+      <c r="J20" s="50">
+        <f t="shared" si="6"/>
+        <v>-4.5119188029034234</v>
+      </c>
+      <c r="L20" s="135">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="118">
+        <f t="shared" si="3"/>
+        <v>-21</v>
+      </c>
+      <c r="N20" s="222">
+        <f>J20</f>
+        <v>-4.5119188029034234</v>
+      </c>
+      <c r="P20" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Q20" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>Sold 21 Shares of State 2 at a cost of -4.51192</v>
+      </c>
+      <c r="R20" s="225" t="str">
+        <f t="shared" si="5"/>
+        <v>Sold 21 Shares of State 2 at a cost of -4.51192</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D21" s="26">
+        <v>14</v>
+      </c>
+      <c r="E21" s="48">
+        <v>42</v>
+      </c>
+      <c r="F21" s="42">
+        <v>40</v>
+      </c>
+      <c r="G21" s="49">
+        <f>EXP(E21/$L$2)/(EXP($F21/$L$2)+EXP($E21/$L$2))</f>
+        <v>0.57094659688346627</v>
+      </c>
+      <c r="H21" s="204">
+        <f>EXP(F21/$L$2)/(EXP($F21/$L$2)+EXP($E21/$L$2))</f>
+        <v>0.42905340311653378</v>
+      </c>
+      <c r="I21" s="96">
+        <f>$L$2*LN(EXP($F21/$L$2)+EXP($E21/$L$2))</f>
+        <v>45.923217195086359</v>
+      </c>
+      <c r="J21" s="50">
+        <f t="shared" si="1"/>
+        <v>-15.416894265929834</v>
+      </c>
+      <c r="L21" s="135">
+        <f t="shared" si="2"/>
+        <v>-19</v>
+      </c>
+      <c r="M21" s="118">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="222">
+        <f>J21</f>
+        <v>-15.416894265929834</v>
+      </c>
+      <c r="P21" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>Sold 19 Shares of State 1 at a cost of -15.41689</v>
+      </c>
+      <c r="Q21" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R21" s="225" t="str">
+        <f t="shared" si="5"/>
+        <v>Sold 19 Shares of State 1 at a cost of -15.41689</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C22"/>
+      <c r="D22" s="26">
+        <v>15</v>
+      </c>
+      <c r="E22" s="48">
+        <v>42</v>
+      </c>
+      <c r="F22" s="42">
+        <v>9</v>
+      </c>
+      <c r="G22" s="49">
+        <f>EXP(E22/$L$2)/(EXP($F22/$L$2)+EXP($E22/$L$2))</f>
+        <v>0.99111341128091202</v>
+      </c>
+      <c r="H22" s="204">
+        <f>EXP(F22/$L$2)/(EXP($F22/$L$2)+EXP($E22/$L$2))</f>
+        <v>8.8865887190879463E-3</v>
+      </c>
+      <c r="I22" s="96">
+        <f>$L$2*LN(EXP($F22/$L$2)+EXP($E22/$L$2))</f>
+        <v>42.062484169635077</v>
+      </c>
+      <c r="J22" s="50">
+        <f t="shared" si="1"/>
+        <v>-3.8607330254512817</v>
+      </c>
+      <c r="L22" s="135">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="118">
+        <f t="shared" si="3"/>
+        <v>-31</v>
+      </c>
+      <c r="N22" s="222">
+        <f>J22</f>
+        <v>-3.8607330254512817</v>
+      </c>
+      <c r="P22" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Q22" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>Sold 31 Shares of State 2 at a cost of -3.86073</v>
+      </c>
+      <c r="R22" s="225" t="str">
+        <f t="shared" si="5"/>
+        <v>Sold 31 Shares of State 2 at a cost of -3.86073</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" s="7" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D23" s="26">
+        <v>16</v>
+      </c>
+      <c r="E23" s="40">
+        <v>42</v>
+      </c>
+      <c r="F23" s="41">
+        <v>9</v>
+      </c>
+      <c r="G23" s="131">
+        <f>EXP(E23/$L$2)/(EXP($F23/$L$2)+EXP($E23/$L$2))</f>
+        <v>0.99111341128091202</v>
+      </c>
+      <c r="H23" s="205">
+        <f>EXP(F23/$L$2)/(EXP($F23/$L$2)+EXP($E23/$L$2))</f>
+        <v>8.8865887190879463E-3</v>
+      </c>
+      <c r="I23" s="133">
+        <f>$L$2*LN(EXP($F23/$L$2)+EXP($E23/$L$2))</f>
+        <v>42.062484169635077</v>
+      </c>
+      <c r="J23" s="134">
+        <f>(I23-I22)</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="143">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="120">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="222">
+        <f>J23</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Q23" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R23" s="225" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="3:19" s="7" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="52">
+        <f>E23</f>
+        <v>42</v>
+      </c>
+      <c r="F24" s="53">
+        <v>0</v>
+      </c>
+      <c r="G24" s="54">
+        <f>EXP(E24)/(EXP($F24)+EXP($E24))</f>
+        <v>1</v>
+      </c>
+      <c r="H24" s="206">
+        <f>EXP(F24)/(EXP($F24)+EXP($E24))</f>
+        <v>5.7495222642935599E-19</v>
+      </c>
+      <c r="I24" s="97">
+        <f>$L$2*LN(EXP($F24/$L$2)+EXP($E24/$L$2))</f>
+        <v>42.017329795964109</v>
+      </c>
+      <c r="J24" s="55">
+        <f>SUM(J8:J23)</f>
+        <v>42.062484169635077</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+    </row>
+    <row r="25" spans="3:19" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="130">
+        <v>0</v>
+      </c>
+      <c r="J25" s="56">
+        <f>J24-(SUMPRODUCT(G24:H24,E24:F24))</f>
+        <v>6.248416963507708E-2</v>
+      </c>
+      <c r="K25" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+    </row>
+    <row r="26" spans="3:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="58"/>
+    </row>
+    <row r="27" spans="3:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="58"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L6:M6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AP43"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -4902,11 +6235,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:T87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T43" sqref="T43"/>
     </sheetView>
   </sheetViews>
@@ -6083,7 +7416,7 @@
       <c r="H38" t="s">
         <v>95</v>
       </c>
-      <c r="J38" s="203">
+      <c r="J38" s="198">
         <f>M35/J37</f>
         <v>4.3236163776710163E-2</v>
       </c>
@@ -7147,7 +8480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R74"/>
   <sheetViews>
@@ -10070,12 +11403,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U22"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10148,10 +11481,10 @@
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
-      <c r="F4" s="198" t="s">
+      <c r="F4" s="199" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="199"/>
+      <c r="G4" s="200"/>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
@@ -11091,12 +12424,12 @@
       <c r="U21" s="118"/>
     </row>
     <row r="22" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R22" s="200" t="s">
+      <c r="R22" s="201" t="s">
         <v>68</v>
       </c>
-      <c r="S22" s="201"/>
-      <c r="T22" s="201"/>
-      <c r="U22" s="202"/>
+      <c r="S22" s="202"/>
+      <c r="T22" s="202"/>
+      <c r="U22" s="203"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/docs/LogMSR_Demo.xlsx
+++ b/docs/LogMSR_Demo.xlsx
@@ -358,7 +358,7 @@
     <t>Interpretation</t>
   </si>
   <si>
-    <t>Order Books of Infinite Liquidity</t>
+    <t>Order Books of Permanent Liquidity</t>
   </si>
 </sst>
 </file>
@@ -1306,21 +1306,6 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1361,12 +1346,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1375,6 +1354,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1509,11 +1509,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="54557696"/>
-        <c:axId val="54575872"/>
+        <c:axId val="108373504"/>
+        <c:axId val="57560448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="54557696"/>
+        <c:axId val="108373504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1522,7 +1522,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54575872"/>
+        <c:crossAx val="57560448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1530,7 +1530,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54575872"/>
+        <c:axId val="57560448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1541,7 +1541,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54557696"/>
+        <c:crossAx val="108373504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1657,11 +1657,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="48932736"/>
-        <c:axId val="49505792"/>
+        <c:axId val="108355584"/>
+        <c:axId val="57562752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="48932736"/>
+        <c:axId val="108355584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1670,7 +1670,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49505792"/>
+        <c:crossAx val="57562752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1678,7 +1678,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49505792"/>
+        <c:axId val="57562752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1689,7 +1689,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48932736"/>
+        <c:crossAx val="108355584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1829,11 +1829,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="56435456"/>
-        <c:axId val="56436992"/>
+        <c:axId val="108359168"/>
+        <c:axId val="113803264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="56435456"/>
+        <c:axId val="108359168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1842,7 +1842,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56436992"/>
+        <c:crossAx val="113803264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1850,7 +1850,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56436992"/>
+        <c:axId val="113803264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1861,7 +1861,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56435456"/>
+        <c:crossAx val="108359168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2065,15 +2065,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>503464</xdr:colOff>
+      <xdr:colOff>557893</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>111577</xdr:rowOff>
+      <xdr:rowOff>220434</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>231322</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>244927</xdr:rowOff>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>99331</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2540,16 +2540,16 @@
       <c r="D7" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="208" t="s">
+      <c r="E7" s="203" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="209" t="s">
+      <c r="F7" s="204" t="s">
         <v>105</v>
       </c>
-      <c r="G7" s="210" t="s">
+      <c r="G7" s="205" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="211" t="s">
+      <c r="H7" s="206" t="s">
         <v>105</v>
       </c>
       <c r="I7" s="43">
@@ -2958,16 +2958,16 @@
       <c r="D25" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="208" t="s">
+      <c r="E25" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="212" t="s">
+      <c r="F25" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="209" t="s">
+      <c r="G25" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="213" t="s">
+      <c r="H25" s="208" t="s">
         <v>11</v>
       </c>
       <c r="I25" s="70" t="s">
@@ -3951,7 +3951,7 @@
   <dimension ref="B1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3972,22 +3972,22 @@
   <sheetData>
     <row r="1" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:24" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B2" s="226" t="s">
+      <c r="B2" s="219" t="s">
         <v>112</v>
       </c>
       <c r="D2" s="163"/>
-      <c r="K2" s="214" t="s">
+      <c r="K2" s="209" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="215">
+      <c r="L2" s="210">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K3" s="216" t="s">
+      <c r="K3" s="211" t="s">
         <v>107</v>
       </c>
-      <c r="L3" s="217">
+      <c r="L3" s="212">
         <f>I8</f>
         <v>4.8520302639196169</v>
       </c>
@@ -4043,18 +4043,18 @@
         <v>37</v>
       </c>
       <c r="K6" s="20"/>
-      <c r="L6" s="220" t="s">
+      <c r="L6" s="221" t="s">
         <v>109</v>
       </c>
-      <c r="M6" s="221"/>
-      <c r="N6" s="223" t="s">
+      <c r="M6" s="222"/>
+      <c r="N6" s="216" t="s">
         <v>110</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>111</v>
       </c>
       <c r="Q6" s="20"/>
-      <c r="R6" s="224" t="s">
+      <c r="R6" s="217" t="s">
         <v>111</v>
       </c>
       <c r="S6" s="20"/>
@@ -4064,27 +4064,27 @@
       <c r="D7" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="208" t="s">
+      <c r="E7" s="203" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="209" t="s">
+      <c r="F7" s="204" t="s">
         <v>105</v>
       </c>
-      <c r="G7" s="210" t="s">
+      <c r="G7" s="205" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="211" t="s">
+      <c r="H7" s="206" t="s">
         <v>105</v>
       </c>
       <c r="I7" s="43">
         <v>0</v>
       </c>
       <c r="J7" s="44"/>
-      <c r="L7" s="218" t="str">
+      <c r="L7" s="213" t="str">
         <f>E7</f>
         <v>i=0</v>
       </c>
-      <c r="M7" s="219" t="str">
+      <c r="M7" s="214" t="str">
         <f>F7</f>
         <v>i=1</v>
       </c>
@@ -4101,15 +4101,15 @@
         <v>0</v>
       </c>
       <c r="G8" s="51">
-        <f>EXP(E8/$L$2)/(EXP($F8/$L$2)+EXP($E8/$L$2))</f>
+        <f t="shared" ref="G8:G23" si="0">EXP(E8/$L$2)/(EXP($F8/$L$2)+EXP($E8/$L$2))</f>
         <v>0.5</v>
       </c>
-      <c r="H8" s="207">
-        <f>EXP(F8/$L$2)/(EXP($F8/$L$2)+EXP($E8/$L$2))</f>
+      <c r="H8" s="202">
+        <f t="shared" ref="H8:H23" si="1">EXP(F8/$L$2)/(EXP($F8/$L$2)+EXP($E8/$L$2))</f>
         <v>0.5</v>
       </c>
       <c r="I8" s="95">
-        <f>$L$2*LN(EXP($F8/$L$2)+EXP($E8/$L$2))</f>
+        <f t="shared" ref="I8:I24" si="2">$L$2*LN(EXP($F8/$L$2)+EXP($E8/$L$2))</f>
         <v>4.8520302639196169</v>
       </c>
       <c r="J8" s="47">
@@ -4119,7 +4119,7 @@
       <c r="L8" s="135"/>
       <c r="M8" s="118"/>
       <c r="R8"/>
-      <c r="X8" s="227"/>
+      <c r="X8" s="220"/>
     </row>
     <row r="9" spans="2:24" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D9" s="26">
@@ -4132,15 +4132,15 @@
         <v>0</v>
       </c>
       <c r="G9" s="49">
-        <f>EXP(E9/$L$2)/(EXP($F9/$L$2)+EXP($E9/$L$2))</f>
+        <f t="shared" si="0"/>
         <v>0.53565367083397153</v>
       </c>
-      <c r="H9" s="204">
-        <f>EXP(F9/$L$2)/(EXP($F9/$L$2)+EXP($E9/$L$2))</f>
+      <c r="H9" s="199">
+        <f t="shared" si="1"/>
         <v>0.46434632916602836</v>
       </c>
       <c r="I9" s="96">
-        <f>$L$2*LN(EXP($F9/$L$2)+EXP($E9/$L$2))</f>
+        <f t="shared" si="2"/>
         <v>5.3698722427589098</v>
       </c>
       <c r="J9" s="50">
@@ -4155,8 +4155,8 @@
         <f>F9-F8</f>
         <v>0</v>
       </c>
-      <c r="N9" s="222">
-        <f>J9</f>
+      <c r="N9" s="215">
+        <f t="shared" ref="N9:N23" si="3">J9</f>
         <v>0.51784197883929295</v>
       </c>
       <c r="P9" s="7" t="str">
@@ -4164,10 +4164,10 @@
         <v>Bought 1 Shares of State 1 at a cost of 0.51784</v>
       </c>
       <c r="Q9" s="7" t="str">
-        <f t="shared" ref="Q9:Q23" si="0">IF(M9&gt;0,"Bought ",IF(M9&lt;0,"Sold ",""))&amp;IF(M9&lt;0,M9*-1,IF(M9&gt;0,M9,""))&amp;IF(M9&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($N9,5),"")</f>
+        <f t="shared" ref="Q9" si="4">IF(M9&gt;0,"Bought ",IF(M9&lt;0,"Sold ",""))&amp;IF(M9&lt;0,M9*-1,IF(M9&gt;0,M9,""))&amp;IF(M9&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($N9,5),"")</f>
         <v/>
       </c>
-      <c r="R9" s="225" t="str">
+      <c r="R9" s="218" t="str">
         <f>P9&amp;Q9</f>
         <v>Bought 1 Shares of State 1 at a cost of 0.51784</v>
       </c>
@@ -4183,43 +4183,43 @@
         <v>6</v>
       </c>
       <c r="G10" s="49">
-        <f>EXP(E10/$L$2)/(EXP($F10/$L$2)+EXP($E10/$L$2))</f>
+        <f t="shared" si="0"/>
         <v>0.32865254651727005</v>
       </c>
-      <c r="H10" s="204">
-        <f>EXP(F10/$L$2)/(EXP($F10/$L$2)+EXP($E10/$L$2))</f>
+      <c r="H10" s="199">
+        <f t="shared" si="1"/>
         <v>0.67134745348273006</v>
       </c>
       <c r="I10" s="96">
-        <f>$L$2*LN(EXP($F10/$L$2)+EXP($E10/$L$2))</f>
+        <f t="shared" si="2"/>
         <v>8.7892792311985044</v>
       </c>
       <c r="J10" s="50">
-        <f t="shared" ref="J10:J22" si="1">(I10-I9)</f>
+        <f t="shared" ref="J10:J22" si="5">(I10-I9)</f>
         <v>3.4194069884395946</v>
       </c>
       <c r="L10" s="135">
-        <f t="shared" ref="L10:L23" si="2">E10-E9</f>
+        <f t="shared" ref="L10:L23" si="6">E10-E9</f>
         <v>0</v>
       </c>
       <c r="M10" s="118">
-        <f t="shared" ref="M10:M23" si="3">F10-F9</f>
+        <f t="shared" ref="M10:M23" si="7">F10-F9</f>
         <v>6</v>
       </c>
-      <c r="N10" s="222">
-        <f>J10</f>
+      <c r="N10" s="215">
+        <f t="shared" si="3"/>
         <v>3.4194069884395946</v>
       </c>
       <c r="P10" s="7" t="str">
-        <f t="shared" ref="P10:P23" si="4">IF(L10&gt;0,"Bought ",IF(L10&lt;0,"Sold ",""))&amp;IF(L10&lt;0,L10*-1,IF(L10&gt;0,L10,""))&amp;IF(L10&lt;&gt;0," Shares of State 1 at a cost of "&amp;ROUND($N10,5),"")</f>
+        <f t="shared" ref="P10:P23" si="8">IF(L10&gt;0,"Bought ",IF(L10&lt;0,"Sold ",""))&amp;IF(L10&lt;0,L10*-1,IF(L10&gt;0,L10,""))&amp;IF(L10&lt;&gt;0," Shares of State 1 at a cost of "&amp;ROUND($N10,5),"")</f>
         <v/>
       </c>
       <c r="Q10" s="7" t="str">
         <f>IF(M10&gt;0,"Bought ",IF(M10&lt;0,"Sold ",""))&amp;IF(M10&lt;0,M10*-1,IF(M10&gt;0,M10,""))&amp;IF(M10&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($N10,5),"")</f>
         <v>Bought 6 Shares of State 2 at a cost of 3.41941</v>
       </c>
-      <c r="R10" s="225" t="str">
-        <f t="shared" ref="R10:R23" si="5">P10&amp;Q10</f>
+      <c r="R10" s="218" t="str">
+        <f t="shared" ref="R10:R23" si="9">P10&amp;Q10</f>
         <v>Bought 6 Shares of State 2 at a cost of 3.41941</v>
       </c>
     </row>
@@ -4234,43 +4234,43 @@
         <v>6</v>
       </c>
       <c r="G11" s="49">
-        <f>EXP(E11/$L$2)/(EXP($F11/$L$2)+EXP($E11/$L$2))</f>
+        <f t="shared" si="0"/>
         <v>0.84739133515736897</v>
       </c>
-      <c r="H11" s="204">
-        <f>EXP(F11/$L$2)/(EXP($F11/$L$2)+EXP($E11/$L$2))</f>
+      <c r="H11" s="199">
+        <f t="shared" si="1"/>
         <v>0.152608664842631</v>
       </c>
       <c r="I11" s="96">
-        <f>$L$2*LN(EXP($F11/$L$2)+EXP($E11/$L$2))</f>
+        <f t="shared" si="2"/>
         <v>19.159148662361027</v>
       </c>
       <c r="J11" s="50">
-        <f t="shared" ref="J11:J20" si="6">(I11-I10)</f>
+        <f t="shared" ref="J11:J20" si="10">(I11-I10)</f>
         <v>10.369869431162522</v>
       </c>
       <c r="L11" s="135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="M11" s="118">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="215">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="222">
-        <f>J11</f>
         <v>10.369869431162522</v>
       </c>
       <c r="P11" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Bought 17 Shares of State 1 at a cost of 10.36987</v>
       </c>
       <c r="Q11" s="7" t="str">
-        <f t="shared" ref="Q11:Q23" si="7">IF(M11&gt;0,"Bought ",IF(M11&lt;0,"Sold ",""))&amp;IF(M11&lt;0,M11*-1,IF(M11&gt;0,M11,""))&amp;IF(M11&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($N11,5),"")</f>
+        <f t="shared" ref="Q11:Q23" si="11">IF(M11&gt;0,"Bought ",IF(M11&lt;0,"Sold ",""))&amp;IF(M11&lt;0,M11*-1,IF(M11&gt;0,M11,""))&amp;IF(M11&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($N11,5),"")</f>
         <v/>
       </c>
-      <c r="R11" s="225" t="str">
-        <f t="shared" si="5"/>
+      <c r="R11" s="218" t="str">
+        <f t="shared" si="9"/>
         <v>Bought 17 Shares of State 1 at a cost of 10.36987</v>
       </c>
     </row>
@@ -4285,43 +4285,43 @@
         <v>18</v>
       </c>
       <c r="G12" s="49">
-        <f>EXP(E12/$L$2)/(EXP($F12/$L$2)+EXP($E12/$L$2))</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="H12" s="204">
-        <f>EXP(F12/$L$2)/(EXP($F12/$L$2)+EXP($E12/$L$2))</f>
+      <c r="H12" s="199">
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I12" s="96">
-        <f>$L$2*LN(EXP($F12/$L$2)+EXP($E12/$L$2))</f>
+        <f t="shared" si="2"/>
         <v>22.85203026391962</v>
       </c>
       <c r="J12" s="50">
+        <f t="shared" si="10"/>
+        <v>3.692881601558593</v>
+      </c>
+      <c r="L12" s="135">
         <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="118">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="N12" s="215">
+        <f t="shared" si="3"/>
         <v>3.692881601558593</v>
       </c>
-      <c r="L12" s="135">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="118">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="N12" s="222">
-        <f>J12</f>
-        <v>3.692881601558593</v>
-      </c>
       <c r="P12" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Q12" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>Bought 12 Shares of State 2 at a cost of 3.69288</v>
       </c>
-      <c r="R12" s="225" t="str">
-        <f t="shared" si="5"/>
+      <c r="R12" s="218" t="str">
+        <f t="shared" si="9"/>
         <v>Bought 12 Shares of State 2 at a cost of 3.69288</v>
       </c>
     </row>
@@ -4336,43 +4336,43 @@
         <v>18</v>
       </c>
       <c r="G13" s="49">
-        <f>EXP(E13/$L$2)/(EXP($F13/$L$2)+EXP($E13/$L$2))</f>
+        <f t="shared" si="0"/>
         <v>0.88079707797788231</v>
       </c>
-      <c r="H13" s="204">
-        <f>EXP(F13/$L$2)/(EXP($F13/$L$2)+EXP($E13/$L$2))</f>
+      <c r="H13" s="199">
+        <f t="shared" si="1"/>
         <v>0.11920292202211759</v>
       </c>
       <c r="I13" s="96">
-        <f>$L$2*LN(EXP($F13/$L$2)+EXP($E13/$L$2))</f>
+        <f t="shared" si="2"/>
         <v>32.8884960773008</v>
       </c>
       <c r="J13" s="50">
+        <f t="shared" si="10"/>
+        <v>10.036465813381181</v>
+      </c>
+      <c r="L13" s="135">
         <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="M13" s="118">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="215">
+        <f t="shared" si="3"/>
         <v>10.036465813381181</v>
       </c>
-      <c r="L13" s="135">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="M13" s="118">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="222">
-        <f>J13</f>
-        <v>10.036465813381181</v>
-      </c>
       <c r="P13" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Bought 14 Shares of State 1 at a cost of 10.03647</v>
       </c>
       <c r="Q13" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="R13" s="225" t="str">
-        <f t="shared" si="5"/>
+      <c r="R13" s="218" t="str">
+        <f t="shared" si="9"/>
         <v>Bought 14 Shares of State 1 at a cost of 10.03647</v>
       </c>
     </row>
@@ -4387,43 +4387,43 @@
         <v>30</v>
       </c>
       <c r="G14" s="49">
-        <f>EXP(E14/$L$2)/(EXP($F14/$L$2)+EXP($E14/$L$2))</f>
+        <f t="shared" si="0"/>
         <v>0.57094659688346627</v>
       </c>
-      <c r="H14" s="204">
-        <f>EXP(F14/$L$2)/(EXP($F14/$L$2)+EXP($E14/$L$2))</f>
+      <c r="H14" s="199">
+        <f t="shared" si="1"/>
         <v>0.42905340311653373</v>
       </c>
       <c r="I14" s="96">
-        <f>$L$2*LN(EXP($F14/$L$2)+EXP($E14/$L$2))</f>
+        <f t="shared" si="2"/>
         <v>35.923217195086352</v>
       </c>
       <c r="J14" s="50">
+        <f t="shared" si="10"/>
+        <v>3.0347211177855513</v>
+      </c>
+      <c r="L14" s="135">
         <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="118">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="N14" s="215">
+        <f t="shared" si="3"/>
         <v>3.0347211177855513</v>
       </c>
-      <c r="L14" s="135">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="118">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="N14" s="222">
-        <f>J14</f>
-        <v>3.0347211177855513</v>
-      </c>
       <c r="P14" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Q14" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>Bought 12 Shares of State 2 at a cost of 3.03472</v>
       </c>
-      <c r="R14" s="225" t="str">
-        <f t="shared" si="5"/>
+      <c r="R14" s="218" t="str">
+        <f t="shared" si="9"/>
         <v>Bought 12 Shares of State 2 at a cost of 3.03472</v>
       </c>
     </row>
@@ -4438,43 +4438,43 @@
         <v>30</v>
       </c>
       <c r="G15" s="49">
-        <f>EXP(E15/$L$2)/(EXP($F15/$L$2)+EXP($E15/$L$2))</f>
+        <f t="shared" si="0"/>
         <v>0.78342090423182409</v>
       </c>
-      <c r="H15" s="204">
-        <f>EXP(F15/$L$2)/(EXP($F15/$L$2)+EXP($E15/$L$2))</f>
+      <c r="H15" s="199">
+        <f t="shared" si="1"/>
         <v>0.21657909576817599</v>
       </c>
       <c r="I15" s="96">
-        <f>$L$2*LN(EXP($F15/$L$2)+EXP($E15/$L$2))</f>
+        <f t="shared" si="2"/>
         <v>40.70859621886801</v>
       </c>
       <c r="J15" s="50">
+        <f t="shared" si="10"/>
+        <v>4.7853790237816582</v>
+      </c>
+      <c r="L15" s="135">
         <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="M15" s="118">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="215">
+        <f t="shared" si="3"/>
         <v>4.7853790237816582</v>
       </c>
-      <c r="L15" s="135">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="M15" s="118">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="222">
-        <f>J15</f>
-        <v>4.7853790237816582</v>
-      </c>
       <c r="P15" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Bought 7 Shares of State 1 at a cost of 4.78538</v>
       </c>
       <c r="Q15" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="R15" s="225" t="str">
-        <f t="shared" si="5"/>
+      <c r="R15" s="218" t="str">
+        <f t="shared" si="9"/>
         <v>Bought 7 Shares of State 1 at a cost of 4.78538</v>
       </c>
     </row>
@@ -4489,43 +4489,43 @@
         <v>43</v>
       </c>
       <c r="G16" s="49">
-        <f>EXP(E16/$L$2)/(EXP($F16/$L$2)+EXP($E16/$L$2))</f>
+        <f t="shared" si="0"/>
         <v>0.36090725483714864</v>
       </c>
-      <c r="H16" s="204">
-        <f>EXP(F16/$L$2)/(EXP($F16/$L$2)+EXP($E16/$L$2))</f>
+      <c r="H16" s="199">
+        <f t="shared" si="1"/>
         <v>0.63909274516285142</v>
       </c>
       <c r="I16" s="96">
-        <f>$L$2*LN(EXP($F16/$L$2)+EXP($E16/$L$2))</f>
+        <f t="shared" si="2"/>
         <v>46.133939858256404</v>
       </c>
       <c r="J16" s="50">
+        <f t="shared" si="10"/>
+        <v>5.4253436393883945</v>
+      </c>
+      <c r="L16" s="135">
         <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="118">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="N16" s="215">
+        <f t="shared" si="3"/>
         <v>5.4253436393883945</v>
       </c>
-      <c r="L16" s="135">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="118">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="N16" s="222">
-        <f>J16</f>
-        <v>5.4253436393883945</v>
-      </c>
       <c r="P16" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Q16" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>Bought 13 Shares of State 2 at a cost of 5.42534</v>
       </c>
-      <c r="R16" s="225" t="str">
-        <f t="shared" si="5"/>
+      <c r="R16" s="218" t="str">
+        <f t="shared" si="9"/>
         <v>Bought 13 Shares of State 2 at a cost of 5.42534</v>
       </c>
     </row>
@@ -4540,15 +4540,15 @@
         <v>43</v>
       </c>
       <c r="G17" s="49">
-        <f>EXP(E17/$L$2)/(EXP($F17/$L$2)+EXP($E17/$L$2))</f>
+        <f t="shared" si="0"/>
         <v>0.88079707797788231</v>
       </c>
-      <c r="H17" s="204">
-        <f>EXP(F17/$L$2)/(EXP($F17/$L$2)+EXP($E17/$L$2))</f>
+      <c r="H17" s="199">
+        <f t="shared" si="1"/>
         <v>0.11920292202211764</v>
       </c>
       <c r="I17" s="96">
-        <f>$L$2*LN(EXP($F17/$L$2)+EXP($E17/$L$2))</f>
+        <f t="shared" si="2"/>
         <v>57.8884960773008</v>
       </c>
       <c r="J17" s="50">
@@ -4556,27 +4556,27 @@
         <v>11.754556219044396</v>
       </c>
       <c r="L17" s="135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="M17" s="118">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="215">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="222">
-        <f>J17</f>
         <v>11.754556219044396</v>
       </c>
       <c r="P17" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Bought 18 Shares of State 1 at a cost of 11.75456</v>
       </c>
       <c r="Q17" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="R17" s="225" t="str">
-        <f t="shared" si="5"/>
+      <c r="R17" s="218" t="str">
+        <f t="shared" si="9"/>
         <v>Bought 18 Shares of State 1 at a cost of 11.75456</v>
       </c>
     </row>
@@ -4591,43 +4591,43 @@
         <v>61</v>
       </c>
       <c r="G18" s="49">
-        <f>EXP(E18/$L$2)/(EXP($F18/$L$2)+EXP($E18/$L$2))</f>
+        <f t="shared" si="0"/>
         <v>0.36090725483714881</v>
       </c>
-      <c r="H18" s="204">
-        <f>EXP(F18/$L$2)/(EXP($F18/$L$2)+EXP($E18/$L$2))</f>
+      <c r="H18" s="199">
+        <f t="shared" si="1"/>
         <v>0.63909274516285108</v>
       </c>
       <c r="I18" s="96">
-        <f>$L$2*LN(EXP($F18/$L$2)+EXP($E18/$L$2))</f>
+        <f t="shared" si="2"/>
         <v>64.133939858256412</v>
       </c>
       <c r="J18" s="50">
+        <f t="shared" si="10"/>
+        <v>6.2454437809556111</v>
+      </c>
+      <c r="L18" s="135">
         <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="118">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="N18" s="215">
+        <f t="shared" si="3"/>
         <v>6.2454437809556111</v>
       </c>
-      <c r="L18" s="135">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="118">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="N18" s="222">
-        <f>J18</f>
-        <v>6.2454437809556111</v>
-      </c>
       <c r="P18" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Q18" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>Bought 18 Shares of State 2 at a cost of 6.24544</v>
       </c>
-      <c r="R18" s="225" t="str">
-        <f t="shared" si="5"/>
+      <c r="R18" s="218" t="str">
+        <f t="shared" si="9"/>
         <v>Bought 18 Shares of State 2 at a cost of 6.24544</v>
       </c>
     </row>
@@ -4642,43 +4642,43 @@
         <v>61</v>
       </c>
       <c r="G19" s="49">
-        <f>EXP(E19/$L$2)/(EXP($F19/$L$2)+EXP($E19/$L$2))</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="H19" s="204">
-        <f>EXP(F19/$L$2)/(EXP($F19/$L$2)+EXP($E19/$L$2))</f>
+      <c r="H19" s="199">
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I19" s="96">
-        <f>$L$2*LN(EXP($F19/$L$2)+EXP($E19/$L$2))</f>
+        <f t="shared" si="2"/>
         <v>65.852030263919616</v>
       </c>
       <c r="J19" s="50">
+        <f t="shared" si="10"/>
+        <v>1.7180904056632045</v>
+      </c>
+      <c r="L19" s="135">
         <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="M19" s="118">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="215">
+        <f t="shared" si="3"/>
         <v>1.7180904056632045</v>
       </c>
-      <c r="L19" s="135">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="M19" s="118">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="222">
-        <f>J19</f>
-        <v>1.7180904056632045</v>
-      </c>
       <c r="P19" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Bought 4 Shares of State 1 at a cost of 1.71809</v>
       </c>
       <c r="Q19" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="R19" s="225" t="str">
-        <f t="shared" si="5"/>
+      <c r="R19" s="218" t="str">
+        <f t="shared" si="9"/>
         <v>Bought 4 Shares of State 1 at a cost of 1.71809</v>
       </c>
     </row>
@@ -4693,43 +4693,43 @@
         <v>40</v>
       </c>
       <c r="G20" s="49">
-        <f>EXP(E20/$L$2)/(EXP($F20/$L$2)+EXP($E20/$L$2))</f>
+        <f t="shared" si="0"/>
         <v>0.95257412682243314</v>
       </c>
-      <c r="H20" s="204">
-        <f>EXP(F20/$L$2)/(EXP($F20/$L$2)+EXP($E20/$L$2))</f>
+      <c r="H20" s="199">
+        <f t="shared" si="1"/>
         <v>4.7425873177566823E-2</v>
       </c>
       <c r="I20" s="96">
-        <f>$L$2*LN(EXP($F20/$L$2)+EXP($E20/$L$2))</f>
+        <f t="shared" si="2"/>
         <v>61.340111461016193</v>
       </c>
       <c r="J20" s="50">
+        <f t="shared" si="10"/>
+        <v>-4.5119188029034234</v>
+      </c>
+      <c r="L20" s="135">
         <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="118">
+        <f t="shared" si="7"/>
+        <v>-21</v>
+      </c>
+      <c r="N20" s="215">
+        <f t="shared" si="3"/>
         <v>-4.5119188029034234</v>
       </c>
-      <c r="L20" s="135">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="118">
-        <f t="shared" si="3"/>
-        <v>-21</v>
-      </c>
-      <c r="N20" s="222">
-        <f>J20</f>
-        <v>-4.5119188029034234</v>
-      </c>
       <c r="P20" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Q20" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>Sold 21 Shares of State 2 at a cost of -4.51192</v>
       </c>
-      <c r="R20" s="225" t="str">
-        <f t="shared" si="5"/>
+      <c r="R20" s="218" t="str">
+        <f t="shared" si="9"/>
         <v>Sold 21 Shares of State 2 at a cost of -4.51192</v>
       </c>
     </row>
@@ -4744,43 +4744,43 @@
         <v>40</v>
       </c>
       <c r="G21" s="49">
-        <f>EXP(E21/$L$2)/(EXP($F21/$L$2)+EXP($E21/$L$2))</f>
+        <f t="shared" si="0"/>
         <v>0.57094659688346627</v>
       </c>
-      <c r="H21" s="204">
-        <f>EXP(F21/$L$2)/(EXP($F21/$L$2)+EXP($E21/$L$2))</f>
+      <c r="H21" s="199">
+        <f t="shared" si="1"/>
         <v>0.42905340311653378</v>
       </c>
       <c r="I21" s="96">
-        <f>$L$2*LN(EXP($F21/$L$2)+EXP($E21/$L$2))</f>
+        <f t="shared" si="2"/>
         <v>45.923217195086359</v>
       </c>
       <c r="J21" s="50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-15.416894265929834</v>
       </c>
       <c r="L21" s="135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-19</v>
       </c>
       <c r="M21" s="118">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="215">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="222">
-        <f>J21</f>
         <v>-15.416894265929834</v>
       </c>
       <c r="P21" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Sold 19 Shares of State 1 at a cost of -15.41689</v>
       </c>
       <c r="Q21" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="R21" s="225" t="str">
-        <f t="shared" si="5"/>
+      <c r="R21" s="218" t="str">
+        <f t="shared" si="9"/>
         <v>Sold 19 Shares of State 1 at a cost of -15.41689</v>
       </c>
     </row>
@@ -4796,43 +4796,43 @@
         <v>9</v>
       </c>
       <c r="G22" s="49">
-        <f>EXP(E22/$L$2)/(EXP($F22/$L$2)+EXP($E22/$L$2))</f>
+        <f t="shared" si="0"/>
         <v>0.99111341128091202</v>
       </c>
-      <c r="H22" s="204">
-        <f>EXP(F22/$L$2)/(EXP($F22/$L$2)+EXP($E22/$L$2))</f>
+      <c r="H22" s="199">
+        <f t="shared" si="1"/>
         <v>8.8865887190879463E-3</v>
       </c>
       <c r="I22" s="96">
-        <f>$L$2*LN(EXP($F22/$L$2)+EXP($E22/$L$2))</f>
+        <f t="shared" si="2"/>
         <v>42.062484169635077</v>
       </c>
       <c r="J22" s="50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-3.8607330254512817</v>
       </c>
       <c r="L22" s="135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M22" s="118">
+        <f t="shared" si="7"/>
+        <v>-31</v>
+      </c>
+      <c r="N22" s="215">
         <f t="shared" si="3"/>
-        <v>-31</v>
-      </c>
-      <c r="N22" s="222">
-        <f>J22</f>
         <v>-3.8607330254512817</v>
       </c>
       <c r="P22" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Q22" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>Sold 31 Shares of State 2 at a cost of -3.86073</v>
       </c>
-      <c r="R22" s="225" t="str">
-        <f t="shared" si="5"/>
+      <c r="R22" s="218" t="str">
+        <f t="shared" si="9"/>
         <v>Sold 31 Shares of State 2 at a cost of -3.86073</v>
       </c>
     </row>
@@ -4847,15 +4847,15 @@
         <v>9</v>
       </c>
       <c r="G23" s="131">
-        <f>EXP(E23/$L$2)/(EXP($F23/$L$2)+EXP($E23/$L$2))</f>
+        <f t="shared" si="0"/>
         <v>0.99111341128091202</v>
       </c>
-      <c r="H23" s="205">
-        <f>EXP(F23/$L$2)/(EXP($F23/$L$2)+EXP($E23/$L$2))</f>
+      <c r="H23" s="200">
+        <f t="shared" si="1"/>
         <v>8.8865887190879463E-3</v>
       </c>
       <c r="I23" s="133">
-        <f>$L$2*LN(EXP($F23/$L$2)+EXP($E23/$L$2))</f>
+        <f t="shared" si="2"/>
         <v>42.062484169635077</v>
       </c>
       <c r="J23" s="134">
@@ -4863,27 +4863,27 @@
         <v>0</v>
       </c>
       <c r="L23" s="143">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M23" s="120">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="215">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N23" s="222">
-        <f>J23</f>
-        <v>0</v>
-      </c>
       <c r="P23" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Q23" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="R23" s="225" t="str">
-        <f t="shared" si="5"/>
+      <c r="R23" s="218" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -4902,12 +4902,12 @@
         <f>EXP(E24)/(EXP($F24)+EXP($E24))</f>
         <v>1</v>
       </c>
-      <c r="H24" s="206">
+      <c r="H24" s="201">
         <f>EXP(F24)/(EXP($F24)+EXP($E24))</f>
         <v>5.7495222642935599E-19</v>
       </c>
       <c r="I24" s="97">
-        <f>$L$2*LN(EXP($F24/$L$2)+EXP($E24/$L$2))</f>
+        <f t="shared" si="2"/>
         <v>42.017329795964109</v>
       </c>
       <c r="J24" s="55">
@@ -11481,10 +11481,10 @@
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
-      <c r="F4" s="199" t="s">
+      <c r="F4" s="223" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="200"/>
+      <c r="G4" s="224"/>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
@@ -12424,12 +12424,12 @@
       <c r="U21" s="118"/>
     </row>
     <row r="22" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R22" s="201" t="s">
+      <c r="R22" s="225" t="s">
         <v>68</v>
       </c>
-      <c r="S22" s="202"/>
-      <c r="T22" s="202"/>
-      <c r="U22" s="203"/>
+      <c r="S22" s="226"/>
+      <c r="T22" s="226"/>
+      <c r="U22" s="227"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/docs/LogMSR_Demo.xlsx
+++ b/docs/LogMSR_Demo.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="21075" windowHeight="9975" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="21075" windowHeight="9975" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HLMSR" sheetId="6" r:id="rId1"/>
     <sheet name="Simple Example" sheetId="10" r:id="rId2"/>
-    <sheet name="Changing b mid contract" sheetId="8" r:id="rId3"/>
-    <sheet name="Insurance Fraud Experiments" sheetId="9" r:id="rId4"/>
-    <sheet name="Some Accounting" sheetId="7" r:id="rId5"/>
-    <sheet name="2x2 Update Calculator" sheetId="5" r:id="rId6"/>
+    <sheet name="Continuous" sheetId="11" r:id="rId3"/>
+    <sheet name="Changing b mid contract" sheetId="8" r:id="rId4"/>
+    <sheet name="Insurance Fraud Experiments" sheetId="9" r:id="rId5"/>
+    <sheet name="Some Accounting" sheetId="7" r:id="rId6"/>
+    <sheet name="2x2 Update Calculator" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="125">
   <si>
     <t>Final</t>
   </si>
@@ -359,6 +360,42 @@
   </si>
   <si>
     <t>Order Books of Permanent Liquidity</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max and Min must be set in advance</t>
+  </si>
+  <si>
+    <t>Scale Parameter</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>Refund</t>
+  </si>
+  <si>
+    <t>Post-Hoc Net Cost</t>
+  </si>
+  <si>
+    <t>DJIA 4/17/2014</t>
+  </si>
+  <si>
+    <t>Scaled Contracts</t>
+  </si>
+  <si>
+    <t>Re: consensus, I suppose most frequent value (tie goes to more-central) becomes 1, others become .5</t>
+  </si>
+  <si>
+    <t>Market Author can "get back" the "left over" money, this encourages him to set appropriate min/max as this refund value is low when final value crashes into these limits.</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1059,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="228">
+  <cellXfs count="238">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1375,6 +1412,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1509,11 +1558,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108373504"/>
-        <c:axId val="57560448"/>
+        <c:axId val="115250688"/>
+        <c:axId val="70405504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108373504"/>
+        <c:axId val="115250688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1522,7 +1571,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57560448"/>
+        <c:crossAx val="70405504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1530,7 +1579,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57560448"/>
+        <c:axId val="70405504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1541,7 +1590,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108373504"/>
+        <c:crossAx val="115250688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1657,11 +1706,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108355584"/>
-        <c:axId val="57562752"/>
+        <c:axId val="114349568"/>
+        <c:axId val="70407808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108355584"/>
+        <c:axId val="114349568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1670,7 +1719,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57562752"/>
+        <c:crossAx val="70407808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1678,7 +1727,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57562752"/>
+        <c:axId val="70407808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1689,7 +1738,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108355584"/>
+        <c:crossAx val="114349568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1712,6 +1761,140 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Continuous!$G$8:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7310585786300049</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35914599999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35914599999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35914599999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.35914599999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.35914599999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35914599999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="39974912"/>
+        <c:axId val="138916928"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="39974912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="138916928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="138916928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="39974912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1829,11 +2012,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108359168"/>
-        <c:axId val="113803264"/>
+        <c:axId val="114351616"/>
+        <c:axId val="137854976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108359168"/>
+        <c:axId val="114351616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1842,7 +2025,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113803264"/>
+        <c:crossAx val="137854976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1850,7 +2033,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113803264"/>
+        <c:axId val="137854976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1861,7 +2044,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108359168"/>
+        <c:crossAx val="114351616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2096,6 +2279,43 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>477503</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>121042</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>313278</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>21924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2422,7 +2642,7 @@
   <dimension ref="A2:AP59"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3950,7 +4170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
@@ -4974,6 +5194,1009 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AB34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="12" width="11.42578125" style="34" customWidth="1"/>
+    <col min="13" max="14" width="12" style="34" customWidth="1"/>
+    <col min="15" max="15" width="25.7109375" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" customWidth="1"/>
+    <col min="19" max="19" width="10.28515625" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="0" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="9.42578125" customWidth="1"/>
+    <col min="24" max="24" width="12.140625" customWidth="1"/>
+    <col min="25" max="25" width="10.5703125" customWidth="1"/>
+    <col min="28" max="28" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:28" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B2" s="219" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="163"/>
+      <c r="O2" s="209" t="s">
+        <v>106</v>
+      </c>
+      <c r="P2" s="210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O3" s="211" t="s">
+        <v>107</v>
+      </c>
+      <c r="P3" s="212">
+        <f>L8</f>
+        <v>6931.4718055994526</v>
+      </c>
+    </row>
+    <row r="4" spans="2:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="P4" s="27"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4" s="8"/>
+    </row>
+    <row r="5" spans="2:28" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5" s="8"/>
+    </row>
+    <row r="6" spans="2:28" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D6"/>
+      <c r="E6" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="69"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="68"/>
+      <c r="L6" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" s="233"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="221" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q6" s="222"/>
+      <c r="R6" s="216" t="s">
+        <v>110</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="U6" s="20"/>
+      <c r="V6" s="217" t="s">
+        <v>111</v>
+      </c>
+      <c r="W6" s="20"/>
+    </row>
+    <row r="7" spans="2:28" s="7" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="33"/>
+      <c r="D7" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="203" t="str">
+        <f>"i="&amp;G21</f>
+        <v>i=10000</v>
+      </c>
+      <c r="F7" s="204" t="str">
+        <f>"i="&amp;G22</f>
+        <v>i=20000</v>
+      </c>
+      <c r="G7" s="205" t="str">
+        <f>"i="&amp;G21</f>
+        <v>i=10000</v>
+      </c>
+      <c r="H7" s="206" t="str">
+        <f>"i="&amp;G22</f>
+        <v>i=20000</v>
+      </c>
+      <c r="I7" s="205" t="s">
+        <v>104</v>
+      </c>
+      <c r="J7" s="206" t="str">
+        <f>"i="&amp;G23</f>
+        <v>i=10000</v>
+      </c>
+      <c r="K7" s="206" t="s">
+        <v>118</v>
+      </c>
+      <c r="L7" s="43">
+        <v>0</v>
+      </c>
+      <c r="M7" s="44"/>
+      <c r="N7" s="234"/>
+      <c r="P7" s="213" t="str">
+        <f>E7</f>
+        <v>i=10000</v>
+      </c>
+      <c r="Q7" s="214" t="str">
+        <f>F7</f>
+        <v>i=20000</v>
+      </c>
+      <c r="V7"/>
+    </row>
+    <row r="8" spans="2:28" s="7" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="26">
+        <v>1</v>
+      </c>
+      <c r="E8" s="45">
+        <v>0</v>
+      </c>
+      <c r="F8" s="46">
+        <v>0</v>
+      </c>
+      <c r="G8" s="51">
+        <f>EXP(E8/$P$2)/(EXP($F8/$P$2)+EXP($E8/$P$2))</f>
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="202">
+        <f>EXP(F8/$P$2)/(EXP($F8/$P$2)+EXP($E8/$P$2))</f>
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="45">
+        <f>(G8*$G$23)</f>
+        <v>5000</v>
+      </c>
+      <c r="J8" s="229">
+        <f>(H8*$G$23)</f>
+        <v>5000</v>
+      </c>
+      <c r="K8" s="229">
+        <f>J8+$G$21</f>
+        <v>15000</v>
+      </c>
+      <c r="L8" s="95">
+        <f>$P$2*LN(EXP($F8/$P$2)+EXP($E8/$P$2))*$G$23</f>
+        <v>6931.4718055994526</v>
+      </c>
+      <c r="M8" s="47">
+        <f>(L8-L7)</f>
+        <v>6931.4718055994526</v>
+      </c>
+      <c r="N8" s="235">
+        <f>N7+M8</f>
+        <v>6931.4718055994526</v>
+      </c>
+      <c r="P8" s="135"/>
+      <c r="Q8" s="118"/>
+      <c r="V8"/>
+      <c r="AB8" s="220"/>
+    </row>
+    <row r="9" spans="2:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D9" s="26">
+        <v>2</v>
+      </c>
+      <c r="E9" s="48">
+        <v>1</v>
+      </c>
+      <c r="F9" s="42">
+        <v>0</v>
+      </c>
+      <c r="G9" s="49">
+        <f>EXP(E9/$P$2)/(EXP($F9/$P$2)+EXP($E9/$P$2))</f>
+        <v>0.7310585786300049</v>
+      </c>
+      <c r="H9" s="199">
+        <f>EXP(F9/$P$2)/(EXP($F9/$P$2)+EXP($E9/$P$2))</f>
+        <v>0.2689414213699951</v>
+      </c>
+      <c r="I9" s="48">
+        <f>(G9*$G$23)</f>
+        <v>7310.5857863000492</v>
+      </c>
+      <c r="J9" s="230">
+        <f>(H9*$G$23)</f>
+        <v>2689.4142136999512</v>
+      </c>
+      <c r="K9" s="230">
+        <f t="shared" ref="K9:K18" si="0">J9+$G$21</f>
+        <v>12689.414213699951</v>
+      </c>
+      <c r="L9" s="96">
+        <f>$P$2*LN(EXP($F9/$P$2)+EXP($E9/$P$2))*$G$23</f>
+        <v>13132.616875182228</v>
+      </c>
+      <c r="M9" s="50">
+        <f t="shared" ref="M9:M17" si="1">(L9-L8)</f>
+        <v>6201.1450695827752</v>
+      </c>
+      <c r="N9" s="235">
+        <f t="shared" ref="N9:N17" si="2">N8+M9</f>
+        <v>13132.616875182228</v>
+      </c>
+      <c r="P9" s="135">
+        <f>E9-E8</f>
+        <v>1</v>
+      </c>
+      <c r="Q9" s="118">
+        <f>F9-F8</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="215">
+        <f t="shared" ref="R9:R17" si="3">M9</f>
+        <v>6201.1450695827752</v>
+      </c>
+      <c r="T9" s="7" t="str">
+        <f>IF(P9&gt;0,"Bought ",IF(P9&lt;0,"Sold ",""))&amp;IF(P9&lt;0,P9*-1,IF(P9&gt;0,P9,""))&amp;IF(P9&lt;&gt;0," Shares of State 1 at a cost of "&amp;ROUND($R9,5),"")</f>
+        <v>Bought 1 Shares of State 1 at a cost of 6201.14507</v>
+      </c>
+      <c r="U9" s="7" t="str">
+        <f t="shared" ref="U9" si="4">IF(Q9&gt;0,"Bought ",IF(Q9&lt;0,"Sold ",""))&amp;IF(Q9&lt;0,Q9*-1,IF(Q9&gt;0,Q9,""))&amp;IF(Q9&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($R9,5),"")</f>
+        <v/>
+      </c>
+      <c r="V9" s="218" t="str">
+        <f>T9&amp;U9</f>
+        <v>Bought 1 Shares of State 1 at a cost of 6201.14507</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D10" s="26">
+        <v>3</v>
+      </c>
+      <c r="E10" s="48">
+        <v>1</v>
+      </c>
+      <c r="F10" s="42">
+        <v>1</v>
+      </c>
+      <c r="G10" s="49">
+        <f>EXP(E10/$P$2)/(EXP($F10/$P$2)+EXP($E10/$P$2))</f>
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="199">
+        <f>EXP(F10/$P$2)/(EXP($F10/$P$2)+EXP($E10/$P$2))</f>
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="48">
+        <f>(G10*$G$23)</f>
+        <v>5000</v>
+      </c>
+      <c r="J10" s="230">
+        <f>(H10*$G$23)</f>
+        <v>5000</v>
+      </c>
+      <c r="K10" s="230">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="L10" s="96">
+        <f>$P$2*LN(EXP($F10/$P$2)+EXP($E10/$P$2))*$G$23</f>
+        <v>16931.471805599453</v>
+      </c>
+      <c r="M10" s="50">
+        <f t="shared" si="1"/>
+        <v>3798.8549304172248</v>
+      </c>
+      <c r="N10" s="235">
+        <f t="shared" si="2"/>
+        <v>16931.471805599453</v>
+      </c>
+      <c r="P10" s="135">
+        <f>E10-E9</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="118">
+        <f>F10-F9</f>
+        <v>1</v>
+      </c>
+      <c r="R10" s="215">
+        <f t="shared" si="3"/>
+        <v>3798.8549304172248</v>
+      </c>
+      <c r="T10" s="7" t="str">
+        <f>IF(P10&gt;0,"Bought ",IF(P10&lt;0,"Sold ",""))&amp;IF(P10&lt;0,P10*-1,IF(P10&gt;0,P10,""))&amp;IF(P10&lt;&gt;0," Shares of State 1 at a cost of "&amp;ROUND($R10,5),"")</f>
+        <v/>
+      </c>
+      <c r="U10" s="7" t="str">
+        <f>IF(Q10&gt;0,"Bought ",IF(Q10&lt;0,"Sold ",""))&amp;IF(Q10&lt;0,Q10*-1,IF(Q10&gt;0,Q10,""))&amp;IF(Q10&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($R10,5),"")</f>
+        <v>Bought 1 Shares of State 2 at a cost of 3798.85493</v>
+      </c>
+      <c r="V10" s="218" t="str">
+        <f t="shared" ref="V10:V17" si="5">T10&amp;U10</f>
+        <v>Bought 1 Shares of State 2 at a cost of 3798.85493</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D11" s="26">
+        <v>4</v>
+      </c>
+      <c r="E11" s="48">
+        <v>2</v>
+      </c>
+      <c r="F11" s="42">
+        <v>2</v>
+      </c>
+      <c r="G11" s="49">
+        <f>EXP(E11/$P$2)/(EXP($F11/$P$2)+EXP($E11/$P$2))</f>
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="199">
+        <f>EXP(F11/$P$2)/(EXP($F11/$P$2)+EXP($E11/$P$2))</f>
+        <v>0.5</v>
+      </c>
+      <c r="I11" s="48">
+        <f>(G11*$G$23)</f>
+        <v>5000</v>
+      </c>
+      <c r="J11" s="230">
+        <f>(H11*$G$23)</f>
+        <v>5000</v>
+      </c>
+      <c r="K11" s="230">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="L11" s="96">
+        <f>$P$2*LN(EXP($F11/$P$2)+EXP($E11/$P$2))*$G$23</f>
+        <v>26931.471805599453</v>
+      </c>
+      <c r="M11" s="50">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+      <c r="N11" s="235">
+        <f t="shared" si="2"/>
+        <v>26931.471805599453</v>
+      </c>
+      <c r="P11" s="135">
+        <f>E11-E10</f>
+        <v>1</v>
+      </c>
+      <c r="Q11" s="118">
+        <f>F11-F10</f>
+        <v>1</v>
+      </c>
+      <c r="R11" s="215">
+        <f t="shared" si="3"/>
+        <v>10000</v>
+      </c>
+      <c r="T11" s="7" t="str">
+        <f>IF(P11&gt;0,"Bought ",IF(P11&lt;0,"Sold ",""))&amp;IF(P11&lt;0,P11*-1,IF(P11&gt;0,P11,""))&amp;IF(P11&lt;&gt;0," Shares of State 1 at a cost of "&amp;ROUND($R11,5),"")</f>
+        <v>Bought 1 Shares of State 1 at a cost of 10000</v>
+      </c>
+      <c r="U11" s="7" t="str">
+        <f>IF(Q11&gt;0,"Bought ",IF(Q11&lt;0,"Sold ",""))&amp;IF(Q11&lt;0,Q11*-1,IF(Q11&gt;0,Q11,""))&amp;IF(Q11&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($R11,5),"")</f>
+        <v>Bought 1 Shares of State 2 at a cost of 10000</v>
+      </c>
+      <c r="V11" s="218" t="str">
+        <f t="shared" si="5"/>
+        <v>Bought 1 Shares of State 1 at a cost of 10000Bought 1 Shares of State 2 at a cost of 10000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D12" s="26">
+        <v>5</v>
+      </c>
+      <c r="E12" s="48">
+        <v>12</v>
+      </c>
+      <c r="F12" s="42">
+        <v>12</v>
+      </c>
+      <c r="G12" s="49">
+        <f>EXP(E12/$P$2)/(EXP($F12/$P$2)+EXP($E12/$P$2))</f>
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="199">
+        <f>EXP(F12/$P$2)/(EXP($F12/$P$2)+EXP($E12/$P$2))</f>
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="48">
+        <f>(G12*$G$23)</f>
+        <v>5000</v>
+      </c>
+      <c r="J12" s="230">
+        <f>(H12*$G$23)</f>
+        <v>5000</v>
+      </c>
+      <c r="K12" s="230">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="L12" s="96">
+        <f>$P$2*LN(EXP($F12/$P$2)+EXP($E12/$P$2))*$G$23</f>
+        <v>126931.47180559946</v>
+      </c>
+      <c r="M12" s="50">
+        <f>(L12-L11)</f>
+        <v>100000</v>
+      </c>
+      <c r="N12" s="235">
+        <f t="shared" si="2"/>
+        <v>126931.47180559946</v>
+      </c>
+      <c r="P12" s="135">
+        <f>E12-E11</f>
+        <v>10</v>
+      </c>
+      <c r="Q12" s="118">
+        <f>F12-F11</f>
+        <v>10</v>
+      </c>
+      <c r="R12" s="215">
+        <f t="shared" ref="R12:R16" si="6">M12</f>
+        <v>100000</v>
+      </c>
+      <c r="T12" s="7" t="str">
+        <f t="shared" ref="T12:T16" si="7">IF(P12&gt;0,"Bought ",IF(P12&lt;0,"Sold ",""))&amp;IF(P12&lt;0,P12*-1,IF(P12&gt;0,P12,""))&amp;IF(P12&lt;&gt;0," Shares of State 1 at a cost of "&amp;ROUND($R12,5),"")</f>
+        <v>Bought 10 Shares of State 1 at a cost of 100000</v>
+      </c>
+      <c r="U12" s="7" t="str">
+        <f t="shared" ref="U12:U16" si="8">IF(Q12&gt;0,"Bought ",IF(Q12&lt;0,"Sold ",""))&amp;IF(Q12&lt;0,Q12*-1,IF(Q12&gt;0,Q12,""))&amp;IF(Q12&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($R12,5),"")</f>
+        <v>Bought 10 Shares of State 2 at a cost of 100000</v>
+      </c>
+      <c r="V12" s="218" t="str">
+        <f t="shared" ref="V12:V16" si="9">T12&amp;U12</f>
+        <v>Bought 10 Shares of State 1 at a cost of 100000Bought 10 Shares of State 2 at a cost of 100000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D13" s="26">
+        <v>12</v>
+      </c>
+      <c r="E13" s="48">
+        <v>12</v>
+      </c>
+      <c r="F13" s="42">
+        <f t="shared" ref="F13:F16" si="10">$F$18</f>
+        <v>12.579072670815561</v>
+      </c>
+      <c r="G13" s="49">
+        <f>EXP(E13/$P$2)/(EXP($F13/$P$2)+EXP($E13/$P$2))</f>
+        <v>0.35914599999999997</v>
+      </c>
+      <c r="H13" s="199">
+        <f>EXP(F13/$P$2)/(EXP($F13/$P$2)+EXP($E13/$P$2))</f>
+        <v>0.64085400000000003</v>
+      </c>
+      <c r="I13" s="48">
+        <f>(G13*$G$23)</f>
+        <v>3591.4599999999996</v>
+      </c>
+      <c r="J13" s="230">
+        <f>(H13*$G$23)</f>
+        <v>6408.54</v>
+      </c>
+      <c r="K13" s="230">
+        <f t="shared" si="0"/>
+        <v>16408.54</v>
+      </c>
+      <c r="L13" s="96">
+        <f>$P$2*LN(EXP($F13/$P$2)+EXP($E13/$P$2))*$G$23</f>
+        <v>130240.26287931117</v>
+      </c>
+      <c r="M13" s="50">
+        <f t="shared" si="1"/>
+        <v>3308.7910737117054</v>
+      </c>
+      <c r="N13" s="235">
+        <f t="shared" si="2"/>
+        <v>130240.26287931117</v>
+      </c>
+      <c r="P13" s="135">
+        <f>E13-E12</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="118">
+        <f>F13-F12</f>
+        <v>0.57907267081556135</v>
+      </c>
+      <c r="R13" s="215">
+        <f t="shared" si="6"/>
+        <v>3308.7910737117054</v>
+      </c>
+      <c r="T13" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U13" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Bought 0.579072670815561 Shares of State 2 at a cost of 3308.79107</v>
+      </c>
+      <c r="V13" s="218" t="str">
+        <f t="shared" si="9"/>
+        <v>Bought 0.579072670815561 Shares of State 2 at a cost of 3308.79107</v>
+      </c>
+    </row>
+    <row r="14" spans="2:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D14" s="26">
+        <v>13</v>
+      </c>
+      <c r="E14" s="48">
+        <v>12</v>
+      </c>
+      <c r="F14" s="42">
+        <f t="shared" si="10"/>
+        <v>12.579072670815561</v>
+      </c>
+      <c r="G14" s="49">
+        <f>EXP(E14/$P$2)/(EXP($F14/$P$2)+EXP($E14/$P$2))</f>
+        <v>0.35914599999999997</v>
+      </c>
+      <c r="H14" s="199">
+        <f>EXP(F14/$P$2)/(EXP($F14/$P$2)+EXP($E14/$P$2))</f>
+        <v>0.64085400000000003</v>
+      </c>
+      <c r="I14" s="48">
+        <f>(G14*$G$23)</f>
+        <v>3591.4599999999996</v>
+      </c>
+      <c r="J14" s="230">
+        <f>(H14*$G$23)</f>
+        <v>6408.54</v>
+      </c>
+      <c r="K14" s="230">
+        <f t="shared" si="0"/>
+        <v>16408.54</v>
+      </c>
+      <c r="L14" s="96">
+        <f>$P$2*LN(EXP($F14/$P$2)+EXP($E14/$P$2))*$G$23</f>
+        <v>130240.26287931117</v>
+      </c>
+      <c r="M14" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="235">
+        <f t="shared" si="2"/>
+        <v>130240.26287931117</v>
+      </c>
+      <c r="P14" s="135">
+        <f>E14-E13</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="118">
+        <f>F14-F13</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="215">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U14" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="V14" s="218" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="2:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D15" s="26">
+        <v>14</v>
+      </c>
+      <c r="E15" s="48">
+        <v>12</v>
+      </c>
+      <c r="F15" s="42">
+        <f t="shared" si="10"/>
+        <v>12.579072670815561</v>
+      </c>
+      <c r="G15" s="49">
+        <f>EXP(E15/$P$2)/(EXP($F15/$P$2)+EXP($E15/$P$2))</f>
+        <v>0.35914599999999997</v>
+      </c>
+      <c r="H15" s="199">
+        <f>EXP(F15/$P$2)/(EXP($F15/$P$2)+EXP($E15/$P$2))</f>
+        <v>0.64085400000000003</v>
+      </c>
+      <c r="I15" s="48">
+        <f>(G15*$G$23)</f>
+        <v>3591.4599999999996</v>
+      </c>
+      <c r="J15" s="230">
+        <f>(H15*$G$23)</f>
+        <v>6408.54</v>
+      </c>
+      <c r="K15" s="230">
+        <f t="shared" si="0"/>
+        <v>16408.54</v>
+      </c>
+      <c r="L15" s="96">
+        <f>$P$2*LN(EXP($F15/$P$2)+EXP($E15/$P$2))*$G$23</f>
+        <v>130240.26287931117</v>
+      </c>
+      <c r="M15" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="235">
+        <f t="shared" si="2"/>
+        <v>130240.26287931117</v>
+      </c>
+      <c r="P15" s="135">
+        <f>E15-E14</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="118">
+        <f>F15-F14</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="215">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U15" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="V15" s="218" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C16"/>
+      <c r="D16" s="26">
+        <v>15</v>
+      </c>
+      <c r="E16" s="48">
+        <v>12</v>
+      </c>
+      <c r="F16" s="42">
+        <f t="shared" si="10"/>
+        <v>12.579072670815561</v>
+      </c>
+      <c r="G16" s="49">
+        <f>EXP(E16/$P$2)/(EXP($F16/$P$2)+EXP($E16/$P$2))</f>
+        <v>0.35914599999999997</v>
+      </c>
+      <c r="H16" s="199">
+        <f>EXP(F16/$P$2)/(EXP($F16/$P$2)+EXP($E16/$P$2))</f>
+        <v>0.64085400000000003</v>
+      </c>
+      <c r="I16" s="48">
+        <f>(G16*$G$23)</f>
+        <v>3591.4599999999996</v>
+      </c>
+      <c r="J16" s="230">
+        <f>(H16*$G$23)</f>
+        <v>6408.54</v>
+      </c>
+      <c r="K16" s="230">
+        <f t="shared" si="0"/>
+        <v>16408.54</v>
+      </c>
+      <c r="L16" s="96">
+        <f>$P$2*LN(EXP($F16/$P$2)+EXP($E16/$P$2))*$G$23</f>
+        <v>130240.26287931117</v>
+      </c>
+      <c r="M16" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="235">
+        <f t="shared" si="2"/>
+        <v>130240.26287931117</v>
+      </c>
+      <c r="P16" s="135">
+        <f>E16-E15</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="118">
+        <f>F16-F15</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="215">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U16" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="V16" s="218" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="3:23" s="7" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D17" s="26">
+        <v>16</v>
+      </c>
+      <c r="E17" s="40">
+        <v>12</v>
+      </c>
+      <c r="F17" s="228">
+        <f>$F$18</f>
+        <v>12.579072670815561</v>
+      </c>
+      <c r="G17" s="131">
+        <f>EXP(E17/$P$2)/(EXP($F17/$P$2)+EXP($E17/$P$2))</f>
+        <v>0.35914599999999997</v>
+      </c>
+      <c r="H17" s="200">
+        <f>EXP(F17/$P$2)/(EXP($F17/$P$2)+EXP($E17/$P$2))</f>
+        <v>0.64085400000000003</v>
+      </c>
+      <c r="I17" s="40">
+        <f>(G17*$G$23)</f>
+        <v>3591.4599999999996</v>
+      </c>
+      <c r="J17" s="231">
+        <f>(H17*$G$23)</f>
+        <v>6408.54</v>
+      </c>
+      <c r="K17" s="231">
+        <f t="shared" si="0"/>
+        <v>16408.54</v>
+      </c>
+      <c r="L17" s="133">
+        <f>$P$2*LN(EXP($F17/$P$2)+EXP($E17/$P$2))*$G$23</f>
+        <v>130240.26287931117</v>
+      </c>
+      <c r="M17" s="134">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="235">
+        <f t="shared" si="2"/>
+        <v>130240.26287931117</v>
+      </c>
+      <c r="P17" s="143">
+        <f>E17-E16</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="120">
+        <f>F17-F16</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="215">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="7" t="str">
+        <f>IF(P17&gt;0,"Bought ",IF(P17&lt;0,"Sold ",""))&amp;IF(P17&lt;0,P17*-1,IF(P17&gt;0,P17,""))&amp;IF(P17&lt;&gt;0," Shares of State 1 at a cost of "&amp;ROUND($R17,5),"")</f>
+        <v/>
+      </c>
+      <c r="U17" s="7" t="str">
+        <f>IF(Q17&gt;0,"Bought ",IF(Q17&lt;0,"Sold ",""))&amp;IF(Q17&lt;0,Q17*-1,IF(Q17&gt;0,Q17,""))&amp;IF(Q17&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($R17,5),"")</f>
+        <v/>
+      </c>
+      <c r="V17" s="218" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="3:23" s="7" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="52">
+        <f>E17</f>
+        <v>12</v>
+      </c>
+      <c r="F18" s="53">
+        <f>P2*LN(E25/(1-E25))+E18</f>
+        <v>12.579072670815561</v>
+      </c>
+      <c r="G18" s="54">
+        <f>EXP(E18)/(EXP($F18)+EXP($E18))</f>
+        <v>0.35914599999999997</v>
+      </c>
+      <c r="H18" s="201">
+        <f>EXP(F18)/(EXP($F18)+EXP($E18))</f>
+        <v>0.64085400000000003</v>
+      </c>
+      <c r="I18" s="52">
+        <f>(G18*$G$23)</f>
+        <v>3591.4599999999996</v>
+      </c>
+      <c r="J18" s="232">
+        <f>(H18*$G$23)</f>
+        <v>6408.54</v>
+      </c>
+      <c r="K18" s="232">
+        <f>J18+$G$21</f>
+        <v>16408.54</v>
+      </c>
+      <c r="L18" s="97">
+        <f>$P$2*LN(EXP($F18/$P$2)+EXP($E18/$P$2))*$G$23</f>
+        <v>130240.26287931117</v>
+      </c>
+      <c r="M18" s="55">
+        <f>SUM(M8:M17)</f>
+        <v>130240.26287931117</v>
+      </c>
+      <c r="N18" s="235"/>
+      <c r="O18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+    </row>
+    <row r="19" spans="3:23" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="130">
+        <v>0</v>
+      </c>
+      <c r="M19" s="56">
+        <f>M18-( (E18*I18) + (F18*J18))</f>
+        <v>6529.2525054828147</v>
+      </c>
+      <c r="N19" s="235"/>
+      <c r="O19" t="s">
+        <v>119</v>
+      </c>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+    </row>
+    <row r="20" spans="3:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="164"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+    </row>
+    <row r="21" spans="3:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="34">
+        <v>0</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" s="34">
+        <v>10000</v>
+      </c>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="236">
+        <f>M8-M19</f>
+        <v>402.2193001166379</v>
+      </c>
+      <c r="O21" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="E22" s="34">
+        <v>1</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="34">
+        <v>20000</v>
+      </c>
+      <c r="M22" s="237"/>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="F23" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" s="34">
+        <f>G22-G21</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="E25" s="34">
+        <f>(G25-G21)/(G22-G21)</f>
+        <v>0.64085400000000003</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="G25" s="34">
+        <v>16408.54</v>
+      </c>
+      <c r="I25" s="34" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="E30" s="34" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="E31" s="34" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="34" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="P6:Q6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AP43"/>
   <sheetViews>
@@ -6235,11 +7458,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:T87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="T43" sqref="T43"/>
     </sheetView>
   </sheetViews>
@@ -8480,11 +9703,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -11403,12 +12626,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U22"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/LogMSR_Demo.xlsx
+++ b/docs/LogMSR_Demo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="131">
   <si>
     <t>Final</t>
   </si>
@@ -371,9 +371,6 @@
     <t>Min</t>
   </si>
   <si>
-    <t>Max and Min must be set in advance</t>
-  </si>
-  <si>
     <t>Scale Parameter</t>
   </si>
   <si>
@@ -396,6 +393,27 @@
   </si>
   <si>
     <t>Market Author can "get back" the "left over" money, this encourages him to set appropriate min/max as this refund value is low when final value crashes into these limits.</t>
+  </si>
+  <si>
+    <t>Max and Min must be set in advance - The Taleb Criticism</t>
+  </si>
+  <si>
+    <t>What will the Dow Jones Industrial Average closing price be on Feb 13th, 2014?</t>
+  </si>
+  <si>
+    <t>http://measuringworth.com/DJA/</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/echarts?s=%5Edji+interactive</t>
+  </si>
+  <si>
+    <t>https://research.stlouisfed.org/fred2/series/DJIA/downloaddata</t>
+  </si>
+  <si>
+    <t>Escrow Account Balance: enough to pay off the shareholders</t>
+  </si>
+  <si>
+    <t>Redemptions</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1077,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="238">
+  <cellXfs count="240">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1391,6 +1409,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1412,18 +1441,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1558,11 +1580,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="115250688"/>
-        <c:axId val="70405504"/>
+        <c:axId val="114070528"/>
+        <c:axId val="113921984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="115250688"/>
+        <c:axId val="114070528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1571,7 +1593,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70405504"/>
+        <c:crossAx val="113921984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1579,7 +1601,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70405504"/>
+        <c:axId val="113921984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1590,7 +1612,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115250688"/>
+        <c:crossAx val="114070528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1706,11 +1728,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114349568"/>
-        <c:axId val="70407808"/>
+        <c:axId val="115000832"/>
+        <c:axId val="113924288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114349568"/>
+        <c:axId val="115000832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1719,7 +1741,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70407808"/>
+        <c:crossAx val="113924288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1727,7 +1749,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70407808"/>
+        <c:axId val="113924288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1738,14 +1760,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114349568"/>
+        <c:crossAx val="115000832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1774,6 +1795,30 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>DJIA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> on 2/13/2014</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1788,42 +1833,42 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Continuous!$G$8:$G$18</c:f>
+              <c:f>Continuous!$K$10:$K$20</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7310585786300049</c:v>
+                  <c:v>8004.0242015655977</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.35914599999999997</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.35914599999999997</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.35914599999999997</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.35914599999999997</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.35914599999999997</c:v>
+                  <c:v>16027.58999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.35914599999999997</c:v>
+                  <c:v>14210.96641462841</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1840,11 +1885,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="39974912"/>
-        <c:axId val="138916928"/>
+        <c:axId val="114294784"/>
+        <c:axId val="115310592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="39974912"/>
+        <c:axId val="114294784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1853,7 +1898,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138916928"/>
+        <c:crossAx val="115310592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1861,27 +1906,22 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138916928"/>
+        <c:axId val="115310592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39974912"/>
+        <c:crossAx val="114294784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2012,11 +2052,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114351616"/>
-        <c:axId val="137854976"/>
+        <c:axId val="114296832"/>
+        <c:axId val="115312896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114351616"/>
+        <c:axId val="114296832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2025,7 +2065,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137854976"/>
+        <c:crossAx val="115312896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2033,7 +2073,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137854976"/>
+        <c:axId val="115312896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2044,7 +2084,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114351616"/>
+        <c:crossAx val="114296832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2283,15 +2323,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>477503</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>121042</xdr:rowOff>
+      <xdr:colOff>40475</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>210687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>313278</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>21924</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>481367</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>21922</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4263,10 +4303,10 @@
         <v>37</v>
       </c>
       <c r="K6" s="20"/>
-      <c r="L6" s="221" t="s">
+      <c r="L6" s="230" t="s">
         <v>109</v>
       </c>
-      <c r="M6" s="222"/>
+      <c r="M6" s="231"/>
       <c r="N6" s="216" t="s">
         <v>110</v>
       </c>
@@ -5195,10 +5235,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AB34"/>
+  <dimension ref="B2:AB36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5217,978 +5257,997 @@
     <col min="28" max="28" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:28" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:28" ht="32.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="219" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D2" s="163"/>
-      <c r="O2" s="209" t="s">
+    </row>
+    <row r="3" spans="2:28" ht="21" x14ac:dyDescent="0.35">
+      <c r="B3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="163"/>
+      <c r="O3" s="209" t="s">
         <v>106</v>
       </c>
-      <c r="P2" s="210">
+      <c r="P3" s="210">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="O4" s="211" t="s">
+        <v>107</v>
+      </c>
+      <c r="P4" s="212">
+        <f>L10</f>
+        <v>831.77661667193433</v>
+      </c>
+    </row>
+    <row r="5" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="O5" s="237"/>
+      <c r="P5" s="237"/>
+    </row>
+    <row r="6" spans="2:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="P6" s="27"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6" s="8"/>
+    </row>
+    <row r="7" spans="2:28" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7" s="8"/>
+    </row>
+    <row r="8" spans="2:28" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D8"/>
+      <c r="E8" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="69"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="68"/>
+      <c r="L8" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" s="226"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="230" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q8" s="231"/>
+      <c r="R8" s="216" t="s">
+        <v>110</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="U8" s="20"/>
+      <c r="V8" s="217" t="s">
+        <v>111</v>
+      </c>
+      <c r="W8" s="20"/>
+    </row>
+    <row r="9" spans="2:28" s="7" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="33"/>
+      <c r="D9" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="203" t="str">
+        <f>"i="&amp;G23</f>
+        <v>i=8000</v>
+      </c>
+      <c r="F9" s="204" t="str">
+        <f>"i="&amp;G24</f>
+        <v>i=20000</v>
+      </c>
+      <c r="G9" s="205" t="str">
+        <f>"i="&amp;G23</f>
+        <v>i=8000</v>
+      </c>
+      <c r="H9" s="206" t="str">
+        <f>"i="&amp;G24</f>
+        <v>i=20000</v>
+      </c>
+      <c r="I9" s="205" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" s="206" t="str">
+        <f>"i="&amp;G25</f>
+        <v>i=12000</v>
+      </c>
+      <c r="K9" s="206" t="s">
+        <v>117</v>
+      </c>
+      <c r="L9" s="43">
+        <v>0</v>
+      </c>
+      <c r="M9" s="44"/>
+      <c r="N9" s="227"/>
+      <c r="P9" s="213" t="str">
+        <f>E9</f>
+        <v>i=8000</v>
+      </c>
+      <c r="Q9" s="214" t="str">
+        <f>F9</f>
+        <v>i=20000</v>
+      </c>
+      <c r="V9"/>
+    </row>
+    <row r="10" spans="2:28" s="7" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="26">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O3" s="211" t="s">
-        <v>107</v>
-      </c>
-      <c r="P3" s="212">
-        <f>L8</f>
-        <v>6931.4718055994526</v>
-      </c>
-    </row>
-    <row r="4" spans="2:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C4"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="P4" s="27"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4" s="8"/>
-    </row>
-    <row r="5" spans="2:28" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5" s="8"/>
-    </row>
-    <row r="6" spans="2:28" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D6"/>
-      <c r="E6" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="69"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" s="68"/>
-      <c r="L6" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="N6" s="233"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="221" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q6" s="222"/>
-      <c r="R6" s="216" t="s">
-        <v>110</v>
-      </c>
-      <c r="T6" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="U6" s="20"/>
-      <c r="V6" s="217" t="s">
-        <v>111</v>
-      </c>
-      <c r="W6" s="20"/>
-    </row>
-    <row r="7" spans="2:28" s="7" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="33"/>
-      <c r="D7" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="203" t="str">
-        <f>"i="&amp;G21</f>
-        <v>i=10000</v>
-      </c>
-      <c r="F7" s="204" t="str">
-        <f>"i="&amp;G22</f>
-        <v>i=20000</v>
-      </c>
-      <c r="G7" s="205" t="str">
-        <f>"i="&amp;G21</f>
-        <v>i=10000</v>
-      </c>
-      <c r="H7" s="206" t="str">
-        <f>"i="&amp;G22</f>
-        <v>i=20000</v>
-      </c>
-      <c r="I7" s="205" t="s">
-        <v>104</v>
-      </c>
-      <c r="J7" s="206" t="str">
-        <f>"i="&amp;G23</f>
-        <v>i=10000</v>
-      </c>
-      <c r="K7" s="206" t="s">
-        <v>118</v>
-      </c>
-      <c r="L7" s="43">
-        <v>0</v>
-      </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="234"/>
-      <c r="P7" s="213" t="str">
-        <f>E7</f>
-        <v>i=10000</v>
-      </c>
-      <c r="Q7" s="214" t="str">
-        <f>F7</f>
-        <v>i=20000</v>
-      </c>
-      <c r="V7"/>
-    </row>
-    <row r="8" spans="2:28" s="7" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="26">
-        <v>1</v>
-      </c>
-      <c r="E8" s="45">
-        <v>0</v>
-      </c>
-      <c r="F8" s="46">
-        <v>0</v>
-      </c>
-      <c r="G8" s="51">
-        <f>EXP(E8/$P$2)/(EXP($F8/$P$2)+EXP($E8/$P$2))</f>
+      <c r="E10" s="45">
+        <v>0</v>
+      </c>
+      <c r="F10" s="46">
+        <v>0</v>
+      </c>
+      <c r="G10" s="51">
+        <f>EXP(E10/$P$3)/(EXP($F10/$P$3)+EXP($E10/$P$3))</f>
         <v>0.5</v>
       </c>
-      <c r="H8" s="202">
-        <f>EXP(F8/$P$2)/(EXP($F8/$P$2)+EXP($E8/$P$2))</f>
+      <c r="H10" s="202">
+        <f>EXP(F10/$P$3)/(EXP($F10/$P$3)+EXP($E10/$P$3))</f>
         <v>0.5</v>
       </c>
-      <c r="I8" s="45">
-        <f>(G8*$G$23)</f>
-        <v>5000</v>
-      </c>
-      <c r="J8" s="229">
-        <f>(H8*$G$23)</f>
-        <v>5000</v>
-      </c>
-      <c r="K8" s="229">
-        <f>J8+$G$21</f>
-        <v>15000</v>
-      </c>
-      <c r="L8" s="95">
-        <f>$P$2*LN(EXP($F8/$P$2)+EXP($E8/$P$2))*$G$23</f>
-        <v>6931.4718055994526</v>
-      </c>
-      <c r="M8" s="47">
-        <f>(L8-L7)</f>
-        <v>6931.4718055994526</v>
-      </c>
-      <c r="N8" s="235">
-        <f>N7+M8</f>
-        <v>6931.4718055994526</v>
-      </c>
-      <c r="P8" s="135"/>
-      <c r="Q8" s="118"/>
-      <c r="V8"/>
-      <c r="AB8" s="220"/>
-    </row>
-    <row r="9" spans="2:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D9" s="26">
-        <v>2</v>
-      </c>
-      <c r="E9" s="48">
-        <v>1</v>
-      </c>
-      <c r="F9" s="42">
-        <v>0</v>
-      </c>
-      <c r="G9" s="49">
-        <f>EXP(E9/$P$2)/(EXP($F9/$P$2)+EXP($E9/$P$2))</f>
-        <v>0.7310585786300049</v>
-      </c>
-      <c r="H9" s="199">
-        <f>EXP(F9/$P$2)/(EXP($F9/$P$2)+EXP($E9/$P$2))</f>
-        <v>0.2689414213699951</v>
-      </c>
-      <c r="I9" s="48">
-        <f>(G9*$G$23)</f>
-        <v>7310.5857863000492</v>
-      </c>
-      <c r="J9" s="230">
-        <f>(H9*$G$23)</f>
-        <v>2689.4142136999512</v>
-      </c>
-      <c r="K9" s="230">
-        <f t="shared" ref="K9:K18" si="0">J9+$G$21</f>
-        <v>12689.414213699951</v>
-      </c>
-      <c r="L9" s="96">
-        <f>$P$2*LN(EXP($F9/$P$2)+EXP($E9/$P$2))*$G$23</f>
-        <v>13132.616875182228</v>
-      </c>
-      <c r="M9" s="50">
-        <f t="shared" ref="M9:M17" si="1">(L9-L8)</f>
-        <v>6201.1450695827752</v>
-      </c>
-      <c r="N9" s="235">
-        <f t="shared" ref="N9:N17" si="2">N8+M9</f>
-        <v>13132.616875182228</v>
-      </c>
-      <c r="P9" s="135">
-        <f>E9-E8</f>
-        <v>1</v>
-      </c>
-      <c r="Q9" s="118">
-        <f>F9-F8</f>
-        <v>0</v>
-      </c>
-      <c r="R9" s="215">
-        <f t="shared" ref="R9:R17" si="3">M9</f>
-        <v>6201.1450695827752</v>
-      </c>
-      <c r="T9" s="7" t="str">
-        <f>IF(P9&gt;0,"Bought ",IF(P9&lt;0,"Sold ",""))&amp;IF(P9&lt;0,P9*-1,IF(P9&gt;0,P9,""))&amp;IF(P9&lt;&gt;0," Shares of State 1 at a cost of "&amp;ROUND($R9,5),"")</f>
-        <v>Bought 1 Shares of State 1 at a cost of 6201.14507</v>
-      </c>
-      <c r="U9" s="7" t="str">
-        <f t="shared" ref="U9" si="4">IF(Q9&gt;0,"Bought ",IF(Q9&lt;0,"Sold ",""))&amp;IF(Q9&lt;0,Q9*-1,IF(Q9&gt;0,Q9,""))&amp;IF(Q9&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($R9,5),"")</f>
-        <v/>
-      </c>
-      <c r="V9" s="218" t="str">
-        <f>T9&amp;U9</f>
-        <v>Bought 1 Shares of State 1 at a cost of 6201.14507</v>
-      </c>
-    </row>
-    <row r="10" spans="2:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D10" s="26">
-        <v>3</v>
-      </c>
-      <c r="E10" s="48">
-        <v>1</v>
-      </c>
-      <c r="F10" s="42">
-        <v>1</v>
-      </c>
-      <c r="G10" s="49">
-        <f>EXP(E10/$P$2)/(EXP($F10/$P$2)+EXP($E10/$P$2))</f>
-        <v>0.5</v>
-      </c>
-      <c r="H10" s="199">
-        <f>EXP(F10/$P$2)/(EXP($F10/$P$2)+EXP($E10/$P$2))</f>
-        <v>0.5</v>
-      </c>
-      <c r="I10" s="48">
-        <f>(G10*$G$23)</f>
-        <v>5000</v>
-      </c>
-      <c r="J10" s="230">
-        <f>(H10*$G$23)</f>
-        <v>5000</v>
-      </c>
-      <c r="K10" s="230">
-        <f t="shared" si="0"/>
-        <v>15000</v>
-      </c>
-      <c r="L10" s="96">
-        <f>$P$2*LN(EXP($F10/$P$2)+EXP($E10/$P$2))*$G$23</f>
-        <v>16931.471805599453</v>
-      </c>
-      <c r="M10" s="50">
-        <f t="shared" si="1"/>
-        <v>3798.8549304172248</v>
-      </c>
-      <c r="N10" s="235">
-        <f t="shared" si="2"/>
-        <v>16931.471805599453</v>
-      </c>
-      <c r="P10" s="135">
-        <f>E10-E9</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="118">
-        <f>F10-F9</f>
-        <v>1</v>
-      </c>
-      <c r="R10" s="215">
-        <f t="shared" si="3"/>
-        <v>3798.8549304172248</v>
-      </c>
-      <c r="T10" s="7" t="str">
-        <f>IF(P10&gt;0,"Bought ",IF(P10&lt;0,"Sold ",""))&amp;IF(P10&lt;0,P10*-1,IF(P10&gt;0,P10,""))&amp;IF(P10&lt;&gt;0," Shares of State 1 at a cost of "&amp;ROUND($R10,5),"")</f>
-        <v/>
-      </c>
-      <c r="U10" s="7" t="str">
-        <f>IF(Q10&gt;0,"Bought ",IF(Q10&lt;0,"Sold ",""))&amp;IF(Q10&lt;0,Q10*-1,IF(Q10&gt;0,Q10,""))&amp;IF(Q10&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($R10,5),"")</f>
-        <v>Bought 1 Shares of State 2 at a cost of 3798.85493</v>
-      </c>
-      <c r="V10" s="218" t="str">
-        <f t="shared" ref="V10:V17" si="5">T10&amp;U10</f>
-        <v>Bought 1 Shares of State 2 at a cost of 3798.85493</v>
-      </c>
+      <c r="I10" s="45">
+        <f t="shared" ref="I10:I20" si="0">(G10*$G$25)</f>
+        <v>6000</v>
+      </c>
+      <c r="J10" s="222">
+        <f t="shared" ref="J10:J20" si="1">(H10*$G$25)</f>
+        <v>6000</v>
+      </c>
+      <c r="K10" s="222">
+        <f>J10+$G$23</f>
+        <v>14000</v>
+      </c>
+      <c r="L10" s="95">
+        <f>$P$3*LN(EXP($F10/$P$3)+EXP($E10/$P$3))*$G$25</f>
+        <v>831.77661667193433</v>
+      </c>
+      <c r="M10" s="47">
+        <f>(L10-L9)</f>
+        <v>831.77661667193433</v>
+      </c>
+      <c r="N10" s="228">
+        <f>N9+M10</f>
+        <v>831.77661667193433</v>
+      </c>
+      <c r="P10" s="135"/>
+      <c r="Q10" s="118"/>
+      <c r="V10"/>
+      <c r="AB10" s="220"/>
     </row>
     <row r="11" spans="2:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D11" s="26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E11" s="48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="42">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="G11" s="49">
-        <f>EXP(E11/$P$2)/(EXP($F11/$P$2)+EXP($E11/$P$2))</f>
-        <v>0.5</v>
+        <f>EXP(E11/$P$3)/(EXP($F11/$P$3)+EXP($E11/$P$3))</f>
+        <v>0.99966464986953352</v>
       </c>
       <c r="H11" s="199">
-        <f>EXP(F11/$P$2)/(EXP($F11/$P$2)+EXP($E11/$P$2))</f>
-        <v>0.5</v>
+        <f>EXP(F11/$P$3)/(EXP($F11/$P$3)+EXP($E11/$P$3))</f>
+        <v>3.3535013046647811E-4</v>
       </c>
       <c r="I11" s="48">
-        <f>(G11*$G$23)</f>
-        <v>5000</v>
-      </c>
-      <c r="J11" s="230">
-        <f>(H11*$G$23)</f>
-        <v>5000</v>
-      </c>
-      <c r="K11" s="230">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>11995.975798434401</v>
+      </c>
+      <c r="J11" s="223">
+        <f t="shared" si="1"/>
+        <v>4.0242015655977372</v>
+      </c>
+      <c r="K11" s="223">
+        <f t="shared" ref="K11:K19" si="2">J11+$G$23</f>
+        <v>8004.0242015655977</v>
       </c>
       <c r="L11" s="96">
-        <f>$P$2*LN(EXP($F11/$P$2)+EXP($E11/$P$2))*$G$23</f>
-        <v>26931.471805599453</v>
+        <f>$P$3*LN(EXP($F11/$P$3)+EXP($E11/$P$3))*$G$25</f>
+        <v>12000.402487647474</v>
       </c>
       <c r="M11" s="50">
-        <f t="shared" si="1"/>
-        <v>10000</v>
-      </c>
-      <c r="N11" s="235">
-        <f t="shared" si="2"/>
-        <v>26931.471805599453</v>
+        <f t="shared" ref="M11:M19" si="3">(L11-L10)</f>
+        <v>11168.62587097554</v>
+      </c>
+      <c r="N11" s="228">
+        <f t="shared" ref="N11:N19" si="4">N10+M11</f>
+        <v>12000.402487647474</v>
       </c>
       <c r="P11" s="135">
-        <f>E11-E10</f>
+        <f t="shared" ref="P11:P19" si="5">E11-E10</f>
         <v>1</v>
       </c>
       <c r="Q11" s="118">
-        <f>F11-F10</f>
-        <v>1</v>
+        <f t="shared" ref="Q11:Q19" si="6">F11-F10</f>
+        <v>0.2</v>
       </c>
       <c r="R11" s="215">
-        <f t="shared" si="3"/>
-        <v>10000</v>
+        <f t="shared" ref="R11:R19" si="7">M11</f>
+        <v>11168.62587097554</v>
       </c>
       <c r="T11" s="7" t="str">
         <f>IF(P11&gt;0,"Bought ",IF(P11&lt;0,"Sold ",""))&amp;IF(P11&lt;0,P11*-1,IF(P11&gt;0,P11,""))&amp;IF(P11&lt;&gt;0," Shares of State 1 at a cost of "&amp;ROUND($R11,5),"")</f>
-        <v>Bought 1 Shares of State 1 at a cost of 10000</v>
+        <v>Bought 1 Shares of State 1 at a cost of 11168.62587</v>
       </c>
       <c r="U11" s="7" t="str">
-        <f>IF(Q11&gt;0,"Bought ",IF(Q11&lt;0,"Sold ",""))&amp;IF(Q11&lt;0,Q11*-1,IF(Q11&gt;0,Q11,""))&amp;IF(Q11&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($R11,5),"")</f>
-        <v>Bought 1 Shares of State 2 at a cost of 10000</v>
+        <f t="shared" ref="U11" si="8">IF(Q11&gt;0,"Bought ",IF(Q11&lt;0,"Sold ",""))&amp;IF(Q11&lt;0,Q11*-1,IF(Q11&gt;0,Q11,""))&amp;IF(Q11&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($R11,5),"")</f>
+        <v>Bought 0.2 Shares of State 2 at a cost of 11168.62587</v>
       </c>
       <c r="V11" s="218" t="str">
-        <f t="shared" si="5"/>
-        <v>Bought 1 Shares of State 1 at a cost of 10000Bought 1 Shares of State 2 at a cost of 10000</v>
+        <f>T11&amp;U11</f>
+        <v>Bought 1 Shares of State 1 at a cost of 11168.62587Bought 0.2 Shares of State 2 at a cost of 11168.62587</v>
       </c>
     </row>
     <row r="12" spans="2:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D12" s="26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E12" s="48">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F12" s="42">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G12" s="49">
-        <f>EXP(E12/$P$2)/(EXP($F12/$P$2)+EXP($E12/$P$2))</f>
+        <f>EXP(E12/$P$3)/(EXP($F12/$P$3)+EXP($E12/$P$3))</f>
         <v>0.5</v>
       </c>
       <c r="H12" s="199">
-        <f>EXP(F12/$P$2)/(EXP($F12/$P$2)+EXP($E12/$P$2))</f>
+        <f>EXP(F12/$P$3)/(EXP($F12/$P$3)+EXP($E12/$P$3))</f>
         <v>0.5</v>
       </c>
       <c r="I12" s="48">
-        <f>(G12*$G$23)</f>
-        <v>5000</v>
-      </c>
-      <c r="J12" s="230">
-        <f>(H12*$G$23)</f>
-        <v>5000</v>
-      </c>
-      <c r="K12" s="230">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>6000</v>
+      </c>
+      <c r="J12" s="223">
+        <f t="shared" si="1"/>
+        <v>6000</v>
+      </c>
+      <c r="K12" s="223">
+        <f t="shared" si="2"/>
+        <v>14000</v>
       </c>
       <c r="L12" s="96">
-        <f>$P$2*LN(EXP($F12/$P$2)+EXP($E12/$P$2))*$G$23</f>
-        <v>126931.47180559946</v>
+        <f>$P$3*LN(EXP($F12/$P$3)+EXP($E12/$P$3))*$G$25</f>
+        <v>12831.776616671934</v>
       </c>
       <c r="M12" s="50">
-        <f>(L12-L11)</f>
-        <v>100000</v>
-      </c>
-      <c r="N12" s="235">
-        <f t="shared" si="2"/>
-        <v>126931.47180559946</v>
+        <f t="shared" si="3"/>
+        <v>831.37412902445976</v>
+      </c>
+      <c r="N12" s="228">
+        <f t="shared" si="4"/>
+        <v>12831.776616671934</v>
       </c>
       <c r="P12" s="135">
-        <f>E12-E11</f>
-        <v>10</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="Q12" s="118">
-        <f>F12-F11</f>
-        <v>10</v>
+        <f t="shared" si="6"/>
+        <v>0.8</v>
       </c>
       <c r="R12" s="215">
-        <f t="shared" ref="R12:R16" si="6">M12</f>
-        <v>100000</v>
+        <f t="shared" si="7"/>
+        <v>831.37412902445976</v>
       </c>
       <c r="T12" s="7" t="str">
-        <f t="shared" ref="T12:T16" si="7">IF(P12&gt;0,"Bought ",IF(P12&lt;0,"Sold ",""))&amp;IF(P12&lt;0,P12*-1,IF(P12&gt;0,P12,""))&amp;IF(P12&lt;&gt;0," Shares of State 1 at a cost of "&amp;ROUND($R12,5),"")</f>
-        <v>Bought 10 Shares of State 1 at a cost of 100000</v>
+        <f>IF(P12&gt;0,"Bought ",IF(P12&lt;0,"Sold ",""))&amp;IF(P12&lt;0,P12*-1,IF(P12&gt;0,P12,""))&amp;IF(P12&lt;&gt;0," Shares of State 1 at a cost of "&amp;ROUND($R12,5),"")</f>
+        <v/>
       </c>
       <c r="U12" s="7" t="str">
-        <f t="shared" ref="U12:U16" si="8">IF(Q12&gt;0,"Bought ",IF(Q12&lt;0,"Sold ",""))&amp;IF(Q12&lt;0,Q12*-1,IF(Q12&gt;0,Q12,""))&amp;IF(Q12&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($R12,5),"")</f>
-        <v>Bought 10 Shares of State 2 at a cost of 100000</v>
+        <f>IF(Q12&gt;0,"Bought ",IF(Q12&lt;0,"Sold ",""))&amp;IF(Q12&lt;0,Q12*-1,IF(Q12&gt;0,Q12,""))&amp;IF(Q12&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($R12,5),"")</f>
+        <v>Bought 0.8 Shares of State 2 at a cost of 831.37413</v>
       </c>
       <c r="V12" s="218" t="str">
-        <f t="shared" ref="V12:V16" si="9">T12&amp;U12</f>
-        <v>Bought 10 Shares of State 1 at a cost of 100000Bought 10 Shares of State 2 at a cost of 100000</v>
+        <f t="shared" ref="V12:V19" si="9">T12&amp;U12</f>
+        <v>Bought 0.8 Shares of State 2 at a cost of 831.37413</v>
       </c>
     </row>
     <row r="13" spans="2:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D13" s="26">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E13" s="48">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F13" s="42">
-        <f t="shared" ref="F13:F16" si="10">$F$18</f>
-        <v>12.579072670815561</v>
+        <v>2</v>
       </c>
       <c r="G13" s="49">
-        <f>EXP(E13/$P$2)/(EXP($F13/$P$2)+EXP($E13/$P$2))</f>
-        <v>0.35914599999999997</v>
+        <f>EXP(E13/$P$3)/(EXP($F13/$P$3)+EXP($E13/$P$3))</f>
+        <v>0.5</v>
       </c>
       <c r="H13" s="199">
-        <f>EXP(F13/$P$2)/(EXP($F13/$P$2)+EXP($E13/$P$2))</f>
-        <v>0.64085400000000003</v>
+        <f>EXP(F13/$P$3)/(EXP($F13/$P$3)+EXP($E13/$P$3))</f>
+        <v>0.5</v>
       </c>
       <c r="I13" s="48">
-        <f>(G13*$G$23)</f>
-        <v>3591.4599999999996</v>
-      </c>
-      <c r="J13" s="230">
-        <f>(H13*$G$23)</f>
-        <v>6408.54</v>
-      </c>
-      <c r="K13" s="230">
         <f t="shared" si="0"/>
-        <v>16408.54</v>
+        <v>6000</v>
+      </c>
+      <c r="J13" s="223">
+        <f t="shared" si="1"/>
+        <v>6000</v>
+      </c>
+      <c r="K13" s="223">
+        <f t="shared" si="2"/>
+        <v>14000</v>
       </c>
       <c r="L13" s="96">
-        <f>$P$2*LN(EXP($F13/$P$2)+EXP($E13/$P$2))*$G$23</f>
-        <v>130240.26287931117</v>
+        <f>$P$3*LN(EXP($F13/$P$3)+EXP($E13/$P$3))*$G$25</f>
+        <v>24831.776616671934</v>
       </c>
       <c r="M13" s="50">
-        <f t="shared" si="1"/>
-        <v>3308.7910737117054</v>
-      </c>
-      <c r="N13" s="235">
-        <f t="shared" si="2"/>
-        <v>130240.26287931117</v>
+        <f t="shared" si="3"/>
+        <v>12000</v>
+      </c>
+      <c r="N13" s="228">
+        <f t="shared" si="4"/>
+        <v>24831.776616671934</v>
       </c>
       <c r="P13" s="135">
-        <f>E13-E12</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="Q13" s="118">
-        <f>F13-F12</f>
-        <v>0.57907267081556135</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="R13" s="215">
-        <f t="shared" si="6"/>
-        <v>3308.7910737117054</v>
+        <f t="shared" si="7"/>
+        <v>12000</v>
       </c>
       <c r="T13" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f>IF(P13&gt;0,"Bought ",IF(P13&lt;0,"Sold ",""))&amp;IF(P13&lt;0,P13*-1,IF(P13&gt;0,P13,""))&amp;IF(P13&lt;&gt;0," Shares of State 1 at a cost of "&amp;ROUND($R13,5),"")</f>
+        <v>Bought 1 Shares of State 1 at a cost of 12000</v>
       </c>
       <c r="U13" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>Bought 0.579072670815561 Shares of State 2 at a cost of 3308.79107</v>
+        <f>IF(Q13&gt;0,"Bought ",IF(Q13&lt;0,"Sold ",""))&amp;IF(Q13&lt;0,Q13*-1,IF(Q13&gt;0,Q13,""))&amp;IF(Q13&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($R13,5),"")</f>
+        <v>Bought 1 Shares of State 2 at a cost of 12000</v>
       </c>
       <c r="V13" s="218" t="str">
         <f t="shared" si="9"/>
-        <v>Bought 0.579072670815561 Shares of State 2 at a cost of 3308.79107</v>
+        <v>Bought 1 Shares of State 1 at a cost of 12000Bought 1 Shares of State 2 at a cost of 12000</v>
       </c>
     </row>
     <row r="14" spans="2:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D14" s="26">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E14" s="48">
         <v>12</v>
       </c>
       <c r="F14" s="42">
-        <f t="shared" si="10"/>
-        <v>12.579072670815561</v>
+        <v>12</v>
       </c>
       <c r="G14" s="49">
-        <f>EXP(E14/$P$2)/(EXP($F14/$P$2)+EXP($E14/$P$2))</f>
-        <v>0.35914599999999997</v>
+        <f>EXP(E14/$P$3)/(EXP($F14/$P$3)+EXP($E14/$P$3))</f>
+        <v>0.5</v>
       </c>
       <c r="H14" s="199">
-        <f>EXP(F14/$P$2)/(EXP($F14/$P$2)+EXP($E14/$P$2))</f>
-        <v>0.64085400000000003</v>
+        <f>EXP(F14/$P$3)/(EXP($F14/$P$3)+EXP($E14/$P$3))</f>
+        <v>0.5</v>
       </c>
       <c r="I14" s="48">
-        <f>(G14*$G$23)</f>
-        <v>3591.4599999999996</v>
-      </c>
-      <c r="J14" s="230">
-        <f>(H14*$G$23)</f>
-        <v>6408.54</v>
-      </c>
-      <c r="K14" s="230">
         <f t="shared" si="0"/>
-        <v>16408.54</v>
+        <v>6000</v>
+      </c>
+      <c r="J14" s="223">
+        <f t="shared" si="1"/>
+        <v>6000</v>
+      </c>
+      <c r="K14" s="223">
+        <f t="shared" si="2"/>
+        <v>14000</v>
       </c>
       <c r="L14" s="96">
-        <f>$P$2*LN(EXP($F14/$P$2)+EXP($E14/$P$2))*$G$23</f>
-        <v>130240.26287931117</v>
+        <f>$P$3*LN(EXP($F14/$P$3)+EXP($E14/$P$3))*$G$25</f>
+        <v>144831.77661667194</v>
       </c>
       <c r="M14" s="50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="235">
-        <f t="shared" si="2"/>
-        <v>130240.26287931117</v>
+        <f>(L14-L13)</f>
+        <v>120000</v>
+      </c>
+      <c r="N14" s="228">
+        <f t="shared" si="4"/>
+        <v>144831.77661667194</v>
       </c>
       <c r="P14" s="135">
-        <f>E14-E13</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="Q14" s="118">
-        <f>F14-F13</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>10</v>
       </c>
       <c r="R14" s="215">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" ref="R14:R18" si="10">M14</f>
+        <v>120000</v>
       </c>
       <c r="T14" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f t="shared" ref="T14:T18" si="11">IF(P14&gt;0,"Bought ",IF(P14&lt;0,"Sold ",""))&amp;IF(P14&lt;0,P14*-1,IF(P14&gt;0,P14,""))&amp;IF(P14&lt;&gt;0," Shares of State 1 at a cost of "&amp;ROUND($R14,5),"")</f>
+        <v>Bought 10 Shares of State 1 at a cost of 120000</v>
       </c>
       <c r="U14" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+        <f t="shared" ref="U14:U18" si="12">IF(Q14&gt;0,"Bought ",IF(Q14&lt;0,"Sold ",""))&amp;IF(Q14&lt;0,Q14*-1,IF(Q14&gt;0,Q14,""))&amp;IF(Q14&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($R14,5),"")</f>
+        <v>Bought 10 Shares of State 2 at a cost of 120000</v>
       </c>
       <c r="V14" s="218" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" ref="V14:V18" si="13">T14&amp;U14</f>
+        <v>Bought 10 Shares of State 1 at a cost of 120000Bought 10 Shares of State 2 at a cost of 120000</v>
       </c>
     </row>
     <row r="15" spans="2:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D15" s="26">
+        <v>12</v>
+      </c>
+      <c r="E15" s="48">
+        <v>30</v>
+      </c>
+      <c r="F15" s="42">
+        <v>15</v>
+      </c>
+      <c r="G15" s="49">
+        <f>EXP(E15/$P$3)/(EXP($F15/$P$3)+EXP($E15/$P$3))</f>
+        <v>1</v>
+      </c>
+      <c r="H15" s="199">
+        <f>EXP(F15/$P$3)/(EXP($F15/$P$3)+EXP($E15/$P$3))</f>
+        <v>7.1750959731644108E-66</v>
+      </c>
+      <c r="I15" s="48">
+        <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
+      <c r="J15" s="223">
+        <f t="shared" si="1"/>
+        <v>8.6101151677972925E-62</v>
+      </c>
+      <c r="K15" s="223">
+        <f t="shared" si="2"/>
+        <v>8000</v>
+      </c>
+      <c r="L15" s="96">
+        <f>$P$3*LN(EXP($F15/$P$3)+EXP($E15/$P$3))*$G$25</f>
+        <v>360000</v>
+      </c>
+      <c r="M15" s="50">
+        <f t="shared" si="3"/>
+        <v>215168.22338332806</v>
+      </c>
+      <c r="N15" s="228">
+        <f t="shared" si="4"/>
+        <v>360000</v>
+      </c>
+      <c r="P15" s="135">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="Q15" s="118">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="R15" s="215">
+        <f t="shared" si="10"/>
+        <v>215168.22338332806</v>
+      </c>
+      <c r="T15" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v>Bought 18 Shares of State 1 at a cost of 215168.22338</v>
+      </c>
+      <c r="U15" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>Bought 3 Shares of State 2 at a cost of 215168.22338</v>
+      </c>
+      <c r="V15" s="218" t="str">
+        <f t="shared" si="13"/>
+        <v>Bought 18 Shares of State 1 at a cost of 215168.22338Bought 3 Shares of State 2 at a cost of 215168.22338</v>
+      </c>
+    </row>
+    <row r="16" spans="2:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D16" s="26">
+        <v>13</v>
+      </c>
+      <c r="E16" s="48">
+        <v>11</v>
+      </c>
+      <c r="F16" s="42">
+        <v>15</v>
+      </c>
+      <c r="G16" s="49">
+        <f>EXP(E16/$P$3)/(EXP($F16/$P$3)+EXP($E16/$P$3))</f>
+        <v>4.2483542552915889E-18</v>
+      </c>
+      <c r="H16" s="199">
+        <f>EXP(F16/$P$3)/(EXP($F16/$P$3)+EXP($E16/$P$3))</f>
+        <v>1</v>
+      </c>
+      <c r="I16" s="48">
+        <f t="shared" si="0"/>
+        <v>5.0980251063499068E-14</v>
+      </c>
+      <c r="J16" s="223">
+        <f t="shared" si="1"/>
+        <v>12000</v>
+      </c>
+      <c r="K16" s="223">
+        <f t="shared" si="2"/>
+        <v>20000</v>
+      </c>
+      <c r="L16" s="96">
+        <f>$P$3*LN(EXP($F16/$P$3)+EXP($E16/$P$3))*$G$25</f>
+        <v>180000</v>
+      </c>
+      <c r="M16" s="50">
+        <f t="shared" si="3"/>
+        <v>-180000</v>
+      </c>
+      <c r="N16" s="228">
+        <f t="shared" si="4"/>
+        <v>180000</v>
+      </c>
+      <c r="P16" s="135">
+        <f t="shared" si="5"/>
+        <v>-19</v>
+      </c>
+      <c r="Q16" s="118">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="215">
+        <f t="shared" si="10"/>
+        <v>-180000</v>
+      </c>
+      <c r="T16" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v>Sold 19 Shares of State 1 at a cost of -180000</v>
+      </c>
+      <c r="U16" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="V16" s="218" t="str">
+        <f t="shared" si="13"/>
+        <v>Sold 19 Shares of State 1 at a cost of -180000</v>
+      </c>
+    </row>
+    <row r="17" spans="3:23" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D17" s="26">
         <v>14</v>
       </c>
-      <c r="E15" s="48">
+      <c r="E17" s="48">
+        <v>16</v>
+      </c>
+      <c r="F17" s="42">
+        <v>22</v>
+      </c>
+      <c r="G17" s="49">
+        <f>EXP(E17/$P$3)/(EXP($F17/$P$3)+EXP($E17/$P$3))</f>
+        <v>8.75651076269652E-27</v>
+      </c>
+      <c r="H17" s="199">
+        <f>EXP(F17/$P$3)/(EXP($F17/$P$3)+EXP($E17/$P$3))</f>
+        <v>1</v>
+      </c>
+      <c r="I17" s="48">
+        <f t="shared" si="0"/>
+        <v>1.0507812915235824E-22</v>
+      </c>
+      <c r="J17" s="223">
+        <f t="shared" si="1"/>
+        <v>12000</v>
+      </c>
+      <c r="K17" s="223">
+        <f t="shared" si="2"/>
+        <v>20000</v>
+      </c>
+      <c r="L17" s="96">
+        <f>$P$3*LN(EXP($F17/$P$3)+EXP($E17/$P$3))*$G$25</f>
+        <v>264000</v>
+      </c>
+      <c r="M17" s="50">
+        <f t="shared" si="3"/>
+        <v>84000</v>
+      </c>
+      <c r="N17" s="228">
+        <f t="shared" si="4"/>
+        <v>264000</v>
+      </c>
+      <c r="P17" s="135">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="Q17" s="118">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="R17" s="215">
+        <f t="shared" si="10"/>
+        <v>84000</v>
+      </c>
+      <c r="T17" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v>Bought 5 Shares of State 1 at a cost of 84000</v>
+      </c>
+      <c r="U17" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>Bought 7 Shares of State 2 at a cost of 84000</v>
+      </c>
+      <c r="V17" s="218" t="str">
+        <f t="shared" si="13"/>
+        <v>Bought 5 Shares of State 1 at a cost of 84000Bought 7 Shares of State 2 at a cost of 84000</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C18"/>
+      <c r="D18" s="26">
+        <v>15</v>
+      </c>
+      <c r="E18" s="48">
+        <v>16</v>
+      </c>
+      <c r="F18" s="42">
+        <v>21</v>
+      </c>
+      <c r="G18" s="49">
+        <f>EXP(E18/$P$3)/(EXP($F18/$P$3)+EXP($E18/$P$3))</f>
+        <v>1.9287498479639178E-22</v>
+      </c>
+      <c r="H18" s="199">
+        <f>EXP(F18/$P$3)/(EXP($F18/$P$3)+EXP($E18/$P$3))</f>
+        <v>1</v>
+      </c>
+      <c r="I18" s="48">
+        <f t="shared" si="0"/>
+        <v>2.3144998175567013E-18</v>
+      </c>
+      <c r="J18" s="223">
+        <f t="shared" si="1"/>
+        <v>12000</v>
+      </c>
+      <c r="K18" s="223">
+        <f t="shared" si="2"/>
+        <v>20000</v>
+      </c>
+      <c r="L18" s="96">
+        <f>$P$3*LN(EXP($F18/$P$3)+EXP($E18/$P$3))*$G$25</f>
+        <v>252000</v>
+      </c>
+      <c r="M18" s="50">
+        <f t="shared" si="3"/>
+        <v>-12000</v>
+      </c>
+      <c r="N18" s="228">
+        <f t="shared" si="4"/>
+        <v>252000</v>
+      </c>
+      <c r="P18" s="135">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="118">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="R18" s="215">
+        <f t="shared" si="10"/>
+        <v>-12000</v>
+      </c>
+      <c r="T18" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="U18" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>Sold 1 Shares of State 2 at a cost of -12000</v>
+      </c>
+      <c r="V18" s="218" t="str">
+        <f t="shared" si="13"/>
+        <v>Sold 1 Shares of State 2 at a cost of -12000</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" s="7" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D19" s="26">
+        <v>16</v>
+      </c>
+      <c r="E19" s="40">
         <v>12</v>
       </c>
-      <c r="F15" s="42">
-        <f t="shared" si="10"/>
-        <v>12.579072670815561</v>
-      </c>
-      <c r="G15" s="49">
-        <f>EXP(E15/$P$2)/(EXP($F15/$P$2)+EXP($E15/$P$2))</f>
-        <v>0.35914599999999997</v>
-      </c>
-      <c r="H15" s="199">
-        <f>EXP(F15/$P$2)/(EXP($F15/$P$2)+EXP($E15/$P$2))</f>
-        <v>0.64085400000000003</v>
-      </c>
-      <c r="I15" s="48">
-        <f>(G15*$G$23)</f>
-        <v>3591.4599999999996</v>
-      </c>
-      <c r="J15" s="230">
-        <f>(H15*$G$23)</f>
-        <v>6408.54</v>
-      </c>
-      <c r="K15" s="230">
+      <c r="F19" s="221">
+        <f>$F$20</f>
+        <v>12.070351139496553</v>
+      </c>
+      <c r="G19" s="131">
+        <f>EXP(E19/$P$3)/(EXP($F19/$P$3)+EXP($E19/$P$3))</f>
+        <v>0.33103416666666818</v>
+      </c>
+      <c r="H19" s="200">
+        <f>EXP(F19/$P$3)/(EXP($F19/$P$3)+EXP($E19/$P$3))</f>
+        <v>0.66896583333333171</v>
+      </c>
+      <c r="I19" s="40">
         <f t="shared" si="0"/>
-        <v>16408.54</v>
-      </c>
-      <c r="L15" s="96">
-        <f>$P$2*LN(EXP($F15/$P$2)+EXP($E15/$P$2))*$G$23</f>
-        <v>130240.26287931117</v>
-      </c>
-      <c r="M15" s="50">
+        <v>3972.410000000018</v>
+      </c>
+      <c r="J19" s="224">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="235">
+        <v>8027.5899999999801</v>
+      </c>
+      <c r="K19" s="224">
         <f t="shared" si="2"/>
-        <v>130240.26287931117</v>
-      </c>
-      <c r="P15" s="135">
-        <f>E15-E14</f>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="118">
-        <f>F15-F14</f>
-        <v>0</v>
-      </c>
-      <c r="R15" s="215">
+        <v>16027.58999999998</v>
+      </c>
+      <c r="L19" s="133">
+        <f>$P$3*LN(EXP($F19/$P$3)+EXP($E19/$P$3))*$G$25</f>
+        <v>145326.64042364911</v>
+      </c>
+      <c r="M19" s="134">
+        <f>(L19-L18)</f>
+        <v>-106673.35957635089</v>
+      </c>
+      <c r="N19" s="228">
+        <f t="shared" si="4"/>
+        <v>145326.64042364911</v>
+      </c>
+      <c r="P19" s="143">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+      <c r="Q19" s="120">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T15" s="7" t="str">
+        <v>-8.9296488605034465</v>
+      </c>
+      <c r="R19" s="215">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="U15" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="V15" s="218" t="str">
+        <v>-106673.35957635089</v>
+      </c>
+      <c r="T19" s="7" t="str">
+        <f>IF(P19&gt;0,"Bought ",IF(P19&lt;0,"Sold ",""))&amp;IF(P19&lt;0,P19*-1,IF(P19&gt;0,P19,""))&amp;IF(P19&lt;&gt;0," Shares of State 1 at a cost of "&amp;ROUND($R19,5),"")</f>
+        <v>Sold 4 Shares of State 1 at a cost of -106673.35958</v>
+      </c>
+      <c r="U19" s="7" t="str">
+        <f>IF(Q19&gt;0,"Bought ",IF(Q19&lt;0,"Sold ",""))&amp;IF(Q19&lt;0,Q19*-1,IF(Q19&gt;0,Q19,""))&amp;IF(Q19&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($R19,5),"")</f>
+        <v>Sold 8.92964886050345 Shares of State 2 at a cost of -106673.35958</v>
+      </c>
+      <c r="V19" s="218" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="2:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C16"/>
-      <c r="D16" s="26">
-        <v>15</v>
-      </c>
-      <c r="E16" s="48">
+        <v>Sold 4 Shares of State 1 at a cost of -106673.35958Sold 8.92964886050345 Shares of State 2 at a cost of -106673.35958</v>
+      </c>
+    </row>
+    <row r="20" spans="3:23" s="7" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="52">
+        <f>E19</f>
         <v>12</v>
       </c>
-      <c r="F16" s="42">
-        <f t="shared" si="10"/>
-        <v>12.579072670815561</v>
-      </c>
-      <c r="G16" s="49">
-        <f>EXP(E16/$P$2)/(EXP($F16/$P$2)+EXP($E16/$P$2))</f>
-        <v>0.35914599999999997</v>
-      </c>
-      <c r="H16" s="199">
-        <f>EXP(F16/$P$2)/(EXP($F16/$P$2)+EXP($E16/$P$2))</f>
-        <v>0.64085400000000003</v>
-      </c>
-      <c r="I16" s="48">
-        <f>(G16*$G$23)</f>
-        <v>3591.4599999999996</v>
-      </c>
-      <c r="J16" s="230">
-        <f>(H16*$G$23)</f>
-        <v>6408.54</v>
-      </c>
-      <c r="K16" s="230">
+      <c r="F20" s="53">
+        <f>P3*LN(E27/(1-E27))+E20</f>
+        <v>12.070351139496553</v>
+      </c>
+      <c r="G20" s="54">
+        <f>EXP(E20)/(EXP($F20)+EXP($E20))</f>
+        <v>0.48241946544763248</v>
+      </c>
+      <c r="H20" s="201">
+        <f>EXP(F20)/(EXP($F20)+EXP($E20))</f>
+        <v>0.51758053455236752</v>
+      </c>
+      <c r="I20" s="52">
         <f t="shared" si="0"/>
-        <v>16408.54</v>
-      </c>
-      <c r="L16" s="96">
-        <f>$P$2*LN(EXP($F16/$P$2)+EXP($E16/$P$2))*$G$23</f>
-        <v>130240.26287931117</v>
-      </c>
-      <c r="M16" s="50">
+        <v>5789.0335853715897</v>
+      </c>
+      <c r="J20" s="225">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="235">
-        <f t="shared" si="2"/>
-        <v>130240.26287931117</v>
-      </c>
-      <c r="P16" s="135">
-        <f>E16-E15</f>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="118">
-        <f>F16-F15</f>
-        <v>0</v>
-      </c>
-      <c r="R16" s="215">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="U16" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="V16" s="218" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="3:23" s="7" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D17" s="26">
-        <v>16</v>
-      </c>
-      <c r="E17" s="40">
-        <v>12</v>
-      </c>
-      <c r="F17" s="228">
-        <f>$F$18</f>
-        <v>12.579072670815561</v>
-      </c>
-      <c r="G17" s="131">
-        <f>EXP(E17/$P$2)/(EXP($F17/$P$2)+EXP($E17/$P$2))</f>
-        <v>0.35914599999999997</v>
-      </c>
-      <c r="H17" s="200">
-        <f>EXP(F17/$P$2)/(EXP($F17/$P$2)+EXP($E17/$P$2))</f>
-        <v>0.64085400000000003</v>
-      </c>
-      <c r="I17" s="40">
-        <f>(G17*$G$23)</f>
-        <v>3591.4599999999996</v>
-      </c>
-      <c r="J17" s="231">
-        <f>(H17*$G$23)</f>
-        <v>6408.54</v>
-      </c>
-      <c r="K17" s="231">
-        <f t="shared" si="0"/>
-        <v>16408.54</v>
-      </c>
-      <c r="L17" s="133">
-        <f>$P$2*LN(EXP($F17/$P$2)+EXP($E17/$P$2))*$G$23</f>
-        <v>130240.26287931117</v>
-      </c>
-      <c r="M17" s="134">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="235">
-        <f t="shared" si="2"/>
-        <v>130240.26287931117</v>
-      </c>
-      <c r="P17" s="143">
-        <f>E17-E16</f>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="120">
-        <f>F17-F16</f>
-        <v>0</v>
-      </c>
-      <c r="R17" s="215">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T17" s="7" t="str">
-        <f>IF(P17&gt;0,"Bought ",IF(P17&lt;0,"Sold ",""))&amp;IF(P17&lt;0,P17*-1,IF(P17&gt;0,P17,""))&amp;IF(P17&lt;&gt;0," Shares of State 1 at a cost of "&amp;ROUND($R17,5),"")</f>
-        <v/>
-      </c>
-      <c r="U17" s="7" t="str">
-        <f>IF(Q17&gt;0,"Bought ",IF(Q17&lt;0,"Sold ",""))&amp;IF(Q17&lt;0,Q17*-1,IF(Q17&gt;0,Q17,""))&amp;IF(Q17&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($R17,5),"")</f>
-        <v/>
-      </c>
-      <c r="V17" s="218" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="3:23" s="7" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18" s="52">
-        <f>E17</f>
-        <v>12</v>
-      </c>
-      <c r="F18" s="53">
-        <f>P2*LN(E25/(1-E25))+E18</f>
-        <v>12.579072670815561</v>
-      </c>
-      <c r="G18" s="54">
-        <f>EXP(E18)/(EXP($F18)+EXP($E18))</f>
-        <v>0.35914599999999997</v>
-      </c>
-      <c r="H18" s="201">
-        <f>EXP(F18)/(EXP($F18)+EXP($E18))</f>
-        <v>0.64085400000000003</v>
-      </c>
-      <c r="I18" s="52">
-        <f>(G18*$G$23)</f>
-        <v>3591.4599999999996</v>
-      </c>
-      <c r="J18" s="232">
-        <f>(H18*$G$23)</f>
-        <v>6408.54</v>
-      </c>
-      <c r="K18" s="232">
-        <f>J18+$G$21</f>
-        <v>16408.54</v>
-      </c>
-      <c r="L18" s="97">
-        <f>$P$2*LN(EXP($F18/$P$2)+EXP($E18/$P$2))*$G$23</f>
-        <v>130240.26287931117</v>
-      </c>
-      <c r="M18" s="55">
-        <f>SUM(M8:M17)</f>
-        <v>130240.26287931117</v>
-      </c>
-      <c r="N18" s="235"/>
-      <c r="O18" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-    </row>
-    <row r="19" spans="3:23" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="130">
-        <v>0</v>
-      </c>
-      <c r="M19" s="56">
-        <f>M18-( (E18*I18) + (F18*J18))</f>
-        <v>6529.2525054828147</v>
-      </c>
-      <c r="N19" s="235"/>
-      <c r="O19" t="s">
+        <v>6210.9664146284103</v>
+      </c>
+      <c r="K20" s="225">
+        <f>J20+$G$23</f>
+        <v>14210.96641462841</v>
+      </c>
+      <c r="L20" s="97">
+        <f>$P$3*LN(EXP($F20/$P$3)+EXP($E20/$P$3))*$G$25</f>
+        <v>145326.64042364911</v>
+      </c>
+      <c r="M20" s="55">
+        <f>SUM(M10:M19)</f>
+        <v>145326.64042364911</v>
+      </c>
+      <c r="N20" s="228"/>
+      <c r="O20" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+    </row>
+    <row r="21" spans="3:23" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="130">
+        <v>0</v>
+      </c>
+      <c r="M21" s="50">
+        <f>SUMPRODUCT(E20:F20,I20:J20)</f>
+        <v>144436.94856464394</v>
+      </c>
+      <c r="O21" t="s">
+        <v>130</v>
+      </c>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+    </row>
+    <row r="22" spans="3:23" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="164"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="238">
+        <f>M20-M21</f>
+        <v>889.69185900516459</v>
+      </c>
+      <c r="N22" s="228"/>
+      <c r="O22" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="34">
+        <v>0</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" s="34">
+        <v>8000</v>
+      </c>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="239">
+        <f>M10-M22</f>
+        <v>-57.915242333230253</v>
+      </c>
+      <c r="O23" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
-    </row>
-    <row r="20" spans="3:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="164"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-    </row>
-    <row r="21" spans="3:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="34">
-        <v>0</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="G21" s="34">
-        <v>10000</v>
-      </c>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="236">
-        <f>M8-M19</f>
-        <v>402.2193001166379</v>
-      </c>
-      <c r="O21" s="58" t="s">
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="E24" s="34">
+        <v>1</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="G24" s="34">
+        <v>20000</v>
+      </c>
+      <c r="M24" s="229"/>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="F25" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" s="34">
+        <f>G24-G23</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="E27" s="34">
+        <f>(G27-G23)/(G24-G23)</f>
+        <v>0.66896583333333337</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="G27" s="34">
+        <v>16027.59</v>
+      </c>
+      <c r="I27" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="E22" s="34">
-        <v>1</v>
-      </c>
-      <c r="F22" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="G22" s="34">
-        <v>20000</v>
-      </c>
-      <c r="M22" s="237"/>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="F23" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="G23" s="34">
-        <f>G22-G21</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="E25" s="34">
-        <f>(G25-G21)/(G22-G21)</f>
-        <v>0.64085400000000003</v>
-      </c>
-      <c r="F25" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="G25" s="34">
-        <v>16408.54</v>
-      </c>
-      <c r="I25" s="34" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="E30" s="34" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="E31" s="34" t="s">
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="E32" s="34" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E34" s="34" t="s">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="34" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E36" s="34" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P8:Q8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12704,10 +12763,10 @@
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
-      <c r="F4" s="223" t="s">
+      <c r="F4" s="232" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="224"/>
+      <c r="G4" s="233"/>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
@@ -13647,12 +13706,12 @@
       <c r="U21" s="118"/>
     </row>
     <row r="22" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R22" s="225" t="s">
+      <c r="R22" s="234" t="s">
         <v>68</v>
       </c>
-      <c r="S22" s="226"/>
-      <c r="T22" s="226"/>
-      <c r="U22" s="227"/>
+      <c r="S22" s="235"/>
+      <c r="T22" s="235"/>
+      <c r="U22" s="236"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/docs/LogMSR_Demo.xlsx
+++ b/docs/LogMSR_Demo.xlsx
@@ -2,25 +2,26 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="21075" windowHeight="9975" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="21075" windowHeight="9975" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="HLMSR" sheetId="6" r:id="rId1"/>
     <sheet name="Simple Example" sheetId="10" r:id="rId2"/>
     <sheet name="Continuous" sheetId="11" r:id="rId3"/>
-    <sheet name="Changing b mid contract" sheetId="8" r:id="rId4"/>
-    <sheet name="Insurance Fraud Experiments" sheetId="9" r:id="rId5"/>
-    <sheet name="Some Accounting" sheetId="7" r:id="rId6"/>
-    <sheet name="2x2 Update Calculator" sheetId="5" r:id="rId7"/>
+    <sheet name="Multidimensional Continuous" sheetId="12" r:id="rId4"/>
+    <sheet name="Changing b mid contract" sheetId="8" r:id="rId5"/>
+    <sheet name="Insurance Fraud Experiments" sheetId="9" r:id="rId6"/>
+    <sheet name="Some Accounting" sheetId="7" r:id="rId7"/>
+    <sheet name="2x2 Update Calculator" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="140">
   <si>
     <t>Final</t>
   </si>
@@ -415,6 +416,33 @@
   <si>
     <t>Redemptions</t>
   </si>
+  <si>
+    <t>MV Scaled Contracts</t>
+  </si>
+  <si>
+    <t>i|1</t>
+  </si>
+  <si>
+    <t>i|0</t>
+  </si>
+  <si>
+    <t>Index (Same Units)</t>
+  </si>
+  <si>
+    <t>Index (Units)</t>
+  </si>
+  <si>
+    <t>Becomes clear that i2=1</t>
+  </si>
+  <si>
+    <t>Stock Market Improves</t>
+  </si>
+  <si>
+    <t>i2=1 is better for the DJIA</t>
+  </si>
+  <si>
+    <t>Outcome revealed</t>
+  </si>
 </sst>
 </file>
 
@@ -578,7 +606,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1071,13 +1099,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="240">
+  <cellXfs count="290">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1417,9 +1510,12 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1441,11 +1537,136 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1580,11 +1801,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114070528"/>
-        <c:axId val="113921984"/>
+        <c:axId val="49349376"/>
+        <c:axId val="49350912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114070528"/>
+        <c:axId val="49349376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1593,7 +1814,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113921984"/>
+        <c:crossAx val="49350912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1601,7 +1822,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113921984"/>
+        <c:axId val="49350912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1612,7 +1833,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114070528"/>
+        <c:crossAx val="49349376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1728,11 +1949,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="115000832"/>
-        <c:axId val="113924288"/>
+        <c:axId val="49438080"/>
+        <c:axId val="49525888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="115000832"/>
+        <c:axId val="49438080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1741,7 +1962,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113924288"/>
+        <c:crossAx val="49525888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1749,7 +1970,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113924288"/>
+        <c:axId val="49525888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1760,13 +1981,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115000832"/>
+        <c:crossAx val="49438080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1885,11 +2107,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114294784"/>
-        <c:axId val="115310592"/>
+        <c:axId val="51860608"/>
+        <c:axId val="51862144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114294784"/>
+        <c:axId val="51860608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1898,7 +2120,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115310592"/>
+        <c:crossAx val="51862144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1906,7 +2128,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115310592"/>
+        <c:axId val="51862144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1917,7 +2139,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114294784"/>
+        <c:crossAx val="51860608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1935,6 +2157,159 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>DJIA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> on 2/13/2014</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Multidimensional Continuous'!$R$10:$R$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11734.755987211127</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11734.755987211127</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11734.755987211127</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11647.229217593798</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11503.382239729086</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12800.033671585548</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13026.184489190488</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15935.414178785333</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16027.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="45679744"/>
+        <c:axId val="45681280"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="45679744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="45681280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="45681280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="45679744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2052,11 +2427,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114296832"/>
-        <c:axId val="115312896"/>
+        <c:axId val="51948544"/>
+        <c:axId val="51950336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114296832"/>
+        <c:axId val="51948544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2065,7 +2440,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115312896"/>
+        <c:crossAx val="51950336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2073,7 +2448,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115312896"/>
+        <c:axId val="51950336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2084,7 +2459,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114296832"/>
+        <c:crossAx val="51948544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2356,6 +2731,43 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>40475</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>210687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>481367</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>21922</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2679,10 +3091,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:AP59"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="E25" sqref="E25:H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4208,6 +4621,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:X27"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -4303,10 +4717,10 @@
         <v>37</v>
       </c>
       <c r="K6" s="20"/>
-      <c r="L6" s="230" t="s">
+      <c r="L6" s="231" t="s">
         <v>109</v>
       </c>
-      <c r="M6" s="231"/>
+      <c r="M6" s="232"/>
       <c r="N6" s="216" t="s">
         <v>110</v>
       </c>
@@ -5235,10 +5649,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:AB36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5291,8 +5706,8 @@
       <c r="B5" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="O5" s="237"/>
-      <c r="P5" s="237"/>
+      <c r="O5" s="228"/>
+      <c r="P5" s="228"/>
     </row>
     <row r="6" spans="2:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -5349,11 +5764,13 @@
         <v>15</v>
       </c>
       <c r="H8" s="69"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68" t="s">
+      <c r="I8" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="K8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="67" t="s">
+        <v>135</v>
+      </c>
       <c r="L8" s="67" t="s">
         <v>38</v>
       </c>
@@ -5362,10 +5779,10 @@
       </c>
       <c r="N8" s="226"/>
       <c r="O8" s="20"/>
-      <c r="P8" s="230" t="s">
+      <c r="P8" s="231" t="s">
         <v>109</v>
       </c>
-      <c r="Q8" s="231"/>
+      <c r="Q8" s="232"/>
       <c r="R8" s="216" t="s">
         <v>110</v>
       </c>
@@ -5402,18 +5819,18 @@
       <c r="I9" s="205" t="s">
         <v>104</v>
       </c>
-      <c r="J9" s="206" t="str">
+      <c r="J9" s="204" t="str">
         <f>"i="&amp;G25</f>
         <v>i=12000</v>
       </c>
-      <c r="K9" s="206" t="s">
+      <c r="K9" s="277" t="s">
         <v>117</v>
       </c>
       <c r="L9" s="43">
         <v>0</v>
       </c>
       <c r="M9" s="44"/>
-      <c r="N9" s="227"/>
+      <c r="N9" s="164"/>
       <c r="P9" s="213" t="str">
         <f>E9</f>
         <v>i=8000</v>
@@ -5435,37 +5852,34 @@
         <v>0</v>
       </c>
       <c r="G10" s="51">
-        <f>EXP(E10/$P$3)/(EXP($F10/$P$3)+EXP($E10/$P$3))</f>
+        <f t="shared" ref="G10:G19" si="0">EXP(E10/$P$3)/(EXP($F10/$P$3)+EXP($E10/$P$3))</f>
         <v>0.5</v>
       </c>
       <c r="H10" s="202">
-        <f>EXP(F10/$P$3)/(EXP($F10/$P$3)+EXP($E10/$P$3))</f>
+        <f t="shared" ref="H10:H19" si="1">EXP(F10/$P$3)/(EXP($F10/$P$3)+EXP($E10/$P$3))</f>
         <v>0.5</v>
       </c>
       <c r="I10" s="45">
-        <f t="shared" ref="I10:I20" si="0">(G10*$G$25)</f>
+        <f>(G10*$G$25)</f>
         <v>6000</v>
       </c>
-      <c r="J10" s="222">
-        <f t="shared" ref="J10:J20" si="1">(H10*$G$25)</f>
+      <c r="J10" s="272">
+        <f>(H10*$G$25)</f>
         <v>6000</v>
       </c>
-      <c r="K10" s="222">
+      <c r="K10" s="278">
         <f>J10+$G$23</f>
         <v>14000</v>
       </c>
       <c r="L10" s="95">
-        <f>$P$3*LN(EXP($F10/$P$3)+EXP($E10/$P$3))*$G$25</f>
+        <f t="shared" ref="L10:L20" si="2">$P$3*LN(EXP($F10/$P$3)+EXP($E10/$P$3))*$G$25</f>
         <v>831.77661667193433</v>
       </c>
       <c r="M10" s="47">
         <f>(L10-L9)</f>
         <v>831.77661667193433</v>
       </c>
-      <c r="N10" s="228">
-        <f>N9+M10</f>
-        <v>831.77661667193433</v>
-      </c>
+      <c r="N10" s="284"/>
       <c r="P10" s="135"/>
       <c r="Q10" s="118"/>
       <c r="V10"/>
@@ -5482,47 +5896,44 @@
         <v>0.2</v>
       </c>
       <c r="G11" s="49">
-        <f>EXP(E11/$P$3)/(EXP($F11/$P$3)+EXP($E11/$P$3))</f>
+        <f t="shared" si="0"/>
         <v>0.99966464986953352</v>
       </c>
       <c r="H11" s="199">
-        <f>EXP(F11/$P$3)/(EXP($F11/$P$3)+EXP($E11/$P$3))</f>
+        <f t="shared" si="1"/>
         <v>3.3535013046647811E-4</v>
       </c>
       <c r="I11" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I10:I20" si="3">(G11*$G$25)</f>
         <v>11995.975798434401</v>
       </c>
-      <c r="J11" s="223">
-        <f t="shared" si="1"/>
+      <c r="J11" s="273">
+        <f t="shared" ref="J10:J20" si="4">(H11*$G$25)</f>
         <v>4.0242015655977372</v>
       </c>
-      <c r="K11" s="223">
-        <f t="shared" ref="K11:K19" si="2">J11+$G$23</f>
+      <c r="K11" s="279">
+        <f t="shared" ref="K11:K19" si="5">J11+$G$23</f>
         <v>8004.0242015655977</v>
       </c>
       <c r="L11" s="96">
-        <f>$P$3*LN(EXP($F11/$P$3)+EXP($E11/$P$3))*$G$25</f>
+        <f t="shared" si="2"/>
         <v>12000.402487647474</v>
       </c>
       <c r="M11" s="50">
-        <f t="shared" ref="M11:M19" si="3">(L11-L10)</f>
+        <f t="shared" ref="M11:M18" si="6">(L11-L10)</f>
         <v>11168.62587097554</v>
       </c>
-      <c r="N11" s="228">
-        <f t="shared" ref="N11:N19" si="4">N10+M11</f>
-        <v>12000.402487647474</v>
-      </c>
+      <c r="N11" s="284"/>
       <c r="P11" s="135">
-        <f t="shared" ref="P11:P19" si="5">E11-E10</f>
+        <f t="shared" ref="P11:P19" si="7">E11-E10</f>
         <v>1</v>
       </c>
       <c r="Q11" s="118">
-        <f t="shared" ref="Q11:Q19" si="6">F11-F10</f>
+        <f t="shared" ref="Q11:Q19" si="8">F11-F10</f>
         <v>0.2</v>
       </c>
       <c r="R11" s="215">
-        <f t="shared" ref="R11:R19" si="7">M11</f>
+        <f t="shared" ref="R11:R19" si="9">M11</f>
         <v>11168.62587097554</v>
       </c>
       <c r="T11" s="7" t="str">
@@ -5530,7 +5941,7 @@
         <v>Bought 1 Shares of State 1 at a cost of 11168.62587</v>
       </c>
       <c r="U11" s="7" t="str">
-        <f t="shared" ref="U11" si="8">IF(Q11&gt;0,"Bought ",IF(Q11&lt;0,"Sold ",""))&amp;IF(Q11&lt;0,Q11*-1,IF(Q11&gt;0,Q11,""))&amp;IF(Q11&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($R11,5),"")</f>
+        <f t="shared" ref="U11" si="10">IF(Q11&gt;0,"Bought ",IF(Q11&lt;0,"Sold ",""))&amp;IF(Q11&lt;0,Q11*-1,IF(Q11&gt;0,Q11,""))&amp;IF(Q11&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($R11,5),"")</f>
         <v>Bought 0.2 Shares of State 2 at a cost of 11168.62587</v>
       </c>
       <c r="V11" s="218" t="str">
@@ -5549,47 +5960,44 @@
         <v>1</v>
       </c>
       <c r="G12" s="49">
-        <f>EXP(E12/$P$3)/(EXP($F12/$P$3)+EXP($E12/$P$3))</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="H12" s="199">
-        <f>EXP(F12/$P$3)/(EXP($F12/$P$3)+EXP($E12/$P$3))</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I12" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6000</v>
       </c>
-      <c r="J12" s="223">
-        <f t="shared" si="1"/>
+      <c r="J12" s="273">
+        <f t="shared" si="4"/>
         <v>6000</v>
       </c>
-      <c r="K12" s="223">
+      <c r="K12" s="279">
+        <f t="shared" si="5"/>
+        <v>14000</v>
+      </c>
+      <c r="L12" s="96">
         <f t="shared" si="2"/>
-        <v>14000</v>
-      </c>
-      <c r="L12" s="96">
-        <f>$P$3*LN(EXP($F12/$P$3)+EXP($E12/$P$3))*$G$25</f>
         <v>12831.776616671934</v>
       </c>
       <c r="M12" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>831.37412902445976</v>
       </c>
-      <c r="N12" s="228">
-        <f t="shared" si="4"/>
-        <v>12831.776616671934</v>
-      </c>
+      <c r="N12" s="284"/>
       <c r="P12" s="135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q12" s="118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.8</v>
       </c>
       <c r="R12" s="215">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>831.37412902445976</v>
       </c>
       <c r="T12" s="7" t="str">
@@ -5601,7 +6009,7 @@
         <v>Bought 0.8 Shares of State 2 at a cost of 831.37413</v>
       </c>
       <c r="V12" s="218" t="str">
-        <f t="shared" ref="V12:V19" si="9">T12&amp;U12</f>
+        <f t="shared" ref="V12:V19" si="11">T12&amp;U12</f>
         <v>Bought 0.8 Shares of State 2 at a cost of 831.37413</v>
       </c>
     </row>
@@ -5616,47 +6024,44 @@
         <v>2</v>
       </c>
       <c r="G13" s="49">
-        <f>EXP(E13/$P$3)/(EXP($F13/$P$3)+EXP($E13/$P$3))</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="H13" s="199">
-        <f>EXP(F13/$P$3)/(EXP($F13/$P$3)+EXP($E13/$P$3))</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I13" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6000</v>
       </c>
-      <c r="J13" s="223">
-        <f t="shared" si="1"/>
+      <c r="J13" s="273">
+        <f t="shared" si="4"/>
         <v>6000</v>
       </c>
-      <c r="K13" s="223">
+      <c r="K13" s="279">
+        <f t="shared" si="5"/>
+        <v>14000</v>
+      </c>
+      <c r="L13" s="96">
         <f t="shared" si="2"/>
-        <v>14000</v>
-      </c>
-      <c r="L13" s="96">
-        <f>$P$3*LN(EXP($F13/$P$3)+EXP($E13/$P$3))*$G$25</f>
         <v>24831.776616671934</v>
       </c>
       <c r="M13" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>12000</v>
       </c>
-      <c r="N13" s="228">
-        <f t="shared" si="4"/>
-        <v>24831.776616671934</v>
-      </c>
+      <c r="N13" s="284"/>
       <c r="P13" s="135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q13" s="118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R13" s="215">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>12000</v>
       </c>
       <c r="T13" s="7" t="str">
@@ -5668,7 +6073,7 @@
         <v>Bought 1 Shares of State 2 at a cost of 12000</v>
       </c>
       <c r="V13" s="218" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Bought 1 Shares of State 1 at a cost of 12000Bought 1 Shares of State 2 at a cost of 12000</v>
       </c>
     </row>
@@ -5683,59 +6088,56 @@
         <v>12</v>
       </c>
       <c r="G14" s="49">
-        <f>EXP(E14/$P$3)/(EXP($F14/$P$3)+EXP($E14/$P$3))</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="H14" s="199">
-        <f>EXP(F14/$P$3)/(EXP($F14/$P$3)+EXP($E14/$P$3))</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I14" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6000</v>
       </c>
-      <c r="J14" s="223">
-        <f t="shared" si="1"/>
+      <c r="J14" s="273">
+        <f t="shared" si="4"/>
         <v>6000</v>
       </c>
-      <c r="K14" s="223">
+      <c r="K14" s="279">
+        <f t="shared" si="5"/>
+        <v>14000</v>
+      </c>
+      <c r="L14" s="96">
         <f t="shared" si="2"/>
-        <v>14000</v>
-      </c>
-      <c r="L14" s="96">
-        <f>$P$3*LN(EXP($F14/$P$3)+EXP($E14/$P$3))*$G$25</f>
         <v>144831.77661667194</v>
       </c>
       <c r="M14" s="50">
         <f>(L14-L13)</f>
         <v>120000</v>
       </c>
-      <c r="N14" s="228">
-        <f t="shared" si="4"/>
-        <v>144831.77661667194</v>
-      </c>
+      <c r="N14" s="284"/>
       <c r="P14" s="135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="Q14" s="118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="R14" s="215">
-        <f t="shared" ref="R14:R18" si="10">M14</f>
+        <f t="shared" ref="R14:R18" si="12">M14</f>
         <v>120000</v>
       </c>
       <c r="T14" s="7" t="str">
-        <f t="shared" ref="T14:T18" si="11">IF(P14&gt;0,"Bought ",IF(P14&lt;0,"Sold ",""))&amp;IF(P14&lt;0,P14*-1,IF(P14&gt;0,P14,""))&amp;IF(P14&lt;&gt;0," Shares of State 1 at a cost of "&amp;ROUND($R14,5),"")</f>
+        <f t="shared" ref="T14:T18" si="13">IF(P14&gt;0,"Bought ",IF(P14&lt;0,"Sold ",""))&amp;IF(P14&lt;0,P14*-1,IF(P14&gt;0,P14,""))&amp;IF(P14&lt;&gt;0," Shares of State 1 at a cost of "&amp;ROUND($R14,5),"")</f>
         <v>Bought 10 Shares of State 1 at a cost of 120000</v>
       </c>
       <c r="U14" s="7" t="str">
-        <f t="shared" ref="U14:U18" si="12">IF(Q14&gt;0,"Bought ",IF(Q14&lt;0,"Sold ",""))&amp;IF(Q14&lt;0,Q14*-1,IF(Q14&gt;0,Q14,""))&amp;IF(Q14&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($R14,5),"")</f>
+        <f t="shared" ref="U14:U18" si="14">IF(Q14&gt;0,"Bought ",IF(Q14&lt;0,"Sold ",""))&amp;IF(Q14&lt;0,Q14*-1,IF(Q14&gt;0,Q14,""))&amp;IF(Q14&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($R14,5),"")</f>
         <v>Bought 10 Shares of State 2 at a cost of 120000</v>
       </c>
       <c r="V14" s="218" t="str">
-        <f t="shared" ref="V14:V18" si="13">T14&amp;U14</f>
+        <f t="shared" ref="V14:V18" si="15">T14&amp;U14</f>
         <v>Bought 10 Shares of State 1 at a cost of 120000Bought 10 Shares of State 2 at a cost of 120000</v>
       </c>
     </row>
@@ -5750,59 +6152,56 @@
         <v>15</v>
       </c>
       <c r="G15" s="49">
-        <f>EXP(E15/$P$3)/(EXP($F15/$P$3)+EXP($E15/$P$3))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H15" s="199">
-        <f>EXP(F15/$P$3)/(EXP($F15/$P$3)+EXP($E15/$P$3))</f>
+        <f t="shared" si="1"/>
         <v>7.1750959731644108E-66</v>
       </c>
       <c r="I15" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>12000</v>
       </c>
-      <c r="J15" s="223">
-        <f t="shared" si="1"/>
+      <c r="J15" s="273">
+        <f t="shared" si="4"/>
         <v>8.6101151677972925E-62</v>
       </c>
-      <c r="K15" s="223">
+      <c r="K15" s="279">
+        <f t="shared" si="5"/>
+        <v>8000</v>
+      </c>
+      <c r="L15" s="96">
         <f t="shared" si="2"/>
-        <v>8000</v>
-      </c>
-      <c r="L15" s="96">
-        <f>$P$3*LN(EXP($F15/$P$3)+EXP($E15/$P$3))*$G$25</f>
         <v>360000</v>
       </c>
       <c r="M15" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>215168.22338332806</v>
       </c>
-      <c r="N15" s="228">
-        <f t="shared" si="4"/>
-        <v>360000</v>
-      </c>
+      <c r="N15" s="284"/>
       <c r="P15" s="135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="Q15" s="118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="R15" s="215">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>215168.22338332806</v>
       </c>
       <c r="T15" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Bought 18 Shares of State 1 at a cost of 215168.22338</v>
       </c>
       <c r="U15" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Bought 3 Shares of State 2 at a cost of 215168.22338</v>
       </c>
       <c r="V15" s="218" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Bought 18 Shares of State 1 at a cost of 215168.22338Bought 3 Shares of State 2 at a cost of 215168.22338</v>
       </c>
     </row>
@@ -5817,59 +6216,56 @@
         <v>15</v>
       </c>
       <c r="G16" s="49">
-        <f>EXP(E16/$P$3)/(EXP($F16/$P$3)+EXP($E16/$P$3))</f>
+        <f t="shared" si="0"/>
         <v>4.2483542552915889E-18</v>
       </c>
       <c r="H16" s="199">
-        <f>EXP(F16/$P$3)/(EXP($F16/$P$3)+EXP($E16/$P$3))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I16" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.0980251063499068E-14</v>
       </c>
-      <c r="J16" s="223">
-        <f t="shared" si="1"/>
+      <c r="J16" s="273">
+        <f t="shared" si="4"/>
         <v>12000</v>
       </c>
-      <c r="K16" s="223">
+      <c r="K16" s="279">
+        <f t="shared" si="5"/>
+        <v>20000</v>
+      </c>
+      <c r="L16" s="96">
         <f t="shared" si="2"/>
-        <v>20000</v>
-      </c>
-      <c r="L16" s="96">
-        <f>$P$3*LN(EXP($F16/$P$3)+EXP($E16/$P$3))*$G$25</f>
         <v>180000</v>
       </c>
       <c r="M16" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-180000</v>
       </c>
-      <c r="N16" s="228">
-        <f t="shared" si="4"/>
-        <v>180000</v>
-      </c>
+      <c r="N16" s="284"/>
       <c r="P16" s="135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-19</v>
       </c>
       <c r="Q16" s="118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R16" s="215">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-180000</v>
       </c>
       <c r="T16" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Sold 19 Shares of State 1 at a cost of -180000</v>
       </c>
       <c r="U16" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="V16" s="218" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Sold 19 Shares of State 1 at a cost of -180000</v>
       </c>
     </row>
@@ -5884,59 +6280,56 @@
         <v>22</v>
       </c>
       <c r="G17" s="49">
-        <f>EXP(E17/$P$3)/(EXP($F17/$P$3)+EXP($E17/$P$3))</f>
+        <f t="shared" si="0"/>
         <v>8.75651076269652E-27</v>
       </c>
       <c r="H17" s="199">
-        <f>EXP(F17/$P$3)/(EXP($F17/$P$3)+EXP($E17/$P$3))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I17" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.0507812915235824E-22</v>
       </c>
-      <c r="J17" s="223">
-        <f t="shared" si="1"/>
+      <c r="J17" s="273">
+        <f t="shared" si="4"/>
         <v>12000</v>
       </c>
-      <c r="K17" s="223">
+      <c r="K17" s="279">
+        <f t="shared" si="5"/>
+        <v>20000</v>
+      </c>
+      <c r="L17" s="96">
         <f t="shared" si="2"/>
-        <v>20000</v>
-      </c>
-      <c r="L17" s="96">
-        <f>$P$3*LN(EXP($F17/$P$3)+EXP($E17/$P$3))*$G$25</f>
         <v>264000</v>
       </c>
       <c r="M17" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>84000</v>
       </c>
-      <c r="N17" s="228">
-        <f t="shared" si="4"/>
-        <v>264000</v>
-      </c>
+      <c r="N17" s="284"/>
       <c r="P17" s="135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="Q17" s="118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="R17" s="215">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>84000</v>
       </c>
       <c r="T17" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Bought 5 Shares of State 1 at a cost of 84000</v>
       </c>
       <c r="U17" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Bought 7 Shares of State 2 at a cost of 84000</v>
       </c>
       <c r="V17" s="218" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Bought 5 Shares of State 1 at a cost of 84000Bought 7 Shares of State 2 at a cost of 84000</v>
       </c>
     </row>
@@ -5952,59 +6345,56 @@
         <v>21</v>
       </c>
       <c r="G18" s="49">
-        <f>EXP(E18/$P$3)/(EXP($F18/$P$3)+EXP($E18/$P$3))</f>
+        <f t="shared" si="0"/>
         <v>1.9287498479639178E-22</v>
       </c>
       <c r="H18" s="199">
-        <f>EXP(F18/$P$3)/(EXP($F18/$P$3)+EXP($E18/$P$3))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I18" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.3144998175567013E-18</v>
       </c>
-      <c r="J18" s="223">
-        <f t="shared" si="1"/>
+      <c r="J18" s="273">
+        <f t="shared" si="4"/>
         <v>12000</v>
       </c>
-      <c r="K18" s="223">
+      <c r="K18" s="279">
+        <f t="shared" si="5"/>
+        <v>20000</v>
+      </c>
+      <c r="L18" s="96">
         <f t="shared" si="2"/>
-        <v>20000</v>
-      </c>
-      <c r="L18" s="96">
-        <f>$P$3*LN(EXP($F18/$P$3)+EXP($E18/$P$3))*$G$25</f>
         <v>252000</v>
       </c>
       <c r="M18" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-12000</v>
       </c>
-      <c r="N18" s="228">
-        <f t="shared" si="4"/>
-        <v>252000</v>
-      </c>
+      <c r="N18" s="284"/>
       <c r="P18" s="135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q18" s="118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="R18" s="215">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-12000</v>
       </c>
       <c r="T18" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="U18" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Sold 1 Shares of State 2 at a cost of -12000</v>
       </c>
       <c r="V18" s="218" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Sold 1 Shares of State 2 at a cost of -12000</v>
       </c>
     </row>
@@ -6020,47 +6410,44 @@
         <v>12.070351139496553</v>
       </c>
       <c r="G19" s="131">
-        <f>EXP(E19/$P$3)/(EXP($F19/$P$3)+EXP($E19/$P$3))</f>
+        <f t="shared" si="0"/>
         <v>0.33103416666666818</v>
       </c>
       <c r="H19" s="200">
-        <f>EXP(F19/$P$3)/(EXP($F19/$P$3)+EXP($E19/$P$3))</f>
+        <f t="shared" si="1"/>
         <v>0.66896583333333171</v>
       </c>
       <c r="I19" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3972.410000000018</v>
       </c>
-      <c r="J19" s="224">
-        <f t="shared" si="1"/>
+      <c r="J19" s="274">
+        <f t="shared" si="4"/>
         <v>8027.5899999999801</v>
       </c>
-      <c r="K19" s="224">
+      <c r="K19" s="280">
+        <f t="shared" si="5"/>
+        <v>16027.58999999998</v>
+      </c>
+      <c r="L19" s="133">
         <f t="shared" si="2"/>
-        <v>16027.58999999998</v>
-      </c>
-      <c r="L19" s="133">
-        <f>$P$3*LN(EXP($F19/$P$3)+EXP($E19/$P$3))*$G$25</f>
         <v>145326.64042364911</v>
       </c>
       <c r="M19" s="134">
         <f>(L19-L18)</f>
         <v>-106673.35957635089</v>
       </c>
-      <c r="N19" s="228">
-        <f t="shared" si="4"/>
-        <v>145326.64042364911</v>
-      </c>
+      <c r="N19" s="284"/>
       <c r="P19" s="143">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4</v>
       </c>
       <c r="Q19" s="120">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-8.9296488605034465</v>
       </c>
       <c r="R19" s="215">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-106673.35957635089</v>
       </c>
       <c r="T19" s="7" t="str">
@@ -6072,7 +6459,7 @@
         <v>Sold 8.92964886050345 Shares of State 2 at a cost of -106673.35958</v>
       </c>
       <c r="V19" s="218" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Sold 4 Shares of State 1 at a cost of -106673.35958Sold 8.92964886050345 Shares of State 2 at a cost of -106673.35958</v>
       </c>
     </row>
@@ -6097,27 +6484,26 @@
         <v>0.51758053455236752</v>
       </c>
       <c r="I20" s="52">
-        <f t="shared" si="0"/>
+        <f>(G20*$G$25)</f>
         <v>5789.0335853715897</v>
       </c>
-      <c r="J20" s="225">
-        <f t="shared" si="1"/>
+      <c r="J20" s="275">
+        <f>(H20*$G$25)</f>
         <v>6210.9664146284103</v>
       </c>
-      <c r="K20" s="225">
+      <c r="K20" s="278">
         <f>J20+$G$23</f>
         <v>14210.96641462841</v>
       </c>
-      <c r="L20" s="97">
-        <f>$P$3*LN(EXP($F20/$P$3)+EXP($E20/$P$3))*$G$25</f>
+      <c r="L20" s="281">
+        <f t="shared" si="2"/>
         <v>145326.64042364911</v>
       </c>
-      <c r="M20" s="55">
+      <c r="M20" s="282">
         <f>SUM(M10:M19)</f>
         <v>145326.64042364911</v>
       </c>
-      <c r="N20" s="228"/>
-      <c r="O20" s="8" t="s">
+      <c r="N20" s="8" t="s">
         <v>129</v>
       </c>
       <c r="U20" s="8"/>
@@ -6134,14 +6520,14 @@
       <c r="I21" s="34"/>
       <c r="J21" s="34"/>
       <c r="K21" s="34"/>
-      <c r="L21" s="130">
+      <c r="L21" s="276">
         <v>0</v>
       </c>
       <c r="M21" s="50">
         <f>SUMPRODUCT(E20:F20,I20:J20)</f>
         <v>144436.94856464394</v>
       </c>
-      <c r="O21" t="s">
+      <c r="N21" t="s">
         <v>130</v>
       </c>
       <c r="U21"/>
@@ -6157,12 +6543,11 @@
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
       <c r="L22" s="57"/>
-      <c r="M22" s="238">
+      <c r="M22" s="229">
         <f>M20-M21</f>
         <v>889.69185900516459</v>
       </c>
-      <c r="N22" s="228"/>
-      <c r="O22" s="7" t="s">
+      <c r="N22" s="7" t="s">
         <v>118</v>
       </c>
     </row>
@@ -6181,11 +6566,11 @@
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
       <c r="L23" s="57"/>
-      <c r="M23" s="239">
+      <c r="M23" s="230">
         <f>M10-M22</f>
         <v>-57.915242333230253</v>
       </c>
-      <c r="O23" s="58" t="s">
+      <c r="N23" s="58" t="s">
         <v>119</v>
       </c>
       <c r="S23" s="8"/>
@@ -6204,7 +6589,7 @@
       <c r="G24" s="34">
         <v>20000</v>
       </c>
-      <c r="M24" s="229"/>
+      <c r="M24" s="227"/>
     </row>
     <row r="25" spans="3:23" x14ac:dyDescent="0.25">
       <c r="F25" s="34" t="s">
@@ -6257,6 +6642,1352 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="B2:AI27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="19" width="11.42578125" style="34" customWidth="1"/>
+    <col min="20" max="21" width="12" style="34" customWidth="1"/>
+    <col min="22" max="22" width="25.7109375" customWidth="1"/>
+    <col min="24" max="24" width="9.42578125" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" customWidth="1"/>
+    <col min="26" max="26" width="10.28515625" customWidth="1"/>
+    <col min="27" max="27" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="0" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="9.42578125" customWidth="1"/>
+    <col min="31" max="31" width="12.140625" customWidth="1"/>
+    <col min="32" max="32" width="10.5703125" customWidth="1"/>
+    <col min="35" max="35" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:35" ht="32.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="219" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="163"/>
+    </row>
+    <row r="3" spans="2:35" ht="21" x14ac:dyDescent="0.35">
+      <c r="B3" s="7"/>
+      <c r="D3" s="163"/>
+      <c r="V3" s="209" t="s">
+        <v>106</v>
+      </c>
+      <c r="W3" s="210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7"/>
+      <c r="V4" s="211" t="s">
+        <v>107</v>
+      </c>
+      <c r="W4" s="212">
+        <f>S10</f>
+        <v>33271.064666877377</v>
+      </c>
+    </row>
+    <row r="5" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B5" s="7"/>
+      <c r="V5" s="228"/>
+      <c r="W5" s="228"/>
+    </row>
+    <row r="6" spans="2:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C6"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="W6" s="27"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6" s="8"/>
+    </row>
+    <row r="7" spans="2:35" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7" s="8"/>
+    </row>
+    <row r="8" spans="2:35" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D8"/>
+      <c r="E8" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="249"/>
+      <c r="Q8" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="R8" s="68"/>
+      <c r="S8" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="U8" s="283"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="231" t="s">
+        <v>109</v>
+      </c>
+      <c r="X8" s="232"/>
+      <c r="Y8" s="216" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="217" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD8" s="20"/>
+    </row>
+    <row r="9" spans="2:35" s="7" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="33"/>
+      <c r="D9" s="136" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="203" t="str">
+        <f>"i="&amp;$I$23&amp;", 0"</f>
+        <v>i=8000, 0</v>
+      </c>
+      <c r="F9" s="207" t="str">
+        <f>"i="&amp;$I$23&amp;", 1"</f>
+        <v>i=8000, 1</v>
+      </c>
+      <c r="G9" s="204" t="str">
+        <f>"i="&amp;$I$24&amp;", 0"</f>
+        <v>i=20000, 0</v>
+      </c>
+      <c r="H9" s="208" t="str">
+        <f>"i="&amp;$I$24&amp;", 1"</f>
+        <v>i=20000, 1</v>
+      </c>
+      <c r="I9" s="205" t="str">
+        <f>"i="&amp;$I$23&amp;", 0"</f>
+        <v>i=8000, 0</v>
+      </c>
+      <c r="J9" s="207" t="str">
+        <f>"i="&amp;$I$23&amp;", 1"</f>
+        <v>i=8000, 1</v>
+      </c>
+      <c r="K9" s="204" t="str">
+        <f>"i="&amp;$I$24&amp;", 0"</f>
+        <v>i=20000, 0</v>
+      </c>
+      <c r="L9" s="248" t="str">
+        <f>"i="&amp;$I$24&amp;", 1"</f>
+        <v>i=20000, 1</v>
+      </c>
+      <c r="M9" s="203" t="str">
+        <f>"i="&amp;$I$23&amp;", 0"</f>
+        <v>i=8000, 0</v>
+      </c>
+      <c r="N9" s="207" t="str">
+        <f>"i="&amp;$I$23&amp;", 1"</f>
+        <v>i=8000, 1</v>
+      </c>
+      <c r="O9" s="204" t="str">
+        <f>"i="&amp;$I$24&amp;", 0"</f>
+        <v>i=20000, 0</v>
+      </c>
+      <c r="P9" s="208" t="str">
+        <f>"i="&amp;$I$24&amp;", 1"</f>
+        <v>i=20000, 1</v>
+      </c>
+      <c r="Q9" s="206" t="s">
+        <v>133</v>
+      </c>
+      <c r="R9" s="206" t="s">
+        <v>132</v>
+      </c>
+      <c r="S9" s="43">
+        <v>0</v>
+      </c>
+      <c r="T9" s="44"/>
+      <c r="U9" s="164"/>
+      <c r="W9" s="213" t="str">
+        <f>E9</f>
+        <v>i=8000, 0</v>
+      </c>
+      <c r="X9" s="214" t="str">
+        <f>H9</f>
+        <v>i=20000, 1</v>
+      </c>
+      <c r="AC9"/>
+    </row>
+    <row r="10" spans="2:35" s="7" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="26">
+        <v>1</v>
+      </c>
+      <c r="E10" s="264">
+        <v>0</v>
+      </c>
+      <c r="F10" s="265"/>
+      <c r="G10" s="266"/>
+      <c r="H10" s="267">
+        <v>0</v>
+      </c>
+      <c r="I10" s="252">
+        <f>EXP(E10/$W$3)/(EXP($E10/$W$3)+EXP($F10/$W$3)+EXP($G10/$W$3)+EXP($H10/$W$3))</f>
+        <v>0.25</v>
+      </c>
+      <c r="J10" s="253">
+        <f>EXP(F10/$W$3)/(EXP($E10/$W$3)+EXP($F10/$W$3)+EXP($G10/$W$3)+EXP($H10/$W$3))</f>
+        <v>0.25</v>
+      </c>
+      <c r="K10" s="254">
+        <f>EXP(G10/$W$3)/(EXP($E10/$W$3)+EXP($F10/$W$3)+EXP($G10/$W$3)+EXP($H10/$W$3))</f>
+        <v>0.25</v>
+      </c>
+      <c r="L10" s="255">
+        <f>EXP(H10/$W$3)/(EXP($E10/$W$3)+EXP($F10/$W$3)+EXP($G10/$W$3)+EXP($H10/$W$3))</f>
+        <v>0.25</v>
+      </c>
+      <c r="M10" s="250">
+        <f>(I10*$I$25)</f>
+        <v>3000</v>
+      </c>
+      <c r="N10" s="238">
+        <f t="shared" ref="N10:N20" si="0">(J10*$I$25)</f>
+        <v>3000</v>
+      </c>
+      <c r="O10" s="239">
+        <f t="shared" ref="O10:O20" si="1">(K10*$I$25)</f>
+        <v>3000</v>
+      </c>
+      <c r="P10" s="240">
+        <f t="shared" ref="P10:P20" si="2">(L10*$I$25)</f>
+        <v>3000</v>
+      </c>
+      <c r="Q10" s="222">
+        <f>O10+$I$23</f>
+        <v>11000</v>
+      </c>
+      <c r="R10" s="222">
+        <f>P10+$I$23</f>
+        <v>11000</v>
+      </c>
+      <c r="S10" s="95">
+        <f>$W$3*$I$25*LN(EXP($E10/$W$3) + EXP($F10/$W$3) + EXP($G10/$W$3) +EXP($H10/$W$3) )</f>
+        <v>33271.064666877377</v>
+      </c>
+      <c r="T10" s="47">
+        <f>(S10-S9)</f>
+        <v>33271.064666877377</v>
+      </c>
+      <c r="U10" s="284"/>
+      <c r="W10" s="135"/>
+      <c r="X10" s="118"/>
+      <c r="AC10"/>
+      <c r="AI10" s="220"/>
+    </row>
+    <row r="11" spans="2:35" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D11" s="26">
+        <v>2</v>
+      </c>
+      <c r="E11" s="244">
+        <v>1</v>
+      </c>
+      <c r="F11" s="245">
+        <v>1</v>
+      </c>
+      <c r="G11" s="246">
+        <v>1</v>
+      </c>
+      <c r="H11" s="247">
+        <v>1</v>
+      </c>
+      <c r="I11" s="256">
+        <f>EXP(E11/$W$3)/(EXP($E11/$W$3)+EXP($F11/$W$3)+EXP($G11/$W$3)+EXP($H11/$W$3))</f>
+        <v>0.25</v>
+      </c>
+      <c r="J11" s="257">
+        <f>EXP(F11/$W$3)/(EXP($E11/$W$3)+EXP($F11/$W$3)+EXP($G11/$W$3)+EXP($H11/$W$3))</f>
+        <v>0.25</v>
+      </c>
+      <c r="K11" s="258">
+        <f>EXP(G11/$W$3)/(EXP($E11/$W$3)+EXP($F11/$W$3)+EXP($G11/$W$3)+EXP($H11/$W$3))</f>
+        <v>0.25</v>
+      </c>
+      <c r="L11" s="259">
+        <f>EXP(H11/$W$3)/(EXP($E11/$W$3)+EXP($F11/$W$3)+EXP($G11/$W$3)+EXP($H11/$W$3))</f>
+        <v>0.25</v>
+      </c>
+      <c r="M11" s="251">
+        <f t="shared" ref="M11:M19" si="3">(I11*$I$25)</f>
+        <v>3000</v>
+      </c>
+      <c r="N11" s="241">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="O11" s="242">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="P11" s="243">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="Q11" s="223">
+        <f t="shared" ref="Q11:Q19" si="4">O11+$I$23</f>
+        <v>11000</v>
+      </c>
+      <c r="R11" s="223">
+        <f>P11+$I$23</f>
+        <v>11000</v>
+      </c>
+      <c r="S11" s="96">
+        <f>$W$3*$I$25*LN(EXP($E11/$W$3) + EXP($F11/$W$3) + EXP($G11/$W$3) +EXP($H11/$W$3) )</f>
+        <v>45271.064666877377</v>
+      </c>
+      <c r="T11" s="50">
+        <f>(S11-S10)</f>
+        <v>12000</v>
+      </c>
+      <c r="U11" s="284"/>
+      <c r="W11" s="135">
+        <f>E11-E10</f>
+        <v>1</v>
+      </c>
+      <c r="X11" s="118">
+        <f>H11-H10</f>
+        <v>1</v>
+      </c>
+      <c r="Y11" s="215">
+        <f t="shared" ref="Y11:Y19" si="5">T11</f>
+        <v>12000</v>
+      </c>
+      <c r="AA11" s="7" t="str">
+        <f>IF(W11&gt;0,"Bought ",IF(W11&lt;0,"Sold ",""))&amp;IF(W11&lt;0,W11*-1,IF(W11&gt;0,W11,""))&amp;IF(W11&lt;&gt;0," Shares of State 1 at a cost of "&amp;ROUND($Y11,5),"")</f>
+        <v>Bought 1 Shares of State 1 at a cost of 12000</v>
+      </c>
+      <c r="AB11" s="7" t="str">
+        <f t="shared" ref="AB11" si="6">IF(X11&gt;0,"Bought ",IF(X11&lt;0,"Sold ",""))&amp;IF(X11&lt;0,X11*-1,IF(X11&gt;0,X11,""))&amp;IF(X11&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($Y11,5),"")</f>
+        <v>Bought 1 Shares of State 2 at a cost of 12000</v>
+      </c>
+      <c r="AC11" s="218" t="str">
+        <f>AA11&amp;AB11</f>
+        <v>Bought 1 Shares of State 1 at a cost of 12000Bought 1 Shares of State 2 at a cost of 12000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:35" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C12" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="26">
+        <v>3</v>
+      </c>
+      <c r="E12" s="244">
+        <v>1</v>
+      </c>
+      <c r="F12" s="245">
+        <v>2</v>
+      </c>
+      <c r="G12" s="246">
+        <v>1</v>
+      </c>
+      <c r="H12" s="247">
+        <v>2</v>
+      </c>
+      <c r="I12" s="256">
+        <f>EXP(E12/$W$3)/(EXP($E12/$W$3)+EXP($F12/$W$3)+EXP($G12/$W$3)+EXP($H12/$W$3))</f>
+        <v>0.1887703343990727</v>
+      </c>
+      <c r="J12" s="257">
+        <f>EXP(F12/$W$3)/(EXP($E12/$W$3)+EXP($F12/$W$3)+EXP($G12/$W$3)+EXP($H12/$W$3))</f>
+        <v>0.31122966560092724</v>
+      </c>
+      <c r="K12" s="258">
+        <f>EXP(G12/$W$3)/(EXP($E12/$W$3)+EXP($F12/$W$3)+EXP($G12/$W$3)+EXP($H12/$W$3))</f>
+        <v>0.1887703343990727</v>
+      </c>
+      <c r="L12" s="259">
+        <f>EXP(H12/$W$3)/(EXP($E12/$W$3)+EXP($F12/$W$3)+EXP($G12/$W$3)+EXP($H12/$W$3))</f>
+        <v>0.31122966560092724</v>
+      </c>
+      <c r="M12" s="251">
+        <f t="shared" si="3"/>
+        <v>2265.2440127888726</v>
+      </c>
+      <c r="N12" s="241">
+        <f>(J12*$I$25)</f>
+        <v>3734.7559872111269</v>
+      </c>
+      <c r="O12" s="242">
+        <f t="shared" si="1"/>
+        <v>2265.2440127888726</v>
+      </c>
+      <c r="P12" s="243">
+        <f t="shared" si="2"/>
+        <v>3734.7559872111269</v>
+      </c>
+      <c r="Q12" s="223">
+        <f>O12+$I$23</f>
+        <v>10265.244012788873</v>
+      </c>
+      <c r="R12" s="223">
+        <f t="shared" ref="R11:R19" si="7">P12+$I$23</f>
+        <v>11734.755987211127</v>
+      </c>
+      <c r="S12" s="96">
+        <f t="shared" ref="S11:S20" si="8">$W$3*$I$25*LN(EXP($E12/$W$3) + EXP($F12/$W$3) + EXP($G12/$W$3) +EXP($H12/$W$3) )</f>
+        <v>52013.379953761243</v>
+      </c>
+      <c r="T12" s="50">
+        <f t="shared" ref="T11:T18" si="9">(S12-S11)</f>
+        <v>6742.3152868838661</v>
+      </c>
+      <c r="U12" s="284"/>
+      <c r="W12" s="135">
+        <f>E12-E11</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="118">
+        <f>H12-H11</f>
+        <v>1</v>
+      </c>
+      <c r="Y12" s="215">
+        <f t="shared" si="5"/>
+        <v>6742.3152868838661</v>
+      </c>
+      <c r="AA12" s="7" t="str">
+        <f>IF(W12&gt;0,"Bought ",IF(W12&lt;0,"Sold ",""))&amp;IF(W12&lt;0,W12*-1,IF(W12&gt;0,W12,""))&amp;IF(W12&lt;&gt;0," Shares of State 1 at a cost of "&amp;ROUND($Y12,5),"")</f>
+        <v/>
+      </c>
+      <c r="AB12" s="7" t="str">
+        <f>IF(X12&gt;0,"Bought ",IF(X12&lt;0,"Sold ",""))&amp;IF(X12&lt;0,X12*-1,IF(X12&gt;0,X12,""))&amp;IF(X12&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($Y12,5),"")</f>
+        <v>Bought 1 Shares of State 2 at a cost of 6742.31529</v>
+      </c>
+      <c r="AC12" s="218" t="str">
+        <f t="shared" ref="AC12:AC19" si="10">AA12&amp;AB12</f>
+        <v>Bought 1 Shares of State 2 at a cost of 6742.31529</v>
+      </c>
+    </row>
+    <row r="13" spans="2:35" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C13" s="21"/>
+      <c r="D13" s="26">
+        <v>4</v>
+      </c>
+      <c r="E13" s="244">
+        <v>1</v>
+      </c>
+      <c r="F13" s="245">
+        <v>2</v>
+      </c>
+      <c r="G13" s="246">
+        <v>1</v>
+      </c>
+      <c r="H13" s="247">
+        <v>2</v>
+      </c>
+      <c r="I13" s="256">
+        <f>EXP(E13/$W$3)/(EXP($E13/$W$3)+EXP($F13/$W$3)+EXP($G13/$W$3)+EXP($H13/$W$3))</f>
+        <v>0.1887703343990727</v>
+      </c>
+      <c r="J13" s="257">
+        <f>EXP(F13/$W$3)/(EXP($E13/$W$3)+EXP($F13/$W$3)+EXP($G13/$W$3)+EXP($H13/$W$3))</f>
+        <v>0.31122966560092724</v>
+      </c>
+      <c r="K13" s="258">
+        <f>EXP(G13/$W$3)/(EXP($E13/$W$3)+EXP($F13/$W$3)+EXP($G13/$W$3)+EXP($H13/$W$3))</f>
+        <v>0.1887703343990727</v>
+      </c>
+      <c r="L13" s="259">
+        <f>EXP(H13/$W$3)/(EXP($E13/$W$3)+EXP($F13/$W$3)+EXP($G13/$W$3)+EXP($H13/$W$3))</f>
+        <v>0.31122966560092724</v>
+      </c>
+      <c r="M13" s="251">
+        <f t="shared" si="3"/>
+        <v>2265.2440127888726</v>
+      </c>
+      <c r="N13" s="241">
+        <f t="shared" si="0"/>
+        <v>3734.7559872111269</v>
+      </c>
+      <c r="O13" s="242">
+        <f t="shared" si="1"/>
+        <v>2265.2440127888726</v>
+      </c>
+      <c r="P13" s="243">
+        <f t="shared" si="2"/>
+        <v>3734.7559872111269</v>
+      </c>
+      <c r="Q13" s="223">
+        <f t="shared" si="4"/>
+        <v>10265.244012788873</v>
+      </c>
+      <c r="R13" s="223">
+        <f t="shared" si="7"/>
+        <v>11734.755987211127</v>
+      </c>
+      <c r="S13" s="96">
+        <f t="shared" si="8"/>
+        <v>52013.379953761243</v>
+      </c>
+      <c r="T13" s="50">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="284"/>
+      <c r="W13" s="135">
+        <f>E13-E12</f>
+        <v>0</v>
+      </c>
+      <c r="X13" s="118">
+        <f>H13-H12</f>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="215">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="7" t="str">
+        <f>IF(W13&gt;0,"Bought ",IF(W13&lt;0,"Sold ",""))&amp;IF(W13&lt;0,W13*-1,IF(W13&gt;0,W13,""))&amp;IF(W13&lt;&gt;0," Shares of State 1 at a cost of "&amp;ROUND($Y13,5),"")</f>
+        <v/>
+      </c>
+      <c r="AB13" s="7" t="str">
+        <f>IF(X13&gt;0,"Bought ",IF(X13&lt;0,"Sold ",""))&amp;IF(X13&lt;0,X13*-1,IF(X13&gt;0,X13,""))&amp;IF(X13&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($Y13,5),"")</f>
+        <v/>
+      </c>
+      <c r="AC13" s="218" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="2:35" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C14" s="21"/>
+      <c r="D14" s="26">
+        <v>5</v>
+      </c>
+      <c r="E14" s="244">
+        <v>1</v>
+      </c>
+      <c r="F14" s="245">
+        <v>2</v>
+      </c>
+      <c r="G14" s="246">
+        <v>1</v>
+      </c>
+      <c r="H14" s="247">
+        <v>2</v>
+      </c>
+      <c r="I14" s="256">
+        <f>EXP(E14/$W$3)/(EXP($E14/$W$3)+EXP($F14/$W$3)+EXP($G14/$W$3)+EXP($H14/$W$3))</f>
+        <v>0.1887703343990727</v>
+      </c>
+      <c r="J14" s="257">
+        <f>EXP(F14/$W$3)/(EXP($E14/$W$3)+EXP($F14/$W$3)+EXP($G14/$W$3)+EXP($H14/$W$3))</f>
+        <v>0.31122966560092724</v>
+      </c>
+      <c r="K14" s="258">
+        <f>EXP(G14/$W$3)/(EXP($E14/$W$3)+EXP($F14/$W$3)+EXP($G14/$W$3)+EXP($H14/$W$3))</f>
+        <v>0.1887703343990727</v>
+      </c>
+      <c r="L14" s="259">
+        <f>EXP(H14/$W$3)/(EXP($E14/$W$3)+EXP($F14/$W$3)+EXP($G14/$W$3)+EXP($H14/$W$3))</f>
+        <v>0.31122966560092724</v>
+      </c>
+      <c r="M14" s="251">
+        <f t="shared" si="3"/>
+        <v>2265.2440127888726</v>
+      </c>
+      <c r="N14" s="241">
+        <f t="shared" si="0"/>
+        <v>3734.7559872111269</v>
+      </c>
+      <c r="O14" s="242">
+        <f t="shared" si="1"/>
+        <v>2265.2440127888726</v>
+      </c>
+      <c r="P14" s="243">
+        <f t="shared" si="2"/>
+        <v>3734.7559872111269</v>
+      </c>
+      <c r="Q14" s="223">
+        <f t="shared" si="4"/>
+        <v>10265.244012788873</v>
+      </c>
+      <c r="R14" s="223">
+        <f t="shared" si="7"/>
+        <v>11734.755987211127</v>
+      </c>
+      <c r="S14" s="96">
+        <f t="shared" si="8"/>
+        <v>52013.379953761243</v>
+      </c>
+      <c r="T14" s="50">
+        <f>(S14-S13)</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="284"/>
+      <c r="W14" s="135">
+        <f>E14-E13</f>
+        <v>0</v>
+      </c>
+      <c r="X14" s="118">
+        <f>H14-H13</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="215">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="7" t="str">
+        <f t="shared" ref="AA14:AA18" si="11">IF(W14&gt;0,"Bought ",IF(W14&lt;0,"Sold ",""))&amp;IF(W14&lt;0,W14*-1,IF(W14&gt;0,W14,""))&amp;IF(W14&lt;&gt;0," Shares of State 1 at a cost of "&amp;ROUND($Y14,5),"")</f>
+        <v/>
+      </c>
+      <c r="AB14" s="7" t="str">
+        <f t="shared" ref="AB14:AB18" si="12">IF(X14&gt;0,"Bought ",IF(X14&lt;0,"Sold ",""))&amp;IF(X14&lt;0,X14*-1,IF(X14&gt;0,X14,""))&amp;IF(X14&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($Y14,5),"")</f>
+        <v/>
+      </c>
+      <c r="AC14" s="218" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="2:35" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C15" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="26">
+        <v>12</v>
+      </c>
+      <c r="E15" s="244">
+        <v>1</v>
+      </c>
+      <c r="F15" s="245">
+        <v>1.8</v>
+      </c>
+      <c r="G15" s="246">
+        <v>1.5</v>
+      </c>
+      <c r="H15" s="247">
+        <v>2</v>
+      </c>
+      <c r="I15" s="256">
+        <f>EXP(E15/$W$3)/(EXP($E15/$W$3)+EXP($F15/$W$3)+EXP($G15/$W$3)+EXP($H15/$W$3))</f>
+        <v>0.18434636195586318</v>
+      </c>
+      <c r="J15" s="257">
+        <f>EXP(F15/$W$3)/(EXP($E15/$W$3)+EXP($F15/$W$3)+EXP($G15/$W$3)+EXP($H15/$W$3))</f>
+        <v>0.2750124556860738</v>
+      </c>
+      <c r="K15" s="258">
+        <f>EXP(G15/$W$3)/(EXP($E15/$W$3)+EXP($F15/$W$3)+EXP($G15/$W$3)+EXP($H15/$W$3))</f>
+        <v>0.23670541422524646</v>
+      </c>
+      <c r="L15" s="259">
+        <f>EXP(H15/$W$3)/(EXP($E15/$W$3)+EXP($F15/$W$3)+EXP($G15/$W$3)+EXP($H15/$W$3))</f>
+        <v>0.30393576813281648</v>
+      </c>
+      <c r="M15" s="251">
+        <f t="shared" si="3"/>
+        <v>2212.156343470358</v>
+      </c>
+      <c r="N15" s="241">
+        <f t="shared" si="0"/>
+        <v>3300.1494682328857</v>
+      </c>
+      <c r="O15" s="242">
+        <f t="shared" si="1"/>
+        <v>2840.4649707029575</v>
+      </c>
+      <c r="P15" s="243">
+        <f t="shared" si="2"/>
+        <v>3647.2292175937978</v>
+      </c>
+      <c r="Q15" s="223">
+        <f t="shared" si="4"/>
+        <v>10840.464970702957</v>
+      </c>
+      <c r="R15" s="223">
+        <f t="shared" si="7"/>
+        <v>11647.229217593798</v>
+      </c>
+      <c r="S15" s="96">
+        <f t="shared" si="8"/>
+        <v>52582.533334497028</v>
+      </c>
+      <c r="T15" s="50">
+        <f t="shared" si="9"/>
+        <v>569.15338073578459</v>
+      </c>
+      <c r="U15" s="284"/>
+      <c r="W15" s="135">
+        <f>E15-E14</f>
+        <v>0</v>
+      </c>
+      <c r="X15" s="118">
+        <f>H15-H14</f>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="215">
+        <f t="shared" si="5"/>
+        <v>569.15338073578459</v>
+      </c>
+      <c r="AA15" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AB15" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AC15" s="218" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:35" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C16" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="26">
+        <v>13</v>
+      </c>
+      <c r="E16" s="244">
+        <v>1</v>
+      </c>
+      <c r="F16" s="245">
+        <v>1.6</v>
+      </c>
+      <c r="G16" s="246">
+        <v>2</v>
+      </c>
+      <c r="H16" s="247">
+        <v>2</v>
+      </c>
+      <c r="I16" s="256">
+        <f>EXP(E16/$W$3)/(EXP($E16/$W$3)+EXP($F16/$W$3)+EXP($G16/$W$3)+EXP($H16/$W$3))</f>
+        <v>0.17707572842403385</v>
+      </c>
+      <c r="J16" s="257">
+        <f>EXP(F16/$W$3)/(EXP($E16/$W$3)+EXP($F16/$W$3)+EXP($G16/$W$3)+EXP($H16/$W$3))</f>
+        <v>0.2390272316211185</v>
+      </c>
+      <c r="K16" s="258">
+        <f>EXP(G16/$W$3)/(EXP($E16/$W$3)+EXP($F16/$W$3)+EXP($G16/$W$3)+EXP($H16/$W$3))</f>
+        <v>0.29194851997742383</v>
+      </c>
+      <c r="L16" s="259">
+        <f>EXP(H16/$W$3)/(EXP($E16/$W$3)+EXP($F16/$W$3)+EXP($G16/$W$3)+EXP($H16/$W$3))</f>
+        <v>0.29194851997742383</v>
+      </c>
+      <c r="M16" s="251">
+        <f t="shared" si="3"/>
+        <v>2124.9087410884063</v>
+      </c>
+      <c r="N16" s="241">
+        <f t="shared" si="0"/>
+        <v>2868.3267794534218</v>
+      </c>
+      <c r="O16" s="242">
+        <f t="shared" si="1"/>
+        <v>3503.382239729086</v>
+      </c>
+      <c r="P16" s="243">
+        <f t="shared" si="2"/>
+        <v>3503.382239729086</v>
+      </c>
+      <c r="Q16" s="223">
+        <f t="shared" si="4"/>
+        <v>11503.382239729086</v>
+      </c>
+      <c r="R16" s="223">
+        <f t="shared" si="7"/>
+        <v>11503.382239729086</v>
+      </c>
+      <c r="S16" s="96">
+        <f t="shared" si="8"/>
+        <v>53548.267048895061</v>
+      </c>
+      <c r="T16" s="50">
+        <f t="shared" si="9"/>
+        <v>965.73371439803304</v>
+      </c>
+      <c r="U16" s="284"/>
+      <c r="W16" s="135">
+        <f>E16-E15</f>
+        <v>0</v>
+      </c>
+      <c r="X16" s="118">
+        <f>H16-H15</f>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="215">
+        <f t="shared" si="5"/>
+        <v>965.73371439803304</v>
+      </c>
+      <c r="AA16" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AB16" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AC16" s="218" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="3:30" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C17" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" s="26">
+        <v>14</v>
+      </c>
+      <c r="E17" s="244">
+        <v>0.3</v>
+      </c>
+      <c r="F17" s="245">
+        <v>1.6</v>
+      </c>
+      <c r="G17" s="246">
+        <v>0.6</v>
+      </c>
+      <c r="H17" s="247">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I17" s="256">
+        <f>EXP(E17/$W$3)/(EXP($E17/$W$3)+EXP($F17/$W$3)+EXP($G17/$W$3)+EXP($H17/$W$3))</f>
+        <v>0.14715280872558315</v>
+      </c>
+      <c r="J17" s="257">
+        <f>EXP(F17/$W$3)/(EXP($E17/$W$3)+EXP($F17/$W$3)+EXP($G17/$W$3)+EXP($H17/$W$3))</f>
+        <v>0.28187721321792686</v>
+      </c>
+      <c r="K17" s="258">
+        <f>EXP(G17/$W$3)/(EXP($E17/$W$3)+EXP($F17/$W$3)+EXP($G17/$W$3)+EXP($H17/$W$3))</f>
+        <v>0.17096717209102782</v>
+      </c>
+      <c r="L17" s="259">
+        <f>EXP(H17/$W$3)/(EXP($E17/$W$3)+EXP($F17/$W$3)+EXP($G17/$W$3)+EXP($H17/$W$3))</f>
+        <v>0.40000280596546228</v>
+      </c>
+      <c r="M17" s="251">
+        <f t="shared" si="3"/>
+        <v>1765.8337047069977</v>
+      </c>
+      <c r="N17" s="241">
+        <f t="shared" si="0"/>
+        <v>3382.5265586151222</v>
+      </c>
+      <c r="O17" s="242">
+        <f t="shared" si="1"/>
+        <v>2051.6060650923341</v>
+      </c>
+      <c r="P17" s="243">
+        <f t="shared" si="2"/>
+        <v>4800.0336715855474</v>
+      </c>
+      <c r="Q17" s="223">
+        <f t="shared" si="4"/>
+        <v>10051.606065092334</v>
+      </c>
+      <c r="R17" s="223">
+        <f t="shared" si="7"/>
+        <v>12800.033671585548</v>
+      </c>
+      <c r="S17" s="96">
+        <f t="shared" si="8"/>
+        <v>49590.809207642487</v>
+      </c>
+      <c r="T17" s="50">
+        <f t="shared" si="9"/>
+        <v>-3957.4578412525734</v>
+      </c>
+      <c r="U17" s="284"/>
+      <c r="W17" s="135">
+        <f>E17-E16</f>
+        <v>-0.7</v>
+      </c>
+      <c r="X17" s="118">
+        <f>H17-H16</f>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="Y17" s="215">
+        <f t="shared" si="5"/>
+        <v>-3957.4578412525734</v>
+      </c>
+      <c r="AA17" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v>Sold 0.7 Shares of State 1 at a cost of -3957.45784</v>
+      </c>
+      <c r="AB17" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>Bought 0.3 Shares of State 2 at a cost of -3957.45784</v>
+      </c>
+      <c r="AC17" s="218" t="str">
+        <f>AA17&amp;AB17</f>
+        <v>Sold 0.7 Shares of State 1 at a cost of -3957.45784Bought 0.3 Shares of State 2 at a cost of -3957.45784</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C18" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="26">
+        <v>15</v>
+      </c>
+      <c r="E18" s="244">
+        <v>0.1</v>
+      </c>
+      <c r="F18" s="245">
+        <v>1.6</v>
+      </c>
+      <c r="G18" s="246">
+        <v>0.2</v>
+      </c>
+      <c r="H18" s="247">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I18" s="256">
+        <f>EXP(E18/$W$3)/(EXP($E18/$W$3)+EXP($F18/$W$3)+EXP($G18/$W$3)+EXP($H18/$W$3))</f>
+        <v>0.13942262314860973</v>
+      </c>
+      <c r="J18" s="257">
+        <f>EXP(F18/$W$3)/(EXP($E18/$W$3)+EXP($F18/$W$3)+EXP($G18/$W$3)+EXP($H18/$W$3))</f>
+        <v>0.2951576955217895</v>
+      </c>
+      <c r="K18" s="258">
+        <f>EXP(G18/$W$3)/(EXP($E18/$W$3)+EXP($F18/$W$3)+EXP($G18/$W$3)+EXP($H18/$W$3))</f>
+        <v>0.14657097389706017</v>
+      </c>
+      <c r="L18" s="259">
+        <f>EXP(H18/$W$3)/(EXP($E18/$W$3)+EXP($F18/$W$3)+EXP($G18/$W$3)+EXP($H18/$W$3))</f>
+        <v>0.41884870743254071</v>
+      </c>
+      <c r="M18" s="251">
+        <f t="shared" si="3"/>
+        <v>1673.0714777833168</v>
+      </c>
+      <c r="N18" s="241">
+        <f t="shared" si="0"/>
+        <v>3541.8923462614739</v>
+      </c>
+      <c r="O18" s="242">
+        <f t="shared" si="1"/>
+        <v>1758.851686764722</v>
+      </c>
+      <c r="P18" s="243">
+        <f t="shared" si="2"/>
+        <v>5026.1844891904884</v>
+      </c>
+      <c r="Q18" s="223">
+        <f t="shared" si="4"/>
+        <v>9758.8516867647213</v>
+      </c>
+      <c r="R18" s="223">
+        <f t="shared" si="7"/>
+        <v>13026.184489190488</v>
+      </c>
+      <c r="S18" s="96">
+        <f t="shared" si="8"/>
+        <v>48485.892105081315</v>
+      </c>
+      <c r="T18" s="50">
+        <f t="shared" si="9"/>
+        <v>-1104.9171025611722</v>
+      </c>
+      <c r="U18" s="284"/>
+      <c r="W18" s="135">
+        <f>E18-E17</f>
+        <v>-0.19999999999999998</v>
+      </c>
+      <c r="X18" s="118">
+        <f>H18-H17</f>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="215">
+        <f t="shared" si="5"/>
+        <v>-1104.9171025611722</v>
+      </c>
+      <c r="AA18" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v>Sold 0.2 Shares of State 1 at a cost of -1104.9171</v>
+      </c>
+      <c r="AB18" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AC18" s="218" t="str">
+        <f t="shared" si="10"/>
+        <v>Sold 0.2 Shares of State 1 at a cost of -1104.9171</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" s="7" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="166" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="26">
+        <v>16</v>
+      </c>
+      <c r="E19" s="268">
+        <v>0</v>
+      </c>
+      <c r="F19" s="269">
+        <v>8</v>
+      </c>
+      <c r="G19" s="270">
+        <v>0</v>
+      </c>
+      <c r="H19" s="271">
+        <v>9.41</v>
+      </c>
+      <c r="I19" s="260">
+        <f>EXP(E19/$W$3)/(EXP($E19/$W$3)+EXP($F19/$W$3)+EXP($G19/$W$3)+EXP($H19/$W$3))</f>
+        <v>5.9845681334613982E-3</v>
+      </c>
+      <c r="J19" s="261">
+        <f>EXP(F19/$W$3)/(EXP($E19/$W$3)+EXP($F19/$W$3)+EXP($G19/$W$3)+EXP($H19/$W$3))</f>
+        <v>0.32674634883429937</v>
+      </c>
+      <c r="K19" s="262">
+        <f>EXP(G19/$W$3)/(EXP($E19/$W$3)+EXP($F19/$W$3)+EXP($G19/$W$3)+EXP($H19/$W$3))</f>
+        <v>5.9845681334613982E-3</v>
+      </c>
+      <c r="L19" s="263">
+        <f>EXP(H19/$W$3)/(EXP($E19/$W$3)+EXP($F19/$W$3)+EXP($G19/$W$3)+EXP($H19/$W$3))</f>
+        <v>0.66128451489877782</v>
+      </c>
+      <c r="M19" s="251">
+        <f t="shared" si="3"/>
+        <v>71.814817601536774</v>
+      </c>
+      <c r="N19" s="241">
+        <f>(J19*$I$25)</f>
+        <v>3920.9561860115923</v>
+      </c>
+      <c r="O19" s="242">
+        <f t="shared" si="1"/>
+        <v>71.814817601536774</v>
+      </c>
+      <c r="P19" s="243">
+        <f t="shared" si="2"/>
+        <v>7935.4141787853341</v>
+      </c>
+      <c r="Q19" s="224">
+        <f>O19+$I$23</f>
+        <v>8071.8148176015366</v>
+      </c>
+      <c r="R19" s="224">
+        <f>P19+$I$23</f>
+        <v>15935.414178785333</v>
+      </c>
+      <c r="S19" s="133">
+        <f t="shared" si="8"/>
+        <v>122845.70641746093</v>
+      </c>
+      <c r="T19" s="134">
+        <f>(S19-S18)</f>
+        <v>74359.814312379604</v>
+      </c>
+      <c r="U19" s="284"/>
+      <c r="W19" s="143">
+        <f>E19-E18</f>
+        <v>-0.1</v>
+      </c>
+      <c r="X19" s="120">
+        <f>H19-H18</f>
+        <v>7.11</v>
+      </c>
+      <c r="Y19" s="215">
+        <f t="shared" si="5"/>
+        <v>74359.814312379604</v>
+      </c>
+      <c r="AA19" s="7" t="str">
+        <f>IF(W19&gt;0,"Bought ",IF(W19&lt;0,"Sold ",""))&amp;IF(W19&lt;0,W19*-1,IF(W19&gt;0,W19,""))&amp;IF(W19&lt;&gt;0," Shares of State 1 at a cost of "&amp;ROUND($Y19,5),"")</f>
+        <v>Sold 0.1 Shares of State 1 at a cost of 74359.81431</v>
+      </c>
+      <c r="AB19" s="7" t="str">
+        <f>IF(X19&gt;0,"Bought ",IF(X19&lt;0,"Sold ",""))&amp;IF(X19&lt;0,X19*-1,IF(X19&gt;0,X19,""))&amp;IF(X19&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($Y19,5),"")</f>
+        <v>Bought 7.11 Shares of State 2 at a cost of 74359.81431</v>
+      </c>
+      <c r="AC19" s="218" t="str">
+        <f t="shared" si="10"/>
+        <v>Sold 0.1 Shares of State 1 at a cost of 74359.81431Bought 7.11 Shares of State 2 at a cost of 74359.81431</v>
+      </c>
+    </row>
+    <row r="20" spans="3:30" s="7" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="264">
+        <v>0</v>
+      </c>
+      <c r="F20" s="265">
+        <v>8</v>
+      </c>
+      <c r="G20" s="266">
+        <v>0</v>
+      </c>
+      <c r="H20" s="267">
+        <f>W3*LN(G27/(1-G27))+F20</f>
+        <v>9.4070227899310765</v>
+      </c>
+      <c r="I20" s="252">
+        <f>EXP(E20/$W$3)/(EXP($E20/$W$3)+EXP($F20/$W$3)+EXP($G20/$W$3)+EXP($H20/$W$3))</f>
+        <v>5.9904607048654286E-3</v>
+      </c>
+      <c r="J20" s="253">
+        <f>EXP(F20/$W$3)/(EXP($E20/$W$3)+EXP($F20/$W$3)+EXP($G20/$W$3)+EXP($H20/$W$3))</f>
+        <v>0.32706807233189761</v>
+      </c>
+      <c r="K20" s="254">
+        <f>EXP(G20/$W$3)/(EXP($E20/$W$3)+EXP($F20/$W$3)+EXP($G20/$W$3)+EXP($H20/$W$3))</f>
+        <v>5.9904607048654286E-3</v>
+      </c>
+      <c r="L20" s="255">
+        <f>EXP(H20/$W$3)/(EXP($E20/$W$3)+EXP($F20/$W$3)+EXP($G20/$W$3)+EXP($H20/$W$3))</f>
+        <v>0.66095100625837155</v>
+      </c>
+      <c r="M20" s="285">
+        <v>0</v>
+      </c>
+      <c r="N20" s="286">
+        <f>I24-I27</f>
+        <v>3972.41</v>
+      </c>
+      <c r="O20" s="287">
+        <v>0</v>
+      </c>
+      <c r="P20" s="288">
+        <f>I27-I23</f>
+        <v>8027.59</v>
+      </c>
+      <c r="Q20" s="225">
+        <f>O20+$I$23</f>
+        <v>8000</v>
+      </c>
+      <c r="R20" s="225">
+        <f>P20+I23</f>
+        <v>16027.59</v>
+      </c>
+      <c r="S20" s="97">
+        <f t="shared" si="8"/>
+        <v>122822.08697954217</v>
+      </c>
+      <c r="T20" s="55">
+        <f>SUM(T10:T19)</f>
+        <v>122845.70641746093</v>
+      </c>
+      <c r="U20" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+    </row>
+    <row r="21" spans="3:30" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="130">
+        <v>0</v>
+      </c>
+      <c r="T21" s="50">
+        <f>SUMPRODUCT(E20:H20,M20:P20)</f>
+        <v>107295.00207822281</v>
+      </c>
+      <c r="U21" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
+    </row>
+    <row r="22" spans="3:30" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="164"/>
+      <c r="F22" s="164"/>
+      <c r="G22" s="164"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="289">
+        <f>SUM(M18:P18)</f>
+        <v>12000.000000000002</v>
+      </c>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="57"/>
+      <c r="T22" s="229">
+        <f>T20-T21</f>
+        <v>15550.704339238117</v>
+      </c>
+      <c r="U22" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="34"/>
+      <c r="G23" s="34">
+        <v>0</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="I23" s="34">
+        <v>8000</v>
+      </c>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="289">
+        <f t="shared" ref="P23:P24" si="13">SUM(M19:P19)</f>
+        <v>12000</v>
+      </c>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="230">
+        <f>T10-T22</f>
+        <v>17720.360327639261</v>
+      </c>
+      <c r="U23" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="29"/>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="G24" s="34">
+        <v>1</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="I24" s="34">
+        <v>20000</v>
+      </c>
+      <c r="P24" s="289">
+        <f>SUM(M20:P20)</f>
+        <v>12000</v>
+      </c>
+      <c r="T24" s="227"/>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="H25" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="I25" s="34">
+        <f>I24-I23</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="G27" s="34">
+        <f>(I27-I23)/(I24-I23)</f>
+        <v>0.66896583333333337</v>
+      </c>
+      <c r="H27" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="I27" s="34">
+        <v>16027.59</v>
+      </c>
+      <c r="K27" s="34" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="W8:X8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A2:AP43"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -7517,8 +9248,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="B3:T87"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
@@ -9762,8 +11494,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="B2:R74"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
@@ -12685,8 +14418,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="B1:U22"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -12763,10 +14497,10 @@
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
-      <c r="F4" s="232" t="s">
+      <c r="F4" s="233" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="233"/>
+      <c r="G4" s="234"/>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
@@ -13706,12 +15440,12 @@
       <c r="U21" s="118"/>
     </row>
     <row r="22" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R22" s="234" t="s">
+      <c r="R22" s="235" t="s">
         <v>68</v>
       </c>
-      <c r="S22" s="235"/>
-      <c r="T22" s="235"/>
-      <c r="U22" s="236"/>
+      <c r="S22" s="236"/>
+      <c r="T22" s="236"/>
+      <c r="U22" s="237"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/docs/LogMSR_Demo.xlsx
+++ b/docs/LogMSR_Demo.xlsx
@@ -9,18 +9,19 @@
   <sheets>
     <sheet name="HLMSR" sheetId="6" r:id="rId1"/>
     <sheet name="Simple Example" sheetId="10" r:id="rId2"/>
-    <sheet name="Continuous" sheetId="11" r:id="rId3"/>
-    <sheet name="Changing b mid contract" sheetId="8" r:id="rId4"/>
-    <sheet name="Insurance Fraud Experiments" sheetId="9" r:id="rId5"/>
-    <sheet name="Some Accounting" sheetId="7" r:id="rId6"/>
-    <sheet name="2x2 Update Calculator" sheetId="5" r:id="rId7"/>
+    <sheet name="Scaled Claims" sheetId="11" r:id="rId3"/>
+    <sheet name="MV Scaled" sheetId="12" r:id="rId4"/>
+    <sheet name="Changing b mid contract" sheetId="8" r:id="rId5"/>
+    <sheet name="Insurance Fraud Experiments" sheetId="9" r:id="rId6"/>
+    <sheet name="Some Accounting" sheetId="7" r:id="rId7"/>
+    <sheet name="2x2 Update Calculator" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="142">
   <si>
     <t>Final</t>
   </si>
@@ -389,9 +390,6 @@
     <t>Scaled Contracts</t>
   </si>
   <si>
-    <t>Re: consensus, I suppose most frequent value (tie goes to more-central) becomes 1, others become .5</t>
-  </si>
-  <si>
     <t>Market Author can "get back" the "left over" money, this encourages him to set appropriate min/max as this refund value is low when final value crashes into these limits.</t>
   </si>
   <si>
@@ -414,6 +412,42 @@
   </si>
   <si>
     <t>Redemptions</t>
+  </si>
+  <si>
+    <t>2 decimal places, rounded</t>
+  </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>Re: consensus, must switch to median and remove .5-disincentive</t>
+  </si>
+  <si>
+    <t>Outcome revealed</t>
+  </si>
+  <si>
+    <t>Becomes clear that i2=1</t>
+  </si>
+  <si>
+    <t>Stock Market Improves</t>
+  </si>
+  <si>
+    <t>i2=1 is better for the DJIA</t>
+  </si>
+  <si>
+    <t>i|1</t>
+  </si>
+  <si>
+    <t>i|0</t>
+  </si>
+  <si>
+    <t>Index (Same Units)</t>
+  </si>
+  <si>
+    <t>MV Scaled Contracts</t>
+  </si>
+  <si>
+    <t>Index (Units)</t>
   </si>
 </sst>
 </file>
@@ -498,7 +532,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -577,8 +611,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="44">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -1071,13 +1117,98 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="240">
+  <cellXfs count="322">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1409,17 +1540,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1441,11 +1567,196 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="15" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="15" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="15" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="15" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1580,11 +1891,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114070528"/>
-        <c:axId val="113921984"/>
+        <c:axId val="112633344"/>
+        <c:axId val="79384512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114070528"/>
+        <c:axId val="112633344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1593,7 +1904,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113921984"/>
+        <c:crossAx val="79384512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1601,7 +1912,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113921984"/>
+        <c:axId val="79384512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1612,7 +1923,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114070528"/>
+        <c:crossAx val="112633344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1728,11 +2039,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="115000832"/>
-        <c:axId val="113924288"/>
+        <c:axId val="114152960"/>
+        <c:axId val="79386816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="115000832"/>
+        <c:axId val="114152960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1741,7 +2052,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113924288"/>
+        <c:crossAx val="79386816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1749,7 +2060,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113924288"/>
+        <c:axId val="79386816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1760,13 +2071,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115000832"/>
+        <c:crossAx val="114152960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1833,7 +2145,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Continuous!$K$10:$K$20</c:f>
+              <c:f>'Scaled Claims'!$K$10:$K$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1885,11 +2197,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114294784"/>
-        <c:axId val="115310592"/>
+        <c:axId val="114155008"/>
+        <c:axId val="114196480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114294784"/>
+        <c:axId val="114155008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1898,7 +2210,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115310592"/>
+        <c:crossAx val="114196480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1906,7 +2218,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115310592"/>
+        <c:axId val="114196480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1917,7 +2229,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114294784"/>
+        <c:crossAx val="114155008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1935,6 +2247,159 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>DJIA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> on 2/13/2014</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'MV Scaled'!$R$10:$R$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11734.755987211127</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11734.755987211127</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11734.755987211127</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11647.229217593798</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11503.382239729086</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12800.033671585548</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13026.184489190488</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15935.414178785333</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16027.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="39529984"/>
+        <c:axId val="55405952"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="39529984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="55405952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="55405952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="39529984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2052,11 +2517,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114296832"/>
-        <c:axId val="115312896"/>
+        <c:axId val="115336704"/>
+        <c:axId val="114198784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114296832"/>
+        <c:axId val="115336704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2065,7 +2530,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115312896"/>
+        <c:crossAx val="114198784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2073,7 +2538,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115312896"/>
+        <c:axId val="114198784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2084,7 +2549,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114296832"/>
+        <c:crossAx val="115336704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2322,13 +2787,50 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>679209</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>8983</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>515470</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>40475</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>210687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>481367</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>21922</xdr:rowOff>
@@ -2355,7 +2857,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2681,7 +3183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AP59"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -4210,8 +4712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:X27"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V31" sqref="V31"/>
+    <sheetView topLeftCell="B10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4303,10 +4805,10 @@
         <v>37</v>
       </c>
       <c r="K6" s="20"/>
-      <c r="L6" s="230" t="s">
+      <c r="L6" s="225" t="s">
         <v>109</v>
       </c>
-      <c r="M6" s="231"/>
+      <c r="M6" s="226"/>
       <c r="N6" s="216" t="s">
         <v>110</v>
       </c>
@@ -4361,15 +4863,15 @@
         <v>0</v>
       </c>
       <c r="G8" s="51">
-        <f t="shared" ref="G8:G23" si="0">EXP(E8/$L$2)/(EXP($F8/$L$2)+EXP($E8/$L$2))</f>
+        <f>EXP(E8/$L$2)/(EXP($F8/$L$2)+EXP($E8/$L$2))</f>
         <v>0.5</v>
       </c>
       <c r="H8" s="202">
-        <f t="shared" ref="H8:H23" si="1">EXP(F8/$L$2)/(EXP($F8/$L$2)+EXP($E8/$L$2))</f>
+        <f t="shared" ref="H8:H23" si="0">EXP(F8/$L$2)/(EXP($F8/$L$2)+EXP($E8/$L$2))</f>
         <v>0.5</v>
       </c>
       <c r="I8" s="95">
-        <f t="shared" ref="I8:I24" si="2">$L$2*LN(EXP($F8/$L$2)+EXP($E8/$L$2))</f>
+        <f t="shared" ref="I8:I24" si="1">$L$2*LN(EXP($F8/$L$2)+EXP($E8/$L$2))</f>
         <v>4.8520302639196169</v>
       </c>
       <c r="J8" s="47">
@@ -4392,15 +4894,15 @@
         <v>0</v>
       </c>
       <c r="G9" s="49">
+        <f t="shared" ref="G8:G23" si="2">EXP(E9/$L$2)/(EXP($F9/$L$2)+EXP($E9/$L$2))</f>
+        <v>0.53565367083397153</v>
+      </c>
+      <c r="H9" s="199">
         <f t="shared" si="0"/>
-        <v>0.53565367083397153</v>
-      </c>
-      <c r="H9" s="199">
+        <v>0.46434632916602836</v>
+      </c>
+      <c r="I9" s="96">
         <f t="shared" si="1"/>
-        <v>0.46434632916602836</v>
-      </c>
-      <c r="I9" s="96">
-        <f t="shared" si="2"/>
         <v>5.3698722427589098</v>
       </c>
       <c r="J9" s="50">
@@ -4443,15 +4945,15 @@
         <v>6</v>
       </c>
       <c r="G10" s="49">
+        <f t="shared" si="2"/>
+        <v>0.32865254651727005</v>
+      </c>
+      <c r="H10" s="199">
         <f t="shared" si="0"/>
-        <v>0.32865254651727005</v>
-      </c>
-      <c r="H10" s="199">
+        <v>0.67134745348273006</v>
+      </c>
+      <c r="I10" s="96">
         <f t="shared" si="1"/>
-        <v>0.67134745348273006</v>
-      </c>
-      <c r="I10" s="96">
-        <f t="shared" si="2"/>
         <v>8.7892792311985044</v>
       </c>
       <c r="J10" s="50">
@@ -4494,15 +4996,15 @@
         <v>6</v>
       </c>
       <c r="G11" s="49">
+        <f t="shared" si="2"/>
+        <v>0.84739133515736897</v>
+      </c>
+      <c r="H11" s="199">
         <f t="shared" si="0"/>
-        <v>0.84739133515736897</v>
-      </c>
-      <c r="H11" s="199">
+        <v>0.152608664842631</v>
+      </c>
+      <c r="I11" s="96">
         <f t="shared" si="1"/>
-        <v>0.152608664842631</v>
-      </c>
-      <c r="I11" s="96">
-        <f t="shared" si="2"/>
         <v>19.159148662361027</v>
       </c>
       <c r="J11" s="50">
@@ -4545,15 +5047,15 @@
         <v>18</v>
       </c>
       <c r="G12" s="49">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="199">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="H12" s="199">
+      <c r="I12" s="96">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="I12" s="96">
-        <f t="shared" si="2"/>
         <v>22.85203026391962</v>
       </c>
       <c r="J12" s="50">
@@ -4596,15 +5098,15 @@
         <v>18</v>
       </c>
       <c r="G13" s="49">
+        <f t="shared" si="2"/>
+        <v>0.88079707797788231</v>
+      </c>
+      <c r="H13" s="199">
         <f t="shared" si="0"/>
-        <v>0.88079707797788231</v>
-      </c>
-      <c r="H13" s="199">
+        <v>0.11920292202211759</v>
+      </c>
+      <c r="I13" s="96">
         <f t="shared" si="1"/>
-        <v>0.11920292202211759</v>
-      </c>
-      <c r="I13" s="96">
-        <f t="shared" si="2"/>
         <v>32.8884960773008</v>
       </c>
       <c r="J13" s="50">
@@ -4647,15 +5149,15 @@
         <v>30</v>
       </c>
       <c r="G14" s="49">
+        <f t="shared" si="2"/>
+        <v>0.57094659688346627</v>
+      </c>
+      <c r="H14" s="199">
         <f t="shared" si="0"/>
-        <v>0.57094659688346627</v>
-      </c>
-      <c r="H14" s="199">
+        <v>0.42905340311653373</v>
+      </c>
+      <c r="I14" s="96">
         <f t="shared" si="1"/>
-        <v>0.42905340311653373</v>
-      </c>
-      <c r="I14" s="96">
-        <f t="shared" si="2"/>
         <v>35.923217195086352</v>
       </c>
       <c r="J14" s="50">
@@ -4698,15 +5200,15 @@
         <v>30</v>
       </c>
       <c r="G15" s="49">
+        <f t="shared" si="2"/>
+        <v>0.78342090423182409</v>
+      </c>
+      <c r="H15" s="199">
         <f t="shared" si="0"/>
-        <v>0.78342090423182409</v>
-      </c>
-      <c r="H15" s="199">
+        <v>0.21657909576817599</v>
+      </c>
+      <c r="I15" s="96">
         <f t="shared" si="1"/>
-        <v>0.21657909576817599</v>
-      </c>
-      <c r="I15" s="96">
-        <f t="shared" si="2"/>
         <v>40.70859621886801</v>
       </c>
       <c r="J15" s="50">
@@ -4749,15 +5251,15 @@
         <v>43</v>
       </c>
       <c r="G16" s="49">
+        <f t="shared" si="2"/>
+        <v>0.36090725483714864</v>
+      </c>
+      <c r="H16" s="199">
         <f t="shared" si="0"/>
-        <v>0.36090725483714864</v>
-      </c>
-      <c r="H16" s="199">
+        <v>0.63909274516285142</v>
+      </c>
+      <c r="I16" s="96">
         <f t="shared" si="1"/>
-        <v>0.63909274516285142</v>
-      </c>
-      <c r="I16" s="96">
-        <f t="shared" si="2"/>
         <v>46.133939858256404</v>
       </c>
       <c r="J16" s="50">
@@ -4800,15 +5302,15 @@
         <v>43</v>
       </c>
       <c r="G17" s="49">
+        <f t="shared" si="2"/>
+        <v>0.88079707797788231</v>
+      </c>
+      <c r="H17" s="199">
         <f t="shared" si="0"/>
-        <v>0.88079707797788231</v>
-      </c>
-      <c r="H17" s="199">
+        <v>0.11920292202211764</v>
+      </c>
+      <c r="I17" s="96">
         <f t="shared" si="1"/>
-        <v>0.11920292202211764</v>
-      </c>
-      <c r="I17" s="96">
-        <f t="shared" si="2"/>
         <v>57.8884960773008</v>
       </c>
       <c r="J17" s="50">
@@ -4851,15 +5353,15 @@
         <v>61</v>
       </c>
       <c r="G18" s="49">
+        <f t="shared" si="2"/>
+        <v>0.36090725483714881</v>
+      </c>
+      <c r="H18" s="199">
         <f t="shared" si="0"/>
-        <v>0.36090725483714881</v>
-      </c>
-      <c r="H18" s="199">
+        <v>0.63909274516285108</v>
+      </c>
+      <c r="I18" s="96">
         <f t="shared" si="1"/>
-        <v>0.63909274516285108</v>
-      </c>
-      <c r="I18" s="96">
-        <f t="shared" si="2"/>
         <v>64.133939858256412</v>
       </c>
       <c r="J18" s="50">
@@ -4902,15 +5404,15 @@
         <v>61</v>
       </c>
       <c r="G19" s="49">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="H19" s="199">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="H19" s="199">
+      <c r="I19" s="96">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="I19" s="96">
-        <f t="shared" si="2"/>
         <v>65.852030263919616</v>
       </c>
       <c r="J19" s="50">
@@ -4953,15 +5455,15 @@
         <v>40</v>
       </c>
       <c r="G20" s="49">
+        <f t="shared" si="2"/>
+        <v>0.95257412682243314</v>
+      </c>
+      <c r="H20" s="199">
         <f t="shared" si="0"/>
-        <v>0.95257412682243314</v>
-      </c>
-      <c r="H20" s="199">
+        <v>4.7425873177566823E-2</v>
+      </c>
+      <c r="I20" s="96">
         <f t="shared" si="1"/>
-        <v>4.7425873177566823E-2</v>
-      </c>
-      <c r="I20" s="96">
-        <f t="shared" si="2"/>
         <v>61.340111461016193</v>
       </c>
       <c r="J20" s="50">
@@ -5004,15 +5506,15 @@
         <v>40</v>
       </c>
       <c r="G21" s="49">
+        <f t="shared" si="2"/>
+        <v>0.57094659688346627</v>
+      </c>
+      <c r="H21" s="199">
         <f t="shared" si="0"/>
-        <v>0.57094659688346627</v>
-      </c>
-      <c r="H21" s="199">
+        <v>0.42905340311653378</v>
+      </c>
+      <c r="I21" s="96">
         <f t="shared" si="1"/>
-        <v>0.42905340311653378</v>
-      </c>
-      <c r="I21" s="96">
-        <f t="shared" si="2"/>
         <v>45.923217195086359</v>
       </c>
       <c r="J21" s="50">
@@ -5056,15 +5558,15 @@
         <v>9</v>
       </c>
       <c r="G22" s="49">
+        <f t="shared" si="2"/>
+        <v>0.99111341128091202</v>
+      </c>
+      <c r="H22" s="199">
         <f t="shared" si="0"/>
-        <v>0.99111341128091202</v>
-      </c>
-      <c r="H22" s="199">
+        <v>8.8865887190879463E-3</v>
+      </c>
+      <c r="I22" s="96">
         <f t="shared" si="1"/>
-        <v>8.8865887190879463E-3</v>
-      </c>
-      <c r="I22" s="96">
-        <f t="shared" si="2"/>
         <v>42.062484169635077</v>
       </c>
       <c r="J22" s="50">
@@ -5107,15 +5609,15 @@
         <v>9</v>
       </c>
       <c r="G23" s="131">
+        <f t="shared" si="2"/>
+        <v>0.99111341128091202</v>
+      </c>
+      <c r="H23" s="200">
         <f t="shared" si="0"/>
-        <v>0.99111341128091202</v>
-      </c>
-      <c r="H23" s="200">
+        <v>8.8865887190879463E-3</v>
+      </c>
+      <c r="I23" s="133">
         <f t="shared" si="1"/>
-        <v>8.8865887190879463E-3</v>
-      </c>
-      <c r="I23" s="133">
-        <f t="shared" si="2"/>
         <v>42.062484169635077</v>
       </c>
       <c r="J23" s="134">
@@ -5167,7 +5669,7 @@
         <v>5.7495222642935599E-19</v>
       </c>
       <c r="I24" s="97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42.017329795964109</v>
       </c>
       <c r="J24" s="55">
@@ -5235,10 +5737,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AB36"/>
+  <dimension ref="B2:AB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5265,7 +5767,7 @@
     </row>
     <row r="3" spans="2:28" ht="21" x14ac:dyDescent="0.35">
       <c r="B3" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D3" s="163"/>
       <c r="O3" s="209" t="s">
@@ -5276,8 +5778,8 @@
       </c>
     </row>
     <row r="4" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
-        <v>128</v>
+      <c r="B4" t="s">
+        <v>130</v>
       </c>
       <c r="O4" s="211" t="s">
         <v>107</v>
@@ -5288,11 +5790,11 @@
       </c>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="232" t="s">
         <v>127</v>
       </c>
-      <c r="O5" s="237"/>
-      <c r="P5" s="237"/>
+      <c r="O5" s="222"/>
+      <c r="P5" s="222"/>
     </row>
     <row r="6" spans="2:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -5316,6 +5818,9 @@
       <c r="X6" s="8"/>
     </row>
     <row r="7" spans="2:28" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>125</v>
+      </c>
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7" s="34"/>
@@ -5341,31 +5846,33 @@
     </row>
     <row r="8" spans="2:28" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8"/>
-      <c r="E8" s="67" t="s">
+      <c r="E8" s="265" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68" t="s">
+      <c r="F8" s="266"/>
+      <c r="G8" s="267" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="69"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68" t="s">
+      <c r="H8" s="268"/>
+      <c r="I8" s="266" t="s">
         <v>79</v>
       </c>
-      <c r="K8" s="68"/>
-      <c r="L8" s="67" t="s">
+      <c r="J8" s="266"/>
+      <c r="K8" s="321" t="s">
+        <v>141</v>
+      </c>
+      <c r="L8" s="267" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="69" t="s">
+      <c r="M8" s="269" t="s">
         <v>37</v>
       </c>
-      <c r="N8" s="226"/>
+      <c r="N8" s="243"/>
       <c r="O8" s="20"/>
-      <c r="P8" s="230" t="s">
+      <c r="P8" s="225" t="s">
         <v>109</v>
       </c>
-      <c r="Q8" s="231"/>
+      <c r="Q8" s="226"/>
       <c r="R8" s="216" t="s">
         <v>110</v>
       </c>
@@ -5379,41 +5886,44 @@
       <c r="W8" s="20"/>
     </row>
     <row r="9" spans="2:28" s="7" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="33"/>
-      <c r="D9" s="35" t="s">
+      <c r="B9" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="203" t="str">
-        <f>"i="&amp;G23</f>
+      <c r="E9" s="270" t="str">
+        <f>"i="&amp;C10</f>
         <v>i=8000</v>
       </c>
-      <c r="F9" s="204" t="str">
-        <f>"i="&amp;G24</f>
+      <c r="F9" s="258" t="str">
+        <f>"i="&amp;C11</f>
         <v>i=20000</v>
       </c>
-      <c r="G9" s="205" t="str">
-        <f>"i="&amp;G23</f>
+      <c r="G9" s="253" t="str">
+        <f>"i="&amp;C10</f>
         <v>i=8000</v>
       </c>
-      <c r="H9" s="206" t="str">
-        <f>"i="&amp;G24</f>
+      <c r="H9" s="254" t="str">
+        <f>"i="&amp;C11</f>
         <v>i=20000</v>
       </c>
-      <c r="I9" s="205" t="s">
+      <c r="I9" s="253" t="s">
         <v>104</v>
       </c>
-      <c r="J9" s="206" t="str">
-        <f>"i="&amp;G25</f>
+      <c r="J9" s="254" t="str">
+        <f>"i="&amp;C12</f>
         <v>i=12000</v>
       </c>
-      <c r="K9" s="206" t="s">
+      <c r="K9" s="233" t="s">
         <v>117</v>
       </c>
       <c r="L9" s="43">
         <v>0</v>
       </c>
-      <c r="M9" s="44"/>
-      <c r="N9" s="227"/>
+      <c r="M9" s="271"/>
+      <c r="N9" s="164"/>
       <c r="P9" s="213" t="str">
         <f>E9</f>
         <v>i=8000</v>
@@ -5425,104 +5935,110 @@
       <c r="V9"/>
     </row>
     <row r="10" spans="2:28" s="7" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="248" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="245">
+        <v>8000</v>
+      </c>
       <c r="D10" s="26">
         <v>1</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="272">
         <v>0</v>
       </c>
       <c r="F10" s="46">
         <v>0</v>
       </c>
-      <c r="G10" s="51">
-        <f>EXP(E10/$P$3)/(EXP($F10/$P$3)+EXP($E10/$P$3))</f>
+      <c r="G10" s="259">
+        <f t="shared" ref="G10:G19" si="0">EXP(E10/$P$3)/(EXP($F10/$P$3)+EXP($E10/$P$3))</f>
         <v>0.5</v>
       </c>
-      <c r="H10" s="202">
-        <f>EXP(F10/$P$3)/(EXP($F10/$P$3)+EXP($E10/$P$3))</f>
+      <c r="H10" s="260">
+        <f t="shared" ref="H10:H19" si="1">EXP(F10/$P$3)/(EXP($F10/$P$3)+EXP($E10/$P$3))</f>
         <v>0.5</v>
       </c>
       <c r="I10" s="45">
-        <f t="shared" ref="I10:I20" si="0">(G10*$G$25)</f>
+        <f>(G10*$C$12)</f>
         <v>6000</v>
       </c>
-      <c r="J10" s="222">
-        <f t="shared" ref="J10:J20" si="1">(H10*$G$25)</f>
+      <c r="J10" s="255">
+        <f>(H10*$C$12)</f>
         <v>6000</v>
       </c>
-      <c r="K10" s="222">
-        <f>J10+$G$23</f>
+      <c r="K10" s="234">
+        <f>J10+$C$10</f>
         <v>14000</v>
       </c>
       <c r="L10" s="95">
-        <f>$P$3*LN(EXP($F10/$P$3)+EXP($E10/$P$3))*$G$25</f>
+        <f>$P$3*LN(EXP($F10/$P$3)+EXP($E10/$P$3))*$C$12</f>
         <v>831.77661667193433</v>
       </c>
-      <c r="M10" s="47">
+      <c r="M10" s="273">
         <f>(L10-L9)</f>
         <v>831.77661667193433</v>
       </c>
-      <c r="N10" s="228">
-        <f>N9+M10</f>
-        <v>831.77661667193433</v>
-      </c>
+      <c r="N10" s="244"/>
       <c r="P10" s="135"/>
       <c r="Q10" s="118"/>
       <c r="V10"/>
       <c r="AB10" s="220"/>
     </row>
-    <row r="11" spans="2:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:28" s="7" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="250" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="246">
+        <v>20000</v>
+      </c>
       <c r="D11" s="26">
         <v>2</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="274">
         <v>1</v>
       </c>
       <c r="F11" s="42">
         <v>0.2</v>
       </c>
-      <c r="G11" s="49">
-        <f>EXP(E11/$P$3)/(EXP($F11/$P$3)+EXP($E11/$P$3))</f>
+      <c r="G11" s="261">
+        <f t="shared" si="0"/>
         <v>0.99966464986953352</v>
       </c>
-      <c r="H11" s="199">
-        <f>EXP(F11/$P$3)/(EXP($F11/$P$3)+EXP($E11/$P$3))</f>
+      <c r="H11" s="262">
+        <f t="shared" si="1"/>
         <v>3.3535013046647811E-4</v>
       </c>
       <c r="I11" s="48">
-        <f t="shared" si="0"/>
+        <f>(G11*$C$12)</f>
         <v>11995.975798434401</v>
       </c>
-      <c r="J11" s="223">
-        <f t="shared" si="1"/>
+      <c r="J11" s="256">
+        <f>(H11*$C$12)</f>
         <v>4.0242015655977372</v>
       </c>
-      <c r="K11" s="223">
-        <f t="shared" ref="K11:K19" si="2">J11+$G$23</f>
+      <c r="K11" s="235">
+        <f>J11+$C$10</f>
         <v>8004.0242015655977</v>
       </c>
       <c r="L11" s="96">
-        <f>$P$3*LN(EXP($F11/$P$3)+EXP($E11/$P$3))*$G$25</f>
+        <f>$P$3*LN(EXP($F11/$P$3)+EXP($E11/$P$3))*$C$12</f>
         <v>12000.402487647474</v>
       </c>
-      <c r="M11" s="50">
-        <f t="shared" ref="M11:M19" si="3">(L11-L10)</f>
+      <c r="M11" s="275">
+        <f t="shared" ref="M11:M18" si="2">(L11-L10)</f>
         <v>11168.62587097554</v>
       </c>
-      <c r="N11" s="228">
-        <f t="shared" ref="N11:N19" si="4">N10+M11</f>
-        <v>12000.402487647474</v>
-      </c>
+      <c r="N11" s="244"/>
       <c r="P11" s="135">
-        <f t="shared" ref="P11:P19" si="5">E11-E10</f>
+        <f t="shared" ref="P11:P19" si="3">E11-E10</f>
         <v>1</v>
       </c>
       <c r="Q11" s="118">
-        <f t="shared" ref="Q11:Q19" si="6">F11-F10</f>
+        <f t="shared" ref="Q11:Q19" si="4">F11-F10</f>
         <v>0.2</v>
       </c>
       <c r="R11" s="215">
-        <f t="shared" ref="R11:R19" si="7">M11</f>
+        <f t="shared" ref="R11:R19" si="5">M11</f>
         <v>11168.62587097554</v>
       </c>
       <c r="T11" s="7" t="str">
@@ -5530,7 +6046,7 @@
         <v>Bought 1 Shares of State 1 at a cost of 11168.62587</v>
       </c>
       <c r="U11" s="7" t="str">
-        <f t="shared" ref="U11" si="8">IF(Q11&gt;0,"Bought ",IF(Q11&lt;0,"Sold ",""))&amp;IF(Q11&lt;0,Q11*-1,IF(Q11&gt;0,Q11,""))&amp;IF(Q11&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($R11,5),"")</f>
+        <f t="shared" ref="U11" si="6">IF(Q11&gt;0,"Bought ",IF(Q11&lt;0,"Sold ",""))&amp;IF(Q11&lt;0,Q11*-1,IF(Q11&gt;0,Q11,""))&amp;IF(Q11&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($R11,5),"")</f>
         <v>Bought 0.2 Shares of State 2 at a cost of 11168.62587</v>
       </c>
       <c r="V11" s="218" t="str">
@@ -5538,58 +6054,62 @@
         <v>Bought 1 Shares of State 1 at a cost of 11168.62587Bought 0.2 Shares of State 2 at a cost of 11168.62587</v>
       </c>
     </row>
-    <row r="12" spans="2:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:28" s="7" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="250" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="251">
+        <f>C11-C10</f>
+        <v>12000</v>
+      </c>
       <c r="D12" s="26">
         <v>3</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="274">
         <v>1</v>
       </c>
       <c r="F12" s="42">
         <v>1</v>
       </c>
-      <c r="G12" s="49">
-        <f>EXP(E12/$P$3)/(EXP($F12/$P$3)+EXP($E12/$P$3))</f>
+      <c r="G12" s="261">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="H12" s="199">
-        <f>EXP(F12/$P$3)/(EXP($F12/$P$3)+EXP($E12/$P$3))</f>
+      <c r="H12" s="262">
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I12" s="48">
-        <f t="shared" si="0"/>
+        <f>(G12*$C$12)</f>
         <v>6000</v>
       </c>
-      <c r="J12" s="223">
-        <f t="shared" si="1"/>
+      <c r="J12" s="256">
+        <f>(H12*$C$12)</f>
         <v>6000</v>
       </c>
-      <c r="K12" s="223">
+      <c r="K12" s="235">
+        <f>J12+$C$10</f>
+        <v>14000</v>
+      </c>
+      <c r="L12" s="96">
+        <f>$P$3*LN(EXP($F12/$P$3)+EXP($E12/$P$3))*$C$12</f>
+        <v>12831.776616671934</v>
+      </c>
+      <c r="M12" s="275">
         <f t="shared" si="2"/>
-        <v>14000</v>
-      </c>
-      <c r="L12" s="96">
-        <f>$P$3*LN(EXP($F12/$P$3)+EXP($E12/$P$3))*$G$25</f>
-        <v>12831.776616671934</v>
-      </c>
-      <c r="M12" s="50">
+        <v>831.37412902445976</v>
+      </c>
+      <c r="N12" s="244"/>
+      <c r="P12" s="135">
         <f t="shared" si="3"/>
-        <v>831.37412902445976</v>
-      </c>
-      <c r="N12" s="228">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="118">
         <f t="shared" si="4"/>
-        <v>12831.776616671934</v>
-      </c>
-      <c r="P12" s="135">
+        <v>0.8</v>
+      </c>
+      <c r="R12" s="215">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="118">
-        <f t="shared" si="6"/>
-        <v>0.8</v>
-      </c>
-      <c r="R12" s="215">
-        <f t="shared" si="7"/>
         <v>831.37412902445976</v>
       </c>
       <c r="T12" s="7" t="str">
@@ -5601,62 +6121,65 @@
         <v>Bought 0.8 Shares of State 2 at a cost of 831.37413</v>
       </c>
       <c r="V12" s="218" t="str">
-        <f t="shared" ref="V12:V19" si="9">T12&amp;U12</f>
+        <f t="shared" ref="V12:V19" si="7">T12&amp;U12</f>
         <v>Bought 0.8 Shares of State 2 at a cost of 831.37413</v>
       </c>
     </row>
-    <row r="13" spans="2:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:28" s="7" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="248" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="247">
+        <v>16027.59</v>
+      </c>
       <c r="D13" s="26">
         <v>4</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="274">
         <v>2</v>
       </c>
       <c r="F13" s="42">
         <v>2</v>
       </c>
-      <c r="G13" s="49">
-        <f>EXP(E13/$P$3)/(EXP($F13/$P$3)+EXP($E13/$P$3))</f>
+      <c r="G13" s="261">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="H13" s="199">
-        <f>EXP(F13/$P$3)/(EXP($F13/$P$3)+EXP($E13/$P$3))</f>
+      <c r="H13" s="262">
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I13" s="48">
-        <f t="shared" si="0"/>
+        <f>(G13*$C$12)</f>
         <v>6000</v>
       </c>
-      <c r="J13" s="223">
-        <f t="shared" si="1"/>
+      <c r="J13" s="256">
+        <f>(H13*$C$12)</f>
         <v>6000</v>
       </c>
-      <c r="K13" s="223">
+      <c r="K13" s="235">
+        <f>J13+$C$10</f>
+        <v>14000</v>
+      </c>
+      <c r="L13" s="96">
+        <f>$P$3*LN(EXP($F13/$P$3)+EXP($E13/$P$3))*$C$12</f>
+        <v>24831.776616671934</v>
+      </c>
+      <c r="M13" s="275">
         <f t="shared" si="2"/>
-        <v>14000</v>
-      </c>
-      <c r="L13" s="96">
-        <f>$P$3*LN(EXP($F13/$P$3)+EXP($E13/$P$3))*$G$25</f>
-        <v>24831.776616671934</v>
-      </c>
-      <c r="M13" s="50">
+        <v>12000</v>
+      </c>
+      <c r="N13" s="244"/>
+      <c r="P13" s="135">
         <f t="shared" si="3"/>
-        <v>12000</v>
-      </c>
-      <c r="N13" s="228">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="118">
         <f t="shared" si="4"/>
-        <v>24831.776616671934</v>
-      </c>
-      <c r="P13" s="135">
+        <v>1</v>
+      </c>
+      <c r="R13" s="215">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Q13" s="118">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="R13" s="215">
-        <f t="shared" si="7"/>
         <v>12000</v>
       </c>
       <c r="T13" s="7" t="str">
@@ -5668,74 +6191,76 @@
         <v>Bought 1 Shares of State 2 at a cost of 12000</v>
       </c>
       <c r="V13" s="218" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Bought 1 Shares of State 1 at a cost of 12000Bought 1 Shares of State 2 at a cost of 12000</v>
       </c>
     </row>
-    <row r="14" spans="2:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:28" s="7" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="249"/>
+      <c r="C14" s="252">
+        <f>(C13-C10)/(C11-C10)</f>
+        <v>0.66896583333333337</v>
+      </c>
       <c r="D14" s="26">
         <v>5</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="274">
         <v>12</v>
       </c>
       <c r="F14" s="42">
         <v>12</v>
       </c>
-      <c r="G14" s="49">
-        <f>EXP(E14/$P$3)/(EXP($F14/$P$3)+EXP($E14/$P$3))</f>
+      <c r="G14" s="261">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="H14" s="199">
-        <f>EXP(F14/$P$3)/(EXP($F14/$P$3)+EXP($E14/$P$3))</f>
+      <c r="H14" s="262">
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I14" s="48">
-        <f t="shared" si="0"/>
+        <f>(G14*$C$12)</f>
         <v>6000</v>
       </c>
-      <c r="J14" s="223">
-        <f t="shared" si="1"/>
+      <c r="J14" s="256">
+        <f>(H14*$C$12)</f>
         <v>6000</v>
       </c>
-      <c r="K14" s="223">
-        <f t="shared" si="2"/>
+      <c r="K14" s="235">
+        <f>J14+$C$10</f>
         <v>14000</v>
       </c>
       <c r="L14" s="96">
-        <f>$P$3*LN(EXP($F14/$P$3)+EXP($E14/$P$3))*$G$25</f>
+        <f>$P$3*LN(EXP($F14/$P$3)+EXP($E14/$P$3))*$C$12</f>
         <v>144831.77661667194</v>
       </c>
-      <c r="M14" s="50">
+      <c r="M14" s="275">
         <f>(L14-L13)</f>
         <v>120000</v>
       </c>
-      <c r="N14" s="228">
+      <c r="N14" s="244"/>
+      <c r="P14" s="135">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="Q14" s="118">
         <f t="shared" si="4"/>
-        <v>144831.77661667194</v>
-      </c>
-      <c r="P14" s="135">
-        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="Q14" s="118">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
       <c r="R14" s="215">
-        <f t="shared" ref="R14:R18" si="10">M14</f>
+        <f t="shared" ref="R14:R18" si="8">M14</f>
         <v>120000</v>
       </c>
       <c r="T14" s="7" t="str">
-        <f t="shared" ref="T14:T18" si="11">IF(P14&gt;0,"Bought ",IF(P14&lt;0,"Sold ",""))&amp;IF(P14&lt;0,P14*-1,IF(P14&gt;0,P14,""))&amp;IF(P14&lt;&gt;0," Shares of State 1 at a cost of "&amp;ROUND($R14,5),"")</f>
+        <f t="shared" ref="T14:T18" si="9">IF(P14&gt;0,"Bought ",IF(P14&lt;0,"Sold ",""))&amp;IF(P14&lt;0,P14*-1,IF(P14&gt;0,P14,""))&amp;IF(P14&lt;&gt;0," Shares of State 1 at a cost of "&amp;ROUND($R14,5),"")</f>
         <v>Bought 10 Shares of State 1 at a cost of 120000</v>
       </c>
       <c r="U14" s="7" t="str">
-        <f t="shared" ref="U14:U18" si="12">IF(Q14&gt;0,"Bought ",IF(Q14&lt;0,"Sold ",""))&amp;IF(Q14&lt;0,Q14*-1,IF(Q14&gt;0,Q14,""))&amp;IF(Q14&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($R14,5),"")</f>
+        <f t="shared" ref="U14:U18" si="10">IF(Q14&gt;0,"Bought ",IF(Q14&lt;0,"Sold ",""))&amp;IF(Q14&lt;0,Q14*-1,IF(Q14&gt;0,Q14,""))&amp;IF(Q14&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($R14,5),"")</f>
         <v>Bought 10 Shares of State 2 at a cost of 120000</v>
       </c>
       <c r="V14" s="218" t="str">
-        <f t="shared" ref="V14:V18" si="13">T14&amp;U14</f>
+        <f t="shared" ref="V14:V18" si="11">T14&amp;U14</f>
         <v>Bought 10 Shares of State 1 at a cost of 120000Bought 10 Shares of State 2 at a cost of 120000</v>
       </c>
     </row>
@@ -5743,66 +6268,63 @@
       <c r="D15" s="26">
         <v>12</v>
       </c>
-      <c r="E15" s="48">
+      <c r="E15" s="274">
         <v>30</v>
       </c>
       <c r="F15" s="42">
         <v>15</v>
       </c>
-      <c r="G15" s="49">
-        <f>EXP(E15/$P$3)/(EXP($F15/$P$3)+EXP($E15/$P$3))</f>
+      <c r="G15" s="261">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H15" s="199">
-        <f>EXP(F15/$P$3)/(EXP($F15/$P$3)+EXP($E15/$P$3))</f>
+      <c r="H15" s="262">
+        <f t="shared" si="1"/>
         <v>7.1750959731644108E-66</v>
       </c>
       <c r="I15" s="48">
-        <f t="shared" si="0"/>
+        <f>(G15*$C$12)</f>
         <v>12000</v>
       </c>
-      <c r="J15" s="223">
-        <f t="shared" si="1"/>
+      <c r="J15" s="256">
+        <f>(H15*$C$12)</f>
         <v>8.6101151677972925E-62</v>
       </c>
-      <c r="K15" s="223">
+      <c r="K15" s="235">
+        <f>J15+$C$10</f>
+        <v>8000</v>
+      </c>
+      <c r="L15" s="96">
+        <f>$P$3*LN(EXP($F15/$P$3)+EXP($E15/$P$3))*$C$12</f>
+        <v>360000</v>
+      </c>
+      <c r="M15" s="275">
         <f t="shared" si="2"/>
-        <v>8000</v>
-      </c>
-      <c r="L15" s="96">
-        <f>$P$3*LN(EXP($F15/$P$3)+EXP($E15/$P$3))*$G$25</f>
-        <v>360000</v>
-      </c>
-      <c r="M15" s="50">
+        <v>215168.22338332806</v>
+      </c>
+      <c r="N15" s="244"/>
+      <c r="P15" s="135">
         <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="Q15" s="118">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="R15" s="215">
+        <f t="shared" si="8"/>
         <v>215168.22338332806</v>
       </c>
-      <c r="N15" s="228">
-        <f t="shared" si="4"/>
-        <v>360000</v>
-      </c>
-      <c r="P15" s="135">
-        <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="Q15" s="118">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="R15" s="215">
+      <c r="T15" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>Bought 18 Shares of State 1 at a cost of 215168.22338</v>
+      </c>
+      <c r="U15" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>215168.22338332806</v>
-      </c>
-      <c r="T15" s="7" t="str">
+        <v>Bought 3 Shares of State 2 at a cost of 215168.22338</v>
+      </c>
+      <c r="V15" s="218" t="str">
         <f t="shared" si="11"/>
-        <v>Bought 18 Shares of State 1 at a cost of 215168.22338</v>
-      </c>
-      <c r="U15" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v>Bought 3 Shares of State 2 at a cost of 215168.22338</v>
-      </c>
-      <c r="V15" s="218" t="str">
-        <f t="shared" si="13"/>
         <v>Bought 18 Shares of State 1 at a cost of 215168.22338Bought 3 Shares of State 2 at a cost of 215168.22338</v>
       </c>
     </row>
@@ -5810,257 +6332,245 @@
       <c r="D16" s="26">
         <v>13</v>
       </c>
-      <c r="E16" s="48">
+      <c r="E16" s="274">
         <v>11</v>
       </c>
       <c r="F16" s="42">
         <v>15</v>
       </c>
-      <c r="G16" s="49">
-        <f>EXP(E16/$P$3)/(EXP($F16/$P$3)+EXP($E16/$P$3))</f>
+      <c r="G16" s="261">
+        <f t="shared" si="0"/>
         <v>4.2483542552915889E-18</v>
       </c>
-      <c r="H16" s="199">
-        <f>EXP(F16/$P$3)/(EXP($F16/$P$3)+EXP($E16/$P$3))</f>
+      <c r="H16" s="262">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I16" s="48">
-        <f t="shared" si="0"/>
+        <f>(G16*$C$12)</f>
         <v>5.0980251063499068E-14</v>
       </c>
-      <c r="J16" s="223">
-        <f t="shared" si="1"/>
+      <c r="J16" s="256">
+        <f>(H16*$C$12)</f>
         <v>12000</v>
       </c>
-      <c r="K16" s="223">
+      <c r="K16" s="235">
+        <f>J16+$C$10</f>
+        <v>20000</v>
+      </c>
+      <c r="L16" s="96">
+        <f>$P$3*LN(EXP($F16/$P$3)+EXP($E16/$P$3))*$C$12</f>
+        <v>180000</v>
+      </c>
+      <c r="M16" s="275">
         <f t="shared" si="2"/>
-        <v>20000</v>
-      </c>
-      <c r="L16" s="96">
-        <f>$P$3*LN(EXP($F16/$P$3)+EXP($E16/$P$3))*$G$25</f>
-        <v>180000</v>
-      </c>
-      <c r="M16" s="50">
+        <v>-180000</v>
+      </c>
+      <c r="N16" s="244"/>
+      <c r="P16" s="135">
         <f t="shared" si="3"/>
+        <v>-19</v>
+      </c>
+      <c r="Q16" s="118">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="215">
+        <f t="shared" si="8"/>
         <v>-180000</v>
       </c>
-      <c r="N16" s="228">
-        <f t="shared" si="4"/>
-        <v>180000</v>
-      </c>
-      <c r="P16" s="135">
-        <f t="shared" si="5"/>
-        <v>-19</v>
-      </c>
-      <c r="Q16" s="118">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="215">
+      <c r="T16" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>Sold 19 Shares of State 1 at a cost of -180000</v>
+      </c>
+      <c r="U16" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>-180000</v>
-      </c>
-      <c r="T16" s="7" t="str">
+        <v/>
+      </c>
+      <c r="V16" s="218" t="str">
         <f t="shared" si="11"/>
         <v>Sold 19 Shares of State 1 at a cost of -180000</v>
       </c>
-      <c r="U16" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="V16" s="218" t="str">
-        <f t="shared" si="13"/>
-        <v>Sold 19 Shares of State 1 at a cost of -180000</v>
-      </c>
-    </row>
-    <row r="17" spans="3:23" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:23" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D17" s="26">
         <v>14</v>
       </c>
-      <c r="E17" s="48">
+      <c r="E17" s="274">
         <v>16</v>
       </c>
       <c r="F17" s="42">
         <v>22</v>
       </c>
-      <c r="G17" s="49">
-        <f>EXP(E17/$P$3)/(EXP($F17/$P$3)+EXP($E17/$P$3))</f>
+      <c r="G17" s="261">
+        <f t="shared" si="0"/>
         <v>8.75651076269652E-27</v>
       </c>
-      <c r="H17" s="199">
-        <f>EXP(F17/$P$3)/(EXP($F17/$P$3)+EXP($E17/$P$3))</f>
+      <c r="H17" s="262">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I17" s="48">
-        <f t="shared" si="0"/>
+        <f>(G17*$C$12)</f>
         <v>1.0507812915235824E-22</v>
       </c>
-      <c r="J17" s="223">
-        <f t="shared" si="1"/>
+      <c r="J17" s="256">
+        <f>(H17*$C$12)</f>
         <v>12000</v>
       </c>
-      <c r="K17" s="223">
+      <c r="K17" s="235">
+        <f>J17+$C$10</f>
+        <v>20000</v>
+      </c>
+      <c r="L17" s="96">
+        <f>$P$3*LN(EXP($F17/$P$3)+EXP($E17/$P$3))*$C$12</f>
+        <v>264000</v>
+      </c>
+      <c r="M17" s="275">
         <f t="shared" si="2"/>
-        <v>20000</v>
-      </c>
-      <c r="L17" s="96">
-        <f>$P$3*LN(EXP($F17/$P$3)+EXP($E17/$P$3))*$G$25</f>
-        <v>264000</v>
-      </c>
-      <c r="M17" s="50">
+        <v>84000</v>
+      </c>
+      <c r="N17" s="244"/>
+      <c r="P17" s="135">
         <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="Q17" s="118">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="R17" s="215">
+        <f t="shared" si="8"/>
         <v>84000</v>
       </c>
-      <c r="N17" s="228">
-        <f t="shared" si="4"/>
-        <v>264000</v>
-      </c>
-      <c r="P17" s="135">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="Q17" s="118">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="R17" s="215">
+      <c r="T17" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>Bought 5 Shares of State 1 at a cost of 84000</v>
+      </c>
+      <c r="U17" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>84000</v>
-      </c>
-      <c r="T17" s="7" t="str">
+        <v>Bought 7 Shares of State 2 at a cost of 84000</v>
+      </c>
+      <c r="V17" s="218" t="str">
         <f t="shared" si="11"/>
-        <v>Bought 5 Shares of State 1 at a cost of 84000</v>
-      </c>
-      <c r="U17" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v>Bought 7 Shares of State 2 at a cost of 84000</v>
-      </c>
-      <c r="V17" s="218" t="str">
-        <f t="shared" si="13"/>
         <v>Bought 5 Shares of State 1 at a cost of 84000Bought 7 Shares of State 2 at a cost of 84000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:23" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C18"/>
       <c r="D18" s="26">
         <v>15</v>
       </c>
-      <c r="E18" s="48">
+      <c r="E18" s="274">
         <v>16</v>
       </c>
       <c r="F18" s="42">
         <v>21</v>
       </c>
-      <c r="G18" s="49">
-        <f>EXP(E18/$P$3)/(EXP($F18/$P$3)+EXP($E18/$P$3))</f>
+      <c r="G18" s="261">
+        <f t="shared" si="0"/>
         <v>1.9287498479639178E-22</v>
       </c>
-      <c r="H18" s="199">
-        <f>EXP(F18/$P$3)/(EXP($F18/$P$3)+EXP($E18/$P$3))</f>
+      <c r="H18" s="262">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I18" s="48">
-        <f t="shared" si="0"/>
+        <f>(G18*$C$12)</f>
         <v>2.3144998175567013E-18</v>
       </c>
-      <c r="J18" s="223">
-        <f t="shared" si="1"/>
+      <c r="J18" s="256">
+        <f>(H18*$C$12)</f>
         <v>12000</v>
       </c>
-      <c r="K18" s="223">
+      <c r="K18" s="235">
+        <f>J18+$C$10</f>
+        <v>20000</v>
+      </c>
+      <c r="L18" s="96">
+        <f>$P$3*LN(EXP($F18/$P$3)+EXP($E18/$P$3))*$C$12</f>
+        <v>252000</v>
+      </c>
+      <c r="M18" s="275">
         <f t="shared" si="2"/>
-        <v>20000</v>
-      </c>
-      <c r="L18" s="96">
-        <f>$P$3*LN(EXP($F18/$P$3)+EXP($E18/$P$3))*$G$25</f>
-        <v>252000</v>
-      </c>
-      <c r="M18" s="50">
+        <v>-12000</v>
+      </c>
+      <c r="N18" s="244"/>
+      <c r="P18" s="135">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="118">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="R18" s="215">
+        <f t="shared" si="8"/>
         <v>-12000</v>
       </c>
-      <c r="N18" s="228">
-        <f t="shared" si="4"/>
-        <v>252000</v>
-      </c>
-      <c r="P18" s="135">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="118">
-        <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="R18" s="215">
+      <c r="T18" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="U18" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>-12000</v>
-      </c>
-      <c r="T18" s="7" t="str">
+        <v>Sold 1 Shares of State 2 at a cost of -12000</v>
+      </c>
+      <c r="V18" s="218" t="str">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="U18" s="7" t="str">
-        <f t="shared" si="12"/>
         <v>Sold 1 Shares of State 2 at a cost of -12000</v>
       </c>
-      <c r="V18" s="218" t="str">
-        <f t="shared" si="13"/>
-        <v>Sold 1 Shares of State 2 at a cost of -12000</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" s="7" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="2:23" s="7" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D19" s="26">
         <v>16</v>
       </c>
-      <c r="E19" s="40">
+      <c r="E19" s="276">
         <v>12</v>
       </c>
-      <c r="F19" s="221">
+      <c r="F19" s="41">
         <f>$F$20</f>
         <v>12.070351139496553</v>
       </c>
-      <c r="G19" s="131">
-        <f>EXP(E19/$P$3)/(EXP($F19/$P$3)+EXP($E19/$P$3))</f>
+      <c r="G19" s="263">
+        <f t="shared" si="0"/>
         <v>0.33103416666666818</v>
       </c>
-      <c r="H19" s="200">
-        <f>EXP(F19/$P$3)/(EXP($F19/$P$3)+EXP($E19/$P$3))</f>
+      <c r="H19" s="264">
+        <f t="shared" si="1"/>
         <v>0.66896583333333171</v>
       </c>
       <c r="I19" s="40">
-        <f t="shared" si="0"/>
+        <f>(G19*$C$12)</f>
         <v>3972.410000000018</v>
       </c>
-      <c r="J19" s="224">
-        <f t="shared" si="1"/>
+      <c r="J19" s="257">
+        <f>(H19*$C$12)</f>
         <v>8027.5899999999801</v>
       </c>
-      <c r="K19" s="224">
-        <f t="shared" si="2"/>
+      <c r="K19" s="236">
+        <f>J19+$C$10</f>
         <v>16027.58999999998</v>
       </c>
       <c r="L19" s="133">
-        <f>$P$3*LN(EXP($F19/$P$3)+EXP($E19/$P$3))*$G$25</f>
+        <f>$P$3*LN(EXP($F19/$P$3)+EXP($E19/$P$3))*$C$12</f>
         <v>145326.64042364911</v>
       </c>
-      <c r="M19" s="134">
+      <c r="M19" s="277">
         <f>(L19-L18)</f>
         <v>-106673.35957635089</v>
       </c>
-      <c r="N19" s="228">
+      <c r="N19" s="244"/>
+      <c r="P19" s="143">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+      <c r="Q19" s="120">
         <f t="shared" si="4"/>
-        <v>145326.64042364911</v>
-      </c>
-      <c r="P19" s="143">
+        <v>-8.9296488605034465</v>
+      </c>
+      <c r="R19" s="215">
         <f t="shared" si="5"/>
-        <v>-4</v>
-      </c>
-      <c r="Q19" s="120">
-        <f t="shared" si="6"/>
-        <v>-8.9296488605034465</v>
-      </c>
-      <c r="R19" s="215">
-        <f t="shared" si="7"/>
         <v>-106673.35957635089</v>
       </c>
       <c r="T19" s="7" t="str">
@@ -6072,11 +6582,11 @@
         <v>Sold 8.92964886050345 Shares of State 2 at a cost of -106673.35958</v>
       </c>
       <c r="V19" s="218" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Sold 4 Shares of State 1 at a cost of -106673.35958Sold 8.92964886050345 Shares of State 2 at a cost of -106673.35958</v>
       </c>
     </row>
-    <row r="20" spans="3:23" s="7" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:23" s="7" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D20" s="26" t="s">
         <v>108</v>
       </c>
@@ -6085,46 +6595,45 @@
         <v>12</v>
       </c>
       <c r="F20" s="53">
-        <f>P3*LN(E27/(1-E27))+E20</f>
+        <f>P3*LN(C14/(1-C14))+E20</f>
         <v>12.070351139496553</v>
       </c>
-      <c r="G20" s="54">
+      <c r="G20" s="278">
         <f>EXP(E20)/(EXP($F20)+EXP($E20))</f>
         <v>0.48241946544763248</v>
       </c>
-      <c r="H20" s="201">
+      <c r="H20" s="279">
         <f>EXP(F20)/(EXP($F20)+EXP($E20))</f>
         <v>0.51758053455236752</v>
       </c>
-      <c r="I20" s="52">
-        <f t="shared" si="0"/>
+      <c r="I20" s="137">
+        <f>(G20*$C$12)</f>
         <v>5789.0335853715897</v>
       </c>
-      <c r="J20" s="225">
-        <f t="shared" si="1"/>
+      <c r="J20" s="280">
+        <f>(H20*$C$12)</f>
         <v>6210.9664146284103</v>
       </c>
-      <c r="K20" s="225">
-        <f>J20+$G$23</f>
+      <c r="K20" s="237">
+        <f>J20+$C$10</f>
         <v>14210.96641462841</v>
       </c>
       <c r="L20" s="97">
-        <f>$P$3*LN(EXP($F20/$P$3)+EXP($E20/$P$3))*$G$25</f>
+        <f>$P$3*LN(EXP($F20/$P$3)+EXP($E20/$P$3))*$C$12</f>
         <v>145326.64042364911</v>
       </c>
-      <c r="M20" s="55">
+      <c r="M20" s="281">
         <f>SUM(M10:M19)</f>
         <v>145326.64042364911</v>
       </c>
-      <c r="N20" s="228"/>
-      <c r="O20" s="8" t="s">
-        <v>129</v>
+      <c r="N20" s="8" t="s">
+        <v>128</v>
       </c>
       <c r="U20" s="8"/>
       <c r="V20" s="8"/>
       <c r="W20" s="8"/>
     </row>
-    <row r="21" spans="3:23" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:23" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21" s="34"/>
@@ -6134,58 +6643,45 @@
       <c r="I21" s="34"/>
       <c r="J21" s="34"/>
       <c r="K21" s="34"/>
-      <c r="L21" s="130">
-        <v>0</v>
-      </c>
-      <c r="M21" s="50">
+      <c r="L21" s="164"/>
+      <c r="M21" s="223">
         <f>SUMPRODUCT(E20:F20,I20:J20)</f>
         <v>144436.94856464394</v>
       </c>
-      <c r="O21" t="s">
-        <v>130</v>
+      <c r="N21" t="s">
+        <v>129</v>
       </c>
       <c r="U21"/>
       <c r="V21"/>
       <c r="W21"/>
     </row>
-    <row r="22" spans="3:23" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:23" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E22" s="164"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
       <c r="L22" s="57"/>
-      <c r="M22" s="238">
+      <c r="M22" s="223">
         <f>M20-M21</f>
         <v>889.69185900516459</v>
       </c>
-      <c r="N22" s="228"/>
-      <c r="O22" s="7" t="s">
+      <c r="N22" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="3:23" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="34">
-        <v>0</v>
-      </c>
-      <c r="F23" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="G23" s="34">
-        <v>8000</v>
-      </c>
+    <row r="23" spans="2:23" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="34"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
       <c r="L23" s="57"/>
-      <c r="M23" s="239">
+      <c r="M23" s="224">
         <f>M10-M22</f>
         <v>-57.915242333230253</v>
       </c>
-      <c r="O23" s="58" t="s">
+      <c r="N23" s="58" t="s">
         <v>119</v>
       </c>
       <c r="S23" s="8"/>
@@ -6194,60 +6690,1372 @@
       <c r="V23" s="29"/>
       <c r="W23" s="29"/>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="E24" s="34">
-        <v>1</v>
-      </c>
-      <c r="F24" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="G24" s="34">
-        <v>20000</v>
-      </c>
-      <c r="M24" s="229"/>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="F25" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="G25" s="34">
-        <f>G24-G23</f>
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="E27" s="34">
-        <f>(G27-G23)/(G24-G23)</f>
-        <v>0.66896583333333337</v>
-      </c>
-      <c r="F27" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="G27" s="34">
-        <v>16027.59</v>
-      </c>
-      <c r="I27" s="34" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="E32" s="34" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E33" s="34" t="s">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B24" s="34" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E36" s="34" t="s">
+      <c r="M24" s="221"/>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B25" s="34" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B28" s="34" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="P8:Q8"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AI27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="19" width="11.42578125" style="34" customWidth="1"/>
+    <col min="20" max="21" width="12" style="34" customWidth="1"/>
+    <col min="22" max="22" width="25.7109375" customWidth="1"/>
+    <col min="24" max="24" width="9.42578125" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" customWidth="1"/>
+    <col min="26" max="26" width="10.28515625" customWidth="1"/>
+    <col min="27" max="27" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="0" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="9.42578125" customWidth="1"/>
+    <col min="31" max="31" width="12.140625" customWidth="1"/>
+    <col min="32" max="32" width="10.5703125" customWidth="1"/>
+    <col min="35" max="35" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:35" ht="32.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="219" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="163"/>
+    </row>
+    <row r="3" spans="2:35" ht="21" x14ac:dyDescent="0.35">
+      <c r="B3" s="7"/>
+      <c r="D3" s="163"/>
+      <c r="V3" s="209" t="s">
+        <v>106</v>
+      </c>
+      <c r="W3" s="210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7"/>
+      <c r="V4" s="211" t="s">
+        <v>107</v>
+      </c>
+      <c r="W4" s="212">
+        <f>S10</f>
+        <v>33271.064666877377</v>
+      </c>
+    </row>
+    <row r="5" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B5" s="7"/>
+      <c r="V5" s="222"/>
+      <c r="W5" s="222"/>
+    </row>
+    <row r="6" spans="2:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C6"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="W6" s="27"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6" s="8"/>
+    </row>
+    <row r="7" spans="2:35" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7" s="8"/>
+    </row>
+    <row r="8" spans="2:35" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D8"/>
+      <c r="E8" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="320"/>
+      <c r="Q8" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="R8" s="68"/>
+      <c r="S8" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="U8" s="243"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="225" t="s">
+        <v>109</v>
+      </c>
+      <c r="X8" s="226"/>
+      <c r="Y8" s="216" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="217" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD8" s="20"/>
+    </row>
+    <row r="9" spans="2:35" s="7" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="33"/>
+      <c r="D9" s="136" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="203" t="str">
+        <f>"i="&amp;$I$23&amp;", 0"</f>
+        <v>i=8000, 0</v>
+      </c>
+      <c r="F9" s="207" t="str">
+        <f>"i="&amp;$I$23&amp;", 1"</f>
+        <v>i=8000, 1</v>
+      </c>
+      <c r="G9" s="204" t="str">
+        <f>"i="&amp;$I$24&amp;", 0"</f>
+        <v>i=20000, 0</v>
+      </c>
+      <c r="H9" s="208" t="str">
+        <f>"i="&amp;$I$24&amp;", 1"</f>
+        <v>i=20000, 1</v>
+      </c>
+      <c r="I9" s="205" t="str">
+        <f>"i="&amp;$I$23&amp;", 0"</f>
+        <v>i=8000, 0</v>
+      </c>
+      <c r="J9" s="207" t="str">
+        <f>"i="&amp;$I$23&amp;", 1"</f>
+        <v>i=8000, 1</v>
+      </c>
+      <c r="K9" s="204" t="str">
+        <f>"i="&amp;$I$24&amp;", 0"</f>
+        <v>i=20000, 0</v>
+      </c>
+      <c r="L9" s="319" t="str">
+        <f>"i="&amp;$I$24&amp;", 1"</f>
+        <v>i=20000, 1</v>
+      </c>
+      <c r="M9" s="203" t="str">
+        <f>"i="&amp;$I$23&amp;", 0"</f>
+        <v>i=8000, 0</v>
+      </c>
+      <c r="N9" s="207" t="str">
+        <f>"i="&amp;$I$23&amp;", 1"</f>
+        <v>i=8000, 1</v>
+      </c>
+      <c r="O9" s="204" t="str">
+        <f>"i="&amp;$I$24&amp;", 0"</f>
+        <v>i=20000, 0</v>
+      </c>
+      <c r="P9" s="208" t="str">
+        <f>"i="&amp;$I$24&amp;", 1"</f>
+        <v>i=20000, 1</v>
+      </c>
+      <c r="Q9" s="233" t="s">
+        <v>138</v>
+      </c>
+      <c r="R9" s="238" t="s">
+        <v>137</v>
+      </c>
+      <c r="S9" s="43">
+        <v>0</v>
+      </c>
+      <c r="T9" s="44"/>
+      <c r="U9" s="164"/>
+      <c r="W9" s="213" t="str">
+        <f>E9</f>
+        <v>i=8000, 0</v>
+      </c>
+      <c r="X9" s="214" t="str">
+        <f>H9</f>
+        <v>i=20000, 1</v>
+      </c>
+      <c r="AC9"/>
+    </row>
+    <row r="10" spans="2:35" s="7" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="26">
+        <v>1</v>
+      </c>
+      <c r="E10" s="294">
+        <v>0</v>
+      </c>
+      <c r="F10" s="293"/>
+      <c r="G10" s="292"/>
+      <c r="H10" s="291">
+        <v>0</v>
+      </c>
+      <c r="I10" s="290">
+        <f>EXP(E10/$W$3)/(EXP($E10/$W$3)+EXP($F10/$W$3)+EXP($G10/$W$3)+EXP($H10/$W$3))</f>
+        <v>0.25</v>
+      </c>
+      <c r="J10" s="289">
+        <f>EXP(F10/$W$3)/(EXP($E10/$W$3)+EXP($F10/$W$3)+EXP($G10/$W$3)+EXP($H10/$W$3))</f>
+        <v>0.25</v>
+      </c>
+      <c r="K10" s="288">
+        <f>EXP(G10/$W$3)/(EXP($E10/$W$3)+EXP($F10/$W$3)+EXP($G10/$W$3)+EXP($H10/$W$3))</f>
+        <v>0.25</v>
+      </c>
+      <c r="L10" s="287">
+        <f>EXP(H10/$W$3)/(EXP($E10/$W$3)+EXP($F10/$W$3)+EXP($G10/$W$3)+EXP($H10/$W$3))</f>
+        <v>0.25</v>
+      </c>
+      <c r="M10" s="318">
+        <f>(I10*$I$25)</f>
+        <v>3000</v>
+      </c>
+      <c r="N10" s="317">
+        <f>(J10*$I$25)</f>
+        <v>3000</v>
+      </c>
+      <c r="O10" s="316">
+        <f>(K10*$I$25)</f>
+        <v>3000</v>
+      </c>
+      <c r="P10" s="315">
+        <f>(L10*$I$25)</f>
+        <v>3000</v>
+      </c>
+      <c r="Q10" s="234">
+        <f>O10+$I$23</f>
+        <v>11000</v>
+      </c>
+      <c r="R10" s="239">
+        <f>P10+$I$23</f>
+        <v>11000</v>
+      </c>
+      <c r="S10" s="95">
+        <f>$W$3*$I$25*LN(EXP($E10/$W$3) + EXP($F10/$W$3) + EXP($G10/$W$3) +EXP($H10/$W$3) )</f>
+        <v>33271.064666877377</v>
+      </c>
+      <c r="T10" s="47">
+        <f>(S10-S9)</f>
+        <v>33271.064666877377</v>
+      </c>
+      <c r="U10" s="244"/>
+      <c r="W10" s="135"/>
+      <c r="X10" s="118"/>
+      <c r="AC10"/>
+      <c r="AI10" s="220"/>
+    </row>
+    <row r="11" spans="2:35" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D11" s="26">
+        <v>2</v>
+      </c>
+      <c r="E11" s="314">
+        <v>1</v>
+      </c>
+      <c r="F11" s="313">
+        <v>1</v>
+      </c>
+      <c r="G11" s="312">
+        <v>1</v>
+      </c>
+      <c r="H11" s="311">
+        <v>1</v>
+      </c>
+      <c r="I11" s="310">
+        <f>EXP(E11/$W$3)/(EXP($E11/$W$3)+EXP($F11/$W$3)+EXP($G11/$W$3)+EXP($H11/$W$3))</f>
+        <v>0.25</v>
+      </c>
+      <c r="J11" s="309">
+        <f>EXP(F11/$W$3)/(EXP($E11/$W$3)+EXP($F11/$W$3)+EXP($G11/$W$3)+EXP($H11/$W$3))</f>
+        <v>0.25</v>
+      </c>
+      <c r="K11" s="308">
+        <f>EXP(G11/$W$3)/(EXP($E11/$W$3)+EXP($F11/$W$3)+EXP($G11/$W$3)+EXP($H11/$W$3))</f>
+        <v>0.25</v>
+      </c>
+      <c r="L11" s="307">
+        <f>EXP(H11/$W$3)/(EXP($E11/$W$3)+EXP($F11/$W$3)+EXP($G11/$W$3)+EXP($H11/$W$3))</f>
+        <v>0.25</v>
+      </c>
+      <c r="M11" s="298">
+        <f>(I11*$I$25)</f>
+        <v>3000</v>
+      </c>
+      <c r="N11" s="297">
+        <f>(J11*$I$25)</f>
+        <v>3000</v>
+      </c>
+      <c r="O11" s="296">
+        <f>(K11*$I$25)</f>
+        <v>3000</v>
+      </c>
+      <c r="P11" s="295">
+        <f>(L11*$I$25)</f>
+        <v>3000</v>
+      </c>
+      <c r="Q11" s="235">
+        <f>O11+$I$23</f>
+        <v>11000</v>
+      </c>
+      <c r="R11" s="240">
+        <f>P11+$I$23</f>
+        <v>11000</v>
+      </c>
+      <c r="S11" s="96">
+        <f>$W$3*$I$25*LN(EXP($E11/$W$3) + EXP($F11/$W$3) + EXP($G11/$W$3) +EXP($H11/$W$3) )</f>
+        <v>45271.064666877377</v>
+      </c>
+      <c r="T11" s="50">
+        <f>(S11-S10)</f>
+        <v>12000</v>
+      </c>
+      <c r="U11" s="244"/>
+      <c r="W11" s="135">
+        <f>E11-E10</f>
+        <v>1</v>
+      </c>
+      <c r="X11" s="118">
+        <f>H11-H10</f>
+        <v>1</v>
+      </c>
+      <c r="Y11" s="215">
+        <f>T11</f>
+        <v>12000</v>
+      </c>
+      <c r="AA11" s="7" t="str">
+        <f>IF(W11&gt;0,"Bought ",IF(W11&lt;0,"Sold ",""))&amp;IF(W11&lt;0,W11*-1,IF(W11&gt;0,W11,""))&amp;IF(W11&lt;&gt;0," Shares of State 1 at a cost of "&amp;ROUND($Y11,5),"")</f>
+        <v>Bought 1 Shares of State 1 at a cost of 12000</v>
+      </c>
+      <c r="AB11" s="7" t="str">
+        <f>IF(X11&gt;0,"Bought ",IF(X11&lt;0,"Sold ",""))&amp;IF(X11&lt;0,X11*-1,IF(X11&gt;0,X11,""))&amp;IF(X11&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($Y11,5),"")</f>
+        <v>Bought 1 Shares of State 2 at a cost of 12000</v>
+      </c>
+      <c r="AC11" s="218" t="str">
+        <f>AA11&amp;AB11</f>
+        <v>Bought 1 Shares of State 1 at a cost of 12000Bought 1 Shares of State 2 at a cost of 12000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:35" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C12" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="26">
+        <v>3</v>
+      </c>
+      <c r="E12" s="314">
+        <v>1</v>
+      </c>
+      <c r="F12" s="313">
+        <v>2</v>
+      </c>
+      <c r="G12" s="312">
+        <v>1</v>
+      </c>
+      <c r="H12" s="311">
+        <v>2</v>
+      </c>
+      <c r="I12" s="310">
+        <f>EXP(E12/$W$3)/(EXP($E12/$W$3)+EXP($F12/$W$3)+EXP($G12/$W$3)+EXP($H12/$W$3))</f>
+        <v>0.1887703343990727</v>
+      </c>
+      <c r="J12" s="309">
+        <f>EXP(F12/$W$3)/(EXP($E12/$W$3)+EXP($F12/$W$3)+EXP($G12/$W$3)+EXP($H12/$W$3))</f>
+        <v>0.31122966560092724</v>
+      </c>
+      <c r="K12" s="308">
+        <f>EXP(G12/$W$3)/(EXP($E12/$W$3)+EXP($F12/$W$3)+EXP($G12/$W$3)+EXP($H12/$W$3))</f>
+        <v>0.1887703343990727</v>
+      </c>
+      <c r="L12" s="307">
+        <f>EXP(H12/$W$3)/(EXP($E12/$W$3)+EXP($F12/$W$3)+EXP($G12/$W$3)+EXP($H12/$W$3))</f>
+        <v>0.31122966560092724</v>
+      </c>
+      <c r="M12" s="298">
+        <f>(I12*$I$25)</f>
+        <v>2265.2440127888726</v>
+      </c>
+      <c r="N12" s="297">
+        <f>(J12*$I$25)</f>
+        <v>3734.7559872111269</v>
+      </c>
+      <c r="O12" s="296">
+        <f>(K12*$I$25)</f>
+        <v>2265.2440127888726</v>
+      </c>
+      <c r="P12" s="295">
+        <f>(L12*$I$25)</f>
+        <v>3734.7559872111269</v>
+      </c>
+      <c r="Q12" s="235">
+        <f>O12+$I$23</f>
+        <v>10265.244012788873</v>
+      </c>
+      <c r="R12" s="240">
+        <f>P12+$I$23</f>
+        <v>11734.755987211127</v>
+      </c>
+      <c r="S12" s="96">
+        <f>$W$3*$I$25*LN(EXP($E12/$W$3) + EXP($F12/$W$3) + EXP($G12/$W$3) +EXP($H12/$W$3) )</f>
+        <v>52013.379953761243</v>
+      </c>
+      <c r="T12" s="50">
+        <f>(S12-S11)</f>
+        <v>6742.3152868838661</v>
+      </c>
+      <c r="U12" s="244"/>
+      <c r="W12" s="135">
+        <f>E12-E11</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="118">
+        <f>H12-H11</f>
+        <v>1</v>
+      </c>
+      <c r="Y12" s="215">
+        <f>T12</f>
+        <v>6742.3152868838661</v>
+      </c>
+      <c r="AA12" s="7" t="str">
+        <f>IF(W12&gt;0,"Bought ",IF(W12&lt;0,"Sold ",""))&amp;IF(W12&lt;0,W12*-1,IF(W12&gt;0,W12,""))&amp;IF(W12&lt;&gt;0," Shares of State 1 at a cost of "&amp;ROUND($Y12,5),"")</f>
+        <v/>
+      </c>
+      <c r="AB12" s="7" t="str">
+        <f>IF(X12&gt;0,"Bought ",IF(X12&lt;0,"Sold ",""))&amp;IF(X12&lt;0,X12*-1,IF(X12&gt;0,X12,""))&amp;IF(X12&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($Y12,5),"")</f>
+        <v>Bought 1 Shares of State 2 at a cost of 6742.31529</v>
+      </c>
+      <c r="AC12" s="218" t="str">
+        <f>AA12&amp;AB12</f>
+        <v>Bought 1 Shares of State 2 at a cost of 6742.31529</v>
+      </c>
+    </row>
+    <row r="13" spans="2:35" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C13" s="21"/>
+      <c r="D13" s="26">
+        <v>4</v>
+      </c>
+      <c r="E13" s="314">
+        <v>1</v>
+      </c>
+      <c r="F13" s="313">
+        <v>2</v>
+      </c>
+      <c r="G13" s="312">
+        <v>1</v>
+      </c>
+      <c r="H13" s="311">
+        <v>2</v>
+      </c>
+      <c r="I13" s="310">
+        <f>EXP(E13/$W$3)/(EXP($E13/$W$3)+EXP($F13/$W$3)+EXP($G13/$W$3)+EXP($H13/$W$3))</f>
+        <v>0.1887703343990727</v>
+      </c>
+      <c r="J13" s="309">
+        <f>EXP(F13/$W$3)/(EXP($E13/$W$3)+EXP($F13/$W$3)+EXP($G13/$W$3)+EXP($H13/$W$3))</f>
+        <v>0.31122966560092724</v>
+      </c>
+      <c r="K13" s="308">
+        <f>EXP(G13/$W$3)/(EXP($E13/$W$3)+EXP($F13/$W$3)+EXP($G13/$W$3)+EXP($H13/$W$3))</f>
+        <v>0.1887703343990727</v>
+      </c>
+      <c r="L13" s="307">
+        <f>EXP(H13/$W$3)/(EXP($E13/$W$3)+EXP($F13/$W$3)+EXP($G13/$W$3)+EXP($H13/$W$3))</f>
+        <v>0.31122966560092724</v>
+      </c>
+      <c r="M13" s="298">
+        <f>(I13*$I$25)</f>
+        <v>2265.2440127888726</v>
+      </c>
+      <c r="N13" s="297">
+        <f>(J13*$I$25)</f>
+        <v>3734.7559872111269</v>
+      </c>
+      <c r="O13" s="296">
+        <f>(K13*$I$25)</f>
+        <v>2265.2440127888726</v>
+      </c>
+      <c r="P13" s="295">
+        <f>(L13*$I$25)</f>
+        <v>3734.7559872111269</v>
+      </c>
+      <c r="Q13" s="235">
+        <f>O13+$I$23</f>
+        <v>10265.244012788873</v>
+      </c>
+      <c r="R13" s="240">
+        <f>P13+$I$23</f>
+        <v>11734.755987211127</v>
+      </c>
+      <c r="S13" s="96">
+        <f>$W$3*$I$25*LN(EXP($E13/$W$3) + EXP($F13/$W$3) + EXP($G13/$W$3) +EXP($H13/$W$3) )</f>
+        <v>52013.379953761243</v>
+      </c>
+      <c r="T13" s="50">
+        <f>(S13-S12)</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="244"/>
+      <c r="W13" s="135">
+        <f>E13-E12</f>
+        <v>0</v>
+      </c>
+      <c r="X13" s="118">
+        <f>H13-H12</f>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="215">
+        <f>T13</f>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="7" t="str">
+        <f>IF(W13&gt;0,"Bought ",IF(W13&lt;0,"Sold ",""))&amp;IF(W13&lt;0,W13*-1,IF(W13&gt;0,W13,""))&amp;IF(W13&lt;&gt;0," Shares of State 1 at a cost of "&amp;ROUND($Y13,5),"")</f>
+        <v/>
+      </c>
+      <c r="AB13" s="7" t="str">
+        <f>IF(X13&gt;0,"Bought ",IF(X13&lt;0,"Sold ",""))&amp;IF(X13&lt;0,X13*-1,IF(X13&gt;0,X13,""))&amp;IF(X13&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($Y13,5),"")</f>
+        <v/>
+      </c>
+      <c r="AC13" s="218" t="str">
+        <f>AA13&amp;AB13</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="2:35" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C14" s="21"/>
+      <c r="D14" s="26">
+        <v>5</v>
+      </c>
+      <c r="E14" s="314">
+        <v>1</v>
+      </c>
+      <c r="F14" s="313">
+        <v>2</v>
+      </c>
+      <c r="G14" s="312">
+        <v>1</v>
+      </c>
+      <c r="H14" s="311">
+        <v>2</v>
+      </c>
+      <c r="I14" s="310">
+        <f>EXP(E14/$W$3)/(EXP($E14/$W$3)+EXP($F14/$W$3)+EXP($G14/$W$3)+EXP($H14/$W$3))</f>
+        <v>0.1887703343990727</v>
+      </c>
+      <c r="J14" s="309">
+        <f>EXP(F14/$W$3)/(EXP($E14/$W$3)+EXP($F14/$W$3)+EXP($G14/$W$3)+EXP($H14/$W$3))</f>
+        <v>0.31122966560092724</v>
+      </c>
+      <c r="K14" s="308">
+        <f>EXP(G14/$W$3)/(EXP($E14/$W$3)+EXP($F14/$W$3)+EXP($G14/$W$3)+EXP($H14/$W$3))</f>
+        <v>0.1887703343990727</v>
+      </c>
+      <c r="L14" s="307">
+        <f>EXP(H14/$W$3)/(EXP($E14/$W$3)+EXP($F14/$W$3)+EXP($G14/$W$3)+EXP($H14/$W$3))</f>
+        <v>0.31122966560092724</v>
+      </c>
+      <c r="M14" s="298">
+        <f>(I14*$I$25)</f>
+        <v>2265.2440127888726</v>
+      </c>
+      <c r="N14" s="297">
+        <f>(J14*$I$25)</f>
+        <v>3734.7559872111269</v>
+      </c>
+      <c r="O14" s="296">
+        <f>(K14*$I$25)</f>
+        <v>2265.2440127888726</v>
+      </c>
+      <c r="P14" s="295">
+        <f>(L14*$I$25)</f>
+        <v>3734.7559872111269</v>
+      </c>
+      <c r="Q14" s="235">
+        <f>O14+$I$23</f>
+        <v>10265.244012788873</v>
+      </c>
+      <c r="R14" s="240">
+        <f>P14+$I$23</f>
+        <v>11734.755987211127</v>
+      </c>
+      <c r="S14" s="96">
+        <f>$W$3*$I$25*LN(EXP($E14/$W$3) + EXP($F14/$W$3) + EXP($G14/$W$3) +EXP($H14/$W$3) )</f>
+        <v>52013.379953761243</v>
+      </c>
+      <c r="T14" s="50">
+        <f>(S14-S13)</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="244"/>
+      <c r="W14" s="135">
+        <f>E14-E13</f>
+        <v>0</v>
+      </c>
+      <c r="X14" s="118">
+        <f>H14-H13</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="215">
+        <f>T14</f>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="7" t="str">
+        <f>IF(W14&gt;0,"Bought ",IF(W14&lt;0,"Sold ",""))&amp;IF(W14&lt;0,W14*-1,IF(W14&gt;0,W14,""))&amp;IF(W14&lt;&gt;0," Shares of State 1 at a cost of "&amp;ROUND($Y14,5),"")</f>
+        <v/>
+      </c>
+      <c r="AB14" s="7" t="str">
+        <f>IF(X14&gt;0,"Bought ",IF(X14&lt;0,"Sold ",""))&amp;IF(X14&lt;0,X14*-1,IF(X14&gt;0,X14,""))&amp;IF(X14&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($Y14,5),"")</f>
+        <v/>
+      </c>
+      <c r="AC14" s="218" t="str">
+        <f>AA14&amp;AB14</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="2:35" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C15" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="26">
+        <v>12</v>
+      </c>
+      <c r="E15" s="314">
+        <v>1</v>
+      </c>
+      <c r="F15" s="313">
+        <v>1.8</v>
+      </c>
+      <c r="G15" s="312">
+        <v>1.5</v>
+      </c>
+      <c r="H15" s="311">
+        <v>2</v>
+      </c>
+      <c r="I15" s="310">
+        <f>EXP(E15/$W$3)/(EXP($E15/$W$3)+EXP($F15/$W$3)+EXP($G15/$W$3)+EXP($H15/$W$3))</f>
+        <v>0.18434636195586318</v>
+      </c>
+      <c r="J15" s="309">
+        <f>EXP(F15/$W$3)/(EXP($E15/$W$3)+EXP($F15/$W$3)+EXP($G15/$W$3)+EXP($H15/$W$3))</f>
+        <v>0.2750124556860738</v>
+      </c>
+      <c r="K15" s="308">
+        <f>EXP(G15/$W$3)/(EXP($E15/$W$3)+EXP($F15/$W$3)+EXP($G15/$W$3)+EXP($H15/$W$3))</f>
+        <v>0.23670541422524646</v>
+      </c>
+      <c r="L15" s="307">
+        <f>EXP(H15/$W$3)/(EXP($E15/$W$3)+EXP($F15/$W$3)+EXP($G15/$W$3)+EXP($H15/$W$3))</f>
+        <v>0.30393576813281648</v>
+      </c>
+      <c r="M15" s="298">
+        <f>(I15*$I$25)</f>
+        <v>2212.156343470358</v>
+      </c>
+      <c r="N15" s="297">
+        <f>(J15*$I$25)</f>
+        <v>3300.1494682328857</v>
+      </c>
+      <c r="O15" s="296">
+        <f>(K15*$I$25)</f>
+        <v>2840.4649707029575</v>
+      </c>
+      <c r="P15" s="295">
+        <f>(L15*$I$25)</f>
+        <v>3647.2292175937978</v>
+      </c>
+      <c r="Q15" s="235">
+        <f>O15+$I$23</f>
+        <v>10840.464970702957</v>
+      </c>
+      <c r="R15" s="240">
+        <f>P15+$I$23</f>
+        <v>11647.229217593798</v>
+      </c>
+      <c r="S15" s="96">
+        <f>$W$3*$I$25*LN(EXP($E15/$W$3) + EXP($F15/$W$3) + EXP($G15/$W$3) +EXP($H15/$W$3) )</f>
+        <v>52582.533334497028</v>
+      </c>
+      <c r="T15" s="50">
+        <f>(S15-S14)</f>
+        <v>569.15338073578459</v>
+      </c>
+      <c r="U15" s="244"/>
+      <c r="W15" s="135">
+        <f>E15-E14</f>
+        <v>0</v>
+      </c>
+      <c r="X15" s="118">
+        <f>H15-H14</f>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="215">
+        <f>T15</f>
+        <v>569.15338073578459</v>
+      </c>
+      <c r="AA15" s="7" t="str">
+        <f>IF(W15&gt;0,"Bought ",IF(W15&lt;0,"Sold ",""))&amp;IF(W15&lt;0,W15*-1,IF(W15&gt;0,W15,""))&amp;IF(W15&lt;&gt;0," Shares of State 1 at a cost of "&amp;ROUND($Y15,5),"")</f>
+        <v/>
+      </c>
+      <c r="AB15" s="7" t="str">
+        <f>IF(X15&gt;0,"Bought ",IF(X15&lt;0,"Sold ",""))&amp;IF(X15&lt;0,X15*-1,IF(X15&gt;0,X15,""))&amp;IF(X15&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($Y15,5),"")</f>
+        <v/>
+      </c>
+      <c r="AC15" s="218" t="str">
+        <f>AA15&amp;AB15</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:35" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C16" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="26">
+        <v>13</v>
+      </c>
+      <c r="E16" s="314">
+        <v>1</v>
+      </c>
+      <c r="F16" s="313">
+        <v>1.6</v>
+      </c>
+      <c r="G16" s="312">
+        <v>2</v>
+      </c>
+      <c r="H16" s="311">
+        <v>2</v>
+      </c>
+      <c r="I16" s="310">
+        <f>EXP(E16/$W$3)/(EXP($E16/$W$3)+EXP($F16/$W$3)+EXP($G16/$W$3)+EXP($H16/$W$3))</f>
+        <v>0.17707572842403385</v>
+      </c>
+      <c r="J16" s="309">
+        <f>EXP(F16/$W$3)/(EXP($E16/$W$3)+EXP($F16/$W$3)+EXP($G16/$W$3)+EXP($H16/$W$3))</f>
+        <v>0.2390272316211185</v>
+      </c>
+      <c r="K16" s="308">
+        <f>EXP(G16/$W$3)/(EXP($E16/$W$3)+EXP($F16/$W$3)+EXP($G16/$W$3)+EXP($H16/$W$3))</f>
+        <v>0.29194851997742383</v>
+      </c>
+      <c r="L16" s="307">
+        <f>EXP(H16/$W$3)/(EXP($E16/$W$3)+EXP($F16/$W$3)+EXP($G16/$W$3)+EXP($H16/$W$3))</f>
+        <v>0.29194851997742383</v>
+      </c>
+      <c r="M16" s="298">
+        <f>(I16*$I$25)</f>
+        <v>2124.9087410884063</v>
+      </c>
+      <c r="N16" s="297">
+        <f>(J16*$I$25)</f>
+        <v>2868.3267794534218</v>
+      </c>
+      <c r="O16" s="296">
+        <f>(K16*$I$25)</f>
+        <v>3503.382239729086</v>
+      </c>
+      <c r="P16" s="295">
+        <f>(L16*$I$25)</f>
+        <v>3503.382239729086</v>
+      </c>
+      <c r="Q16" s="235">
+        <f>O16+$I$23</f>
+        <v>11503.382239729086</v>
+      </c>
+      <c r="R16" s="240">
+        <f>P16+$I$23</f>
+        <v>11503.382239729086</v>
+      </c>
+      <c r="S16" s="96">
+        <f>$W$3*$I$25*LN(EXP($E16/$W$3) + EXP($F16/$W$3) + EXP($G16/$W$3) +EXP($H16/$W$3) )</f>
+        <v>53548.267048895061</v>
+      </c>
+      <c r="T16" s="50">
+        <f>(S16-S15)</f>
+        <v>965.73371439803304</v>
+      </c>
+      <c r="U16" s="244"/>
+      <c r="W16" s="135">
+        <f>E16-E15</f>
+        <v>0</v>
+      </c>
+      <c r="X16" s="118">
+        <f>H16-H15</f>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="215">
+        <f>T16</f>
+        <v>965.73371439803304</v>
+      </c>
+      <c r="AA16" s="7" t="str">
+        <f>IF(W16&gt;0,"Bought ",IF(W16&lt;0,"Sold ",""))&amp;IF(W16&lt;0,W16*-1,IF(W16&gt;0,W16,""))&amp;IF(W16&lt;&gt;0," Shares of State 1 at a cost of "&amp;ROUND($Y16,5),"")</f>
+        <v/>
+      </c>
+      <c r="AB16" s="7" t="str">
+        <f>IF(X16&gt;0,"Bought ",IF(X16&lt;0,"Sold ",""))&amp;IF(X16&lt;0,X16*-1,IF(X16&gt;0,X16,""))&amp;IF(X16&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($Y16,5),"")</f>
+        <v/>
+      </c>
+      <c r="AC16" s="218" t="str">
+        <f>AA16&amp;AB16</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="3:30" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C17" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="26">
+        <v>14</v>
+      </c>
+      <c r="E17" s="314">
+        <v>0.3</v>
+      </c>
+      <c r="F17" s="313">
+        <v>1.6</v>
+      </c>
+      <c r="G17" s="312">
+        <v>0.6</v>
+      </c>
+      <c r="H17" s="311">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I17" s="310">
+        <f>EXP(E17/$W$3)/(EXP($E17/$W$3)+EXP($F17/$W$3)+EXP($G17/$W$3)+EXP($H17/$W$3))</f>
+        <v>0.14715280872558315</v>
+      </c>
+      <c r="J17" s="309">
+        <f>EXP(F17/$W$3)/(EXP($E17/$W$3)+EXP($F17/$W$3)+EXP($G17/$W$3)+EXP($H17/$W$3))</f>
+        <v>0.28187721321792686</v>
+      </c>
+      <c r="K17" s="308">
+        <f>EXP(G17/$W$3)/(EXP($E17/$W$3)+EXP($F17/$W$3)+EXP($G17/$W$3)+EXP($H17/$W$3))</f>
+        <v>0.17096717209102782</v>
+      </c>
+      <c r="L17" s="307">
+        <f>EXP(H17/$W$3)/(EXP($E17/$W$3)+EXP($F17/$W$3)+EXP($G17/$W$3)+EXP($H17/$W$3))</f>
+        <v>0.40000280596546228</v>
+      </c>
+      <c r="M17" s="298">
+        <f>(I17*$I$25)</f>
+        <v>1765.8337047069977</v>
+      </c>
+      <c r="N17" s="297">
+        <f>(J17*$I$25)</f>
+        <v>3382.5265586151222</v>
+      </c>
+      <c r="O17" s="296">
+        <f>(K17*$I$25)</f>
+        <v>2051.6060650923341</v>
+      </c>
+      <c r="P17" s="295">
+        <f>(L17*$I$25)</f>
+        <v>4800.0336715855474</v>
+      </c>
+      <c r="Q17" s="235">
+        <f>O17+$I$23</f>
+        <v>10051.606065092334</v>
+      </c>
+      <c r="R17" s="240">
+        <f>P17+$I$23</f>
+        <v>12800.033671585548</v>
+      </c>
+      <c r="S17" s="96">
+        <f>$W$3*$I$25*LN(EXP($E17/$W$3) + EXP($F17/$W$3) + EXP($G17/$W$3) +EXP($H17/$W$3) )</f>
+        <v>49590.809207642487</v>
+      </c>
+      <c r="T17" s="50">
+        <f>(S17-S16)</f>
+        <v>-3957.4578412525734</v>
+      </c>
+      <c r="U17" s="244"/>
+      <c r="W17" s="135">
+        <f>E17-E16</f>
+        <v>-0.7</v>
+      </c>
+      <c r="X17" s="118">
+        <f>H17-H16</f>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="Y17" s="215">
+        <f>T17</f>
+        <v>-3957.4578412525734</v>
+      </c>
+      <c r="AA17" s="7" t="str">
+        <f>IF(W17&gt;0,"Bought ",IF(W17&lt;0,"Sold ",""))&amp;IF(W17&lt;0,W17*-1,IF(W17&gt;0,W17,""))&amp;IF(W17&lt;&gt;0," Shares of State 1 at a cost of "&amp;ROUND($Y17,5),"")</f>
+        <v>Sold 0.7 Shares of State 1 at a cost of -3957.45784</v>
+      </c>
+      <c r="AB17" s="7" t="str">
+        <f>IF(X17&gt;0,"Bought ",IF(X17&lt;0,"Sold ",""))&amp;IF(X17&lt;0,X17*-1,IF(X17&gt;0,X17,""))&amp;IF(X17&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($Y17,5),"")</f>
+        <v>Bought 0.3 Shares of State 2 at a cost of -3957.45784</v>
+      </c>
+      <c r="AC17" s="218" t="str">
+        <f>AA17&amp;AB17</f>
+        <v>Sold 0.7 Shares of State 1 at a cost of -3957.45784Bought 0.3 Shares of State 2 at a cost of -3957.45784</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C18" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="26">
+        <v>15</v>
+      </c>
+      <c r="E18" s="314">
+        <v>0.1</v>
+      </c>
+      <c r="F18" s="313">
+        <v>1.6</v>
+      </c>
+      <c r="G18" s="312">
+        <v>0.2</v>
+      </c>
+      <c r="H18" s="311">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I18" s="310">
+        <f>EXP(E18/$W$3)/(EXP($E18/$W$3)+EXP($F18/$W$3)+EXP($G18/$W$3)+EXP($H18/$W$3))</f>
+        <v>0.13942262314860973</v>
+      </c>
+      <c r="J18" s="309">
+        <f>EXP(F18/$W$3)/(EXP($E18/$W$3)+EXP($F18/$W$3)+EXP($G18/$W$3)+EXP($H18/$W$3))</f>
+        <v>0.2951576955217895</v>
+      </c>
+      <c r="K18" s="308">
+        <f>EXP(G18/$W$3)/(EXP($E18/$W$3)+EXP($F18/$W$3)+EXP($G18/$W$3)+EXP($H18/$W$3))</f>
+        <v>0.14657097389706017</v>
+      </c>
+      <c r="L18" s="307">
+        <f>EXP(H18/$W$3)/(EXP($E18/$W$3)+EXP($F18/$W$3)+EXP($G18/$W$3)+EXP($H18/$W$3))</f>
+        <v>0.41884870743254071</v>
+      </c>
+      <c r="M18" s="298">
+        <f>(I18*$I$25)</f>
+        <v>1673.0714777833168</v>
+      </c>
+      <c r="N18" s="297">
+        <f>(J18*$I$25)</f>
+        <v>3541.8923462614739</v>
+      </c>
+      <c r="O18" s="296">
+        <f>(K18*$I$25)</f>
+        <v>1758.851686764722</v>
+      </c>
+      <c r="P18" s="295">
+        <f>(L18*$I$25)</f>
+        <v>5026.1844891904884</v>
+      </c>
+      <c r="Q18" s="235">
+        <f>O18+$I$23</f>
+        <v>9758.8516867647213</v>
+      </c>
+      <c r="R18" s="240">
+        <f>P18+$I$23</f>
+        <v>13026.184489190488</v>
+      </c>
+      <c r="S18" s="96">
+        <f>$W$3*$I$25*LN(EXP($E18/$W$3) + EXP($F18/$W$3) + EXP($G18/$W$3) +EXP($H18/$W$3) )</f>
+        <v>48485.892105081315</v>
+      </c>
+      <c r="T18" s="50">
+        <f>(S18-S17)</f>
+        <v>-1104.9171025611722</v>
+      </c>
+      <c r="U18" s="244"/>
+      <c r="W18" s="135">
+        <f>E18-E17</f>
+        <v>-0.19999999999999998</v>
+      </c>
+      <c r="X18" s="118">
+        <f>H18-H17</f>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="215">
+        <f>T18</f>
+        <v>-1104.9171025611722</v>
+      </c>
+      <c r="AA18" s="7" t="str">
+        <f>IF(W18&gt;0,"Bought ",IF(W18&lt;0,"Sold ",""))&amp;IF(W18&lt;0,W18*-1,IF(W18&gt;0,W18,""))&amp;IF(W18&lt;&gt;0," Shares of State 1 at a cost of "&amp;ROUND($Y18,5),"")</f>
+        <v>Sold 0.2 Shares of State 1 at a cost of -1104.9171</v>
+      </c>
+      <c r="AB18" s="7" t="str">
+        <f>IF(X18&gt;0,"Bought ",IF(X18&lt;0,"Sold ",""))&amp;IF(X18&lt;0,X18*-1,IF(X18&gt;0,X18,""))&amp;IF(X18&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($Y18,5),"")</f>
+        <v/>
+      </c>
+      <c r="AC18" s="218" t="str">
+        <f>AA18&amp;AB18</f>
+        <v>Sold 0.2 Shares of State 1 at a cost of -1104.9171</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" s="7" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="166" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="26">
+        <v>16</v>
+      </c>
+      <c r="E19" s="306">
+        <v>0</v>
+      </c>
+      <c r="F19" s="305">
+        <v>8</v>
+      </c>
+      <c r="G19" s="304">
+        <v>0</v>
+      </c>
+      <c r="H19" s="303">
+        <v>9.41</v>
+      </c>
+      <c r="I19" s="302">
+        <f>EXP(E19/$W$3)/(EXP($E19/$W$3)+EXP($F19/$W$3)+EXP($G19/$W$3)+EXP($H19/$W$3))</f>
+        <v>5.9845681334613982E-3</v>
+      </c>
+      <c r="J19" s="301">
+        <f>EXP(F19/$W$3)/(EXP($E19/$W$3)+EXP($F19/$W$3)+EXP($G19/$W$3)+EXP($H19/$W$3))</f>
+        <v>0.32674634883429937</v>
+      </c>
+      <c r="K19" s="300">
+        <f>EXP(G19/$W$3)/(EXP($E19/$W$3)+EXP($F19/$W$3)+EXP($G19/$W$3)+EXP($H19/$W$3))</f>
+        <v>5.9845681334613982E-3</v>
+      </c>
+      <c r="L19" s="299">
+        <f>EXP(H19/$W$3)/(EXP($E19/$W$3)+EXP($F19/$W$3)+EXP($G19/$W$3)+EXP($H19/$W$3))</f>
+        <v>0.66128451489877782</v>
+      </c>
+      <c r="M19" s="298">
+        <f>(I19*$I$25)</f>
+        <v>71.814817601536774</v>
+      </c>
+      <c r="N19" s="297">
+        <f>(J19*$I$25)</f>
+        <v>3920.9561860115923</v>
+      </c>
+      <c r="O19" s="296">
+        <f>(K19*$I$25)</f>
+        <v>71.814817601536774</v>
+      </c>
+      <c r="P19" s="295">
+        <f>(L19*$I$25)</f>
+        <v>7935.4141787853341</v>
+      </c>
+      <c r="Q19" s="236">
+        <f>O19+$I$23</f>
+        <v>8071.8148176015366</v>
+      </c>
+      <c r="R19" s="241">
+        <f>P19+$I$23</f>
+        <v>15935.414178785333</v>
+      </c>
+      <c r="S19" s="133">
+        <f>$W$3*$I$25*LN(EXP($E19/$W$3) + EXP($F19/$W$3) + EXP($G19/$W$3) +EXP($H19/$W$3) )</f>
+        <v>122845.70641746093</v>
+      </c>
+      <c r="T19" s="134">
+        <f>(S19-S18)</f>
+        <v>74359.814312379604</v>
+      </c>
+      <c r="U19" s="244"/>
+      <c r="W19" s="143">
+        <f>E19-E18</f>
+        <v>-0.1</v>
+      </c>
+      <c r="X19" s="120">
+        <f>H19-H18</f>
+        <v>7.11</v>
+      </c>
+      <c r="Y19" s="215">
+        <f>T19</f>
+        <v>74359.814312379604</v>
+      </c>
+      <c r="AA19" s="7" t="str">
+        <f>IF(W19&gt;0,"Bought ",IF(W19&lt;0,"Sold ",""))&amp;IF(W19&lt;0,W19*-1,IF(W19&gt;0,W19,""))&amp;IF(W19&lt;&gt;0," Shares of State 1 at a cost of "&amp;ROUND($Y19,5),"")</f>
+        <v>Sold 0.1 Shares of State 1 at a cost of 74359.81431</v>
+      </c>
+      <c r="AB19" s="7" t="str">
+        <f>IF(X19&gt;0,"Bought ",IF(X19&lt;0,"Sold ",""))&amp;IF(X19&lt;0,X19*-1,IF(X19&gt;0,X19,""))&amp;IF(X19&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($Y19,5),"")</f>
+        <v>Bought 7.11 Shares of State 2 at a cost of 74359.81431</v>
+      </c>
+      <c r="AC19" s="218" t="str">
+        <f>AA19&amp;AB19</f>
+        <v>Sold 0.1 Shares of State 1 at a cost of 74359.81431Bought 7.11 Shares of State 2 at a cost of 74359.81431</v>
+      </c>
+    </row>
+    <row r="20" spans="3:30" s="7" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="294">
+        <v>0</v>
+      </c>
+      <c r="F20" s="293">
+        <v>8</v>
+      </c>
+      <c r="G20" s="292">
+        <v>0</v>
+      </c>
+      <c r="H20" s="291">
+        <f>W3*LN(G27/(1-G27))+F20</f>
+        <v>9.4070227899310765</v>
+      </c>
+      <c r="I20" s="290">
+        <f>EXP(E20/$W$3)/(EXP($E20/$W$3)+EXP($F20/$W$3)+EXP($G20/$W$3)+EXP($H20/$W$3))</f>
+        <v>5.9904607048654286E-3</v>
+      </c>
+      <c r="J20" s="289">
+        <f>EXP(F20/$W$3)/(EXP($E20/$W$3)+EXP($F20/$W$3)+EXP($G20/$W$3)+EXP($H20/$W$3))</f>
+        <v>0.32706807233189761</v>
+      </c>
+      <c r="K20" s="288">
+        <f>EXP(G20/$W$3)/(EXP($E20/$W$3)+EXP($F20/$W$3)+EXP($G20/$W$3)+EXP($H20/$W$3))</f>
+        <v>5.9904607048654286E-3</v>
+      </c>
+      <c r="L20" s="287">
+        <f>EXP(H20/$W$3)/(EXP($E20/$W$3)+EXP($F20/$W$3)+EXP($G20/$W$3)+EXP($H20/$W$3))</f>
+        <v>0.66095100625837155</v>
+      </c>
+      <c r="M20" s="286">
+        <v>0</v>
+      </c>
+      <c r="N20" s="285">
+        <f>I24-I27</f>
+        <v>3972.41</v>
+      </c>
+      <c r="O20" s="284">
+        <v>0</v>
+      </c>
+      <c r="P20" s="283">
+        <f>I27-I23</f>
+        <v>8027.59</v>
+      </c>
+      <c r="Q20" s="237">
+        <f>O20+$I$23</f>
+        <v>8000</v>
+      </c>
+      <c r="R20" s="242">
+        <f>P20+I23</f>
+        <v>16027.59</v>
+      </c>
+      <c r="S20" s="97">
+        <f>$W$3*$I$25*LN(EXP($E20/$W$3) + EXP($F20/$W$3) + EXP($G20/$W$3) +EXP($H20/$W$3) )</f>
+        <v>122822.08697954217</v>
+      </c>
+      <c r="T20" s="55">
+        <f>SUM(T10:T19)</f>
+        <v>122845.70641746093</v>
+      </c>
+      <c r="U20" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+    </row>
+    <row r="21" spans="3:30" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="130">
+        <v>0</v>
+      </c>
+      <c r="T21" s="50">
+        <f>SUMPRODUCT(E20:H20,M20:P20)</f>
+        <v>107295.00207822281</v>
+      </c>
+      <c r="U21" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
+    </row>
+    <row r="22" spans="3:30" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="164"/>
+      <c r="F22" s="164"/>
+      <c r="G22" s="164"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="282">
+        <f>SUM(M18:P18)</f>
+        <v>12000.000000000002</v>
+      </c>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="57"/>
+      <c r="T22" s="223">
+        <f>T20-T21</f>
+        <v>15550.704339238117</v>
+      </c>
+      <c r="U22" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="34"/>
+      <c r="G23" s="34">
+        <v>0</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="I23" s="34">
+        <v>8000</v>
+      </c>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="282">
+        <f>SUM(M19:P19)</f>
+        <v>12000</v>
+      </c>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="224">
+        <f>T10-T22</f>
+        <v>17720.360327639261</v>
+      </c>
+      <c r="U23" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="29"/>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="G24" s="34">
+        <v>1</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="I24" s="34">
+        <v>20000</v>
+      </c>
+      <c r="P24" s="282">
+        <f>SUM(M20:P20)</f>
+        <v>12000</v>
+      </c>
+      <c r="T24" s="221"/>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="H25" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="I25" s="34">
+        <f>I24-I23</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="G27" s="34">
+        <f>(I27-I23)/(I24-I23)</f>
+        <v>0.66896583333333337</v>
+      </c>
+      <c r="H27" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="I27" s="34">
+        <v>16027.59</v>
+      </c>
+      <c r="K27" s="34" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="W8:X8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6255,7 +8063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AP43"/>
   <sheetViews>
@@ -7517,7 +9325,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:T87"/>
   <sheetViews>
@@ -9762,7 +11570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R74"/>
   <sheetViews>
@@ -12685,7 +14493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U22"/>
   <sheetViews>
@@ -12763,10 +14571,10 @@
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
-      <c r="F4" s="232" t="s">
+      <c r="F4" s="227" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="233"/>
+      <c r="G4" s="228"/>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
@@ -13706,12 +15514,12 @@
       <c r="U21" s="118"/>
     </row>
     <row r="22" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R22" s="234" t="s">
+      <c r="R22" s="229" t="s">
         <v>68</v>
       </c>
-      <c r="S22" s="235"/>
-      <c r="T22" s="235"/>
-      <c r="U22" s="236"/>
+      <c r="S22" s="230"/>
+      <c r="T22" s="230"/>
+      <c r="U22" s="231"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/docs/LogMSR_Demo.xlsx
+++ b/docs/LogMSR_Demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="21075" windowHeight="9975"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="21075" windowHeight="9975" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Simple Example" sheetId="10" r:id="rId1"/>
@@ -385,9 +385,6 @@
     <t>If probabilities increase toward 100%, this amount is used. A higher b allows this number to increase higher before reaching 100%.</t>
   </si>
   <si>
-    <t>Post-Hoc Net Cost - This cost will be lowest when the outcome is more central (ie far from both extremes).</t>
-  </si>
-  <si>
     <t>Targeting Calculator - Use this to "make a trade such that i=0,0 is at this price"</t>
   </si>
   <si>
@@ -634,6 +631,9 @@
   </si>
   <si>
     <t>cumulative scales</t>
+  </si>
+  <si>
+    <t>Post-Hoc Net Cost - This cost will be lowest when the outcome is more central (ie far from both extremes), and when open interest is high (many outstanding positions might require capital to maintain market-maker, but this capital ends up not being required).</t>
   </si>
 </sst>
 </file>
@@ -2074,6 +2074,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2098,10 +2127,49 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2176,74 +2244,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2382,11 +2382,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="74860032"/>
-        <c:axId val="77419008"/>
+        <c:axId val="48362624"/>
+        <c:axId val="48364928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74860032"/>
+        <c:axId val="48362624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2395,7 +2395,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77419008"/>
+        <c:crossAx val="48364928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2403,7 +2403,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77419008"/>
+        <c:axId val="48364928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2415,7 +2415,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74860032"/>
+        <c:crossAx val="48362624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2670,11 +2670,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="74859008"/>
-        <c:axId val="77420736"/>
+        <c:axId val="82165760"/>
+        <c:axId val="82167680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74859008"/>
+        <c:axId val="82165760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2683,7 +2683,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77420736"/>
+        <c:crossAx val="82167680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2691,7 +2691,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77420736"/>
+        <c:axId val="82167680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2703,7 +2703,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74859008"/>
+        <c:crossAx val="82165760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2843,11 +2843,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="127211008"/>
-        <c:axId val="128631360"/>
+        <c:axId val="96130560"/>
+        <c:axId val="96132096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="127211008"/>
+        <c:axId val="96130560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2856,7 +2856,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128631360"/>
+        <c:crossAx val="96132096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2864,7 +2864,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128631360"/>
+        <c:axId val="96132096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2875,7 +2875,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127211008"/>
+        <c:crossAx val="96130560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2967,11 +2967,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="127212032"/>
-        <c:axId val="128633664"/>
+        <c:axId val="97975680"/>
+        <c:axId val="106029056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="127212032"/>
+        <c:axId val="97975680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2980,7 +2980,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128633664"/>
+        <c:crossAx val="106029056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2988,7 +2988,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128633664"/>
+        <c:axId val="106029056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3000,7 +3000,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127212032"/>
+        <c:crossAx val="97975680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3095,13 +3095,13 @@
                   <c:v>8000.000024733843</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19999.999975266153</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8000.000024733843</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8000.000024733843</c:v>
+                  <c:v>15742.383254758188</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>16027.59</c:v>
@@ -3121,11 +3121,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="130844160"/>
-        <c:axId val="128635392"/>
+        <c:axId val="125189504"/>
+        <c:axId val="125768832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="130844160"/>
+        <c:axId val="125189504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3134,7 +3134,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128635392"/>
+        <c:crossAx val="125768832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3142,7 +3142,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128635392"/>
+        <c:axId val="125768832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20000"/>
@@ -3155,7 +3155,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130844160"/>
+        <c:crossAx val="125189504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1000"/>
@@ -3208,7 +3208,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3423,11 +3422,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="73675264"/>
-        <c:axId val="128637120"/>
+        <c:axId val="126319232"/>
+        <c:axId val="126333696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73675264"/>
+        <c:axId val="126319232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3436,7 +3435,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128637120"/>
+        <c:crossAx val="126333696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3444,7 +3443,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128637120"/>
+        <c:axId val="126333696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -3457,14 +3456,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73675264"/>
+        <c:crossAx val="126319232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3494,7 +3492,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3571,11 +3568,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="128549376"/>
-        <c:axId val="128327680"/>
+        <c:axId val="47206784"/>
+        <c:axId val="47208320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128549376"/>
+        <c:axId val="47206784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3584,7 +3581,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128327680"/>
+        <c:crossAx val="47208320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3592,7 +3589,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128327680"/>
+        <c:axId val="47208320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3603,14 +3600,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128549376"/>
+        <c:crossAx val="47206784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3640,7 +3636,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3717,11 +3712,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="128550400"/>
-        <c:axId val="128329408"/>
+        <c:axId val="47318912"/>
+        <c:axId val="47320448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128550400"/>
+        <c:axId val="47318912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3730,7 +3725,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128329408"/>
+        <c:crossAx val="47320448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3738,7 +3733,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128329408"/>
+        <c:axId val="47320448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3749,14 +3744,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128550400"/>
+        <c:crossAx val="47318912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3889,11 +3883,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="128552448"/>
-        <c:axId val="128331712"/>
+        <c:axId val="47344256"/>
+        <c:axId val="47358336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128552448"/>
+        <c:axId val="47344256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3902,7 +3896,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128331712"/>
+        <c:crossAx val="47358336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3910,7 +3904,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128331712"/>
+        <c:axId val="47358336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3921,7 +3915,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128552448"/>
+        <c:crossAx val="47344256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3982,15 +3976,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>179297</xdr:colOff>
+      <xdr:colOff>100856</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:rowOff>123264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>78441</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
+      <xdr:rowOff>168088</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4683,7 +4677,7 @@
   </sheetPr>
   <dimension ref="A2:AH53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -4708,7 +4702,7 @@
   <sheetData>
     <row r="2" spans="1:34" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="287" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
@@ -4727,20 +4721,20 @@
       <c r="I3" s="17"/>
       <c r="J3"/>
       <c r="N3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W3" s="33"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="342" t="s">
-        <v>173</v>
+      <c r="B4" s="365" t="s">
+        <v>172</v>
       </c>
       <c r="C4" s="168" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="313" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E4" s="168"/>
       <c r="F4" s="313"/>
@@ -4754,9 +4748,9 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="343"/>
+      <c r="B5" s="366"/>
       <c r="C5" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>3</v>
@@ -4773,9 +4767,9 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="344"/>
+      <c r="B6" s="367"/>
       <c r="C6" s="305" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D6" s="305" t="s">
         <v>2</v>
@@ -4807,17 +4801,17 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="345" t="s">
-        <v>161</v>
+      <c r="B8" s="368" t="s">
+        <v>160</v>
       </c>
       <c r="C8" s="322" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="325" t="s">
         <v>174</v>
       </c>
-      <c r="D8" s="325" t="s">
+      <c r="E8" s="299" t="s">
         <v>175</v>
-      </c>
-      <c r="E8" s="299" t="s">
-        <v>176</v>
       </c>
       <c r="F8" s="299"/>
       <c r="G8" s="196"/>
@@ -4830,15 +4824,15 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="346"/>
+      <c r="B9" s="369"/>
       <c r="C9" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D9" s="302">
         <v>2</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="326"/>
@@ -4854,7 +4848,7 @@
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="346"/>
+      <c r="B10" s="369"/>
       <c r="C10" s="17" t="s">
         <v>5</v>
       </c>
@@ -4862,7 +4856,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="326"/>
@@ -4878,16 +4872,16 @@
     </row>
     <row r="11" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
-      <c r="B11" s="347"/>
+      <c r="B11" s="370"/>
       <c r="C11" s="184" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D11" s="324">
         <f>D10*LN(D9)</f>
         <v>4.8520302639196169</v>
       </c>
       <c r="E11" s="184" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F11" s="184"/>
       <c r="G11" s="197"/>
@@ -4927,21 +4921,21 @@
         <v>12</v>
       </c>
       <c r="F13" s="237"/>
-      <c r="G13" s="382" t="s">
+      <c r="G13" s="348" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="65"/>
       <c r="I13" s="66" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J13" s="286" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K13" s="20"/>
-      <c r="L13" s="348" t="s">
+      <c r="L13" s="371" t="s">
         <v>99</v>
       </c>
-      <c r="M13" s="349"/>
+      <c r="M13" s="372"/>
       <c r="N13" s="201" t="s">
         <v>100</v>
       </c>
@@ -4960,18 +4954,18 @@
         <v>45</v>
       </c>
       <c r="E14" s="295" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="296" t="s">
         <v>141</v>
       </c>
-      <c r="F14" s="296" t="s">
-        <v>142</v>
-      </c>
       <c r="G14" s="192" t="s">
+        <v>140</v>
+      </c>
+      <c r="H14" s="191" t="s">
         <v>141</v>
       </c>
-      <c r="H14" s="191" t="s">
-        <v>142</v>
-      </c>
-      <c r="I14" s="379">
+      <c r="I14" s="345">
         <v>0</v>
       </c>
       <c r="J14" s="43"/>
@@ -4992,10 +4986,10 @@
       <c r="E15" s="242">
         <v>0</v>
       </c>
-      <c r="F15" s="377">
-        <v>0</v>
-      </c>
-      <c r="G15" s="376">
+      <c r="F15" s="343">
+        <v>0</v>
+      </c>
+      <c r="G15" s="342">
         <f t="shared" ref="G15:G30" si="0">EXP(E15/$D$10)/(EXP($F15/$D$10)+EXP($E15/$D$10))</f>
         <v>0.5</v>
       </c>
@@ -5003,11 +4997,11 @@
         <f t="shared" ref="H15:H30" si="1">EXP(F15/$D$10)/(EXP($F15/$D$10)+EXP($E15/$D$10))</f>
         <v>0.5</v>
       </c>
-      <c r="I15" s="405">
+      <c r="I15" s="358">
         <f t="shared" ref="I15:I31" si="2">$D$10*LN(EXP($F15/$D$10)+EXP($E15/$D$10))</f>
         <v>4.8520302639196169</v>
       </c>
-      <c r="J15" s="409">
+      <c r="J15" s="362">
         <f>(I15-I14)</f>
         <v>4.8520302639196169</v>
       </c>
@@ -5023,10 +5017,10 @@
       <c r="E16" s="242">
         <v>1</v>
       </c>
-      <c r="F16" s="377">
-        <v>0</v>
-      </c>
-      <c r="G16" s="376">
+      <c r="F16" s="343">
+        <v>0</v>
+      </c>
+      <c r="G16" s="342">
         <f t="shared" si="0"/>
         <v>0.53565367083397153</v>
       </c>
@@ -5034,11 +5028,11 @@
         <f t="shared" si="1"/>
         <v>0.46434632916602836</v>
       </c>
-      <c r="I16" s="405">
+      <c r="I16" s="358">
         <f t="shared" si="2"/>
         <v>5.3698722427589098</v>
       </c>
-      <c r="J16" s="410">
+      <c r="J16" s="363">
         <f>(I16-I15)</f>
         <v>0.51784197883929295</v>
       </c>
@@ -5074,10 +5068,10 @@
       <c r="E17" s="242">
         <v>1</v>
       </c>
-      <c r="F17" s="377">
+      <c r="F17" s="343">
         <v>6</v>
       </c>
-      <c r="G17" s="376">
+      <c r="G17" s="342">
         <f t="shared" si="0"/>
         <v>0.32865254651727005</v>
       </c>
@@ -5085,11 +5079,11 @@
         <f t="shared" si="1"/>
         <v>0.67134745348273006</v>
       </c>
-      <c r="I17" s="405">
+      <c r="I17" s="358">
         <f t="shared" si="2"/>
         <v>8.7892792311985044</v>
       </c>
-      <c r="J17" s="410">
+      <c r="J17" s="363">
         <f t="shared" ref="J17:J29" si="5">(I17-I16)</f>
         <v>3.4194069884395946</v>
       </c>
@@ -5125,10 +5119,10 @@
       <c r="E18" s="242">
         <v>18</v>
       </c>
-      <c r="F18" s="377">
+      <c r="F18" s="343">
         <v>6</v>
       </c>
-      <c r="G18" s="376">
+      <c r="G18" s="342">
         <f t="shared" si="0"/>
         <v>0.84739133515736897</v>
       </c>
@@ -5136,11 +5130,11 @@
         <f t="shared" si="1"/>
         <v>0.152608664842631</v>
       </c>
-      <c r="I18" s="405">
+      <c r="I18" s="358">
         <f t="shared" si="2"/>
         <v>19.159148662361027</v>
       </c>
-      <c r="J18" s="410">
+      <c r="J18" s="363">
         <f t="shared" ref="J18:J27" si="10">(I18-I17)</f>
         <v>10.369869431162522</v>
       </c>
@@ -5176,10 +5170,10 @@
       <c r="E19" s="242">
         <v>18</v>
       </c>
-      <c r="F19" s="377">
+      <c r="F19" s="343">
         <v>18</v>
       </c>
-      <c r="G19" s="376">
+      <c r="G19" s="342">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
@@ -5187,11 +5181,11 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="I19" s="405">
+      <c r="I19" s="358">
         <f t="shared" si="2"/>
         <v>22.85203026391962</v>
       </c>
-      <c r="J19" s="410">
+      <c r="J19" s="363">
         <f t="shared" si="10"/>
         <v>3.692881601558593</v>
       </c>
@@ -5227,10 +5221,10 @@
       <c r="E20" s="242">
         <v>32</v>
       </c>
-      <c r="F20" s="377">
+      <c r="F20" s="343">
         <v>18</v>
       </c>
-      <c r="G20" s="376">
+      <c r="G20" s="342">
         <f t="shared" si="0"/>
         <v>0.88079707797788231</v>
       </c>
@@ -5238,11 +5232,11 @@
         <f t="shared" si="1"/>
         <v>0.11920292202211759</v>
       </c>
-      <c r="I20" s="405">
+      <c r="I20" s="358">
         <f t="shared" si="2"/>
         <v>32.8884960773008</v>
       </c>
-      <c r="J20" s="410">
+      <c r="J20" s="363">
         <f t="shared" si="10"/>
         <v>10.036465813381181</v>
       </c>
@@ -5278,10 +5272,10 @@
       <c r="E21" s="242">
         <v>32</v>
       </c>
-      <c r="F21" s="377">
+      <c r="F21" s="343">
         <v>30</v>
       </c>
-      <c r="G21" s="376">
+      <c r="G21" s="342">
         <f t="shared" si="0"/>
         <v>0.57094659688346627</v>
       </c>
@@ -5289,11 +5283,11 @@
         <f t="shared" si="1"/>
         <v>0.42905340311653373</v>
       </c>
-      <c r="I21" s="405">
+      <c r="I21" s="358">
         <f t="shared" si="2"/>
         <v>35.923217195086352</v>
       </c>
-      <c r="J21" s="410">
+      <c r="J21" s="363">
         <f t="shared" si="10"/>
         <v>3.0347211177855513</v>
       </c>
@@ -5329,10 +5323,10 @@
       <c r="E22" s="242">
         <v>39</v>
       </c>
-      <c r="F22" s="377">
+      <c r="F22" s="343">
         <v>30</v>
       </c>
-      <c r="G22" s="376">
+      <c r="G22" s="342">
         <f t="shared" si="0"/>
         <v>0.78342090423182409</v>
       </c>
@@ -5340,11 +5334,11 @@
         <f t="shared" si="1"/>
         <v>0.21657909576817599</v>
       </c>
-      <c r="I22" s="405">
+      <c r="I22" s="358">
         <f t="shared" si="2"/>
         <v>40.70859621886801</v>
       </c>
-      <c r="J22" s="410">
+      <c r="J22" s="363">
         <f t="shared" si="10"/>
         <v>4.7853790237816582</v>
       </c>
@@ -5380,10 +5374,10 @@
       <c r="E23" s="242">
         <v>39</v>
       </c>
-      <c r="F23" s="377">
+      <c r="F23" s="343">
         <v>43</v>
       </c>
-      <c r="G23" s="376">
+      <c r="G23" s="342">
         <f t="shared" si="0"/>
         <v>0.36090725483714864</v>
       </c>
@@ -5391,11 +5385,11 @@
         <f t="shared" si="1"/>
         <v>0.63909274516285142</v>
       </c>
-      <c r="I23" s="405">
+      <c r="I23" s="358">
         <f t="shared" si="2"/>
         <v>46.133939858256404</v>
       </c>
-      <c r="J23" s="410">
+      <c r="J23" s="363">
         <f t="shared" si="10"/>
         <v>5.4253436393883945</v>
       </c>
@@ -5431,10 +5425,10 @@
       <c r="E24" s="242">
         <v>57</v>
       </c>
-      <c r="F24" s="377">
+      <c r="F24" s="343">
         <v>43</v>
       </c>
-      <c r="G24" s="376">
+      <c r="G24" s="342">
         <f t="shared" si="0"/>
         <v>0.88079707797788231</v>
       </c>
@@ -5442,11 +5436,11 @@
         <f t="shared" si="1"/>
         <v>0.11920292202211764</v>
       </c>
-      <c r="I24" s="405">
+      <c r="I24" s="358">
         <f t="shared" si="2"/>
         <v>57.8884960773008</v>
       </c>
-      <c r="J24" s="410">
+      <c r="J24" s="363">
         <f>(I24-I23)</f>
         <v>11.754556219044396</v>
       </c>
@@ -5482,10 +5476,10 @@
       <c r="E25" s="242">
         <v>57</v>
       </c>
-      <c r="F25" s="377">
+      <c r="F25" s="343">
         <v>61</v>
       </c>
-      <c r="G25" s="376">
+      <c r="G25" s="342">
         <f t="shared" si="0"/>
         <v>0.36090725483714881</v>
       </c>
@@ -5493,11 +5487,11 @@
         <f t="shared" si="1"/>
         <v>0.63909274516285108</v>
       </c>
-      <c r="I25" s="405">
+      <c r="I25" s="358">
         <f t="shared" si="2"/>
         <v>64.133939858256412</v>
       </c>
-      <c r="J25" s="410">
+      <c r="J25" s="363">
         <f t="shared" si="10"/>
         <v>6.2454437809556111</v>
       </c>
@@ -5533,10 +5527,10 @@
       <c r="E26" s="242">
         <v>61</v>
       </c>
-      <c r="F26" s="377">
+      <c r="F26" s="343">
         <v>61</v>
       </c>
-      <c r="G26" s="376">
+      <c r="G26" s="342">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
@@ -5544,11 +5538,11 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="I26" s="405">
+      <c r="I26" s="358">
         <f t="shared" si="2"/>
         <v>65.852030263919616</v>
       </c>
-      <c r="J26" s="410">
+      <c r="J26" s="363">
         <f t="shared" si="10"/>
         <v>1.7180904056632045</v>
       </c>
@@ -5584,10 +5578,10 @@
       <c r="E27" s="242">
         <v>61</v>
       </c>
-      <c r="F27" s="377">
+      <c r="F27" s="343">
         <v>40</v>
       </c>
-      <c r="G27" s="376">
+      <c r="G27" s="342">
         <f t="shared" si="0"/>
         <v>0.95257412682243314</v>
       </c>
@@ -5595,11 +5589,11 @@
         <f t="shared" si="1"/>
         <v>4.7425873177566823E-2</v>
       </c>
-      <c r="I27" s="405">
+      <c r="I27" s="358">
         <f t="shared" si="2"/>
         <v>61.340111461016193</v>
       </c>
-      <c r="J27" s="410">
+      <c r="J27" s="363">
         <f t="shared" si="10"/>
         <v>-4.5119188029034234</v>
       </c>
@@ -5635,10 +5629,10 @@
       <c r="E28" s="242">
         <v>42</v>
       </c>
-      <c r="F28" s="377">
+      <c r="F28" s="343">
         <v>40</v>
       </c>
-      <c r="G28" s="376">
+      <c r="G28" s="342">
         <f t="shared" si="0"/>
         <v>0.57094659688346627</v>
       </c>
@@ -5646,11 +5640,11 @@
         <f t="shared" si="1"/>
         <v>0.42905340311653378</v>
       </c>
-      <c r="I28" s="405">
+      <c r="I28" s="358">
         <f t="shared" si="2"/>
         <v>45.923217195086359</v>
       </c>
-      <c r="J28" s="410">
+      <c r="J28" s="363">
         <f t="shared" si="5"/>
         <v>-15.416894265929834</v>
       </c>
@@ -5686,10 +5680,10 @@
       <c r="E29" s="242">
         <v>42</v>
       </c>
-      <c r="F29" s="377">
+      <c r="F29" s="343">
         <v>9</v>
       </c>
-      <c r="G29" s="376">
+      <c r="G29" s="342">
         <f t="shared" si="0"/>
         <v>0.99111341128091202</v>
       </c>
@@ -5697,11 +5691,11 @@
         <f t="shared" si="1"/>
         <v>8.8865887190879463E-3</v>
       </c>
-      <c r="I29" s="405">
+      <c r="I29" s="358">
         <f t="shared" si="2"/>
         <v>42.062484169635077</v>
       </c>
-      <c r="J29" s="410">
+      <c r="J29" s="363">
         <f t="shared" si="5"/>
         <v>-3.8607330254512817</v>
       </c>
@@ -5737,10 +5731,10 @@
       <c r="E30" s="242">
         <v>42</v>
       </c>
-      <c r="F30" s="377">
+      <c r="F30" s="343">
         <v>4</v>
       </c>
-      <c r="G30" s="376">
+      <c r="G30" s="342">
         <f t="shared" si="0"/>
         <v>0.99562982045655568</v>
       </c>
@@ -5748,11 +5742,11 @@
         <f t="shared" si="1"/>
         <v>4.3701795434443556E-3</v>
       </c>
-      <c r="I30" s="406">
+      <c r="I30" s="359">
         <f t="shared" si="2"/>
         <v>42.030658296835739</v>
       </c>
-      <c r="J30" s="411">
+      <c r="J30" s="364">
         <f>(I30-I29)</f>
         <v>-3.1825872799338129E-2</v>
       </c>
@@ -5788,25 +5782,25 @@
       <c r="E31" s="51">
         <v>42</v>
       </c>
-      <c r="F31" s="381">
+      <c r="F31" s="347">
         <v>4</v>
       </c>
-      <c r="G31" s="398">
+      <c r="G31" s="351">
         <v>1</v>
       </c>
-      <c r="H31" s="378">
-        <v>0</v>
-      </c>
-      <c r="I31" s="407">
+      <c r="H31" s="344">
+        <v>0</v>
+      </c>
+      <c r="I31" s="360">
         <f t="shared" si="2"/>
         <v>42.030658296835739</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q31" s="8"/>
       <c r="R31" s="290" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="S31" s="8"/>
     </row>
@@ -5816,7 +5810,7 @@
       <c r="F32" s="289"/>
       <c r="G32" s="17"/>
       <c r="H32" s="33"/>
-      <c r="I32" s="408">
+      <c r="I32" s="361">
         <f>SUMPRODUCT(G31:H31,E31:F31)</f>
         <v>42</v>
       </c>
@@ -5835,7 +5829,7 @@
       <c r="F33" s="285"/>
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
-      <c r="I33" s="408">
+      <c r="I33" s="361">
         <f>I31-I32</f>
         <v>3.0658296835738952E-2</v>
       </c>
@@ -5973,144 +5967,144 @@
       <c r="AG38" s="7"/>
     </row>
     <row r="39" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="383"/>
-      <c r="C39" s="383"/>
+      <c r="B39" s="349"/>
+      <c r="C39" s="349"/>
       <c r="D39" s="7"/>
-      <c r="E39" s="386" t="s">
+      <c r="E39" s="373" t="s">
+        <v>128</v>
+      </c>
+      <c r="F39" s="374"/>
+      <c r="G39" s="379" t="s">
         <v>129</v>
       </c>
-      <c r="F39" s="387"/>
-      <c r="G39" s="388" t="s">
-        <v>130</v>
-      </c>
-      <c r="H39" s="389"/>
-      <c r="I39" s="389"/>
-      <c r="J39" s="390"/>
-      <c r="K39" s="385"/>
-      <c r="L39" s="385"/>
-      <c r="M39" s="385"/>
-      <c r="N39" s="385"/>
-      <c r="O39" s="385"/>
-      <c r="P39" s="385"/>
-      <c r="Q39" s="385"/>
-      <c r="R39" s="385"/>
-      <c r="S39" s="385"/>
-      <c r="T39" s="385"/>
-      <c r="U39" s="385"/>
-      <c r="V39" s="385"/>
-      <c r="W39" s="385"/>
-      <c r="X39" s="385"/>
-      <c r="Y39" s="385"/>
-      <c r="Z39" s="385"/>
-      <c r="AA39" s="385"/>
-      <c r="AB39" s="385"/>
-      <c r="AC39" s="385"/>
-      <c r="AD39" s="385"/>
-      <c r="AE39" s="385"/>
-      <c r="AF39" s="385"/>
-      <c r="AG39" s="385"/>
+      <c r="H39" s="380"/>
+      <c r="I39" s="380"/>
+      <c r="J39" s="381"/>
+      <c r="K39" s="350"/>
+      <c r="L39" s="350"/>
+      <c r="M39" s="350"/>
+      <c r="N39" s="350"/>
+      <c r="O39" s="350"/>
+      <c r="P39" s="350"/>
+      <c r="Q39" s="350"/>
+      <c r="R39" s="350"/>
+      <c r="S39" s="350"/>
+      <c r="T39" s="350"/>
+      <c r="U39" s="350"/>
+      <c r="V39" s="350"/>
+      <c r="W39" s="350"/>
+      <c r="X39" s="350"/>
+      <c r="Y39" s="350"/>
+      <c r="Z39" s="350"/>
+      <c r="AA39" s="350"/>
+      <c r="AB39" s="350"/>
+      <c r="AC39" s="350"/>
+      <c r="AD39" s="350"/>
+      <c r="AE39" s="350"/>
+      <c r="AF39" s="350"/>
+      <c r="AG39" s="350"/>
     </row>
     <row r="40" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="383"/>
-      <c r="C40" s="383"/>
+      <c r="B40" s="349"/>
+      <c r="C40" s="349"/>
       <c r="D40" s="7"/>
-      <c r="E40" s="391"/>
-      <c r="F40" s="350"/>
-      <c r="G40" s="384"/>
-      <c r="H40" s="351"/>
-      <c r="I40" s="351"/>
-      <c r="J40" s="392"/>
-      <c r="K40" s="385"/>
-      <c r="L40" s="385"/>
-      <c r="M40" s="385"/>
-      <c r="N40" s="385"/>
-      <c r="O40" s="385"/>
-      <c r="P40" s="385"/>
-      <c r="Q40" s="385"/>
-      <c r="R40" s="385"/>
-      <c r="S40" s="385"/>
-      <c r="T40" s="385"/>
-      <c r="U40" s="385"/>
-      <c r="V40" s="385"/>
-      <c r="W40" s="385"/>
-      <c r="X40" s="385"/>
-      <c r="Y40" s="385"/>
-      <c r="Z40" s="385"/>
-      <c r="AA40" s="385"/>
-      <c r="AB40" s="385"/>
-      <c r="AC40" s="385"/>
-      <c r="AD40" s="385"/>
-      <c r="AE40" s="385"/>
-      <c r="AF40" s="385"/>
-      <c r="AG40" s="385"/>
+      <c r="E40" s="375"/>
+      <c r="F40" s="376"/>
+      <c r="G40" s="382"/>
+      <c r="H40" s="383"/>
+      <c r="I40" s="383"/>
+      <c r="J40" s="384"/>
+      <c r="K40" s="350"/>
+      <c r="L40" s="350"/>
+      <c r="M40" s="350"/>
+      <c r="N40" s="350"/>
+      <c r="O40" s="350"/>
+      <c r="P40" s="350"/>
+      <c r="Q40" s="350"/>
+      <c r="R40" s="350"/>
+      <c r="S40" s="350"/>
+      <c r="T40" s="350"/>
+      <c r="U40" s="350"/>
+      <c r="V40" s="350"/>
+      <c r="W40" s="350"/>
+      <c r="X40" s="350"/>
+      <c r="Y40" s="350"/>
+      <c r="Z40" s="350"/>
+      <c r="AA40" s="350"/>
+      <c r="AB40" s="350"/>
+      <c r="AC40" s="350"/>
+      <c r="AD40" s="350"/>
+      <c r="AE40" s="350"/>
+      <c r="AF40" s="350"/>
+      <c r="AG40" s="350"/>
     </row>
     <row r="41" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="383"/>
-      <c r="C41" s="383"/>
+      <c r="B41" s="349"/>
+      <c r="C41" s="349"/>
       <c r="D41" s="7"/>
-      <c r="E41" s="391"/>
-      <c r="F41" s="350"/>
-      <c r="G41" s="384"/>
-      <c r="H41" s="351"/>
-      <c r="I41" s="351"/>
-      <c r="J41" s="392"/>
-      <c r="K41" s="385"/>
-      <c r="L41" s="385"/>
-      <c r="M41" s="385"/>
-      <c r="N41" s="385"/>
-      <c r="O41" s="385"/>
-      <c r="P41" s="385"/>
-      <c r="Q41" s="385"/>
-      <c r="R41" s="385"/>
-      <c r="S41" s="385"/>
-      <c r="T41" s="385"/>
-      <c r="U41" s="385"/>
-      <c r="V41" s="385"/>
-      <c r="W41" s="385"/>
-      <c r="X41" s="385"/>
-      <c r="Y41" s="385"/>
-      <c r="Z41" s="385"/>
-      <c r="AA41" s="385"/>
-      <c r="AB41" s="385"/>
-      <c r="AC41" s="385"/>
-      <c r="AD41" s="385"/>
-      <c r="AE41" s="385"/>
-      <c r="AF41" s="385"/>
-      <c r="AG41" s="385"/>
+      <c r="E41" s="375"/>
+      <c r="F41" s="376"/>
+      <c r="G41" s="382"/>
+      <c r="H41" s="383"/>
+      <c r="I41" s="383"/>
+      <c r="J41" s="384"/>
+      <c r="K41" s="350"/>
+      <c r="L41" s="350"/>
+      <c r="M41" s="350"/>
+      <c r="N41" s="350"/>
+      <c r="O41" s="350"/>
+      <c r="P41" s="350"/>
+      <c r="Q41" s="350"/>
+      <c r="R41" s="350"/>
+      <c r="S41" s="350"/>
+      <c r="T41" s="350"/>
+      <c r="U41" s="350"/>
+      <c r="V41" s="350"/>
+      <c r="W41" s="350"/>
+      <c r="X41" s="350"/>
+      <c r="Y41" s="350"/>
+      <c r="Z41" s="350"/>
+      <c r="AA41" s="350"/>
+      <c r="AB41" s="350"/>
+      <c r="AC41" s="350"/>
+      <c r="AD41" s="350"/>
+      <c r="AE41" s="350"/>
+      <c r="AF41" s="350"/>
+      <c r="AG41" s="350"/>
     </row>
     <row r="42" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="383"/>
-      <c r="C42" s="383"/>
+      <c r="B42" s="349"/>
+      <c r="C42" s="349"/>
       <c r="D42" s="7"/>
-      <c r="E42" s="393"/>
-      <c r="F42" s="394"/>
-      <c r="G42" s="395"/>
-      <c r="H42" s="396"/>
-      <c r="I42" s="396"/>
-      <c r="J42" s="397"/>
-      <c r="K42" s="385"/>
-      <c r="L42" s="385"/>
-      <c r="M42" s="385"/>
-      <c r="N42" s="385"/>
-      <c r="O42" s="385"/>
-      <c r="P42" s="385"/>
-      <c r="Q42" s="385"/>
-      <c r="R42" s="385"/>
-      <c r="S42" s="385"/>
-      <c r="T42" s="385"/>
-      <c r="U42" s="385"/>
-      <c r="V42" s="385"/>
-      <c r="W42" s="385"/>
-      <c r="X42" s="385"/>
-      <c r="Y42" s="385"/>
-      <c r="Z42" s="385"/>
-      <c r="AA42" s="385"/>
-      <c r="AB42" s="385"/>
-      <c r="AC42" s="385"/>
-      <c r="AD42" s="385"/>
-      <c r="AE42" s="385"/>
-      <c r="AF42" s="385"/>
-      <c r="AG42" s="385"/>
+      <c r="E42" s="377"/>
+      <c r="F42" s="378"/>
+      <c r="G42" s="385"/>
+      <c r="H42" s="386"/>
+      <c r="I42" s="386"/>
+      <c r="J42" s="387"/>
+      <c r="K42" s="350"/>
+      <c r="L42" s="350"/>
+      <c r="M42" s="350"/>
+      <c r="N42" s="350"/>
+      <c r="O42" s="350"/>
+      <c r="P42" s="350"/>
+      <c r="Q42" s="350"/>
+      <c r="R42" s="350"/>
+      <c r="S42" s="350"/>
+      <c r="T42" s="350"/>
+      <c r="U42" s="350"/>
+      <c r="V42" s="350"/>
+      <c r="W42" s="350"/>
+      <c r="X42" s="350"/>
+      <c r="Y42" s="350"/>
+      <c r="Z42" s="350"/>
+      <c r="AA42" s="350"/>
+      <c r="AB42" s="350"/>
+      <c r="AC42" s="350"/>
+      <c r="AD42" s="350"/>
+      <c r="AE42" s="350"/>
+      <c r="AF42" s="350"/>
+      <c r="AG42" s="350"/>
     </row>
     <row r="43" spans="2:34" x14ac:dyDescent="0.25">
       <c r="D43" s="7"/>
@@ -6316,7 +6310,7 @@
   <dimension ref="A3:AO125"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I79" sqref="I79"/>
+      <selection activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6336,55 +6330,55 @@
   <sheetData>
     <row r="3" spans="1:22" ht="92.25" x14ac:dyDescent="1.35">
       <c r="C3" s="288" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C6" s="388" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C6" s="352" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="353"/>
-      <c r="E6" s="353"/>
-      <c r="F6" s="353"/>
-      <c r="G6" s="353"/>
-      <c r="H6" s="353"/>
-      <c r="I6" s="353"/>
-      <c r="J6" s="353"/>
-      <c r="K6" s="353"/>
-      <c r="L6" s="353"/>
-      <c r="M6" s="353"/>
-      <c r="N6" s="353"/>
-      <c r="O6" s="354"/>
+      <c r="D6" s="389"/>
+      <c r="E6" s="389"/>
+      <c r="F6" s="389"/>
+      <c r="G6" s="389"/>
+      <c r="H6" s="389"/>
+      <c r="I6" s="389"/>
+      <c r="J6" s="389"/>
+      <c r="K6" s="389"/>
+      <c r="L6" s="389"/>
+      <c r="M6" s="389"/>
+      <c r="N6" s="389"/>
+      <c r="O6" s="390"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C7" s="355"/>
-      <c r="D7" s="356"/>
-      <c r="E7" s="356"/>
-      <c r="F7" s="356"/>
-      <c r="G7" s="356"/>
-      <c r="H7" s="356"/>
-      <c r="I7" s="356"/>
-      <c r="J7" s="356"/>
-      <c r="K7" s="356"/>
-      <c r="L7" s="356"/>
-      <c r="M7" s="356"/>
-      <c r="N7" s="356"/>
-      <c r="O7" s="357"/>
+      <c r="C7" s="391"/>
+      <c r="D7" s="392"/>
+      <c r="E7" s="392"/>
+      <c r="F7" s="392"/>
+      <c r="G7" s="392"/>
+      <c r="H7" s="392"/>
+      <c r="I7" s="392"/>
+      <c r="J7" s="392"/>
+      <c r="K7" s="392"/>
+      <c r="L7" s="392"/>
+      <c r="M7" s="392"/>
+      <c r="N7" s="392"/>
+      <c r="O7" s="393"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C8" s="358"/>
-      <c r="D8" s="359"/>
-      <c r="E8" s="359"/>
-      <c r="F8" s="359"/>
-      <c r="G8" s="359"/>
-      <c r="H8" s="359"/>
-      <c r="I8" s="359"/>
-      <c r="J8" s="359"/>
-      <c r="K8" s="359"/>
-      <c r="L8" s="359"/>
-      <c r="M8" s="359"/>
-      <c r="N8" s="359"/>
-      <c r="O8" s="360"/>
+      <c r="C8" s="394"/>
+      <c r="D8" s="395"/>
+      <c r="E8" s="395"/>
+      <c r="F8" s="395"/>
+      <c r="G8" s="395"/>
+      <c r="H8" s="395"/>
+      <c r="I8" s="395"/>
+      <c r="J8" s="395"/>
+      <c r="K8" s="395"/>
+      <c r="L8" s="395"/>
+      <c r="M8" s="395"/>
+      <c r="N8" s="395"/>
+      <c r="O8" s="396"/>
     </row>
     <row r="10" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13"/>
@@ -6412,7 +6406,7 @@
     </row>
     <row r="11" spans="1:22" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C11" s="157" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -6423,14 +6417,14 @@
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B13" s="342" t="s">
-        <v>173</v>
+      <c r="B13" s="365" t="s">
+        <v>172</v>
       </c>
       <c r="C13" s="168" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="313" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E13" s="313"/>
       <c r="F13" s="313"/>
@@ -6443,9 +6437,9 @@
       <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B14" s="343"/>
+      <c r="B14" s="366"/>
       <c r="C14" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>3</v>
@@ -6461,9 +6455,9 @@
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="344"/>
+      <c r="B15" s="367"/>
       <c r="C15" s="305" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D15" s="305" t="s">
         <v>2</v>
@@ -6488,17 +6482,17 @@
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="342" t="s">
-        <v>161</v>
+      <c r="B17" s="365" t="s">
+        <v>160</v>
       </c>
       <c r="C17" s="168" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" s="317" t="s">
         <v>174</v>
       </c>
-      <c r="D17" s="317" t="s">
+      <c r="E17" s="313" t="s">
         <v>175</v>
-      </c>
-      <c r="E17" s="313" t="s">
-        <v>176</v>
       </c>
       <c r="F17" s="313"/>
       <c r="G17" s="313"/>
@@ -6510,16 +6504,16 @@
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="343"/>
+      <c r="B18" s="366"/>
       <c r="C18" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D18" s="302">
         <f>COUNTA(D25:E25)</f>
         <v>2</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
@@ -6531,7 +6525,7 @@
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="343"/>
+      <c r="B19" s="366"/>
       <c r="C19" s="17" t="s">
         <v>5</v>
       </c>
@@ -6539,7 +6533,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
@@ -6551,16 +6545,16 @@
       <c r="P19" s="7"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="344"/>
+      <c r="B20" s="367"/>
       <c r="C20" s="293" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D20" s="318">
         <f>H26</f>
         <v>0.69314718055994529</v>
       </c>
       <c r="E20" s="293" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F20" s="305"/>
       <c r="G20" s="305"/>
@@ -6623,7 +6617,7 @@
       </c>
       <c r="G24" s="66"/>
       <c r="H24" s="64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I24" s="66" t="s">
         <v>35</v>
@@ -6639,16 +6633,16 @@
         <v>34</v>
       </c>
       <c r="D25" s="190" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25" s="191" t="s">
         <v>141</v>
       </c>
-      <c r="E25" s="191" t="s">
-        <v>142</v>
-      </c>
       <c r="F25" s="192" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="193" t="s">
         <v>141</v>
-      </c>
-      <c r="G25" s="193" t="s">
-        <v>142</v>
       </c>
       <c r="H25" s="42">
         <v>0</v>
@@ -6711,7 +6705,7 @@
         <v>0.62011450695827752</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q27"/>
     </row>
@@ -6785,7 +6779,7 @@
     </row>
     <row r="30" spans="2:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D30" s="47">
         <v>2.1</v>
@@ -6814,7 +6808,7 @@
     <row r="31" spans="2:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31"/>
       <c r="C31" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D31" s="47">
         <v>3</v>
@@ -6928,7 +6922,7 @@
         <v>5.9032826287971574E-2</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P35"/>
       <c r="Q35"/>
@@ -6977,138 +6971,138 @@
       <c r="Q38" s="303"/>
     </row>
     <row r="39" spans="2:18" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="361" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" s="361"/>
-      <c r="E39" s="361"/>
-      <c r="F39" s="361"/>
-      <c r="G39" s="361"/>
-      <c r="H39" s="361"/>
-      <c r="I39" s="361"/>
-      <c r="J39" s="361"/>
-      <c r="K39" s="361"/>
-      <c r="L39" s="361"/>
-      <c r="M39" s="361"/>
+      <c r="C39" s="397" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" s="397"/>
+      <c r="E39" s="397"/>
+      <c r="F39" s="397"/>
+      <c r="G39" s="397"/>
+      <c r="H39" s="397"/>
+      <c r="I39" s="397"/>
+      <c r="J39" s="397"/>
+      <c r="K39" s="397"/>
+      <c r="L39" s="397"/>
+      <c r="M39" s="397"/>
       <c r="N39" s="303"/>
       <c r="O39" s="303"/>
       <c r="P39" s="303"/>
       <c r="Q39" s="303"/>
     </row>
     <row r="40" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="361"/>
-      <c r="D40" s="361"/>
-      <c r="E40" s="361"/>
-      <c r="F40" s="361"/>
-      <c r="G40" s="361"/>
-      <c r="H40" s="361"/>
-      <c r="I40" s="361"/>
-      <c r="J40" s="361"/>
-      <c r="K40" s="361"/>
-      <c r="L40" s="361"/>
-      <c r="M40" s="361"/>
+      <c r="C40" s="397"/>
+      <c r="D40" s="397"/>
+      <c r="E40" s="397"/>
+      <c r="F40" s="397"/>
+      <c r="G40" s="397"/>
+      <c r="H40" s="397"/>
+      <c r="I40" s="397"/>
+      <c r="J40" s="397"/>
+      <c r="K40" s="397"/>
+      <c r="L40" s="397"/>
+      <c r="M40" s="397"/>
       <c r="N40" s="303"/>
       <c r="O40" s="303"/>
       <c r="P40" s="303"/>
       <c r="Q40" s="303"/>
     </row>
     <row r="41" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="361"/>
-      <c r="D41" s="361"/>
-      <c r="E41" s="361"/>
-      <c r="F41" s="361"/>
-      <c r="G41" s="361"/>
-      <c r="H41" s="361"/>
-      <c r="I41" s="361"/>
-      <c r="J41" s="361"/>
-      <c r="K41" s="361"/>
-      <c r="L41" s="361"/>
-      <c r="M41" s="361"/>
+      <c r="C41" s="397"/>
+      <c r="D41" s="397"/>
+      <c r="E41" s="397"/>
+      <c r="F41" s="397"/>
+      <c r="G41" s="397"/>
+      <c r="H41" s="397"/>
+      <c r="I41" s="397"/>
+      <c r="J41" s="397"/>
+      <c r="K41" s="397"/>
+      <c r="L41" s="397"/>
+      <c r="M41" s="397"/>
       <c r="N41" s="303"/>
       <c r="O41" s="303"/>
       <c r="P41" s="303"/>
       <c r="Q41" s="303"/>
     </row>
     <row r="42" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="361"/>
-      <c r="D42" s="361"/>
-      <c r="E42" s="361"/>
-      <c r="F42" s="361"/>
-      <c r="G42" s="361"/>
-      <c r="H42" s="361"/>
-      <c r="I42" s="361"/>
-      <c r="J42" s="361"/>
-      <c r="K42" s="361"/>
-      <c r="L42" s="361"/>
-      <c r="M42" s="361"/>
+      <c r="C42" s="397"/>
+      <c r="D42" s="397"/>
+      <c r="E42" s="397"/>
+      <c r="F42" s="397"/>
+      <c r="G42" s="397"/>
+      <c r="H42" s="397"/>
+      <c r="I42" s="397"/>
+      <c r="J42" s="397"/>
+      <c r="K42" s="397"/>
+      <c r="L42" s="397"/>
+      <c r="M42" s="397"/>
       <c r="N42" s="303"/>
       <c r="O42" s="303"/>
       <c r="P42" s="303"/>
       <c r="Q42" s="303"/>
     </row>
     <row r="43" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="361"/>
-      <c r="D43" s="361"/>
-      <c r="E43" s="361"/>
-      <c r="F43" s="361"/>
-      <c r="G43" s="361"/>
-      <c r="H43" s="361"/>
-      <c r="I43" s="361"/>
-      <c r="J43" s="361"/>
-      <c r="K43" s="361"/>
-      <c r="L43" s="361"/>
-      <c r="M43" s="361"/>
+      <c r="C43" s="397"/>
+      <c r="D43" s="397"/>
+      <c r="E43" s="397"/>
+      <c r="F43" s="397"/>
+      <c r="G43" s="397"/>
+      <c r="H43" s="397"/>
+      <c r="I43" s="397"/>
+      <c r="J43" s="397"/>
+      <c r="K43" s="397"/>
+      <c r="L43" s="397"/>
+      <c r="M43" s="397"/>
       <c r="N43" s="303"/>
       <c r="O43" s="303"/>
       <c r="P43" s="303"/>
       <c r="Q43" s="303"/>
     </row>
     <row r="44" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="361"/>
-      <c r="D44" s="361"/>
-      <c r="E44" s="361"/>
-      <c r="F44" s="361"/>
-      <c r="G44" s="361"/>
-      <c r="H44" s="361"/>
-      <c r="I44" s="361"/>
-      <c r="J44" s="361"/>
-      <c r="K44" s="361"/>
-      <c r="L44" s="361"/>
-      <c r="M44" s="361"/>
+      <c r="C44" s="397"/>
+      <c r="D44" s="397"/>
+      <c r="E44" s="397"/>
+      <c r="F44" s="397"/>
+      <c r="G44" s="397"/>
+      <c r="H44" s="397"/>
+      <c r="I44" s="397"/>
+      <c r="J44" s="397"/>
+      <c r="K44" s="397"/>
+      <c r="L44" s="397"/>
+      <c r="M44" s="397"/>
       <c r="N44" s="303"/>
       <c r="O44" s="303"/>
       <c r="P44" s="303"/>
       <c r="Q44" s="303"/>
     </row>
     <row r="45" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="361"/>
-      <c r="D45" s="361"/>
-      <c r="E45" s="361"/>
-      <c r="F45" s="361"/>
-      <c r="G45" s="361"/>
-      <c r="H45" s="361"/>
-      <c r="I45" s="361"/>
-      <c r="J45" s="361"/>
-      <c r="K45" s="361"/>
-      <c r="L45" s="361"/>
-      <c r="M45" s="361"/>
+      <c r="C45" s="397"/>
+      <c r="D45" s="397"/>
+      <c r="E45" s="397"/>
+      <c r="F45" s="397"/>
+      <c r="G45" s="397"/>
+      <c r="H45" s="397"/>
+      <c r="I45" s="397"/>
+      <c r="J45" s="397"/>
+      <c r="K45" s="397"/>
+      <c r="L45" s="397"/>
+      <c r="M45" s="397"/>
       <c r="N45" s="303"/>
       <c r="O45" s="303"/>
       <c r="P45" s="303"/>
       <c r="Q45" s="303"/>
     </row>
     <row r="46" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="361"/>
-      <c r="D46" s="361"/>
-      <c r="E46" s="361"/>
-      <c r="F46" s="361"/>
-      <c r="G46" s="361"/>
-      <c r="H46" s="361"/>
-      <c r="I46" s="361"/>
-      <c r="J46" s="361"/>
-      <c r="K46" s="361"/>
-      <c r="L46" s="361"/>
-      <c r="M46" s="361"/>
+      <c r="C46" s="397"/>
+      <c r="D46" s="397"/>
+      <c r="E46" s="397"/>
+      <c r="F46" s="397"/>
+      <c r="G46" s="397"/>
+      <c r="H46" s="397"/>
+      <c r="I46" s="397"/>
+      <c r="J46" s="397"/>
+      <c r="K46" s="397"/>
+      <c r="L46" s="397"/>
+      <c r="M46" s="397"/>
       <c r="N46" s="303"/>
       <c r="O46" s="303"/>
       <c r="P46" s="303"/>
@@ -7171,18 +7165,18 @@
     </row>
     <row r="51" spans="1:22" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C51" s="157" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B53" s="342" t="s">
-        <v>173</v>
+      <c r="B53" s="365" t="s">
+        <v>172</v>
       </c>
       <c r="C53" s="168" t="s">
         <v>4</v>
       </c>
       <c r="D53" s="313" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E53" s="313"/>
       <c r="F53" s="313"/>
@@ -7190,9 +7184,9 @@
       <c r="H53" s="308"/>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B54" s="343"/>
+      <c r="B54" s="366"/>
       <c r="C54" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D54" s="17" t="s">
         <v>3</v>
@@ -7206,9 +7200,9 @@
       <c r="O54" s="7"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B55" s="344"/>
+      <c r="B55" s="367"/>
       <c r="C55" s="305" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D55" s="305" t="s">
         <v>2</v>
@@ -7229,14 +7223,14 @@
       <c r="O56" s="7"/>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B57" s="342" t="s">
-        <v>177</v>
+      <c r="B57" s="365" t="s">
+        <v>176</v>
       </c>
       <c r="C57" s="168" t="s">
         <v>4</v>
       </c>
       <c r="D57" s="313" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E57" s="313"/>
       <c r="F57" s="313"/>
@@ -7245,9 +7239,9 @@
       <c r="M57" s="18"/>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B58" s="343"/>
+      <c r="B58" s="366"/>
       <c r="C58" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D58" s="17" t="s">
         <v>3</v>
@@ -7259,9 +7253,9 @@
       <c r="M58" s="18"/>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B59" s="344"/>
+      <c r="B59" s="367"/>
       <c r="C59" s="305" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D59" s="305" t="s">
         <v>2</v>
@@ -7283,17 +7277,17 @@
       <c r="M60" s="18"/>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B61" s="345" t="s">
-        <v>161</v>
+      <c r="B61" s="368" t="s">
+        <v>160</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D61" s="323" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E61" s="299" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F61" s="299"/>
       <c r="G61" s="299"/>
@@ -7301,16 +7295,16 @@
       <c r="M61" s="18"/>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B62" s="346"/>
+      <c r="B62" s="369"/>
       <c r="C62" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D62" s="302">
         <f>COUNTA(D68:G68)</f>
         <v>4</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F62" s="17"/>
       <c r="G62" s="17"/>
@@ -7318,7 +7312,7 @@
       <c r="M62" s="18"/>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B63" s="346"/>
+      <c r="B63" s="369"/>
       <c r="C63" s="17" t="s">
         <v>5</v>
       </c>
@@ -7326,7 +7320,7 @@
         <v>3.5</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F63" s="17"/>
       <c r="G63" s="17"/>
@@ -7334,16 +7328,16 @@
       <c r="M63" s="18"/>
     </row>
     <row r="64" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="347"/>
+      <c r="B64" s="370"/>
       <c r="C64" s="184" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D64" s="324">
         <f>L69</f>
         <v>4.8520302639196169</v>
       </c>
       <c r="E64" s="184" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F64" s="300"/>
       <c r="G64" s="300"/>
@@ -7575,7 +7569,7 @@
       </c>
       <c r="N70" s="7"/>
       <c r="O70" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P70" s="7"/>
       <c r="Q70" s="7"/>
@@ -8052,7 +8046,7 @@
         <v>0.66212158126025145</v>
       </c>
       <c r="M78" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8085,18 +8079,18 @@
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
-      <c r="D82" s="361" t="s">
-        <v>126</v>
-      </c>
-      <c r="E82" s="361"/>
-      <c r="F82" s="361"/>
-      <c r="G82" s="361"/>
-      <c r="H82" s="361"/>
-      <c r="I82" s="361"/>
-      <c r="J82" s="361"/>
-      <c r="K82" s="361"/>
-      <c r="L82" s="361"/>
-      <c r="M82" s="361"/>
+      <c r="D82" s="397" t="s">
+        <v>125</v>
+      </c>
+      <c r="E82" s="397"/>
+      <c r="F82" s="397"/>
+      <c r="G82" s="397"/>
+      <c r="H82" s="397"/>
+      <c r="I82" s="397"/>
+      <c r="J82" s="397"/>
+      <c r="K82" s="397"/>
+      <c r="L82" s="397"/>
+      <c r="M82" s="397"/>
       <c r="N82" s="303"/>
       <c r="O82" s="303"/>
       <c r="P82" s="303"/>
@@ -8108,16 +8102,16 @@
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
-      <c r="D83" s="361"/>
-      <c r="E83" s="361"/>
-      <c r="F83" s="361"/>
-      <c r="G83" s="361"/>
-      <c r="H83" s="361"/>
-      <c r="I83" s="361"/>
-      <c r="J83" s="361"/>
-      <c r="K83" s="361"/>
-      <c r="L83" s="361"/>
-      <c r="M83" s="361"/>
+      <c r="D83" s="397"/>
+      <c r="E83" s="397"/>
+      <c r="F83" s="397"/>
+      <c r="G83" s="397"/>
+      <c r="H83" s="397"/>
+      <c r="I83" s="397"/>
+      <c r="J83" s="397"/>
+      <c r="K83" s="397"/>
+      <c r="L83" s="397"/>
+      <c r="M83" s="397"/>
       <c r="N83" s="303"/>
       <c r="O83" s="303"/>
       <c r="P83" s="303"/>
@@ -8129,16 +8123,16 @@
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
-      <c r="D84" s="361"/>
-      <c r="E84" s="361"/>
-      <c r="F84" s="361"/>
-      <c r="G84" s="361"/>
-      <c r="H84" s="361"/>
-      <c r="I84" s="361"/>
-      <c r="J84" s="361"/>
-      <c r="K84" s="361"/>
-      <c r="L84" s="361"/>
-      <c r="M84" s="361"/>
+      <c r="D84" s="397"/>
+      <c r="E84" s="397"/>
+      <c r="F84" s="397"/>
+      <c r="G84" s="397"/>
+      <c r="H84" s="397"/>
+      <c r="I84" s="397"/>
+      <c r="J84" s="397"/>
+      <c r="K84" s="397"/>
+      <c r="L84" s="397"/>
+      <c r="M84" s="397"/>
       <c r="N84" s="303"/>
       <c r="O84" s="303"/>
       <c r="P84" s="303"/>
@@ -8150,16 +8144,16 @@
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
-      <c r="D85" s="361"/>
-      <c r="E85" s="361"/>
-      <c r="F85" s="361"/>
-      <c r="G85" s="361"/>
-      <c r="H85" s="361"/>
-      <c r="I85" s="361"/>
-      <c r="J85" s="361"/>
-      <c r="K85" s="361"/>
-      <c r="L85" s="361"/>
-      <c r="M85" s="361"/>
+      <c r="D85" s="397"/>
+      <c r="E85" s="397"/>
+      <c r="F85" s="397"/>
+      <c r="G85" s="397"/>
+      <c r="H85" s="397"/>
+      <c r="I85" s="397"/>
+      <c r="J85" s="397"/>
+      <c r="K85" s="397"/>
+      <c r="L85" s="397"/>
+      <c r="M85" s="397"/>
       <c r="N85" s="303"/>
       <c r="O85" s="303"/>
       <c r="P85" s="303"/>
@@ -8171,16 +8165,16 @@
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
-      <c r="D86" s="361"/>
-      <c r="E86" s="361"/>
-      <c r="F86" s="361"/>
-      <c r="G86" s="361"/>
-      <c r="H86" s="361"/>
-      <c r="I86" s="361"/>
-      <c r="J86" s="361"/>
-      <c r="K86" s="361"/>
-      <c r="L86" s="361"/>
-      <c r="M86" s="361"/>
+      <c r="D86" s="397"/>
+      <c r="E86" s="397"/>
+      <c r="F86" s="397"/>
+      <c r="G86" s="397"/>
+      <c r="H86" s="397"/>
+      <c r="I86" s="397"/>
+      <c r="J86" s="397"/>
+      <c r="K86" s="397"/>
+      <c r="L86" s="397"/>
+      <c r="M86" s="397"/>
       <c r="N86" s="303"/>
       <c r="O86" s="303"/>
       <c r="P86" s="303"/>
@@ -8192,16 +8186,16 @@
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
-      <c r="D87" s="361"/>
-      <c r="E87" s="361"/>
-      <c r="F87" s="361"/>
-      <c r="G87" s="361"/>
-      <c r="H87" s="361"/>
-      <c r="I87" s="361"/>
-      <c r="J87" s="361"/>
-      <c r="K87" s="361"/>
-      <c r="L87" s="361"/>
-      <c r="M87" s="361"/>
+      <c r="D87" s="397"/>
+      <c r="E87" s="397"/>
+      <c r="F87" s="397"/>
+      <c r="G87" s="397"/>
+      <c r="H87" s="397"/>
+      <c r="I87" s="397"/>
+      <c r="J87" s="397"/>
+      <c r="K87" s="397"/>
+      <c r="L87" s="397"/>
+      <c r="M87" s="397"/>
       <c r="N87" s="303"/>
       <c r="O87" s="303"/>
       <c r="P87" s="303"/>
@@ -8213,16 +8207,16 @@
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
-      <c r="D88" s="361"/>
-      <c r="E88" s="361"/>
-      <c r="F88" s="361"/>
-      <c r="G88" s="361"/>
-      <c r="H88" s="361"/>
-      <c r="I88" s="361"/>
-      <c r="J88" s="361"/>
-      <c r="K88" s="361"/>
-      <c r="L88" s="361"/>
-      <c r="M88" s="361"/>
+      <c r="D88" s="397"/>
+      <c r="E88" s="397"/>
+      <c r="F88" s="397"/>
+      <c r="G88" s="397"/>
+      <c r="H88" s="397"/>
+      <c r="I88" s="397"/>
+      <c r="J88" s="397"/>
+      <c r="K88" s="397"/>
+      <c r="L88" s="397"/>
+      <c r="M88" s="397"/>
       <c r="N88" s="303"/>
       <c r="O88" s="303"/>
       <c r="P88" s="303"/>
@@ -8252,7 +8246,7 @@
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
       <c r="D91" s="305" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E91" s="305"/>
       <c r="F91" s="305"/>
@@ -8304,11 +8298,11 @@
       <c r="L93" t="s">
         <v>54</v>
       </c>
-      <c r="O93" s="362" t="s">
-        <v>152</v>
-      </c>
-      <c r="P93" s="363"/>
-      <c r="Q93" s="364"/>
+      <c r="O93" s="398" t="s">
+        <v>151</v>
+      </c>
+      <c r="P93" s="399"/>
+      <c r="Q93" s="400"/>
       <c r="R93" s="7"/>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
@@ -8339,9 +8333,9 @@
         <f>I95/SUM(H95:I95)</f>
         <v>0.5</v>
       </c>
-      <c r="O94" s="365"/>
-      <c r="P94" s="361"/>
-      <c r="Q94" s="366"/>
+      <c r="O94" s="401"/>
+      <c r="P94" s="397"/>
+      <c r="Q94" s="402"/>
       <c r="R94" s="7"/>
     </row>
     <row r="95" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8368,9 +8362,9 @@
         <f>SUM(H95:I95)</f>
         <v>0.43333333333333335</v>
       </c>
-      <c r="O95" s="365"/>
-      <c r="P95" s="361"/>
-      <c r="Q95" s="366"/>
+      <c r="O95" s="401"/>
+      <c r="P95" s="397"/>
+      <c r="Q95" s="402"/>
       <c r="R95" s="7"/>
     </row>
     <row r="96" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8392,9 +8386,9 @@
         <f>SUM(H94:I95)</f>
         <v>1</v>
       </c>
-      <c r="O96" s="365"/>
-      <c r="P96" s="361"/>
-      <c r="Q96" s="366"/>
+      <c r="O96" s="401"/>
+      <c r="P96" s="397"/>
+      <c r="Q96" s="402"/>
       <c r="R96" s="7"/>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
@@ -8407,9 +8401,9 @@
       <c r="H97" s="104"/>
       <c r="I97" s="104"/>
       <c r="J97" s="103"/>
-      <c r="O97" s="365"/>
-      <c r="P97" s="361"/>
-      <c r="Q97" s="366"/>
+      <c r="O97" s="401"/>
+      <c r="P97" s="397"/>
+      <c r="Q97" s="402"/>
       <c r="R97" s="7"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
@@ -8422,9 +8416,9 @@
       <c r="H98" s="104"/>
       <c r="I98" s="104"/>
       <c r="J98" s="103"/>
-      <c r="O98" s="365"/>
-      <c r="P98" s="361"/>
-      <c r="Q98" s="366"/>
+      <c r="O98" s="401"/>
+      <c r="P98" s="397"/>
+      <c r="Q98" s="402"/>
       <c r="R98" s="7"/>
     </row>
     <row r="99" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8446,9 +8440,9 @@
       <c r="L99" t="s">
         <v>54</v>
       </c>
-      <c r="O99" s="365"/>
-      <c r="P99" s="361"/>
-      <c r="Q99" s="366"/>
+      <c r="O99" s="401"/>
+      <c r="P99" s="397"/>
+      <c r="Q99" s="402"/>
       <c r="R99" s="7"/>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
@@ -8477,9 +8471,9 @@
         <f>I101/SUM(H101:I101)</f>
         <v>0.42451014045629404</v>
       </c>
-      <c r="O100" s="365"/>
-      <c r="P100" s="361"/>
-      <c r="Q100" s="366"/>
+      <c r="O100" s="401"/>
+      <c r="P100" s="397"/>
+      <c r="Q100" s="402"/>
       <c r="R100" s="7"/>
     </row>
     <row r="101" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8504,9 +8498,9 @@
         <f>SUM(H101:I101)</f>
         <v>0.5038111646831217</v>
       </c>
-      <c r="O101" s="365"/>
-      <c r="P101" s="361"/>
-      <c r="Q101" s="366"/>
+      <c r="O101" s="401"/>
+      <c r="P101" s="397"/>
+      <c r="Q101" s="402"/>
       <c r="R101" s="7"/>
     </row>
     <row r="102" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8525,52 +8519,52 @@
         <f>SUM(H100:I101)</f>
         <v>1</v>
       </c>
-      <c r="O102" s="365"/>
-      <c r="P102" s="361"/>
-      <c r="Q102" s="366"/>
+      <c r="O102" s="401"/>
+      <c r="P102" s="397"/>
+      <c r="Q102" s="402"/>
       <c r="R102" s="7"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
-      <c r="O103" s="365"/>
-      <c r="P103" s="361"/>
-      <c r="Q103" s="366"/>
+      <c r="O103" s="401"/>
+      <c r="P103" s="397"/>
+      <c r="Q103" s="402"/>
       <c r="R103" s="7"/>
     </row>
     <row r="104" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F104" s="370" t="s">
+      <c r="F104" s="406" t="s">
         <v>55</v>
       </c>
-      <c r="G104" s="370"/>
-      <c r="H104" s="370"/>
-      <c r="I104" s="370"/>
-      <c r="J104" s="370"/>
-      <c r="K104" s="370"/>
-      <c r="L104" s="370"/>
-      <c r="O104" s="365"/>
-      <c r="P104" s="361"/>
-      <c r="Q104" s="366"/>
+      <c r="G104" s="406"/>
+      <c r="H104" s="406"/>
+      <c r="I104" s="406"/>
+      <c r="J104" s="406"/>
+      <c r="K104" s="406"/>
+      <c r="L104" s="406"/>
+      <c r="O104" s="401"/>
+      <c r="P104" s="397"/>
+      <c r="Q104" s="402"/>
       <c r="R104" s="7"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F105" s="370"/>
-      <c r="G105" s="370"/>
-      <c r="H105" s="370"/>
-      <c r="I105" s="370"/>
-      <c r="J105" s="370"/>
-      <c r="K105" s="370"/>
-      <c r="L105" s="370"/>
-      <c r="O105" s="365"/>
-      <c r="P105" s="361"/>
-      <c r="Q105" s="366"/>
+      <c r="F105" s="406"/>
+      <c r="G105" s="406"/>
+      <c r="H105" s="406"/>
+      <c r="I105" s="406"/>
+      <c r="J105" s="406"/>
+      <c r="K105" s="406"/>
+      <c r="L105" s="406"/>
+      <c r="O105" s="401"/>
+      <c r="P105" s="397"/>
+      <c r="Q105" s="402"/>
       <c r="R105" s="7"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O106" s="365"/>
-      <c r="P106" s="361"/>
-      <c r="Q106" s="366"/>
+      <c r="O106" s="401"/>
+      <c r="P106" s="397"/>
+      <c r="Q106" s="402"/>
       <c r="R106" s="7"/>
     </row>
     <row r="107" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8587,9 +8581,9 @@
       <c r="L107" t="s">
         <v>54</v>
       </c>
-      <c r="O107" s="365"/>
-      <c r="P107" s="361"/>
-      <c r="Q107" s="366"/>
+      <c r="O107" s="401"/>
+      <c r="P107" s="397"/>
+      <c r="Q107" s="402"/>
       <c r="R107" s="7"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
@@ -8615,9 +8609,9 @@
         <f>I109/SUM(H109:I109)</f>
         <v>0.42541779867029983</v>
       </c>
-      <c r="O108" s="365"/>
-      <c r="P108" s="361"/>
-      <c r="Q108" s="366"/>
+      <c r="O108" s="401"/>
+      <c r="P108" s="397"/>
+      <c r="Q108" s="402"/>
       <c r="R108" s="7"/>
     </row>
     <row r="109" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8639,9 +8633,9 @@
         <f>SUM(H109:I109)</f>
         <v>0.35705004689480196</v>
       </c>
-      <c r="O109" s="365"/>
-      <c r="P109" s="361"/>
-      <c r="Q109" s="366"/>
+      <c r="O109" s="401"/>
+      <c r="P109" s="397"/>
+      <c r="Q109" s="402"/>
       <c r="R109" s="7"/>
     </row>
     <row r="110" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8657,55 +8651,55 @@
         <f>SUM(H108:I109)</f>
         <v>1</v>
       </c>
-      <c r="O110" s="365"/>
-      <c r="P110" s="361"/>
-      <c r="Q110" s="366"/>
+      <c r="O110" s="401"/>
+      <c r="P110" s="397"/>
+      <c r="Q110" s="402"/>
       <c r="R110" s="7"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O111" s="365"/>
-      <c r="P111" s="361"/>
-      <c r="Q111" s="366"/>
+      <c r="O111" s="401"/>
+      <c r="P111" s="397"/>
+      <c r="Q111" s="402"/>
       <c r="R111" s="7"/>
     </row>
     <row r="112" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F112" s="370" t="s">
+      <c r="F112" s="406" t="s">
         <v>56</v>
       </c>
-      <c r="G112" s="370"/>
-      <c r="H112" s="370"/>
-      <c r="I112" s="370"/>
-      <c r="J112" s="370"/>
-      <c r="K112" s="370"/>
-      <c r="L112" s="370"/>
-      <c r="O112" s="365"/>
-      <c r="P112" s="361"/>
-      <c r="Q112" s="366"/>
+      <c r="G112" s="406"/>
+      <c r="H112" s="406"/>
+      <c r="I112" s="406"/>
+      <c r="J112" s="406"/>
+      <c r="K112" s="406"/>
+      <c r="L112" s="406"/>
+      <c r="O112" s="401"/>
+      <c r="P112" s="397"/>
+      <c r="Q112" s="402"/>
       <c r="R112" s="7"/>
     </row>
     <row r="113" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F113" s="370"/>
-      <c r="G113" s="370"/>
-      <c r="H113" s="370"/>
-      <c r="I113" s="370"/>
-      <c r="J113" s="370"/>
-      <c r="K113" s="370"/>
-      <c r="L113" s="370"/>
-      <c r="O113" s="365"/>
-      <c r="P113" s="361"/>
-      <c r="Q113" s="366"/>
+      <c r="F113" s="406"/>
+      <c r="G113" s="406"/>
+      <c r="H113" s="406"/>
+      <c r="I113" s="406"/>
+      <c r="J113" s="406"/>
+      <c r="K113" s="406"/>
+      <c r="L113" s="406"/>
+      <c r="O113" s="401"/>
+      <c r="P113" s="397"/>
+      <c r="Q113" s="402"/>
       <c r="R113" s="7"/>
     </row>
     <row r="114" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="O114" s="365"/>
-      <c r="P114" s="361"/>
-      <c r="Q114" s="366"/>
+      <c r="O114" s="401"/>
+      <c r="P114" s="397"/>
+      <c r="Q114" s="402"/>
       <c r="R114" s="7"/>
     </row>
     <row r="115" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="O115" s="365"/>
-      <c r="P115" s="361"/>
-      <c r="Q115" s="366"/>
+      <c r="O115" s="401"/>
+      <c r="P115" s="397"/>
+      <c r="Q115" s="402"/>
       <c r="R115" s="7"/>
     </row>
     <row r="116" spans="6:18" x14ac:dyDescent="0.25">
@@ -8714,9 +8708,9 @@
       <c r="L116" s="33"/>
       <c r="M116" s="33"/>
       <c r="N116" s="33"/>
-      <c r="O116" s="365"/>
-      <c r="P116" s="361"/>
-      <c r="Q116" s="366"/>
+      <c r="O116" s="401"/>
+      <c r="P116" s="397"/>
+      <c r="Q116" s="402"/>
       <c r="R116" s="7"/>
     </row>
     <row r="117" spans="6:18" x14ac:dyDescent="0.25">
@@ -8725,9 +8719,9 @@
       <c r="L117" s="33"/>
       <c r="M117" s="33"/>
       <c r="N117" s="33"/>
-      <c r="O117" s="365"/>
-      <c r="P117" s="361"/>
-      <c r="Q117" s="366"/>
+      <c r="O117" s="401"/>
+      <c r="P117" s="397"/>
+      <c r="Q117" s="402"/>
       <c r="R117" s="7"/>
     </row>
     <row r="118" spans="6:18" x14ac:dyDescent="0.25">
@@ -8736,66 +8730,66 @@
       <c r="L118" s="33"/>
       <c r="M118" s="33"/>
       <c r="N118" s="33"/>
-      <c r="O118" s="365"/>
-      <c r="P118" s="361"/>
-      <c r="Q118" s="366"/>
+      <c r="O118" s="401"/>
+      <c r="P118" s="397"/>
+      <c r="Q118" s="402"/>
       <c r="R118" s="7"/>
     </row>
     <row r="119" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="O119" s="365"/>
-      <c r="P119" s="361"/>
-      <c r="Q119" s="366"/>
+      <c r="O119" s="401"/>
+      <c r="P119" s="397"/>
+      <c r="Q119" s="402"/>
       <c r="R119" s="7"/>
     </row>
     <row r="120" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="O120" s="365"/>
-      <c r="P120" s="361"/>
-      <c r="Q120" s="366"/>
+      <c r="O120" s="401"/>
+      <c r="P120" s="397"/>
+      <c r="Q120" s="402"/>
       <c r="R120" s="7"/>
     </row>
     <row r="121" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="O121" s="365"/>
-      <c r="P121" s="361"/>
-      <c r="Q121" s="366"/>
+      <c r="O121" s="401"/>
+      <c r="P121" s="397"/>
+      <c r="Q121" s="402"/>
       <c r="R121" s="7"/>
     </row>
     <row r="122" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="O122" s="365"/>
-      <c r="P122" s="361"/>
-      <c r="Q122" s="366"/>
+      <c r="O122" s="401"/>
+      <c r="P122" s="397"/>
+      <c r="Q122" s="402"/>
       <c r="R122" s="7"/>
     </row>
     <row r="123" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="O123" s="365"/>
-      <c r="P123" s="361"/>
-      <c r="Q123" s="366"/>
+      <c r="O123" s="401"/>
+      <c r="P123" s="397"/>
+      <c r="Q123" s="402"/>
       <c r="R123" s="7"/>
     </row>
     <row r="124" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="O124" s="365"/>
-      <c r="P124" s="361"/>
-      <c r="Q124" s="366"/>
+      <c r="O124" s="401"/>
+      <c r="P124" s="397"/>
+      <c r="Q124" s="402"/>
       <c r="R124" s="7"/>
     </row>
     <row r="125" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="O125" s="367"/>
-      <c r="P125" s="368"/>
-      <c r="Q125" s="369"/>
+      <c r="O125" s="403"/>
+      <c r="P125" s="404"/>
+      <c r="Q125" s="405"/>
       <c r="R125" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B57:B59"/>
     <mergeCell ref="C6:O8"/>
     <mergeCell ref="C39:M46"/>
     <mergeCell ref="D82:M88"/>
     <mergeCell ref="O93:Q125"/>
     <mergeCell ref="F104:L105"/>
     <mergeCell ref="F112:L113"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B57:B59"/>
   </mergeCells>
   <conditionalFormatting sqref="AL69:AO75">
     <cfRule type="dataBar" priority="1">
@@ -8841,8 +8835,8 @@
   </sheetPr>
   <dimension ref="B2:Y50"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8865,7 +8859,7 @@
   <sheetData>
     <row r="2" spans="2:22" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B2" s="204" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
@@ -8875,14 +8869,14 @@
       <c r="B4" s="204"/>
     </row>
     <row r="5" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="342" t="s">
-        <v>173</v>
+      <c r="B5" s="365" t="s">
+        <v>172</v>
       </c>
       <c r="C5" s="168" t="s">
         <v>102</v>
       </c>
       <c r="D5" s="168" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E5" s="168"/>
       <c r="F5" s="313"/>
@@ -8904,15 +8898,15 @@
       <c r="V5" s="282"/>
     </row>
     <row r="6" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="343"/>
+      <c r="B6" s="366"/>
       <c r="C6" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D6" s="161">
         <v>8000</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
@@ -8933,15 +8927,15 @@
       <c r="V6" s="6"/>
     </row>
     <row r="7" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="343"/>
+      <c r="B7" s="366"/>
       <c r="C7" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D7" s="161">
         <v>20000</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
@@ -8962,16 +8956,16 @@
       <c r="V7" s="6"/>
     </row>
     <row r="8" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="343"/>
+      <c r="B8" s="366"/>
       <c r="C8" s="158" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D8" s="18">
         <f>D7-D6</f>
         <v>12000</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
@@ -8992,15 +8986,15 @@
       <c r="V8" s="6"/>
     </row>
     <row r="9" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="343"/>
+      <c r="B9" s="366"/>
       <c r="C9" s="158" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D9" s="208" t="s">
         <v>109</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
@@ -9021,15 +9015,15 @@
       <c r="V9" s="6"/>
     </row>
     <row r="10" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="343"/>
+      <c r="B10" s="366"/>
       <c r="C10" s="158" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D10" s="208" t="s">
         <v>108</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
@@ -9050,15 +9044,15 @@
       <c r="V10" s="6"/>
     </row>
     <row r="11" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="344"/>
+      <c r="B11" s="367"/>
       <c r="C11" s="314" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D11" s="315" t="s">
         <v>107</v>
       </c>
       <c r="E11" s="316" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F11" s="305"/>
       <c r="G11" s="305"/>
@@ -9084,39 +9078,39 @@
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="345" t="s">
-        <v>161</v>
+      <c r="B13" s="368" t="s">
+        <v>160</v>
       </c>
       <c r="C13" s="322" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" s="323" t="s">
         <v>174</v>
       </c>
-      <c r="D13" s="323" t="s">
+      <c r="E13" s="299" t="s">
         <v>175</v>
-      </c>
-      <c r="E13" s="299" t="s">
-        <v>176</v>
       </c>
       <c r="F13" s="299"/>
       <c r="G13" s="299"/>
       <c r="H13" s="297"/>
     </row>
     <row r="14" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="346"/>
+      <c r="B14" s="369"/>
       <c r="C14" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D14" s="302">
         <v>2</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
       <c r="H14" s="220"/>
     </row>
     <row r="15" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="346"/>
+      <c r="B15" s="369"/>
       <c r="C15" s="17" t="s">
         <v>5</v>
       </c>
@@ -9124,39 +9118,39 @@
         <v>0.1</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
       <c r="H15" s="220"/>
     </row>
     <row r="16" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="346"/>
+      <c r="B16" s="369"/>
       <c r="C16" s="158" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D16" s="18">
         <f>D8</f>
         <v>12000</v>
       </c>
       <c r="E16" s="158" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="220"/>
     </row>
     <row r="17" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="347"/>
+      <c r="B17" s="370"/>
       <c r="C17" s="184" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D17" s="324">
         <f>D15*D16*LN(D14)</f>
         <v>831.77661667193433</v>
       </c>
       <c r="E17" s="184" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F17" s="300"/>
       <c r="G17" s="300"/>
@@ -9202,16 +9196,16 @@
         <v>116</v>
       </c>
       <c r="J19" s="235" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K19" s="237" t="s">
         <v>35</v>
       </c>
       <c r="L19" s="218"/>
-      <c r="M19" s="348" t="s">
+      <c r="M19" s="371" t="s">
         <v>99</v>
       </c>
-      <c r="N19" s="349"/>
+      <c r="N19" s="372"/>
       <c r="O19" s="201" t="s">
         <v>100</v>
       </c>
@@ -9292,7 +9286,7 @@
         <v>6000</v>
       </c>
       <c r="H21" s="223">
-        <f t="shared" ref="H21:H31" si="2">(F21*$D$8)</f>
+        <f t="shared" ref="H21:H30" si="2">(F21*$D$8)</f>
         <v>6000</v>
       </c>
       <c r="I21" s="210">
@@ -9332,7 +9326,7 @@
         <v>4.5397868702434395E-5</v>
       </c>
       <c r="G22" s="47">
-        <f t="shared" ref="G21:G31" si="3">(E22*$D$8)</f>
+        <f t="shared" ref="G22:G30" si="3">(E22*$D$8)</f>
         <v>11999.455225575572</v>
       </c>
       <c r="H22" s="224">
@@ -9340,7 +9334,7 @@
         <v>0.54477442442921276</v>
       </c>
       <c r="I22" s="211">
-        <f t="shared" ref="I21:I31" si="4">H22+$D$6</f>
+        <f t="shared" ref="I22:I31" si="4">H22+$D$6</f>
         <v>8000.5447744244293</v>
       </c>
       <c r="J22" s="91">
@@ -9702,43 +9696,43 @@
         <v>14</v>
       </c>
       <c r="C28" s="242">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D28" s="41">
         <v>10</v>
       </c>
       <c r="E28" s="229">
         <f t="shared" si="0"/>
-        <v>2.0611536181902033E-9</v>
+        <v>3.7200759760208356E-44</v>
       </c>
       <c r="F28" s="230">
         <f t="shared" si="1"/>
-        <v>0.99999999793884631</v>
+        <v>1</v>
       </c>
       <c r="G28" s="47">
         <f t="shared" si="3"/>
-        <v>2.4733843418282441E-5</v>
+        <v>4.4640911712250028E-40</v>
       </c>
       <c r="H28" s="224">
         <f t="shared" si="2"/>
-        <v>11999.999975266155</v>
+        <v>12000</v>
       </c>
       <c r="I28" s="211">
         <f t="shared" si="4"/>
-        <v>19999.999975266153</v>
+        <v>20000</v>
       </c>
       <c r="J28" s="91">
         <f t="shared" si="5"/>
-        <v>120000.00000247339</v>
+        <v>120000</v>
       </c>
       <c r="K28" s="243">
         <f t="shared" si="6"/>
-        <v>-24000</v>
+        <v>-24000.000002473389</v>
       </c>
       <c r="L28" s="219"/>
       <c r="M28" s="129">
         <f t="shared" si="7"/>
-        <v>-4</v>
+        <v>-12</v>
       </c>
       <c r="N28" s="113">
         <f t="shared" si="8"/>
@@ -9746,11 +9740,11 @@
       </c>
       <c r="O28" s="200">
         <f t="shared" si="9"/>
-        <v>-24000</v>
+        <v>-24000.000002473389</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>Sold 4 Shares of State 1 at a cost of -24000</v>
+        <v>Sold 12 Shares of State 1 at a cost of -24000</v>
       </c>
       <c r="R28" s="7" t="str">
         <f t="shared" si="13"/>
@@ -9758,7 +9752,7 @@
       </c>
       <c r="S28" s="203" t="str">
         <f t="shared" si="14"/>
-        <v>Sold 4 Shares of State 1 at a cost of -24000</v>
+        <v>Sold 12 Shares of State 1 at a cost of -24000</v>
       </c>
     </row>
     <row r="29" spans="2:25" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -9766,63 +9760,63 @@
         <v>15</v>
       </c>
       <c r="C29" s="242">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D29" s="41">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E29" s="229">
         <f t="shared" si="0"/>
-        <v>0.99999999793884631</v>
+        <v>8.1940126239905147E-40</v>
       </c>
       <c r="F29" s="230">
         <f t="shared" si="1"/>
-        <v>2.0611536181902037E-9</v>
+        <v>1</v>
       </c>
       <c r="G29" s="47">
         <f t="shared" si="3"/>
-        <v>11999.999975266155</v>
+        <v>9.8328151487886173E-36</v>
       </c>
       <c r="H29" s="224">
         <f t="shared" si="2"/>
-        <v>2.4733843418282445E-5</v>
+        <v>12000</v>
       </c>
       <c r="I29" s="211">
         <f t="shared" si="4"/>
-        <v>8000.000024733843</v>
+        <v>20000</v>
       </c>
       <c r="J29" s="91">
-        <f t="shared" si="5"/>
-        <v>144000.00000247339</v>
+        <f>$D$15*$D$16*LN(EXP($D29/$D$15)+EXP($C29/$D$15))</f>
+        <v>108000</v>
       </c>
       <c r="K29" s="243">
         <f t="shared" si="6"/>
-        <v>24000</v>
+        <v>-12000</v>
       </c>
       <c r="L29" s="219"/>
       <c r="M29" s="129">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N29" s="113">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O29" s="200">
         <f t="shared" si="9"/>
-        <v>24000</v>
+        <v>-12000</v>
       </c>
       <c r="Q29" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>Bought 4 Shares of State 1 at a cost of 24000</v>
+        <v/>
       </c>
       <c r="R29" s="7" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>Sold 1 Shares of State 2 at a cost of -12000</v>
       </c>
       <c r="S29" s="203" t="str">
         <f t="shared" si="14"/>
-        <v>Bought 4 Shares of State 1 at a cost of 24000</v>
+        <v>Sold 1 Shares of State 2 at a cost of -12000</v>
       </c>
     </row>
     <row r="30" spans="2:25" s="7" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -9830,63 +9824,63 @@
         <v>16</v>
       </c>
       <c r="C30" s="244">
-        <v>12</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="D30" s="40">
-        <v>10</v>
+        <v>0.06</v>
       </c>
       <c r="E30" s="231">
         <f>EXP(C30/$D$15)/(EXP($D30/$D$15)+EXP($C30/$D$15))</f>
-        <v>0.99999999793884631</v>
+        <v>0.35480139543681771</v>
       </c>
       <c r="F30" s="232">
         <f t="shared" si="1"/>
-        <v>2.0611536181902037E-9</v>
+        <v>0.64519860456318223</v>
       </c>
       <c r="G30" s="39">
         <f t="shared" si="3"/>
-        <v>11999.999975266155</v>
+        <v>4257.6167452418122</v>
       </c>
       <c r="H30" s="225">
         <f t="shared" si="2"/>
-        <v>2.4733843418282445E-5</v>
+        <v>7742.3832547581869</v>
       </c>
       <c r="I30" s="212">
         <f t="shared" si="4"/>
-        <v>8000.000024733843</v>
+        <v>15742.383254758188</v>
       </c>
       <c r="J30" s="127">
         <f t="shared" si="5"/>
-        <v>144000.00000247339</v>
+        <v>1245.836514636866</v>
       </c>
       <c r="K30" s="243">
         <f>(J30-J29)</f>
-        <v>0</v>
+        <v>-106754.16348536314</v>
       </c>
       <c r="L30" s="219"/>
       <c r="M30" s="137">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="N30" s="115">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-8.94</v>
       </c>
       <c r="O30" s="200">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-106754.16348536314</v>
       </c>
       <c r="Q30" s="7" t="str">
         <f>IF(M30&gt;0,"Bought ",IF(M30&lt;0,"Sold ",""))&amp;IF(M30&lt;0,M30*-1,IF(M30&gt;0,M30,""))&amp;IF(M30&lt;&gt;0," Shares of State 1 at a cost of "&amp;ROUND($O30,5),"")</f>
-        <v/>
+        <v>Bought 0.0002 Shares of State 1 at a cost of -106754.16349</v>
       </c>
       <c r="R30" s="7" t="str">
         <f>IF(N30&gt;0,"Bought ",IF(N30&lt;0,"Sold ",""))&amp;IF(N30&lt;0,N30*-1,IF(N30&gt;0,N30,""))&amp;IF(N30&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($O30,5),"")</f>
-        <v/>
+        <v>Sold 8.94 Shares of State 2 at a cost of -106754.16349</v>
       </c>
       <c r="S30" s="203" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>Bought 0.0002 Shares of State 1 at a cost of -106754.16349Sold 8.94 Shares of State 2 at a cost of -106754.16349</v>
       </c>
     </row>
     <row r="31" spans="2:25" s="7" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9895,11 +9889,11 @@
       </c>
       <c r="C31" s="51">
         <f>C30</f>
-        <v>12</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="D31" s="52">
         <f>D30</f>
-        <v>10</v>
+        <v>0.06</v>
       </c>
       <c r="E31" s="245">
         <f>E35</f>
@@ -9923,7 +9917,7 @@
       </c>
       <c r="J31" s="310">
         <f t="shared" si="5"/>
-        <v>144000.00000247339</v>
+        <v>1245.836514636866</v>
       </c>
       <c r="K31" s="219"/>
       <c r="L31" s="8"/>
@@ -9942,7 +9936,7 @@
       <c r="I32" s="33"/>
       <c r="J32" s="312">
         <f>SUMPRODUCT(C31:D31,G31:H31)</f>
-        <v>127944.81999999998</v>
+        <v>482.449882</v>
       </c>
       <c r="K32" t="s">
         <v>111</v>
@@ -9959,7 +9953,7 @@
       <c r="I33" s="17"/>
       <c r="J33" s="312">
         <f>J31-J32</f>
-        <v>16055.180002473411</v>
+        <v>763.38663263686601</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>103</v>
@@ -9969,10 +9963,10 @@
       <c r="B34" s="1"/>
       <c r="C34" s="168"/>
       <c r="D34" s="338" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E34" s="282" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
@@ -9980,10 +9974,10 @@
       <c r="I34" s="17"/>
       <c r="J34" s="310">
         <f>J21-J33</f>
-        <v>-15223.403385801477</v>
+        <v>68.389984035068323</v>
       </c>
       <c r="K34" s="55" t="s">
-        <v>120</v>
+        <v>193</v>
       </c>
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
@@ -9993,7 +9987,7 @@
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B35" s="339" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C35" s="340">
         <v>16027.59</v>
@@ -10010,7 +10004,7 @@
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
@@ -10025,12 +10019,12 @@
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B43" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
@@ -10085,7 +10079,7 @@
   <sheetData>
     <row r="2" spans="2:13" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B2" s="204" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D2" s="157"/>
     </row>
@@ -10094,14 +10088,14 @@
       <c r="D3" s="157"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C4" s="342" t="s">
-        <v>173</v>
+      <c r="C4" s="365" t="s">
+        <v>172</v>
       </c>
       <c r="D4" s="168" t="s">
         <v>102</v>
       </c>
       <c r="E4" s="168" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F4" s="168"/>
       <c r="G4" s="313"/>
@@ -10113,15 +10107,15 @@
       <c r="M4" s="308"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C5" s="343"/>
+      <c r="C5" s="366"/>
       <c r="D5" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E5" s="18">
         <v>2</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
@@ -10132,15 +10126,15 @@
       <c r="M5" s="285"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C6" s="343"/>
+      <c r="C6" s="366"/>
       <c r="D6" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E6" s="18">
         <v>50</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
@@ -10151,16 +10145,16 @@
       <c r="M6" s="285"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C7" s="343"/>
+      <c r="C7" s="366"/>
       <c r="D7" s="158" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E7" s="18">
         <f>E6-E5</f>
         <v>48</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
@@ -10171,15 +10165,15 @@
       <c r="M7" s="285"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C8" s="343"/>
+      <c r="C8" s="366"/>
       <c r="D8" s="158" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E8" s="208" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
@@ -10190,13 +10184,13 @@
       <c r="M8" s="285"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C9" s="343"/>
+      <c r="C9" s="366"/>
       <c r="D9" s="158" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E9" s="208"/>
       <c r="F9" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
@@ -10207,13 +10201,13 @@
       <c r="M9" s="285"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C10" s="344"/>
+      <c r="C10" s="367"/>
       <c r="D10" s="314" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E10" s="315"/>
       <c r="F10" s="316" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G10" s="305"/>
       <c r="H10" s="305"/>
@@ -10236,14 +10230,14 @@
       <c r="L11" s="17"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C12" s="342" t="s">
-        <v>177</v>
+      <c r="C12" s="365" t="s">
+        <v>176</v>
       </c>
       <c r="D12" s="168" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="313" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F12" s="168"/>
       <c r="G12" s="313"/>
@@ -10254,9 +10248,9 @@
       <c r="L12" s="17"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C13" s="343"/>
+      <c r="C13" s="366"/>
       <c r="D13" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>3</v>
@@ -10270,9 +10264,9 @@
       <c r="L13" s="17"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C14" s="344"/>
+      <c r="C14" s="367"/>
       <c r="D14" s="305" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E14" s="305" t="s">
         <v>2</v>
@@ -10298,39 +10292,39 @@
       <c r="L15" s="17"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C16" s="345" t="s">
-        <v>161</v>
+      <c r="C16" s="368" t="s">
+        <v>160</v>
       </c>
       <c r="D16" s="322" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E16" s="323" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F16" s="299" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G16" s="299"/>
       <c r="H16" s="299"/>
       <c r="I16" s="297"/>
     </row>
     <row r="17" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="C17" s="346"/>
+      <c r="C17" s="369"/>
       <c r="D17" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E17" s="302">
         <v>4</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="220"/>
     </row>
     <row r="18" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="C18" s="346"/>
+      <c r="C18" s="369"/>
       <c r="D18" s="17" t="s">
         <v>5</v>
       </c>
@@ -10338,45 +10332,45 @@
         <v>4</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="220"/>
     </row>
     <row r="19" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="C19" s="346"/>
+      <c r="C19" s="369"/>
       <c r="D19" s="158" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E19" s="18">
         <f>E7</f>
         <v>48</v>
       </c>
       <c r="F19" s="158" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="220"/>
     </row>
     <row r="20" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="347"/>
+      <c r="C20" s="370"/>
       <c r="D20" s="184" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E20" s="324">
         <f>E18*E19*LN(E17)</f>
         <v>266.16851733501898</v>
       </c>
       <c r="F20" s="184" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G20" s="300"/>
       <c r="H20" s="300"/>
       <c r="I20" s="298"/>
       <c r="Q20" s="33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="2:34" x14ac:dyDescent="0.25">
@@ -10443,10 +10437,10 @@
         <v>35</v>
       </c>
       <c r="U23" s="218"/>
-      <c r="V23" s="348" t="s">
+      <c r="V23" s="371" t="s">
         <v>99</v>
       </c>
-      <c r="W23" s="349"/>
+      <c r="W23" s="372"/>
       <c r="X23" s="201" t="s">
         <v>100</v>
       </c>
@@ -10970,7 +10964,7 @@
     </row>
     <row r="30" spans="2:34" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C30" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D30" s="25">
         <v>6</v>
@@ -11063,7 +11057,7 @@
     </row>
     <row r="31" spans="2:34" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C31" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D31" s="25">
         <v>7</v>
@@ -11156,7 +11150,7 @@
     </row>
     <row r="32" spans="2:34" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C32" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D32" s="25">
         <v>6</v>
@@ -11249,7 +11243,7 @@
     </row>
     <row r="33" spans="3:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C33" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D33" s="25">
         <v>7</v>
@@ -11342,7 +11336,7 @@
     </row>
     <row r="34" spans="3:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C34" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D34" s="25">
         <v>6</v>
@@ -11435,7 +11429,7 @@
     </row>
     <row r="35" spans="3:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C35" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D35" s="25">
         <v>7</v>
@@ -11528,7 +11522,7 @@
     </row>
     <row r="36" spans="3:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C36" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D36" s="25">
         <v>8</v>
@@ -11621,7 +11615,7 @@
     </row>
     <row r="37" spans="3:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C37" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D37" s="25">
         <v>9</v>
@@ -11714,7 +11708,7 @@
     </row>
     <row r="38" spans="3:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C38" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D38" s="25">
         <v>10</v>
@@ -11807,7 +11801,7 @@
     </row>
     <row r="39" spans="3:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C39" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D39" s="25">
         <v>11</v>
@@ -11900,7 +11894,7 @@
     </row>
     <row r="40" spans="3:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C40" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D40" s="25">
         <v>9</v>
@@ -11993,7 +11987,7 @@
     </row>
     <row r="41" spans="3:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C41" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D41" s="25">
         <v>10</v>
@@ -12086,7 +12080,7 @@
     </row>
     <row r="42" spans="3:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C42" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D42" s="25">
         <v>11</v>
@@ -12179,7 +12173,7 @@
     </row>
     <row r="43" spans="3:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C43" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D43" s="25">
         <v>12</v>
@@ -12272,7 +12266,7 @@
     </row>
     <row r="44" spans="3:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C44" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D44" s="25">
         <v>13</v>
@@ -12365,7 +12359,7 @@
     </row>
     <row r="45" spans="3:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C45" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D45" s="25">
         <v>14</v>
@@ -12458,7 +12452,7 @@
     </row>
     <row r="46" spans="3:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C46" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D46" s="25">
         <v>15</v>
@@ -12551,7 +12545,7 @@
     </row>
     <row r="47" spans="3:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C47" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D47" s="25">
         <v>16</v>
@@ -12645,7 +12639,7 @@
     </row>
     <row r="48" spans="3:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C48" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D48" s="25">
         <v>17</v>
@@ -12739,7 +12733,7 @@
     </row>
     <row r="49" spans="3:29" s="7" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C49" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D49" s="25">
         <v>18</v>
@@ -12931,13 +12925,13 @@
     <row r="52" spans="3:29" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C52" s="1"/>
       <c r="D52" s="168" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E52" s="338" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F52" s="282" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G52" s="158"/>
       <c r="H52" s="17"/>
@@ -12948,7 +12942,7 @@
       <c r="M52" s="17"/>
       <c r="N52" s="17"/>
       <c r="O52" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P52" s="248">
         <f>SUM(M48:P48)</f>
@@ -12966,7 +12960,7 @@
     </row>
     <row r="53" spans="3:29" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C53" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D53" s="158">
         <v>26.704999999999998</v>
@@ -13007,7 +13001,7 @@
     </row>
     <row r="54" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C54" s="339" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D54" s="340">
         <v>1</v>
@@ -13140,7 +13134,7 @@
   <sheetData>
     <row r="2" spans="2:34" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B2" s="204" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D2" s="157"/>
     </row>
@@ -13149,14 +13143,14 @@
       <c r="D3" s="157"/>
     </row>
     <row r="4" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="C4" s="342" t="s">
-        <v>173</v>
+      <c r="C4" s="365" t="s">
+        <v>172</v>
       </c>
       <c r="D4" s="168" t="s">
         <v>102</v>
       </c>
       <c r="E4" s="168" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F4" s="168"/>
       <c r="G4" s="313"/>
@@ -13168,15 +13162,15 @@
       <c r="M4" s="308"/>
     </row>
     <row r="5" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="C5" s="343"/>
+      <c r="C5" s="366"/>
       <c r="D5" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E5" s="18">
         <v>2</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
@@ -13187,15 +13181,15 @@
       <c r="M5" s="285"/>
     </row>
     <row r="6" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="C6" s="343"/>
+      <c r="C6" s="366"/>
       <c r="D6" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E6" s="18">
         <v>50</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
@@ -13206,16 +13200,16 @@
       <c r="M6" s="285"/>
     </row>
     <row r="7" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="C7" s="343"/>
+      <c r="C7" s="366"/>
       <c r="D7" s="158" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E7" s="18">
         <f>E6-E5</f>
         <v>48</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
@@ -13226,13 +13220,13 @@
       <c r="M7" s="285"/>
     </row>
     <row r="8" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="C8" s="343"/>
+      <c r="C8" s="366"/>
       <c r="D8" s="158" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E8" s="208"/>
       <c r="F8" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
@@ -13243,13 +13237,13 @@
       <c r="M8" s="285"/>
     </row>
     <row r="9" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="C9" s="343"/>
+      <c r="C9" s="366"/>
       <c r="D9" s="158" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E9" s="208"/>
       <c r="F9" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
@@ -13260,13 +13254,13 @@
       <c r="M9" s="285"/>
     </row>
     <row r="10" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="C10" s="344"/>
+      <c r="C10" s="367"/>
       <c r="D10" s="314" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E10" s="315"/>
       <c r="F10" s="316" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G10" s="305"/>
       <c r="H10" s="305"/>
@@ -13289,14 +13283,14 @@
       <c r="L11" s="17"/>
     </row>
     <row r="12" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="C12" s="342" t="s">
-        <v>177</v>
+      <c r="C12" s="365" t="s">
+        <v>176</v>
       </c>
       <c r="D12" s="168" t="s">
         <v>102</v>
       </c>
       <c r="E12" s="168" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F12" s="168"/>
       <c r="G12" s="313"/>
@@ -13308,15 +13302,15 @@
       <c r="M12" s="308"/>
     </row>
     <row r="13" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="C13" s="343"/>
+      <c r="C13" s="366"/>
       <c r="D13" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E13" s="18">
         <v>5</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
@@ -13328,15 +13322,15 @@
     </row>
     <row r="14" spans="2:34" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14"/>
-      <c r="C14" s="343"/>
+      <c r="C14" s="366"/>
       <c r="D14" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E14" s="18">
         <v>300</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
@@ -13361,16 +13355,16 @@
     </row>
     <row r="15" spans="2:34" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15"/>
-      <c r="C15" s="343"/>
+      <c r="C15" s="366"/>
       <c r="D15" s="158" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E15" s="18">
         <f>E14-E13</f>
         <v>295</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
@@ -13395,13 +13389,13 @@
     </row>
     <row r="16" spans="2:34" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16"/>
-      <c r="C16" s="343"/>
+      <c r="C16" s="366"/>
       <c r="D16" s="158" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E16" s="208"/>
       <c r="F16" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
@@ -13426,13 +13420,13 @@
     </row>
     <row r="17" spans="2:34" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17"/>
-      <c r="C17" s="343"/>
+      <c r="C17" s="366"/>
       <c r="D17" s="158" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E17" s="208"/>
       <c r="F17" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -13457,13 +13451,13 @@
     </row>
     <row r="18" spans="2:34" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18"/>
-      <c r="C18" s="344"/>
+      <c r="C18" s="367"/>
       <c r="D18" s="314" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E18" s="315"/>
       <c r="F18" s="316" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G18" s="305"/>
       <c r="H18" s="305"/>
@@ -13514,17 +13508,17 @@
     </row>
     <row r="20" spans="2:34" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20"/>
-      <c r="C20" s="345" t="s">
-        <v>161</v>
+      <c r="C20" s="368" t="s">
+        <v>160</v>
       </c>
       <c r="D20" s="322" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E20" s="323" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F20" s="299" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G20" s="299"/>
       <c r="H20" s="299"/>
@@ -13544,22 +13538,22 @@
       <c r="AH20"/>
     </row>
     <row r="21" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="C21" s="346"/>
+      <c r="C21" s="369"/>
       <c r="D21" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E21" s="302">
         <v>4</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="220"/>
     </row>
     <row r="22" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="C22" s="346"/>
+      <c r="C22" s="369"/>
       <c r="D22" s="17" t="s">
         <v>5</v>
       </c>
@@ -13567,39 +13561,39 @@
         <v>2</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
       <c r="I22" s="220"/>
     </row>
     <row r="23" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="C23" s="346"/>
+      <c r="C23" s="369"/>
       <c r="D23" s="158" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E23" s="18">
         <f>E15+E7</f>
         <v>343</v>
       </c>
       <c r="F23" s="158" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
       <c r="I23" s="220"/>
     </row>
     <row r="24" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="347"/>
+      <c r="C24" s="370"/>
       <c r="D24" s="184" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E24" s="324">
         <f>E22*E23*LN(E21)</f>
         <v>950.99793172824491</v>
       </c>
       <c r="F24" s="184" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G24" s="300"/>
       <c r="H24" s="300"/>
@@ -13669,10 +13663,10 @@
         <v>35</v>
       </c>
       <c r="U27" s="218"/>
-      <c r="V27" s="348" t="s">
+      <c r="V27" s="371" t="s">
         <v>99</v>
       </c>
-      <c r="W27" s="349"/>
+      <c r="W27" s="372"/>
       <c r="X27" s="201" t="s">
         <v>100</v>
       </c>
@@ -13739,10 +13733,10 @@
         <v>i=50, 300</v>
       </c>
       <c r="Q28" s="209" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R28" s="209" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S28" s="42">
         <v>0</v>
@@ -14658,13 +14652,13 @@
     <row r="40" spans="3:29" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C40" s="1"/>
       <c r="D40" s="168" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E40" s="338" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F40" s="282" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G40" s="158"/>
       <c r="H40" s="17"/>
@@ -14675,7 +14669,7 @@
       <c r="M40" s="17"/>
       <c r="N40" s="17"/>
       <c r="O40" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P40" s="248">
         <f>SUM(M36:P36)</f>
@@ -14693,7 +14687,7 @@
     </row>
     <row r="41" spans="3:29" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C41" s="341" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D41" s="248">
         <v>26.704999999999998</v>
@@ -14735,7 +14729,7 @@
     </row>
     <row r="42" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C42" s="339" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D42" s="340">
         <v>297</v>
@@ -14945,7 +14939,7 @@
       <c r="L8" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="380">
+      <c r="M8" s="346">
         <v>0</v>
       </c>
       <c r="N8" s="35"/>
@@ -15011,7 +15005,7 @@
         <f t="shared" ref="K9:K15" si="1">EXP(G9/$C9)/(EXP($E9/$C9)+EXP($F9/$C9)+EXP($G9/$C9)+EXP($H9/$C9))</f>
         <v>0.25</v>
       </c>
-      <c r="L9" s="401">
+      <c r="L9" s="354">
         <f t="shared" ref="L9:L15" si="2">EXP(H9/$C9)/(EXP($E9/$C9)+EXP($F9/$C9)+EXP($G9/$C9)+EXP($H9/$C9))</f>
         <v>0.25</v>
       </c>
@@ -15085,7 +15079,7 @@
         <f t="shared" si="1"/>
         <v>0.4269327006952488</v>
       </c>
-      <c r="L10" s="402">
+      <c r="L10" s="355">
         <f t="shared" si="2"/>
         <v>0.1570597633495828</v>
       </c>
@@ -15158,7 +15152,7 @@
         <f t="shared" si="1"/>
         <v>0.3874556190002601</v>
       </c>
-      <c r="L11" s="402">
+      <c r="L11" s="355">
         <f t="shared" si="2"/>
         <v>0.14253695659655097</v>
       </c>
@@ -15235,7 +15229,7 @@
         <f t="shared" si="1"/>
         <v>0.83726332130649472</v>
       </c>
-      <c r="L12" s="402">
+      <c r="L12" s="355">
         <f t="shared" si="2"/>
         <v>6.8726758577284552E-2</v>
       </c>
@@ -15314,7 +15308,7 @@
         <f t="shared" si="1"/>
         <v>0.5044502993114427</v>
       </c>
-      <c r="L13" s="402">
+      <c r="L13" s="355">
         <f t="shared" si="2"/>
         <v>0.18557689420946036</v>
       </c>
@@ -15395,7 +15389,7 @@
         <f t="shared" si="1"/>
         <v>8.027488216455092E-2</v>
       </c>
-      <c r="L14" s="402">
+      <c r="L14" s="355">
         <f t="shared" si="2"/>
         <v>0.10835975671694488</v>
       </c>
@@ -15473,7 +15467,7 @@
         <f t="shared" si="1"/>
         <v>7.1310520017451792E-2</v>
       </c>
-      <c r="L15" s="403">
+      <c r="L15" s="356">
         <f t="shared" si="2"/>
         <v>7.1310520017451792E-2</v>
       </c>
@@ -15534,11 +15528,11 @@
         <f>G15</f>
         <v>0</v>
       </c>
-      <c r="H16" s="399">
+      <c r="H16" s="352">
         <f>H15</f>
         <v>0</v>
       </c>
-      <c r="I16" s="400">
+      <c r="I16" s="353">
         <f>EXP(E16)/(EXP($E16)+EXP($F16)+EXP($G16)+EXP($H16))</f>
         <v>6.1440991013794134E-6</v>
       </c>
@@ -15550,7 +15544,7 @@
         <f t="shared" ref="K16" si="8">EXP(G16)/(EXP($E16)+EXP($F16)+EXP($G16)+EXP($H16))</f>
         <v>6.1440991013794134E-6</v>
       </c>
-      <c r="L16" s="401">
+      <c r="L16" s="354">
         <f>EXP(H16)/(EXP($E16)+EXP($F16)+EXP($G16)+EXP($H16))</f>
         <v>6.1440991013794134E-6</v>
       </c>
@@ -15595,7 +15589,7 @@
         <f>(SUMPRODUCT(I16:L16,E16:H16))</f>
         <v>11.99977881243235</v>
       </c>
-      <c r="N17" s="404"/>
+      <c r="N17" s="357"/>
     </row>
     <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7"/>
@@ -21004,10 +20998,10 @@
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
-      <c r="F4" s="371" t="s">
+      <c r="F4" s="407" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="372"/>
+      <c r="G4" s="408"/>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
@@ -21947,12 +21941,12 @@
       <c r="U21" s="113"/>
     </row>
     <row r="22" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R22" s="373" t="s">
+      <c r="R22" s="409" t="s">
         <v>61</v>
       </c>
-      <c r="S22" s="374"/>
-      <c r="T22" s="374"/>
-      <c r="U22" s="375"/>
+      <c r="S22" s="410"/>
+      <c r="T22" s="410"/>
+      <c r="U22" s="411"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/docs/LogMSR_Demo.xlsx
+++ b/docs/LogMSR_Demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="21075" windowHeight="9975" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="21075" windowHeight="9975"/>
   </bookViews>
   <sheets>
     <sheet name="Simple Example" sheetId="10" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="204">
   <si>
     <t>Final</t>
   </si>
@@ -385,6 +385,9 @@
     <t>If probabilities increase toward 100%, this amount is used. A higher b allows this number to increase higher before reaching 100%.</t>
   </si>
   <si>
+    <t>Post-Hoc Net Cost - This cost will be lowest when the outcome is more central (ie far from both extremes).</t>
+  </si>
+  <si>
     <t>Targeting Calculator - Use this to "make a trade such that i=0,0 is at this price"</t>
   </si>
   <si>
@@ -633,7 +636,34 @@
     <t>cumulative scales</t>
   </si>
   <si>
-    <t>Post-Hoc Net Cost - This cost will be lowest when the outcome is more central (ie far from both extremes), and when open interest is high (many outstanding positions might require capital to maintain market-maker, but this capital ends up not being required).</t>
+    <t>Target:</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>b-independent Actual</t>
+  </si>
+  <si>
+    <t>changes with b (as you cannot buy at 'exactly' the market price)</t>
+  </si>
+  <si>
+    <t>Miss</t>
+  </si>
+  <si>
+    <t>Speculating</t>
+  </si>
+  <si>
+    <t>This share will be worth return(d1) reguardless of what happens to d2</t>
+  </si>
+  <si>
+    <t>The hedge appears to be imperfect for some reason, and acts as if some leverage has been employed…I have no idea why. This cell is a function of E5 and E6, the narrower the range, the more pseudoleverage appears.</t>
   </si>
 </sst>
 </file>
@@ -1491,7 +1521,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="412">
+  <cellXfs count="414">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -2244,6 +2274,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2382,11 +2414,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="48362624"/>
-        <c:axId val="48364928"/>
+        <c:axId val="69158400"/>
+        <c:axId val="77943296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="48362624"/>
+        <c:axId val="69158400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2395,7 +2427,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48364928"/>
+        <c:crossAx val="77943296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2403,7 +2435,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48364928"/>
+        <c:axId val="77943296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2415,7 +2447,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48362624"/>
+        <c:crossAx val="69158400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2670,11 +2702,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="82165760"/>
-        <c:axId val="82167680"/>
+        <c:axId val="69157376"/>
+        <c:axId val="77945024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82165760"/>
+        <c:axId val="69157376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2683,7 +2715,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82167680"/>
+        <c:crossAx val="77945024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2691,7 +2723,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82167680"/>
+        <c:axId val="77945024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2703,14 +2735,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82165760"/>
+        <c:crossAx val="69157376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2843,11 +2874,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96130560"/>
-        <c:axId val="96132096"/>
+        <c:axId val="70084096"/>
+        <c:axId val="69714496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96130560"/>
+        <c:axId val="70084096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2856,7 +2887,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96132096"/>
+        <c:crossAx val="69714496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2864,7 +2895,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96132096"/>
+        <c:axId val="69714496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2875,7 +2906,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96130560"/>
+        <c:crossAx val="70084096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2967,11 +2998,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97975680"/>
-        <c:axId val="106029056"/>
+        <c:axId val="70085120"/>
+        <c:axId val="69716800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97975680"/>
+        <c:axId val="70085120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2980,7 +3011,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106029056"/>
+        <c:crossAx val="69716800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2988,7 +3019,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106029056"/>
+        <c:axId val="69716800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3000,7 +3031,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97975680"/>
+        <c:crossAx val="70085120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3095,13 +3126,13 @@
                   <c:v>8000.000024733843</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20000</c:v>
+                  <c:v>19999.999975266153</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20000</c:v>
+                  <c:v>8000.000024733843</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15742.383254758188</c:v>
+                  <c:v>8000.000024733843</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>16027.59</c:v>
@@ -3121,11 +3152,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="125189504"/>
-        <c:axId val="125768832"/>
+        <c:axId val="125404672"/>
+        <c:axId val="69718528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="125189504"/>
+        <c:axId val="125404672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3134,7 +3165,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125768832"/>
+        <c:crossAx val="69718528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3142,7 +3173,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125768832"/>
+        <c:axId val="69718528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20000"/>
@@ -3155,7 +3186,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125189504"/>
+        <c:crossAx val="125404672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1000"/>
@@ -3208,6 +3239,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3422,11 +3454,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="126319232"/>
-        <c:axId val="126333696"/>
+        <c:axId val="57618944"/>
+        <c:axId val="69720256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="126319232"/>
+        <c:axId val="57618944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3435,7 +3467,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126333696"/>
+        <c:crossAx val="69720256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3443,7 +3475,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126333696"/>
+        <c:axId val="69720256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -3456,13 +3488,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126319232"/>
+        <c:crossAx val="57618944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3492,6 +3525,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3524,34 +3558,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>26</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26</c:v>
+                  <c:v>28.904421801819034</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26</c:v>
+                  <c:v>27.500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.121952102310978</c:v>
+                  <c:v>26.09557819818097</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26</c:v>
+                  <c:v>26.09557819818097</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26</c:v>
+                  <c:v>26.09557819818097</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0000000000000049</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26</c:v>
+                  <c:v>26.09557819818097</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.716346784718233</c:v>
+                  <c:v>38.955280009781553</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.704999999999998</c:v>
+                  <c:v>28.324999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3568,11 +3602,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="47206784"/>
-        <c:axId val="47208320"/>
+        <c:axId val="126189568"/>
+        <c:axId val="126107648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="47206784"/>
+        <c:axId val="126189568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3581,7 +3615,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47208320"/>
+        <c:crossAx val="126107648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3589,9 +3623,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47208320"/>
+        <c:axId val="126107648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="50"/>
+          <c:min val="2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3600,13 +3636,15 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47206784"/>
+        <c:crossAx val="126189568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="8"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3636,6 +3674,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3674,28 +3713,28 @@
                   <c:v>152.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>152.5</c:v>
+                  <c:v>170.84206776131046</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>152.5</c:v>
+                  <c:v>170.84206776131046</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>152.5</c:v>
+                  <c:v>170.84206776131046</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>116.3744972954529</c:v>
+                  <c:v>170.84206776131046</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0000000000000302</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>152.5</c:v>
+                  <c:v>170.84206776131046</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>220.66228069585148</c:v>
+                  <c:v>47.720024616213102</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>297</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3712,11 +3751,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="47318912"/>
-        <c:axId val="47320448"/>
+        <c:axId val="126191104"/>
+        <c:axId val="126109376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="47318912"/>
+        <c:axId val="126191104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3725,7 +3764,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47320448"/>
+        <c:crossAx val="126109376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3733,9 +3772,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47320448"/>
+        <c:axId val="126109376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="300"/>
+          <c:min val="5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3744,13 +3785,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47318912"/>
+        <c:crossAx val="126191104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3883,11 +3925,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="47344256"/>
-        <c:axId val="47358336"/>
+        <c:axId val="126193152"/>
+        <c:axId val="126111680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="47344256"/>
+        <c:axId val="126193152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3896,7 +3938,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47358336"/>
+        <c:crossAx val="126111680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3904,7 +3946,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47358336"/>
+        <c:axId val="126111680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3915,7 +3957,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47344256"/>
+        <c:crossAx val="126193152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3976,15 +4018,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>100856</xdr:colOff>
+      <xdr:colOff>179297</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>123264</xdr:rowOff>
+      <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>78441</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
+      <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4290,7 +4332,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>403411</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>163606</xdr:rowOff>
+      <xdr:rowOff>56029</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
@@ -4677,8 +4719,8 @@
   </sheetPr>
   <dimension ref="A2:AH53"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4702,7 +4744,7 @@
   <sheetData>
     <row r="2" spans="1:34" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="287" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
@@ -4721,20 +4763,20 @@
       <c r="I3" s="17"/>
       <c r="J3"/>
       <c r="N3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="W3" s="33"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="365" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C4" s="168" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="313" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E4" s="168"/>
       <c r="F4" s="313"/>
@@ -4750,7 +4792,7 @@
       <c r="A5" s="7"/>
       <c r="B5" s="366"/>
       <c r="C5" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>3</v>
@@ -4769,7 +4811,7 @@
       <c r="A6" s="7"/>
       <c r="B6" s="367"/>
       <c r="C6" s="305" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D6" s="305" t="s">
         <v>2</v>
@@ -4802,16 +4844,16 @@
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="368" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C8" s="322" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D8" s="325" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E8" s="299" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F8" s="299"/>
       <c r="G8" s="196"/>
@@ -4826,13 +4868,13 @@
       <c r="A9" s="7"/>
       <c r="B9" s="369"/>
       <c r="C9" s="17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D9" s="302">
         <v>2</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="326"/>
@@ -4856,7 +4898,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="326"/>
@@ -4874,14 +4916,14 @@
       <c r="A11" s="7"/>
       <c r="B11" s="370"/>
       <c r="C11" s="184" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D11" s="324">
         <f>D10*LN(D9)</f>
         <v>4.8520302639196169</v>
       </c>
       <c r="E11" s="184" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F11" s="184"/>
       <c r="G11" s="197"/>
@@ -4926,10 +4968,10 @@
       </c>
       <c r="H13" s="65"/>
       <c r="I13" s="66" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J13" s="286" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K13" s="20"/>
       <c r="L13" s="371" t="s">
@@ -4954,16 +4996,16 @@
         <v>45</v>
       </c>
       <c r="E14" s="295" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F14" s="296" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" s="192" t="s">
         <v>141</v>
       </c>
-      <c r="G14" s="192" t="s">
-        <v>140</v>
-      </c>
       <c r="H14" s="191" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I14" s="345">
         <v>0</v>
@@ -5796,11 +5838,11 @@
         <v>42.030658296835739</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q31" s="8"/>
       <c r="R31" s="290" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="S31" s="8"/>
     </row>
@@ -5971,11 +6013,11 @@
       <c r="C39" s="349"/>
       <c r="D39" s="7"/>
       <c r="E39" s="373" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F39" s="374"/>
       <c r="G39" s="379" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H39" s="380"/>
       <c r="I39" s="380"/>
@@ -6310,7 +6352,7 @@
   <dimension ref="A3:AO125"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L58" sqref="L58"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6330,12 +6372,12 @@
   <sheetData>
     <row r="3" spans="1:22" ht="92.25" x14ac:dyDescent="1.35">
       <c r="C3" s="288" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C6" s="388" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D6" s="389"/>
       <c r="E6" s="389"/>
@@ -6406,7 +6448,7 @@
     </row>
     <row r="11" spans="1:22" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C11" s="157" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -6418,13 +6460,13 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B13" s="365" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C13" s="168" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="313" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E13" s="313"/>
       <c r="F13" s="313"/>
@@ -6439,7 +6481,7 @@
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B14" s="366"/>
       <c r="C14" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>3</v>
@@ -6457,7 +6499,7 @@
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B15" s="367"/>
       <c r="C15" s="305" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D15" s="305" t="s">
         <v>2</v>
@@ -6483,16 +6525,16 @@
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="365" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C17" s="168" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D17" s="317" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E17" s="313" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F17" s="313"/>
       <c r="G17" s="313"/>
@@ -6506,14 +6548,14 @@
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="366"/>
       <c r="C18" s="17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D18" s="302">
         <f>COUNTA(D25:E25)</f>
         <v>2</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
@@ -6533,7 +6575,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
@@ -6547,14 +6589,14 @@
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="367"/>
       <c r="C20" s="293" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D20" s="318">
         <f>H26</f>
         <v>0.69314718055994529</v>
       </c>
       <c r="E20" s="293" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F20" s="305"/>
       <c r="G20" s="305"/>
@@ -6617,7 +6659,7 @@
       </c>
       <c r="G24" s="66"/>
       <c r="H24" s="64" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I24" s="66" t="s">
         <v>35</v>
@@ -6633,16 +6675,16 @@
         <v>34</v>
       </c>
       <c r="D25" s="190" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E25" s="191" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="192" t="s">
         <v>141</v>
       </c>
-      <c r="F25" s="192" t="s">
-        <v>140</v>
-      </c>
       <c r="G25" s="193" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H25" s="42">
         <v>0</v>
@@ -6705,7 +6747,7 @@
         <v>0.62011450695827752</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q27"/>
     </row>
@@ -6779,7 +6821,7 @@
     </row>
     <row r="30" spans="2:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="25" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D30" s="47">
         <v>2.1</v>
@@ -6808,7 +6850,7 @@
     <row r="31" spans="2:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31"/>
       <c r="C31" s="21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D31" s="47">
         <v>3</v>
@@ -6922,7 +6964,7 @@
         <v>5.9032826287971574E-2</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P35"/>
       <c r="Q35"/>
@@ -6972,7 +7014,7 @@
     </row>
     <row r="39" spans="2:18" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="397" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D39" s="397"/>
       <c r="E39" s="397"/>
@@ -7165,18 +7207,18 @@
     </row>
     <row r="51" spans="1:22" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C51" s="157" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B53" s="365" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C53" s="168" t="s">
         <v>4</v>
       </c>
       <c r="D53" s="313" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E53" s="313"/>
       <c r="F53" s="313"/>
@@ -7186,7 +7228,7 @@
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B54" s="366"/>
       <c r="C54" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D54" s="17" t="s">
         <v>3</v>
@@ -7202,7 +7244,7 @@
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B55" s="367"/>
       <c r="C55" s="305" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D55" s="305" t="s">
         <v>2</v>
@@ -7224,13 +7266,13 @@
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B57" s="365" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C57" s="168" t="s">
         <v>4</v>
       </c>
       <c r="D57" s="313" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E57" s="313"/>
       <c r="F57" s="313"/>
@@ -7241,7 +7283,7 @@
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B58" s="366"/>
       <c r="C58" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D58" s="17" t="s">
         <v>3</v>
@@ -7255,7 +7297,7 @@
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B59" s="367"/>
       <c r="C59" s="305" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D59" s="305" t="s">
         <v>2</v>
@@ -7278,16 +7320,16 @@
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B61" s="368" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D61" s="323" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E61" s="299" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F61" s="299"/>
       <c r="G61" s="299"/>
@@ -7297,14 +7339,14 @@
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B62" s="369"/>
       <c r="C62" s="17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D62" s="302">
         <f>COUNTA(D68:G68)</f>
         <v>4</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F62" s="17"/>
       <c r="G62" s="17"/>
@@ -7320,7 +7362,7 @@
         <v>3.5</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F63" s="17"/>
       <c r="G63" s="17"/>
@@ -7330,14 +7372,14 @@
     <row r="64" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="370"/>
       <c r="C64" s="184" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D64" s="324">
         <f>L69</f>
         <v>4.8520302639196169</v>
       </c>
       <c r="E64" s="184" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F64" s="300"/>
       <c r="G64" s="300"/>
@@ -7569,7 +7611,7 @@
       </c>
       <c r="N70" s="7"/>
       <c r="O70" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P70" s="7"/>
       <c r="Q70" s="7"/>
@@ -8046,7 +8088,7 @@
         <v>0.66212158126025145</v>
       </c>
       <c r="M78" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="79" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8080,7 +8122,7 @@
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
       <c r="D82" s="397" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E82" s="397"/>
       <c r="F82" s="397"/>
@@ -8246,7 +8288,7 @@
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
       <c r="D91" s="305" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E91" s="305"/>
       <c r="F91" s="305"/>
@@ -8299,7 +8341,7 @@
         <v>54</v>
       </c>
       <c r="O93" s="398" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P93" s="399"/>
       <c r="Q93" s="400"/>
@@ -8835,8 +8877,8 @@
   </sheetPr>
   <dimension ref="B2:Y50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8859,7 +8901,7 @@
   <sheetData>
     <row r="2" spans="2:22" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B2" s="204" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
@@ -8870,13 +8912,13 @@
     </row>
     <row r="5" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="365" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C5" s="168" t="s">
         <v>102</v>
       </c>
       <c r="D5" s="168" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E5" s="168"/>
       <c r="F5" s="313"/>
@@ -8900,13 +8942,13 @@
     <row r="6" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="366"/>
       <c r="C6" s="17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D6" s="161">
         <v>8000</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
@@ -8929,13 +8971,13 @@
     <row r="7" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="366"/>
       <c r="C7" s="17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D7" s="161">
         <v>20000</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
@@ -8958,14 +9000,14 @@
     <row r="8" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="366"/>
       <c r="C8" s="158" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D8" s="18">
         <f>D7-D6</f>
         <v>12000</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
@@ -8988,13 +9030,13 @@
     <row r="9" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="366"/>
       <c r="C9" s="158" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D9" s="208" t="s">
         <v>109</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
@@ -9017,13 +9059,13 @@
     <row r="10" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="366"/>
       <c r="C10" s="158" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D10" s="208" t="s">
         <v>108</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
@@ -9046,13 +9088,13 @@
     <row r="11" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="367"/>
       <c r="C11" s="314" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D11" s="315" t="s">
         <v>107</v>
       </c>
       <c r="E11" s="316" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F11" s="305"/>
       <c r="G11" s="305"/>
@@ -9079,16 +9121,16 @@
     </row>
     <row r="13" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="368" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C13" s="322" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D13" s="323" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E13" s="299" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F13" s="299"/>
       <c r="G13" s="299"/>
@@ -9097,13 +9139,13 @@
     <row r="14" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="369"/>
       <c r="C14" s="17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D14" s="302">
         <v>2</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
@@ -9118,7 +9160,7 @@
         <v>0.1</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
@@ -9127,14 +9169,14 @@
     <row r="16" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="369"/>
       <c r="C16" s="158" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D16" s="18">
         <f>D8</f>
         <v>12000</v>
       </c>
       <c r="E16" s="158" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
@@ -9143,14 +9185,14 @@
     <row r="17" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="370"/>
       <c r="C17" s="184" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D17" s="324">
         <f>D15*D16*LN(D14)</f>
         <v>831.77661667193433</v>
       </c>
       <c r="E17" s="184" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F17" s="300"/>
       <c r="G17" s="300"/>
@@ -9196,7 +9238,7 @@
         <v>116</v>
       </c>
       <c r="J19" s="235" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K19" s="237" t="s">
         <v>35</v>
@@ -9696,43 +9738,43 @@
         <v>14</v>
       </c>
       <c r="C28" s="242">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D28" s="41">
         <v>10</v>
       </c>
       <c r="E28" s="229">
         <f t="shared" si="0"/>
-        <v>3.7200759760208356E-44</v>
+        <v>2.0611536181902033E-9</v>
       </c>
       <c r="F28" s="230">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.99999999793884631</v>
       </c>
       <c r="G28" s="47">
         <f t="shared" si="3"/>
-        <v>4.4640911712250028E-40</v>
+        <v>2.4733843418282441E-5</v>
       </c>
       <c r="H28" s="224">
         <f t="shared" si="2"/>
-        <v>12000</v>
+        <v>11999.999975266155</v>
       </c>
       <c r="I28" s="211">
         <f t="shared" si="4"/>
-        <v>20000</v>
+        <v>19999.999975266153</v>
       </c>
       <c r="J28" s="91">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>120000.00000247339</v>
       </c>
       <c r="K28" s="243">
         <f t="shared" si="6"/>
-        <v>-24000.000002473389</v>
+        <v>-24000</v>
       </c>
       <c r="L28" s="219"/>
       <c r="M28" s="129">
         <f t="shared" si="7"/>
-        <v>-12</v>
+        <v>-4</v>
       </c>
       <c r="N28" s="113">
         <f t="shared" si="8"/>
@@ -9740,11 +9782,11 @@
       </c>
       <c r="O28" s="200">
         <f t="shared" si="9"/>
-        <v>-24000.000002473389</v>
+        <v>-24000</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>Sold 12 Shares of State 1 at a cost of -24000</v>
+        <v>Sold 4 Shares of State 1 at a cost of -24000</v>
       </c>
       <c r="R28" s="7" t="str">
         <f t="shared" si="13"/>
@@ -9752,7 +9794,7 @@
       </c>
       <c r="S28" s="203" t="str">
         <f t="shared" si="14"/>
-        <v>Sold 12 Shares of State 1 at a cost of -24000</v>
+        <v>Sold 4 Shares of State 1 at a cost of -24000</v>
       </c>
     </row>
     <row r="29" spans="2:25" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -9760,63 +9802,63 @@
         <v>15</v>
       </c>
       <c r="C29" s="242">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D29" s="41">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" s="229">
         <f t="shared" si="0"/>
-        <v>8.1940126239905147E-40</v>
+        <v>0.99999999793884631</v>
       </c>
       <c r="F29" s="230">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2.0611536181902037E-9</v>
       </c>
       <c r="G29" s="47">
         <f t="shared" si="3"/>
-        <v>9.8328151487886173E-36</v>
+        <v>11999.999975266155</v>
       </c>
       <c r="H29" s="224">
         <f t="shared" si="2"/>
-        <v>12000</v>
+        <v>2.4733843418282445E-5</v>
       </c>
       <c r="I29" s="211">
         <f t="shared" si="4"/>
-        <v>20000</v>
+        <v>8000.000024733843</v>
       </c>
       <c r="J29" s="91">
-        <f>$D$15*$D$16*LN(EXP($D29/$D$15)+EXP($C29/$D$15))</f>
-        <v>108000</v>
+        <f t="shared" si="5"/>
+        <v>144000.00000247339</v>
       </c>
       <c r="K29" s="243">
         <f t="shared" si="6"/>
-        <v>-12000</v>
+        <v>24000</v>
       </c>
       <c r="L29" s="219"/>
       <c r="M29" s="129">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N29" s="113">
         <f t="shared" si="8"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O29" s="200">
         <f t="shared" si="9"/>
-        <v>-12000</v>
+        <v>24000</v>
       </c>
       <c r="Q29" s="7" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>Bought 4 Shares of State 1 at a cost of 24000</v>
       </c>
       <c r="R29" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>Sold 1 Shares of State 2 at a cost of -12000</v>
+        <v/>
       </c>
       <c r="S29" s="203" t="str">
         <f t="shared" si="14"/>
-        <v>Sold 1 Shares of State 2 at a cost of -12000</v>
+        <v>Bought 4 Shares of State 1 at a cost of 24000</v>
       </c>
     </row>
     <row r="30" spans="2:25" s="7" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -9824,63 +9866,63 @@
         <v>16</v>
       </c>
       <c r="C30" s="244">
-        <v>2.0000000000000001E-4</v>
+        <v>12</v>
       </c>
       <c r="D30" s="40">
-        <v>0.06</v>
+        <v>10</v>
       </c>
       <c r="E30" s="231">
         <f>EXP(C30/$D$15)/(EXP($D30/$D$15)+EXP($C30/$D$15))</f>
-        <v>0.35480139543681771</v>
+        <v>0.99999999793884631</v>
       </c>
       <c r="F30" s="232">
         <f t="shared" si="1"/>
-        <v>0.64519860456318223</v>
+        <v>2.0611536181902037E-9</v>
       </c>
       <c r="G30" s="39">
         <f t="shared" si="3"/>
-        <v>4257.6167452418122</v>
+        <v>11999.999975266155</v>
       </c>
       <c r="H30" s="225">
         <f t="shared" si="2"/>
-        <v>7742.3832547581869</v>
+        <v>2.4733843418282445E-5</v>
       </c>
       <c r="I30" s="212">
         <f t="shared" si="4"/>
-        <v>15742.383254758188</v>
+        <v>8000.000024733843</v>
       </c>
       <c r="J30" s="127">
         <f t="shared" si="5"/>
-        <v>1245.836514636866</v>
+        <v>144000.00000247339</v>
       </c>
       <c r="K30" s="243">
         <f>(J30-J29)</f>
-        <v>-106754.16348536314</v>
+        <v>0</v>
       </c>
       <c r="L30" s="219"/>
       <c r="M30" s="137">
         <f t="shared" si="7"/>
-        <v>2.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="N30" s="115">
         <f t="shared" si="8"/>
-        <v>-8.94</v>
+        <v>0</v>
       </c>
       <c r="O30" s="200">
         <f t="shared" si="9"/>
-        <v>-106754.16348536314</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="7" t="str">
         <f>IF(M30&gt;0,"Bought ",IF(M30&lt;0,"Sold ",""))&amp;IF(M30&lt;0,M30*-1,IF(M30&gt;0,M30,""))&amp;IF(M30&lt;&gt;0," Shares of State 1 at a cost of "&amp;ROUND($O30,5),"")</f>
-        <v>Bought 0.0002 Shares of State 1 at a cost of -106754.16349</v>
+        <v/>
       </c>
       <c r="R30" s="7" t="str">
         <f>IF(N30&gt;0,"Bought ",IF(N30&lt;0,"Sold ",""))&amp;IF(N30&lt;0,N30*-1,IF(N30&gt;0,N30,""))&amp;IF(N30&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($O30,5),"")</f>
-        <v>Sold 8.94 Shares of State 2 at a cost of -106754.16349</v>
+        <v/>
       </c>
       <c r="S30" s="203" t="str">
         <f t="shared" si="11"/>
-        <v>Bought 0.0002 Shares of State 1 at a cost of -106754.16349Sold 8.94 Shares of State 2 at a cost of -106754.16349</v>
+        <v/>
       </c>
     </row>
     <row r="31" spans="2:25" s="7" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9889,11 +9931,11 @@
       </c>
       <c r="C31" s="51">
         <f>C30</f>
-        <v>2.0000000000000001E-4</v>
+        <v>12</v>
       </c>
       <c r="D31" s="52">
         <f>D30</f>
-        <v>0.06</v>
+        <v>10</v>
       </c>
       <c r="E31" s="245">
         <f>E35</f>
@@ -9917,7 +9959,7 @@
       </c>
       <c r="J31" s="310">
         <f t="shared" si="5"/>
-        <v>1245.836514636866</v>
+        <v>144000.00000247339</v>
       </c>
       <c r="K31" s="219"/>
       <c r="L31" s="8"/>
@@ -9936,7 +9978,7 @@
       <c r="I32" s="33"/>
       <c r="J32" s="312">
         <f>SUMPRODUCT(C31:D31,G31:H31)</f>
-        <v>482.449882</v>
+        <v>127944.81999999998</v>
       </c>
       <c r="K32" t="s">
         <v>111</v>
@@ -9953,7 +9995,7 @@
       <c r="I33" s="17"/>
       <c r="J33" s="312">
         <f>J31-J32</f>
-        <v>763.38663263686601</v>
+        <v>16055.180002473411</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>103</v>
@@ -9963,10 +10005,10 @@
       <c r="B34" s="1"/>
       <c r="C34" s="168"/>
       <c r="D34" s="338" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E34" s="282" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
@@ -9974,10 +10016,10 @@
       <c r="I34" s="17"/>
       <c r="J34" s="310">
         <f>J21-J33</f>
-        <v>68.389984035068323</v>
+        <v>-15223.403385801477</v>
       </c>
       <c r="K34" s="55" t="s">
-        <v>193</v>
+        <v>120</v>
       </c>
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
@@ -9987,7 +10029,7 @@
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B35" s="339" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C35" s="340">
         <v>16027.59</v>
@@ -10004,7 +10046,7 @@
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
@@ -10019,12 +10061,12 @@
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B43" s="33" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
@@ -10079,7 +10121,7 @@
   <sheetData>
     <row r="2" spans="2:13" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B2" s="204" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D2" s="157"/>
     </row>
@@ -10089,13 +10131,13 @@
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C4" s="365" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D4" s="168" t="s">
         <v>102</v>
       </c>
       <c r="E4" s="168" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F4" s="168"/>
       <c r="G4" s="313"/>
@@ -10109,13 +10151,13 @@
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C5" s="366"/>
       <c r="D5" s="17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E5" s="18">
         <v>2</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
@@ -10128,13 +10170,13 @@
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C6" s="366"/>
       <c r="D6" s="17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E6" s="18">
         <v>50</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
@@ -10147,14 +10189,14 @@
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C7" s="366"/>
       <c r="D7" s="158" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E7" s="18">
         <f>E6-E5</f>
         <v>48</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
@@ -10167,13 +10209,13 @@
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C8" s="366"/>
       <c r="D8" s="158" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E8" s="208" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
@@ -10186,11 +10228,11 @@
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C9" s="366"/>
       <c r="D9" s="158" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E9" s="208"/>
       <c r="F9" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
@@ -10203,11 +10245,11 @@
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C10" s="367"/>
       <c r="D10" s="314" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E10" s="315"/>
       <c r="F10" s="316" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G10" s="305"/>
       <c r="H10" s="305"/>
@@ -10231,13 +10273,13 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C12" s="365" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D12" s="168" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="313" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F12" s="168"/>
       <c r="G12" s="313"/>
@@ -10250,7 +10292,7 @@
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C13" s="366"/>
       <c r="D13" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>3</v>
@@ -10266,7 +10308,7 @@
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C14" s="367"/>
       <c r="D14" s="305" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E14" s="305" t="s">
         <v>2</v>
@@ -10293,16 +10335,16 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C16" s="368" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D16" s="322" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E16" s="323" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F16" s="299" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G16" s="299"/>
       <c r="H16" s="299"/>
@@ -10311,13 +10353,13 @@
     <row r="17" spans="2:34" x14ac:dyDescent="0.25">
       <c r="C17" s="369"/>
       <c r="D17" s="17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E17" s="302">
         <v>4</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -10332,7 +10374,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
@@ -10341,14 +10383,14 @@
     <row r="19" spans="2:34" x14ac:dyDescent="0.25">
       <c r="C19" s="369"/>
       <c r="D19" s="158" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E19" s="18">
         <f>E7</f>
         <v>48</v>
       </c>
       <c r="F19" s="158" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
@@ -10357,20 +10399,20 @@
     <row r="20" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="370"/>
       <c r="D20" s="184" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E20" s="324">
         <f>E18*E19*LN(E17)</f>
         <v>266.16851733501898</v>
       </c>
       <c r="F20" s="184" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G20" s="300"/>
       <c r="H20" s="300"/>
       <c r="I20" s="298"/>
       <c r="Q20" s="33" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="2:34" x14ac:dyDescent="0.25">
@@ -10964,7 +11006,7 @@
     </row>
     <row r="30" spans="2:34" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C30" s="21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D30" s="25">
         <v>6</v>
@@ -11057,7 +11099,7 @@
     </row>
     <row r="31" spans="2:34" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C31" s="21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D31" s="25">
         <v>7</v>
@@ -11150,7 +11192,7 @@
     </row>
     <row r="32" spans="2:34" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C32" s="21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D32" s="25">
         <v>6</v>
@@ -11243,7 +11285,7 @@
     </row>
     <row r="33" spans="3:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C33" s="21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D33" s="25">
         <v>7</v>
@@ -11336,7 +11378,7 @@
     </row>
     <row r="34" spans="3:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C34" s="21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D34" s="25">
         <v>6</v>
@@ -11429,7 +11471,7 @@
     </row>
     <row r="35" spans="3:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C35" s="21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D35" s="25">
         <v>7</v>
@@ -11522,7 +11564,7 @@
     </row>
     <row r="36" spans="3:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C36" s="21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D36" s="25">
         <v>8</v>
@@ -11615,7 +11657,7 @@
     </row>
     <row r="37" spans="3:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C37" s="21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D37" s="25">
         <v>9</v>
@@ -11708,7 +11750,7 @@
     </row>
     <row r="38" spans="3:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C38" s="21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D38" s="25">
         <v>10</v>
@@ -11801,7 +11843,7 @@
     </row>
     <row r="39" spans="3:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C39" s="21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D39" s="25">
         <v>11</v>
@@ -11894,7 +11936,7 @@
     </row>
     <row r="40" spans="3:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C40" s="21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D40" s="25">
         <v>9</v>
@@ -11987,7 +12029,7 @@
     </row>
     <row r="41" spans="3:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C41" s="21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D41" s="25">
         <v>10</v>
@@ -12080,7 +12122,7 @@
     </row>
     <row r="42" spans="3:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C42" s="21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D42" s="25">
         <v>11</v>
@@ -12173,7 +12215,7 @@
     </row>
     <row r="43" spans="3:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C43" s="21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D43" s="25">
         <v>12</v>
@@ -12266,7 +12308,7 @@
     </row>
     <row r="44" spans="3:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C44" s="21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D44" s="25">
         <v>13</v>
@@ -12359,7 +12401,7 @@
     </row>
     <row r="45" spans="3:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C45" s="21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D45" s="25">
         <v>14</v>
@@ -12452,7 +12494,7 @@
     </row>
     <row r="46" spans="3:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C46" s="21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D46" s="25">
         <v>15</v>
@@ -12545,7 +12587,7 @@
     </row>
     <row r="47" spans="3:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C47" s="21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D47" s="25">
         <v>16</v>
@@ -12639,7 +12681,7 @@
     </row>
     <row r="48" spans="3:28" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C48" s="21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D48" s="25">
         <v>17</v>
@@ -12733,7 +12775,7 @@
     </row>
     <row r="49" spans="3:29" s="7" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C49" s="21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D49" s="25">
         <v>18</v>
@@ -12925,13 +12967,13 @@
     <row r="52" spans="3:29" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C52" s="1"/>
       <c r="D52" s="168" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E52" s="338" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F52" s="282" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G52" s="158"/>
       <c r="H52" s="17"/>
@@ -12942,7 +12984,7 @@
       <c r="M52" s="17"/>
       <c r="N52" s="17"/>
       <c r="O52" s="17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P52" s="248">
         <f>SUM(M48:P48)</f>
@@ -12960,7 +13002,7 @@
     </row>
     <row r="53" spans="3:29" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C53" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D53" s="158">
         <v>26.704999999999998</v>
@@ -13001,7 +13043,7 @@
     </row>
     <row r="54" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C54" s="339" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D54" s="340">
         <v>1</v>
@@ -13111,8 +13153,8 @@
   </sheetPr>
   <dimension ref="B2:AH48"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AE15" sqref="AE15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13127,6 +13169,7 @@
     <col min="26" max="26" width="10.7109375" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="0" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="9.42578125" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="22.140625" customWidth="1"/>
     <col min="30" max="30" width="12.140625" customWidth="1"/>
     <col min="31" max="31" width="10.5703125" customWidth="1"/>
     <col min="34" max="34" width="11.140625" customWidth="1"/>
@@ -13134,7 +13177,7 @@
   <sheetData>
     <row r="2" spans="2:34" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B2" s="204" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D2" s="157"/>
     </row>
@@ -13144,13 +13187,13 @@
     </row>
     <row r="4" spans="2:34" x14ac:dyDescent="0.25">
       <c r="C4" s="365" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D4" s="168" t="s">
         <v>102</v>
       </c>
       <c r="E4" s="168" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F4" s="168"/>
       <c r="G4" s="313"/>
@@ -13164,13 +13207,13 @@
     <row r="5" spans="2:34" x14ac:dyDescent="0.25">
       <c r="C5" s="366"/>
       <c r="D5" s="17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E5" s="18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
@@ -13183,13 +13226,13 @@
     <row r="6" spans="2:34" x14ac:dyDescent="0.25">
       <c r="C6" s="366"/>
       <c r="D6" s="17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E6" s="18">
         <v>50</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
@@ -13202,14 +13245,14 @@
     <row r="7" spans="2:34" x14ac:dyDescent="0.25">
       <c r="C7" s="366"/>
       <c r="D7" s="158" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E7" s="18">
         <f>E6-E5</f>
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
@@ -13222,11 +13265,11 @@
     <row r="8" spans="2:34" x14ac:dyDescent="0.25">
       <c r="C8" s="366"/>
       <c r="D8" s="158" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E8" s="208"/>
       <c r="F8" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
@@ -13239,11 +13282,11 @@
     <row r="9" spans="2:34" x14ac:dyDescent="0.25">
       <c r="C9" s="366"/>
       <c r="D9" s="158" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E9" s="208"/>
       <c r="F9" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
@@ -13256,11 +13299,11 @@
     <row r="10" spans="2:34" x14ac:dyDescent="0.25">
       <c r="C10" s="367"/>
       <c r="D10" s="314" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E10" s="315"/>
       <c r="F10" s="316" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G10" s="305"/>
       <c r="H10" s="305"/>
@@ -13284,13 +13327,13 @@
     </row>
     <row r="12" spans="2:34" x14ac:dyDescent="0.25">
       <c r="C12" s="365" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D12" s="168" t="s">
         <v>102</v>
       </c>
       <c r="E12" s="168" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F12" s="168"/>
       <c r="G12" s="313"/>
@@ -13304,13 +13347,13 @@
     <row r="13" spans="2:34" x14ac:dyDescent="0.25">
       <c r="C13" s="366"/>
       <c r="D13" s="17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E13" s="18">
         <v>5</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
@@ -13324,13 +13367,13 @@
       <c r="B14"/>
       <c r="C14" s="366"/>
       <c r="D14" s="17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E14" s="18">
         <v>300</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
@@ -13357,14 +13400,14 @@
       <c r="B15"/>
       <c r="C15" s="366"/>
       <c r="D15" s="158" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E15" s="18">
         <f>E14-E13</f>
         <v>295</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
@@ -13391,11 +13434,11 @@
       <c r="B16"/>
       <c r="C16" s="366"/>
       <c r="D16" s="158" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E16" s="208"/>
       <c r="F16" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
@@ -13422,11 +13465,11 @@
       <c r="B17"/>
       <c r="C17" s="366"/>
       <c r="D17" s="158" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E17" s="208"/>
       <c r="F17" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -13453,11 +13496,11 @@
       <c r="B18"/>
       <c r="C18" s="367"/>
       <c r="D18" s="314" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E18" s="315"/>
       <c r="F18" s="316" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G18" s="305"/>
       <c r="H18" s="305"/>
@@ -13509,16 +13552,16 @@
     <row r="20" spans="2:34" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20"/>
       <c r="C20" s="368" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D20" s="322" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E20" s="323" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F20" s="299" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G20" s="299"/>
       <c r="H20" s="299"/>
@@ -13540,13 +13583,13 @@
     <row r="21" spans="2:34" x14ac:dyDescent="0.25">
       <c r="C21" s="369"/>
       <c r="D21" s="17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E21" s="302">
         <v>4</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
@@ -13558,10 +13601,10 @@
         <v>5</v>
       </c>
       <c r="E22" s="18">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
@@ -13570,14 +13613,14 @@
     <row r="23" spans="2:34" x14ac:dyDescent="0.25">
       <c r="C23" s="369"/>
       <c r="D23" s="158" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E23" s="18">
         <f>E15+E7</f>
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F23" s="158" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
@@ -13586,14 +13629,14 @@
     <row r="24" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="370"/>
       <c r="D24" s="184" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E24" s="324">
         <f>E22*E23*LN(E21)</f>
-        <v>950.99793172824491</v>
+        <v>3770.7206622461022</v>
       </c>
       <c r="F24" s="184" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G24" s="300"/>
       <c r="H24" s="300"/>
@@ -13686,11 +13729,11 @@
       </c>
       <c r="E28" s="190" t="str">
         <f>"i="&amp;$E$5&amp;", "&amp;E13</f>
-        <v>i=2, 5</v>
+        <v>i=5, 5</v>
       </c>
       <c r="F28" s="194" t="str">
         <f>"i="&amp;$E$5&amp;", "&amp;E14</f>
-        <v>i=2, 300</v>
+        <v>i=5, 300</v>
       </c>
       <c r="G28" s="191" t="str">
         <f>"i="&amp;$E$6&amp;", "&amp;E13</f>
@@ -13702,11 +13745,11 @@
       </c>
       <c r="I28" s="192" t="str">
         <f>E28</f>
-        <v>i=2, 5</v>
+        <v>i=5, 5</v>
       </c>
       <c r="J28" s="194" t="str">
         <f t="shared" ref="J28:P28" si="0">F28</f>
-        <v>i=2, 300</v>
+        <v>i=5, 300</v>
       </c>
       <c r="K28" s="191" t="str">
         <f t="shared" si="0"/>
@@ -13718,11 +13761,11 @@
       </c>
       <c r="M28" s="190" t="str">
         <f t="shared" si="0"/>
-        <v>i=2, 5</v>
+        <v>i=5, 5</v>
       </c>
       <c r="N28" s="194" t="str">
         <f t="shared" si="0"/>
-        <v>i=2, 300</v>
+        <v>i=5, 300</v>
       </c>
       <c r="O28" s="191" t="str">
         <f t="shared" si="0"/>
@@ -13733,10 +13776,10 @@
         <v>i=50, 300</v>
       </c>
       <c r="Q28" s="209" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="R28" s="209" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="S28" s="42">
         <v>0</v>
@@ -13745,13 +13788,16 @@
       <c r="U28" s="158"/>
       <c r="V28" s="198" t="str">
         <f>E28</f>
-        <v>i=2, 5</v>
+        <v>i=5, 5</v>
       </c>
       <c r="W28" s="199" t="str">
         <f>H28</f>
         <v>i=50, 300</v>
       </c>
       <c r="AB28"/>
+      <c r="AC28" s="7" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="29" spans="2:34" s="7" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D29" s="25">
@@ -13786,36 +13832,36 @@
         <v>0.25</v>
       </c>
       <c r="M29" s="256">
-        <f t="shared" ref="M29" si="5">I29*$E$23</f>
-        <v>85.75</v>
+        <f>I29*$E$23</f>
+        <v>85</v>
       </c>
       <c r="N29" s="255">
-        <f t="shared" ref="N29:N38" si="6">J29*$E$23</f>
-        <v>85.75</v>
+        <f t="shared" ref="N29:N38" si="5">J29*$E$23</f>
+        <v>85</v>
       </c>
       <c r="O29" s="254">
-        <f t="shared" ref="O29:O38" si="7">K29*$E$23</f>
-        <v>85.75</v>
+        <f t="shared" ref="O29:O38" si="6">K29*$E$23</f>
+        <v>85</v>
       </c>
       <c r="P29" s="253">
-        <f t="shared" ref="P29:P38" si="8">L29*$E$23</f>
-        <v>85.75</v>
+        <f t="shared" ref="P29:P38" si="7">L29*$E$23</f>
+        <v>85</v>
       </c>
       <c r="Q29" s="210">
-        <f t="shared" ref="Q29:Q38" si="9">$E$5+SUM(K29:L29)*$E$7</f>
-        <v>26</v>
+        <f>$E$5+SUM(K29:L29)*$E$7</f>
+        <v>27.5</v>
       </c>
       <c r="R29" s="210">
-        <f t="shared" ref="R29:R38" si="10">$E$13+SUM(J29,L29)*$E$15</f>
+        <f t="shared" ref="R29:R38" si="8">$E$13+SUM(J29,L29)*$E$15</f>
         <v>152.5</v>
       </c>
       <c r="S29" s="90">
-        <f t="shared" ref="S29:S38" si="11">$E$22*$E$23*LN(EXP($E29/$E$22) + EXP($F29/$E$22) + EXP($G29/$E$22) +EXP($H29/$E$22) )</f>
-        <v>950.99793172824491</v>
+        <f>$E$22*$E$23*LN(EXP($E29/$E$22) + EXP($F29/$E$22) + EXP($G29/$E$22) +EXP($H29/$E$22) )</f>
+        <v>3770.7206622461022</v>
       </c>
       <c r="T29" s="46">
         <f>(S29-S28)</f>
-        <v>950.99793172824491</v>
+        <v>3770.7206622461022</v>
       </c>
       <c r="U29" s="219"/>
       <c r="V29" s="129"/>
@@ -13828,10 +13874,10 @@
         <v>2</v>
       </c>
       <c r="E30" s="276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" s="274">
         <v>1</v>
@@ -13841,76 +13887,79 @@
       </c>
       <c r="I30" s="272">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.23439531331312188</v>
       </c>
       <c r="J30" s="271">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>0.23439531331312188</v>
       </c>
       <c r="K30" s="270">
         <f t="shared" si="3"/>
-        <v>0.25</v>
+        <v>0.26560468668687814</v>
       </c>
       <c r="L30" s="269">
         <f t="shared" si="4"/>
-        <v>0.25</v>
+        <v>0.26560468668687814</v>
       </c>
       <c r="M30" s="276">
         <f>I30*$E$23</f>
-        <v>85.75</v>
+        <v>79.694406526461435</v>
       </c>
       <c r="N30" s="275">
+        <f t="shared" si="5"/>
+        <v>79.694406526461435</v>
+      </c>
+      <c r="O30" s="274">
         <f t="shared" si="6"/>
-        <v>85.75</v>
-      </c>
-      <c r="O30" s="274">
+        <v>90.305593473538565</v>
+      </c>
+      <c r="P30" s="273">
         <f t="shared" si="7"/>
-        <v>85.75</v>
-      </c>
-      <c r="P30" s="273">
+        <v>90.305593473538565</v>
+      </c>
+      <c r="Q30" s="211">
+        <f>$E$5+SUM(K30:L30)*$E$7</f>
+        <v>28.904421801819034</v>
+      </c>
+      <c r="R30" s="211">
         <f t="shared" si="8"/>
-        <v>85.75</v>
-      </c>
-      <c r="Q30" s="211">
-        <f t="shared" si="9"/>
-        <v>26</v>
-      </c>
-      <c r="R30" s="211">
-        <f t="shared" si="10"/>
         <v>152.5</v>
       </c>
       <c r="S30" s="91">
-        <f t="shared" si="11"/>
-        <v>1293.997931728245</v>
+        <f>$E$22*$E$23*LN(EXP($E30/$E$22) + EXP($F30/$E$22) + EXP($G30/$E$22) +EXP($H30/$E$22) )</f>
+        <v>3946.0297071857508</v>
       </c>
       <c r="T30" s="49">
-        <f t="shared" ref="T30:T31" si="12">(S30-S29)</f>
-        <v>343.00000000000011</v>
+        <f>(S30-S29)</f>
+        <v>175.30904493964863</v>
       </c>
       <c r="U30" s="219"/>
       <c r="V30" s="129">
         <f>E30-E29</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W30" s="113">
         <f>H30-H29</f>
         <v>1</v>
       </c>
       <c r="X30" s="200">
-        <f t="shared" ref="X30:X37" si="13">T30</f>
-        <v>343.00000000000011</v>
+        <f t="shared" ref="X30:X37" si="9">T30</f>
+        <v>175.30904493964863</v>
       </c>
       <c r="Z30" s="7" t="str">
-        <f t="shared" ref="Z30:Z37" si="14">IF(V30&gt;0,"Bought ",IF(V30&lt;0,"Sold ",""))&amp;IF(V30&lt;0,V30*-1,IF(V30&gt;0,V30,""))&amp;IF(V30&lt;&gt;0," Shares of State 1 at a cost of "&amp;ROUND($X30,5),"")</f>
-        <v>Bought 1 Shares of State 1 at a cost of 343</v>
+        <f t="shared" ref="Z30:Z37" si="10">IF(V30&gt;0,"Bought ",IF(V30&lt;0,"Sold ",""))&amp;IF(V30&lt;0,V30*-1,IF(V30&gt;0,V30,""))&amp;IF(V30&lt;&gt;0," Shares of State 1 at a cost of "&amp;ROUND($X30,5),"")</f>
+        <v/>
       </c>
       <c r="AA30" s="7" t="str">
-        <f t="shared" ref="AA30:AA37" si="15">IF(W30&gt;0,"Bought ",IF(W30&lt;0,"Sold ",""))&amp;IF(W30&lt;0,W30*-1,IF(W30&gt;0,W30,""))&amp;IF(W30&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($X30,5),"")</f>
-        <v>Bought 1 Shares of State 2 at a cost of 343</v>
+        <f t="shared" ref="AA30:AA37" si="11">IF(W30&gt;0,"Bought ",IF(W30&lt;0,"Sold ",""))&amp;IF(W30&lt;0,W30*-1,IF(W30&gt;0,W30,""))&amp;IF(W30&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($X30,5),"")</f>
+        <v>Bought 1 Shares of State 2 at a cost of 175.30904</v>
       </c>
       <c r="AB30" s="203" t="str">
-        <f t="shared" ref="AB30:AB37" si="16">Z30&amp;AA30</f>
-        <v>Bought 1 Shares of State 1 at a cost of 343Bought 1 Shares of State 2 at a cost of 343</v>
+        <f t="shared" ref="AB30:AB37" si="12">Z30&amp;AA30</f>
+        <v>Bought 1 Shares of State 2 at a cost of 175.30904</v>
+      </c>
+      <c r="AC30" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="2:34" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -13919,89 +13968,96 @@
         <v>3</v>
       </c>
       <c r="E31" s="276">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F31" s="275">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G31" s="274">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H31" s="273">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I31" s="272">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.21891174955710099</v>
       </c>
       <c r="J31" s="271">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>0.28108825044289909</v>
       </c>
       <c r="K31" s="270">
         <f t="shared" si="3"/>
-        <v>0.25</v>
+        <v>0.21891174955710099</v>
       </c>
       <c r="L31" s="269">
         <f t="shared" si="4"/>
-        <v>0.25</v>
+        <v>0.28108825044289909</v>
       </c>
       <c r="M31" s="276">
-        <f t="shared" ref="M31:M38" si="17">I31*$E$23</f>
-        <v>85.75</v>
+        <f t="shared" ref="M31:M38" si="13">I31*$E$23</f>
+        <v>74.429994849414342</v>
       </c>
       <c r="N31" s="275">
         <f>J31*$E$23</f>
-        <v>85.75</v>
+        <v>95.570005150585686</v>
       </c>
       <c r="O31" s="274">
         <f>K31*$E$23</f>
-        <v>85.75</v>
+        <v>74.429994849414342</v>
       </c>
       <c r="P31" s="273">
+        <f t="shared" si="7"/>
+        <v>95.570005150585686</v>
+      </c>
+      <c r="Q31" s="211">
+        <f>$E$5+SUM(K31:L31)*$E$7</f>
+        <v>27.500000000000004</v>
+      </c>
+      <c r="R31" s="211">
         <f t="shared" si="8"/>
-        <v>85.75</v>
-      </c>
-      <c r="Q31" s="211">
-        <f t="shared" si="9"/>
-        <v>26</v>
-      </c>
-      <c r="R31" s="211">
-        <f t="shared" si="10"/>
-        <v>152.5</v>
+        <v>170.84206776131046</v>
       </c>
       <c r="S31" s="91">
-        <f t="shared" si="11"/>
-        <v>950.99793172824491</v>
+        <f t="shared" ref="S29:S38" si="14">$E$22*$E$23*LN(EXP($E31/$E$22) + EXP($F31/$E$22) + EXP($G31/$E$22) +EXP($H31/$E$22) )</f>
+        <v>6171.9155531935048</v>
       </c>
       <c r="T31" s="49">
-        <f t="shared" si="12"/>
-        <v>-343.00000000000011</v>
+        <f t="shared" ref="T30:T31" si="15">(S31-S30)</f>
+        <v>2225.885846007754</v>
       </c>
       <c r="U31" s="219"/>
       <c r="V31" s="129">
         <f>E31-E30</f>
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W31" s="113">
         <f>H31-H30</f>
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="X31" s="200">
-        <f t="shared" si="13"/>
-        <v>-343.00000000000011</v>
+        <f t="shared" si="9"/>
+        <v>2225.885846007754</v>
       </c>
       <c r="Z31" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v>Sold 1 Shares of State 1 at a cost of -343</v>
+        <f t="shared" si="10"/>
+        <v>Bought 6 Shares of State 1 at a cost of 2225.88585</v>
       </c>
       <c r="AA31" s="7" t="str">
-        <f t="shared" si="15"/>
-        <v>Sold 1 Shares of State 2 at a cost of -343</v>
+        <f t="shared" si="11"/>
+        <v>Bought 7 Shares of State 2 at a cost of 2225.88585</v>
       </c>
       <c r="AB31" s="203" t="str">
-        <f t="shared" si="16"/>
-        <v>Sold 1 Shares of State 1 at a cost of -343Sold 1 Shares of State 2 at a cost of -343</v>
+        <f t="shared" si="12"/>
+        <v>Bought 6 Shares of State 1 at a cost of 2225.88585Bought 7 Shares of State 2 at a cost of 2225.88585</v>
+      </c>
+      <c r="AC31" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD31" s="413">
+        <f>D41/Q29</f>
+        <v>1.03</v>
       </c>
     </row>
     <row r="32" spans="2:34" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -14010,337 +14066,365 @@
         <v>4</v>
       </c>
       <c r="E32" s="276">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F32" s="275">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G32" s="274">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H32" s="273">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I32" s="272">
         <f t="shared" si="1"/>
-        <v>0.3112296656009273</v>
+        <v>0.23257594661276054</v>
       </c>
       <c r="J32" s="271">
         <f t="shared" si="2"/>
-        <v>0.3112296656009273</v>
+        <v>0.29863342676099575</v>
       </c>
       <c r="K32" s="270">
         <f t="shared" si="3"/>
-        <v>0.1887703343990727</v>
+        <v>0.20524755250144139</v>
       </c>
       <c r="L32" s="269">
         <f t="shared" si="4"/>
-        <v>0.1887703343990727</v>
+        <v>0.26354307412480238</v>
       </c>
       <c r="M32" s="276">
-        <f t="shared" si="17"/>
-        <v>106.75177530111806</v>
+        <f t="shared" si="13"/>
+        <v>79.075821848338578</v>
       </c>
       <c r="N32" s="275">
+        <f t="shared" si="5"/>
+        <v>101.53536509873855</v>
+      </c>
+      <c r="O32" s="274">
         <f t="shared" si="6"/>
-        <v>106.75177530111806</v>
-      </c>
-      <c r="O32" s="274">
+        <v>69.784167850490078</v>
+      </c>
+      <c r="P32" s="273">
         <f t="shared" si="7"/>
-        <v>64.748224698881941</v>
-      </c>
-      <c r="P32" s="273">
+        <v>89.604645202432806</v>
+      </c>
+      <c r="Q32" s="211">
+        <f t="shared" ref="Q29:Q38" si="16">$E$5+SUM(K32:L32)*$E$7</f>
+        <v>26.09557819818097</v>
+      </c>
+      <c r="R32" s="211">
         <f t="shared" si="8"/>
-        <v>64.748224698881941</v>
-      </c>
-      <c r="Q32" s="211">
-        <f t="shared" si="9"/>
-        <v>20.121952102310978</v>
-      </c>
-      <c r="R32" s="211">
-        <f t="shared" si="10"/>
-        <v>152.5</v>
+        <v>170.84206776131046</v>
       </c>
       <c r="S32" s="91">
-        <f t="shared" si="11"/>
-        <v>1143.7157770116758</v>
+        <f t="shared" si="14"/>
+        <v>6007.2245981331544</v>
       </c>
       <c r="T32" s="49">
         <f>(S32-S31)</f>
-        <v>192.71784528343085</v>
+        <v>-164.69095506035046</v>
       </c>
       <c r="U32" s="219"/>
       <c r="V32" s="129">
         <f>E32-E31</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W32" s="113">
         <f>H32-H31</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X32" s="200">
-        <f t="shared" si="13"/>
-        <v>192.71784528343085</v>
+        <f t="shared" si="9"/>
+        <v>-164.69095506035046</v>
       </c>
       <c r="Z32" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v>Bought 1 Shares of State 1 at a cost of 192.71785</v>
+        <f t="shared" si="10"/>
+        <v/>
       </c>
       <c r="AA32" s="7" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>Sold 1 Shares of State 2 at a cost of -164.69096</v>
       </c>
       <c r="AB32" s="203" t="str">
-        <f t="shared" si="16"/>
-        <v>Bought 1 Shares of State 1 at a cost of 192.71785</v>
-      </c>
-    </row>
-    <row r="33" spans="3:29" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>Sold 1 Shares of State 2 at a cost of -164.69096</v>
+      </c>
+      <c r="AC32" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD32" s="413">
+        <f>AF37/AE37</f>
+        <v>1.0052723371689287</v>
+      </c>
+      <c r="AE32" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" spans="3:34" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C33" s="21"/>
       <c r="D33" s="25">
         <v>5</v>
       </c>
       <c r="E33" s="276">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F33" s="275">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G33" s="274">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H33" s="273">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I33" s="272">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.23257594661276054</v>
       </c>
       <c r="J33" s="271">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>0.29863342676099575</v>
       </c>
       <c r="K33" s="270">
         <f t="shared" si="3"/>
-        <v>0.25</v>
+        <v>0.20524755250144139</v>
       </c>
       <c r="L33" s="269">
         <f t="shared" si="4"/>
-        <v>0.25</v>
+        <v>0.26354307412480238</v>
       </c>
       <c r="M33" s="276">
-        <f t="shared" si="17"/>
-        <v>85.75</v>
+        <f t="shared" si="13"/>
+        <v>79.075821848338578</v>
       </c>
       <c r="N33" s="275">
         <f>J33*$E$23</f>
-        <v>85.75</v>
+        <v>101.53536509873855</v>
       </c>
       <c r="O33" s="274">
+        <f t="shared" si="6"/>
+        <v>69.784167850490078</v>
+      </c>
+      <c r="P33" s="273">
         <f t="shared" si="7"/>
-        <v>85.75</v>
-      </c>
-      <c r="P33" s="273">
+        <v>89.604645202432806</v>
+      </c>
+      <c r="Q33" s="211">
+        <f t="shared" si="16"/>
+        <v>26.09557819818097</v>
+      </c>
+      <c r="R33" s="211">
         <f t="shared" si="8"/>
-        <v>85.75</v>
-      </c>
-      <c r="Q33" s="211">
-        <f t="shared" si="9"/>
-        <v>26</v>
-      </c>
-      <c r="R33" s="211">
-        <f t="shared" si="10"/>
-        <v>152.5</v>
+        <v>170.84206776131046</v>
       </c>
       <c r="S33" s="91">
-        <f t="shared" si="11"/>
-        <v>950.99793172824491</v>
+        <f t="shared" si="14"/>
+        <v>6007.2245981331544</v>
       </c>
       <c r="T33" s="49">
-        <f t="shared" ref="T33:T37" si="18">(S33-S32)</f>
-        <v>-192.71784528343085</v>
+        <f t="shared" ref="T33:T37" si="17">(S33-S32)</f>
+        <v>0</v>
       </c>
       <c r="U33" s="219"/>
       <c r="V33" s="129">
         <f>E33-E32</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W33" s="113">
         <f>H33-H32</f>
         <v>0</v>
       </c>
       <c r="X33" s="200">
-        <f t="shared" si="13"/>
-        <v>-192.71784528343085</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="Z33" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v>Sold 1 Shares of State 1 at a cost of -192.71785</v>
+        <f t="shared" si="10"/>
+        <v/>
       </c>
       <c r="AA33" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AB33" s="203" t="str">
-        <f t="shared" si="16"/>
-        <v>Sold 1 Shares of State 1 at a cost of -192.71785</v>
-      </c>
-    </row>
-    <row r="34" spans="3:29" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AC33" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD33" s="412">
+        <f>AF38/AE38</f>
+        <v>1.0366666666666668</v>
+      </c>
+      <c r="AH33" s="8"/>
+    </row>
+    <row r="34" spans="3:34" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C34" s="21"/>
       <c r="D34" s="25">
         <v>6</v>
       </c>
       <c r="E34" s="276">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F34" s="275">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G34" s="274">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H34" s="273">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I34" s="272">
         <f t="shared" si="1"/>
-        <v>0.3112296656009273</v>
+        <v>0.23257594661276054</v>
       </c>
       <c r="J34" s="271">
         <f t="shared" si="2"/>
-        <v>0.1887703343990727</v>
+        <v>0.29863342676099575</v>
       </c>
       <c r="K34" s="270">
         <f t="shared" si="3"/>
-        <v>0.3112296656009273</v>
+        <v>0.20524755250144139</v>
       </c>
       <c r="L34" s="269">
         <f t="shared" si="4"/>
-        <v>0.1887703343990727</v>
+        <v>0.26354307412480238</v>
       </c>
       <c r="M34" s="276">
+        <f t="shared" si="13"/>
+        <v>79.075821848338578</v>
+      </c>
+      <c r="N34" s="275">
+        <f t="shared" si="5"/>
+        <v>101.53536509873855</v>
+      </c>
+      <c r="O34" s="274">
+        <f t="shared" si="6"/>
+        <v>69.784167850490078</v>
+      </c>
+      <c r="P34" s="273">
+        <f t="shared" si="7"/>
+        <v>89.604645202432806</v>
+      </c>
+      <c r="Q34" s="211">
+        <f t="shared" si="16"/>
+        <v>26.09557819818097</v>
+      </c>
+      <c r="R34" s="211">
+        <f t="shared" si="8"/>
+        <v>170.84206776131046</v>
+      </c>
+      <c r="S34" s="91">
+        <f t="shared" si="14"/>
+        <v>6007.2245981331544</v>
+      </c>
+      <c r="T34" s="49">
         <f t="shared" si="17"/>
-        <v>106.75177530111806</v>
-      </c>
-      <c r="N34" s="275">
-        <f t="shared" si="6"/>
-        <v>64.748224698881941</v>
-      </c>
-      <c r="O34" s="274">
-        <f t="shared" si="7"/>
-        <v>106.75177530111806</v>
-      </c>
-      <c r="P34" s="273">
-        <f t="shared" si="8"/>
-        <v>64.748224698881941</v>
-      </c>
-      <c r="Q34" s="211">
-        <f t="shared" si="9"/>
-        <v>26</v>
-      </c>
-      <c r="R34" s="211">
-        <f t="shared" si="10"/>
-        <v>116.3744972954529</v>
-      </c>
-      <c r="S34" s="91">
-        <f t="shared" si="11"/>
-        <v>1143.7157770116758</v>
-      </c>
-      <c r="T34" s="49">
-        <f t="shared" si="18"/>
-        <v>192.71784528343085</v>
+        <v>0</v>
       </c>
       <c r="U34" s="219"/>
       <c r="V34" s="129">
         <f>E34-E31</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W34" s="113">
         <f>H34-H31</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X34" s="200">
-        <f t="shared" si="13"/>
-        <v>192.71784528343085</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="Z34" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v>Bought 1 Shares of State 1 at a cost of 192.71785</v>
+        <f t="shared" si="10"/>
+        <v/>
       </c>
       <c r="AA34" s="7" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>Sold 1 Shares of State 2 at a cost of 0</v>
       </c>
       <c r="AB34" s="203" t="str">
-        <f t="shared" si="16"/>
-        <v>Bought 1 Shares of State 1 at a cost of 192.71785</v>
-      </c>
-    </row>
-    <row r="35" spans="3:29" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>Sold 1 Shares of State 2 at a cost of 0</v>
+      </c>
+      <c r="AC34" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD34" s="412">
+        <f>(AD33-AD31)</f>
+        <v>6.6666666666668206E-3</v>
+      </c>
+      <c r="AF34" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="3:34" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C35" s="21"/>
       <c r="D35" s="25">
         <v>16</v>
       </c>
       <c r="E35" s="276">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="F35" s="275">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="G35" s="274">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="272">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>6.6338154058637793E-55</v>
       </c>
       <c r="J35" s="271">
         <f t="shared" si="2"/>
-        <v>5.1755550058018688E-17</v>
+        <v>1</v>
       </c>
       <c r="K35" s="270">
         <f t="shared" si="3"/>
-        <v>5.1755550058018688E-17</v>
+        <v>6.6338154058637793E-55</v>
       </c>
       <c r="L35" s="269">
         <f t="shared" si="4"/>
-        <v>5.1755550058018688E-17</v>
+        <v>6.6338154058637793E-55</v>
       </c>
       <c r="M35" s="276">
+        <f t="shared" si="13"/>
+        <v>2.255497237993685E-52</v>
+      </c>
+      <c r="N35" s="275">
+        <f t="shared" si="5"/>
+        <v>340</v>
+      </c>
+      <c r="O35" s="274">
+        <f t="shared" si="6"/>
+        <v>2.255497237993685E-52</v>
+      </c>
+      <c r="P35" s="273">
+        <f t="shared" si="7"/>
+        <v>2.255497237993685E-52</v>
+      </c>
+      <c r="Q35" s="211">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="R35" s="211">
+        <f t="shared" si="8"/>
+        <v>300</v>
+      </c>
+      <c r="S35" s="91">
+        <f t="shared" si="14"/>
+        <v>339660</v>
+      </c>
+      <c r="T35" s="49">
         <f t="shared" si="17"/>
-        <v>343</v>
-      </c>
-      <c r="N35" s="275">
-        <f t="shared" si="6"/>
-        <v>1.775215366990041E-14</v>
-      </c>
-      <c r="O35" s="274">
-        <f t="shared" si="7"/>
-        <v>1.775215366990041E-14</v>
-      </c>
-      <c r="P35" s="273">
-        <f t="shared" si="8"/>
-        <v>1.775215366990041E-14</v>
-      </c>
-      <c r="Q35" s="211">
-        <f t="shared" si="9"/>
-        <v>2.0000000000000049</v>
-      </c>
-      <c r="R35" s="211">
-        <f t="shared" si="10"/>
-        <v>5.0000000000000302</v>
-      </c>
-      <c r="S35" s="91">
-        <f t="shared" si="11"/>
-        <v>25725</v>
-      </c>
-      <c r="T35" s="49">
-        <f t="shared" si="18"/>
-        <v>24581.284222988324</v>
+        <v>333652.77540186682</v>
       </c>
       <c r="U35" s="219"/>
       <c r="V35" s="129" t="e">
@@ -14352,267 +14436,281 @@
         <v>#REF!</v>
       </c>
       <c r="X35" s="200">
-        <f t="shared" si="13"/>
-        <v>24581.284222988324</v>
+        <f t="shared" si="9"/>
+        <v>333652.77540186682</v>
       </c>
       <c r="Z35" s="7" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>#REF!</v>
       </c>
       <c r="AA35" s="7" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
       <c r="AB35" s="203" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="3:29" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:34" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C36" s="21"/>
       <c r="D36" s="25">
         <v>17</v>
       </c>
       <c r="E36" s="276">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F36" s="275">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G36" s="274">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H36" s="273">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I36" s="272">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.23257594661276054</v>
       </c>
       <c r="J36" s="271">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>0.29863342676099575</v>
       </c>
       <c r="K36" s="270">
         <f t="shared" si="3"/>
-        <v>0.25</v>
+        <v>0.20524755250144139</v>
       </c>
       <c r="L36" s="269">
         <f t="shared" si="4"/>
-        <v>0.25</v>
+        <v>0.26354307412480238</v>
       </c>
       <c r="M36" s="276">
+        <f t="shared" si="13"/>
+        <v>79.075821848338578</v>
+      </c>
+      <c r="N36" s="275">
+        <f t="shared" si="5"/>
+        <v>101.53536509873855</v>
+      </c>
+      <c r="O36" s="274">
+        <f t="shared" si="6"/>
+        <v>69.784167850490078</v>
+      </c>
+      <c r="P36" s="273">
+        <f t="shared" si="7"/>
+        <v>89.604645202432806</v>
+      </c>
+      <c r="Q36" s="211">
+        <f t="shared" si="16"/>
+        <v>26.09557819818097</v>
+      </c>
+      <c r="R36" s="211">
+        <f t="shared" si="8"/>
+        <v>170.84206776131046</v>
+      </c>
+      <c r="S36" s="91">
+        <f t="shared" si="14"/>
+        <v>6007.2245981331544</v>
+      </c>
+      <c r="T36" s="49">
         <f t="shared" si="17"/>
-        <v>85.75</v>
-      </c>
-      <c r="N36" s="275">
-        <f t="shared" si="6"/>
-        <v>85.75</v>
-      </c>
-      <c r="O36" s="274">
-        <f t="shared" si="7"/>
-        <v>85.75</v>
-      </c>
-      <c r="P36" s="273">
-        <f t="shared" si="8"/>
-        <v>85.75</v>
-      </c>
-      <c r="Q36" s="211">
-        <f t="shared" si="9"/>
-        <v>26</v>
-      </c>
-      <c r="R36" s="211">
-        <f t="shared" si="10"/>
-        <v>152.5</v>
-      </c>
-      <c r="S36" s="91">
-        <f t="shared" si="11"/>
-        <v>950.99793172824491</v>
-      </c>
-      <c r="T36" s="49">
-        <f t="shared" si="18"/>
-        <v>-24774.002068271755</v>
+        <v>-333652.77540186682</v>
       </c>
       <c r="U36" s="219"/>
       <c r="V36" s="129">
         <f>E36-E35</f>
-        <v>-75</v>
+        <v>5</v>
       </c>
       <c r="W36" s="113">
         <f>H36-H35</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X36" s="200">
-        <f t="shared" si="13"/>
-        <v>-24774.002068271755</v>
+        <f t="shared" si="9"/>
+        <v>-333652.77540186682</v>
       </c>
       <c r="Z36" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v>Sold 75 Shares of State 1 at a cost of -24774.00207</v>
+        <f t="shared" si="10"/>
+        <v>Bought 5 Shares of State 1 at a cost of -333652.7754</v>
       </c>
       <c r="AA36" s="7" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>Bought 6 Shares of State 2 at a cost of -333652.7754</v>
       </c>
       <c r="AB36" s="203" t="str">
-        <f t="shared" si="16"/>
-        <v>Sold 75 Shares of State 1 at a cost of -24774.00207</v>
-      </c>
-    </row>
-    <row r="37" spans="3:29" s="7" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="12"/>
+        <v>Bought 5 Shares of State 1 at a cost of -333652.7754Bought 6 Shares of State 2 at a cost of -333652.7754</v>
+      </c>
+      <c r="AE36" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF36" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="3:34" s="7" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C37" s="21"/>
       <c r="D37" s="25">
         <v>18</v>
       </c>
       <c r="E37" s="268">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F37" s="267">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="G37" s="266">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H37" s="265">
-        <v>4</v>
+        <v>2E-3</v>
       </c>
       <c r="I37" s="264">
         <f t="shared" si="1"/>
-        <v>0.16740509727844333</v>
+        <v>0.17258791438634263</v>
       </c>
       <c r="J37" s="263">
         <f t="shared" si="2"/>
-        <v>0.27600434470659363</v>
+        <v>7.2850307618511551E-2</v>
       </c>
       <c r="K37" s="262">
         <f t="shared" si="3"/>
-        <v>0.10153632409155182</v>
+        <v>0.68259844284683313</v>
       </c>
       <c r="L37" s="261">
         <f t="shared" si="4"/>
-        <v>0.45505423392341132</v>
+        <v>7.1963335148312532E-2</v>
       </c>
       <c r="M37" s="268">
+        <f t="shared" si="13"/>
+        <v>58.679890891356493</v>
+      </c>
+      <c r="N37" s="267">
+        <f t="shared" si="5"/>
+        <v>24.769104590293928</v>
+      </c>
+      <c r="O37" s="266">
+        <f t="shared" si="6"/>
+        <v>232.08347056792326</v>
+      </c>
+      <c r="P37" s="265">
+        <f t="shared" si="7"/>
+        <v>24.467533950426262</v>
+      </c>
+      <c r="Q37" s="212">
+        <f t="shared" si="16"/>
+        <v>38.955280009781553</v>
+      </c>
+      <c r="R37" s="212">
+        <f t="shared" si="8"/>
+        <v>47.720024616213102</v>
+      </c>
+      <c r="S37" s="127">
+        <f t="shared" si="14"/>
+        <v>7158.6279845210947</v>
+      </c>
+      <c r="T37" s="128">
         <f t="shared" si="17"/>
-        <v>57.419948366506063</v>
-      </c>
-      <c r="N37" s="267">
-        <f t="shared" si="6"/>
-        <v>94.669490234361618</v>
-      </c>
-      <c r="O37" s="266">
-        <f t="shared" si="7"/>
-        <v>34.826959163402272</v>
-      </c>
-      <c r="P37" s="265">
-        <f t="shared" si="8"/>
-        <v>156.0836022357301</v>
-      </c>
-      <c r="Q37" s="212">
-        <f t="shared" si="9"/>
-        <v>28.716346784718233</v>
-      </c>
-      <c r="R37" s="212">
-        <f t="shared" si="10"/>
-        <v>220.66228069585148</v>
-      </c>
-      <c r="S37" s="127">
-        <f t="shared" si="11"/>
-        <v>1912.1143287850541</v>
-      </c>
-      <c r="T37" s="128">
-        <f t="shared" si="18"/>
-        <v>961.11639705680921</v>
+        <v>1151.4033863879404</v>
       </c>
       <c r="U37" s="219"/>
       <c r="V37" s="137">
         <f>E37-E36</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W37" s="115">
         <f>H37-H36</f>
-        <v>4</v>
+        <v>-6.9980000000000002</v>
       </c>
       <c r="X37" s="200">
-        <f t="shared" si="13"/>
-        <v>961.11639705680921</v>
+        <f t="shared" si="9"/>
+        <v>1151.4033863879404</v>
       </c>
       <c r="Z37" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v>Bought 2 Shares of State 1 at a cost of 961.1164</v>
+        <f t="shared" si="10"/>
+        <v>Bought 1 Shares of State 1 at a cost of 1151.40339</v>
       </c>
       <c r="AA37" s="7" t="str">
-        <f t="shared" si="15"/>
-        <v>Bought 4 Shares of State 2 at a cost of 961.1164</v>
+        <f t="shared" si="11"/>
+        <v>Sold 6.998 Shares of State 2 at a cost of 1151.40339</v>
       </c>
       <c r="AB37" s="203" t="str">
-        <f t="shared" si="16"/>
-        <v>Bought 2 Shares of State 1 at a cost of 961.1164Bought 4 Shares of State 2 at a cost of 961.1164</v>
-      </c>
-    </row>
-    <row r="38" spans="3:29" s="7" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>Bought 1 Shares of State 1 at a cost of 1151.40339Sold 6.998 Shares of State 2 at a cost of 1151.40339</v>
+      </c>
+      <c r="AE37" s="200">
+        <f>T30</f>
+        <v>175.30904493964863</v>
+      </c>
+      <c r="AF37" s="200">
+        <f>SUM(O38:P38)</f>
+        <v>176.23333333333335</v>
+      </c>
+    </row>
+    <row r="38" spans="3:34" s="7" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D38" s="25" t="s">
         <v>98</v>
       </c>
       <c r="E38" s="256">
         <f>E37</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F38" s="255">
-        <f t="shared" ref="F38:H38" si="19">F37</f>
-        <v>3</v>
+        <f t="shared" ref="F38:H38" si="18">F37</f>
+        <v>0.1</v>
       </c>
       <c r="G38" s="254">
-        <f t="shared" si="19"/>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>18</v>
       </c>
       <c r="H38" s="253">
-        <f t="shared" si="19"/>
-        <v>4</v>
+        <f t="shared" si="18"/>
+        <v>2E-3</v>
       </c>
       <c r="I38" s="252">
         <f>F41*F42</f>
-        <v>4.9353813559321795E-3</v>
+        <v>0.48003389830508481</v>
       </c>
       <c r="J38" s="251">
         <f>E42*F41</f>
-        <v>0.48037711864406785</v>
+        <v>1.632768361581921E-3</v>
       </c>
       <c r="K38" s="250">
         <f>E41*F42</f>
-        <v>5.2341101694915E-3</v>
+        <v>0.51657627118644067</v>
       </c>
       <c r="L38" s="249">
         <f>E41*E42</f>
-        <v>0.50945338983050847</v>
+        <v>1.7570621468926551E-3</v>
       </c>
       <c r="M38" s="256">
-        <f t="shared" si="17"/>
-        <v>1.6928358050847376</v>
+        <f t="shared" si="13"/>
+        <v>163.21152542372883</v>
       </c>
       <c r="N38" s="255">
-        <f t="shared" si="6"/>
-        <v>164.76935169491526</v>
+        <f t="shared" si="5"/>
+        <v>0.55514124293785316</v>
       </c>
       <c r="O38" s="254">
+        <f>K38*$E$23</f>
+        <v>175.63593220338984</v>
+      </c>
+      <c r="P38" s="253">
         <f t="shared" si="7"/>
-        <v>1.7952997881355846</v>
-      </c>
-      <c r="P38" s="253">
+        <v>0.5974011299435027</v>
+      </c>
+      <c r="Q38" s="213">
+        <f t="shared" si="16"/>
+        <v>28.324999999999999</v>
+      </c>
+      <c r="R38" s="213">
         <f t="shared" si="8"/>
-        <v>174.74251271186441</v>
-      </c>
-      <c r="Q38" s="213">
-        <f t="shared" si="9"/>
-        <v>26.704999999999998</v>
-      </c>
-      <c r="R38" s="213">
-        <f t="shared" si="10"/>
-        <v>297</v>
+        <v>6</v>
       </c>
       <c r="S38" s="91">
-        <f t="shared" si="11"/>
-        <v>1912.1143287850541</v>
+        <f t="shared" si="14"/>
+        <v>7158.6279845210947</v>
       </c>
       <c r="T38" s="8" t="s">
         <v>110</v>
@@ -14620,8 +14718,17 @@
       <c r="AA38" s="8"/>
       <c r="AB38" s="8"/>
       <c r="AC38" s="8"/>
-    </row>
-    <row r="39" spans="3:29" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE38" s="200">
+        <f>SUM(O29:P29)</f>
+        <v>170</v>
+      </c>
+      <c r="AF38" s="200">
+        <f>SUM(O38:P38)</f>
+        <v>176.23333333333335</v>
+      </c>
+      <c r="AG38" s="200"/>
+    </row>
+    <row r="39" spans="3:34" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39" s="33"/>
@@ -14640,7 +14747,7 @@
       <c r="R39" s="33"/>
       <c r="S39" s="291">
         <f>SUMPRODUCT(E38:H38,M38:P38)</f>
-        <v>1198.4590773305085</v>
+        <v>4303.9841665536733</v>
       </c>
       <c r="T39" t="s">
         <v>111</v>
@@ -14648,17 +14755,19 @@
       <c r="AA39"/>
       <c r="AB39"/>
       <c r="AC39"/>
-    </row>
-    <row r="40" spans="3:29" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF39" s="200"/>
+      <c r="AG39" s="200"/>
+    </row>
+    <row r="40" spans="3:34" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C40" s="1"/>
       <c r="D40" s="168" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E40" s="338" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F40" s="282" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G40" s="158"/>
       <c r="H40" s="17"/>
@@ -14669,36 +14778,37 @@
       <c r="M40" s="17"/>
       <c r="N40" s="17"/>
       <c r="O40" s="17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P40" s="248">
         <f>SUM(M36:P36)</f>
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Q40" s="17"/>
       <c r="R40" s="17"/>
       <c r="S40" s="291">
         <f>S38-S39</f>
-        <v>713.65525145454558</v>
+        <v>2854.6438179674215</v>
       </c>
       <c r="T40" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="3:29" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:34" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C41" s="341" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D41" s="248">
-        <v>26.704999999999998</v>
+        <f>Q29*1.03</f>
+        <v>28.324999999999999</v>
       </c>
       <c r="E41" s="17">
         <f>(D41-E5)/E7</f>
-        <v>0.51468749999999996</v>
+        <v>0.51833333333333331</v>
       </c>
       <c r="F41" s="6">
         <f>1-E41</f>
-        <v>0.48531250000000004</v>
+        <v>0.48166666666666669</v>
       </c>
       <c r="H41" s="33"/>
       <c r="I41" s="33"/>
@@ -14710,13 +14820,13 @@
       <c r="O41" s="17"/>
       <c r="P41" s="248">
         <f>SUM(M37:P37)</f>
-        <v>343.00000000000006</v>
+        <v>340</v>
       </c>
       <c r="Q41" s="17"/>
       <c r="R41" s="17"/>
       <c r="S41" s="294">
         <f>S29-S40</f>
-        <v>237.34268027369933</v>
+        <v>916.07684427868071</v>
       </c>
       <c r="T41" s="55" t="s">
         <v>104</v>
@@ -14727,40 +14837,40 @@
       <c r="AB41" s="28"/>
       <c r="AC41" s="28"/>
     </row>
-    <row r="42" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C42" s="339" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D42" s="340">
-        <v>297</v>
+        <v>6</v>
       </c>
       <c r="E42" s="305">
         <f>(D42-E13)/E15</f>
-        <v>0.98983050847457632</v>
+        <v>3.3898305084745762E-3</v>
       </c>
       <c r="F42" s="3">
         <f>1-E42</f>
-        <v>1.016949152542368E-2</v>
+        <v>0.99661016949152548</v>
       </c>
       <c r="P42" s="248">
         <f>SUM(M38:P38)</f>
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="T42" s="206"/>
     </row>
-    <row r="44" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:34" x14ac:dyDescent="0.25">
       <c r="Q44" s="206"/>
     </row>
-    <row r="45" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:34" x14ac:dyDescent="0.25">
       <c r="Q45" s="206"/>
     </row>
-    <row r="46" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:34" x14ac:dyDescent="0.25">
       <c r="Q46" s="206"/>
     </row>
-    <row r="47" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:34" x14ac:dyDescent="0.25">
       <c r="Q47" s="206"/>
     </row>
-    <row r="48" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:34" x14ac:dyDescent="0.25">
       <c r="Q48" s="206"/>
     </row>
   </sheetData>
@@ -14784,7 +14894,7 @@
   <dimension ref="A2:AP24"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/LogMSR_Demo.xlsx
+++ b/docs/LogMSR_Demo.xlsx
@@ -748,9 +748,6 @@
     <t>cost changes with b (as you cannot buy at 'exactly' the market price)</t>
   </si>
   <si>
-    <t>This portfolio will be worth return(d1) reguardless of what happens to d2.</t>
-  </si>
-  <si>
     <t>i2=1000</t>
   </si>
   <si>
@@ -857,6 +854,9 @@
   </si>
   <si>
     <t>"Anti-Bitcoin law passed in time (T-1)?"</t>
+  </si>
+  <si>
+    <t>This portfolio will be worth return(d1) regardless of what happens to d2.</t>
   </si>
 </sst>
 </file>
@@ -2825,156 +2825,6 @@
     <xf numFmtId="2" fontId="0" fillId="14" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="175" fontId="0" fillId="21" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3060,6 +2910,156 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -3198,11 +3198,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="161688576"/>
-        <c:axId val="161719040"/>
+        <c:axId val="113840128"/>
+        <c:axId val="90593472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="161688576"/>
+        <c:axId val="113840128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3211,7 +3211,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161719040"/>
+        <c:crossAx val="90593472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3219,7 +3219,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161719040"/>
+        <c:axId val="90593472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3231,7 +3231,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161688576"/>
+        <c:crossAx val="113840128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3286,7 +3286,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3615,11 +3614,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99359744"/>
-        <c:axId val="99369728"/>
+        <c:axId val="115678720"/>
+        <c:axId val="114818368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99359744"/>
+        <c:axId val="115678720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3628,7 +3627,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99369728"/>
+        <c:crossAx val="114818368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3636,7 +3635,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99369728"/>
+        <c:axId val="114818368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3649,14 +3648,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99359744"/>
+        <c:crossAx val="115678720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3789,11 +3787,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="168271872"/>
-        <c:axId val="168273408"/>
+        <c:axId val="116053504"/>
+        <c:axId val="115943680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="168271872"/>
+        <c:axId val="116053504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3802,7 +3800,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168273408"/>
+        <c:crossAx val="115943680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3810,7 +3808,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168273408"/>
+        <c:axId val="115943680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3821,7 +3819,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168271872"/>
+        <c:crossAx val="116053504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4080,11 +4078,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="167665024"/>
-        <c:axId val="167670912"/>
+        <c:axId val="113843712"/>
+        <c:axId val="113918528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="167665024"/>
+        <c:axId val="113843712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4093,7 +4091,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167670912"/>
+        <c:crossAx val="113918528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4101,7 +4099,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167670912"/>
+        <c:axId val="113918528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4113,14 +4111,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167665024"/>
+        <c:crossAx val="113843712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4253,11 +4250,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="167705600"/>
-        <c:axId val="167580416"/>
+        <c:axId val="114700800"/>
+        <c:axId val="113920832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="167705600"/>
+        <c:axId val="114700800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4266,7 +4263,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167580416"/>
+        <c:crossAx val="113920832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4274,7 +4271,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167580416"/>
+        <c:axId val="113920832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4285,7 +4282,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167705600"/>
+        <c:crossAx val="114700800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4377,11 +4374,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="167597952"/>
-        <c:axId val="167599488"/>
+        <c:axId val="114701824"/>
+        <c:axId val="113923136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="167597952"/>
+        <c:axId val="114701824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4390,7 +4387,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167599488"/>
+        <c:crossAx val="113923136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4398,7 +4395,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167599488"/>
+        <c:axId val="113923136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4410,7 +4407,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167597952"/>
+        <c:crossAx val="114701824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4530,11 +4527,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="167756544"/>
-        <c:axId val="167758080"/>
+        <c:axId val="114946048"/>
+        <c:axId val="113924864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="167756544"/>
+        <c:axId val="114946048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4543,7 +4540,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167758080"/>
+        <c:crossAx val="113924864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4551,7 +4548,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167758080"/>
+        <c:axId val="113924864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20000"/>
@@ -4564,7 +4561,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167756544"/>
+        <c:crossAx val="114946048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1000"/>
@@ -4831,11 +4828,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="168082048"/>
-        <c:axId val="168092032"/>
+        <c:axId val="111259648"/>
+        <c:axId val="114811456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="168082048"/>
+        <c:axId val="111259648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4844,7 +4841,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168092032"/>
+        <c:crossAx val="114811456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4852,7 +4849,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168092032"/>
+        <c:axId val="114811456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -4865,7 +4862,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168082048"/>
+        <c:crossAx val="111259648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4901,6 +4898,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4977,11 +4975,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="167838464"/>
-        <c:axId val="167840000"/>
+        <c:axId val="113841664"/>
+        <c:axId val="114813184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="167838464"/>
+        <c:axId val="113841664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4990,7 +4988,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167840000"/>
+        <c:crossAx val="114813184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4998,7 +4996,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167840000"/>
+        <c:axId val="114813184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -5011,7 +5009,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167838464"/>
+        <c:crossAx val="113841664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="8"/>
@@ -5019,6 +5017,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5048,6 +5047,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5124,11 +5124,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="161335552"/>
-        <c:axId val="167874560"/>
+        <c:axId val="115675648"/>
+        <c:axId val="114814912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="161335552"/>
+        <c:axId val="115675648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5137,7 +5137,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167874560"/>
+        <c:crossAx val="114814912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5145,7 +5145,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167874560"/>
+        <c:axId val="114814912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -5158,13 +5158,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161335552"/>
+        <c:crossAx val="115675648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5209,7 +5210,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5440,11 +5440,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="167882112"/>
-        <c:axId val="168195200"/>
+        <c:axId val="115676672"/>
+        <c:axId val="114816640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="167882112"/>
+        <c:axId val="115676672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5453,7 +5453,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168195200"/>
+        <c:crossAx val="114816640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5461,7 +5461,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168195200"/>
+        <c:axId val="114816640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -5474,14 +5474,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167882112"/>
+        <c:crossAx val="115676672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6307,7 +6306,7 @@
   <dimension ref="A2:AH53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6356,7 +6355,7 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="490" t="s">
+      <c r="B4" s="525" t="s">
         <v>172</v>
       </c>
       <c r="C4" s="154" t="s">
@@ -6377,7 +6376,7 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="491"/>
+      <c r="B5" s="526"/>
       <c r="C5" s="17" t="s">
         <v>141</v>
       </c>
@@ -6396,7 +6395,7 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="492"/>
+      <c r="B6" s="527"/>
       <c r="C6" s="290" t="s">
         <v>142</v>
       </c>
@@ -6430,7 +6429,7 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="493" t="s">
+      <c r="B8" s="528" t="s">
         <v>160</v>
       </c>
       <c r="C8" s="306" t="s">
@@ -6453,7 +6452,7 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="494"/>
+      <c r="B9" s="529"/>
       <c r="C9" s="17" t="s">
         <v>146</v>
       </c>
@@ -6477,7 +6476,7 @@
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="494"/>
+      <c r="B10" s="529"/>
       <c r="C10" s="17" t="s">
         <v>5</v>
       </c>
@@ -6501,7 +6500,7 @@
     </row>
     <row r="11" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
-      <c r="B11" s="495"/>
+      <c r="B11" s="530"/>
       <c r="C11" s="170" t="s">
         <v>148</v>
       </c>
@@ -6561,10 +6560,10 @@
         <v>131</v>
       </c>
       <c r="K13" s="20"/>
-      <c r="L13" s="496" t="s">
+      <c r="L13" s="531" t="s">
         <v>99</v>
       </c>
-      <c r="M13" s="497"/>
+      <c r="M13" s="532"/>
       <c r="N13" s="187" t="s">
         <v>100</v>
       </c>
@@ -7599,16 +7598,16 @@
       <c r="B39" s="333"/>
       <c r="C39" s="333"/>
       <c r="D39" s="7"/>
-      <c r="E39" s="498" t="s">
+      <c r="E39" s="533" t="s">
         <v>129</v>
       </c>
-      <c r="F39" s="499"/>
-      <c r="G39" s="504" t="s">
+      <c r="F39" s="534"/>
+      <c r="G39" s="539" t="s">
         <v>130</v>
       </c>
-      <c r="H39" s="505"/>
-      <c r="I39" s="505"/>
-      <c r="J39" s="506"/>
+      <c r="H39" s="540"/>
+      <c r="I39" s="540"/>
+      <c r="J39" s="541"/>
       <c r="K39" s="334"/>
       <c r="L39" s="334"/>
       <c r="M39" s="334"/>
@@ -7637,12 +7636,12 @@
       <c r="B40" s="333"/>
       <c r="C40" s="333"/>
       <c r="D40" s="7"/>
-      <c r="E40" s="500"/>
-      <c r="F40" s="501"/>
-      <c r="G40" s="507"/>
-      <c r="H40" s="508"/>
-      <c r="I40" s="508"/>
-      <c r="J40" s="509"/>
+      <c r="E40" s="535"/>
+      <c r="F40" s="536"/>
+      <c r="G40" s="542"/>
+      <c r="H40" s="543"/>
+      <c r="I40" s="543"/>
+      <c r="J40" s="544"/>
       <c r="K40" s="334"/>
       <c r="L40" s="334"/>
       <c r="M40" s="334"/>
@@ -7671,12 +7670,12 @@
       <c r="B41" s="333"/>
       <c r="C41" s="333"/>
       <c r="D41" s="7"/>
-      <c r="E41" s="500"/>
-      <c r="F41" s="501"/>
-      <c r="G41" s="507"/>
-      <c r="H41" s="508"/>
-      <c r="I41" s="508"/>
-      <c r="J41" s="509"/>
+      <c r="E41" s="535"/>
+      <c r="F41" s="536"/>
+      <c r="G41" s="542"/>
+      <c r="H41" s="543"/>
+      <c r="I41" s="543"/>
+      <c r="J41" s="544"/>
       <c r="K41" s="334"/>
       <c r="L41" s="334"/>
       <c r="M41" s="334"/>
@@ -7705,12 +7704,12 @@
       <c r="B42" s="333"/>
       <c r="C42" s="333"/>
       <c r="D42" s="7"/>
-      <c r="E42" s="502"/>
-      <c r="F42" s="503"/>
-      <c r="G42" s="510"/>
-      <c r="H42" s="511"/>
-      <c r="I42" s="511"/>
-      <c r="J42" s="512"/>
+      <c r="E42" s="537"/>
+      <c r="F42" s="538"/>
+      <c r="G42" s="545"/>
+      <c r="H42" s="546"/>
+      <c r="I42" s="546"/>
+      <c r="J42" s="547"/>
       <c r="K42" s="334"/>
       <c r="L42" s="334"/>
       <c r="M42" s="334"/>
@@ -8012,10 +8011,10 @@
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
-      <c r="F4" s="535" t="s">
+      <c r="F4" s="570" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="536"/>
+      <c r="G4" s="571"/>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
@@ -8955,12 +8954,12 @@
       <c r="U21" s="103"/>
     </row>
     <row r="22" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R22" s="537" t="s">
+      <c r="R22" s="572" t="s">
         <v>61</v>
       </c>
-      <c r="S22" s="538"/>
-      <c r="T22" s="538"/>
-      <c r="U22" s="539"/>
+      <c r="S22" s="573"/>
+      <c r="T22" s="573"/>
+      <c r="U22" s="574"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9001,64 +9000,64 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:26" ht="56.25" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="C3" s="564" t="s">
+      <c r="C3" s="514" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C6" s="513" t="s">
+      <c r="C6" s="548" t="s">
         <v>133</v>
       </c>
-      <c r="D6" s="514"/>
-      <c r="E6" s="514"/>
-      <c r="F6" s="514"/>
-      <c r="G6" s="514"/>
-      <c r="H6" s="514"/>
-      <c r="I6" s="514"/>
-      <c r="J6" s="514"/>
-      <c r="K6" s="514"/>
-      <c r="L6" s="514"/>
-      <c r="M6" s="514"/>
-      <c r="N6" s="514"/>
-      <c r="O6" s="515"/>
+      <c r="D6" s="549"/>
+      <c r="E6" s="549"/>
+      <c r="F6" s="549"/>
+      <c r="G6" s="549"/>
+      <c r="H6" s="549"/>
+      <c r="I6" s="549"/>
+      <c r="J6" s="549"/>
+      <c r="K6" s="549"/>
+      <c r="L6" s="549"/>
+      <c r="M6" s="549"/>
+      <c r="N6" s="549"/>
+      <c r="O6" s="550"/>
       <c r="P6" s="354"/>
       <c r="Q6" s="354"/>
       <c r="R6" s="354"/>
       <c r="S6" s="354"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C7" s="516"/>
-      <c r="D7" s="517"/>
-      <c r="E7" s="517"/>
-      <c r="F7" s="517"/>
-      <c r="G7" s="517"/>
-      <c r="H7" s="517"/>
-      <c r="I7" s="517"/>
-      <c r="J7" s="517"/>
-      <c r="K7" s="517"/>
-      <c r="L7" s="517"/>
-      <c r="M7" s="517"/>
-      <c r="N7" s="517"/>
-      <c r="O7" s="518"/>
+      <c r="C7" s="551"/>
+      <c r="D7" s="552"/>
+      <c r="E7" s="552"/>
+      <c r="F7" s="552"/>
+      <c r="G7" s="552"/>
+      <c r="H7" s="552"/>
+      <c r="I7" s="552"/>
+      <c r="J7" s="552"/>
+      <c r="K7" s="552"/>
+      <c r="L7" s="552"/>
+      <c r="M7" s="552"/>
+      <c r="N7" s="552"/>
+      <c r="O7" s="553"/>
       <c r="P7" s="354"/>
       <c r="Q7" s="354"/>
       <c r="R7" s="354"/>
       <c r="S7" s="354"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C8" s="519"/>
-      <c r="D8" s="520"/>
-      <c r="E8" s="520"/>
-      <c r="F8" s="520"/>
-      <c r="G8" s="520"/>
-      <c r="H8" s="520"/>
-      <c r="I8" s="520"/>
-      <c r="J8" s="520"/>
-      <c r="K8" s="520"/>
-      <c r="L8" s="520"/>
-      <c r="M8" s="520"/>
-      <c r="N8" s="520"/>
-      <c r="O8" s="521"/>
+      <c r="C8" s="554"/>
+      <c r="D8" s="555"/>
+      <c r="E8" s="555"/>
+      <c r="F8" s="555"/>
+      <c r="G8" s="555"/>
+      <c r="H8" s="555"/>
+      <c r="I8" s="555"/>
+      <c r="J8" s="555"/>
+      <c r="K8" s="555"/>
+      <c r="L8" s="555"/>
+      <c r="M8" s="555"/>
+      <c r="N8" s="555"/>
+      <c r="O8" s="556"/>
       <c r="P8" s="354"/>
       <c r="Q8" s="354"/>
       <c r="R8" s="354"/>
@@ -9109,7 +9108,7 @@
       <c r="T12" s="7"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="490" t="s">
+      <c r="B13" s="525" t="s">
         <v>172</v>
       </c>
       <c r="C13" s="154" t="s">
@@ -9133,7 +9132,7 @@
       <c r="T13" s="7"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B14" s="491"/>
+      <c r="B14" s="526"/>
       <c r="C14" s="17" t="s">
         <v>141</v>
       </c>
@@ -9155,7 +9154,7 @@
       <c r="T14" s="7"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B15" s="492"/>
+      <c r="B15" s="527"/>
       <c r="C15" s="290" t="s">
         <v>142</v>
       </c>
@@ -9190,7 +9189,7 @@
       <c r="T16" s="7"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B17" s="490" t="s">
+      <c r="B17" s="525" t="s">
         <v>160</v>
       </c>
       <c r="C17" s="154" t="s">
@@ -9216,7 +9215,7 @@
       <c r="T17" s="7"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B18" s="491"/>
+      <c r="B18" s="526"/>
       <c r="C18" s="17" t="s">
         <v>146</v>
       </c>
@@ -9241,7 +9240,7 @@
       <c r="T18" s="7"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B19" s="491"/>
+      <c r="B19" s="526"/>
       <c r="C19" s="17" t="s">
         <v>5</v>
       </c>
@@ -9265,7 +9264,7 @@
       <c r="T19" s="7"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B20" s="492"/>
+      <c r="B20" s="527"/>
       <c r="C20" s="278" t="s">
         <v>148</v>
       </c>
@@ -9711,19 +9710,19 @@
       <c r="U38" s="288"/>
     </row>
     <row r="39" spans="2:22" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="522" t="s">
+      <c r="C39" s="557" t="s">
         <v>125</v>
       </c>
-      <c r="D39" s="522"/>
-      <c r="E39" s="522"/>
-      <c r="F39" s="522"/>
-      <c r="G39" s="522"/>
-      <c r="H39" s="522"/>
-      <c r="I39" s="522"/>
-      <c r="J39" s="522"/>
-      <c r="K39" s="522"/>
-      <c r="L39" s="522"/>
-      <c r="M39" s="522"/>
+      <c r="D39" s="557"/>
+      <c r="E39" s="557"/>
+      <c r="F39" s="557"/>
+      <c r="G39" s="557"/>
+      <c r="H39" s="557"/>
+      <c r="I39" s="557"/>
+      <c r="J39" s="557"/>
+      <c r="K39" s="557"/>
+      <c r="L39" s="557"/>
+      <c r="M39" s="557"/>
       <c r="N39" s="288"/>
       <c r="O39" s="288"/>
       <c r="P39" s="288"/>
@@ -9734,17 +9733,17 @@
       <c r="U39" s="288"/>
     </row>
     <row r="40" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="522"/>
-      <c r="D40" s="522"/>
-      <c r="E40" s="522"/>
-      <c r="F40" s="522"/>
-      <c r="G40" s="522"/>
-      <c r="H40" s="522"/>
-      <c r="I40" s="522"/>
-      <c r="J40" s="522"/>
-      <c r="K40" s="522"/>
-      <c r="L40" s="522"/>
-      <c r="M40" s="522"/>
+      <c r="C40" s="557"/>
+      <c r="D40" s="557"/>
+      <c r="E40" s="557"/>
+      <c r="F40" s="557"/>
+      <c r="G40" s="557"/>
+      <c r="H40" s="557"/>
+      <c r="I40" s="557"/>
+      <c r="J40" s="557"/>
+      <c r="K40" s="557"/>
+      <c r="L40" s="557"/>
+      <c r="M40" s="557"/>
       <c r="N40" s="288"/>
       <c r="O40" s="288"/>
       <c r="P40" s="288"/>
@@ -9755,17 +9754,17 @@
       <c r="U40" s="288"/>
     </row>
     <row r="41" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="522"/>
-      <c r="D41" s="522"/>
-      <c r="E41" s="522"/>
-      <c r="F41" s="522"/>
-      <c r="G41" s="522"/>
-      <c r="H41" s="522"/>
-      <c r="I41" s="522"/>
-      <c r="J41" s="522"/>
-      <c r="K41" s="522"/>
-      <c r="L41" s="522"/>
-      <c r="M41" s="522"/>
+      <c r="C41" s="557"/>
+      <c r="D41" s="557"/>
+      <c r="E41" s="557"/>
+      <c r="F41" s="557"/>
+      <c r="G41" s="557"/>
+      <c r="H41" s="557"/>
+      <c r="I41" s="557"/>
+      <c r="J41" s="557"/>
+      <c r="K41" s="557"/>
+      <c r="L41" s="557"/>
+      <c r="M41" s="557"/>
       <c r="N41" s="288"/>
       <c r="O41" s="288"/>
       <c r="P41" s="288"/>
@@ -9776,17 +9775,17 @@
       <c r="U41" s="288"/>
     </row>
     <row r="42" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="522"/>
-      <c r="D42" s="522"/>
-      <c r="E42" s="522"/>
-      <c r="F42" s="522"/>
-      <c r="G42" s="522"/>
-      <c r="H42" s="522"/>
-      <c r="I42" s="522"/>
-      <c r="J42" s="522"/>
-      <c r="K42" s="522"/>
-      <c r="L42" s="522"/>
-      <c r="M42" s="522"/>
+      <c r="C42" s="557"/>
+      <c r="D42" s="557"/>
+      <c r="E42" s="557"/>
+      <c r="F42" s="557"/>
+      <c r="G42" s="557"/>
+      <c r="H42" s="557"/>
+      <c r="I42" s="557"/>
+      <c r="J42" s="557"/>
+      <c r="K42" s="557"/>
+      <c r="L42" s="557"/>
+      <c r="M42" s="557"/>
       <c r="N42" s="288"/>
       <c r="O42" s="288"/>
       <c r="P42" s="288"/>
@@ -9797,17 +9796,17 @@
       <c r="U42" s="288"/>
     </row>
     <row r="43" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="522"/>
-      <c r="D43" s="522"/>
-      <c r="E43" s="522"/>
-      <c r="F43" s="522"/>
-      <c r="G43" s="522"/>
-      <c r="H43" s="522"/>
-      <c r="I43" s="522"/>
-      <c r="J43" s="522"/>
-      <c r="K43" s="522"/>
-      <c r="L43" s="522"/>
-      <c r="M43" s="522"/>
+      <c r="C43" s="557"/>
+      <c r="D43" s="557"/>
+      <c r="E43" s="557"/>
+      <c r="F43" s="557"/>
+      <c r="G43" s="557"/>
+      <c r="H43" s="557"/>
+      <c r="I43" s="557"/>
+      <c r="J43" s="557"/>
+      <c r="K43" s="557"/>
+      <c r="L43" s="557"/>
+      <c r="M43" s="557"/>
       <c r="N43" s="288"/>
       <c r="O43" s="288"/>
       <c r="P43" s="288"/>
@@ -9818,17 +9817,17 @@
       <c r="U43" s="288"/>
     </row>
     <row r="44" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="522"/>
-      <c r="D44" s="522"/>
-      <c r="E44" s="522"/>
-      <c r="F44" s="522"/>
-      <c r="G44" s="522"/>
-      <c r="H44" s="522"/>
-      <c r="I44" s="522"/>
-      <c r="J44" s="522"/>
-      <c r="K44" s="522"/>
-      <c r="L44" s="522"/>
-      <c r="M44" s="522"/>
+      <c r="C44" s="557"/>
+      <c r="D44" s="557"/>
+      <c r="E44" s="557"/>
+      <c r="F44" s="557"/>
+      <c r="G44" s="557"/>
+      <c r="H44" s="557"/>
+      <c r="I44" s="557"/>
+      <c r="J44" s="557"/>
+      <c r="K44" s="557"/>
+      <c r="L44" s="557"/>
+      <c r="M44" s="557"/>
       <c r="N44" s="288"/>
       <c r="O44" s="288"/>
       <c r="P44" s="288"/>
@@ -9839,17 +9838,17 @@
       <c r="U44" s="288"/>
     </row>
     <row r="45" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="522"/>
-      <c r="D45" s="522"/>
-      <c r="E45" s="522"/>
-      <c r="F45" s="522"/>
-      <c r="G45" s="522"/>
-      <c r="H45" s="522"/>
-      <c r="I45" s="522"/>
-      <c r="J45" s="522"/>
-      <c r="K45" s="522"/>
-      <c r="L45" s="522"/>
-      <c r="M45" s="522"/>
+      <c r="C45" s="557"/>
+      <c r="D45" s="557"/>
+      <c r="E45" s="557"/>
+      <c r="F45" s="557"/>
+      <c r="G45" s="557"/>
+      <c r="H45" s="557"/>
+      <c r="I45" s="557"/>
+      <c r="J45" s="557"/>
+      <c r="K45" s="557"/>
+      <c r="L45" s="557"/>
+      <c r="M45" s="557"/>
       <c r="N45" s="288"/>
       <c r="O45" s="288"/>
       <c r="P45" s="288"/>
@@ -9860,17 +9859,17 @@
       <c r="U45" s="288"/>
     </row>
     <row r="46" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="522"/>
-      <c r="D46" s="522"/>
-      <c r="E46" s="522"/>
-      <c r="F46" s="522"/>
-      <c r="G46" s="522"/>
-      <c r="H46" s="522"/>
-      <c r="I46" s="522"/>
-      <c r="J46" s="522"/>
-      <c r="K46" s="522"/>
-      <c r="L46" s="522"/>
-      <c r="M46" s="522"/>
+      <c r="C46" s="557"/>
+      <c r="D46" s="557"/>
+      <c r="E46" s="557"/>
+      <c r="F46" s="557"/>
+      <c r="G46" s="557"/>
+      <c r="H46" s="557"/>
+      <c r="I46" s="557"/>
+      <c r="J46" s="557"/>
+      <c r="K46" s="557"/>
+      <c r="L46" s="557"/>
+      <c r="M46" s="557"/>
       <c r="N46" s="288"/>
       <c r="O46" s="288"/>
       <c r="P46" s="288"/>
@@ -9949,7 +9948,7 @@
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B53" s="490" t="s">
+      <c r="B53" s="525" t="s">
         <v>172</v>
       </c>
       <c r="C53" s="154" t="s">
@@ -9964,7 +9963,7 @@
       <c r="H53" s="292"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B54" s="491"/>
+      <c r="B54" s="526"/>
       <c r="C54" s="17" t="s">
         <v>141</v>
       </c>
@@ -9984,7 +9983,7 @@
       <c r="S54" s="7"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B55" s="492"/>
+      <c r="B55" s="527"/>
       <c r="C55" s="290" t="s">
         <v>142</v>
       </c>
@@ -10015,7 +10014,7 @@
       <c r="S56" s="7"/>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B57" s="490" t="s">
+      <c r="B57" s="525" t="s">
         <v>176</v>
       </c>
       <c r="C57" s="154" t="s">
@@ -10031,7 +10030,7 @@
       <c r="M57" s="18"/>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B58" s="491"/>
+      <c r="B58" s="526"/>
       <c r="C58" s="17" t="s">
         <v>141</v>
       </c>
@@ -10045,7 +10044,7 @@
       <c r="M58" s="18"/>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B59" s="492"/>
+      <c r="B59" s="527"/>
       <c r="C59" s="290" t="s">
         <v>142</v>
       </c>
@@ -10069,7 +10068,7 @@
       <c r="M60" s="18"/>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B61" s="493" t="s">
+      <c r="B61" s="528" t="s">
         <v>160</v>
       </c>
       <c r="C61" s="10" t="s">
@@ -10087,7 +10086,7 @@
       <c r="M61" s="18"/>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B62" s="494"/>
+      <c r="B62" s="529"/>
       <c r="C62" s="17" t="s">
         <v>146</v>
       </c>
@@ -10104,7 +10103,7 @@
       <c r="M62" s="18"/>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B63" s="494"/>
+      <c r="B63" s="529"/>
       <c r="C63" s="17" t="s">
         <v>5</v>
       </c>
@@ -10120,7 +10119,7 @@
       <c r="M63" s="18"/>
     </row>
     <row r="64" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="495"/>
+      <c r="B64" s="530"/>
       <c r="C64" s="170" t="s">
         <v>148</v>
       </c>
@@ -10293,7 +10292,7 @@
         <f>$D$63*LN(EXP($D69/$D$63)+EXP($E69/$D$63)+EXP($F69/$D$63)+EXP($G69/$D$63))</f>
         <v>11.090364888959126</v>
       </c>
-      <c r="M69" s="547">
+      <c r="M69" s="497">
         <f>(L69-0)</f>
         <v>11.090364888959126</v>
       </c>
@@ -10367,7 +10366,7 @@
         <f t="shared" ref="L70:L76" si="4">$D$63*LN(EXP($D70/$D$63)+EXP($E70/$D$63)+EXP($F70/$D$63)+EXP($G70/$D$63))</f>
         <v>12.090354888959125</v>
       </c>
-      <c r="M70" s="548">
+      <c r="M70" s="498">
         <f t="shared" ref="M70:M74" si="5">(L70-L69)</f>
         <v>0.9999899999999986</v>
       </c>
@@ -10445,7 +10444,7 @@
         <f>$D$63*LN(EXP($D71/$D$63)+EXP($E71/$D$63)+EXP($F71/$D$63)+EXP($G71/$D$63))</f>
         <v>12.60784953883952</v>
       </c>
-      <c r="M71" s="548">
+      <c r="M71" s="498">
         <f t="shared" si="5"/>
         <v>0.51749464988039584</v>
       </c>
@@ -10489,10 +10488,10 @@
       <c r="C72" s="7">
         <v>4</v>
       </c>
-      <c r="D72" s="545">
+      <c r="D72" s="495">
         <v>4.2092725428500977</v>
       </c>
-      <c r="E72" s="546">
+      <c r="E72" s="496">
         <v>0.477679447154433</v>
       </c>
       <c r="F72" s="426">
@@ -10521,7 +10520,7 @@
         <f t="shared" si="4"/>
         <v>12.748761388752838</v>
       </c>
-      <c r="M72" s="548">
+      <c r="M72" s="498">
         <f t="shared" si="5"/>
         <v>0.14091184991331751</v>
       </c>
@@ -10600,7 +10599,7 @@
         <f t="shared" si="4"/>
         <v>15.832678457777227</v>
       </c>
-      <c r="M73" s="548">
+      <c r="M73" s="498">
         <f t="shared" si="5"/>
         <v>3.0839170690243893</v>
       </c>
@@ -10674,7 +10673,7 @@
         <f t="shared" si="4"/>
         <v>17.248385453430764</v>
       </c>
-      <c r="M74" s="548">
+      <c r="M74" s="498">
         <f t="shared" si="5"/>
         <v>1.4157069956535366</v>
       </c>
@@ -10748,7 +10747,7 @@
         <f t="shared" si="4"/>
         <v>14.962522986437438</v>
       </c>
-      <c r="M75" s="549">
+      <c r="M75" s="499">
         <f>(L75-L74)</f>
         <v>-2.2858624669933256</v>
       </c>
@@ -10910,18 +10909,18 @@
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
-      <c r="D82" s="522" t="s">
+      <c r="D82" s="557" t="s">
         <v>126</v>
       </c>
-      <c r="E82" s="522"/>
-      <c r="F82" s="522"/>
-      <c r="G82" s="522"/>
-      <c r="H82" s="522"/>
-      <c r="I82" s="522"/>
-      <c r="J82" s="522"/>
-      <c r="K82" s="522"/>
-      <c r="L82" s="522"/>
-      <c r="M82" s="522"/>
+      <c r="E82" s="557"/>
+      <c r="F82" s="557"/>
+      <c r="G82" s="557"/>
+      <c r="H82" s="557"/>
+      <c r="I82" s="557"/>
+      <c r="J82" s="557"/>
+      <c r="K82" s="557"/>
+      <c r="L82" s="557"/>
+      <c r="M82" s="557"/>
       <c r="N82" s="288"/>
       <c r="O82" s="288"/>
       <c r="P82" s="288"/>
@@ -10939,16 +10938,16 @@
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
-      <c r="D83" s="522"/>
-      <c r="E83" s="522"/>
-      <c r="F83" s="522"/>
-      <c r="G83" s="522"/>
-      <c r="H83" s="522"/>
-      <c r="I83" s="522"/>
-      <c r="J83" s="522"/>
-      <c r="K83" s="522"/>
-      <c r="L83" s="522"/>
-      <c r="M83" s="522"/>
+      <c r="D83" s="557"/>
+      <c r="E83" s="557"/>
+      <c r="F83" s="557"/>
+      <c r="G83" s="557"/>
+      <c r="H83" s="557"/>
+      <c r="I83" s="557"/>
+      <c r="J83" s="557"/>
+      <c r="K83" s="557"/>
+      <c r="L83" s="557"/>
+      <c r="M83" s="557"/>
       <c r="N83" s="288"/>
       <c r="O83" s="288"/>
       <c r="P83" s="288"/>
@@ -10964,16 +10963,16 @@
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
-      <c r="D84" s="522"/>
-      <c r="E84" s="522"/>
-      <c r="F84" s="522"/>
-      <c r="G84" s="522"/>
-      <c r="H84" s="522"/>
-      <c r="I84" s="522"/>
-      <c r="J84" s="522"/>
-      <c r="K84" s="522"/>
-      <c r="L84" s="522"/>
-      <c r="M84" s="522"/>
+      <c r="D84" s="557"/>
+      <c r="E84" s="557"/>
+      <c r="F84" s="557"/>
+      <c r="G84" s="557"/>
+      <c r="H84" s="557"/>
+      <c r="I84" s="557"/>
+      <c r="J84" s="557"/>
+      <c r="K84" s="557"/>
+      <c r="L84" s="557"/>
+      <c r="M84" s="557"/>
       <c r="N84" s="288"/>
       <c r="O84" s="288"/>
       <c r="P84" s="288"/>
@@ -10989,16 +10988,16 @@
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
-      <c r="D85" s="522"/>
-      <c r="E85" s="522"/>
-      <c r="F85" s="522"/>
-      <c r="G85" s="522"/>
-      <c r="H85" s="522"/>
-      <c r="I85" s="522"/>
-      <c r="J85" s="522"/>
-      <c r="K85" s="522"/>
-      <c r="L85" s="522"/>
-      <c r="M85" s="522"/>
+      <c r="D85" s="557"/>
+      <c r="E85" s="557"/>
+      <c r="F85" s="557"/>
+      <c r="G85" s="557"/>
+      <c r="H85" s="557"/>
+      <c r="I85" s="557"/>
+      <c r="J85" s="557"/>
+      <c r="K85" s="557"/>
+      <c r="L85" s="557"/>
+      <c r="M85" s="557"/>
       <c r="N85" s="288"/>
       <c r="O85" s="288"/>
       <c r="P85" s="288"/>
@@ -11014,16 +11013,16 @@
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
-      <c r="D86" s="522"/>
-      <c r="E86" s="522"/>
-      <c r="F86" s="522"/>
-      <c r="G86" s="522"/>
-      <c r="H86" s="522"/>
-      <c r="I86" s="522"/>
-      <c r="J86" s="522"/>
-      <c r="K86" s="522"/>
-      <c r="L86" s="522"/>
-      <c r="M86" s="522"/>
+      <c r="D86" s="557"/>
+      <c r="E86" s="557"/>
+      <c r="F86" s="557"/>
+      <c r="G86" s="557"/>
+      <c r="H86" s="557"/>
+      <c r="I86" s="557"/>
+      <c r="J86" s="557"/>
+      <c r="K86" s="557"/>
+      <c r="L86" s="557"/>
+      <c r="M86" s="557"/>
       <c r="N86" s="288"/>
       <c r="O86" s="288"/>
       <c r="P86" s="288"/>
@@ -11039,16 +11038,16 @@
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
-      <c r="D87" s="522"/>
-      <c r="E87" s="522"/>
-      <c r="F87" s="522"/>
-      <c r="G87" s="522"/>
-      <c r="H87" s="522"/>
-      <c r="I87" s="522"/>
-      <c r="J87" s="522"/>
-      <c r="K87" s="522"/>
-      <c r="L87" s="522"/>
-      <c r="M87" s="522"/>
+      <c r="D87" s="557"/>
+      <c r="E87" s="557"/>
+      <c r="F87" s="557"/>
+      <c r="G87" s="557"/>
+      <c r="H87" s="557"/>
+      <c r="I87" s="557"/>
+      <c r="J87" s="557"/>
+      <c r="K87" s="557"/>
+      <c r="L87" s="557"/>
+      <c r="M87" s="557"/>
       <c r="N87" s="288"/>
       <c r="O87" s="288"/>
       <c r="P87" s="288"/>
@@ -11064,16 +11063,16 @@
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
-      <c r="D88" s="522"/>
-      <c r="E88" s="522"/>
-      <c r="F88" s="522"/>
-      <c r="G88" s="522"/>
-      <c r="H88" s="522"/>
-      <c r="I88" s="522"/>
-      <c r="J88" s="522"/>
-      <c r="K88" s="522"/>
-      <c r="L88" s="522"/>
-      <c r="M88" s="522"/>
+      <c r="D88" s="557"/>
+      <c r="E88" s="557"/>
+      <c r="F88" s="557"/>
+      <c r="G88" s="557"/>
+      <c r="H88" s="557"/>
+      <c r="I88" s="557"/>
+      <c r="J88" s="557"/>
+      <c r="K88" s="557"/>
+      <c r="L88" s="557"/>
+      <c r="M88" s="557"/>
       <c r="N88" s="288"/>
       <c r="O88" s="288"/>
       <c r="P88" s="288"/>
@@ -11169,11 +11168,11 @@
       <c r="L93" t="s">
         <v>54</v>
       </c>
-      <c r="V93" s="523" t="s">
-        <v>217</v>
-      </c>
-      <c r="W93" s="524"/>
-      <c r="X93" s="525"/>
+      <c r="V93" s="558" t="s">
+        <v>216</v>
+      </c>
+      <c r="W93" s="559"/>
+      <c r="X93" s="560"/>
     </row>
     <row r="94" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="7"/>
@@ -11203,9 +11202,9 @@
         <f>I95/SUM(H95:I95)</f>
         <v>0.47813894602839851</v>
       </c>
-      <c r="V94" s="526"/>
-      <c r="W94" s="522"/>
-      <c r="X94" s="527"/>
+      <c r="V94" s="561"/>
+      <c r="W94" s="557"/>
+      <c r="X94" s="562"/>
     </row>
     <row r="95" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="7"/>
@@ -11235,23 +11234,23 @@
         <v>36</v>
       </c>
       <c r="O95" s="409" t="s">
+        <v>211</v>
+      </c>
+      <c r="P95" s="407" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q95" s="409" t="s">
+        <v>211</v>
+      </c>
+      <c r="R95" s="407" t="s">
         <v>212</v>
       </c>
-      <c r="P95" s="407" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q95" s="409" t="s">
-        <v>212</v>
-      </c>
-      <c r="R95" s="407" t="s">
-        <v>213</v>
-      </c>
       <c r="S95" s="408" t="s">
-        <v>212</v>
-      </c>
-      <c r="V95" s="526"/>
-      <c r="W95" s="522"/>
-      <c r="X95" s="527"/>
+        <v>211</v>
+      </c>
+      <c r="V95" s="561"/>
+      <c r="W95" s="557"/>
+      <c r="X95" s="562"/>
     </row>
     <row r="96" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="7"/>
@@ -11284,9 +11283,9 @@
         <v>0</v>
       </c>
       <c r="S96" s="415"/>
-      <c r="V96" s="526"/>
-      <c r="W96" s="522"/>
-      <c r="X96" s="527"/>
+      <c r="V96" s="561"/>
+      <c r="W96" s="557"/>
+      <c r="X96" s="562"/>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" s="7"/>
@@ -11298,36 +11297,36 @@
       <c r="H97" s="94"/>
       <c r="I97" s="94"/>
       <c r="J97" s="93"/>
-      <c r="N97" s="554">
+      <c r="N97" s="504">
         <f>$D$63*LN(EXP($D69/$D$63)+EXP($E69/$D$63)+EXP($F69/$D$63)+EXP($G69/$D$63))</f>
         <v>11.090364888959126</v>
       </c>
-      <c r="O97" s="550">
+      <c r="O97" s="500">
         <f t="shared" ref="O97:Q104" si="6">N97-N96</f>
         <v>11.090364888959126</v>
       </c>
-      <c r="P97" s="557">
+      <c r="P97" s="507">
         <f>$D$63*((($D69/$D$63)+($E69/$D$63)+($F69/$D$63)+($G69/$D$63)))/((SUM(($D69/$D$63)^2,($E69/$D$63)^2,($F69/$D$63)^2,($G69/$D$63)^2)^(1/2)))</f>
         <v>16</v>
       </c>
-      <c r="Q97" s="550">
+      <c r="Q97" s="500">
         <f>P97-P96</f>
         <v>16</v>
       </c>
-      <c r="R97" s="557">
+      <c r="R97" s="507">
         <f>$D$63*(($D69/$D$63)+($E69/$D$63)+($F69/$D$63)+($G69/$D$63)) - $D$63*(SUM(($D69/$D$63)^2,($E69/$D$63)^2,($F69/$D$63)^2,($G69/$D$63)^2)/2)</f>
         <v>3.9999975000000002E-5</v>
       </c>
-      <c r="S97" s="558">
+      <c r="S97" s="508">
         <f t="shared" ref="S97" si="7">R97-R96</f>
         <v>3.9999975000000002E-5</v>
       </c>
       <c r="T97" s="411" t="s">
-        <v>216</v>
-      </c>
-      <c r="V97" s="526"/>
-      <c r="W97" s="522"/>
-      <c r="X97" s="527"/>
+        <v>215</v>
+      </c>
+      <c r="V97" s="561"/>
+      <c r="W97" s="557"/>
+      <c r="X97" s="562"/>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
@@ -11339,33 +11338,33 @@
       <c r="H98" s="94"/>
       <c r="I98" s="94"/>
       <c r="J98" s="93"/>
-      <c r="N98" s="554">
+      <c r="N98" s="504">
         <f t="shared" ref="N98:N99" si="8">$D$63*LN(EXP($D70/$D$63)+EXP($E70/$D$63)+EXP($F70/$D$63)+EXP($G70/$D$63))</f>
         <v>12.090354888959125</v>
       </c>
-      <c r="O98" s="551">
+      <c r="O98" s="501">
         <f t="shared" si="6"/>
         <v>0.9999899999999986</v>
       </c>
-      <c r="P98" s="557">
+      <c r="P98" s="507">
         <f>$D$63*((($D70/$D$63)+($E70/$D$63)+($F70/$D$63)+($G70/$D$63)))/((SUM(($D70/$D$63)^2,($E70/$D$63)^2,($F70/$D$63)^2,($G70/$D$63)^2)^(1/2)))</f>
         <v>16</v>
       </c>
-      <c r="Q98" s="551">
+      <c r="Q98" s="501">
         <f>P98-P97</f>
         <v>0</v>
       </c>
-      <c r="R98" s="557">
+      <c r="R98" s="507">
         <f t="shared" ref="R98:R104" si="9">$D$63*(($D70/$D$63)+($E70/$D$63)+($F70/$D$63)+($G70/$D$63)) - $D$63*(SUM(($D70/$D$63)^2,($E70/$D$63)^2,($F70/$D$63)^2,($G70/$D$63)^2)/2)</f>
         <v>3.75</v>
       </c>
-      <c r="S98" s="559">
+      <c r="S98" s="509">
         <f>R98-R97</f>
         <v>3.7499600000250002</v>
       </c>
-      <c r="V98" s="526"/>
-      <c r="W98" s="522"/>
-      <c r="X98" s="527"/>
+      <c r="V98" s="561"/>
+      <c r="W98" s="557"/>
+      <c r="X98" s="562"/>
     </row>
     <row r="99" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="7"/>
@@ -11389,33 +11388,33 @@
       <c r="M99">
         <v>3</v>
       </c>
-      <c r="N99" s="554">
+      <c r="N99" s="504">
         <f t="shared" si="8"/>
         <v>12.60784953883952</v>
       </c>
-      <c r="O99" s="551">
+      <c r="O99" s="501">
         <f t="shared" si="6"/>
         <v>0.51749464988039584</v>
       </c>
-      <c r="P99" s="557">
+      <c r="P99" s="507">
         <f>$D$63*((($D71/$D$63)+($E71/$D$63)+($F71/$D$63)+($G71/$D$63)))/((SUM(($D71/$D$63)^2,($E71/$D$63)^2,($F71/$D$63)^2,($G71/$D$63)^2)^(1/2)))</f>
         <v>9.8996991067417444</v>
       </c>
-      <c r="Q99" s="551">
+      <c r="Q99" s="501">
         <f t="shared" si="6"/>
         <v>-6.1003008932582556</v>
       </c>
-      <c r="R99" s="557">
+      <c r="R99" s="507">
         <f t="shared" si="9"/>
         <v>4.1587740841006138</v>
       </c>
-      <c r="S99" s="559">
+      <c r="S99" s="509">
         <f t="shared" ref="S99" si="10">R99-R98</f>
         <v>0.40877408410061378</v>
       </c>
-      <c r="V99" s="526"/>
-      <c r="W99" s="522"/>
-      <c r="X99" s="527"/>
+      <c r="V99" s="561"/>
+      <c r="W99" s="557"/>
+      <c r="X99" s="562"/>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
@@ -11439,43 +11438,43 @@
         <f>SUM(H100:I100)</f>
         <v>0.55958508924073436</v>
       </c>
-      <c r="L100" s="544">
+      <c r="L100" s="494">
         <f>I101/SUM(H101:I101)</f>
         <v>0.46717229178344477</v>
       </c>
       <c r="M100">
         <v>4</v>
       </c>
-      <c r="N100" s="555">
+      <c r="N100" s="505">
         <f>$D$63*LN(EXP($D72/$D$63)+EXP($E72/$D$63)+EXP($F72/$D$63)+EXP($G72/$D$63))</f>
         <v>12.748761388752838</v>
       </c>
-      <c r="O100" s="552">
+      <c r="O100" s="502">
         <f>N100-N99</f>
         <v>0.14091184991331751</v>
       </c>
-      <c r="P100" s="560">
+      <c r="P100" s="510">
         <f>$D$63*((($D72/$D$63)+($E72/$D$63)+($F72/$D$63)+($G72/$D$63)))/((SUM(($D72/$D$63)^2,($E72/$D$63)^2,($F72/$D$63)^2,($G72/$D$63)^2)^(1/2)))</f>
         <v>10.819560179568017</v>
       </c>
-      <c r="Q100" s="561">
+      <c r="Q100" s="511">
         <f>P100-P99</f>
         <v>0.91986107282627216</v>
       </c>
-      <c r="R100" s="560">
+      <c r="R100" s="510">
         <f t="shared" si="9"/>
         <v>4.7337484278654358</v>
       </c>
-      <c r="S100" s="561">
+      <c r="S100" s="511">
         <f>R100-R99</f>
         <v>0.57497434376482204</v>
       </c>
       <c r="T100" s="410" t="s">
-        <v>215</v>
-      </c>
-      <c r="V100" s="526"/>
-      <c r="W100" s="522"/>
-      <c r="X100" s="527"/>
+        <v>214</v>
+      </c>
+      <c r="V100" s="561"/>
+      <c r="W100" s="557"/>
+      <c r="X100" s="562"/>
     </row>
     <row r="101" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="7"/>
@@ -11502,36 +11501,36 @@
       <c r="M101">
         <v>5</v>
       </c>
-      <c r="N101" s="555">
+      <c r="N101" s="505">
         <f t="shared" ref="N101:N103" si="11">$D$63*LN(EXP($D73/$D$63)+EXP($E73/$D$63)+EXP($F73/$D$63)+EXP($G73/$D$63))</f>
         <v>15.832678457777227</v>
       </c>
-      <c r="O101" s="552">
+      <c r="O101" s="502">
         <f t="shared" si="6"/>
         <v>3.0839170690243893</v>
       </c>
-      <c r="P101" s="560">
+      <c r="P101" s="510">
         <f t="shared" ref="P101:P104" si="12">$D$63*((($D73/$D$63)+($E73/$D$63)+($F73/$D$63)+($G73/$D$63)))/((SUM(($D73/$D$63)^2,($E73/$D$63)^2,($F73/$D$63)^2,($G73/$D$63)^2)^(1/2)))</f>
         <v>15.275585766304406</v>
       </c>
-      <c r="Q101" s="561">
+      <c r="Q101" s="511">
         <f t="shared" si="6"/>
         <v>4.4560255867363896</v>
       </c>
-      <c r="R101" s="560">
+      <c r="R101" s="510">
         <f t="shared" si="9"/>
         <v>12.606691000000001</v>
       </c>
-      <c r="S101" s="561">
+      <c r="S101" s="511">
         <f>R101-R100</f>
         <v>7.8729425721345656</v>
       </c>
       <c r="T101" s="410" t="s">
-        <v>215</v>
-      </c>
-      <c r="V101" s="526"/>
-      <c r="W101" s="522"/>
-      <c r="X101" s="527"/>
+        <v>214</v>
+      </c>
+      <c r="V101" s="561"/>
+      <c r="W101" s="557"/>
+      <c r="X101" s="562"/>
     </row>
     <row r="102" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="7"/>
@@ -11549,130 +11548,130 @@
         <f>SUM(H100:I101)</f>
         <v>1</v>
       </c>
-      <c r="N102" s="554">
+      <c r="N102" s="504">
         <f t="shared" si="11"/>
         <v>17.248385453430764</v>
       </c>
-      <c r="O102" s="551">
+      <c r="O102" s="501">
         <f t="shared" si="6"/>
         <v>1.4157069956535366</v>
       </c>
-      <c r="P102" s="557">
+      <c r="P102" s="507">
         <f>$D$63*((($D74/$D$63)+($E74/$D$63)+($F74/$D$63)+($G74/$D$63)))/((SUM(($D74/$D$63)^2,($E74/$D$63)^2,($F74/$D$63)^2,($G74/$D$63)^2)^(1/2)))</f>
         <v>13.469046060602045</v>
       </c>
-      <c r="Q102" s="551">
+      <c r="Q102" s="501">
         <f t="shared" si="6"/>
         <v>-1.8065397057023613</v>
       </c>
-      <c r="R102" s="557">
+      <c r="R102" s="507">
         <f>$D$63*(($D74/$D$63)+($E74/$D$63)+($F74/$D$63)+($G74/$D$63)) - $D$63*(SUM(($D74/$D$63)^2,($E74/$D$63)^2,($F74/$D$63)^2,($G74/$D$63)^2)/2)</f>
         <v>11.302499999999998</v>
       </c>
-      <c r="S102" s="559">
+      <c r="S102" s="509">
         <f t="shared" ref="S102" si="13">R102-R101</f>
         <v>-1.304191000000003</v>
       </c>
-      <c r="V102" s="526"/>
-      <c r="W102" s="522"/>
-      <c r="X102" s="527"/>
+      <c r="V102" s="561"/>
+      <c r="W102" s="557"/>
+      <c r="X102" s="562"/>
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
-      <c r="N103" s="554">
+      <c r="N103" s="504">
         <f t="shared" si="11"/>
         <v>14.962522986437438</v>
       </c>
-      <c r="O103" s="551">
+      <c r="O103" s="501">
         <f t="shared" si="6"/>
         <v>-2.2858624669933256</v>
       </c>
-      <c r="P103" s="557">
+      <c r="P103" s="507">
         <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="Q103" s="551">
+      <c r="Q103" s="501">
         <f t="shared" si="6"/>
         <v>-5.4690460606020448</v>
       </c>
-      <c r="R103" s="557">
+      <c r="R103" s="507">
         <f t="shared" si="9"/>
         <v>3.75</v>
       </c>
-      <c r="S103" s="559">
+      <c r="S103" s="509">
         <f t="shared" ref="S103" si="14">R103-R102</f>
         <v>-7.5524999999999984</v>
       </c>
-      <c r="V103" s="526"/>
-      <c r="W103" s="522"/>
-      <c r="X103" s="527"/>
+      <c r="V103" s="561"/>
+      <c r="W103" s="557"/>
+      <c r="X103" s="562"/>
     </row>
     <row r="104" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F104" s="531" t="s">
+      <c r="F104" s="566" t="s">
         <v>55</v>
       </c>
-      <c r="G104" s="531"/>
-      <c r="H104" s="531"/>
-      <c r="I104" s="531"/>
-      <c r="J104" s="531"/>
-      <c r="K104" s="531"/>
-      <c r="L104" s="531"/>
-      <c r="N104" s="556">
+      <c r="G104" s="566"/>
+      <c r="H104" s="566"/>
+      <c r="I104" s="566"/>
+      <c r="J104" s="566"/>
+      <c r="K104" s="566"/>
+      <c r="L104" s="566"/>
+      <c r="N104" s="506">
         <f>$D$63*LN(EXP($D76/$D$63)+EXP($E76/$D$63)+EXP($F76/$D$63)+EXP($G76/$D$63))</f>
         <v>14.962522986437438</v>
       </c>
-      <c r="O104" s="553">
+      <c r="O104" s="503">
         <f>N104-N103</f>
         <v>0</v>
       </c>
-      <c r="P104" s="562">
+      <c r="P104" s="512">
         <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="Q104" s="553">
+      <c r="Q104" s="503">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R104" s="562">
+      <c r="R104" s="512">
         <f t="shared" si="9"/>
         <v>3.75</v>
       </c>
-      <c r="S104" s="563">
+      <c r="S104" s="513">
         <f t="shared" ref="S104" si="15">R104-R103</f>
         <v>0</v>
       </c>
-      <c r="V104" s="526"/>
-      <c r="W104" s="522"/>
-      <c r="X104" s="527"/>
+      <c r="V104" s="561"/>
+      <c r="W104" s="557"/>
+      <c r="X104" s="562"/>
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F105" s="531"/>
-      <c r="G105" s="531"/>
-      <c r="H105" s="531"/>
-      <c r="I105" s="531"/>
-      <c r="J105" s="531"/>
-      <c r="K105" s="531"/>
-      <c r="L105" s="531"/>
+      <c r="F105" s="566"/>
+      <c r="G105" s="566"/>
+      <c r="H105" s="566"/>
+      <c r="I105" s="566"/>
+      <c r="J105" s="566"/>
+      <c r="K105" s="566"/>
+      <c r="L105" s="566"/>
       <c r="N105" s="144"/>
       <c r="O105" s="8"/>
       <c r="P105" s="8"/>
       <c r="Q105" s="8"/>
       <c r="R105" s="8"/>
       <c r="S105" s="8"/>
-      <c r="V105" s="526"/>
-      <c r="W105" s="522"/>
-      <c r="X105" s="527"/>
+      <c r="V105" s="561"/>
+      <c r="W105" s="557"/>
+      <c r="X105" s="562"/>
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="N106" s="144"/>
       <c r="P106" s="8"/>
       <c r="R106" s="8"/>
       <c r="S106" s="8"/>
-      <c r="V106" s="526"/>
-      <c r="W106" s="522"/>
-      <c r="X106" s="527"/>
+      <c r="V106" s="561"/>
+      <c r="W106" s="557"/>
+      <c r="X106" s="562"/>
     </row>
     <row r="107" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F107" s="26">
@@ -11694,9 +11693,9 @@
       <c r="Q107" s="145"/>
       <c r="R107" s="145"/>
       <c r="S107" s="145"/>
-      <c r="V107" s="526"/>
-      <c r="W107" s="522"/>
-      <c r="X107" s="527"/>
+      <c r="V107" s="561"/>
+      <c r="W107" s="557"/>
+      <c r="X107" s="562"/>
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F108" s="21" t="s">
@@ -11717,7 +11716,7 @@
         <f>SUM(H108:I108)</f>
         <v>0.55936025891253771</v>
       </c>
-      <c r="L108" s="544">
+      <c r="L108" s="494">
         <f>I109/SUM(H109:I109)</f>
         <v>0.46717229178344477</v>
       </c>
@@ -11727,9 +11726,9 @@
       <c r="Q108" s="8"/>
       <c r="R108" s="144"/>
       <c r="S108" s="8"/>
-      <c r="V108" s="526"/>
-      <c r="W108" s="522"/>
-      <c r="X108" s="527"/>
+      <c r="V108" s="561"/>
+      <c r="W108" s="557"/>
+      <c r="X108" s="562"/>
     </row>
     <row r="109" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F109" s="21" t="s">
@@ -11756,9 +11755,9 @@
       <c r="Q109" s="8"/>
       <c r="R109" s="144"/>
       <c r="S109" s="8"/>
-      <c r="V109" s="526"/>
-      <c r="W109" s="522"/>
-      <c r="X109" s="527"/>
+      <c r="V109" s="561"/>
+      <c r="W109" s="557"/>
+      <c r="X109" s="562"/>
     </row>
     <row r="110" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H110" s="120">
@@ -11773,50 +11772,50 @@
         <f>SUM(H108:I109)</f>
         <v>1</v>
       </c>
-      <c r="V110" s="526"/>
-      <c r="W110" s="522"/>
-      <c r="X110" s="527"/>
+      <c r="V110" s="561"/>
+      <c r="W110" s="557"/>
+      <c r="X110" s="562"/>
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="V111" s="526"/>
-      <c r="W111" s="522"/>
-      <c r="X111" s="527"/>
+      <c r="V111" s="561"/>
+      <c r="W111" s="557"/>
+      <c r="X111" s="562"/>
     </row>
     <row r="112" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F112" s="531" t="s">
+      <c r="F112" s="566" t="s">
         <v>56</v>
       </c>
-      <c r="G112" s="531"/>
-      <c r="H112" s="531"/>
-      <c r="I112" s="531"/>
-      <c r="J112" s="531"/>
-      <c r="K112" s="531"/>
-      <c r="L112" s="531"/>
-      <c r="V112" s="526"/>
-      <c r="W112" s="522"/>
-      <c r="X112" s="527"/>
+      <c r="G112" s="566"/>
+      <c r="H112" s="566"/>
+      <c r="I112" s="566"/>
+      <c r="J112" s="566"/>
+      <c r="K112" s="566"/>
+      <c r="L112" s="566"/>
+      <c r="V112" s="561"/>
+      <c r="W112" s="557"/>
+      <c r="X112" s="562"/>
     </row>
     <row r="113" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F113" s="531"/>
-      <c r="G113" s="531"/>
-      <c r="H113" s="531"/>
-      <c r="I113" s="531"/>
-      <c r="J113" s="531"/>
-      <c r="K113" s="531"/>
-      <c r="L113" s="531"/>
-      <c r="V113" s="526"/>
-      <c r="W113" s="522"/>
-      <c r="X113" s="527"/>
+      <c r="F113" s="566"/>
+      <c r="G113" s="566"/>
+      <c r="H113" s="566"/>
+      <c r="I113" s="566"/>
+      <c r="J113" s="566"/>
+      <c r="K113" s="566"/>
+      <c r="L113" s="566"/>
+      <c r="V113" s="561"/>
+      <c r="W113" s="557"/>
+      <c r="X113" s="562"/>
     </row>
     <row r="114" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="V114" s="526"/>
-      <c r="W114" s="522"/>
-      <c r="X114" s="527"/>
+      <c r="V114" s="561"/>
+      <c r="W114" s="557"/>
+      <c r="X114" s="562"/>
     </row>
     <row r="115" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="V115" s="526"/>
-      <c r="W115" s="522"/>
-      <c r="X115" s="527"/>
+      <c r="V115" s="561"/>
+      <c r="W115" s="557"/>
+      <c r="X115" s="562"/>
     </row>
     <row r="116" spans="6:24" x14ac:dyDescent="0.25">
       <c r="J116" s="33"/>
@@ -11824,9 +11823,9 @@
       <c r="L116" s="33"/>
       <c r="M116" s="33"/>
       <c r="N116" s="33"/>
-      <c r="V116" s="526"/>
-      <c r="W116" s="522"/>
-      <c r="X116" s="527"/>
+      <c r="V116" s="561"/>
+      <c r="W116" s="557"/>
+      <c r="X116" s="562"/>
     </row>
     <row r="117" spans="6:24" x14ac:dyDescent="0.25">
       <c r="J117" s="33"/>
@@ -11834,9 +11833,9 @@
       <c r="L117" s="33"/>
       <c r="M117" s="33"/>
       <c r="N117" s="33"/>
-      <c r="V117" s="526"/>
-      <c r="W117" s="522"/>
-      <c r="X117" s="527"/>
+      <c r="V117" s="561"/>
+      <c r="W117" s="557"/>
+      <c r="X117" s="562"/>
     </row>
     <row r="118" spans="6:24" x14ac:dyDescent="0.25">
       <c r="J118" s="33"/>
@@ -11844,44 +11843,44 @@
       <c r="L118" s="33"/>
       <c r="M118" s="33"/>
       <c r="N118" s="33"/>
-      <c r="V118" s="526"/>
-      <c r="W118" s="522"/>
-      <c r="X118" s="527"/>
+      <c r="V118" s="561"/>
+      <c r="W118" s="557"/>
+      <c r="X118" s="562"/>
     </row>
     <row r="119" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="V119" s="526"/>
-      <c r="W119" s="522"/>
-      <c r="X119" s="527"/>
+      <c r="V119" s="561"/>
+      <c r="W119" s="557"/>
+      <c r="X119" s="562"/>
     </row>
     <row r="120" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="V120" s="526"/>
-      <c r="W120" s="522"/>
-      <c r="X120" s="527"/>
+      <c r="V120" s="561"/>
+      <c r="W120" s="557"/>
+      <c r="X120" s="562"/>
     </row>
     <row r="121" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="V121" s="526"/>
-      <c r="W121" s="522"/>
-      <c r="X121" s="527"/>
+      <c r="V121" s="561"/>
+      <c r="W121" s="557"/>
+      <c r="X121" s="562"/>
     </row>
     <row r="122" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="V122" s="526"/>
-      <c r="W122" s="522"/>
-      <c r="X122" s="527"/>
+      <c r="V122" s="561"/>
+      <c r="W122" s="557"/>
+      <c r="X122" s="562"/>
     </row>
     <row r="123" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="V123" s="526"/>
-      <c r="W123" s="522"/>
-      <c r="X123" s="527"/>
+      <c r="V123" s="561"/>
+      <c r="W123" s="557"/>
+      <c r="X123" s="562"/>
     </row>
     <row r="124" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="V124" s="526"/>
-      <c r="W124" s="522"/>
-      <c r="X124" s="527"/>
+      <c r="V124" s="561"/>
+      <c r="W124" s="557"/>
+      <c r="X124" s="562"/>
     </row>
     <row r="125" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="V125" s="528"/>
-      <c r="W125" s="529"/>
-      <c r="X125" s="530"/>
+      <c r="V125" s="563"/>
+      <c r="W125" s="564"/>
+      <c r="X125" s="565"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11975,7 +11974,7 @@
       <c r="B4" s="190"/>
     </row>
     <row r="5" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="490" t="s">
+      <c r="B5" s="525" t="s">
         <v>172</v>
       </c>
       <c r="C5" s="154" t="s">
@@ -12004,7 +12003,7 @@
       <c r="V5" s="268"/>
     </row>
     <row r="6" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="491"/>
+      <c r="B6" s="526"/>
       <c r="C6" s="17" t="s">
         <v>157</v>
       </c>
@@ -12033,7 +12032,7 @@
       <c r="V6" s="6"/>
     </row>
     <row r="7" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="491"/>
+      <c r="B7" s="526"/>
       <c r="C7" s="17" t="s">
         <v>160</v>
       </c>
@@ -12062,7 +12061,7 @@
       <c r="V7" s="6"/>
     </row>
     <row r="8" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="491"/>
+      <c r="B8" s="526"/>
       <c r="C8" s="144" t="s">
         <v>161</v>
       </c>
@@ -12092,7 +12091,7 @@
       <c r="V8" s="6"/>
     </row>
     <row r="9" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="491"/>
+      <c r="B9" s="526"/>
       <c r="C9" s="144" t="s">
         <v>165</v>
       </c>
@@ -12121,7 +12120,7 @@
       <c r="V9" s="6"/>
     </row>
     <row r="10" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="491"/>
+      <c r="B10" s="526"/>
       <c r="C10" s="144" t="s">
         <v>166</v>
       </c>
@@ -12150,7 +12149,7 @@
       <c r="V10" s="6"/>
     </row>
     <row r="11" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="492"/>
+      <c r="B11" s="527"/>
       <c r="C11" s="298" t="s">
         <v>167</v>
       </c>
@@ -12184,7 +12183,7 @@
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="493" t="s">
+      <c r="B13" s="528" t="s">
         <v>160</v>
       </c>
       <c r="C13" s="306" t="s">
@@ -12201,7 +12200,7 @@
       <c r="H13" s="282"/>
     </row>
     <row r="14" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="494"/>
+      <c r="B14" s="529"/>
       <c r="C14" s="17" t="s">
         <v>146</v>
       </c>
@@ -12216,7 +12215,7 @@
       <c r="H14" s="206"/>
     </row>
     <row r="15" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="494"/>
+      <c r="B15" s="529"/>
       <c r="C15" s="17" t="s">
         <v>5</v>
       </c>
@@ -12231,7 +12230,7 @@
       <c r="H15" s="206"/>
     </row>
     <row r="16" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="494"/>
+      <c r="B16" s="529"/>
       <c r="C16" s="144" t="s">
         <v>163</v>
       </c>
@@ -12247,7 +12246,7 @@
       <c r="H16" s="206"/>
     </row>
     <row r="17" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="495"/>
+      <c r="B17" s="530"/>
       <c r="C17" s="170" t="s">
         <v>148</v>
       </c>
@@ -12308,10 +12307,10 @@
         <v>35</v>
       </c>
       <c r="L19" s="204"/>
-      <c r="M19" s="496" t="s">
+      <c r="M19" s="531" t="s">
         <v>99</v>
       </c>
-      <c r="N19" s="497"/>
+      <c r="N19" s="532"/>
       <c r="O19" s="187" t="s">
         <v>100</v>
       </c>
@@ -13194,7 +13193,7 @@
       <c r="D3" s="143"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C4" s="490" t="s">
+      <c r="C4" s="525" t="s">
         <v>172</v>
       </c>
       <c r="D4" s="154" t="s">
@@ -13213,7 +13212,7 @@
       <c r="M4" s="292"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C5" s="491"/>
+      <c r="C5" s="526"/>
       <c r="D5" s="17" t="s">
         <v>157</v>
       </c>
@@ -13232,7 +13231,7 @@
       <c r="M5" s="271"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C6" s="491"/>
+      <c r="C6" s="526"/>
       <c r="D6" s="17" t="s">
         <v>160</v>
       </c>
@@ -13251,7 +13250,7 @@
       <c r="M6" s="271"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C7" s="491"/>
+      <c r="C7" s="526"/>
       <c r="D7" s="144" t="s">
         <v>161</v>
       </c>
@@ -13271,7 +13270,7 @@
       <c r="M7" s="271"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C8" s="491"/>
+      <c r="C8" s="526"/>
       <c r="D8" s="144" t="s">
         <v>165</v>
       </c>
@@ -13290,7 +13289,7 @@
       <c r="M8" s="271"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C9" s="491"/>
+      <c r="C9" s="526"/>
       <c r="D9" s="144" t="s">
         <v>166</v>
       </c>
@@ -13307,7 +13306,7 @@
       <c r="M9" s="271"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C10" s="492"/>
+      <c r="C10" s="527"/>
       <c r="D10" s="298" t="s">
         <v>167</v>
       </c>
@@ -13336,7 +13335,7 @@
       <c r="L11" s="17"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C12" s="490" t="s">
+      <c r="C12" s="525" t="s">
         <v>176</v>
       </c>
       <c r="D12" s="154" t="s">
@@ -13354,7 +13353,7 @@
       <c r="L12" s="17"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C13" s="491"/>
+      <c r="C13" s="526"/>
       <c r="D13" s="17" t="s">
         <v>141</v>
       </c>
@@ -13370,7 +13369,7 @@
       <c r="L13" s="17"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C14" s="492"/>
+      <c r="C14" s="527"/>
       <c r="D14" s="290" t="s">
         <v>142</v>
       </c>
@@ -13398,7 +13397,7 @@
       <c r="L15" s="17"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C16" s="493" t="s">
+      <c r="C16" s="528" t="s">
         <v>160</v>
       </c>
       <c r="D16" s="306" t="s">
@@ -13415,7 +13414,7 @@
       <c r="I16" s="282"/>
     </row>
     <row r="17" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="C17" s="494"/>
+      <c r="C17" s="529"/>
       <c r="D17" s="17" t="s">
         <v>146</v>
       </c>
@@ -13430,7 +13429,7 @@
       <c r="I17" s="206"/>
     </row>
     <row r="18" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="C18" s="494"/>
+      <c r="C18" s="529"/>
       <c r="D18" s="17" t="s">
         <v>5</v>
       </c>
@@ -13445,7 +13444,7 @@
       <c r="I18" s="206"/>
     </row>
     <row r="19" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="C19" s="494"/>
+      <c r="C19" s="529"/>
       <c r="D19" s="144" t="s">
         <v>163</v>
       </c>
@@ -13461,7 +13460,7 @@
       <c r="I19" s="206"/>
     </row>
     <row r="20" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="495"/>
+      <c r="C20" s="530"/>
       <c r="D20" s="170" t="s">
         <v>148</v>
       </c>
@@ -13543,10 +13542,10 @@
         <v>35</v>
       </c>
       <c r="U23" s="204"/>
-      <c r="V23" s="496" t="s">
+      <c r="V23" s="531" t="s">
         <v>99</v>
       </c>
-      <c r="W23" s="497"/>
+      <c r="W23" s="532"/>
       <c r="X23" s="187" t="s">
         <v>100</v>
       </c>
@@ -16219,8 +16218,8 @@
   </sheetPr>
   <dimension ref="B2:AJ57"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AF12" sqref="AF12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16252,7 +16251,7 @@
       <c r="D3" s="143"/>
     </row>
     <row r="4" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C4" s="490" t="s">
+      <c r="C4" s="525" t="s">
         <v>172</v>
       </c>
       <c r="D4" s="154" t="s">
@@ -16271,7 +16270,7 @@
       <c r="M4" s="292"/>
     </row>
     <row r="5" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C5" s="491"/>
+      <c r="C5" s="526"/>
       <c r="D5" s="17" t="s">
         <v>157</v>
       </c>
@@ -16290,7 +16289,7 @@
       <c r="M5" s="271"/>
     </row>
     <row r="6" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C6" s="491"/>
+      <c r="C6" s="526"/>
       <c r="D6" s="17" t="s">
         <v>160</v>
       </c>
@@ -16309,7 +16308,7 @@
       <c r="M6" s="271"/>
     </row>
     <row r="7" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C7" s="491"/>
+      <c r="C7" s="526"/>
       <c r="D7" s="144" t="s">
         <v>161</v>
       </c>
@@ -16329,7 +16328,7 @@
       <c r="M7" s="271"/>
     </row>
     <row r="8" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C8" s="491"/>
+      <c r="C8" s="526"/>
       <c r="D8" s="144" t="s">
         <v>165</v>
       </c>
@@ -16346,7 +16345,7 @@
       <c r="M8" s="271"/>
     </row>
     <row r="9" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C9" s="491"/>
+      <c r="C9" s="526"/>
       <c r="D9" s="144" t="s">
         <v>166</v>
       </c>
@@ -16363,7 +16362,7 @@
       <c r="M9" s="271"/>
     </row>
     <row r="10" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C10" s="492"/>
+      <c r="C10" s="527"/>
       <c r="D10" s="298" t="s">
         <v>167</v>
       </c>
@@ -16392,7 +16391,7 @@
       <c r="L11" s="17"/>
     </row>
     <row r="12" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C12" s="490" t="s">
+      <c r="C12" s="525" t="s">
         <v>176</v>
       </c>
       <c r="D12" s="154" t="s">
@@ -16411,7 +16410,7 @@
       <c r="M12" s="292"/>
     </row>
     <row r="13" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C13" s="491"/>
+      <c r="C13" s="526"/>
       <c r="D13" s="17" t="s">
         <v>157</v>
       </c>
@@ -16431,7 +16430,7 @@
     </row>
     <row r="14" spans="2:36" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14"/>
-      <c r="C14" s="491"/>
+      <c r="C14" s="526"/>
       <c r="D14" s="17" t="s">
         <v>160</v>
       </c>
@@ -16464,7 +16463,7 @@
     </row>
     <row r="15" spans="2:36" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15"/>
-      <c r="C15" s="491"/>
+      <c r="C15" s="526"/>
       <c r="D15" s="144" t="s">
         <v>161</v>
       </c>
@@ -16498,7 +16497,7 @@
     </row>
     <row r="16" spans="2:36" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16"/>
-      <c r="C16" s="491"/>
+      <c r="C16" s="526"/>
       <c r="D16" s="144" t="s">
         <v>165</v>
       </c>
@@ -16529,7 +16528,7 @@
     </row>
     <row r="17" spans="2:36" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17"/>
-      <c r="C17" s="491"/>
+      <c r="C17" s="526"/>
       <c r="D17" s="144" t="s">
         <v>166</v>
       </c>
@@ -16560,7 +16559,7 @@
     </row>
     <row r="18" spans="2:36" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18"/>
-      <c r="C18" s="492"/>
+      <c r="C18" s="527"/>
       <c r="D18" s="298" t="s">
         <v>167</v>
       </c>
@@ -16617,7 +16616,7 @@
     </row>
     <row r="20" spans="2:36" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20"/>
-      <c r="C20" s="493" t="s">
+      <c r="C20" s="528" t="s">
         <v>160</v>
       </c>
       <c r="D20" s="306" t="s">
@@ -16647,7 +16646,7 @@
       <c r="AJ20"/>
     </row>
     <row r="21" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C21" s="494"/>
+      <c r="C21" s="529"/>
       <c r="D21" s="17" t="s">
         <v>146</v>
       </c>
@@ -16662,7 +16661,7 @@
       <c r="I21" s="206"/>
     </row>
     <row r="22" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C22" s="494"/>
+      <c r="C22" s="529"/>
       <c r="D22" s="17" t="s">
         <v>5</v>
       </c>
@@ -16677,7 +16676,7 @@
       <c r="I22" s="206"/>
     </row>
     <row r="23" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C23" s="494"/>
+      <c r="C23" s="529"/>
       <c r="D23" s="144" t="s">
         <v>163</v>
       </c>
@@ -16693,7 +16692,7 @@
       <c r="I23" s="206"/>
     </row>
     <row r="24" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="495"/>
+      <c r="C24" s="530"/>
       <c r="D24" s="170" t="s">
         <v>148</v>
       </c>
@@ -16776,10 +16775,10 @@
         <v>35</v>
       </c>
       <c r="W27" s="204"/>
-      <c r="X27" s="496" t="s">
+      <c r="X27" s="531" t="s">
         <v>99</v>
       </c>
-      <c r="Y27" s="497"/>
+      <c r="Y27" s="532"/>
       <c r="Z27" s="187" t="s">
         <v>100</v>
       </c>
@@ -17051,7 +17050,7 @@
         <v>Bought 1 Shares of State 2 at a cost of 378.26985</v>
       </c>
       <c r="AE30" s="352" t="s">
-        <v>207</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="2:36" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -18333,12 +18332,12 @@
     </row>
     <row r="3" spans="2:13" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B3" s="190" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D3" s="143"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C4" s="490" t="s">
+      <c r="C4" s="525" t="s">
         <v>172</v>
       </c>
       <c r="D4" s="154" t="s">
@@ -18357,7 +18356,7 @@
       <c r="M4" s="292"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C5" s="491"/>
+      <c r="C5" s="526"/>
       <c r="D5" s="17" t="s">
         <v>157</v>
       </c>
@@ -18376,7 +18375,7 @@
       <c r="M5" s="271"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C6" s="491"/>
+      <c r="C6" s="526"/>
       <c r="D6" s="17" t="s">
         <v>160</v>
       </c>
@@ -18395,7 +18394,7 @@
       <c r="M6" s="271"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C7" s="491"/>
+      <c r="C7" s="526"/>
       <c r="D7" s="144" t="s">
         <v>161</v>
       </c>
@@ -18415,7 +18414,7 @@
       <c r="M7" s="271"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C8" s="491"/>
+      <c r="C8" s="526"/>
       <c r="D8" s="144" t="s">
         <v>165</v>
       </c>
@@ -18432,7 +18431,7 @@
       <c r="M8" s="271"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C9" s="491"/>
+      <c r="C9" s="526"/>
       <c r="D9" s="144" t="s">
         <v>166</v>
       </c>
@@ -18449,7 +18448,7 @@
       <c r="M9" s="271"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C10" s="492"/>
+      <c r="C10" s="527"/>
       <c r="D10" s="298" t="s">
         <v>167</v>
       </c>
@@ -18478,14 +18477,14 @@
       <c r="L11" s="17"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C12" s="490" t="s">
+      <c r="C12" s="525" t="s">
         <v>176</v>
       </c>
       <c r="D12" s="154" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="297" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F12" s="154"/>
       <c r="G12" s="297"/>
@@ -18496,7 +18495,7 @@
       <c r="L12" s="17"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C13" s="491"/>
+      <c r="C13" s="526"/>
       <c r="D13" s="17" t="s">
         <v>141</v>
       </c>
@@ -18512,7 +18511,7 @@
       <c r="L13" s="17"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C14" s="492"/>
+      <c r="C14" s="527"/>
       <c r="D14" s="290" t="s">
         <v>142</v>
       </c>
@@ -18540,7 +18539,7 @@
       <c r="L15" s="17"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C16" s="493" t="s">
+      <c r="C16" s="528" t="s">
         <v>160</v>
       </c>
       <c r="D16" s="306" t="s">
@@ -18557,7 +18556,7 @@
       <c r="I16" s="282"/>
     </row>
     <row r="17" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="C17" s="494"/>
+      <c r="C17" s="529"/>
       <c r="D17" s="17" t="s">
         <v>146</v>
       </c>
@@ -18572,7 +18571,7 @@
       <c r="I17" s="206"/>
     </row>
     <row r="18" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="C18" s="494"/>
+      <c r="C18" s="529"/>
       <c r="D18" s="17" t="s">
         <v>5</v>
       </c>
@@ -18587,7 +18586,7 @@
       <c r="I18" s="206"/>
     </row>
     <row r="19" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="C19" s="494"/>
+      <c r="C19" s="529"/>
       <c r="D19" s="144" t="s">
         <v>163</v>
       </c>
@@ -18603,7 +18602,7 @@
       <c r="I19" s="206"/>
     </row>
     <row r="20" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="495"/>
+      <c r="C20" s="530"/>
       <c r="D20" s="170" t="s">
         <v>148</v>
       </c>
@@ -18672,19 +18671,19 @@
       <c r="K23" s="220"/>
       <c r="L23" s="223"/>
       <c r="M23" s="219" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N23" s="220"/>
       <c r="O23" s="220"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="219" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R23" s="220"/>
       <c r="S23" s="220"/>
       <c r="T23" s="10"/>
       <c r="U23" s="219" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="V23" s="220"/>
       <c r="W23" s="220"/>
@@ -18696,10 +18695,10 @@
         <v>35</v>
       </c>
       <c r="AA23" s="204"/>
-      <c r="AB23" s="496" t="s">
+      <c r="AB23" s="531" t="s">
         <v>99</v>
       </c>
-      <c r="AC23" s="497"/>
+      <c r="AC23" s="532"/>
       <c r="AD23" s="187" t="s">
         <v>100</v>
       </c>
@@ -18750,16 +18749,16 @@
         <v>i=1000, 1</v>
       </c>
       <c r="M24" s="280" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N24" s="180" t="s">
+        <v>208</v>
+      </c>
+      <c r="O24" s="177" t="s">
         <v>209</v>
       </c>
-      <c r="O24" s="177" t="s">
-        <v>210</v>
-      </c>
       <c r="P24" s="355" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q24" s="280" t="str">
         <f>"i="&amp;$E$5&amp;", 0"</f>
@@ -18778,16 +18777,16 @@
         <v>i=1000, 1</v>
       </c>
       <c r="U24" s="485" t="s">
+        <v>235</v>
+      </c>
+      <c r="V24" s="516" t="s">
         <v>236</v>
       </c>
-      <c r="V24" s="566" t="s">
+      <c r="W24" s="515" t="s">
         <v>237</v>
       </c>
-      <c r="W24" s="565" t="s">
+      <c r="X24" s="478" t="s">
         <v>238</v>
-      </c>
-      <c r="X24" s="478" t="s">
-        <v>239</v>
       </c>
       <c r="Y24" s="330">
         <v>0</v>
@@ -18804,10 +18803,10 @@
       </c>
       <c r="AH24"/>
       <c r="AJ24" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="AK24" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="AK24" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="25" spans="2:40" s="7" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -18878,11 +18877,11 @@
         <f>$E$5+(K25/SUM(K25,I25))*$E$7</f>
         <v>500</v>
       </c>
-      <c r="V25" s="567">
+      <c r="V25" s="517">
         <f>$E$5+(L25/SUM(L25,J25))*$E$7</f>
         <v>500</v>
       </c>
-      <c r="W25" s="570">
+      <c r="W25" s="520">
         <f>(J25/SUM(J25,I25))</f>
         <v>0.5</v>
       </c>
@@ -18903,7 +18902,7 @@
       <c r="AC25" s="103"/>
       <c r="AH25"/>
       <c r="AJ25" s="191">
-        <f>SUM(J25,L25)</f>
+        <f t="shared" ref="AJ25:AJ50" si="6">SUM(J25,L25)</f>
         <v>0.5</v>
       </c>
       <c r="AK25" s="191">
@@ -18945,11 +18944,11 @@
         <v>0.25</v>
       </c>
       <c r="M26" s="378">
-        <f t="shared" ref="M26:M49" si="6">1-O26</f>
+        <f t="shared" ref="M26:M49" si="7">1-O26</f>
         <v>0.5</v>
       </c>
       <c r="N26" s="245">
-        <f t="shared" ref="N26:N49" si="7">$E$6-P26</f>
+        <f t="shared" ref="N26:N49" si="8">$E$6-P26</f>
         <v>500</v>
       </c>
       <c r="O26" s="244">
@@ -18957,7 +18956,7 @@
         <v>0.5</v>
       </c>
       <c r="P26" s="379">
-        <f t="shared" ref="P26:P49" si="8">$E$5+SUM(K26:L26)*$E$7</f>
+        <f t="shared" ref="P26:P49" si="9">$E$5+SUM(K26:L26)*$E$7</f>
         <v>500</v>
       </c>
       <c r="Q26" s="378">
@@ -18980,24 +18979,24 @@
         <f>$E$5+(K26/SUM(K26,I26))*$E$7</f>
         <v>500</v>
       </c>
-      <c r="V26" s="568">
+      <c r="V26" s="518">
         <f>$E$5+(L26/SUM(L26,J26))*$E$7</f>
         <v>500</v>
       </c>
-      <c r="W26" s="571">
-        <f t="shared" ref="W26:W50" si="9">(J26/SUM(J26,I26))</f>
+      <c r="W26" s="521">
+        <f t="shared" ref="W26:W50" si="10">(J26/SUM(J26,I26))</f>
         <v>0.5</v>
       </c>
       <c r="X26" s="202">
-        <f t="shared" ref="X26:X50" si="10">(L26/SUM(K26,L26))</f>
+        <f t="shared" ref="X26:X50" si="11">(L26/SUM(K26,L26))</f>
         <v>0.5</v>
       </c>
       <c r="Y26" s="383">
-        <f t="shared" ref="Y26:Y50" si="11">$E$18*$E$19*LN(EXP($E26/$E$18) + EXP($F26/$E$18) + EXP($G26/$E$18) +EXP($H26/$E$18) )</f>
+        <f t="shared" ref="Y26:Y50" si="12">$E$18*$E$19*LN(EXP($E26/$E$18) + EXP($F26/$E$18) + EXP($G26/$E$18) +EXP($H26/$E$18) )</f>
         <v>7552.722621924042</v>
       </c>
       <c r="Z26" s="49">
-        <f t="shared" ref="Z26:Z27" si="12">(Y26-Y25)</f>
+        <f t="shared" ref="Z26:Z27" si="13">(Y26-Y25)</f>
         <v>2002</v>
       </c>
       <c r="AA26" s="205"/>
@@ -19010,27 +19009,27 @@
         <v>1</v>
       </c>
       <c r="AD26" s="186">
-        <f t="shared" ref="AD26:AD49" si="13">Z26</f>
+        <f t="shared" ref="AD26:AD49" si="14">Z26</f>
         <v>2002</v>
       </c>
       <c r="AF26" s="7" t="str">
-        <f t="shared" ref="AF26:AF49" si="14">IF(AB26&gt;0,"Bought ",IF(AB26&lt;0,"Sold ",""))&amp;IF(AB26&lt;0,AB26*-1,IF(AB26&gt;0,AB26,""))&amp;IF(AB26&lt;&gt;0," Shares of State 1 at a cost of "&amp;ROUND($AD26,5),"")</f>
+        <f t="shared" ref="AF26:AF49" si="15">IF(AB26&gt;0,"Bought ",IF(AB26&lt;0,"Sold ",""))&amp;IF(AB26&lt;0,AB26*-1,IF(AB26&gt;0,AB26,""))&amp;IF(AB26&lt;&gt;0," Shares of State 1 at a cost of "&amp;ROUND($AD26,5),"")</f>
         <v>Bought 1 Shares of State 1 at a cost of 2002</v>
       </c>
       <c r="AG26" s="7" t="str">
-        <f t="shared" ref="AG26:AG49" si="15">IF(AC26&gt;0,"Bought ",IF(AC26&lt;0,"Sold ",""))&amp;IF(AC26&lt;0,AC26*-1,IF(AC26&gt;0,AC26,""))&amp;IF(AC26&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($AD26,5),"")</f>
+        <f t="shared" ref="AG26:AG49" si="16">IF(AC26&gt;0,"Bought ",IF(AC26&lt;0,"Sold ",""))&amp;IF(AC26&lt;0,AC26*-1,IF(AC26&gt;0,AC26,""))&amp;IF(AC26&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($AD26,5),"")</f>
         <v>Bought 1 Shares of State 2 at a cost of 2002</v>
       </c>
       <c r="AH26" s="189" t="str">
-        <f t="shared" ref="AH26:AH49" si="16">AF26&amp;AG26</f>
+        <f t="shared" ref="AH26:AH49" si="17">AF26&amp;AG26</f>
         <v>Bought 1 Shares of State 1 at a cost of 2002Bought 1 Shares of State 2 at a cost of 2002</v>
       </c>
       <c r="AJ26" s="191">
-        <f>SUM(J26,L26)</f>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="AK26" s="191">
-        <f t="shared" ref="AK26:AK50" si="17">SUM(K26:L26)</f>
+        <f t="shared" ref="AK26:AK50" si="18">SUM(K26:L26)</f>
         <v>0.5</v>
       </c>
     </row>
@@ -19068,11 +19067,11 @@
         <v>0.1887703343990727</v>
       </c>
       <c r="M27" s="378">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.62245933120185459</v>
       </c>
       <c r="N27" s="245">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>500.00000000000006</v>
       </c>
       <c r="O27" s="244">
@@ -19080,7 +19079,7 @@
         <v>0.37754066879814541</v>
       </c>
       <c r="P27" s="379">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>499.99999999999994</v>
       </c>
       <c r="Q27" s="378">
@@ -19100,27 +19099,27 @@
         <v>500.37754066879808</v>
       </c>
       <c r="U27" s="483">
-        <f t="shared" ref="U27:W48" si="18">$E$5+(K27/SUM(K27,I27))*$E$7</f>
+        <f t="shared" ref="U27:U48" si="19">$E$5+(K27/SUM(K27,I27))*$E$7</f>
         <v>500</v>
       </c>
-      <c r="V27" s="568">
-        <f t="shared" ref="V27:V50" si="19">$E$5+(L27/SUM(L27,J27))*$E$7</f>
+      <c r="V27" s="518">
+        <f t="shared" ref="V27:V49" si="20">$E$5+(L27/SUM(L27,J27))*$E$7</f>
         <v>500</v>
       </c>
-      <c r="W27" s="571">
-        <f t="shared" si="9"/>
-        <v>0.37754066879814546</v>
-      </c>
-      <c r="X27" s="202">
+      <c r="W27" s="521">
         <f t="shared" si="10"/>
         <v>0.37754066879814546</v>
       </c>
+      <c r="X27" s="202">
+        <f t="shared" si="11"/>
+        <v>0.37754066879814546</v>
+      </c>
       <c r="Y27" s="383">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8677.5655556191668</v>
       </c>
       <c r="Z27" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1124.8429336951249</v>
       </c>
       <c r="AA27" s="205"/>
@@ -19133,27 +19132,27 @@
         <v>0</v>
       </c>
       <c r="AD27" s="186">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1124.8429336951249</v>
       </c>
       <c r="AF27" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Bought 1 Shares of State 1 at a cost of 1124.84293</v>
       </c>
       <c r="AG27" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AH27" s="189" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Bought 1 Shares of State 1 at a cost of 1124.84293</v>
       </c>
       <c r="AJ27" s="191">
-        <f>SUM(J27,L27)</f>
+        <f t="shared" si="6"/>
         <v>0.37754066879814541</v>
       </c>
       <c r="AK27" s="191">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.49999999999999994</v>
       </c>
     </row>
@@ -19191,7 +19190,7 @@
         <v>0.57925852994137372</v>
       </c>
       <c r="M28" s="378">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.29149142150546348</v>
       </c>
       <c r="N28" s="245">
@@ -19226,20 +19225,20 @@
         <f>$E$5+(K28/SUM(K28,I28))*$E$7</f>
         <v>731.05857863000494</v>
       </c>
-      <c r="V28" s="568">
-        <f t="shared" si="19"/>
+      <c r="V28" s="518">
+        <f t="shared" si="20"/>
         <v>817.5744761936437</v>
       </c>
-      <c r="W28" s="571">
-        <f t="shared" si="9"/>
+      <c r="W28" s="521">
+        <f t="shared" si="10"/>
         <v>0.62245933120185459</v>
       </c>
       <c r="X28" s="202">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.7310585786300049</v>
       </c>
       <c r="Y28" s="383">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>18202.209585322053</v>
       </c>
       <c r="Z28" s="49">
@@ -19256,27 +19255,27 @@
         <v>7</v>
       </c>
       <c r="AD28" s="186">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9524.6440297028857</v>
       </c>
       <c r="AF28" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Bought 2 Shares of State 1 at a cost of 9524.64403</v>
       </c>
       <c r="AG28" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Bought 7 Shares of State 2 at a cost of 9524.64403</v>
       </c>
       <c r="AH28" s="189" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Bought 2 Shares of State 1 at a cost of 9524.64403Bought 7 Shares of State 2 at a cost of 9524.64403</v>
       </c>
       <c r="AJ28" s="191">
-        <f>SUM(J28,L28)</f>
+        <f t="shared" si="6"/>
         <v>0.70850857849453652</v>
       </c>
       <c r="AK28" s="191">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.79235583422999745</v>
       </c>
     </row>
@@ -19314,11 +19313,11 @@
         <v>0.23500371220159449</v>
       </c>
       <c r="M29" s="378">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.37754066879814552</v>
       </c>
       <c r="N29" s="245">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>529.99257559681109</v>
       </c>
       <c r="O29" s="244">
@@ -19326,7 +19325,7 @@
         <v>0.62245933120185448</v>
       </c>
       <c r="P29" s="379">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>470.00742440318896</v>
       </c>
       <c r="Q29" s="378">
@@ -19346,27 +19345,27 @@
         <v>470.62988373439083</v>
       </c>
       <c r="U29" s="483">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>622.45933120185464</v>
       </c>
-      <c r="V29" s="568">
-        <f t="shared" si="19"/>
+      <c r="V29" s="518">
+        <f t="shared" si="20"/>
         <v>377.54066879814553</v>
       </c>
-      <c r="W29" s="571">
-        <f t="shared" si="9"/>
+      <c r="W29" s="521">
+        <f t="shared" si="10"/>
         <v>0.73105857863000479</v>
       </c>
       <c r="X29" s="202">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
       <c r="Y29" s="383">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>17810.408489314294</v>
       </c>
       <c r="Z29" s="49">
-        <f t="shared" ref="Z29:Z49" si="20">(Y29-Y28)</f>
+        <f t="shared" ref="Z29:Z49" si="21">(Y29-Y28)</f>
         <v>-391.80109600775904</v>
       </c>
       <c r="AA29" s="205"/>
@@ -19379,27 +19378,27 @@
         <v>-2</v>
       </c>
       <c r="AD29" s="186">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-391.80109600775904</v>
       </c>
       <c r="AF29" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Bought 1 Shares of State 1 at a cost of -391.8011</v>
       </c>
       <c r="AG29" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Sold 2 Shares of State 2 at a cost of -391.8011</v>
       </c>
       <c r="AH29" s="189" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Bought 1 Shares of State 1 at a cost of -391.8011Sold 2 Shares of State 2 at a cost of -391.8011</v>
       </c>
       <c r="AJ29" s="191">
-        <f>SUM(J29,L29)</f>
+        <f t="shared" si="6"/>
         <v>0.62245933120185448</v>
       </c>
       <c r="AK29" s="191">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.47000742440318899</v>
       </c>
     </row>
@@ -19437,11 +19436,11 @@
         <v>4.031637265264288E-2</v>
       </c>
       <c r="M30" s="378">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.85009236417629475</v>
       </c>
       <c r="N30" s="245">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>149.90763582370516</v>
       </c>
       <c r="O30" s="244">
@@ -19449,7 +19448,7 @@
         <v>0.1499076358237052</v>
       </c>
       <c r="P30" s="379">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>850.09236417629484</v>
       </c>
       <c r="Q30" s="378">
@@ -19472,24 +19471,24 @@
         <f>$E$5+(K30/SUM(K30,I30))*$E$7</f>
         <v>952.5741268224333</v>
       </c>
-      <c r="V30" s="568">
-        <f t="shared" si="19"/>
+      <c r="V30" s="518">
+        <f t="shared" si="20"/>
         <v>268.94142136999517</v>
       </c>
-      <c r="W30" s="571">
-        <f t="shared" si="9"/>
+      <c r="W30" s="521">
+        <f t="shared" si="10"/>
         <v>0.7310585786300049</v>
       </c>
       <c r="X30" s="202">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.7425873177566788E-2</v>
       </c>
       <c r="Y30" s="383">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>24868.834483445655</v>
       </c>
       <c r="Z30" s="49">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>7058.4259941313612</v>
       </c>
       <c r="AA30" s="205"/>
@@ -19502,27 +19501,27 @@
         <v>5</v>
       </c>
       <c r="AD30" s="186">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7058.4259941313612</v>
       </c>
       <c r="AF30" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Bought 4 Shares of State 1 at a cost of 7058.42599</v>
       </c>
       <c r="AG30" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Bought 5 Shares of State 2 at a cost of 7058.42599</v>
       </c>
       <c r="AH30" s="189" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Bought 4 Shares of State 1 at a cost of 7058.42599Bought 5 Shares of State 2 at a cost of 7058.42599</v>
       </c>
       <c r="AJ30" s="191">
-        <f>SUM(J30,L30)</f>
+        <f t="shared" si="6"/>
         <v>0.1499076358237052</v>
       </c>
       <c r="AK30" s="191">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.85009236417629486</v>
       </c>
     </row>
@@ -19560,11 +19559,11 @@
         <v>0.27269973677797449</v>
       </c>
       <c r="M31" s="378">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.45460052644405102</v>
       </c>
       <c r="N31" s="245">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>277.69440668185302</v>
       </c>
       <c r="O31" s="244">
@@ -19572,7 +19571,7 @@
         <v>0.54539947355594898</v>
       </c>
       <c r="P31" s="379">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>722.30559331814698</v>
       </c>
       <c r="Q31" s="378">
@@ -19592,27 +19591,27 @@
         <v>722.85099279170288</v>
       </c>
       <c r="U31" s="483">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>989.01305736940685</v>
       </c>
-      <c r="V31" s="568">
-        <f t="shared" si="19"/>
+      <c r="V31" s="518">
+        <f t="shared" si="20"/>
         <v>500</v>
       </c>
-      <c r="W31" s="571">
-        <f t="shared" si="9"/>
+      <c r="W31" s="521">
+        <f t="shared" si="10"/>
         <v>0.98201379003790834</v>
       </c>
       <c r="X31" s="202">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.37754066879814546</v>
       </c>
       <c r="Y31" s="383">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>25222.733353317548</v>
       </c>
       <c r="Z31" s="49">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>353.89886987189311</v>
       </c>
       <c r="AA31" s="205"/>
@@ -19625,27 +19624,27 @@
         <v>9</v>
       </c>
       <c r="AD31" s="186">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>353.89886987189311</v>
       </c>
       <c r="AF31" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Bought 1 Shares of State 1 at a cost of 353.89887</v>
       </c>
       <c r="AG31" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Bought 9 Shares of State 2 at a cost of 353.89887</v>
       </c>
       <c r="AH31" s="189" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Bought 1 Shares of State 1 at a cost of 353.89887Bought 9 Shares of State 2 at a cost of 353.89887</v>
       </c>
       <c r="AJ31" s="191">
-        <f>SUM(J31,L31)</f>
+        <f t="shared" si="6"/>
         <v>0.54539947355594898</v>
       </c>
       <c r="AK31" s="191">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.72230559331814703</v>
       </c>
     </row>
@@ -19661,11 +19660,11 @@
         <v>12</v>
       </c>
       <c r="G32" s="260">
-        <f t="shared" ref="G32" si="21">G31</f>
+        <f t="shared" ref="G32" si="22">G31</f>
         <v>11</v>
       </c>
       <c r="H32" s="359">
-        <f t="shared" ref="H32" si="22">H31</f>
+        <f t="shared" ref="H32" si="23">H31</f>
         <v>10</v>
       </c>
       <c r="I32" s="368">
@@ -19685,11 +19684,11 @@
         <v>0.18528124038143898</v>
       </c>
       <c r="M32" s="378">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.31107213073534312</v>
       </c>
       <c r="N32" s="245">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>509.24163753997908</v>
       </c>
       <c r="O32" s="244">
@@ -19697,7 +19696,7 @@
         <v>0.68892786926465688</v>
       </c>
       <c r="P32" s="379">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>490.75836246002092</v>
       </c>
       <c r="Q32" s="378">
@@ -19717,27 +19716,27 @@
         <v>491.44729032928558</v>
       </c>
       <c r="U32" s="483">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>982.01379003790851</v>
       </c>
-      <c r="V32" s="568">
-        <f t="shared" si="19"/>
+      <c r="V32" s="518">
+        <f t="shared" si="20"/>
         <v>268.94142136999511</v>
       </c>
-      <c r="W32" s="571">
-        <f t="shared" si="9"/>
+      <c r="W32" s="521">
+        <f t="shared" si="10"/>
         <v>0.98901305736940681</v>
       </c>
       <c r="X32" s="202">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.37754066879814546</v>
       </c>
       <c r="Y32" s="383">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>26770.265081511137</v>
       </c>
       <c r="Z32" s="49">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1547.5317281935895</v>
       </c>
       <c r="AA32" s="205"/>
@@ -19750,27 +19749,27 @@
         <v>9</v>
       </c>
       <c r="AD32" s="186">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1547.5317281935895</v>
       </c>
       <c r="AF32" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Bought 1 Shares of State 1 at a cost of 1547.53173</v>
       </c>
       <c r="AG32" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Bought 9 Shares of State 2 at a cost of 1547.53173</v>
       </c>
       <c r="AH32" s="189" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Bought 1 Shares of State 1 at a cost of 1547.53173Bought 9 Shares of State 2 at a cost of 1547.53173</v>
       </c>
       <c r="AJ32" s="191">
-        <f>SUM(J32,L32)</f>
+        <f t="shared" si="6"/>
         <v>0.68892786926465688</v>
       </c>
       <c r="AK32" s="191">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.49075836246002091</v>
       </c>
     </row>
@@ -19808,11 +19807,11 @@
         <v>0.23209656219604313</v>
       </c>
       <c r="M33" s="378">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.38524089885496537</v>
       </c>
       <c r="N33" s="245">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>385.24089885496539</v>
       </c>
       <c r="O33" s="244">
@@ -19820,7 +19819,7 @@
         <v>0.61475910114503463</v>
       </c>
       <c r="P33" s="379">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>614.75910114503461</v>
       </c>
       <c r="Q33" s="378">
@@ -19840,27 +19839,27 @@
         <v>615.37386024617967</v>
       </c>
       <c r="U33" s="483">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>993.30714907571519</v>
       </c>
-      <c r="V33" s="568">
-        <f t="shared" si="19"/>
+      <c r="V33" s="518">
+        <f t="shared" si="20"/>
         <v>377.54066879814548</v>
       </c>
-      <c r="W33" s="571">
-        <f t="shared" si="9"/>
+      <c r="W33" s="521">
+        <f t="shared" si="10"/>
         <v>0.99330714907571516</v>
       </c>
       <c r="X33" s="202">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.37754066879814546</v>
       </c>
       <c r="Y33" s="383">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>29872.24951730049</v>
       </c>
       <c r="Z33" s="49">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3101.9844357893526</v>
       </c>
       <c r="AA33" s="205"/>
@@ -19873,27 +19872,27 @@
         <v>11</v>
       </c>
       <c r="AD33" s="186">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3101.9844357893526</v>
       </c>
       <c r="AF33" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Bought 2 Shares of State 1 at a cost of 3101.98444</v>
       </c>
       <c r="AG33" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Bought 11 Shares of State 2 at a cost of 3101.98444</v>
       </c>
       <c r="AH33" s="189" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Bought 2 Shares of State 1 at a cost of 3101.98444Bought 11 Shares of State 2 at a cost of 3101.98444</v>
       </c>
       <c r="AJ33" s="191">
-        <f>SUM(J33,L33)</f>
+        <f t="shared" si="6"/>
         <v>0.61475910114503463</v>
       </c>
       <c r="AK33" s="191">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.61475910114503463</v>
       </c>
     </row>
@@ -19931,11 +19930,11 @@
         <v>0.23107282892557152</v>
       </c>
       <c r="M34" s="378">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.38795248294398688</v>
       </c>
       <c r="N34" s="245">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>387.95248294398687</v>
       </c>
       <c r="O34" s="244">
@@ -19943,7 +19942,7 @@
         <v>0.61204751705601312</v>
       </c>
       <c r="P34" s="379">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>612.04751705601313</v>
       </c>
       <c r="Q34" s="378">
@@ -19963,27 +19962,27 @@
         <v>612.65956457306913</v>
       </c>
       <c r="U34" s="483">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>982.01379003790851</v>
       </c>
-      <c r="V34" s="568">
-        <f t="shared" si="19"/>
+      <c r="V34" s="518">
+        <f t="shared" si="20"/>
         <v>377.54066879814542</v>
       </c>
-      <c r="W34" s="571">
-        <f t="shared" si="9"/>
+      <c r="W34" s="521">
+        <f t="shared" si="10"/>
         <v>0.98201379003790845</v>
       </c>
       <c r="X34" s="202">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.37754066879814541</v>
       </c>
       <c r="Y34" s="383">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>27887.949455027796</v>
       </c>
       <c r="Z34" s="49">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-1984.300062272694</v>
       </c>
       <c r="AA34" s="205"/>
@@ -19996,27 +19995,27 @@
         <v>5</v>
       </c>
       <c r="AD34" s="186">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-1984.300062272694</v>
       </c>
       <c r="AF34" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Sold 1 Shares of State 1 at a cost of -1984.30006</v>
       </c>
       <c r="AG34" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Bought 5 Shares of State 2 at a cost of -1984.30006</v>
       </c>
       <c r="AH34" s="189" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Sold 1 Shares of State 1 at a cost of -1984.30006Bought 5 Shares of State 2 at a cost of -1984.30006</v>
       </c>
       <c r="AJ34" s="191">
-        <f>SUM(J34,L34)</f>
+        <f t="shared" si="6"/>
         <v>0.61204751705601312</v>
       </c>
       <c r="AK34" s="191">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.61204751705601312</v>
       </c>
     </row>
@@ -20054,11 +20053,11 @@
         <v>0.20603190919001854</v>
       </c>
       <c r="M35" s="378">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.58793618161996286</v>
       </c>
       <c r="N35" s="245">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>233.91529597602994</v>
       </c>
       <c r="O35" s="244">
@@ -20066,7 +20065,7 @@
         <v>0.41206381838003708</v>
       </c>
       <c r="P35" s="379">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>766.08470402397006</v>
       </c>
       <c r="Q35" s="378">
@@ -20086,27 +20085,27 @@
         <v>766.4967678423501</v>
       </c>
       <c r="U35" s="483">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>952.5741268224333</v>
       </c>
-      <c r="V35" s="568">
-        <f t="shared" si="19"/>
+      <c r="V35" s="518">
+        <f t="shared" si="20"/>
         <v>500</v>
       </c>
-      <c r="W35" s="571">
-        <f t="shared" si="9"/>
+      <c r="W35" s="521">
+        <f t="shared" si="10"/>
         <v>0.88079707797788243</v>
       </c>
       <c r="X35" s="202">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.2689414213699951</v>
       </c>
       <c r="Y35" s="383">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>26345.215789722799</v>
       </c>
       <c r="Z35" s="49">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-1542.733665304997</v>
       </c>
       <c r="AA35" s="205"/>
@@ -20119,27 +20118,27 @@
         <v>2</v>
       </c>
       <c r="AD35" s="186">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-1542.733665304997</v>
       </c>
       <c r="AF35" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Bought 2 Shares of State 1 at a cost of -1542.73367</v>
       </c>
       <c r="AG35" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Bought 2 Shares of State 2 at a cost of -1542.73367</v>
       </c>
       <c r="AH35" s="189" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Bought 2 Shares of State 1 at a cost of -1542.73367Bought 2 Shares of State 2 at a cost of -1542.73367</v>
       </c>
       <c r="AJ35" s="191">
-        <f>SUM(J35,L35)</f>
+        <f t="shared" si="6"/>
         <v>0.41206381838003708</v>
       </c>
       <c r="AK35" s="191">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.76608470402397011</v>
       </c>
     </row>
@@ -20177,11 +20176,11 @@
         <v>1.3415374928937527E-2</v>
       </c>
       <c r="M36" s="378">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.88745766713295526</v>
       </c>
       <c r="N36" s="245">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>135.59372782940295</v>
       </c>
       <c r="O36" s="244">
@@ -20189,7 +20188,7 @@
         <v>0.11254233286704469</v>
       </c>
       <c r="P36" s="379">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>864.40627217059705</v>
       </c>
       <c r="Q36" s="378">
@@ -20209,27 +20208,27 @@
         <v>864.51881450346411</v>
       </c>
       <c r="U36" s="483">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>958.90872179953499</v>
       </c>
-      <c r="V36" s="568">
-        <f t="shared" si="19"/>
+      <c r="V36" s="518">
+        <f t="shared" si="20"/>
         <v>119.20292202211756</v>
       </c>
-      <c r="W36" s="571">
-        <f t="shared" si="9"/>
+      <c r="W36" s="521">
+        <f t="shared" si="10"/>
         <v>0.7310585786300049</v>
       </c>
       <c r="X36" s="202">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.5519756578408888E-2</v>
       </c>
       <c r="Y36" s="383">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>25270.660803425086</v>
       </c>
       <c r="Z36" s="49">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-1074.5549862977132</v>
       </c>
       <c r="AA36" s="205"/>
@@ -20242,27 +20241,27 @@
         <v>3</v>
       </c>
       <c r="AD36" s="186">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-1074.5549862977132</v>
       </c>
       <c r="AF36" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Bought 4 Shares of State 1 at a cost of -1074.55499</v>
       </c>
       <c r="AG36" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Bought 3 Shares of State 2 at a cost of -1074.55499</v>
       </c>
       <c r="AH36" s="189" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Bought 4 Shares of State 1 at a cost of -1074.55499Bought 3 Shares of State 2 at a cost of -1074.55499</v>
       </c>
       <c r="AJ36" s="191">
-        <f>SUM(J36,L36)</f>
+        <f t="shared" si="6"/>
         <v>0.11254233286704469</v>
       </c>
       <c r="AK36" s="191">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.86440627217059707</v>
       </c>
     </row>
@@ -20300,11 +20299,11 @@
         <v>3.1415993520317584E-2</v>
       </c>
       <c r="M37" s="378">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.9371680129593648</v>
       </c>
       <c r="N37" s="245">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>116.81351782958404</v>
       </c>
       <c r="O37" s="244">
@@ -20312,7 +20311,7 @@
         <v>6.2831987040635168E-2</v>
       </c>
       <c r="P37" s="379">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>883.18648217041596</v>
       </c>
       <c r="Q37" s="378">
@@ -20332,27 +20331,27 @@
         <v>883.24931415745664</v>
       </c>
       <c r="U37" s="483">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>908.87703898514383</v>
       </c>
-      <c r="V37" s="568">
-        <f t="shared" si="19"/>
+      <c r="V37" s="518">
+        <f t="shared" si="20"/>
         <v>500</v>
       </c>
-      <c r="W37" s="571">
-        <f t="shared" si="9"/>
+      <c r="W37" s="521">
+        <f t="shared" si="10"/>
         <v>0.26894142136999516</v>
       </c>
       <c r="X37" s="202">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.5571189272636181E-2</v>
       </c>
       <c r="Y37" s="383">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>25867.594424514504</v>
       </c>
       <c r="Z37" s="49">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>596.93362108941801</v>
       </c>
       <c r="AA37" s="205"/>
@@ -20365,27 +20364,27 @@
         <v>0</v>
       </c>
       <c r="AD37" s="186">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>596.93362108941801</v>
       </c>
       <c r="AF37" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Bought 3 Shares of State 1 at a cost of 596.93362</v>
       </c>
       <c r="AG37" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AH37" s="189" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Bought 3 Shares of State 1 at a cost of 596.93362</v>
       </c>
       <c r="AJ37" s="191">
-        <f>SUM(J37,L37)</f>
+        <f t="shared" si="6"/>
         <v>6.2831987040635168E-2</v>
       </c>
       <c r="AK37" s="191">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.88318648217041595</v>
       </c>
     </row>
@@ -20423,11 +20422,11 @@
         <v>2.5985868066283169E-2</v>
       </c>
       <c r="M38" s="378">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.93117067851522861</v>
       </c>
       <c r="N38" s="245">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>113.48036637979988</v>
       </c>
       <c r="O38" s="244">
@@ -20435,7 +20434,7 @@
         <v>6.882932148477143E-2</v>
       </c>
       <c r="P38" s="379">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>886.51963362020012</v>
       </c>
       <c r="Q38" s="378">
@@ -20455,27 +20454,27 @@
         <v>886.58846294168495</v>
       </c>
       <c r="U38" s="483">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>924.14181997875642</v>
       </c>
-      <c r="V38" s="568">
-        <f t="shared" si="19"/>
+      <c r="V38" s="518">
+        <f t="shared" si="20"/>
         <v>377.54066879814548</v>
       </c>
-      <c r="W38" s="571">
-        <f t="shared" si="9"/>
+      <c r="W38" s="521">
+        <f t="shared" si="10"/>
         <v>0.37754066879814541</v>
       </c>
       <c r="X38" s="202">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.9312230751356319E-2</v>
       </c>
       <c r="Y38" s="383">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>26627.410508266701</v>
       </c>
       <c r="Z38" s="49">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>759.8160837521973</v>
       </c>
       <c r="AA38" s="205"/>
@@ -20488,27 +20487,27 @@
         <v>-2</v>
       </c>
       <c r="AD38" s="186">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>759.8160837521973</v>
       </c>
       <c r="AF38" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Bought 4 Shares of State 1 at a cost of 759.81608</v>
       </c>
       <c r="AG38" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Sold 2 Shares of State 2 at a cost of 759.81608</v>
       </c>
       <c r="AH38" s="189" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Bought 4 Shares of State 1 at a cost of 759.81608Sold 2 Shares of State 2 at a cost of 759.81608</v>
       </c>
       <c r="AJ38" s="191">
-        <f>SUM(J38,L38)</f>
+        <f t="shared" si="6"/>
         <v>6.882932148477143E-2</v>
       </c>
       <c r="AK38" s="191">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.88651963362020014</v>
       </c>
     </row>
@@ -20546,11 +20545,11 @@
         <v>2.6431438293293905E-2</v>
       </c>
       <c r="M39" s="378">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.90172046329400868</v>
       </c>
       <c r="N39" s="245">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>98.279536705991404</v>
       </c>
       <c r="O39" s="244">
@@ -20558,7 +20557,7 @@
         <v>9.8279536705991294E-2</v>
       </c>
       <c r="P39" s="379">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>901.7204632940086</v>
       </c>
       <c r="Q39" s="378">
@@ -20578,27 +20577,27 @@
         <v>901.81874283071454</v>
       </c>
       <c r="U39" s="483">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>970.6877692486438</v>
       </c>
-      <c r="V39" s="568">
-        <f t="shared" si="19"/>
+      <c r="V39" s="518">
+        <f t="shared" si="20"/>
         <v>268.94142136999511</v>
       </c>
-      <c r="W39" s="571">
-        <f t="shared" si="9"/>
+      <c r="W39" s="521">
+        <f t="shared" si="10"/>
         <v>0.7310585786300049</v>
       </c>
       <c r="X39" s="202">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.9312230751356319E-2</v>
       </c>
       <c r="Y39" s="383">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>28561.337336050499</v>
       </c>
       <c r="Z39" s="49">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1933.9268277837982</v>
       </c>
       <c r="AA39" s="205"/>
@@ -20611,27 +20610,27 @@
         <v>6</v>
       </c>
       <c r="AD39" s="186">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1933.9268277837982</v>
       </c>
       <c r="AF39" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Bought 5 Shares of State 1 at a cost of 1933.92683</v>
       </c>
       <c r="AG39" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Bought 6 Shares of State 2 at a cost of 1933.92683</v>
       </c>
       <c r="AH39" s="189" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Bought 5 Shares of State 1 at a cost of 1933.92683Bought 6 Shares of State 2 at a cost of 1933.92683</v>
       </c>
       <c r="AJ39" s="191">
-        <f>SUM(J39,L39)</f>
+        <f t="shared" si="6"/>
         <v>9.8279536705991294E-2</v>
       </c>
       <c r="AK39" s="191">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.90172046329400857</v>
       </c>
     </row>
@@ -20669,11 +20668,11 @@
         <v>2.7494656222464591E-2</v>
       </c>
       <c r="M40" s="378">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.92717431923297045</v>
       </c>
       <c r="N40" s="245">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>62.007376521748483</v>
       </c>
       <c r="O40" s="244">
@@ -20681,7 +20680,7 @@
         <v>7.2825680767029596E-2</v>
       </c>
       <c r="P40" s="379">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>937.99262347825152</v>
       </c>
       <c r="Q40" s="378">
@@ -20701,27 +20700,27 @@
         <v>938.0654491590185</v>
       </c>
       <c r="U40" s="483">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>982.01379003790851</v>
       </c>
-      <c r="V40" s="568">
-        <f t="shared" si="19"/>
+      <c r="V40" s="518">
+        <f t="shared" si="20"/>
         <v>377.54066879814548</v>
       </c>
-      <c r="W40" s="571">
-        <f t="shared" si="9"/>
+      <c r="W40" s="521">
+        <f t="shared" si="10"/>
         <v>0.7310585786300049</v>
       </c>
       <c r="X40" s="202">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.9312230751356316E-2</v>
       </c>
       <c r="Y40" s="383">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30405.429503950043</v>
       </c>
       <c r="Z40" s="49">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1844.0921678995437</v>
       </c>
       <c r="AA40" s="205"/>
@@ -20734,27 +20733,27 @@
         <v>4</v>
       </c>
       <c r="AD40" s="186">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1844.0921678995437</v>
       </c>
       <c r="AF40" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Bought 1 Shares of State 1 at a cost of 1844.09217</v>
       </c>
       <c r="AG40" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Bought 4 Shares of State 2 at a cost of 1844.09217</v>
       </c>
       <c r="AH40" s="189" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Bought 1 Shares of State 1 at a cost of 1844.09217Bought 4 Shares of State 2 at a cost of 1844.09217</v>
       </c>
       <c r="AJ40" s="191">
-        <f>SUM(J40,L40)</f>
+        <f t="shared" si="6"/>
         <v>7.2825680767029596E-2</v>
       </c>
       <c r="AK40" s="191">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.93799262347825152</v>
       </c>
     </row>
@@ -20792,11 +20791,11 @@
         <v>0.13598891579350553</v>
       </c>
       <c r="M41" s="378">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.6398032661582933</v>
       </c>
       <c r="N41" s="245">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>254.55104660761731</v>
       </c>
       <c r="O41" s="244">
@@ -20804,7 +20803,7 @@
         <v>0.3601967338417067</v>
       </c>
       <c r="P41" s="379">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>745.44895339238269</v>
       </c>
       <c r="Q41" s="378">
@@ -20824,27 +20823,27 @@
         <v>745.80915012622438</v>
       </c>
       <c r="U41" s="483">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>952.5741268224333</v>
       </c>
-      <c r="V41" s="568">
-        <f t="shared" si="19"/>
+      <c r="V41" s="518">
+        <f t="shared" si="20"/>
         <v>377.54066879814542</v>
       </c>
-      <c r="W41" s="571">
-        <f t="shared" si="9"/>
+      <c r="W41" s="521">
+        <f t="shared" si="10"/>
         <v>0.88079707797788254</v>
       </c>
       <c r="X41" s="202">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.18242552380635635</v>
       </c>
       <c r="Y41" s="383">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>32012.708319935766</v>
       </c>
       <c r="Z41" s="49">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1607.2788159857228</v>
       </c>
       <c r="AA41" s="205"/>
@@ -20857,27 +20856,27 @@
         <v>2</v>
       </c>
       <c r="AD41" s="186">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1607.2788159857228</v>
       </c>
       <c r="AF41" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Bought 3 Shares of State 1 at a cost of 1607.27882</v>
       </c>
       <c r="AG41" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Bought 2 Shares of State 2 at a cost of 1607.27882</v>
       </c>
       <c r="AH41" s="189" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Bought 3 Shares of State 1 at a cost of 1607.27882Bought 2 Shares of State 2 at a cost of 1607.27882</v>
       </c>
       <c r="AJ41" s="191">
-        <f>SUM(J41,L41)</f>
+        <f t="shared" si="6"/>
         <v>0.3601967338417067</v>
       </c>
       <c r="AK41" s="191">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.74544895339238271</v>
       </c>
     </row>
@@ -20915,11 +20914,11 @@
         <v>0.13336374413970897</v>
       </c>
       <c r="M42" s="378">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.6467566141569433</v>
       </c>
       <c r="N42" s="245">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>268.94142136999517</v>
       </c>
       <c r="O42" s="244">
@@ -20927,7 +20926,7 @@
         <v>0.3532433858430567</v>
       </c>
       <c r="P42" s="379">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>731.05857863000483</v>
       </c>
       <c r="Q42" s="378">
@@ -20947,27 +20946,27 @@
         <v>731.41182201584786</v>
       </c>
       <c r="U42" s="483">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>924.14181997875642</v>
       </c>
-      <c r="V42" s="568">
-        <f t="shared" si="19"/>
+      <c r="V42" s="518">
+        <f t="shared" si="20"/>
         <v>377.54066879814548</v>
       </c>
-      <c r="W42" s="571">
-        <f t="shared" si="9"/>
+      <c r="W42" s="521">
+        <f t="shared" si="10"/>
         <v>0.81757447619364365</v>
       </c>
       <c r="X42" s="202">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.18242552380635635</v>
       </c>
       <c r="Y42" s="383">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>32090.758561865903</v>
       </c>
       <c r="Z42" s="49">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>78.050241930137418</v>
       </c>
       <c r="AA42" s="205"/>
@@ -20980,27 +20979,27 @@
         <v>1</v>
       </c>
       <c r="AD42" s="186">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>78.050241930137418</v>
       </c>
       <c r="AF42" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Bought 6 Shares of State 1 at a cost of 78.05024</v>
       </c>
       <c r="AG42" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Bought 1 Shares of State 2 at a cost of 78.05024</v>
       </c>
       <c r="AH42" s="189" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Bought 6 Shares of State 1 at a cost of 78.05024Bought 1 Shares of State 2 at a cost of 78.05024</v>
       </c>
       <c r="AJ42" s="191">
-        <f>SUM(J42,L42)</f>
+        <f t="shared" si="6"/>
         <v>0.3532433858430567</v>
       </c>
       <c r="AK42" s="191">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.73105857863000479</v>
       </c>
     </row>
@@ -21038,11 +21037,11 @@
         <v>6.3166344805694344E-2</v>
       </c>
       <c r="M43" s="378">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.83268995892077879</v>
       </c>
       <c r="N43" s="245">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>167.31004107922115</v>
       </c>
       <c r="O43" s="244">
@@ -21050,7 +21049,7 @@
         <v>0.16731004107922115</v>
       </c>
       <c r="P43" s="379">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>832.68995892077885</v>
       </c>
       <c r="Q43" s="378">
@@ -21070,27 +21069,27 @@
         <v>832.85726896185804</v>
       </c>
       <c r="U43" s="483">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>924.14181997875642</v>
       </c>
-      <c r="V43" s="568">
-        <f t="shared" si="19"/>
+      <c r="V43" s="518">
+        <f t="shared" si="20"/>
         <v>377.54066879814548</v>
       </c>
-      <c r="W43" s="571">
-        <f t="shared" si="9"/>
+      <c r="W43" s="521">
+        <f t="shared" si="10"/>
         <v>0.62245933120185459</v>
       </c>
       <c r="X43" s="202">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.5858180021243546E-2</v>
       </c>
       <c r="Y43" s="383">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>33080.982488814705</v>
       </c>
       <c r="Z43" s="49">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>990.22392694880182</v>
       </c>
       <c r="AA43" s="205"/>
@@ -21103,27 +21102,27 @@
         <v>-1</v>
       </c>
       <c r="AD43" s="186">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>990.22392694880182</v>
       </c>
       <c r="AF43" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Bought 1 Shares of State 1 at a cost of 990.22393</v>
       </c>
       <c r="AG43" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Sold 1 Shares of State 2 at a cost of 990.22393</v>
       </c>
       <c r="AH43" s="189" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Bought 1 Shares of State 1 at a cost of 990.22393Sold 1 Shares of State 2 at a cost of 990.22393</v>
       </c>
       <c r="AJ43" s="191">
-        <f>SUM(J43,L43)</f>
+        <f t="shared" si="6"/>
         <v>0.16731004107922115</v>
       </c>
       <c r="AK43" s="191">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.83268995892077891</v>
       </c>
     </row>
@@ -21161,11 +21160,11 @@
         <v>9.600347689500062E-2</v>
       </c>
       <c r="M44" s="378">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.47373878999022212</v>
       </c>
       <c r="N44" s="245">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>451.67900428916482</v>
       </c>
       <c r="O44" s="244">
@@ -21173,7 +21172,7 @@
         <v>0.52626121000977788</v>
       </c>
       <c r="P44" s="379">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>548.32099571083518</v>
       </c>
       <c r="Q44" s="378">
@@ -21193,27 +21192,27 @@
         <v>548.84725692084498</v>
       </c>
       <c r="U44" s="483">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>954.78252651671244</v>
       </c>
-      <c r="V44" s="568">
-        <f t="shared" si="19"/>
+      <c r="V44" s="518">
+        <f t="shared" si="20"/>
         <v>182.42552380635632</v>
       </c>
-      <c r="W44" s="571">
-        <f t="shared" si="9"/>
+      <c r="W44" s="521">
+        <f t="shared" si="10"/>
         <v>0.95257412682243325</v>
       </c>
       <c r="X44" s="202">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.17508626816403983</v>
       </c>
       <c r="Y44" s="383">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>33406.856965537612</v>
       </c>
       <c r="Z44" s="49">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>325.87447672290727</v>
       </c>
       <c r="AA44" s="205"/>
@@ -21226,27 +21225,27 @@
         <v>1</v>
       </c>
       <c r="AD44" s="186">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>325.87447672290727</v>
       </c>
       <c r="AF44" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Sold 2 Shares of State 1 at a cost of 325.87448</v>
       </c>
       <c r="AG44" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Bought 1 Shares of State 2 at a cost of 325.87448</v>
       </c>
       <c r="AH44" s="189" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Sold 2 Shares of State 1 at a cost of 325.87448Bought 1 Shares of State 2 at a cost of 325.87448</v>
       </c>
       <c r="AJ44" s="191">
-        <f>SUM(J44,L44)</f>
+        <f t="shared" si="6"/>
         <v>0.52626121000977788</v>
       </c>
       <c r="AK44" s="191">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.54832099571083515</v>
       </c>
     </row>
@@ -21284,11 +21283,11 @@
         <v>6.5793392405429307E-2</v>
       </c>
       <c r="M45" s="378">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.82573164206421912</v>
       </c>
       <c r="N45" s="245">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>132.67900196123423</v>
       </c>
       <c r="O45" s="244">
@@ -21296,7 +21295,7 @@
         <v>0.17426835793578088</v>
       </c>
       <c r="P45" s="379">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>867.32099803876577</v>
       </c>
       <c r="Q45" s="378">
@@ -21316,27 +21315,27 @@
         <v>867.4952663967016</v>
       </c>
       <c r="U45" s="483">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>970.68776924864369</v>
       </c>
-      <c r="V45" s="568">
-        <f t="shared" si="19"/>
+      <c r="V45" s="518">
+        <f t="shared" si="20"/>
         <v>377.54066879814542</v>
       </c>
-      <c r="W45" s="571">
-        <f t="shared" si="9"/>
+      <c r="W45" s="521">
+        <f t="shared" si="10"/>
         <v>0.81757447619364365</v>
       </c>
       <c r="X45" s="202">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.5858180021243546E-2</v>
       </c>
       <c r="Y45" s="383">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>34919.828403714666</v>
       </c>
       <c r="Z45" s="49">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1512.9714381770536</v>
       </c>
       <c r="AA45" s="205"/>
@@ -21349,27 +21348,27 @@
         <v>0</v>
       </c>
       <c r="AD45" s="186">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1512.9714381770536</v>
       </c>
       <c r="AF45" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="AG45" s="7" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AH45" s="189" t="str">
+      <c r="AG45" s="7" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
+      <c r="AH45" s="189" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
       <c r="AJ45" s="191">
-        <f>SUM(J45,L45)</f>
+        <f t="shared" si="6"/>
         <v>0.17426835793578088</v>
       </c>
       <c r="AK45" s="191">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.86732099803876572</v>
       </c>
     </row>
@@ -21407,11 +21406,11 @@
         <v>0.23500371220159449</v>
       </c>
       <c r="M46" s="378">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.52999257559681101</v>
       </c>
       <c r="N46" s="245">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>377.54066879814548</v>
       </c>
       <c r="O46" s="244">
@@ -21419,7 +21418,7 @@
         <v>0.47000742440318899</v>
       </c>
       <c r="P46" s="379">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>622.45933120185452</v>
       </c>
       <c r="Q46" s="378">
@@ -21439,27 +21438,27 @@
         <v>622.92933862625773</v>
       </c>
       <c r="U46" s="483">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>731.05857863000483</v>
       </c>
-      <c r="V46" s="568">
-        <f t="shared" si="19"/>
+      <c r="V46" s="518">
+        <f t="shared" si="20"/>
         <v>500</v>
       </c>
-      <c r="W46" s="571">
-        <f t="shared" si="9"/>
+      <c r="W46" s="521">
+        <f t="shared" si="10"/>
         <v>0.62245933120185459</v>
       </c>
       <c r="X46" s="202">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.37754066879814552</v>
       </c>
       <c r="Y46" s="383">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>29822.408489314294</v>
       </c>
       <c r="Z46" s="49">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-5097.4199144003724</v>
       </c>
       <c r="AA46" s="205"/>
@@ -21472,27 +21471,27 @@
         <v>0</v>
       </c>
       <c r="AD46" s="186">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-5097.4199144003724</v>
       </c>
       <c r="AF46" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Bought 1 Shares of State 1 at a cost of -5097.41991</v>
       </c>
       <c r="AG46" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AH46" s="189" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Bought 1 Shares of State 1 at a cost of -5097.41991</v>
       </c>
       <c r="AJ46" s="191">
-        <f>SUM(J46,L46)</f>
+        <f t="shared" si="6"/>
         <v>0.47000742440318899</v>
       </c>
       <c r="AK46" s="191">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.62245933120185448</v>
       </c>
     </row>
@@ -21530,11 +21529,11 @@
         <v>1.418461328787491E-2</v>
       </c>
       <c r="M47" s="378">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.94725761016797605</v>
       </c>
       <c r="N47" s="245">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>211.36174225859941</v>
       </c>
       <c r="O47" s="244">
@@ -21542,7 +21541,7 @@
         <v>5.2742389832023992E-2</v>
       </c>
       <c r="P47" s="379">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>788.63825774140059</v>
       </c>
       <c r="Q47" s="378">
@@ -21562,27 +21561,27 @@
         <v>788.69100013123261</v>
       </c>
       <c r="U47" s="483">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>817.5744761936437</v>
       </c>
-      <c r="V47" s="568">
+      <c r="V47" s="518">
         <f>$E$5+(L47/SUM(L47,J47))*$E$7</f>
         <v>268.94142136999511</v>
       </c>
-      <c r="W47" s="571">
-        <f t="shared" si="9"/>
+      <c r="W47" s="521">
+        <f t="shared" si="10"/>
         <v>0.18242552380635635</v>
       </c>
       <c r="X47" s="202">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.7986209962091559E-2</v>
       </c>
       <c r="Y47" s="383">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>25047.412282449041</v>
       </c>
       <c r="Z47" s="49">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-4774.996206865253</v>
       </c>
       <c r="AA47" s="205"/>
@@ -21595,27 +21594,27 @@
         <v>-8</v>
       </c>
       <c r="AD47" s="186">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-4774.996206865253</v>
       </c>
       <c r="AF47" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Sold 1 Shares of State 1 at a cost of -4774.99621</v>
       </c>
       <c r="AG47" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Sold 8 Shares of State 2 at a cost of -4774.99621</v>
       </c>
       <c r="AH47" s="189" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Sold 1 Shares of State 1 at a cost of -4774.99621Sold 8 Shares of State 2 at a cost of -4774.99621</v>
       </c>
       <c r="AJ47" s="191">
-        <f>SUM(J47,L47)</f>
+        <f t="shared" si="6"/>
         <v>5.2742389832023992E-2</v>
       </c>
       <c r="AK47" s="191">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.78863825774140062</v>
       </c>
     </row>
@@ -21653,11 +21652,11 @@
         <v>9.7193180995781923E-3</v>
       </c>
       <c r="M48" s="378">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.94672172020240331</v>
       </c>
       <c r="N48" s="245">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>115.37554837915366</v>
       </c>
       <c r="O48" s="244">
@@ -21665,7 +21664,7 @@
         <v>5.3278279797596702E-2</v>
       </c>
       <c r="P48" s="379">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>884.62445162084634</v>
       </c>
       <c r="Q48" s="378">
@@ -21685,27 +21684,27 @@
         <v>884.67772990064395</v>
       </c>
       <c r="U48" s="483">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>924.14181997875642</v>
       </c>
-      <c r="V48" s="568">
-        <f t="shared" si="19"/>
+      <c r="V48" s="518">
+        <f t="shared" si="20"/>
         <v>182.42552380635635</v>
       </c>
-      <c r="W48" s="571">
-        <f t="shared" si="9"/>
+      <c r="W48" s="521">
+        <f t="shared" si="10"/>
         <v>0.37754066879814546</v>
       </c>
       <c r="X48" s="202">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.0986942630593181E-2</v>
       </c>
       <c r="Y48" s="383">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>28563.093828609759</v>
       </c>
       <c r="Z48" s="49">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3515.6815461607184</v>
       </c>
       <c r="AA48" s="205"/>
@@ -21718,27 +21717,27 @@
         <v>1</v>
       </c>
       <c r="AD48" s="186">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3515.6815461607184</v>
       </c>
       <c r="AF48" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AG48" s="7" t="str">
-        <f t="shared" si="15"/>
-        <v>Bought 1 Shares of State 2 at a cost of 3515.68155</v>
-      </c>
-      <c r="AH48" s="189" t="str">
         <f t="shared" si="16"/>
         <v>Bought 1 Shares of State 2 at a cost of 3515.68155</v>
       </c>
+      <c r="AH48" s="189" t="str">
+        <f t="shared" si="17"/>
+        <v>Bought 1 Shares of State 2 at a cost of 3515.68155</v>
+      </c>
       <c r="AJ48" s="191">
-        <f>SUM(J48,L48)</f>
+        <f t="shared" si="6"/>
         <v>5.3278279797596702E-2</v>
       </c>
       <c r="AK48" s="191">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.88462445162084635</v>
       </c>
     </row>
@@ -21776,11 +21775,11 @@
         <v>0.1570597633495828</v>
       </c>
       <c r="M49" s="380">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.58399246404483163</v>
       </c>
       <c r="N49" s="317">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>416.00753595516835</v>
       </c>
       <c r="O49" s="318">
@@ -21788,7 +21787,7 @@
         <v>0.41600753595516837</v>
       </c>
       <c r="P49" s="381">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>583.99246404483165</v>
       </c>
       <c r="Q49" s="380">
@@ -21811,24 +21810,24 @@
         <f>$E$5+(K49/SUM(K49,I49))*$E$7</f>
         <v>731.05857863000494</v>
       </c>
-      <c r="V49" s="569">
-        <f t="shared" si="19"/>
+      <c r="V49" s="519">
+        <f t="shared" si="20"/>
         <v>377.54066879814542</v>
       </c>
-      <c r="W49" s="572">
-        <f t="shared" si="9"/>
+      <c r="W49" s="522">
+        <f t="shared" si="10"/>
         <v>0.62245933120185459</v>
       </c>
       <c r="X49" s="203">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.26894142136999516</v>
       </c>
       <c r="Y49" s="384">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>27431.920066704006</v>
       </c>
       <c r="Z49" s="116">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-1131.1737619057531</v>
       </c>
       <c r="AA49" s="205"/>
@@ -21841,27 +21840,27 @@
         <v>5</v>
       </c>
       <c r="AD49" s="186">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-1131.1737619057531</v>
       </c>
       <c r="AF49" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Bought 1 Shares of State 1 at a cost of -1131.17376</v>
       </c>
       <c r="AG49" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Bought 5 Shares of State 2 at a cost of -1131.17376</v>
       </c>
       <c r="AH49" s="189" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Bought 1 Shares of State 1 at a cost of -1131.17376Bought 5 Shares of State 2 at a cost of -1131.17376</v>
       </c>
       <c r="AJ49" s="191">
-        <f>SUM(J49,L49)</f>
+        <f t="shared" si="6"/>
         <v>0.41600753595516837</v>
       </c>
       <c r="AK49" s="191">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.58399246404483163</v>
       </c>
     </row>
@@ -21874,15 +21873,15 @@
         <v>10</v>
       </c>
       <c r="F50" s="363">
-        <f t="shared" ref="F50:H50" si="23">F49</f>
+        <f t="shared" ref="F50:H50" si="24">F49</f>
         <v>11</v>
       </c>
       <c r="G50" s="364">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>12</v>
       </c>
       <c r="H50" s="365">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="I50" s="372">
@@ -21937,20 +21936,20 @@
         <f>IF(I50*K50=0,0,$E$5+(K50/SUM(K50,I50))*$E$7)</f>
         <v>750</v>
       </c>
-      <c r="V50" s="574">
+      <c r="V50" s="524">
         <f>IF(J50*L50=0,0,$E$5+(L50/SUM(L50,J50))*$E$7)</f>
         <v>0</v>
       </c>
-      <c r="W50" s="573">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X50" s="540">
+      <c r="W50" s="523">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
+      <c r="X50" s="490">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="Y50" s="383">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>27431.920066704006</v>
       </c>
       <c r="Z50" s="8" t="s">
@@ -21959,11 +21958,11 @@
       <c r="AG50" s="8"/>
       <c r="AH50" s="8"/>
       <c r="AJ50" s="191">
-        <f>SUM(J50,L50)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AK50" s="191">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.75</v>
       </c>
     </row>
@@ -22131,17 +22130,17 @@
       </c>
       <c r="G57" s="192"/>
       <c r="H57" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="K57" s="33" t="s">
         <v>221</v>
-      </c>
-      <c r="K57" s="33" t="s">
-        <v>222</v>
       </c>
       <c r="M57" s="94">
         <f>K58/SUM(K58:L58)</f>
         <v>0.5</v>
       </c>
-      <c r="P57" s="532" t="s">
-        <v>225</v>
+      <c r="P57" s="567" t="s">
+        <v>224</v>
       </c>
       <c r="AB57" s="33"/>
     </row>
@@ -22181,7 +22180,7 @@
         <v>0.5</v>
       </c>
       <c r="O58" s="144"/>
-      <c r="P58" s="533"/>
+      <c r="P58" s="568"/>
       <c r="AB58" s="144"/>
     </row>
     <row r="59" spans="2:37" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22218,7 +22217,7 @@
       </c>
       <c r="N59" s="449"/>
       <c r="O59" s="144"/>
-      <c r="P59" s="533"/>
+      <c r="P59" s="568"/>
       <c r="AB59" s="144"/>
     </row>
     <row r="60" spans="2:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -22245,7 +22244,7 @@
       <c r="M60" s="461"/>
       <c r="N60" s="449"/>
       <c r="O60" s="144"/>
-      <c r="P60" s="534"/>
+      <c r="P60" s="569"/>
       <c r="AB60" s="144"/>
     </row>
     <row r="61" spans="2:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -22272,11 +22271,11 @@
         <f>M62=M57</f>
         <v>1</v>
       </c>
-      <c r="P62" s="532" t="s">
-        <v>223</v>
+      <c r="P62" s="567" t="s">
+        <v>222</v>
       </c>
       <c r="AB62" s="467" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="63" spans="2:37" x14ac:dyDescent="0.25">
@@ -22289,7 +22288,7 @@
         <v>1</v>
       </c>
       <c r="E63" s="452">
-        <f t="shared" ref="E63:E64" si="24">E58</f>
+        <f t="shared" ref="E63:E64" si="25">E58</f>
         <v>1</v>
       </c>
       <c r="F63" s="28">
@@ -22304,7 +22303,7 @@
         <f>EXP(E63)</f>
         <v>2.7182818284590451</v>
       </c>
-      <c r="K63" s="541">
+      <c r="K63" s="491">
         <f>K58+(K58/SUM(K58:L58))*O63</f>
         <v>0.27500000000000002</v>
       </c>
@@ -22323,18 +22322,18 @@
         <f>M63-M58</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="P63" s="533"/>
+      <c r="P63" s="568"/>
       <c r="AB63" s="33"/>
     </row>
     <row r="64" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="453">
-        <f t="shared" ref="D64" si="25">D59</f>
+        <f t="shared" ref="D64" si="26">D59</f>
         <v>1</v>
       </c>
       <c r="E64" s="365">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="F64" s="454">
@@ -22349,11 +22348,11 @@
         <f>EXP(E64)</f>
         <v>2.7182818284590451</v>
       </c>
-      <c r="K64" s="542">
+      <c r="K64" s="492">
         <f>K59+(K59/SUM(K59:L59))*O64</f>
         <v>0.22499999999999998</v>
       </c>
-      <c r="L64" s="543">
+      <c r="L64" s="493">
         <f>L59+(L59/SUM(K59:L59))*O64</f>
         <v>0.22499999999999998</v>
       </c>
@@ -22369,7 +22368,7 @@
         <f>-1*O63</f>
         <v>-5.0000000000000044E-2</v>
       </c>
-      <c r="P64" s="533"/>
+      <c r="P64" s="568"/>
       <c r="AB64" s="33"/>
     </row>
     <row r="65" spans="2:28" x14ac:dyDescent="0.25">
@@ -22397,7 +22396,7 @@
         <f>K65=K60</f>
         <v>1</v>
       </c>
-      <c r="P65" s="534"/>
+      <c r="P65" s="569"/>
       <c r="AB65" s="33"/>
     </row>
     <row r="66" spans="2:28" x14ac:dyDescent="0.25">
@@ -22414,8 +22413,8 @@
         <f>M62/M67</f>
         <v>1</v>
       </c>
-      <c r="P67" s="532" t="s">
-        <v>224</v>
+      <c r="P67" s="567" t="s">
+        <v>223</v>
       </c>
       <c r="AB67" s="33"/>
     </row>
@@ -22458,7 +22457,7 @@
         <f>M63/M68</f>
         <v>1.0000012776315277</v>
       </c>
-      <c r="P68" s="533"/>
+      <c r="P68" s="568"/>
       <c r="AB68" s="33"/>
     </row>
     <row r="69" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22498,7 +22497,7 @@
         <f>M64/M69</f>
         <v>0.99999843845478864</v>
       </c>
-      <c r="P69" s="533"/>
+      <c r="P69" s="568"/>
       <c r="AB69" s="33"/>
     </row>
     <row r="70" spans="2:28" x14ac:dyDescent="0.25">
@@ -22526,7 +22525,7 @@
         <f>K70/K65</f>
         <v>1.0000000089707122</v>
       </c>
-      <c r="P70" s="534"/>
+      <c r="P70" s="569"/>
       <c r="AB70" s="33"/>
     </row>
     <row r="71" spans="2:28" x14ac:dyDescent="0.25">
@@ -22550,7 +22549,7 @@
         <v>3772.588722239781</v>
       </c>
       <c r="K74" s="229" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22568,33 +22567,33 @@
         <v>210.71794809256198</v>
       </c>
       <c r="M75" s="33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="76" spans="2:28" x14ac:dyDescent="0.25">
       <c r="M76" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="77" spans="2:28" x14ac:dyDescent="0.25">
       <c r="M77" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="N77" s="33" t="s">
         <v>231</v>
-      </c>
-      <c r="N77" s="33" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="78" spans="2:28" x14ac:dyDescent="0.25">
       <c r="M78" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="N78" s="33" t="s">
         <v>233</v>
-      </c>
-      <c r="N78" s="33" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="79" spans="2:28" x14ac:dyDescent="0.25">
       <c r="N79" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="83" spans="4:5" x14ac:dyDescent="0.25">

--- a/docs/LogMSR_Demo.xlsx
+++ b/docs/LogMSR_Demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="21075" windowHeight="9975" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="21075" windowHeight="9975"/>
   </bookViews>
   <sheets>
     <sheet name="Simple Example" sheetId="10" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="257">
   <si>
     <t>Final</t>
   </si>
@@ -865,16 +865,7 @@
     <t>-i</t>
   </si>
   <si>
-    <t>Total Share value is always "scale":</t>
-  </si>
-  <si>
-    <t>Correspondingly, movements are zero-sum:</t>
-  </si>
-  <si>
     <t xml:space="preserve">These items (specifically, cell F35) would be determined in almost the same way as a Binary 0,1 claim. </t>
-  </si>
-  <si>
-    <t>Determination would 'input' the value of cell D35 for user-friendliness.</t>
   </si>
   <si>
     <t xml:space="preserve">  It can even be negative if the final price differs from the current price (conceptually, the Author makes a last-minute profitable trade).</t>
@@ -892,6 +883,24 @@
   </si>
   <si>
     <t>What is the difference between "value" and "index"? In practice, people may not want to pay the "min" at all, as it pointlessly ties up capital.</t>
+  </si>
+  <si>
+    <t>Voters would 'input' the value of cell D35 for user-friendliness.</t>
+  </si>
+  <si>
+    <t>Correspondingly, index movements are zero-sum:</t>
+  </si>
+  <si>
+    <t>Total value across all Shares is always "scale":</t>
+  </si>
+  <si>
+    <t>Only one dimension, only one decision.</t>
+  </si>
+  <si>
+    <t>This value can be anything.</t>
+  </si>
+  <si>
+    <t>Markets need to know about their Decision's Scales, if any.</t>
   </si>
 </sst>
 </file>
@@ -2965,161 +2974,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="12" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="22" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3167,80 +3023,233 @@
     <xf numFmtId="2" fontId="0" fillId="14" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="13" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="13" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="13" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="14" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="13" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="14" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -3379,11 +3388,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="170994688"/>
-        <c:axId val="171016960"/>
+        <c:axId val="107679744"/>
+        <c:axId val="87972032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="170994688"/>
+        <c:axId val="107679744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3392,7 +3401,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171016960"/>
+        <c:crossAx val="87972032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3400,7 +3409,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171016960"/>
+        <c:axId val="87972032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3412,7 +3421,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170994688"/>
+        <c:crossAx val="107679744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3795,11 +3804,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104593664"/>
-        <c:axId val="104267776"/>
+        <c:axId val="131866112"/>
+        <c:axId val="132250944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104593664"/>
+        <c:axId val="131866112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3808,7 +3817,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104267776"/>
+        <c:crossAx val="132250944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3816,7 +3825,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104267776"/>
+        <c:axId val="132250944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3829,7 +3838,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104593664"/>
+        <c:crossAx val="131866112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3968,11 +3977,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104360960"/>
-        <c:axId val="104366848"/>
+        <c:axId val="132572672"/>
+        <c:axId val="132475136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104360960"/>
+        <c:axId val="132572672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3981,7 +3990,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104366848"/>
+        <c:crossAx val="132475136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3989,7 +3998,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104366848"/>
+        <c:axId val="132475136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4000,7 +4009,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104360960"/>
+        <c:crossAx val="132572672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4259,11 +4268,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="170646912"/>
-        <c:axId val="170935424"/>
+        <c:axId val="107683328"/>
+        <c:axId val="107758144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="170646912"/>
+        <c:axId val="107683328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4272,7 +4281,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170935424"/>
+        <c:crossAx val="107758144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4280,7 +4289,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170935424"/>
+        <c:axId val="107758144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4292,7 +4301,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170646912"/>
+        <c:crossAx val="107683328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4431,11 +4440,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="171387904"/>
-        <c:axId val="171397888"/>
+        <c:axId val="131609088"/>
+        <c:axId val="107760448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="171387904"/>
+        <c:axId val="131609088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4444,7 +4453,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171397888"/>
+        <c:crossAx val="107760448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4452,7 +4461,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171397888"/>
+        <c:axId val="107760448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4463,7 +4472,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171387904"/>
+        <c:crossAx val="131609088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4555,11 +4564,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="171407232"/>
-        <c:axId val="171408768"/>
+        <c:axId val="131610112"/>
+        <c:axId val="107762752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="171407232"/>
+        <c:axId val="131610112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4568,7 +4577,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171408768"/>
+        <c:crossAx val="107762752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4576,7 +4585,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171408768"/>
+        <c:axId val="107762752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4588,7 +4597,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171407232"/>
+        <c:crossAx val="131610112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4709,11 +4718,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104198528"/>
-        <c:axId val="104200064"/>
+        <c:axId val="132378624"/>
+        <c:axId val="107764480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104198528"/>
+        <c:axId val="132378624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4722,7 +4731,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104200064"/>
+        <c:crossAx val="107764480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4730,7 +4739,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104200064"/>
+        <c:axId val="107764480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20000"/>
@@ -4743,7 +4752,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104198528"/>
+        <c:crossAx val="132378624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1000"/>
@@ -4796,7 +4805,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5011,11 +5019,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104059648"/>
-        <c:axId val="104061184"/>
+        <c:axId val="97955840"/>
+        <c:axId val="132244032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104059648"/>
+        <c:axId val="97955840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5024,7 +5032,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104061184"/>
+        <c:crossAx val="132244032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5032,7 +5040,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104061184"/>
+        <c:axId val="132244032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -5045,14 +5053,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104059648"/>
+        <c:crossAx val="97955840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5082,7 +5089,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5159,11 +5165,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103746176"/>
-        <c:axId val="103756160"/>
+        <c:axId val="107681280"/>
+        <c:axId val="132245760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103746176"/>
+        <c:axId val="107681280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5172,7 +5178,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103756160"/>
+        <c:crossAx val="132245760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5180,7 +5186,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103756160"/>
+        <c:axId val="132245760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -5193,7 +5199,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103746176"/>
+        <c:crossAx val="107681280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="8"/>
@@ -5201,7 +5207,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5231,7 +5236,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5308,11 +5312,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103780736"/>
-        <c:axId val="103782272"/>
+        <c:axId val="131863040"/>
+        <c:axId val="132247488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103780736"/>
+        <c:axId val="131863040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5321,7 +5325,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103782272"/>
+        <c:crossAx val="132247488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5329,7 +5333,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103782272"/>
+        <c:axId val="132247488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -5342,14 +5346,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103780736"/>
+        <c:crossAx val="131863040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5624,11 +5627,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104549376"/>
-        <c:axId val="104571648"/>
+        <c:axId val="131865088"/>
+        <c:axId val="132249216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104549376"/>
+        <c:axId val="131865088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5637,7 +5640,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104571648"/>
+        <c:crossAx val="132249216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5645,7 +5648,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104571648"/>
+        <c:axId val="132249216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -5658,7 +5661,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104549376"/>
+        <c:crossAx val="131865088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6489,8 +6492,8 @@
   </sheetPr>
   <dimension ref="A2:AH53"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6539,7 +6542,7 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="506" t="s">
+      <c r="B4" s="550" t="s">
         <v>169</v>
       </c>
       <c r="C4" s="152" t="s">
@@ -6560,7 +6563,7 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="507"/>
+      <c r="B5" s="551"/>
       <c r="C5" s="17" t="s">
         <v>139</v>
       </c>
@@ -6579,7 +6582,7 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="508"/>
+      <c r="B6" s="552"/>
       <c r="C6" s="271" t="s">
         <v>140</v>
       </c>
@@ -6613,7 +6616,7 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="509" t="s">
+      <c r="B8" s="553" t="s">
         <v>158</v>
       </c>
       <c r="C8" s="287" t="s">
@@ -6636,7 +6639,7 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="510"/>
+      <c r="B9" s="554"/>
       <c r="C9" s="17" t="s">
         <v>144</v>
       </c>
@@ -6660,7 +6663,7 @@
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="510"/>
+      <c r="B10" s="554"/>
       <c r="C10" s="17" t="s">
         <v>5</v>
       </c>
@@ -6684,7 +6687,7 @@
     </row>
     <row r="11" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
-      <c r="B11" s="511"/>
+      <c r="B11" s="555"/>
       <c r="C11" s="168" t="s">
         <v>146</v>
       </c>
@@ -6744,10 +6747,10 @@
         <v>129</v>
       </c>
       <c r="K13" s="20"/>
-      <c r="L13" s="512" t="s">
+      <c r="L13" s="556" t="s">
         <v>99</v>
       </c>
-      <c r="M13" s="513"/>
+      <c r="M13" s="557"/>
       <c r="N13" s="185" t="s">
         <v>100</v>
       </c>
@@ -7782,16 +7785,16 @@
       <c r="B39" s="314"/>
       <c r="C39" s="314"/>
       <c r="D39" s="7"/>
-      <c r="E39" s="514" t="s">
+      <c r="E39" s="558" t="s">
         <v>127</v>
       </c>
-      <c r="F39" s="515"/>
-      <c r="G39" s="520" t="s">
+      <c r="F39" s="559"/>
+      <c r="G39" s="564" t="s">
         <v>128</v>
       </c>
-      <c r="H39" s="521"/>
-      <c r="I39" s="521"/>
-      <c r="J39" s="522"/>
+      <c r="H39" s="565"/>
+      <c r="I39" s="565"/>
+      <c r="J39" s="566"/>
       <c r="K39" s="315"/>
       <c r="L39" s="315"/>
       <c r="M39" s="315"/>
@@ -7820,12 +7823,12 @@
       <c r="B40" s="314"/>
       <c r="C40" s="314"/>
       <c r="D40" s="7"/>
-      <c r="E40" s="516"/>
-      <c r="F40" s="517"/>
-      <c r="G40" s="523"/>
-      <c r="H40" s="524"/>
-      <c r="I40" s="524"/>
-      <c r="J40" s="525"/>
+      <c r="E40" s="560"/>
+      <c r="F40" s="561"/>
+      <c r="G40" s="567"/>
+      <c r="H40" s="568"/>
+      <c r="I40" s="568"/>
+      <c r="J40" s="569"/>
       <c r="K40" s="315"/>
       <c r="L40" s="315"/>
       <c r="M40" s="315"/>
@@ -7854,12 +7857,12 @@
       <c r="B41" s="314"/>
       <c r="C41" s="314"/>
       <c r="D41" s="7"/>
-      <c r="E41" s="516"/>
-      <c r="F41" s="517"/>
-      <c r="G41" s="523"/>
-      <c r="H41" s="524"/>
-      <c r="I41" s="524"/>
-      <c r="J41" s="525"/>
+      <c r="E41" s="560"/>
+      <c r="F41" s="561"/>
+      <c r="G41" s="567"/>
+      <c r="H41" s="568"/>
+      <c r="I41" s="568"/>
+      <c r="J41" s="569"/>
       <c r="K41" s="315"/>
       <c r="L41" s="315"/>
       <c r="M41" s="315"/>
@@ -7888,12 +7891,12 @@
       <c r="B42" s="314"/>
       <c r="C42" s="314"/>
       <c r="D42" s="7"/>
-      <c r="E42" s="518"/>
-      <c r="F42" s="519"/>
-      <c r="G42" s="526"/>
-      <c r="H42" s="527"/>
-      <c r="I42" s="527"/>
-      <c r="J42" s="528"/>
+      <c r="E42" s="562"/>
+      <c r="F42" s="563"/>
+      <c r="G42" s="570"/>
+      <c r="H42" s="571"/>
+      <c r="I42" s="571"/>
+      <c r="J42" s="572"/>
       <c r="K42" s="315"/>
       <c r="L42" s="315"/>
       <c r="M42" s="315"/>
@@ -8195,10 +8198,10 @@
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
-      <c r="F4" s="551" t="s">
+      <c r="F4" s="597" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="552"/>
+      <c r="G4" s="598"/>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
@@ -9138,12 +9141,12 @@
       <c r="U21" s="102"/>
     </row>
     <row r="22" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R22" s="553" t="s">
+      <c r="R22" s="599" t="s">
         <v>61</v>
       </c>
-      <c r="S22" s="554"/>
-      <c r="T22" s="554"/>
-      <c r="U22" s="555"/>
+      <c r="S22" s="600"/>
+      <c r="T22" s="600"/>
+      <c r="U22" s="601"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9189,59 +9192,59 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C6" s="529" t="s">
+      <c r="C6" s="573" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="530"/>
-      <c r="E6" s="530"/>
-      <c r="F6" s="530"/>
-      <c r="G6" s="530"/>
-      <c r="H6" s="530"/>
-      <c r="I6" s="530"/>
-      <c r="J6" s="530"/>
-      <c r="K6" s="530"/>
-      <c r="L6" s="530"/>
-      <c r="M6" s="530"/>
-      <c r="N6" s="530"/>
-      <c r="O6" s="531"/>
+      <c r="D6" s="574"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="574"/>
+      <c r="I6" s="574"/>
+      <c r="J6" s="574"/>
+      <c r="K6" s="574"/>
+      <c r="L6" s="574"/>
+      <c r="M6" s="574"/>
+      <c r="N6" s="574"/>
+      <c r="O6" s="575"/>
       <c r="P6" s="335"/>
       <c r="Q6" s="335"/>
       <c r="R6" s="335"/>
       <c r="S6" s="335"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C7" s="532"/>
-      <c r="D7" s="533"/>
-      <c r="E7" s="533"/>
-      <c r="F7" s="533"/>
-      <c r="G7" s="533"/>
-      <c r="H7" s="533"/>
-      <c r="I7" s="533"/>
-      <c r="J7" s="533"/>
-      <c r="K7" s="533"/>
-      <c r="L7" s="533"/>
-      <c r="M7" s="533"/>
-      <c r="N7" s="533"/>
-      <c r="O7" s="534"/>
+      <c r="C7" s="576"/>
+      <c r="D7" s="577"/>
+      <c r="E7" s="577"/>
+      <c r="F7" s="577"/>
+      <c r="G7" s="577"/>
+      <c r="H7" s="577"/>
+      <c r="I7" s="577"/>
+      <c r="J7" s="577"/>
+      <c r="K7" s="577"/>
+      <c r="L7" s="577"/>
+      <c r="M7" s="577"/>
+      <c r="N7" s="577"/>
+      <c r="O7" s="578"/>
       <c r="P7" s="335"/>
       <c r="Q7" s="335"/>
       <c r="R7" s="335"/>
       <c r="S7" s="335"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C8" s="535"/>
-      <c r="D8" s="536"/>
-      <c r="E8" s="536"/>
-      <c r="F8" s="536"/>
-      <c r="G8" s="536"/>
-      <c r="H8" s="536"/>
-      <c r="I8" s="536"/>
-      <c r="J8" s="536"/>
-      <c r="K8" s="536"/>
-      <c r="L8" s="536"/>
-      <c r="M8" s="536"/>
-      <c r="N8" s="536"/>
-      <c r="O8" s="537"/>
+      <c r="C8" s="579"/>
+      <c r="D8" s="580"/>
+      <c r="E8" s="580"/>
+      <c r="F8" s="580"/>
+      <c r="G8" s="580"/>
+      <c r="H8" s="580"/>
+      <c r="I8" s="580"/>
+      <c r="J8" s="580"/>
+      <c r="K8" s="580"/>
+      <c r="L8" s="580"/>
+      <c r="M8" s="580"/>
+      <c r="N8" s="580"/>
+      <c r="O8" s="581"/>
       <c r="P8" s="335"/>
       <c r="Q8" s="335"/>
       <c r="R8" s="335"/>
@@ -9292,7 +9295,7 @@
       <c r="T12" s="7"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="506" t="s">
+      <c r="B13" s="550" t="s">
         <v>169</v>
       </c>
       <c r="C13" s="152" t="s">
@@ -9316,7 +9319,7 @@
       <c r="T13" s="7"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B14" s="507"/>
+      <c r="B14" s="551"/>
       <c r="C14" s="17" t="s">
         <v>139</v>
       </c>
@@ -9338,7 +9341,7 @@
       <c r="T14" s="7"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B15" s="508"/>
+      <c r="B15" s="552"/>
       <c r="C15" s="271" t="s">
         <v>140</v>
       </c>
@@ -9373,7 +9376,7 @@
       <c r="T16" s="7"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B17" s="506" t="s">
+      <c r="B17" s="550" t="s">
         <v>158</v>
       </c>
       <c r="C17" s="152" t="s">
@@ -9399,7 +9402,7 @@
       <c r="T17" s="7"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B18" s="507"/>
+      <c r="B18" s="551"/>
       <c r="C18" s="17" t="s">
         <v>144</v>
       </c>
@@ -9424,7 +9427,7 @@
       <c r="T18" s="7"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B19" s="507"/>
+      <c r="B19" s="551"/>
       <c r="C19" s="17" t="s">
         <v>5</v>
       </c>
@@ -9448,7 +9451,7 @@
       <c r="T19" s="7"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B20" s="508"/>
+      <c r="B20" s="552"/>
       <c r="C20" s="259" t="s">
         <v>146</v>
       </c>
@@ -9894,19 +9897,19 @@
       <c r="U38" s="269"/>
     </row>
     <row r="39" spans="2:22" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="538" t="s">
+      <c r="C39" s="582" t="s">
         <v>123</v>
       </c>
-      <c r="D39" s="538"/>
-      <c r="E39" s="538"/>
-      <c r="F39" s="538"/>
-      <c r="G39" s="538"/>
-      <c r="H39" s="538"/>
-      <c r="I39" s="538"/>
-      <c r="J39" s="538"/>
-      <c r="K39" s="538"/>
-      <c r="L39" s="538"/>
-      <c r="M39" s="538"/>
+      <c r="D39" s="582"/>
+      <c r="E39" s="582"/>
+      <c r="F39" s="582"/>
+      <c r="G39" s="582"/>
+      <c r="H39" s="582"/>
+      <c r="I39" s="582"/>
+      <c r="J39" s="582"/>
+      <c r="K39" s="582"/>
+      <c r="L39" s="582"/>
+      <c r="M39" s="582"/>
       <c r="N39" s="269"/>
       <c r="O39" s="269"/>
       <c r="P39" s="269"/>
@@ -9917,17 +9920,17 @@
       <c r="U39" s="269"/>
     </row>
     <row r="40" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="538"/>
-      <c r="D40" s="538"/>
-      <c r="E40" s="538"/>
-      <c r="F40" s="538"/>
-      <c r="G40" s="538"/>
-      <c r="H40" s="538"/>
-      <c r="I40" s="538"/>
-      <c r="J40" s="538"/>
-      <c r="K40" s="538"/>
-      <c r="L40" s="538"/>
-      <c r="M40" s="538"/>
+      <c r="C40" s="582"/>
+      <c r="D40" s="582"/>
+      <c r="E40" s="582"/>
+      <c r="F40" s="582"/>
+      <c r="G40" s="582"/>
+      <c r="H40" s="582"/>
+      <c r="I40" s="582"/>
+      <c r="J40" s="582"/>
+      <c r="K40" s="582"/>
+      <c r="L40" s="582"/>
+      <c r="M40" s="582"/>
       <c r="N40" s="269"/>
       <c r="O40" s="269"/>
       <c r="P40" s="269"/>
@@ -9938,17 +9941,17 @@
       <c r="U40" s="269"/>
     </row>
     <row r="41" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="538"/>
-      <c r="D41" s="538"/>
-      <c r="E41" s="538"/>
-      <c r="F41" s="538"/>
-      <c r="G41" s="538"/>
-      <c r="H41" s="538"/>
-      <c r="I41" s="538"/>
-      <c r="J41" s="538"/>
-      <c r="K41" s="538"/>
-      <c r="L41" s="538"/>
-      <c r="M41" s="538"/>
+      <c r="C41" s="582"/>
+      <c r="D41" s="582"/>
+      <c r="E41" s="582"/>
+      <c r="F41" s="582"/>
+      <c r="G41" s="582"/>
+      <c r="H41" s="582"/>
+      <c r="I41" s="582"/>
+      <c r="J41" s="582"/>
+      <c r="K41" s="582"/>
+      <c r="L41" s="582"/>
+      <c r="M41" s="582"/>
       <c r="N41" s="269"/>
       <c r="O41" s="269"/>
       <c r="P41" s="269"/>
@@ -9959,17 +9962,17 @@
       <c r="U41" s="269"/>
     </row>
     <row r="42" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="538"/>
-      <c r="D42" s="538"/>
-      <c r="E42" s="538"/>
-      <c r="F42" s="538"/>
-      <c r="G42" s="538"/>
-      <c r="H42" s="538"/>
-      <c r="I42" s="538"/>
-      <c r="J42" s="538"/>
-      <c r="K42" s="538"/>
-      <c r="L42" s="538"/>
-      <c r="M42" s="538"/>
+      <c r="C42" s="582"/>
+      <c r="D42" s="582"/>
+      <c r="E42" s="582"/>
+      <c r="F42" s="582"/>
+      <c r="G42" s="582"/>
+      <c r="H42" s="582"/>
+      <c r="I42" s="582"/>
+      <c r="J42" s="582"/>
+      <c r="K42" s="582"/>
+      <c r="L42" s="582"/>
+      <c r="M42" s="582"/>
       <c r="N42" s="269"/>
       <c r="O42" s="269"/>
       <c r="P42" s="269"/>
@@ -9980,17 +9983,17 @@
       <c r="U42" s="269"/>
     </row>
     <row r="43" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="538"/>
-      <c r="D43" s="538"/>
-      <c r="E43" s="538"/>
-      <c r="F43" s="538"/>
-      <c r="G43" s="538"/>
-      <c r="H43" s="538"/>
-      <c r="I43" s="538"/>
-      <c r="J43" s="538"/>
-      <c r="K43" s="538"/>
-      <c r="L43" s="538"/>
-      <c r="M43" s="538"/>
+      <c r="C43" s="582"/>
+      <c r="D43" s="582"/>
+      <c r="E43" s="582"/>
+      <c r="F43" s="582"/>
+      <c r="G43" s="582"/>
+      <c r="H43" s="582"/>
+      <c r="I43" s="582"/>
+      <c r="J43" s="582"/>
+      <c r="K43" s="582"/>
+      <c r="L43" s="582"/>
+      <c r="M43" s="582"/>
       <c r="N43" s="269"/>
       <c r="O43" s="269"/>
       <c r="P43" s="269"/>
@@ -10001,17 +10004,17 @@
       <c r="U43" s="269"/>
     </row>
     <row r="44" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="538"/>
-      <c r="D44" s="538"/>
-      <c r="E44" s="538"/>
-      <c r="F44" s="538"/>
-      <c r="G44" s="538"/>
-      <c r="H44" s="538"/>
-      <c r="I44" s="538"/>
-      <c r="J44" s="538"/>
-      <c r="K44" s="538"/>
-      <c r="L44" s="538"/>
-      <c r="M44" s="538"/>
+      <c r="C44" s="582"/>
+      <c r="D44" s="582"/>
+      <c r="E44" s="582"/>
+      <c r="F44" s="582"/>
+      <c r="G44" s="582"/>
+      <c r="H44" s="582"/>
+      <c r="I44" s="582"/>
+      <c r="J44" s="582"/>
+      <c r="K44" s="582"/>
+      <c r="L44" s="582"/>
+      <c r="M44" s="582"/>
       <c r="N44" s="269"/>
       <c r="O44" s="269"/>
       <c r="P44" s="269"/>
@@ -10022,17 +10025,17 @@
       <c r="U44" s="269"/>
     </row>
     <row r="45" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="538"/>
-      <c r="D45" s="538"/>
-      <c r="E45" s="538"/>
-      <c r="F45" s="538"/>
-      <c r="G45" s="538"/>
-      <c r="H45" s="538"/>
-      <c r="I45" s="538"/>
-      <c r="J45" s="538"/>
-      <c r="K45" s="538"/>
-      <c r="L45" s="538"/>
-      <c r="M45" s="538"/>
+      <c r="C45" s="582"/>
+      <c r="D45" s="582"/>
+      <c r="E45" s="582"/>
+      <c r="F45" s="582"/>
+      <c r="G45" s="582"/>
+      <c r="H45" s="582"/>
+      <c r="I45" s="582"/>
+      <c r="J45" s="582"/>
+      <c r="K45" s="582"/>
+      <c r="L45" s="582"/>
+      <c r="M45" s="582"/>
       <c r="N45" s="269"/>
       <c r="O45" s="269"/>
       <c r="P45" s="269"/>
@@ -10043,17 +10046,17 @@
       <c r="U45" s="269"/>
     </row>
     <row r="46" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="538"/>
-      <c r="D46" s="538"/>
-      <c r="E46" s="538"/>
-      <c r="F46" s="538"/>
-      <c r="G46" s="538"/>
-      <c r="H46" s="538"/>
-      <c r="I46" s="538"/>
-      <c r="J46" s="538"/>
-      <c r="K46" s="538"/>
-      <c r="L46" s="538"/>
-      <c r="M46" s="538"/>
+      <c r="C46" s="582"/>
+      <c r="D46" s="582"/>
+      <c r="E46" s="582"/>
+      <c r="F46" s="582"/>
+      <c r="G46" s="582"/>
+      <c r="H46" s="582"/>
+      <c r="I46" s="582"/>
+      <c r="J46" s="582"/>
+      <c r="K46" s="582"/>
+      <c r="L46" s="582"/>
+      <c r="M46" s="582"/>
       <c r="N46" s="269"/>
       <c r="O46" s="269"/>
       <c r="P46" s="269"/>
@@ -10132,7 +10135,7 @@
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B53" s="506" t="s">
+      <c r="B53" s="550" t="s">
         <v>169</v>
       </c>
       <c r="C53" s="152" t="s">
@@ -10147,7 +10150,7 @@
       <c r="H53" s="273"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B54" s="507"/>
+      <c r="B54" s="551"/>
       <c r="C54" s="17" t="s">
         <v>139</v>
       </c>
@@ -10167,7 +10170,7 @@
       <c r="S54" s="7"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B55" s="508"/>
+      <c r="B55" s="552"/>
       <c r="C55" s="271" t="s">
         <v>140</v>
       </c>
@@ -10198,7 +10201,7 @@
       <c r="S56" s="7"/>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B57" s="506" t="s">
+      <c r="B57" s="550" t="s">
         <v>173</v>
       </c>
       <c r="C57" s="152" t="s">
@@ -10214,7 +10217,7 @@
       <c r="M57" s="18"/>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B58" s="507"/>
+      <c r="B58" s="551"/>
       <c r="C58" s="17" t="s">
         <v>139</v>
       </c>
@@ -10228,7 +10231,7 @@
       <c r="M58" s="18"/>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B59" s="508"/>
+      <c r="B59" s="552"/>
       <c r="C59" s="271" t="s">
         <v>140</v>
       </c>
@@ -10252,7 +10255,7 @@
       <c r="M60" s="18"/>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B61" s="509" t="s">
+      <c r="B61" s="553" t="s">
         <v>158</v>
       </c>
       <c r="C61" s="10" t="s">
@@ -10270,7 +10273,7 @@
       <c r="M61" s="18"/>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B62" s="510"/>
+      <c r="B62" s="554"/>
       <c r="C62" s="17" t="s">
         <v>144</v>
       </c>
@@ -10287,7 +10290,7 @@
       <c r="M62" s="18"/>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B63" s="510"/>
+      <c r="B63" s="554"/>
       <c r="C63" s="17" t="s">
         <v>5</v>
       </c>
@@ -10303,7 +10306,7 @@
       <c r="M63" s="18"/>
     </row>
     <row r="64" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="511"/>
+      <c r="B64" s="555"/>
       <c r="C64" s="168" t="s">
         <v>146</v>
       </c>
@@ -11093,18 +11096,18 @@
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
-      <c r="D82" s="538" t="s">
+      <c r="D82" s="582" t="s">
         <v>124</v>
       </c>
-      <c r="E82" s="538"/>
-      <c r="F82" s="538"/>
-      <c r="G82" s="538"/>
-      <c r="H82" s="538"/>
-      <c r="I82" s="538"/>
-      <c r="J82" s="538"/>
-      <c r="K82" s="538"/>
-      <c r="L82" s="538"/>
-      <c r="M82" s="538"/>
+      <c r="E82" s="582"/>
+      <c r="F82" s="582"/>
+      <c r="G82" s="582"/>
+      <c r="H82" s="582"/>
+      <c r="I82" s="582"/>
+      <c r="J82" s="582"/>
+      <c r="K82" s="582"/>
+      <c r="L82" s="582"/>
+      <c r="M82" s="582"/>
       <c r="N82" s="269"/>
       <c r="O82" s="269"/>
       <c r="P82" s="269"/>
@@ -11122,16 +11125,16 @@
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
-      <c r="D83" s="538"/>
-      <c r="E83" s="538"/>
-      <c r="F83" s="538"/>
-      <c r="G83" s="538"/>
-      <c r="H83" s="538"/>
-      <c r="I83" s="538"/>
-      <c r="J83" s="538"/>
-      <c r="K83" s="538"/>
-      <c r="L83" s="538"/>
-      <c r="M83" s="538"/>
+      <c r="D83" s="582"/>
+      <c r="E83" s="582"/>
+      <c r="F83" s="582"/>
+      <c r="G83" s="582"/>
+      <c r="H83" s="582"/>
+      <c r="I83" s="582"/>
+      <c r="J83" s="582"/>
+      <c r="K83" s="582"/>
+      <c r="L83" s="582"/>
+      <c r="M83" s="582"/>
       <c r="N83" s="269"/>
       <c r="O83" s="269"/>
       <c r="P83" s="269"/>
@@ -11147,16 +11150,16 @@
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
-      <c r="D84" s="538"/>
-      <c r="E84" s="538"/>
-      <c r="F84" s="538"/>
-      <c r="G84" s="538"/>
-      <c r="H84" s="538"/>
-      <c r="I84" s="538"/>
-      <c r="J84" s="538"/>
-      <c r="K84" s="538"/>
-      <c r="L84" s="538"/>
-      <c r="M84" s="538"/>
+      <c r="D84" s="582"/>
+      <c r="E84" s="582"/>
+      <c r="F84" s="582"/>
+      <c r="G84" s="582"/>
+      <c r="H84" s="582"/>
+      <c r="I84" s="582"/>
+      <c r="J84" s="582"/>
+      <c r="K84" s="582"/>
+      <c r="L84" s="582"/>
+      <c r="M84" s="582"/>
       <c r="N84" s="269"/>
       <c r="O84" s="269"/>
       <c r="P84" s="269"/>
@@ -11172,16 +11175,16 @@
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
-      <c r="D85" s="538"/>
-      <c r="E85" s="538"/>
-      <c r="F85" s="538"/>
-      <c r="G85" s="538"/>
-      <c r="H85" s="538"/>
-      <c r="I85" s="538"/>
-      <c r="J85" s="538"/>
-      <c r="K85" s="538"/>
-      <c r="L85" s="538"/>
-      <c r="M85" s="538"/>
+      <c r="D85" s="582"/>
+      <c r="E85" s="582"/>
+      <c r="F85" s="582"/>
+      <c r="G85" s="582"/>
+      <c r="H85" s="582"/>
+      <c r="I85" s="582"/>
+      <c r="J85" s="582"/>
+      <c r="K85" s="582"/>
+      <c r="L85" s="582"/>
+      <c r="M85" s="582"/>
       <c r="N85" s="269"/>
       <c r="O85" s="269"/>
       <c r="P85" s="269"/>
@@ -11197,16 +11200,16 @@
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
-      <c r="D86" s="538"/>
-      <c r="E86" s="538"/>
-      <c r="F86" s="538"/>
-      <c r="G86" s="538"/>
-      <c r="H86" s="538"/>
-      <c r="I86" s="538"/>
-      <c r="J86" s="538"/>
-      <c r="K86" s="538"/>
-      <c r="L86" s="538"/>
-      <c r="M86" s="538"/>
+      <c r="D86" s="582"/>
+      <c r="E86" s="582"/>
+      <c r="F86" s="582"/>
+      <c r="G86" s="582"/>
+      <c r="H86" s="582"/>
+      <c r="I86" s="582"/>
+      <c r="J86" s="582"/>
+      <c r="K86" s="582"/>
+      <c r="L86" s="582"/>
+      <c r="M86" s="582"/>
       <c r="N86" s="269"/>
       <c r="O86" s="269"/>
       <c r="P86" s="269"/>
@@ -11222,16 +11225,16 @@
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
-      <c r="D87" s="538"/>
-      <c r="E87" s="538"/>
-      <c r="F87" s="538"/>
-      <c r="G87" s="538"/>
-      <c r="H87" s="538"/>
-      <c r="I87" s="538"/>
-      <c r="J87" s="538"/>
-      <c r="K87" s="538"/>
-      <c r="L87" s="538"/>
-      <c r="M87" s="538"/>
+      <c r="D87" s="582"/>
+      <c r="E87" s="582"/>
+      <c r="F87" s="582"/>
+      <c r="G87" s="582"/>
+      <c r="H87" s="582"/>
+      <c r="I87" s="582"/>
+      <c r="J87" s="582"/>
+      <c r="K87" s="582"/>
+      <c r="L87" s="582"/>
+      <c r="M87" s="582"/>
       <c r="N87" s="269"/>
       <c r="O87" s="269"/>
       <c r="P87" s="269"/>
@@ -11247,16 +11250,16 @@
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
-      <c r="D88" s="538"/>
-      <c r="E88" s="538"/>
-      <c r="F88" s="538"/>
-      <c r="G88" s="538"/>
-      <c r="H88" s="538"/>
-      <c r="I88" s="538"/>
-      <c r="J88" s="538"/>
-      <c r="K88" s="538"/>
-      <c r="L88" s="538"/>
-      <c r="M88" s="538"/>
+      <c r="D88" s="582"/>
+      <c r="E88" s="582"/>
+      <c r="F88" s="582"/>
+      <c r="G88" s="582"/>
+      <c r="H88" s="582"/>
+      <c r="I88" s="582"/>
+      <c r="J88" s="582"/>
+      <c r="K88" s="582"/>
+      <c r="L88" s="582"/>
+      <c r="M88" s="582"/>
       <c r="N88" s="269"/>
       <c r="O88" s="269"/>
       <c r="P88" s="269"/>
@@ -11352,11 +11355,11 @@
       <c r="L93" t="s">
         <v>54</v>
       </c>
-      <c r="V93" s="539" t="s">
+      <c r="V93" s="583" t="s">
         <v>213</v>
       </c>
-      <c r="W93" s="540"/>
-      <c r="X93" s="541"/>
+      <c r="W93" s="584"/>
+      <c r="X93" s="585"/>
     </row>
     <row r="94" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="7"/>
@@ -11386,9 +11389,9 @@
         <f>I95/SUM(H95:I95)</f>
         <v>0.47813894602839851</v>
       </c>
-      <c r="V94" s="542"/>
-      <c r="W94" s="538"/>
-      <c r="X94" s="543"/>
+      <c r="V94" s="586"/>
+      <c r="W94" s="582"/>
+      <c r="X94" s="587"/>
     </row>
     <row r="95" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="7"/>
@@ -11432,9 +11435,9 @@
       <c r="S95" s="389" t="s">
         <v>208</v>
       </c>
-      <c r="V95" s="542"/>
-      <c r="W95" s="538"/>
-      <c r="X95" s="543"/>
+      <c r="V95" s="586"/>
+      <c r="W95" s="582"/>
+      <c r="X95" s="587"/>
     </row>
     <row r="96" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="7"/>
@@ -11467,9 +11470,9 @@
         <v>0</v>
       </c>
       <c r="S96" s="396"/>
-      <c r="V96" s="542"/>
-      <c r="W96" s="538"/>
-      <c r="X96" s="543"/>
+      <c r="V96" s="586"/>
+      <c r="W96" s="582"/>
+      <c r="X96" s="587"/>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" s="7"/>
@@ -11508,9 +11511,9 @@
       <c r="T97" s="392" t="s">
         <v>212</v>
       </c>
-      <c r="V97" s="542"/>
-      <c r="W97" s="538"/>
-      <c r="X97" s="543"/>
+      <c r="V97" s="586"/>
+      <c r="W97" s="582"/>
+      <c r="X97" s="587"/>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
@@ -11546,9 +11549,9 @@
         <f>R98-R97</f>
         <v>3.7499600000250002</v>
       </c>
-      <c r="V98" s="542"/>
-      <c r="W98" s="538"/>
-      <c r="X98" s="543"/>
+      <c r="V98" s="586"/>
+      <c r="W98" s="582"/>
+      <c r="X98" s="587"/>
     </row>
     <row r="99" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="7"/>
@@ -11596,9 +11599,9 @@
         <f t="shared" ref="S99" si="10">R99-R98</f>
         <v>0.40877408410061378</v>
       </c>
-      <c r="V99" s="542"/>
-      <c r="W99" s="538"/>
-      <c r="X99" s="543"/>
+      <c r="V99" s="586"/>
+      <c r="W99" s="582"/>
+      <c r="X99" s="587"/>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
@@ -11656,9 +11659,9 @@
       <c r="T100" s="391" t="s">
         <v>211</v>
       </c>
-      <c r="V100" s="542"/>
-      <c r="W100" s="538"/>
-      <c r="X100" s="543"/>
+      <c r="V100" s="586"/>
+      <c r="W100" s="582"/>
+      <c r="X100" s="587"/>
     </row>
     <row r="101" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="7"/>
@@ -11712,9 +11715,9 @@
       <c r="T101" s="391" t="s">
         <v>211</v>
       </c>
-      <c r="V101" s="542"/>
-      <c r="W101" s="538"/>
-      <c r="X101" s="543"/>
+      <c r="V101" s="586"/>
+      <c r="W101" s="582"/>
+      <c r="X101" s="587"/>
     </row>
     <row r="102" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="7"/>
@@ -11756,9 +11759,9 @@
         <f t="shared" ref="S102" si="13">R102-R101</f>
         <v>-1.304191000000003</v>
       </c>
-      <c r="V102" s="542"/>
-      <c r="W102" s="538"/>
-      <c r="X102" s="543"/>
+      <c r="V102" s="586"/>
+      <c r="W102" s="582"/>
+      <c r="X102" s="587"/>
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
@@ -11788,20 +11791,20 @@
         <f t="shared" ref="S103" si="14">R103-R102</f>
         <v>-7.5524999999999984</v>
       </c>
-      <c r="V103" s="542"/>
-      <c r="W103" s="538"/>
-      <c r="X103" s="543"/>
+      <c r="V103" s="586"/>
+      <c r="W103" s="582"/>
+      <c r="X103" s="587"/>
     </row>
     <row r="104" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F104" s="547" t="s">
+      <c r="F104" s="591" t="s">
         <v>55</v>
       </c>
-      <c r="G104" s="547"/>
-      <c r="H104" s="547"/>
-      <c r="I104" s="547"/>
-      <c r="J104" s="547"/>
-      <c r="K104" s="547"/>
-      <c r="L104" s="547"/>
+      <c r="G104" s="591"/>
+      <c r="H104" s="591"/>
+      <c r="I104" s="591"/>
+      <c r="J104" s="591"/>
+      <c r="K104" s="591"/>
+      <c r="L104" s="591"/>
       <c r="N104" s="487">
         <f>$D$63*LN(EXP($D76/$D$63)+EXP($E76/$D$63)+EXP($F76/$D$63)+EXP($G76/$D$63))</f>
         <v>14.962522986437438</v>
@@ -11826,36 +11829,36 @@
         <f t="shared" ref="S104" si="15">R104-R103</f>
         <v>0</v>
       </c>
-      <c r="V104" s="542"/>
-      <c r="W104" s="538"/>
-      <c r="X104" s="543"/>
+      <c r="V104" s="586"/>
+      <c r="W104" s="582"/>
+      <c r="X104" s="587"/>
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F105" s="547"/>
-      <c r="G105" s="547"/>
-      <c r="H105" s="547"/>
-      <c r="I105" s="547"/>
-      <c r="J105" s="547"/>
-      <c r="K105" s="547"/>
-      <c r="L105" s="547"/>
+      <c r="F105" s="591"/>
+      <c r="G105" s="591"/>
+      <c r="H105" s="591"/>
+      <c r="I105" s="591"/>
+      <c r="J105" s="591"/>
+      <c r="K105" s="591"/>
+      <c r="L105" s="591"/>
       <c r="N105" s="142"/>
       <c r="O105" s="8"/>
       <c r="P105" s="8"/>
       <c r="Q105" s="8"/>
       <c r="R105" s="8"/>
       <c r="S105" s="8"/>
-      <c r="V105" s="542"/>
-      <c r="W105" s="538"/>
-      <c r="X105" s="543"/>
+      <c r="V105" s="586"/>
+      <c r="W105" s="582"/>
+      <c r="X105" s="587"/>
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="N106" s="142"/>
       <c r="P106" s="8"/>
       <c r="R106" s="8"/>
       <c r="S106" s="8"/>
-      <c r="V106" s="542"/>
-      <c r="W106" s="538"/>
-      <c r="X106" s="543"/>
+      <c r="V106" s="586"/>
+      <c r="W106" s="582"/>
+      <c r="X106" s="587"/>
     </row>
     <row r="107" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F107" s="26">
@@ -11877,9 +11880,9 @@
       <c r="Q107" s="143"/>
       <c r="R107" s="143"/>
       <c r="S107" s="143"/>
-      <c r="V107" s="542"/>
-      <c r="W107" s="538"/>
-      <c r="X107" s="543"/>
+      <c r="V107" s="586"/>
+      <c r="W107" s="582"/>
+      <c r="X107" s="587"/>
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F108" s="21" t="s">
@@ -11910,9 +11913,9 @@
       <c r="Q108" s="8"/>
       <c r="R108" s="142"/>
       <c r="S108" s="8"/>
-      <c r="V108" s="542"/>
-      <c r="W108" s="538"/>
-      <c r="X108" s="543"/>
+      <c r="V108" s="586"/>
+      <c r="W108" s="582"/>
+      <c r="X108" s="587"/>
     </row>
     <row r="109" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F109" s="21" t="s">
@@ -11939,9 +11942,9 @@
       <c r="Q109" s="8"/>
       <c r="R109" s="142"/>
       <c r="S109" s="8"/>
-      <c r="V109" s="542"/>
-      <c r="W109" s="538"/>
-      <c r="X109" s="543"/>
+      <c r="V109" s="586"/>
+      <c r="W109" s="582"/>
+      <c r="X109" s="587"/>
     </row>
     <row r="110" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H110" s="118">
@@ -11956,50 +11959,50 @@
         <f>SUM(H108:I109)</f>
         <v>1</v>
       </c>
-      <c r="V110" s="542"/>
-      <c r="W110" s="538"/>
-      <c r="X110" s="543"/>
+      <c r="V110" s="586"/>
+      <c r="W110" s="582"/>
+      <c r="X110" s="587"/>
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="V111" s="542"/>
-      <c r="W111" s="538"/>
-      <c r="X111" s="543"/>
+      <c r="V111" s="586"/>
+      <c r="W111" s="582"/>
+      <c r="X111" s="587"/>
     </row>
     <row r="112" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F112" s="547" t="s">
+      <c r="F112" s="591" t="s">
         <v>56</v>
       </c>
-      <c r="G112" s="547"/>
-      <c r="H112" s="547"/>
-      <c r="I112" s="547"/>
-      <c r="J112" s="547"/>
-      <c r="K112" s="547"/>
-      <c r="L112" s="547"/>
-      <c r="V112" s="542"/>
-      <c r="W112" s="538"/>
-      <c r="X112" s="543"/>
+      <c r="G112" s="591"/>
+      <c r="H112" s="591"/>
+      <c r="I112" s="591"/>
+      <c r="J112" s="591"/>
+      <c r="K112" s="591"/>
+      <c r="L112" s="591"/>
+      <c r="V112" s="586"/>
+      <c r="W112" s="582"/>
+      <c r="X112" s="587"/>
     </row>
     <row r="113" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F113" s="547"/>
-      <c r="G113" s="547"/>
-      <c r="H113" s="547"/>
-      <c r="I113" s="547"/>
-      <c r="J113" s="547"/>
-      <c r="K113" s="547"/>
-      <c r="L113" s="547"/>
-      <c r="V113" s="542"/>
-      <c r="W113" s="538"/>
-      <c r="X113" s="543"/>
+      <c r="F113" s="591"/>
+      <c r="G113" s="591"/>
+      <c r="H113" s="591"/>
+      <c r="I113" s="591"/>
+      <c r="J113" s="591"/>
+      <c r="K113" s="591"/>
+      <c r="L113" s="591"/>
+      <c r="V113" s="586"/>
+      <c r="W113" s="582"/>
+      <c r="X113" s="587"/>
     </row>
     <row r="114" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="V114" s="542"/>
-      <c r="W114" s="538"/>
-      <c r="X114" s="543"/>
+      <c r="V114" s="586"/>
+      <c r="W114" s="582"/>
+      <c r="X114" s="587"/>
     </row>
     <row r="115" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="V115" s="542"/>
-      <c r="W115" s="538"/>
-      <c r="X115" s="543"/>
+      <c r="V115" s="586"/>
+      <c r="W115" s="582"/>
+      <c r="X115" s="587"/>
     </row>
     <row r="116" spans="6:24" x14ac:dyDescent="0.25">
       <c r="J116" s="33"/>
@@ -12007,9 +12010,9 @@
       <c r="L116" s="33"/>
       <c r="M116" s="33"/>
       <c r="N116" s="33"/>
-      <c r="V116" s="542"/>
-      <c r="W116" s="538"/>
-      <c r="X116" s="543"/>
+      <c r="V116" s="586"/>
+      <c r="W116" s="582"/>
+      <c r="X116" s="587"/>
     </row>
     <row r="117" spans="6:24" x14ac:dyDescent="0.25">
       <c r="J117" s="33"/>
@@ -12017,9 +12020,9 @@
       <c r="L117" s="33"/>
       <c r="M117" s="33"/>
       <c r="N117" s="33"/>
-      <c r="V117" s="542"/>
-      <c r="W117" s="538"/>
-      <c r="X117" s="543"/>
+      <c r="V117" s="586"/>
+      <c r="W117" s="582"/>
+      <c r="X117" s="587"/>
     </row>
     <row r="118" spans="6:24" x14ac:dyDescent="0.25">
       <c r="J118" s="33"/>
@@ -12027,58 +12030,58 @@
       <c r="L118" s="33"/>
       <c r="M118" s="33"/>
       <c r="N118" s="33"/>
-      <c r="V118" s="542"/>
-      <c r="W118" s="538"/>
-      <c r="X118" s="543"/>
+      <c r="V118" s="586"/>
+      <c r="W118" s="582"/>
+      <c r="X118" s="587"/>
     </row>
     <row r="119" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="V119" s="542"/>
-      <c r="W119" s="538"/>
-      <c r="X119" s="543"/>
+      <c r="V119" s="586"/>
+      <c r="W119" s="582"/>
+      <c r="X119" s="587"/>
     </row>
     <row r="120" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="V120" s="542"/>
-      <c r="W120" s="538"/>
-      <c r="X120" s="543"/>
+      <c r="V120" s="586"/>
+      <c r="W120" s="582"/>
+      <c r="X120" s="587"/>
     </row>
     <row r="121" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="V121" s="542"/>
-      <c r="W121" s="538"/>
-      <c r="X121" s="543"/>
+      <c r="V121" s="586"/>
+      <c r="W121" s="582"/>
+      <c r="X121" s="587"/>
     </row>
     <row r="122" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="V122" s="542"/>
-      <c r="W122" s="538"/>
-      <c r="X122" s="543"/>
+      <c r="V122" s="586"/>
+      <c r="W122" s="582"/>
+      <c r="X122" s="587"/>
     </row>
     <row r="123" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="V123" s="542"/>
-      <c r="W123" s="538"/>
-      <c r="X123" s="543"/>
+      <c r="V123" s="586"/>
+      <c r="W123" s="582"/>
+      <c r="X123" s="587"/>
     </row>
     <row r="124" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="V124" s="542"/>
-      <c r="W124" s="538"/>
-      <c r="X124" s="543"/>
+      <c r="V124" s="586"/>
+      <c r="W124" s="582"/>
+      <c r="X124" s="587"/>
     </row>
     <row r="125" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="V125" s="544"/>
-      <c r="W125" s="545"/>
-      <c r="X125" s="546"/>
+      <c r="V125" s="588"/>
+      <c r="W125" s="589"/>
+      <c r="X125" s="590"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B57:B59"/>
     <mergeCell ref="C6:O8"/>
     <mergeCell ref="C39:M46"/>
     <mergeCell ref="D82:M88"/>
     <mergeCell ref="V93:X125"/>
     <mergeCell ref="F104:L105"/>
     <mergeCell ref="F112:L113"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B57:B59"/>
   </mergeCells>
   <conditionalFormatting sqref="AP69:AS75">
     <cfRule type="dataBar" priority="1">
@@ -12124,8 +12127,8 @@
   </sheetPr>
   <dimension ref="B2:Z65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T48" sqref="T48"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12158,7 +12161,7 @@
       <c r="B4" s="188"/>
     </row>
     <row r="5" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="506" t="s">
+      <c r="B5" s="550" t="s">
         <v>169</v>
       </c>
       <c r="C5" s="152" t="s">
@@ -12188,7 +12191,7 @@
       <c r="W5" s="250"/>
     </row>
     <row r="6" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="507"/>
+      <c r="B6" s="551"/>
       <c r="C6" s="17" t="s">
         <v>155</v>
       </c>
@@ -12199,7 +12202,7 @@
         <v>156</v>
       </c>
       <c r="F6" s="17"/>
-      <c r="G6" s="569" t="s">
+      <c r="G6" s="518" t="s">
         <v>243</v>
       </c>
       <c r="H6" s="17"/>
@@ -12220,7 +12223,7 @@
       <c r="W6" s="6"/>
     </row>
     <row r="7" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="507"/>
+      <c r="B7" s="551"/>
       <c r="C7" s="17" t="s">
         <v>158</v>
       </c>
@@ -12231,7 +12234,7 @@
         <v>157</v>
       </c>
       <c r="F7" s="17"/>
-      <c r="G7" s="569" t="s">
+      <c r="G7" s="518" t="s">
         <v>242</v>
       </c>
       <c r="H7" s="17"/>
@@ -12252,7 +12255,7 @@
       <c r="W7" s="6"/>
     </row>
     <row r="8" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="507"/>
+      <c r="B8" s="551"/>
       <c r="C8" s="142" t="s">
         <v>159</v>
       </c>
@@ -12283,7 +12286,7 @@
       <c r="W8" s="6"/>
     </row>
     <row r="9" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="507"/>
+      <c r="B9" s="551"/>
       <c r="C9" s="142" t="s">
         <v>163</v>
       </c>
@@ -12313,7 +12316,7 @@
       <c r="W9" s="6"/>
     </row>
     <row r="10" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="507"/>
+      <c r="B10" s="551"/>
       <c r="C10" s="142" t="s">
         <v>164</v>
       </c>
@@ -12343,7 +12346,7 @@
       <c r="W10" s="6"/>
     </row>
     <row r="11" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="508"/>
+      <c r="B11" s="552"/>
       <c r="C11" s="279" t="s">
         <v>165</v>
       </c>
@@ -12378,7 +12381,7 @@
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="509" t="s">
+      <c r="B13" s="553" t="s">
         <v>158</v>
       </c>
       <c r="C13" s="287" t="s">
@@ -12394,9 +12397,12 @@
       <c r="G13" s="265"/>
       <c r="H13" s="263"/>
       <c r="I13" s="17"/>
+      <c r="J13" s="33" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="14" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="510"/>
+      <c r="B14" s="554"/>
       <c r="C14" s="17" t="s">
         <v>144</v>
       </c>
@@ -12412,7 +12418,7 @@
       <c r="I14" s="17"/>
     </row>
     <row r="15" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="510"/>
+      <c r="B15" s="554"/>
       <c r="C15" s="17" t="s">
         <v>5</v>
       </c>
@@ -12426,13 +12432,16 @@
       <c r="G15" s="17"/>
       <c r="H15" s="204"/>
       <c r="I15" s="17"/>
+      <c r="J15" s="33" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="16" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="510"/>
+      <c r="B16" s="554"/>
       <c r="C16" s="142" t="s">
         <v>161</v>
       </c>
-      <c r="D16" s="570">
+      <c r="D16" s="519">
         <f>D8</f>
         <v>12000</v>
       </c>
@@ -12443,13 +12452,16 @@
       <c r="G16" s="17"/>
       <c r="H16" s="204"/>
       <c r="I16" s="17"/>
+      <c r="J16" s="33" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="17" spans="2:26" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="511"/>
+      <c r="B17" s="555"/>
       <c r="C17" s="168" t="s">
         <v>146</v>
       </c>
-      <c r="D17" s="571">
+      <c r="D17" s="520">
         <f>D15*D16*LN(D14)</f>
         <v>10813.096016735146</v>
       </c>
@@ -12486,35 +12498,35 @@
     </row>
     <row r="19" spans="2:26" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19"/>
-      <c r="C19" s="565" t="s">
+      <c r="C19" s="514" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="556"/>
-      <c r="E19" s="566" t="s">
+      <c r="D19" s="506"/>
+      <c r="E19" s="515" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="567"/>
-      <c r="G19" s="557" t="s">
+      <c r="F19" s="516"/>
+      <c r="G19" s="592" t="s">
         <v>241</v>
       </c>
-      <c r="H19" s="576"/>
-      <c r="I19" s="577" t="s">
-        <v>252</v>
-      </c>
-      <c r="J19" s="573" t="s">
-        <v>251</v>
-      </c>
-      <c r="K19" s="556" t="s">
+      <c r="H19" s="593"/>
+      <c r="I19" s="525" t="s">
+        <v>249</v>
+      </c>
+      <c r="J19" s="522" t="s">
+        <v>248</v>
+      </c>
+      <c r="K19" s="506" t="s">
         <v>120</v>
       </c>
-      <c r="L19" s="568" t="s">
+      <c r="L19" s="517" t="s">
         <v>35</v>
       </c>
       <c r="M19" s="202"/>
-      <c r="N19" s="512" t="s">
+      <c r="N19" s="556" t="s">
         <v>99</v>
       </c>
-      <c r="O19" s="513"/>
+      <c r="O19" s="557"/>
       <c r="P19" s="185" t="s">
         <v>100</v>
       </c>
@@ -12554,10 +12566,10 @@
         <f>"i="&amp;D8</f>
         <v>i=12000</v>
       </c>
-      <c r="I20" s="579" t="s">
+      <c r="I20" s="527" t="s">
         <v>244</v>
       </c>
-      <c r="J20" s="575" t="s">
+      <c r="J20" s="524" t="s">
         <v>102</v>
       </c>
       <c r="K20" s="311">
@@ -12579,33 +12591,33 @@
       <c r="B21" s="25">
         <v>1</v>
       </c>
-      <c r="C21" s="584">
+      <c r="C21" s="532">
         <v>0</v>
       </c>
       <c r="D21" s="399">
         <v>0</v>
       </c>
-      <c r="E21" s="585">
+      <c r="E21" s="533">
         <f t="shared" ref="E21:E29" si="0">EXP(C21/$D$15)/(EXP($D21/$D$15)+EXP($C21/$D$15))</f>
         <v>0.5</v>
       </c>
-      <c r="F21" s="586">
+      <c r="F21" s="534">
         <f t="shared" ref="F21:F30" si="1">EXP(D21/$D$15)/(EXP($D21/$D$15)+EXP($C21/$D$15))</f>
         <v>0.5</v>
       </c>
-      <c r="G21" s="587">
+      <c r="G21" s="535">
         <f>(E21*$D$8)</f>
         <v>6000</v>
       </c>
-      <c r="H21" s="588">
+      <c r="H21" s="536">
         <f>(F21*$D$8)</f>
         <v>6000</v>
       </c>
-      <c r="I21" s="582">
+      <c r="I21" s="530">
         <f>G21+$D$6</f>
         <v>14000</v>
       </c>
-      <c r="J21" s="583">
+      <c r="J21" s="531">
         <f>H21+$D$6</f>
         <v>14000</v>
       </c>
@@ -12630,38 +12642,38 @@
       <c r="B22" s="25">
         <v>2</v>
       </c>
-      <c r="C22" s="589">
+      <c r="C22" s="537">
         <v>1</v>
       </c>
       <c r="D22" s="407">
         <v>0</v>
       </c>
-      <c r="E22" s="590">
+      <c r="E22" s="538">
         <f t="shared" si="0"/>
         <v>0.68335447018778295</v>
       </c>
-      <c r="F22" s="591">
+      <c r="F22" s="539">
         <f t="shared" si="1"/>
         <v>0.316645529812217</v>
       </c>
-      <c r="G22" s="592">
+      <c r="G22" s="540">
         <f t="shared" ref="G22:G31" si="2">(E22*$D$8)</f>
         <v>8200.2536422533958</v>
       </c>
-      <c r="H22" s="593">
+      <c r="H22" s="541">
         <f t="shared" ref="H22:H31" si="3">(F22*$D$8)</f>
         <v>3799.7463577466042</v>
       </c>
-      <c r="I22" s="578">
+      <c r="I22" s="526">
         <f>G22+$D$6</f>
         <v>16200.253642253396</v>
       </c>
-      <c r="J22" s="574">
+      <c r="J22" s="523">
         <f t="shared" ref="J22:J31" si="4">H22+$D$6</f>
         <v>11799.746357746604</v>
       </c>
       <c r="K22" s="364">
-        <f t="shared" ref="K22:K31" si="5">$D$15*$D$16*LN(EXP($D22/$D$15)+EXP($C22/$D$15))</f>
+        <f t="shared" ref="K22:K29" si="5">$D$15*$D$16*LN(EXP($D22/$D$15)+EXP($C22/$D$15))</f>
         <v>17939.56839861926</v>
       </c>
       <c r="L22" s="215">
@@ -12698,33 +12710,33 @@
       <c r="B23" s="25">
         <v>3</v>
       </c>
-      <c r="C23" s="589">
+      <c r="C23" s="537">
         <v>1</v>
       </c>
       <c r="D23" s="407">
         <v>2</v>
       </c>
-      <c r="E23" s="590">
+      <c r="E23" s="538">
         <f t="shared" si="0"/>
         <v>0.316645529812217</v>
       </c>
-      <c r="F23" s="591">
+      <c r="F23" s="539">
         <f t="shared" si="1"/>
         <v>0.68335447018778306</v>
       </c>
-      <c r="G23" s="592">
+      <c r="G23" s="540">
         <f t="shared" si="2"/>
         <v>3799.7463577466042</v>
       </c>
-      <c r="H23" s="593">
+      <c r="H23" s="541">
         <f t="shared" si="3"/>
         <v>8200.2536422533958</v>
       </c>
-      <c r="I23" s="578">
-        <f t="shared" ref="I22:I31" si="11">G23+$D$6</f>
+      <c r="I23" s="526">
+        <f t="shared" ref="I23:I31" si="11">G23+$D$6</f>
         <v>11799.746357746604</v>
       </c>
-      <c r="J23" s="574">
+      <c r="J23" s="523">
         <f t="shared" si="4"/>
         <v>16200.253642253396</v>
       </c>
@@ -12766,33 +12778,33 @@
       <c r="B24" s="25">
         <v>4</v>
       </c>
-      <c r="C24" s="589">
+      <c r="C24" s="537">
         <v>2</v>
       </c>
       <c r="D24" s="407">
         <v>2</v>
       </c>
-      <c r="E24" s="590">
+      <c r="E24" s="538">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="F24" s="591">
+      <c r="F24" s="539">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G24" s="592">
+      <c r="G24" s="540">
         <f t="shared" si="2"/>
         <v>6000</v>
       </c>
-      <c r="H24" s="593">
+      <c r="H24" s="541">
         <f t="shared" si="3"/>
         <v>6000</v>
       </c>
-      <c r="I24" s="578">
+      <c r="I24" s="526">
         <f t="shared" si="11"/>
         <v>14000</v>
       </c>
-      <c r="J24" s="574">
+      <c r="J24" s="523">
         <f t="shared" si="4"/>
         <v>14000</v>
       </c>
@@ -12834,33 +12846,33 @@
       <c r="B25" s="25">
         <v>5</v>
       </c>
-      <c r="C25" s="589">
+      <c r="C25" s="537">
         <v>2</v>
       </c>
       <c r="D25" s="407">
         <v>12</v>
       </c>
-      <c r="E25" s="590">
+      <c r="E25" s="538">
         <f t="shared" si="0"/>
         <v>4.5611576405646073E-4</v>
       </c>
-      <c r="F25" s="591">
+      <c r="F25" s="539">
         <f t="shared" si="1"/>
         <v>0.99954388423594354</v>
       </c>
-      <c r="G25" s="592">
+      <c r="G25" s="540">
         <f t="shared" si="2"/>
         <v>5.4733891686775289</v>
       </c>
-      <c r="H25" s="593">
+      <c r="H25" s="541">
         <f t="shared" si="3"/>
         <v>11994.526610831323</v>
       </c>
-      <c r="I25" s="578">
+      <c r="I25" s="526">
         <f t="shared" si="11"/>
         <v>8005.4733891686774</v>
       </c>
-      <c r="J25" s="574">
+      <c r="J25" s="523">
         <f t="shared" si="4"/>
         <v>19994.526610831323</v>
       </c>
@@ -12902,33 +12914,33 @@
       <c r="B26" s="25">
         <v>6</v>
       </c>
-      <c r="C26" s="589">
+      <c r="C26" s="537">
         <v>12</v>
       </c>
       <c r="D26" s="407">
         <v>12</v>
       </c>
-      <c r="E26" s="590">
+      <c r="E26" s="538">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="F26" s="591">
+      <c r="F26" s="539">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G26" s="592">
+      <c r="G26" s="540">
         <f t="shared" si="2"/>
         <v>6000</v>
       </c>
-      <c r="H26" s="593">
+      <c r="H26" s="541">
         <f t="shared" si="3"/>
         <v>6000</v>
       </c>
-      <c r="I26" s="578">
+      <c r="I26" s="526">
         <f t="shared" si="11"/>
         <v>14000</v>
       </c>
-      <c r="J26" s="574">
+      <c r="J26" s="523">
         <f t="shared" si="4"/>
         <v>14000</v>
       </c>
@@ -12970,33 +12982,33 @@
       <c r="B27" s="25">
         <v>7</v>
       </c>
-      <c r="C27" s="589">
+      <c r="C27" s="537">
         <v>12</v>
       </c>
       <c r="D27" s="407">
         <v>10</v>
       </c>
-      <c r="E27" s="590">
+      <c r="E27" s="538">
         <f t="shared" si="0"/>
         <v>0.82324096688122073</v>
       </c>
-      <c r="F27" s="591">
+      <c r="F27" s="539">
         <f t="shared" si="1"/>
         <v>0.17675903311877933</v>
       </c>
-      <c r="G27" s="592">
+      <c r="G27" s="540">
         <f t="shared" si="2"/>
         <v>9878.8916025746494</v>
       </c>
-      <c r="H27" s="593">
+      <c r="H27" s="541">
         <f t="shared" si="3"/>
         <v>2121.108397425352</v>
       </c>
-      <c r="I27" s="578">
+      <c r="I27" s="526">
         <f t="shared" si="11"/>
         <v>17878.891602574651</v>
       </c>
-      <c r="J27" s="574">
+      <c r="J27" s="523">
         <f t="shared" si="4"/>
         <v>10121.108397425352</v>
       </c>
@@ -13038,33 +13050,33 @@
       <c r="B28" s="25">
         <v>8</v>
       </c>
-      <c r="C28" s="589">
+      <c r="C28" s="537">
         <v>8</v>
       </c>
       <c r="D28" s="407">
         <v>10</v>
       </c>
-      <c r="E28" s="590">
+      <c r="E28" s="538">
         <f t="shared" si="0"/>
         <v>0.1767590331187793</v>
       </c>
-      <c r="F28" s="591">
+      <c r="F28" s="539">
         <f t="shared" si="1"/>
         <v>0.82324096688122073</v>
       </c>
-      <c r="G28" s="592">
+      <c r="G28" s="540">
         <f t="shared" si="2"/>
         <v>2121.1083974253515</v>
       </c>
-      <c r="H28" s="593">
+      <c r="H28" s="541">
         <f t="shared" si="3"/>
         <v>9878.8916025746494</v>
       </c>
-      <c r="I28" s="578">
+      <c r="I28" s="526">
         <f t="shared" si="11"/>
         <v>10121.108397425352</v>
       </c>
-      <c r="J28" s="574">
+      <c r="J28" s="523">
         <f t="shared" si="4"/>
         <v>17878.891602574651</v>
       </c>
@@ -13106,33 +13118,33 @@
       <c r="B29" s="25">
         <v>9</v>
       </c>
-      <c r="C29" s="589">
+      <c r="C29" s="537">
         <v>12</v>
       </c>
       <c r="D29" s="407">
         <v>10</v>
       </c>
-      <c r="E29" s="590">
+      <c r="E29" s="538">
         <f t="shared" si="0"/>
         <v>0.82324096688122073</v>
       </c>
-      <c r="F29" s="591">
+      <c r="F29" s="539">
         <f t="shared" si="1"/>
         <v>0.17675903311877933</v>
       </c>
-      <c r="G29" s="592">
+      <c r="G29" s="540">
         <f t="shared" si="2"/>
         <v>9878.8916025746494</v>
       </c>
-      <c r="H29" s="593">
+      <c r="H29" s="541">
         <f t="shared" si="3"/>
         <v>2121.108397425352</v>
       </c>
-      <c r="I29" s="578">
+      <c r="I29" s="526">
         <f t="shared" si="11"/>
         <v>17878.891602574651</v>
       </c>
-      <c r="J29" s="574">
+      <c r="J29" s="523">
         <f t="shared" si="4"/>
         <v>10121.108397425352</v>
       </c>
@@ -13180,27 +13192,27 @@
       <c r="D30" s="175">
         <v>10</v>
       </c>
-      <c r="E30" s="594">
+      <c r="E30" s="542">
         <f>EXP(C30/$D$15)/(EXP($D30/$D$15)+EXP($C30/$D$15))</f>
         <v>0.82324096688122073</v>
       </c>
-      <c r="F30" s="595">
+      <c r="F30" s="543">
         <f t="shared" si="1"/>
         <v>0.17675903311877933</v>
       </c>
-      <c r="G30" s="596">
+      <c r="G30" s="544">
         <f t="shared" si="2"/>
         <v>9878.8916025746494</v>
       </c>
-      <c r="H30" s="597">
+      <c r="H30" s="545">
         <f t="shared" si="3"/>
         <v>2121.108397425352</v>
       </c>
-      <c r="I30" s="579">
+      <c r="I30" s="527">
         <f t="shared" si="11"/>
         <v>17878.891602574651</v>
       </c>
-      <c r="J30" s="575">
+      <c r="J30" s="524">
         <f t="shared" si="4"/>
         <v>10121.108397425352</v>
       </c>
@@ -13208,7 +13220,7 @@
         <f>$D$15*$D$16*LN(EXP($D30/$D$15)+EXP($C30/$D$15))</f>
         <v>147034.29875261395</v>
       </c>
-      <c r="L30" s="564">
+      <c r="L30" s="513">
         <f>(K30-K29)</f>
         <v>0</v>
       </c>
@@ -13250,31 +13262,31 @@
         <f>D30</f>
         <v>10</v>
       </c>
-      <c r="E31" s="559">
+      <c r="E31" s="508">
         <f>E35</f>
         <v>0.33103416666666663</v>
       </c>
-      <c r="F31" s="560">
+      <c r="F31" s="509">
         <f>F35</f>
         <v>0.66896583333333337</v>
       </c>
-      <c r="G31" s="598">
+      <c r="G31" s="546">
         <f t="shared" si="2"/>
         <v>3972.4099999999994</v>
       </c>
-      <c r="H31" s="599">
+      <c r="H31" s="547">
         <f t="shared" si="3"/>
         <v>8027.59</v>
       </c>
-      <c r="I31" s="580">
+      <c r="I31" s="528">
         <f t="shared" si="11"/>
         <v>11972.41</v>
       </c>
-      <c r="J31" s="581">
+      <c r="J31" s="529">
         <f t="shared" si="4"/>
         <v>16027.59</v>
       </c>
-      <c r="K31" s="572">
+      <c r="K31" s="521">
         <f>$D$15*$D$16*LN(EXP($D31/$D$15)+EXP($C31/$D$15))</f>
         <v>147034.29875261395</v>
       </c>
@@ -13333,7 +13345,7 @@
       <c r="E34" s="282" t="s">
         <v>183</v>
       </c>
-      <c r="F34" s="561" t="s">
+      <c r="F34" s="510" t="s">
         <v>160</v>
       </c>
       <c r="G34" s="17"/>
@@ -13359,36 +13371,36 @@
       <c r="C35" s="304" t="s">
         <v>184</v>
       </c>
-      <c r="D35" s="558">
+      <c r="D35" s="507">
         <v>16027.59</v>
       </c>
-      <c r="E35" s="562">
+      <c r="E35" s="511">
         <f>1-F35</f>
         <v>0.33103416666666663</v>
       </c>
-      <c r="F35" s="563">
+      <c r="F35" s="512">
         <f>(D35-D6)/D8</f>
         <v>0.66896583333333337</v>
       </c>
-      <c r="H35" s="600"/>
+      <c r="H35" s="548"/>
       <c r="J35" s="216"/>
       <c r="L35" s="190"/>
       <c r="T35" s="28" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C36" s="33" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J36" s="216"/>
       <c r="T36" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C37" s="33" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="J37" s="216"/>
     </row>
@@ -13422,12 +13434,12 @@
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
@@ -13436,91 +13448,91 @@
       <c r="E50" s="7"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C51" s="600">
+      <c r="C51" s="548">
         <f>SUM(G29:H29)</f>
         <v>12000.000000000002</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C52" s="600">
+      <c r="C52" s="548">
         <f>SUM(G30:H30)</f>
         <v>12000.000000000002</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C53" s="600">
+      <c r="C53" s="548">
         <f>SUM(G31:H31)</f>
         <v>12000</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C54" s="600"/>
+      <c r="C54" s="548"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>246</v>
-      </c>
-      <c r="C55" s="600"/>
+        <v>252</v>
+      </c>
+      <c r="C55" s="548"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C57" s="601">
-        <f>I22-I21</f>
+      <c r="C57" s="549">
+        <f t="shared" ref="C57:D60" si="16">I22-I21</f>
         <v>2200.2536422533958</v>
       </c>
-      <c r="D57" s="601">
-        <f>J22-J21</f>
+      <c r="D57" s="549">
+        <f t="shared" si="16"/>
         <v>-2200.2536422533958</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C58" s="601">
-        <f>I23-I22</f>
+      <c r="C58" s="549">
+        <f t="shared" si="16"/>
         <v>-4400.5072845067916</v>
       </c>
-      <c r="D58" s="601">
-        <f>J23-J22</f>
+      <c r="D58" s="549">
+        <f t="shared" si="16"/>
         <v>4400.5072845067916</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C59" s="601">
-        <f>I24-I23</f>
+      <c r="C59" s="549">
+        <f t="shared" si="16"/>
         <v>2200.2536422533958</v>
       </c>
-      <c r="D59" s="601">
-        <f>J24-J23</f>
+      <c r="D59" s="549">
+        <f t="shared" si="16"/>
         <v>-2200.2536422533958</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C60" s="601">
-        <f>I25-I24</f>
+      <c r="C60" s="549">
+        <f t="shared" si="16"/>
         <v>-5994.5266108313226</v>
       </c>
-      <c r="D60" s="601">
-        <f>J25-J24</f>
+      <c r="D60" s="549">
+        <f t="shared" si="16"/>
         <v>5994.5266108313226</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C61" s="601"/>
-      <c r="D61" s="601"/>
+      <c r="C61" s="549"/>
+      <c r="D61" s="549"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C62" s="601"/>
-      <c r="D62" s="601"/>
+      <c r="C62" s="549"/>
+      <c r="D62" s="549"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C63" s="601"/>
-      <c r="D63" s="601"/>
+      <c r="C63" s="549"/>
+      <c r="D63" s="549"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C64" s="601"/>
-      <c r="D64" s="601"/>
+      <c r="C64" s="549"/>
+      <c r="D64" s="549"/>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C65" s="601"/>
-      <c r="D65" s="601"/>
+      <c r="C65" s="549"/>
+      <c r="D65" s="549"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -13579,7 +13591,7 @@
       <c r="D3" s="141"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C4" s="506" t="s">
+      <c r="C4" s="550" t="s">
         <v>169</v>
       </c>
       <c r="D4" s="152" t="s">
@@ -13598,7 +13610,7 @@
       <c r="M4" s="273"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C5" s="507"/>
+      <c r="C5" s="551"/>
       <c r="D5" s="17" t="s">
         <v>155</v>
       </c>
@@ -13617,7 +13629,7 @@
       <c r="M5" s="252"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C6" s="507"/>
+      <c r="C6" s="551"/>
       <c r="D6" s="17" t="s">
         <v>158</v>
       </c>
@@ -13636,7 +13648,7 @@
       <c r="M6" s="252"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C7" s="507"/>
+      <c r="C7" s="551"/>
       <c r="D7" s="142" t="s">
         <v>159</v>
       </c>
@@ -13656,7 +13668,7 @@
       <c r="M7" s="252"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C8" s="507"/>
+      <c r="C8" s="551"/>
       <c r="D8" s="142" t="s">
         <v>163</v>
       </c>
@@ -13675,7 +13687,7 @@
       <c r="M8" s="252"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C9" s="507"/>
+      <c r="C9" s="551"/>
       <c r="D9" s="142" t="s">
         <v>164</v>
       </c>
@@ -13692,7 +13704,7 @@
       <c r="M9" s="252"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C10" s="508"/>
+      <c r="C10" s="552"/>
       <c r="D10" s="279" t="s">
         <v>165</v>
       </c>
@@ -13721,7 +13733,7 @@
       <c r="L11" s="17"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C12" s="506" t="s">
+      <c r="C12" s="550" t="s">
         <v>173</v>
       </c>
       <c r="D12" s="152" t="s">
@@ -13739,7 +13751,7 @@
       <c r="L12" s="17"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C13" s="507"/>
+      <c r="C13" s="551"/>
       <c r="D13" s="17" t="s">
         <v>139</v>
       </c>
@@ -13755,7 +13767,7 @@
       <c r="L13" s="17"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C14" s="508"/>
+      <c r="C14" s="552"/>
       <c r="D14" s="271" t="s">
         <v>140</v>
       </c>
@@ -13783,7 +13795,7 @@
       <c r="L15" s="17"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C16" s="509" t="s">
+      <c r="C16" s="553" t="s">
         <v>158</v>
       </c>
       <c r="D16" s="287" t="s">
@@ -13800,7 +13812,7 @@
       <c r="I16" s="263"/>
     </row>
     <row r="17" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="C17" s="510"/>
+      <c r="C17" s="554"/>
       <c r="D17" s="17" t="s">
         <v>144</v>
       </c>
@@ -13815,7 +13827,7 @@
       <c r="I17" s="204"/>
     </row>
     <row r="18" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="C18" s="510"/>
+      <c r="C18" s="554"/>
       <c r="D18" s="17" t="s">
         <v>5</v>
       </c>
@@ -13830,7 +13842,7 @@
       <c r="I18" s="204"/>
     </row>
     <row r="19" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="C19" s="510"/>
+      <c r="C19" s="554"/>
       <c r="D19" s="142" t="s">
         <v>161</v>
       </c>
@@ -13846,7 +13858,7 @@
       <c r="I19" s="204"/>
     </row>
     <row r="20" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="511"/>
+      <c r="C20" s="555"/>
       <c r="D20" s="168" t="s">
         <v>146</v>
       </c>
@@ -13928,10 +13940,10 @@
         <v>35</v>
       </c>
       <c r="U23" s="202"/>
-      <c r="V23" s="512" t="s">
+      <c r="V23" s="556" t="s">
         <v>99</v>
       </c>
-      <c r="W23" s="513"/>
+      <c r="W23" s="557"/>
       <c r="X23" s="185" t="s">
         <v>100</v>
       </c>
@@ -16637,7 +16649,7 @@
       <c r="D3" s="141"/>
     </row>
     <row r="4" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C4" s="506" t="s">
+      <c r="C4" s="550" t="s">
         <v>169</v>
       </c>
       <c r="D4" s="152" t="s">
@@ -16656,7 +16668,7 @@
       <c r="M4" s="273"/>
     </row>
     <row r="5" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C5" s="507"/>
+      <c r="C5" s="551"/>
       <c r="D5" s="17" t="s">
         <v>155</v>
       </c>
@@ -16675,7 +16687,7 @@
       <c r="M5" s="252"/>
     </row>
     <row r="6" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C6" s="507"/>
+      <c r="C6" s="551"/>
       <c r="D6" s="17" t="s">
         <v>158</v>
       </c>
@@ -16694,7 +16706,7 @@
       <c r="M6" s="252"/>
     </row>
     <row r="7" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C7" s="507"/>
+      <c r="C7" s="551"/>
       <c r="D7" s="142" t="s">
         <v>159</v>
       </c>
@@ -16714,7 +16726,7 @@
       <c r="M7" s="252"/>
     </row>
     <row r="8" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C8" s="507"/>
+      <c r="C8" s="551"/>
       <c r="D8" s="142" t="s">
         <v>163</v>
       </c>
@@ -16731,7 +16743,7 @@
       <c r="M8" s="252"/>
     </row>
     <row r="9" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C9" s="507"/>
+      <c r="C9" s="551"/>
       <c r="D9" s="142" t="s">
         <v>164</v>
       </c>
@@ -16748,7 +16760,7 @@
       <c r="M9" s="252"/>
     </row>
     <row r="10" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C10" s="508"/>
+      <c r="C10" s="552"/>
       <c r="D10" s="279" t="s">
         <v>165</v>
       </c>
@@ -16777,7 +16789,7 @@
       <c r="L11" s="17"/>
     </row>
     <row r="12" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C12" s="506" t="s">
+      <c r="C12" s="550" t="s">
         <v>173</v>
       </c>
       <c r="D12" s="152" t="s">
@@ -16796,7 +16808,7 @@
       <c r="M12" s="273"/>
     </row>
     <row r="13" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C13" s="507"/>
+      <c r="C13" s="551"/>
       <c r="D13" s="17" t="s">
         <v>155</v>
       </c>
@@ -16816,7 +16828,7 @@
     </row>
     <row r="14" spans="2:36" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14"/>
-      <c r="C14" s="507"/>
+      <c r="C14" s="551"/>
       <c r="D14" s="17" t="s">
         <v>158</v>
       </c>
@@ -16849,7 +16861,7 @@
     </row>
     <row r="15" spans="2:36" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15"/>
-      <c r="C15" s="507"/>
+      <c r="C15" s="551"/>
       <c r="D15" s="142" t="s">
         <v>159</v>
       </c>
@@ -16883,7 +16895,7 @@
     </row>
     <row r="16" spans="2:36" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16"/>
-      <c r="C16" s="507"/>
+      <c r="C16" s="551"/>
       <c r="D16" s="142" t="s">
         <v>163</v>
       </c>
@@ -16914,7 +16926,7 @@
     </row>
     <row r="17" spans="2:36" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17"/>
-      <c r="C17" s="507"/>
+      <c r="C17" s="551"/>
       <c r="D17" s="142" t="s">
         <v>164</v>
       </c>
@@ -16945,7 +16957,7 @@
     </row>
     <row r="18" spans="2:36" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18"/>
-      <c r="C18" s="508"/>
+      <c r="C18" s="552"/>
       <c r="D18" s="279" t="s">
         <v>165</v>
       </c>
@@ -17002,7 +17014,7 @@
     </row>
     <row r="20" spans="2:36" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20"/>
-      <c r="C20" s="509" t="s">
+      <c r="C20" s="553" t="s">
         <v>158</v>
       </c>
       <c r="D20" s="287" t="s">
@@ -17032,7 +17044,7 @@
       <c r="AJ20"/>
     </row>
     <row r="21" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C21" s="510"/>
+      <c r="C21" s="554"/>
       <c r="D21" s="17" t="s">
         <v>144</v>
       </c>
@@ -17047,7 +17059,7 @@
       <c r="I21" s="204"/>
     </row>
     <row r="22" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C22" s="510"/>
+      <c r="C22" s="554"/>
       <c r="D22" s="17" t="s">
         <v>5</v>
       </c>
@@ -17062,7 +17074,7 @@
       <c r="I22" s="204"/>
     </row>
     <row r="23" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C23" s="510"/>
+      <c r="C23" s="554"/>
       <c r="D23" s="142" t="s">
         <v>161</v>
       </c>
@@ -17078,7 +17090,7 @@
       <c r="I23" s="204"/>
     </row>
     <row r="24" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="511"/>
+      <c r="C24" s="555"/>
       <c r="D24" s="168" t="s">
         <v>146</v>
       </c>
@@ -17161,10 +17173,10 @@
         <v>35</v>
       </c>
       <c r="W27" s="202"/>
-      <c r="X27" s="512" t="s">
+      <c r="X27" s="556" t="s">
         <v>99</v>
       </c>
-      <c r="Y27" s="513"/>
+      <c r="Y27" s="557"/>
       <c r="Z27" s="185" t="s">
         <v>100</v>
       </c>
@@ -18723,7 +18735,7 @@
       <c r="D3" s="141"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C4" s="506" t="s">
+      <c r="C4" s="550" t="s">
         <v>169</v>
       </c>
       <c r="D4" s="152" t="s">
@@ -18742,7 +18754,7 @@
       <c r="M4" s="273"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C5" s="507"/>
+      <c r="C5" s="551"/>
       <c r="D5" s="17" t="s">
         <v>155</v>
       </c>
@@ -18761,7 +18773,7 @@
       <c r="M5" s="252"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C6" s="507"/>
+      <c r="C6" s="551"/>
       <c r="D6" s="17" t="s">
         <v>158</v>
       </c>
@@ -18780,7 +18792,7 @@
       <c r="M6" s="252"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C7" s="507"/>
+      <c r="C7" s="551"/>
       <c r="D7" s="142" t="s">
         <v>159</v>
       </c>
@@ -18800,7 +18812,7 @@
       <c r="M7" s="252"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C8" s="507"/>
+      <c r="C8" s="551"/>
       <c r="D8" s="142" t="s">
         <v>163</v>
       </c>
@@ -18817,7 +18829,7 @@
       <c r="M8" s="252"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C9" s="507"/>
+      <c r="C9" s="551"/>
       <c r="D9" s="142" t="s">
         <v>164</v>
       </c>
@@ -18834,7 +18846,7 @@
       <c r="M9" s="252"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C10" s="508"/>
+      <c r="C10" s="552"/>
       <c r="D10" s="279" t="s">
         <v>165</v>
       </c>
@@ -18863,7 +18875,7 @@
       <c r="L11" s="17"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C12" s="506" t="s">
+      <c r="C12" s="550" t="s">
         <v>173</v>
       </c>
       <c r="D12" s="152" t="s">
@@ -18881,7 +18893,7 @@
       <c r="L12" s="17"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C13" s="507"/>
+      <c r="C13" s="551"/>
       <c r="D13" s="17" t="s">
         <v>139</v>
       </c>
@@ -18897,7 +18909,7 @@
       <c r="L13" s="17"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C14" s="508"/>
+      <c r="C14" s="552"/>
       <c r="D14" s="271" t="s">
         <v>140</v>
       </c>
@@ -18925,7 +18937,7 @@
       <c r="L15" s="17"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C16" s="509" t="s">
+      <c r="C16" s="553" t="s">
         <v>158</v>
       </c>
       <c r="D16" s="287" t="s">
@@ -18942,7 +18954,7 @@
       <c r="I16" s="263"/>
     </row>
     <row r="17" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="C17" s="510"/>
+      <c r="C17" s="554"/>
       <c r="D17" s="17" t="s">
         <v>144</v>
       </c>
@@ -18957,7 +18969,7 @@
       <c r="I17" s="204"/>
     </row>
     <row r="18" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="C18" s="510"/>
+      <c r="C18" s="554"/>
       <c r="D18" s="17" t="s">
         <v>5</v>
       </c>
@@ -18972,7 +18984,7 @@
       <c r="I18" s="204"/>
     </row>
     <row r="19" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="C19" s="510"/>
+      <c r="C19" s="554"/>
       <c r="D19" s="142" t="s">
         <v>161</v>
       </c>
@@ -18988,7 +19000,7 @@
       <c r="I19" s="204"/>
     </row>
     <row r="20" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="511"/>
+      <c r="C20" s="555"/>
       <c r="D20" s="168" t="s">
         <v>146</v>
       </c>
@@ -19081,10 +19093,10 @@
         <v>35</v>
       </c>
       <c r="AA23" s="202"/>
-      <c r="AB23" s="512" t="s">
+      <c r="AB23" s="556" t="s">
         <v>99</v>
       </c>
-      <c r="AC23" s="513"/>
+      <c r="AC23" s="557"/>
       <c r="AD23" s="185" t="s">
         <v>100</v>
       </c>
@@ -22525,7 +22537,7 @@
         <f>K58/SUM(K58:L58)</f>
         <v>0.5</v>
       </c>
-      <c r="P57" s="548" t="s">
+      <c r="P57" s="594" t="s">
         <v>221</v>
       </c>
       <c r="AB57" s="33"/>
@@ -22566,7 +22578,7 @@
         <v>0.5</v>
       </c>
       <c r="O58" s="142"/>
-      <c r="P58" s="549"/>
+      <c r="P58" s="595"/>
       <c r="AB58" s="142"/>
     </row>
     <row r="59" spans="2:37" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22603,7 +22615,7 @@
       </c>
       <c r="N59" s="430"/>
       <c r="O59" s="142"/>
-      <c r="P59" s="549"/>
+      <c r="P59" s="595"/>
       <c r="AB59" s="142"/>
     </row>
     <row r="60" spans="2:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -22630,7 +22642,7 @@
       <c r="M60" s="442"/>
       <c r="N60" s="430"/>
       <c r="O60" s="142"/>
-      <c r="P60" s="550"/>
+      <c r="P60" s="596"/>
       <c r="AB60" s="142"/>
     </row>
     <row r="61" spans="2:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -22657,7 +22669,7 @@
         <f>M62=M57</f>
         <v>1</v>
       </c>
-      <c r="P62" s="548" t="s">
+      <c r="P62" s="594" t="s">
         <v>219</v>
       </c>
       <c r="AB62" s="448" t="s">
@@ -22708,7 +22720,7 @@
         <f>M63-M58</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="P63" s="549"/>
+      <c r="P63" s="595"/>
       <c r="AB63" s="33"/>
     </row>
     <row r="64" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22754,7 +22766,7 @@
         <f>-1*O63</f>
         <v>-5.0000000000000044E-2</v>
       </c>
-      <c r="P64" s="549"/>
+      <c r="P64" s="595"/>
       <c r="AB64" s="33"/>
     </row>
     <row r="65" spans="2:28" x14ac:dyDescent="0.25">
@@ -22782,7 +22794,7 @@
         <f>K65=K60</f>
         <v>1</v>
       </c>
-      <c r="P65" s="550"/>
+      <c r="P65" s="596"/>
       <c r="AB65" s="33"/>
     </row>
     <row r="66" spans="2:28" x14ac:dyDescent="0.25">
@@ -22799,7 +22811,7 @@
         <f>M62/M67</f>
         <v>1</v>
       </c>
-      <c r="P67" s="548" t="s">
+      <c r="P67" s="594" t="s">
         <v>220</v>
       </c>
       <c r="AB67" s="33"/>
@@ -22843,7 +22855,7 @@
         <f>M63/M68</f>
         <v>1.0000012776315277</v>
       </c>
-      <c r="P68" s="549"/>
+      <c r="P68" s="595"/>
       <c r="AB68" s="33"/>
     </row>
     <row r="69" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22883,7 +22895,7 @@
         <f>M64/M69</f>
         <v>0.99999843845478864</v>
       </c>
-      <c r="P69" s="549"/>
+      <c r="P69" s="595"/>
       <c r="AB69" s="33"/>
     </row>
     <row r="70" spans="2:28" x14ac:dyDescent="0.25">
@@ -22911,7 +22923,7 @@
         <f>K70/K65</f>
         <v>1.0000000089707122</v>
       </c>
-      <c r="P70" s="550"/>
+      <c r="P70" s="596"/>
       <c r="AB70" s="33"/>
     </row>
     <row r="71" spans="2:28" x14ac:dyDescent="0.25">
